--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -457,7 +457,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -613,13 +613,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23608,9 +23608,9 @@
   <dimension ref="A1:GU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BV1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CE18" sqref="CE18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23619,8 +23619,8 @@
     <col min="2" max="77" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="87" width="9.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="10.453125" style="18" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.25">
@@ -23785,6 +23785,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24047,6 +24048,9 @@
       </c>
       <c r="CI10" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24312,9 +24316,11 @@
         <v>18245.77194646827</v>
       </c>
       <c r="CI12" s="20">
-        <v>11383.116304659616</v>
-      </c>
-      <c r="CJ12" s="9"/>
+        <v>11707.296323984163</v>
+      </c>
+      <c r="CJ12" s="20">
+        <v>12390.177666515759</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -24691,9 +24697,11 @@
         <v>62583.314874735559</v>
       </c>
       <c r="CI13" s="20">
-        <v>44705.472628929303</v>
-      </c>
-      <c r="CJ13" s="9"/>
+        <v>45928.382212957295</v>
+      </c>
+      <c r="CJ13" s="20">
+        <v>49809.376517540237</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -24897,7 +24905,7 @@
       <c r="CG14" s="21"/>
       <c r="CH14" s="21"/>
       <c r="CI14" s="21"/>
-      <c r="CJ14" s="9"/>
+      <c r="CJ14" s="21"/>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -25274,9 +25282,11 @@
         <v>80829.086821203833</v>
       </c>
       <c r="CI15" s="22">
-        <v>56088.588933588922</v>
-      </c>
-      <c r="CJ15" s="9"/>
+        <v>57635.678536941457</v>
+      </c>
+      <c r="CJ15" s="22">
+        <v>62199.554184055996</v>
+      </c>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -25481,6 +25491,7 @@
       <c r="CG16" s="23"/>
       <c r="CH16" s="23"/>
       <c r="CI16" s="23"/>
+      <c r="CJ16" s="23"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -25574,7 +25585,7 @@
       <c r="CG18" s="21"/>
       <c r="CH18" s="21"/>
       <c r="CI18" s="21"/>
-      <c r="CJ18" s="9"/>
+      <c r="CJ18" s="21"/>
       <c r="CK18" s="9"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
@@ -25778,7 +25789,7 @@
       <c r="CG19" s="24"/>
       <c r="CH19" s="24"/>
       <c r="CI19" s="24"/>
-      <c r="CJ19" s="9"/>
+      <c r="CJ19" s="24"/>
       <c r="CK19" s="9"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
@@ -26059,6 +26070,7 @@
       <c r="CI28" s="29">
         <v>0</v>
       </c>
+      <c r="CJ28" s="29"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -26321,6 +26333,9 @@
       </c>
       <c r="CI29" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ29" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26586,9 +26601,11 @@
         <v>16324.083844096935</v>
       </c>
       <c r="CI31" s="20">
-        <v>10923.721490173564</v>
-      </c>
-      <c r="CJ31" s="9"/>
+        <v>11205.272574840264</v>
+      </c>
+      <c r="CJ31" s="20">
+        <v>11572.246414589978</v>
+      </c>
       <c r="CK31" s="9"/>
       <c r="CL31" s="9"/>
       <c r="CM31" s="9"/>
@@ -26965,9 +26982,11 @@
         <v>53111.261375570801</v>
       </c>
       <c r="CI32" s="20">
-        <v>38873.390486092518</v>
-      </c>
-      <c r="CJ32" s="9"/>
+        <v>39665.793819919112</v>
+      </c>
+      <c r="CJ32" s="20">
+        <v>42418.315360788634</v>
+      </c>
       <c r="CK32" s="9"/>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
@@ -27171,7 +27190,7 @@
       <c r="CG33" s="21"/>
       <c r="CH33" s="21"/>
       <c r="CI33" s="21"/>
-      <c r="CJ33" s="9"/>
+      <c r="CJ33" s="21"/>
       <c r="CK33" s="9"/>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
@@ -27548,9 +27567,11 @@
         <v>69435.345219667739</v>
       </c>
       <c r="CI34" s="22">
-        <v>49797.111976266082</v>
-      </c>
-      <c r="CJ34" s="9"/>
+        <v>50871.066394759378</v>
+      </c>
+      <c r="CJ34" s="22">
+        <v>53990.561775378614</v>
+      </c>
       <c r="CK34" s="9"/>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
@@ -27755,6 +27776,7 @@
       <c r="CG35" s="23"/>
       <c r="CH35" s="23"/>
       <c r="CI35" s="23"/>
+      <c r="CJ35" s="23"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -27848,7 +27870,7 @@
       <c r="CG37" s="21"/>
       <c r="CH37" s="21"/>
       <c r="CI37" s="21"/>
-      <c r="CJ37" s="9"/>
+      <c r="CJ37" s="21"/>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
@@ -28052,7 +28074,7 @@
       <c r="CG38" s="21"/>
       <c r="CH38" s="21"/>
       <c r="CI38" s="21"/>
-      <c r="CJ38" s="9"/>
+      <c r="CJ38" s="21"/>
       <c r="CK38" s="9"/>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
@@ -28331,6 +28353,7 @@
       <c r="CG47" s="25"/>
       <c r="CH47" s="25"/>
       <c r="CI47" s="25"/>
+      <c r="CJ47" s="25"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -28582,10 +28605,13 @@
       <c r="CE48" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="26"/>
+      <c r="CF48" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="CG48" s="26"/>
       <c r="CH48" s="26"/>
       <c r="CI48" s="26"/>
+      <c r="CJ48" s="26"/>
     </row>
     <row r="49" spans="1:199" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -28838,13 +28864,15 @@
         <v>-43.920924356421118</v>
       </c>
       <c r="CE50" s="27">
-        <v>16.358344285211373</v>
-      </c>
-      <c r="CF50" s="21"/>
+        <v>19.672116128472879</v>
+      </c>
+      <c r="CF50" s="27">
+        <v>7.5233299031853988</v>
+      </c>
       <c r="CG50" s="21"/>
       <c r="CH50" s="21"/>
       <c r="CI50" s="21"/>
-      <c r="CJ50" s="9"/>
+      <c r="CJ50" s="21"/>
       <c r="CK50" s="9"/>
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
@@ -29205,13 +29233,15 @@
         <v>-5.5175319670495924</v>
       </c>
       <c r="CE51" s="27">
-        <v>84.355666422646152</v>
-      </c>
-      <c r="CF51" s="21"/>
+        <v>89.398680131715651</v>
+      </c>
+      <c r="CF51" s="27">
+        <v>22.374211448211611</v>
+      </c>
       <c r="CG51" s="21"/>
       <c r="CH51" s="21"/>
       <c r="CI51" s="21"/>
-      <c r="CJ51" s="9"/>
+      <c r="CJ51" s="21"/>
       <c r="CK51" s="9"/>
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
@@ -29412,7 +29442,7 @@
       <c r="CG52" s="21"/>
       <c r="CH52" s="21"/>
       <c r="CI52" s="21"/>
-      <c r="CJ52" s="9"/>
+      <c r="CJ52" s="21"/>
       <c r="CK52" s="9"/>
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
@@ -29773,13 +29803,15 @@
         <v>-18.167492542479494</v>
       </c>
       <c r="CE53" s="27">
-        <v>64.809436209848997</v>
-      </c>
-      <c r="CF53" s="21"/>
+        <v>69.355369173085961</v>
+      </c>
+      <c r="CF53" s="27">
+        <v>19.097468887023197</v>
+      </c>
       <c r="CG53" s="21"/>
       <c r="CH53" s="21"/>
       <c r="CI53" s="21"/>
-      <c r="CJ53" s="9"/>
+      <c r="CJ53" s="21"/>
       <c r="CK53" s="9"/>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
@@ -29980,6 +30012,7 @@
       <c r="CG54" s="23"/>
       <c r="CH54" s="23"/>
       <c r="CI54" s="23"/>
+      <c r="CJ54" s="23"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
@@ -30073,7 +30106,7 @@
       <c r="CG56" s="21"/>
       <c r="CH56" s="21"/>
       <c r="CI56" s="21"/>
-      <c r="CJ56" s="9"/>
+      <c r="CJ56" s="21"/>
       <c r="CK56" s="9"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
@@ -30273,7 +30306,7 @@
       <c r="CG57" s="21"/>
       <c r="CH57" s="21"/>
       <c r="CI57" s="21"/>
-      <c r="CJ57" s="9"/>
+      <c r="CJ57" s="21"/>
       <c r="CK57" s="9"/>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
@@ -30544,10 +30577,11 @@
       <c r="CE66" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="CF66" s="25"/>
+      <c r="CF66" s="29"/>
       <c r="CG66" s="25"/>
       <c r="CH66" s="25"/>
       <c r="CI66" s="25"/>
+      <c r="CJ66" s="25"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -30799,10 +30833,13 @@
       <c r="CE67" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="26"/>
+      <c r="CF67" s="28" t="s">
+        <v>10</v>
+      </c>
       <c r="CG67" s="26"/>
       <c r="CH67" s="26"/>
       <c r="CI67" s="26"/>
+      <c r="CJ67" s="26"/>
     </row>
     <row r="68" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -31055,13 +31092,15 @@
         <v>-45.42081912227718</v>
       </c>
       <c r="CE69" s="27">
-        <v>14.748959553244376</v>
-      </c>
-      <c r="CF69" s="21"/>
+        <v>17.706531664145729</v>
+      </c>
+      <c r="CF69" s="27">
+        <v>7.2446196930624325</v>
+      </c>
       <c r="CG69" s="21"/>
       <c r="CH69" s="21"/>
       <c r="CI69" s="21"/>
-      <c r="CJ69" s="9"/>
+      <c r="CJ69" s="21"/>
       <c r="CK69" s="9"/>
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
@@ -31422,13 +31461,15 @@
         <v>-11.01783314639755</v>
       </c>
       <c r="CE70" s="27">
-        <v>69.437789297040439</v>
-      </c>
-      <c r="CF70" s="21"/>
+        <v>72.891644683367417</v>
+      </c>
+      <c r="CF70" s="27">
+        <v>12.706249069225748</v>
+      </c>
       <c r="CG70" s="21"/>
       <c r="CH70" s="21"/>
       <c r="CI70" s="21"/>
-      <c r="CJ70" s="9"/>
+      <c r="CJ70" s="21"/>
       <c r="CK70" s="9"/>
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
@@ -31628,7 +31669,7 @@
       <c r="CG71" s="21"/>
       <c r="CH71" s="21"/>
       <c r="CI71" s="21"/>
-      <c r="CJ71" s="9"/>
+      <c r="CJ71" s="21"/>
       <c r="CK71" s="9"/>
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
@@ -31989,13 +32030,15 @@
         <v>-22.502192157894143</v>
       </c>
       <c r="CE72" s="27">
-        <v>53.400093857876129</v>
-      </c>
-      <c r="CF72" s="21"/>
+        <v>56.708412393988681</v>
+      </c>
+      <c r="CF72" s="27">
+        <v>11.489279697206811</v>
+      </c>
       <c r="CG72" s="21"/>
       <c r="CH72" s="21"/>
       <c r="CI72" s="21"/>
-      <c r="CJ72" s="9"/>
+      <c r="CJ72" s="21"/>
       <c r="CK72" s="9"/>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
@@ -32196,6 +32239,7 @@
       <c r="CG73" s="23"/>
       <c r="CH73" s="23"/>
       <c r="CI73" s="23"/>
+      <c r="CJ73" s="23"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
@@ -32289,7 +32333,7 @@
       <c r="CG75" s="21"/>
       <c r="CH75" s="21"/>
       <c r="CI75" s="21"/>
-      <c r="CJ75" s="9"/>
+      <c r="CJ75" s="21"/>
       <c r="CK75" s="9"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
@@ -32493,7 +32537,7 @@
       <c r="CG76" s="21"/>
       <c r="CH76" s="21"/>
       <c r="CI76" s="21"/>
-      <c r="CJ76" s="9"/>
+      <c r="CJ76" s="21"/>
       <c r="CK76" s="9"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
@@ -32769,6 +32813,7 @@
       <c r="CI84" s="29">
         <v>0</v>
       </c>
+      <c r="CJ84" s="29"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -33031,6 +33076,9 @@
       </c>
       <c r="CI85" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ85" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33296,9 +33344,11 @@
         <v>111.77210384805913</v>
       </c>
       <c r="CI87" s="27">
-        <v>104.20547901096984</v>
-      </c>
-      <c r="CJ87" s="9"/>
+        <v>104.48024575744026</v>
+      </c>
+      <c r="CJ87" s="27">
+        <v>107.06804212961241</v>
+      </c>
       <c r="CK87" s="9"/>
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
@@ -33675,9 +33725,11 @@
         <v>117.834359896264</v>
       </c>
       <c r="CI88" s="27">
-        <v>115.00276170899807</v>
-      </c>
-      <c r="CJ88" s="9"/>
+        <v>115.78838538179785</v>
+      </c>
+      <c r="CJ88" s="27">
+        <v>117.42422133903008</v>
+      </c>
       <c r="CK88" s="9"/>
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
@@ -33881,7 +33933,7 @@
       <c r="CG89" s="21"/>
       <c r="CH89" s="21"/>
       <c r="CI89" s="21"/>
-      <c r="CJ89" s="9"/>
+      <c r="CJ89" s="21"/>
       <c r="CK89" s="9"/>
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
@@ -34258,9 +34310,11 @@
         <v>116.40913797647367</v>
       </c>
       <c r="CI90" s="27">
-        <v>112.63422055544392</v>
-      </c>
-      <c r="CJ90" s="9"/>
+        <v>113.29756307777923</v>
+      </c>
+      <c r="CJ90" s="27">
+        <v>115.2044952649871</v>
+      </c>
       <c r="CK90" s="9"/>
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
@@ -34465,6 +34519,7 @@
       <c r="CG91" s="23"/>
       <c r="CH91" s="23"/>
       <c r="CI91" s="23"/>
+      <c r="CJ91" s="23"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
@@ -34635,6 +34690,7 @@
       <c r="CI103" s="29">
         <v>0</v>
       </c>
+      <c r="CJ103" s="29"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -34897,6 +34953,9 @@
       </c>
       <c r="CI104" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ104" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35162,9 +35221,11 @@
         <v>22.573274874215045</v>
       </c>
       <c r="CI106" s="27">
-        <v>20.294887999656524</v>
-      </c>
-      <c r="CJ106" s="9"/>
+        <v>20.312585227014196</v>
+      </c>
+      <c r="CJ106" s="27">
+        <v>19.920042561481594</v>
+      </c>
       <c r="CK106" s="9"/>
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
@@ -35541,9 +35602,11 @@
         <v>77.426725125784941</v>
       </c>
       <c r="CI107" s="27">
-        <v>79.705112000343476</v>
-      </c>
-      <c r="CJ107" s="9"/>
+        <v>79.687414772985804</v>
+      </c>
+      <c r="CJ107" s="27">
+        <v>80.079957438518406</v>
+      </c>
       <c r="CK107" s="9"/>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
@@ -35747,7 +35810,7 @@
       <c r="CG108" s="21"/>
       <c r="CH108" s="21"/>
       <c r="CI108" s="21"/>
-      <c r="CJ108" s="9"/>
+      <c r="CJ108" s="21"/>
       <c r="CK108" s="9"/>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
@@ -36126,7 +36189,9 @@
       <c r="CI109" s="27">
         <v>100</v>
       </c>
-      <c r="CJ109" s="9"/>
+      <c r="CJ109" s="27">
+        <v>100</v>
+      </c>
       <c r="CK109" s="9"/>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
@@ -36331,6 +36396,7 @@
       <c r="CG110" s="23"/>
       <c r="CH110" s="23"/>
       <c r="CI110" s="23"/>
+      <c r="CJ110" s="23"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
@@ -36424,7 +36490,7 @@
       <c r="CG112" s="21"/>
       <c r="CH112" s="21"/>
       <c r="CI112" s="21"/>
-      <c r="CJ112" s="9"/>
+      <c r="CJ112" s="21"/>
       <c r="CK112" s="9"/>
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
@@ -36628,7 +36694,7 @@
       <c r="CG113" s="21"/>
       <c r="CH113" s="21"/>
       <c r="CI113" s="21"/>
-      <c r="CJ113" s="9"/>
+      <c r="CJ113" s="21"/>
       <c r="CK113" s="9"/>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
@@ -36909,6 +36975,7 @@
       <c r="CI122" s="29">
         <v>0</v>
       </c>
+      <c r="CJ122" s="29"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -37171,6 +37238,9 @@
       </c>
       <c r="CI123" s="19" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ123" s="19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37436,9 +37506,11 @@
         <v>23.509761192161676</v>
       </c>
       <c r="CI125" s="27">
-        <v>21.936455863906211</v>
-      </c>
-      <c r="CJ125" s="9"/>
+        <v>22.02680888953137</v>
+      </c>
+      <c r="CJ125" s="27">
+        <v>21.433832199662874</v>
+      </c>
       <c r="CK125" s="9"/>
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
@@ -37815,9 +37887,11 @@
         <v>76.490238807838324</v>
       </c>
       <c r="CI126" s="27">
-        <v>78.063544136093782</v>
-      </c>
-      <c r="CJ126" s="9"/>
+        <v>77.973191110468619</v>
+      </c>
+      <c r="CJ126" s="27">
+        <v>78.566167800337112</v>
+      </c>
       <c r="CK126" s="9"/>
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
@@ -38021,7 +38095,7 @@
       <c r="CG127" s="21"/>
       <c r="CH127" s="21"/>
       <c r="CI127" s="21"/>
-      <c r="CJ127" s="9"/>
+      <c r="CJ127" s="21"/>
       <c r="CK127" s="9"/>
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
@@ -38400,7 +38474,9 @@
       <c r="CI128" s="27">
         <v>100</v>
       </c>
-      <c r="CJ128" s="9"/>
+      <c r="CJ128" s="27">
+        <v>100</v>
+      </c>
       <c r="CK128" s="9"/>
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
@@ -38605,6 +38681,7 @@
       <c r="CG129" s="23"/>
       <c r="CH129" s="23"/>
       <c r="CI129" s="23"/>
+      <c r="CJ129" s="23"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
@@ -38699,7 +38776,7 @@
       <c r="CG131" s="18"/>
       <c r="CH131" s="18"/>
       <c r="CI131" s="18"/>
-      <c r="CJ131" s="16"/>
+      <c r="CJ131" s="18"/>
       <c r="CK131" s="16"/>
       <c r="CL131" s="16"/>
       <c r="CM131" s="16"/>
@@ -38904,7 +38981,7 @@
       <c r="CG132" s="18"/>
       <c r="CH132" s="18"/>
       <c r="CI132" s="18"/>
-      <c r="CJ132" s="16"/>
+      <c r="CJ132" s="18"/>
       <c r="CK132" s="16"/>
       <c r="CL132" s="16"/>
       <c r="CM132" s="16"/>
@@ -39023,7 +39100,6 @@
     </row>
   </sheetData>
   <mergeCells count="152">
-    <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -39033,13 +39109,10 @@
     <mergeCell ref="J84:M84"/>
     <mergeCell ref="N84:Q84"/>
     <mergeCell ref="R84:U84"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
     <mergeCell ref="B103:E103"/>
     <mergeCell ref="F103:I103"/>
     <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
     <mergeCell ref="BV122:BY122"/>
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BR103:BU103"/>
@@ -39064,14 +39137,6 @@
     <mergeCell ref="BN122:BQ122"/>
     <mergeCell ref="BF103:BI103"/>
     <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="V84:Y84"/>
     <mergeCell ref="Z84:AC84"/>
@@ -39087,6 +39152,7 @@
     <mergeCell ref="BB84:BE84"/>
     <mergeCell ref="BJ84:BM84"/>
     <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="F66:I66"/>
@@ -39097,6 +39163,14 @@
     <mergeCell ref="Z66:AC66"/>
     <mergeCell ref="AD66:AG66"/>
     <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="V103:Y103"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -39118,6 +39192,9 @@
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BJ47:BM47"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="N47:Q47"/>
     <mergeCell ref="R47:U47"/>
@@ -39151,13 +39228,13 @@
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="F47:I47"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH28:CI28"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH28:CJ28"/>
+    <mergeCell ref="CD66:CF66"/>
+    <mergeCell ref="CH84:CJ84"/>
+    <mergeCell ref="CH103:CJ103"/>
+    <mergeCell ref="CH122:CJ122"/>
     <mergeCell ref="CD47:CE47"/>
-    <mergeCell ref="CD66:CE66"/>
-    <mergeCell ref="CH84:CI84"/>
-    <mergeCell ref="CH103:CI103"/>
-    <mergeCell ref="CH122:CI122"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>

--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,16 +610,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23608,9 +23605,9 @@
   <dimension ref="A1:GU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CE1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CE18" sqref="CE18"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23619,8 +23616,8 @@
     <col min="2" max="77" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="88" width="10.453125" style="18" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="9.08984375" style="18" bestFit="1" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.25">
@@ -23635,7 +23632,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.25">
@@ -23645,7 +23642,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.25">
@@ -23786,6 +23783,7 @@
       </c>
       <c r="CI9" s="29"/>
       <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24051,6 +24049,9 @@
       </c>
       <c r="CJ10" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24319,9 +24320,11 @@
         <v>11707.296323984163</v>
       </c>
       <c r="CJ12" s="20">
-        <v>12390.177666515759</v>
-      </c>
-      <c r="CK12" s="9"/>
+        <v>12459.525229223858</v>
+      </c>
+      <c r="CK12" s="20">
+        <v>22280.105480083541</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -24700,9 +24703,11 @@
         <v>45928.382212957295</v>
       </c>
       <c r="CJ13" s="20">
-        <v>49809.376517540237</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>49714.824843268842</v>
+      </c>
+      <c r="CK13" s="20">
+        <v>64796.751742626409</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -24906,7 +24911,7 @@
       <c r="CH14" s="21"/>
       <c r="CI14" s="21"/>
       <c r="CJ14" s="21"/>
-      <c r="CK14" s="9"/>
+      <c r="CK14" s="21"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -25285,9 +25290,11 @@
         <v>57635.678536941457</v>
       </c>
       <c r="CJ15" s="22">
-        <v>62199.554184055996</v>
-      </c>
-      <c r="CK15" s="9"/>
+        <v>62174.3500724927</v>
+      </c>
+      <c r="CK15" s="22">
+        <v>87076.85722270995</v>
+      </c>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -25492,6 +25499,7 @@
       <c r="CH16" s="23"/>
       <c r="CI16" s="23"/>
       <c r="CJ16" s="23"/>
+      <c r="CK16" s="23"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
@@ -25586,7 +25594,7 @@
       <c r="CH18" s="21"/>
       <c r="CI18" s="21"/>
       <c r="CJ18" s="21"/>
-      <c r="CK18" s="9"/>
+      <c r="CK18" s="21"/>
       <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
@@ -25790,7 +25798,7 @@
       <c r="CH19" s="24"/>
       <c r="CI19" s="24"/>
       <c r="CJ19" s="24"/>
-      <c r="CK19" s="9"/>
+      <c r="CK19" s="24"/>
       <c r="CL19" s="9"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
@@ -25918,7 +25926,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.25">
@@ -25928,7 +25936,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.25">
@@ -26067,10 +26075,9 @@
       <c r="CH28" s="29">
         <v>2021</v>
       </c>
-      <c r="CI28" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI28" s="29"/>
       <c r="CJ28" s="29"/>
+      <c r="CK28" s="29"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
@@ -26336,6 +26343,9 @@
       </c>
       <c r="CJ29" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CK29" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26604,9 +26614,11 @@
         <v>11205.272574840264</v>
       </c>
       <c r="CJ31" s="20">
-        <v>11572.246414589978</v>
-      </c>
-      <c r="CK31" s="9"/>
+        <v>11669.937422466039</v>
+      </c>
+      <c r="CK31" s="20">
+        <v>20616.592863797836</v>
+      </c>
       <c r="CL31" s="9"/>
       <c r="CM31" s="9"/>
       <c r="CN31" s="9"/>
@@ -26985,9 +26997,11 @@
         <v>39665.793819919112</v>
       </c>
       <c r="CJ32" s="20">
-        <v>42418.315360788634</v>
-      </c>
-      <c r="CK32" s="9"/>
+        <v>42474.287734108526</v>
+      </c>
+      <c r="CK32" s="20">
+        <v>55384.563427847635</v>
+      </c>
       <c r="CL32" s="9"/>
       <c r="CM32" s="9"/>
       <c r="CN32" s="9"/>
@@ -27191,7 +27205,7 @@
       <c r="CH33" s="21"/>
       <c r="CI33" s="21"/>
       <c r="CJ33" s="21"/>
-      <c r="CK33" s="9"/>
+      <c r="CK33" s="21"/>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
@@ -27570,9 +27584,11 @@
         <v>50871.066394759378</v>
       </c>
       <c r="CJ34" s="22">
-        <v>53990.561775378614</v>
-      </c>
-      <c r="CK34" s="9"/>
+        <v>54144.225156574568</v>
+      </c>
+      <c r="CK34" s="22">
+        <v>76001.156291645471</v>
+      </c>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
@@ -27777,6 +27793,7 @@
       <c r="CH35" s="23"/>
       <c r="CI35" s="23"/>
       <c r="CJ35" s="23"/>
+      <c r="CK35" s="23"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
@@ -27871,7 +27888,7 @@
       <c r="CH37" s="21"/>
       <c r="CI37" s="21"/>
       <c r="CJ37" s="21"/>
-      <c r="CK37" s="9"/>
+      <c r="CK37" s="21"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
@@ -28075,7 +28092,7 @@
       <c r="CH38" s="21"/>
       <c r="CI38" s="21"/>
       <c r="CJ38" s="21"/>
-      <c r="CK38" s="9"/>
+      <c r="CK38" s="21"/>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
@@ -28203,7 +28220,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.25">
@@ -28213,7 +28230,7 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.25">
@@ -28346,14 +28363,13 @@
       <c r="CD47" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="CF47" s="25"/>
-      <c r="CG47" s="25"/>
+      <c r="CE47" s="29"/>
+      <c r="CF47" s="29"/>
+      <c r="CG47" s="29"/>
       <c r="CH47" s="25"/>
       <c r="CI47" s="25"/>
       <c r="CJ47" s="25"/>
+      <c r="CK47" s="25"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -28608,10 +28624,13 @@
       <c r="CF48" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="26"/>
+      <c r="CG48" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="CH48" s="26"/>
       <c r="CI48" s="26"/>
       <c r="CJ48" s="26"/>
+      <c r="CK48" s="26"/>
     </row>
     <row r="49" spans="1:199" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
@@ -28867,13 +28886,15 @@
         <v>19.672116128472879</v>
       </c>
       <c r="CF50" s="27">
-        <v>7.5233299031853988</v>
-      </c>
-      <c r="CG50" s="21"/>
+        <v>8.1251357096667505</v>
+      </c>
+      <c r="CG50" s="27">
+        <v>35.59392037530796</v>
+      </c>
       <c r="CH50" s="21"/>
       <c r="CI50" s="21"/>
       <c r="CJ50" s="21"/>
-      <c r="CK50" s="9"/>
+      <c r="CK50" s="21"/>
       <c r="CL50" s="9"/>
       <c r="CM50" s="9"/>
       <c r="CN50" s="9"/>
@@ -29236,13 +29257,15 @@
         <v>89.398680131715651</v>
       </c>
       <c r="CF51" s="27">
-        <v>22.374211448211611</v>
-      </c>
-      <c r="CG51" s="21"/>
+        <v>22.141912082328247</v>
+      </c>
+      <c r="CG51" s="27">
+        <v>24.14900432202964</v>
+      </c>
       <c r="CH51" s="21"/>
       <c r="CI51" s="21"/>
       <c r="CJ51" s="21"/>
-      <c r="CK51" s="9"/>
+      <c r="CK51" s="21"/>
       <c r="CL51" s="9"/>
       <c r="CM51" s="9"/>
       <c r="CN51" s="9"/>
@@ -29443,7 +29466,7 @@
       <c r="CH52" s="21"/>
       <c r="CI52" s="21"/>
       <c r="CJ52" s="21"/>
-      <c r="CK52" s="9"/>
+      <c r="CK52" s="21"/>
       <c r="CL52" s="9"/>
       <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
@@ -29806,13 +29829,15 @@
         <v>69.355369173085961</v>
       </c>
       <c r="CF53" s="27">
-        <v>19.097468887023197</v>
-      </c>
-      <c r="CG53" s="21"/>
+        <v>19.049208960853122</v>
+      </c>
+      <c r="CG53" s="27">
+        <v>26.88939329550044</v>
+      </c>
       <c r="CH53" s="21"/>
       <c r="CI53" s="21"/>
       <c r="CJ53" s="21"/>
-      <c r="CK53" s="9"/>
+      <c r="CK53" s="21"/>
       <c r="CL53" s="9"/>
       <c r="CM53" s="9"/>
       <c r="CN53" s="9"/>
@@ -30013,6 +30038,7 @@
       <c r="CH54" s="23"/>
       <c r="CI54" s="23"/>
       <c r="CJ54" s="23"/>
+      <c r="CK54" s="23"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
@@ -30107,7 +30133,7 @@
       <c r="CH56" s="21"/>
       <c r="CI56" s="21"/>
       <c r="CJ56" s="21"/>
-      <c r="CK56" s="9"/>
+      <c r="CK56" s="21"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
@@ -30307,7 +30333,7 @@
       <c r="CH57" s="21"/>
       <c r="CI57" s="21"/>
       <c r="CJ57" s="21"/>
-      <c r="CK57" s="9"/>
+      <c r="CK57" s="21"/>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
@@ -30431,7 +30457,7 @@
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.25">
@@ -30441,7 +30467,7 @@
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.25">
@@ -30574,14 +30600,13 @@
       <c r="CD66" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="29" t="s">
-        <v>47</v>
-      </c>
+      <c r="CE66" s="29"/>
       <c r="CF66" s="29"/>
-      <c r="CG66" s="25"/>
+      <c r="CG66" s="29"/>
       <c r="CH66" s="25"/>
       <c r="CI66" s="25"/>
       <c r="CJ66" s="25"/>
+      <c r="CK66" s="25"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
@@ -30836,10 +30861,13 @@
       <c r="CF67" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="26"/>
+      <c r="CG67" s="28" t="s">
+        <v>9</v>
+      </c>
       <c r="CH67" s="26"/>
       <c r="CI67" s="26"/>
       <c r="CJ67" s="26"/>
+      <c r="CK67" s="26"/>
     </row>
     <row r="68" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
@@ -31095,13 +31123,15 @@
         <v>17.706531664145729</v>
       </c>
       <c r="CF69" s="27">
-        <v>7.2446196930624325</v>
-      </c>
-      <c r="CG69" s="21"/>
+        <v>8.1499611982252702</v>
+      </c>
+      <c r="CG69" s="27">
+        <v>33.698521488341271</v>
+      </c>
       <c r="CH69" s="21"/>
       <c r="CI69" s="21"/>
       <c r="CJ69" s="21"/>
-      <c r="CK69" s="9"/>
+      <c r="CK69" s="21"/>
       <c r="CL69" s="9"/>
       <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
@@ -31464,13 +31494,15 @@
         <v>72.891644683367417</v>
       </c>
       <c r="CF70" s="27">
-        <v>12.706249069225748</v>
-      </c>
-      <c r="CG70" s="21"/>
+        <v>12.854968701175579</v>
+      </c>
+      <c r="CG70" s="27">
+        <v>19.149829621572295</v>
+      </c>
       <c r="CH70" s="21"/>
       <c r="CI70" s="21"/>
       <c r="CJ70" s="21"/>
-      <c r="CK70" s="9"/>
+      <c r="CK70" s="21"/>
       <c r="CL70" s="9"/>
       <c r="CM70" s="9"/>
       <c r="CN70" s="9"/>
@@ -31670,7 +31702,7 @@
       <c r="CH71" s="21"/>
       <c r="CI71" s="21"/>
       <c r="CJ71" s="21"/>
-      <c r="CK71" s="9"/>
+      <c r="CK71" s="21"/>
       <c r="CL71" s="9"/>
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
@@ -32033,13 +32065,15 @@
         <v>56.708412393988681</v>
       </c>
       <c r="CF72" s="27">
-        <v>11.489279697206811</v>
-      </c>
-      <c r="CG72" s="21"/>
+        <v>11.806591077604182</v>
+      </c>
+      <c r="CG72" s="27">
+        <v>22.773929792644964</v>
+      </c>
       <c r="CH72" s="21"/>
       <c r="CI72" s="21"/>
       <c r="CJ72" s="21"/>
-      <c r="CK72" s="9"/>
+      <c r="CK72" s="21"/>
       <c r="CL72" s="9"/>
       <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
@@ -32240,6 +32274,7 @@
       <c r="CH73" s="23"/>
       <c r="CI73" s="23"/>
       <c r="CJ73" s="23"/>
+      <c r="CK73" s="23"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
@@ -32334,7 +32369,7 @@
       <c r="CH75" s="21"/>
       <c r="CI75" s="21"/>
       <c r="CJ75" s="21"/>
-      <c r="CK75" s="9"/>
+      <c r="CK75" s="21"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
@@ -32538,7 +32573,7 @@
       <c r="CH76" s="21"/>
       <c r="CI76" s="21"/>
       <c r="CJ76" s="21"/>
-      <c r="CK76" s="9"/>
+      <c r="CK76" s="21"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
@@ -32661,7 +32696,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.25">
@@ -32671,7 +32706,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.25">
@@ -32810,10 +32845,9 @@
       <c r="CH84" s="29">
         <v>2021</v>
       </c>
-      <c r="CI84" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI84" s="29"/>
       <c r="CJ84" s="29"/>
+      <c r="CK84" s="29"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -33079,6 +33113,9 @@
       </c>
       <c r="CJ85" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CK85" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -33347,9 +33384,11 @@
         <v>104.48024575744026</v>
       </c>
       <c r="CJ87" s="27">
-        <v>107.06804212961241</v>
-      </c>
-      <c r="CK87" s="9"/>
+        <v>106.76599863541485</v>
+      </c>
+      <c r="CK87" s="27">
+        <v>108.06880471121292</v>
+      </c>
       <c r="CL87" s="9"/>
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
@@ -33728,9 +33767,11 @@
         <v>115.78838538179785</v>
       </c>
       <c r="CJ88" s="27">
-        <v>117.42422133903008</v>
-      </c>
-      <c r="CK88" s="9"/>
+        <v>117.0468711670611</v>
+      </c>
+      <c r="CK88" s="27">
+        <v>116.99424484412614</v>
+      </c>
       <c r="CL88" s="9"/>
       <c r="CM88" s="9"/>
       <c r="CN88" s="9"/>
@@ -33934,7 +33975,7 @@
       <c r="CH89" s="21"/>
       <c r="CI89" s="21"/>
       <c r="CJ89" s="21"/>
-      <c r="CK89" s="9"/>
+      <c r="CK89" s="21"/>
       <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
       <c r="CN89" s="9"/>
@@ -34313,9 +34354,11 @@
         <v>113.29756307777923</v>
       </c>
       <c r="CJ90" s="27">
-        <v>115.2044952649871</v>
-      </c>
-      <c r="CK90" s="9"/>
+        <v>114.83099054921659</v>
+      </c>
+      <c r="CK90" s="27">
+        <v>114.57306897879656</v>
+      </c>
       <c r="CL90" s="9"/>
       <c r="CM90" s="9"/>
       <c r="CN90" s="9"/>
@@ -34520,6 +34563,7 @@
       <c r="CH91" s="23"/>
       <c r="CI91" s="23"/>
       <c r="CJ91" s="23"/>
+      <c r="CK91" s="23"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
@@ -34538,7 +34582,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.25">
@@ -34548,7 +34592,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.25">
@@ -34687,10 +34731,9 @@
       <c r="CH103" s="29">
         <v>2021</v>
       </c>
-      <c r="CI103" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI103" s="29"/>
       <c r="CJ103" s="29"/>
+      <c r="CK103" s="29"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
@@ -34956,6 +34999,9 @@
       </c>
       <c r="CJ104" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CK104" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -35224,9 +35270,11 @@
         <v>20.312585227014196</v>
       </c>
       <c r="CJ106" s="27">
-        <v>19.920042561481594</v>
-      </c>
-      <c r="CK106" s="9"/>
+        <v>20.039654961727095</v>
+      </c>
+      <c r="CK106" s="27">
+        <v>25.586712923158661</v>
+      </c>
       <c r="CL106" s="9"/>
       <c r="CM106" s="9"/>
       <c r="CN106" s="9"/>
@@ -35605,9 +35653,11 @@
         <v>79.687414772985804</v>
       </c>
       <c r="CJ107" s="27">
-        <v>80.079957438518406</v>
-      </c>
-      <c r="CK107" s="9"/>
+        <v>79.960345038272905</v>
+      </c>
+      <c r="CK107" s="27">
+        <v>74.413287076841343</v>
+      </c>
       <c r="CL107" s="9"/>
       <c r="CM107" s="9"/>
       <c r="CN107" s="9"/>
@@ -35811,7 +35861,7 @@
       <c r="CH108" s="21"/>
       <c r="CI108" s="21"/>
       <c r="CJ108" s="21"/>
-      <c r="CK108" s="9"/>
+      <c r="CK108" s="21"/>
       <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
@@ -36192,7 +36242,9 @@
       <c r="CJ109" s="27">
         <v>100</v>
       </c>
-      <c r="CK109" s="9"/>
+      <c r="CK109" s="27">
+        <v>100</v>
+      </c>
       <c r="CL109" s="9"/>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
@@ -36397,6 +36449,7 @@
       <c r="CH110" s="23"/>
       <c r="CI110" s="23"/>
       <c r="CJ110" s="23"/>
+      <c r="CK110" s="23"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
@@ -36491,7 +36544,7 @@
       <c r="CH112" s="21"/>
       <c r="CI112" s="21"/>
       <c r="CJ112" s="21"/>
-      <c r="CK112" s="9"/>
+      <c r="CK112" s="21"/>
       <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
@@ -36695,7 +36748,7 @@
       <c r="CH113" s="21"/>
       <c r="CI113" s="21"/>
       <c r="CJ113" s="21"/>
-      <c r="CK113" s="9"/>
+      <c r="CK113" s="21"/>
       <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
@@ -36823,7 +36876,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.25">
@@ -36833,7 +36886,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.25">
@@ -36972,10 +37025,9 @@
       <c r="CH122" s="29">
         <v>2021</v>
       </c>
-      <c r="CI122" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI122" s="29"/>
       <c r="CJ122" s="29"/>
+      <c r="CK122" s="29"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
@@ -37241,6 +37293,9 @@
       </c>
       <c r="CJ123" s="19" t="s">
         <v>10</v>
+      </c>
+      <c r="CK123" s="19" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37509,9 +37564,11 @@
         <v>22.02680888953137</v>
       </c>
       <c r="CJ125" s="27">
-        <v>21.433832199662874</v>
-      </c>
-      <c r="CK125" s="9"/>
+        <v>21.553429546214485</v>
+      </c>
+      <c r="CK125" s="27">
+        <v>27.126683158193138</v>
+      </c>
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
@@ -37890,9 +37947,11 @@
         <v>77.973191110468619</v>
       </c>
       <c r="CJ126" s="27">
-        <v>78.566167800337112</v>
-      </c>
-      <c r="CK126" s="9"/>
+        <v>78.446570453785512</v>
+      </c>
+      <c r="CK126" s="27">
+        <v>72.873316841806869</v>
+      </c>
       <c r="CL126" s="9"/>
       <c r="CM126" s="9"/>
       <c r="CN126" s="9"/>
@@ -38096,7 +38155,7 @@
       <c r="CH127" s="21"/>
       <c r="CI127" s="21"/>
       <c r="CJ127" s="21"/>
-      <c r="CK127" s="9"/>
+      <c r="CK127" s="21"/>
       <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
@@ -38477,7 +38536,9 @@
       <c r="CJ128" s="27">
         <v>100</v>
       </c>
-      <c r="CK128" s="9"/>
+      <c r="CK128" s="27">
+        <v>100</v>
+      </c>
       <c r="CL128" s="9"/>
       <c r="CM128" s="9"/>
       <c r="CN128" s="9"/>
@@ -38682,6 +38743,7 @@
       <c r="CH129" s="23"/>
       <c r="CI129" s="23"/>
       <c r="CJ129" s="23"/>
+      <c r="CK129" s="23"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
@@ -38777,7 +38839,7 @@
       <c r="CH131" s="18"/>
       <c r="CI131" s="18"/>
       <c r="CJ131" s="18"/>
-      <c r="CK131" s="16"/>
+      <c r="CK131" s="18"/>
       <c r="CL131" s="16"/>
       <c r="CM131" s="16"/>
       <c r="CN131" s="16"/>
@@ -38982,7 +39044,7 @@
       <c r="CH132" s="18"/>
       <c r="CI132" s="18"/>
       <c r="CJ132" s="18"/>
-      <c r="CK132" s="16"/>
+      <c r="CK132" s="18"/>
       <c r="CL132" s="16"/>
       <c r="CM132" s="16"/>
       <c r="CN132" s="16"/>
@@ -39228,13 +39290,13 @@
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="F47:I47"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH28:CJ28"/>
-    <mergeCell ref="CD66:CF66"/>
-    <mergeCell ref="CH84:CJ84"/>
-    <mergeCell ref="CH103:CJ103"/>
-    <mergeCell ref="CH122:CJ122"/>
-    <mergeCell ref="CD47:CE47"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>

--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1983594C-C1E3-4607-9E86-E22EF186A8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -322,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CI$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CK$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -610,24 +611,27 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -701,9 +705,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -718,35 +722,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -756,14 +769,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23345,7 +23361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23397,7 +23413,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23598,194 +23614,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:GU132"/>
+  <dimension ref="A1:GU150"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A43" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CP74" sqref="CP74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
-    <col min="2" max="77" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="89" width="9.08984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
+    <col min="2" max="77" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="9.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="79" max="90" width="9.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="37">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="37">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="37"/>
+      <c r="AF9" s="37"/>
+      <c r="AG9" s="37"/>
+      <c r="AH9" s="37">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="37"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="37"/>
+      <c r="AZ9" s="37"/>
+      <c r="BA9" s="37"/>
+      <c r="BB9" s="37">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="37"/>
+      <c r="BD9" s="37"/>
+      <c r="BE9" s="37"/>
+      <c r="BF9" s="37">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="37"/>
+      <c r="BH9" s="37"/>
+      <c r="BI9" s="37"/>
+      <c r="BJ9" s="37">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="37"/>
+      <c r="BL9" s="37"/>
+      <c r="BM9" s="37"/>
+      <c r="BN9" s="37">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="37"/>
+      <c r="BP9" s="37"/>
+      <c r="BQ9" s="37"/>
+      <c r="BR9" s="37">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="37"/>
+      <c r="BT9" s="37"/>
+      <c r="BU9" s="37"/>
+      <c r="BV9" s="37">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="37"/>
+      <c r="BX9" s="37"/>
+      <c r="BY9" s="37"/>
+      <c r="BZ9" s="36">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
+      <c r="CH9" s="36">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
+      <c r="CI9" s="36"/>
+      <c r="CJ9" s="36"/>
+      <c r="CK9" s="36"/>
+      <c r="CL9" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24017,16 +24035,16 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="6" t="s">
+      <c r="BZ10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="6" t="s">
+      <c r="CA10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="6" t="s">
+      <c r="CB10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="6" t="s">
+      <c r="CC10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="19" t="s">
@@ -24053,11 +24071,14 @@
       <c r="CK10" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24289,16 +24310,16 @@
       <c r="BY12" s="8">
         <v>40362.130634180307</v>
       </c>
-      <c r="BZ12" s="8">
+      <c r="BZ12" s="20">
         <v>40200.920446033299</v>
       </c>
-      <c r="CA12" s="8">
+      <c r="CA12" s="20">
         <v>35405.087038760299</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CB12" s="20">
         <v>40027.320209709702</v>
       </c>
-      <c r="CC12" s="8">
+      <c r="CC12" s="20">
         <v>41915.822312789198</v>
       </c>
       <c r="CD12" s="20">
@@ -24311,7 +24332,7 @@
         <v>11523.24586456906</v>
       </c>
       <c r="CG12" s="20">
-        <v>16431.492959577274</v>
+        <v>16316.674780339399</v>
       </c>
       <c r="CH12" s="20">
         <v>18245.77194646827</v>
@@ -24320,12 +24341,14 @@
         <v>11707.296323984163</v>
       </c>
       <c r="CJ12" s="20">
-        <v>12459.525229223858</v>
+        <v>12514.2688316575</v>
       </c>
       <c r="CK12" s="20">
-        <v>22280.105480083541</v>
-      </c>
-      <c r="CL12" s="9"/>
+        <v>21042.815017700836</v>
+      </c>
+      <c r="CL12" s="20">
+        <v>22433.629495157711</v>
+      </c>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
@@ -24440,7 +24463,7 @@
       <c r="GT12" s="9"/>
       <c r="GU12" s="9"/>
     </row>
-    <row r="13" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24672,16 +24695,16 @@
       <c r="BY13" s="8">
         <v>70449.849648471776</v>
       </c>
-      <c r="BZ13" s="8">
+      <c r="BZ13" s="20">
         <v>69744.321138571904</v>
       </c>
-      <c r="CA13" s="8">
+      <c r="CA13" s="20">
         <v>61154.78267717571</v>
       </c>
-      <c r="CB13" s="8">
+      <c r="CB13" s="20">
         <v>68940.7104903258</v>
       </c>
-      <c r="CC13" s="8">
+      <c r="CC13" s="20">
         <v>74388.714998208394</v>
       </c>
       <c r="CD13" s="20">
@@ -24694,7 +24717,7 @@
         <v>40702.51070718393</v>
       </c>
       <c r="CG13" s="20">
-        <v>52192.727679515141</v>
+        <v>51664.598900513491</v>
       </c>
       <c r="CH13" s="20">
         <v>62583.314874735559</v>
@@ -24703,12 +24726,14 @@
         <v>45928.382212957295</v>
       </c>
       <c r="CJ13" s="20">
-        <v>49714.824843268842</v>
+        <v>49759.949187621067</v>
       </c>
       <c r="CK13" s="20">
-        <v>64796.751742626409</v>
-      </c>
-      <c r="CL13" s="9"/>
+        <v>63462.106851968158</v>
+      </c>
+      <c r="CL13" s="20">
+        <v>77798.30924641306</v>
+      </c>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
@@ -24823,7 +24848,7 @@
       <c r="GT13" s="9"/>
       <c r="GU13" s="9"/>
     </row>
-    <row r="14" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -24900,10 +24925,10 @@
       <c r="BW14" s="9"/>
       <c r="BX14" s="9"/>
       <c r="BY14" s="9"/>
-      <c r="BZ14" s="9"/>
-      <c r="CA14" s="9"/>
-      <c r="CB14" s="9"/>
-      <c r="CC14" s="9"/>
+      <c r="BZ14" s="21"/>
+      <c r="CA14" s="21"/>
+      <c r="CB14" s="21"/>
+      <c r="CC14" s="21"/>
       <c r="CD14" s="21"/>
       <c r="CE14" s="21"/>
       <c r="CF14" s="21"/>
@@ -24912,7 +24937,7 @@
       <c r="CI14" s="21"/>
       <c r="CJ14" s="21"/>
       <c r="CK14" s="21"/>
-      <c r="CL14" s="9"/>
+      <c r="CL14" s="21"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -25027,7 +25052,7 @@
       <c r="GT14" s="9"/>
       <c r="GU14" s="9"/>
     </row>
-    <row r="15" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -25259,16 +25284,16 @@
       <c r="BY15" s="11">
         <v>110811.98028265208</v>
       </c>
-      <c r="BZ15" s="11">
+      <c r="BZ15" s="22">
         <v>109945.2415846052</v>
       </c>
-      <c r="CA15" s="11">
+      <c r="CA15" s="22">
         <v>96559.869715936016</v>
       </c>
-      <c r="CB15" s="11">
+      <c r="CB15" s="22">
         <v>108968.03070003551</v>
       </c>
-      <c r="CC15" s="11">
+      <c r="CC15" s="22">
         <v>116304.53731099759</v>
       </c>
       <c r="CD15" s="22">
@@ -25281,7 +25306,7 @@
         <v>52225.756571752994</v>
       </c>
       <c r="CG15" s="22">
-        <v>68624.220639092411</v>
+        <v>67981.273680852886</v>
       </c>
       <c r="CH15" s="22">
         <v>80829.086821203833</v>
@@ -25290,12 +25315,14 @@
         <v>57635.678536941457</v>
       </c>
       <c r="CJ15" s="22">
-        <v>62174.3500724927</v>
+        <v>62274.218019278567</v>
       </c>
       <c r="CK15" s="22">
-        <v>87076.85722270995</v>
-      </c>
-      <c r="CL15" s="9"/>
+        <v>84504.921869668993</v>
+      </c>
+      <c r="CL15" s="22">
+        <v>100231.93874157078</v>
+      </c>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -25410,7 +25437,7 @@
       <c r="GT15" s="9"/>
       <c r="GU15" s="9"/>
     </row>
-    <row r="16" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -25488,10 +25515,10 @@
       <c r="BW16" s="12"/>
       <c r="BX16" s="12"/>
       <c r="BY16" s="12"/>
-      <c r="BZ16" s="12"/>
-      <c r="CA16" s="12"/>
-      <c r="CB16" s="12"/>
-      <c r="CC16" s="12"/>
+      <c r="BZ16" s="23"/>
+      <c r="CA16" s="23"/>
+      <c r="CB16" s="23"/>
+      <c r="CC16" s="23"/>
       <c r="CD16" s="23"/>
       <c r="CE16" s="23"/>
       <c r="CF16" s="23"/>
@@ -25500,13 +25527,14 @@
       <c r="CI16" s="23"/>
       <c r="CJ16" s="23"/>
       <c r="CK16" s="23"/>
+      <c r="CL16" s="23"/>
     </row>
-    <row r="17" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -25583,10 +25611,10 @@
       <c r="BW18" s="9"/>
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
-      <c r="BZ18" s="9"/>
-      <c r="CA18" s="9"/>
-      <c r="CB18" s="9"/>
-      <c r="CC18" s="9"/>
+      <c r="BZ18" s="21"/>
+      <c r="CA18" s="21"/>
+      <c r="CB18" s="21"/>
+      <c r="CC18" s="21"/>
       <c r="CD18" s="21"/>
       <c r="CE18" s="21"/>
       <c r="CF18" s="21"/>
@@ -25595,7 +25623,7 @@
       <c r="CI18" s="21"/>
       <c r="CJ18" s="21"/>
       <c r="CK18" s="21"/>
-      <c r="CL18" s="9"/>
+      <c r="CL18" s="21"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
@@ -25710,7 +25738,7 @@
       <c r="GT18" s="9"/>
       <c r="GU18" s="9"/>
     </row>
-    <row r="19" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -25787,10 +25815,10 @@
       <c r="BW19" s="14"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="14"/>
-      <c r="BZ19" s="14"/>
-      <c r="CA19" s="14"/>
-      <c r="CB19" s="14"/>
-      <c r="CC19" s="14"/>
+      <c r="BZ19" s="24"/>
+      <c r="CA19" s="24"/>
+      <c r="CB19" s="24"/>
+      <c r="CC19" s="24"/>
       <c r="CD19" s="24"/>
       <c r="CE19" s="24"/>
       <c r="CF19" s="24"/>
@@ -25799,7 +25827,7 @@
       <c r="CI19" s="24"/>
       <c r="CJ19" s="24"/>
       <c r="CK19" s="24"/>
-      <c r="CL19" s="9"/>
+      <c r="CL19" s="24"/>
       <c r="CM19" s="9"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
@@ -25914,172 +25942,175 @@
       <c r="GT19" s="9"/>
       <c r="GU19" s="9"/>
     </row>
-    <row r="20" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="30">
+      <c r="B28" s="37">
         <v>2000</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="37">
         <v>2001</v>
       </c>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="30">
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="37">
         <v>2002</v>
       </c>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="30">
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="37">
         <v>2003</v>
       </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="30">
+      <c r="O28" s="38"/>
+      <c r="P28" s="38"/>
+      <c r="Q28" s="38"/>
+      <c r="R28" s="37">
         <v>2004</v>
       </c>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="30">
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="37">
         <v>2005</v>
       </c>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="30">
+      <c r="W28" s="38"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="38"/>
+      <c r="Z28" s="37">
         <v>2006</v>
       </c>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="30">
+      <c r="AA28" s="38"/>
+      <c r="AB28" s="38"/>
+      <c r="AC28" s="38"/>
+      <c r="AD28" s="37">
         <v>2007</v>
       </c>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="31"/>
-      <c r="AH28" s="30">
+      <c r="AE28" s="38"/>
+      <c r="AF28" s="38"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="37">
         <v>2008</v>
       </c>
-      <c r="AI28" s="31"/>
-      <c r="AJ28" s="31"/>
-      <c r="AK28" s="31"/>
-      <c r="AL28" s="30">
+      <c r="AI28" s="38"/>
+      <c r="AJ28" s="38"/>
+      <c r="AK28" s="38"/>
+      <c r="AL28" s="37">
         <v>2009</v>
       </c>
-      <c r="AM28" s="31"/>
-      <c r="AN28" s="31"/>
-      <c r="AO28" s="31"/>
-      <c r="AP28" s="30">
+      <c r="AM28" s="38"/>
+      <c r="AN28" s="38"/>
+      <c r="AO28" s="38"/>
+      <c r="AP28" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="31"/>
-      <c r="AR28" s="31"/>
-      <c r="AS28" s="31"/>
-      <c r="AT28" s="30">
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="37">
         <v>2011</v>
       </c>
-      <c r="AU28" s="31"/>
-      <c r="AV28" s="31"/>
-      <c r="AW28" s="31"/>
-      <c r="AX28" s="30">
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="37">
         <v>2012</v>
       </c>
-      <c r="AY28" s="31"/>
-      <c r="AZ28" s="31"/>
-      <c r="BA28" s="31"/>
-      <c r="BB28" s="30">
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="37">
         <v>2013</v>
       </c>
-      <c r="BC28" s="31"/>
-      <c r="BD28" s="31"/>
-      <c r="BE28" s="31"/>
-      <c r="BF28" s="30">
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="37">
         <v>2014</v>
       </c>
-      <c r="BG28" s="31"/>
-      <c r="BH28" s="31"/>
-      <c r="BI28" s="31"/>
-      <c r="BJ28" s="30">
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="37">
         <v>2015</v>
       </c>
-      <c r="BK28" s="31"/>
-      <c r="BL28" s="31"/>
-      <c r="BM28" s="31"/>
-      <c r="BN28" s="30">
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="37">
         <v>2016</v>
       </c>
-      <c r="BO28" s="31"/>
-      <c r="BP28" s="31"/>
-      <c r="BQ28" s="31"/>
-      <c r="BR28" s="30">
+      <c r="BO28" s="38"/>
+      <c r="BP28" s="38"/>
+      <c r="BQ28" s="38"/>
+      <c r="BR28" s="37">
         <v>2017</v>
       </c>
-      <c r="BS28" s="31"/>
-      <c r="BT28" s="31"/>
-      <c r="BU28" s="31"/>
-      <c r="BV28" s="30">
+      <c r="BS28" s="38"/>
+      <c r="BT28" s="38"/>
+      <c r="BU28" s="38"/>
+      <c r="BV28" s="37">
         <v>2018</v>
       </c>
-      <c r="BW28" s="31"/>
-      <c r="BX28" s="31"/>
-      <c r="BY28" s="31"/>
-      <c r="BZ28" s="30">
+      <c r="BW28" s="38"/>
+      <c r="BX28" s="38"/>
+      <c r="BY28" s="38"/>
+      <c r="BZ28" s="36">
         <v>2019</v>
       </c>
-      <c r="CA28" s="31"/>
-      <c r="CB28" s="31"/>
-      <c r="CC28" s="31"/>
-      <c r="CD28" s="29">
+      <c r="CA28" s="39"/>
+      <c r="CB28" s="39"/>
+      <c r="CC28" s="39"/>
+      <c r="CD28" s="36">
         <v>2020</v>
       </c>
-      <c r="CE28" s="29"/>
-      <c r="CF28" s="29"/>
-      <c r="CG28" s="29"/>
-      <c r="CH28" s="29">
+      <c r="CE28" s="36"/>
+      <c r="CF28" s="36"/>
+      <c r="CG28" s="36"/>
+      <c r="CH28" s="36">
         <v>2021</v>
       </c>
-      <c r="CI28" s="29"/>
-      <c r="CJ28" s="29"/>
-      <c r="CK28" s="29"/>
+      <c r="CI28" s="36"/>
+      <c r="CJ28" s="36"/>
+      <c r="CK28" s="36"/>
+      <c r="CL28" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="29" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -26311,16 +26342,16 @@
       <c r="BY29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="6" t="s">
+      <c r="BZ29" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="6" t="s">
+      <c r="CA29" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="6" t="s">
+      <c r="CB29" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="6" t="s">
+      <c r="CC29" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CD29" s="19" t="s">
@@ -26347,11 +26378,14 @@
       <c r="CK29" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="CL29" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="30" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -26583,16 +26617,16 @@
       <c r="BY31" s="8">
         <v>39498.95128617419</v>
       </c>
-      <c r="BZ31" s="8">
+      <c r="BZ31" s="20">
         <v>39086.634563217398</v>
       </c>
-      <c r="CA31" s="8">
+      <c r="CA31" s="20">
         <v>36361.044331265715</v>
       </c>
-      <c r="CB31" s="8">
+      <c r="CB31" s="20">
         <v>39318.745083743852</v>
       </c>
-      <c r="CC31" s="8">
+      <c r="CC31" s="20">
         <v>41140.67532850214</v>
       </c>
       <c r="CD31" s="20">
@@ -26605,7 +26639,7 @@
         <v>10790.514664241546</v>
       </c>
       <c r="CG31" s="20">
-        <v>15420.210062379512</v>
+        <v>15312.458414541812</v>
       </c>
       <c r="CH31" s="20">
         <v>16324.083844096935</v>
@@ -26614,12 +26648,14 @@
         <v>11205.272574840264</v>
       </c>
       <c r="CJ31" s="20">
-        <v>11669.937422466039</v>
+        <v>11721.002586429966</v>
       </c>
       <c r="CK31" s="20">
-        <v>20616.592863797836</v>
-      </c>
-      <c r="CL31" s="9"/>
+        <v>19471.682946741701</v>
+      </c>
+      <c r="CL31" s="20">
+        <v>19871.597419569433</v>
+      </c>
       <c r="CM31" s="9"/>
       <c r="CN31" s="9"/>
       <c r="CO31" s="9"/>
@@ -26734,7 +26770,7 @@
       <c r="GT31" s="9"/>
       <c r="GU31" s="9"/>
     </row>
-    <row r="32" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -26966,16 +27002,16 @@
       <c r="BY32" s="8">
         <v>68564.65357566718</v>
       </c>
-      <c r="BZ32" s="8">
+      <c r="BZ32" s="20">
         <v>67412.594076405236</v>
       </c>
-      <c r="CA32" s="8">
+      <c r="CA32" s="20">
         <v>62430.545721458649</v>
       </c>
-      <c r="CB32" s="8">
+      <c r="CB32" s="20">
         <v>67327.27298940839</v>
       </c>
-      <c r="CC32" s="8">
+      <c r="CC32" s="20">
         <v>72614.933555281517</v>
       </c>
       <c r="CD32" s="20">
@@ -26988,7 +27024,7 @@
         <v>37636.169876201551</v>
       </c>
       <c r="CG32" s="20">
-        <v>46483.124318140151</v>
+        <v>46012.769983699865</v>
       </c>
       <c r="CH32" s="20">
         <v>53111.261375570801</v>
@@ -26997,12 +27033,14 @@
         <v>39665.793819919112</v>
       </c>
       <c r="CJ32" s="20">
-        <v>42474.287734108526</v>
+        <v>42713.989678357771</v>
       </c>
       <c r="CK32" s="20">
-        <v>55384.563427847635</v>
-      </c>
-      <c r="CL32" s="9"/>
+        <v>54243.785184920882</v>
+      </c>
+      <c r="CL32" s="20">
+        <v>64114.706353297122</v>
+      </c>
       <c r="CM32" s="9"/>
       <c r="CN32" s="9"/>
       <c r="CO32" s="9"/>
@@ -27117,7 +27155,7 @@
       <c r="GT32" s="9"/>
       <c r="GU32" s="9"/>
     </row>
-    <row r="33" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -27194,10 +27232,10 @@
       <c r="BW33" s="9"/>
       <c r="BX33" s="9"/>
       <c r="BY33" s="9"/>
-      <c r="BZ33" s="9"/>
-      <c r="CA33" s="9"/>
-      <c r="CB33" s="9"/>
-      <c r="CC33" s="9"/>
+      <c r="BZ33" s="21"/>
+      <c r="CA33" s="21"/>
+      <c r="CB33" s="21"/>
+      <c r="CC33" s="21"/>
       <c r="CD33" s="21"/>
       <c r="CE33" s="21"/>
       <c r="CF33" s="21"/>
@@ -27206,7 +27244,7 @@
       <c r="CI33" s="21"/>
       <c r="CJ33" s="21"/>
       <c r="CK33" s="21"/>
-      <c r="CL33" s="9"/>
+      <c r="CL33" s="21"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
@@ -27321,7 +27359,7 @@
       <c r="GT33" s="9"/>
       <c r="GU33" s="9"/>
     </row>
-    <row r="34" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>13</v>
       </c>
@@ -27553,16 +27591,16 @@
       <c r="BY34" s="11">
         <v>108063.60486184136</v>
       </c>
-      <c r="BZ34" s="11">
+      <c r="BZ34" s="22">
         <v>106499.22863962263</v>
       </c>
-      <c r="CA34" s="11">
+      <c r="CA34" s="22">
         <v>98791.590052724365</v>
       </c>
-      <c r="CB34" s="11">
+      <c r="CB34" s="22">
         <v>106646.01807315224</v>
       </c>
-      <c r="CC34" s="11">
+      <c r="CC34" s="22">
         <v>113755.60888378366</v>
       </c>
       <c r="CD34" s="22">
@@ -27575,7 +27613,7 @@
         <v>48426.684540443093</v>
       </c>
       <c r="CG34" s="22">
-        <v>61903.334380519664</v>
+        <v>61325.228398241677</v>
       </c>
       <c r="CH34" s="22">
         <v>69435.345219667739</v>
@@ -27584,12 +27622,14 @@
         <v>50871.066394759378</v>
       </c>
       <c r="CJ34" s="22">
-        <v>54144.225156574568</v>
+        <v>54434.992264787739</v>
       </c>
       <c r="CK34" s="22">
-        <v>76001.156291645471</v>
-      </c>
-      <c r="CL34" s="9"/>
+        <v>73715.468131662579</v>
+      </c>
+      <c r="CL34" s="22">
+        <v>83986.303772866551</v>
+      </c>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
@@ -27704,7 +27744,7 @@
       <c r="GT34" s="9"/>
       <c r="GU34" s="9"/>
     </row>
-    <row r="35" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -27782,10 +27822,10 @@
       <c r="BW35" s="12"/>
       <c r="BX35" s="12"/>
       <c r="BY35" s="12"/>
-      <c r="BZ35" s="12"/>
-      <c r="CA35" s="12"/>
-      <c r="CB35" s="12"/>
-      <c r="CC35" s="12"/>
+      <c r="BZ35" s="23"/>
+      <c r="CA35" s="23"/>
+      <c r="CB35" s="23"/>
+      <c r="CC35" s="23"/>
       <c r="CD35" s="23"/>
       <c r="CE35" s="23"/>
       <c r="CF35" s="23"/>
@@ -27794,13 +27834,14 @@
       <c r="CI35" s="23"/>
       <c r="CJ35" s="23"/>
       <c r="CK35" s="23"/>
+      <c r="CL35" s="23"/>
     </row>
-    <row r="36" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -27877,10 +27918,10 @@
       <c r="BW37" s="9"/>
       <c r="BX37" s="9"/>
       <c r="BY37" s="9"/>
-      <c r="BZ37" s="9"/>
-      <c r="CA37" s="9"/>
-      <c r="CB37" s="9"/>
-      <c r="CC37" s="9"/>
+      <c r="BZ37" s="21"/>
+      <c r="CA37" s="21"/>
+      <c r="CB37" s="21"/>
+      <c r="CC37" s="21"/>
       <c r="CD37" s="21"/>
       <c r="CE37" s="21"/>
       <c r="CF37" s="21"/>
@@ -27889,7 +27930,7 @@
       <c r="CI37" s="21"/>
       <c r="CJ37" s="21"/>
       <c r="CK37" s="21"/>
-      <c r="CL37" s="9"/>
+      <c r="CL37" s="21"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -28004,7 +28045,7 @@
       <c r="GT37" s="9"/>
       <c r="GU37" s="9"/>
     </row>
-    <row r="38" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -28081,10 +28122,10 @@
       <c r="BW38" s="9"/>
       <c r="BX38" s="9"/>
       <c r="BY38" s="9"/>
-      <c r="BZ38" s="9"/>
-      <c r="CA38" s="9"/>
-      <c r="CB38" s="9"/>
-      <c r="CC38" s="9"/>
+      <c r="BZ38" s="21"/>
+      <c r="CA38" s="21"/>
+      <c r="CB38" s="21"/>
+      <c r="CC38" s="21"/>
       <c r="CD38" s="21"/>
       <c r="CE38" s="21"/>
       <c r="CF38" s="21"/>
@@ -28093,7 +28134,7 @@
       <c r="CI38" s="21"/>
       <c r="CJ38" s="21"/>
       <c r="CK38" s="21"/>
-      <c r="CL38" s="9"/>
+      <c r="CL38" s="21"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
@@ -28208,170 +28249,196 @@
       <c r="GT38" s="9"/>
       <c r="GU38" s="9"/>
     </row>
-    <row r="39" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="CI43" s="29"/>
+      <c r="CJ43" s="29"/>
+      <c r="CK43" s="29"/>
+      <c r="CL43" s="29"/>
+      <c r="CM43" s="30"/>
     </row>
-    <row r="44" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CI44" s="29"/>
+      <c r="CJ44" s="29"/>
+      <c r="CK44" s="29"/>
+      <c r="CL44" s="29"/>
+      <c r="CM44" s="30"/>
     </row>
-    <row r="45" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CI45" s="29"/>
+      <c r="CJ45" s="29"/>
+      <c r="CK45" s="29"/>
+      <c r="CL45" s="29"/>
+      <c r="CM45" s="30"/>
     </row>
-    <row r="47" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CI46" s="29"/>
+      <c r="CJ46" s="29"/>
+      <c r="CK46" s="29"/>
+      <c r="CL46" s="29"/>
+      <c r="CM46" s="30"/>
+    </row>
+    <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30" t="s">
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30" t="s">
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30" t="s">
+      <c r="K47" s="37"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="37"/>
+      <c r="N47" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30" t="s">
+      <c r="O47" s="37"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30" t="s">
+      <c r="S47" s="37"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="37"/>
+      <c r="V47" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30" t="s">
+      <c r="W47" s="37"/>
+      <c r="X47" s="37"/>
+      <c r="Y47" s="37"/>
+      <c r="Z47" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="30"/>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AD47" s="30" t="s">
+      <c r="AA47" s="37"/>
+      <c r="AB47" s="37"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="30"/>
-      <c r="AF47" s="30"/>
-      <c r="AG47" s="30"/>
-      <c r="AH47" s="30" t="s">
+      <c r="AE47" s="37"/>
+      <c r="AF47" s="37"/>
+      <c r="AG47" s="37"/>
+      <c r="AH47" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="30"/>
-      <c r="AJ47" s="30"/>
-      <c r="AK47" s="30"/>
-      <c r="AL47" s="30" t="s">
+      <c r="AI47" s="37"/>
+      <c r="AJ47" s="37"/>
+      <c r="AK47" s="37"/>
+      <c r="AL47" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="30"/>
-      <c r="AO47" s="30"/>
-      <c r="AP47" s="30" t="s">
+      <c r="AM47" s="37"/>
+      <c r="AN47" s="37"/>
+      <c r="AO47" s="37"/>
+      <c r="AP47" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="30"/>
-      <c r="AR47" s="30"/>
-      <c r="AS47" s="30"/>
-      <c r="AT47" s="30" t="s">
+      <c r="AQ47" s="37"/>
+      <c r="AR47" s="37"/>
+      <c r="AS47" s="37"/>
+      <c r="AT47" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="30"/>
-      <c r="AV47" s="30"/>
-      <c r="AW47" s="30"/>
-      <c r="AX47" s="30" t="s">
+      <c r="AU47" s="37"/>
+      <c r="AV47" s="37"/>
+      <c r="AW47" s="37"/>
+      <c r="AX47" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="30"/>
-      <c r="AZ47" s="30"/>
-      <c r="BA47" s="30"/>
-      <c r="BB47" s="30" t="s">
+      <c r="AY47" s="37"/>
+      <c r="AZ47" s="37"/>
+      <c r="BA47" s="37"/>
+      <c r="BB47" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="30"/>
-      <c r="BD47" s="30"/>
-      <c r="BE47" s="30"/>
-      <c r="BF47" s="30" t="s">
+      <c r="BC47" s="37"/>
+      <c r="BD47" s="37"/>
+      <c r="BE47" s="37"/>
+      <c r="BF47" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="30"/>
-      <c r="BH47" s="30"/>
-      <c r="BI47" s="30"/>
-      <c r="BJ47" s="30" t="s">
+      <c r="BG47" s="37"/>
+      <c r="BH47" s="37"/>
+      <c r="BI47" s="37"/>
+      <c r="BJ47" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="30"/>
-      <c r="BL47" s="30"/>
-      <c r="BM47" s="30"/>
-      <c r="BN47" s="30" t="s">
+      <c r="BK47" s="37"/>
+      <c r="BL47" s="37"/>
+      <c r="BM47" s="37"/>
+      <c r="BN47" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="30"/>
-      <c r="BP47" s="30"/>
-      <c r="BQ47" s="30"/>
-      <c r="BR47" s="30" t="s">
+      <c r="BO47" s="37"/>
+      <c r="BP47" s="37"/>
+      <c r="BQ47" s="37"/>
+      <c r="BR47" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="30"/>
-      <c r="BT47" s="30"/>
-      <c r="BU47" s="30"/>
-      <c r="BV47" s="30" t="s">
+      <c r="BS47" s="37"/>
+      <c r="BT47" s="37"/>
+      <c r="BU47" s="37"/>
+      <c r="BV47" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="30"/>
-      <c r="BX47" s="30"/>
-      <c r="BY47" s="30"/>
-      <c r="BZ47" s="30" t="s">
+      <c r="BW47" s="37"/>
+      <c r="BX47" s="37"/>
+      <c r="BY47" s="37"/>
+      <c r="BZ47" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="30"/>
-      <c r="CB47" s="30"/>
-      <c r="CC47" s="30"/>
-      <c r="CD47" s="29" t="s">
+      <c r="CA47" s="36"/>
+      <c r="CB47" s="36"/>
+      <c r="CC47" s="36"/>
+      <c r="CD47" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="29"/>
-      <c r="CF47" s="29"/>
-      <c r="CG47" s="29"/>
-      <c r="CH47" s="25"/>
-      <c r="CI47" s="25"/>
-      <c r="CJ47" s="25"/>
-      <c r="CK47" s="25"/>
+      <c r="CE47" s="36"/>
+      <c r="CF47" s="36"/>
+      <c r="CG47" s="36"/>
+      <c r="CH47" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="31"/>
+      <c r="CJ47" s="31"/>
+      <c r="CK47" s="31"/>
+      <c r="CL47" s="32"/>
+      <c r="CM47" s="30"/>
     </row>
-    <row r="48" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -28603,39 +28670,48 @@
       <c r="BY48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="5" t="s">
+      <c r="BZ48" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="5" t="s">
+      <c r="CA48" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="5" t="s">
+      <c r="CB48" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="5" t="s">
+      <c r="CC48" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CD48" s="28" t="s">
+      <c r="CD48" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CE48" s="28" t="s">
+      <c r="CE48" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="28" t="s">
+      <c r="CF48" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="28" t="s">
+      <c r="CG48" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="26"/>
-      <c r="CI48" s="26"/>
-      <c r="CJ48" s="26"/>
-      <c r="CK48" s="26"/>
+      <c r="CH48" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI48" s="31"/>
+      <c r="CJ48" s="31"/>
+      <c r="CK48" s="31"/>
+      <c r="CL48" s="31"/>
+      <c r="CM48" s="30"/>
     </row>
-    <row r="49" spans="1:199" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
+      <c r="CI49" s="29"/>
+      <c r="CJ49" s="29"/>
+      <c r="CK49" s="29"/>
+      <c r="CL49" s="29"/>
+      <c r="CM49" s="30"/>
     </row>
-    <row r="50" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -28867,36 +28943,38 @@
       <c r="BY50" s="15">
         <v>3.8493797383757595</v>
       </c>
-      <c r="BZ50" s="15">
+      <c r="BZ50" s="25">
         <v>-19.067044731471242</v>
       </c>
-      <c r="CA50" s="15">
+      <c r="CA50" s="25">
         <v>-72.368912766466821</v>
       </c>
-      <c r="CB50" s="15">
+      <c r="CB50" s="25">
         <v>-71.211548002222273</v>
       </c>
-      <c r="CC50" s="15">
-        <v>-60.798829527999601</v>
-      </c>
-      <c r="CD50" s="27">
+      <c r="CC50" s="25">
+        <v>-61.072755155370253</v>
+      </c>
+      <c r="CD50" s="25">
         <v>-43.920924356421118</v>
       </c>
-      <c r="CE50" s="27">
+      <c r="CE50" s="25">
         <v>19.672116128472879</v>
       </c>
-      <c r="CF50" s="27">
-        <v>8.1251357096667505</v>
-      </c>
-      <c r="CG50" s="27">
-        <v>35.59392037530796</v>
-      </c>
-      <c r="CH50" s="21"/>
-      <c r="CI50" s="21"/>
-      <c r="CJ50" s="21"/>
-      <c r="CK50" s="21"/>
-      <c r="CL50" s="9"/>
-      <c r="CM50" s="9"/>
+      <c r="CF50" s="25">
+        <v>8.6002067363291559</v>
+      </c>
+      <c r="CG50" s="25">
+        <v>28.965094303749595</v>
+      </c>
+      <c r="CH50" s="25">
+        <v>22.95248214751507</v>
+      </c>
+      <c r="CI50" s="33"/>
+      <c r="CJ50" s="33"/>
+      <c r="CK50" s="33"/>
+      <c r="CL50" s="33"/>
+      <c r="CM50" s="34"/>
       <c r="CN50" s="9"/>
       <c r="CO50" s="9"/>
       <c r="CP50" s="9"/>
@@ -29006,7 +29084,7 @@
       <c r="GP50" s="9"/>
       <c r="GQ50" s="9"/>
     </row>
-    <row r="51" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -29238,36 +29316,38 @@
       <c r="BY51" s="15">
         <v>5.5910202355159413</v>
       </c>
-      <c r="BZ51" s="15">
+      <c r="BZ51" s="25">
         <v>-5.0273661692907865</v>
       </c>
-      <c r="CA51" s="15">
+      <c r="CA51" s="25">
         <v>-60.347207931506929</v>
       </c>
-      <c r="CB51" s="15">
+      <c r="CB51" s="25">
         <v>-40.960122955368192</v>
       </c>
-      <c r="CC51" s="15">
-        <v>-29.837842096382261</v>
-      </c>
-      <c r="CD51" s="27">
+      <c r="CC51" s="25">
+        <v>-30.547800292345684</v>
+      </c>
+      <c r="CD51" s="25">
         <v>-5.5175319670495924</v>
       </c>
-      <c r="CE51" s="27">
+      <c r="CE51" s="25">
         <v>89.398680131715651</v>
       </c>
-      <c r="CF51" s="27">
-        <v>22.141912082328247</v>
-      </c>
-      <c r="CG51" s="27">
-        <v>24.14900432202964</v>
-      </c>
-      <c r="CH51" s="21"/>
-      <c r="CI51" s="21"/>
-      <c r="CJ51" s="21"/>
-      <c r="CK51" s="21"/>
-      <c r="CL51" s="9"/>
-      <c r="CM51" s="9"/>
+      <c r="CF51" s="25">
+        <v>22.252775868291863</v>
+      </c>
+      <c r="CG51" s="25">
+        <v>22.834800235596944</v>
+      </c>
+      <c r="CH51" s="25">
+        <v>24.311582731166069</v>
+      </c>
+      <c r="CI51" s="33"/>
+      <c r="CJ51" s="33"/>
+      <c r="CK51" s="33"/>
+      <c r="CL51" s="33"/>
+      <c r="CM51" s="34"/>
       <c r="CN51" s="9"/>
       <c r="CO51" s="9"/>
       <c r="CP51" s="9"/>
@@ -29377,7 +29457,7 @@
       <c r="GP51" s="9"/>
       <c r="GQ51" s="9"/>
     </row>
-    <row r="52" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -29455,20 +29535,20 @@
       <c r="BW52" s="9"/>
       <c r="BX52" s="9"/>
       <c r="BY52" s="9"/>
-      <c r="BZ52" s="9"/>
-      <c r="CA52" s="9"/>
-      <c r="CB52" s="9"/>
-      <c r="CC52" s="9"/>
+      <c r="BZ52" s="21"/>
+      <c r="CA52" s="21"/>
+      <c r="CB52" s="21"/>
+      <c r="CC52" s="21"/>
       <c r="CD52" s="21"/>
       <c r="CE52" s="21"/>
       <c r="CF52" s="21"/>
       <c r="CG52" s="21"/>
       <c r="CH52" s="21"/>
-      <c r="CI52" s="21"/>
-      <c r="CJ52" s="21"/>
-      <c r="CK52" s="21"/>
-      <c r="CL52" s="9"/>
-      <c r="CM52" s="9"/>
+      <c r="CI52" s="33"/>
+      <c r="CJ52" s="33"/>
+      <c r="CK52" s="33"/>
+      <c r="CL52" s="33"/>
+      <c r="CM52" s="34"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
       <c r="CP52" s="9"/>
@@ -29578,7 +29658,7 @@
       <c r="GP52" s="9"/>
       <c r="GQ52" s="9"/>
     </row>
-    <row r="53" spans="1:199" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:199" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>13</v>
       </c>
@@ -29810,36 +29890,38 @@
       <c r="BY53" s="15">
         <v>4.9566454947700151</v>
       </c>
-      <c r="BZ53" s="15">
+      <c r="BZ53" s="25">
         <v>-10.160903490519672</v>
       </c>
-      <c r="CA53" s="15">
+      <c r="CA53" s="25">
         <v>-64.755141654783245</v>
       </c>
-      <c r="CB53" s="15">
+      <c r="CB53" s="25">
         <v>-52.072404873023025</v>
       </c>
-      <c r="CC53" s="15">
-        <v>-40.996093337621318</v>
-      </c>
-      <c r="CD53" s="27">
+      <c r="CC53" s="25">
+        <v>-41.548906644053453</v>
+      </c>
+      <c r="CD53" s="25">
         <v>-18.167492542479494</v>
       </c>
-      <c r="CE53" s="27">
+      <c r="CE53" s="25">
         <v>69.355369173085961</v>
       </c>
-      <c r="CF53" s="27">
-        <v>19.049208960853122</v>
-      </c>
-      <c r="CG53" s="27">
-        <v>26.88939329550044</v>
-      </c>
-      <c r="CH53" s="21"/>
-      <c r="CI53" s="21"/>
-      <c r="CJ53" s="21"/>
-      <c r="CK53" s="21"/>
-      <c r="CL53" s="9"/>
-      <c r="CM53" s="9"/>
+      <c r="CF53" s="25">
+        <v>19.240432512873198</v>
+      </c>
+      <c r="CG53" s="25">
+        <v>24.306176236692139</v>
+      </c>
+      <c r="CH53" s="25">
+        <v>24.004789220601481</v>
+      </c>
+      <c r="CI53" s="33"/>
+      <c r="CJ53" s="33"/>
+      <c r="CK53" s="33"/>
+      <c r="CL53" s="33"/>
+      <c r="CM53" s="34"/>
       <c r="CN53" s="9"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
@@ -29949,7 +30031,7 @@
       <c r="GP53" s="9"/>
       <c r="GQ53" s="9"/>
     </row>
-    <row r="54" spans="1:199" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:199" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -30027,25 +30109,32 @@
       <c r="BW54" s="12"/>
       <c r="BX54" s="12"/>
       <c r="BY54" s="12"/>
-      <c r="BZ54" s="12"/>
-      <c r="CA54" s="12"/>
-      <c r="CB54" s="12"/>
-      <c r="CC54" s="12"/>
+      <c r="BZ54" s="23"/>
+      <c r="CA54" s="23"/>
+      <c r="CB54" s="23"/>
+      <c r="CC54" s="23"/>
       <c r="CD54" s="23"/>
       <c r="CE54" s="23"/>
       <c r="CF54" s="23"/>
       <c r="CG54" s="23"/>
       <c r="CH54" s="23"/>
-      <c r="CI54" s="23"/>
-      <c r="CJ54" s="23"/>
-      <c r="CK54" s="23"/>
+      <c r="CI54" s="35"/>
+      <c r="CJ54" s="35"/>
+      <c r="CK54" s="35"/>
+      <c r="CL54" s="35"/>
+      <c r="CM54" s="30"/>
     </row>
-    <row r="55" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CI55" s="29"/>
+      <c r="CJ55" s="29"/>
+      <c r="CK55" s="29"/>
+      <c r="CL55" s="29"/>
+      <c r="CM55" s="30"/>
     </row>
-    <row r="56" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -30122,20 +30211,20 @@
       <c r="BW56" s="9"/>
       <c r="BX56" s="9"/>
       <c r="BY56" s="9"/>
-      <c r="BZ56" s="9"/>
-      <c r="CA56" s="9"/>
-      <c r="CB56" s="9"/>
-      <c r="CC56" s="9"/>
+      <c r="BZ56" s="21"/>
+      <c r="CA56" s="21"/>
+      <c r="CB56" s="21"/>
+      <c r="CC56" s="21"/>
       <c r="CD56" s="21"/>
       <c r="CE56" s="21"/>
       <c r="CF56" s="21"/>
       <c r="CG56" s="21"/>
       <c r="CH56" s="21"/>
-      <c r="CI56" s="21"/>
-      <c r="CJ56" s="21"/>
-      <c r="CK56" s="21"/>
-      <c r="CL56" s="9"/>
-      <c r="CM56" s="9"/>
+      <c r="CI56" s="33"/>
+      <c r="CJ56" s="33"/>
+      <c r="CK56" s="33"/>
+      <c r="CL56" s="33"/>
+      <c r="CM56" s="34"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
@@ -30245,7 +30334,7 @@
       <c r="GP56" s="9"/>
       <c r="GQ56" s="9"/>
     </row>
-    <row r="57" spans="1:199" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -30322,20 +30411,20 @@
       <c r="BW57" s="9"/>
       <c r="BX57" s="9"/>
       <c r="BY57" s="9"/>
-      <c r="BZ57" s="9"/>
-      <c r="CA57" s="9"/>
-      <c r="CB57" s="9"/>
-      <c r="CC57" s="9"/>
+      <c r="BZ57" s="21"/>
+      <c r="CA57" s="21"/>
+      <c r="CB57" s="21"/>
+      <c r="CC57" s="21"/>
       <c r="CD57" s="21"/>
       <c r="CE57" s="21"/>
       <c r="CF57" s="21"/>
       <c r="CG57" s="21"/>
       <c r="CH57" s="21"/>
-      <c r="CI57" s="21"/>
-      <c r="CJ57" s="21"/>
-      <c r="CK57" s="21"/>
-      <c r="CL57" s="9"/>
-      <c r="CM57" s="9"/>
+      <c r="CI57" s="33"/>
+      <c r="CJ57" s="33"/>
+      <c r="CK57" s="33"/>
+      <c r="CL57" s="33"/>
+      <c r="CM57" s="34"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
@@ -30445,170 +30534,191 @@
       <c r="GP57" s="9"/>
       <c r="GQ57" s="9"/>
     </row>
-    <row r="58" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CI63" s="29"/>
+      <c r="CJ63" s="29"/>
+      <c r="CK63" s="29"/>
+      <c r="CL63" s="29"/>
+      <c r="CM63" s="30"/>
     </row>
-    <row r="64" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CI64" s="29"/>
+      <c r="CJ64" s="29"/>
+      <c r="CK64" s="29"/>
+      <c r="CL64" s="29"/>
+      <c r="CM64" s="30"/>
     </row>
-    <row r="66" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CI65" s="29"/>
+      <c r="CJ65" s="29"/>
+      <c r="CK65" s="29"/>
+      <c r="CL65" s="29"/>
+      <c r="CM65" s="30"/>
+    </row>
+    <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="32"/>
-      <c r="F66" s="30" t="s">
+      <c r="C66" s="40"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="30" t="s">
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
+      <c r="J66" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="30" t="s">
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+      <c r="M66" s="40"/>
+      <c r="N66" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="30" t="s">
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="30" t="s">
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="30" t="s">
+      <c r="W66" s="40"/>
+      <c r="X66" s="40"/>
+      <c r="Y66" s="40"/>
+      <c r="Z66" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="32"/>
-      <c r="AB66" s="32"/>
-      <c r="AC66" s="32"/>
-      <c r="AD66" s="30" t="s">
+      <c r="AA66" s="40"/>
+      <c r="AB66" s="40"/>
+      <c r="AC66" s="40"/>
+      <c r="AD66" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="30" t="s">
+      <c r="AE66" s="40"/>
+      <c r="AF66" s="40"/>
+      <c r="AG66" s="40"/>
+      <c r="AH66" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="32"/>
-      <c r="AJ66" s="32"/>
-      <c r="AK66" s="32"/>
-      <c r="AL66" s="30" t="s">
+      <c r="AI66" s="40"/>
+      <c r="AJ66" s="40"/>
+      <c r="AK66" s="40"/>
+      <c r="AL66" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="32"/>
-      <c r="AN66" s="32"/>
-      <c r="AO66" s="32"/>
-      <c r="AP66" s="30" t="s">
+      <c r="AM66" s="40"/>
+      <c r="AN66" s="40"/>
+      <c r="AO66" s="40"/>
+      <c r="AP66" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="32"/>
-      <c r="AR66" s="32"/>
-      <c r="AS66" s="32"/>
-      <c r="AT66" s="30" t="s">
+      <c r="AQ66" s="40"/>
+      <c r="AR66" s="40"/>
+      <c r="AS66" s="40"/>
+      <c r="AT66" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="32"/>
-      <c r="AV66" s="32"/>
-      <c r="AW66" s="32"/>
-      <c r="AX66" s="30" t="s">
+      <c r="AU66" s="40"/>
+      <c r="AV66" s="40"/>
+      <c r="AW66" s="40"/>
+      <c r="AX66" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="32"/>
-      <c r="AZ66" s="32"/>
-      <c r="BA66" s="32"/>
-      <c r="BB66" s="30" t="s">
+      <c r="AY66" s="40"/>
+      <c r="AZ66" s="40"/>
+      <c r="BA66" s="40"/>
+      <c r="BB66" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="32"/>
-      <c r="BD66" s="32"/>
-      <c r="BE66" s="32"/>
-      <c r="BF66" s="30" t="s">
+      <c r="BC66" s="40"/>
+      <c r="BD66" s="40"/>
+      <c r="BE66" s="40"/>
+      <c r="BF66" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="32"/>
-      <c r="BH66" s="32"/>
-      <c r="BI66" s="32"/>
-      <c r="BJ66" s="30" t="s">
+      <c r="BG66" s="40"/>
+      <c r="BH66" s="40"/>
+      <c r="BI66" s="40"/>
+      <c r="BJ66" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="32"/>
-      <c r="BL66" s="32"/>
-      <c r="BM66" s="32"/>
-      <c r="BN66" s="30" t="s">
+      <c r="BK66" s="40"/>
+      <c r="BL66" s="40"/>
+      <c r="BM66" s="40"/>
+      <c r="BN66" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="32"/>
-      <c r="BP66" s="32"/>
-      <c r="BQ66" s="32"/>
-      <c r="BR66" s="30" t="s">
+      <c r="BO66" s="40"/>
+      <c r="BP66" s="40"/>
+      <c r="BQ66" s="40"/>
+      <c r="BR66" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="32"/>
-      <c r="BT66" s="32"/>
-      <c r="BU66" s="32"/>
-      <c r="BV66" s="30" t="s">
+      <c r="BS66" s="40"/>
+      <c r="BT66" s="40"/>
+      <c r="BU66" s="40"/>
+      <c r="BV66" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="32"/>
-      <c r="BX66" s="32"/>
-      <c r="BY66" s="32"/>
-      <c r="BZ66" s="30" t="s">
+      <c r="BW66" s="40"/>
+      <c r="BX66" s="40"/>
+      <c r="BY66" s="40"/>
+      <c r="BZ66" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="30"/>
-      <c r="CB66" s="30"/>
-      <c r="CC66" s="30"/>
-      <c r="CD66" s="29" t="s">
+      <c r="CA66" s="36"/>
+      <c r="CB66" s="36"/>
+      <c r="CC66" s="36"/>
+      <c r="CD66" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="29"/>
-      <c r="CF66" s="29"/>
-      <c r="CG66" s="29"/>
-      <c r="CH66" s="25"/>
-      <c r="CI66" s="25"/>
-      <c r="CJ66" s="25"/>
-      <c r="CK66" s="25"/>
+      <c r="CE66" s="36"/>
+      <c r="CF66" s="36"/>
+      <c r="CG66" s="36"/>
+      <c r="CH66" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="31"/>
+      <c r="CJ66" s="31"/>
+      <c r="CK66" s="31"/>
+      <c r="CL66" s="32"/>
+      <c r="CM66" s="30"/>
     </row>
-    <row r="67" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -30840,39 +30950,48 @@
       <c r="BY67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="5" t="s">
+      <c r="BZ67" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="5" t="s">
+      <c r="CA67" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="5" t="s">
+      <c r="CB67" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="5" t="s">
+      <c r="CC67" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CD67" s="28" t="s">
+      <c r="CD67" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="CE67" s="28" t="s">
+      <c r="CE67" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="28" t="s">
+      <c r="CF67" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="28" t="s">
+      <c r="CG67" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="26"/>
-      <c r="CI67" s="26"/>
-      <c r="CJ67" s="26"/>
-      <c r="CK67" s="26"/>
+      <c r="CH67" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI67" s="31"/>
+      <c r="CJ67" s="31"/>
+      <c r="CK67" s="31"/>
+      <c r="CL67" s="31"/>
+      <c r="CM67" s="30"/>
     </row>
-    <row r="68" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
+      <c r="CI68" s="29"/>
+      <c r="CJ68" s="29"/>
+      <c r="CK68" s="29"/>
+      <c r="CL68" s="29"/>
+      <c r="CM68" s="30"/>
     </row>
-    <row r="69" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -31104,36 +31223,38 @@
       <c r="BY69" s="15">
         <v>4.1563737488458372</v>
       </c>
-      <c r="BZ69" s="15">
+      <c r="BZ69" s="25">
         <v>-23.480253110649002</v>
       </c>
-      <c r="CA69" s="15">
+      <c r="CA69" s="25">
         <v>-73.819043185912477</v>
       </c>
-      <c r="CB69" s="15">
+      <c r="CB69" s="25">
         <v>-72.556309614513026</v>
       </c>
-      <c r="CC69" s="15">
-        <v>-62.518335104488585</v>
-      </c>
-      <c r="CD69" s="27">
+      <c r="CC69" s="25">
+        <v>-62.780245359916627</v>
+      </c>
+      <c r="CD69" s="25">
         <v>-45.42081912227718</v>
       </c>
-      <c r="CE69" s="27">
+      <c r="CE69" s="25">
         <v>17.706531664145729</v>
       </c>
-      <c r="CF69" s="27">
-        <v>8.1499611982252702</v>
-      </c>
-      <c r="CG69" s="27">
-        <v>33.698521488341271</v>
-      </c>
-      <c r="CH69" s="21"/>
-      <c r="CI69" s="21"/>
-      <c r="CJ69" s="21"/>
-      <c r="CK69" s="21"/>
-      <c r="CL69" s="9"/>
-      <c r="CM69" s="9"/>
+      <c r="CF69" s="25">
+        <v>8.6232024249218</v>
+      </c>
+      <c r="CG69" s="25">
+        <v>27.162356426385401</v>
+      </c>
+      <c r="CH69" s="25">
+        <v>21.731777472800346</v>
+      </c>
+      <c r="CI69" s="33"/>
+      <c r="CJ69" s="33"/>
+      <c r="CK69" s="33"/>
+      <c r="CL69" s="33"/>
+      <c r="CM69" s="34"/>
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
       <c r="CP69" s="9"/>
@@ -31243,7 +31364,7 @@
       <c r="GP69" s="9"/>
       <c r="GQ69" s="9"/>
     </row>
-    <row r="70" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -31475,36 +31596,38 @@
       <c r="BY70" s="15">
         <v>5.907241951050608</v>
       </c>
-      <c r="BZ70" s="15">
+      <c r="BZ70" s="25">
         <v>-11.4593717488153</v>
       </c>
-      <c r="CA70" s="15">
+      <c r="CA70" s="25">
         <v>-63.251043367325011</v>
       </c>
-      <c r="CB70" s="15">
+      <c r="CB70" s="25">
         <v>-44.099666888153486</v>
       </c>
-      <c r="CC70" s="15">
-        <v>-35.986825240633607</v>
-      </c>
-      <c r="CD70" s="27">
+      <c r="CC70" s="25">
+        <v>-36.634562987418441</v>
+      </c>
+      <c r="CD70" s="25">
         <v>-11.01783314639755</v>
       </c>
-      <c r="CE70" s="27">
+      <c r="CE70" s="25">
         <v>72.891644683367417</v>
       </c>
-      <c r="CF70" s="27">
-        <v>12.854968701175579</v>
-      </c>
-      <c r="CG70" s="27">
-        <v>19.149829621572295</v>
-      </c>
-      <c r="CH70" s="21"/>
-      <c r="CI70" s="21"/>
-      <c r="CJ70" s="21"/>
-      <c r="CK70" s="21"/>
-      <c r="CL70" s="9"/>
-      <c r="CM70" s="9"/>
+      <c r="CF70" s="25">
+        <v>13.491861203886941</v>
+      </c>
+      <c r="CG70" s="25">
+        <v>17.888545297613831</v>
+      </c>
+      <c r="CH70" s="25">
+        <v>20.71772481530158</v>
+      </c>
+      <c r="CI70" s="33"/>
+      <c r="CJ70" s="33"/>
+      <c r="CK70" s="33"/>
+      <c r="CL70" s="33"/>
+      <c r="CM70" s="34"/>
       <c r="CN70" s="9"/>
       <c r="CO70" s="9"/>
       <c r="CP70" s="9"/>
@@ -31614,7 +31737,7 @@
       <c r="GP70" s="9"/>
       <c r="GQ70" s="9"/>
     </row>
-    <row r="71" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -31691,20 +31814,20 @@
       <c r="BW71" s="9"/>
       <c r="BX71" s="9"/>
       <c r="BY71" s="9"/>
-      <c r="BZ71" s="9"/>
-      <c r="CA71" s="9"/>
-      <c r="CB71" s="9"/>
-      <c r="CC71" s="9"/>
+      <c r="BZ71" s="21"/>
+      <c r="CA71" s="21"/>
+      <c r="CB71" s="21"/>
+      <c r="CC71" s="21"/>
       <c r="CD71" s="21"/>
       <c r="CE71" s="21"/>
       <c r="CF71" s="21"/>
       <c r="CG71" s="21"/>
       <c r="CH71" s="21"/>
-      <c r="CI71" s="21"/>
-      <c r="CJ71" s="21"/>
-      <c r="CK71" s="21"/>
-      <c r="CL71" s="9"/>
-      <c r="CM71" s="9"/>
+      <c r="CI71" s="33"/>
+      <c r="CJ71" s="33"/>
+      <c r="CK71" s="33"/>
+      <c r="CL71" s="33"/>
+      <c r="CM71" s="34"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
       <c r="CP71" s="9"/>
@@ -31814,7 +31937,7 @@
       <c r="GP71" s="9"/>
       <c r="GQ71" s="9"/>
     </row>
-    <row r="72" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>13</v>
       </c>
@@ -32046,36 +32169,38 @@
       <c r="BY72" s="15">
         <v>5.267272019307029</v>
       </c>
-      <c r="BZ72" s="15">
+      <c r="BZ72" s="25">
         <v>-15.871195223215338</v>
       </c>
-      <c r="CA72" s="15">
+      <c r="CA72" s="25">
         <v>-67.140681237222509</v>
       </c>
-      <c r="CB72" s="15">
+      <c r="CB72" s="25">
         <v>-54.591192980852284</v>
       </c>
-      <c r="CC72" s="15">
-        <v>-45.58216954052606</v>
-      </c>
-      <c r="CD72" s="27">
+      <c r="CC72" s="25">
+        <v>-46.090369521125353</v>
+      </c>
+      <c r="CD72" s="25">
         <v>-22.502192157894143</v>
       </c>
-      <c r="CE72" s="27">
+      <c r="CE72" s="25">
         <v>56.708412393988681</v>
       </c>
-      <c r="CF72" s="27">
-        <v>11.806591077604182</v>
-      </c>
-      <c r="CG72" s="27">
-        <v>22.773929792644964</v>
-      </c>
-      <c r="CH72" s="21"/>
-      <c r="CI72" s="21"/>
-      <c r="CJ72" s="21"/>
-      <c r="CK72" s="21"/>
-      <c r="CL72" s="9"/>
-      <c r="CM72" s="9"/>
+      <c r="CF72" s="25">
+        <v>12.407018529891033</v>
+      </c>
+      <c r="CG72" s="25">
+        <v>20.204147717085647</v>
+      </c>
+      <c r="CH72" s="25">
+        <v>20.956126173442314</v>
+      </c>
+      <c r="CI72" s="33"/>
+      <c r="CJ72" s="33"/>
+      <c r="CK72" s="33"/>
+      <c r="CL72" s="33"/>
+      <c r="CM72" s="34"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
@@ -32185,7 +32310,7 @@
       <c r="GP72" s="9"/>
       <c r="GQ72" s="9"/>
     </row>
-    <row r="73" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -32263,25 +32388,32 @@
       <c r="BW73" s="12"/>
       <c r="BX73" s="12"/>
       <c r="BY73" s="12"/>
-      <c r="BZ73" s="12"/>
-      <c r="CA73" s="12"/>
-      <c r="CB73" s="12"/>
-      <c r="CC73" s="12"/>
+      <c r="BZ73" s="23"/>
+      <c r="CA73" s="23"/>
+      <c r="CB73" s="23"/>
+      <c r="CC73" s="23"/>
       <c r="CD73" s="23"/>
       <c r="CE73" s="23"/>
       <c r="CF73" s="23"/>
       <c r="CG73" s="23"/>
       <c r="CH73" s="23"/>
-      <c r="CI73" s="23"/>
-      <c r="CJ73" s="23"/>
-      <c r="CK73" s="23"/>
+      <c r="CI73" s="35"/>
+      <c r="CJ73" s="35"/>
+      <c r="CK73" s="35"/>
+      <c r="CL73" s="35"/>
+      <c r="CM73" s="30"/>
     </row>
-    <row r="74" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CI74" s="29"/>
+      <c r="CJ74" s="29"/>
+      <c r="CK74" s="29"/>
+      <c r="CL74" s="29"/>
+      <c r="CM74" s="30"/>
     </row>
-    <row r="75" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -32358,20 +32490,20 @@
       <c r="BW75" s="9"/>
       <c r="BX75" s="9"/>
       <c r="BY75" s="9"/>
-      <c r="BZ75" s="9"/>
-      <c r="CA75" s="9"/>
-      <c r="CB75" s="9"/>
-      <c r="CC75" s="9"/>
+      <c r="BZ75" s="21"/>
+      <c r="CA75" s="21"/>
+      <c r="CB75" s="21"/>
+      <c r="CC75" s="21"/>
       <c r="CD75" s="21"/>
       <c r="CE75" s="21"/>
       <c r="CF75" s="21"/>
       <c r="CG75" s="21"/>
       <c r="CH75" s="21"/>
-      <c r="CI75" s="21"/>
-      <c r="CJ75" s="21"/>
-      <c r="CK75" s="21"/>
-      <c r="CL75" s="9"/>
-      <c r="CM75" s="9"/>
+      <c r="CI75" s="33"/>
+      <c r="CJ75" s="33"/>
+      <c r="CK75" s="33"/>
+      <c r="CL75" s="33"/>
+      <c r="CM75" s="34"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
@@ -32485,7 +32617,7 @@
       <c r="GT75" s="9"/>
       <c r="GU75" s="9"/>
     </row>
-    <row r="76" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -32562,20 +32694,20 @@
       <c r="BW76" s="9"/>
       <c r="BX76" s="9"/>
       <c r="BY76" s="9"/>
-      <c r="BZ76" s="9"/>
-      <c r="CA76" s="9"/>
-      <c r="CB76" s="9"/>
-      <c r="CC76" s="9"/>
+      <c r="BZ76" s="21"/>
+      <c r="CA76" s="21"/>
+      <c r="CB76" s="21"/>
+      <c r="CC76" s="21"/>
       <c r="CD76" s="21"/>
       <c r="CE76" s="21"/>
       <c r="CF76" s="21"/>
       <c r="CG76" s="21"/>
       <c r="CH76" s="21"/>
-      <c r="CI76" s="21"/>
-      <c r="CJ76" s="21"/>
-      <c r="CK76" s="21"/>
-      <c r="CL76" s="9"/>
-      <c r="CM76" s="9"/>
+      <c r="CI76" s="33"/>
+      <c r="CJ76" s="33"/>
+      <c r="CK76" s="33"/>
+      <c r="CL76" s="33"/>
+      <c r="CM76" s="34"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
@@ -32689,167 +32821,170 @@
       <c r="GT76" s="9"/>
       <c r="GU76" s="9"/>
     </row>
-    <row r="77" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="30">
+      <c r="B84" s="37">
         <v>2000</v>
       </c>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="30">
+      <c r="C84" s="38"/>
+      <c r="D84" s="38"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="37">
         <v>2001</v>
       </c>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="30">
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="37">
         <v>2002</v>
       </c>
-      <c r="K84" s="31"/>
-      <c r="L84" s="31"/>
-      <c r="M84" s="31"/>
-      <c r="N84" s="30">
+      <c r="K84" s="38"/>
+      <c r="L84" s="38"/>
+      <c r="M84" s="38"/>
+      <c r="N84" s="37">
         <v>2003</v>
       </c>
-      <c r="O84" s="31"/>
-      <c r="P84" s="31"/>
-      <c r="Q84" s="31"/>
-      <c r="R84" s="30">
+      <c r="O84" s="38"/>
+      <c r="P84" s="38"/>
+      <c r="Q84" s="38"/>
+      <c r="R84" s="37">
         <v>2004</v>
       </c>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="30">
+      <c r="S84" s="38"/>
+      <c r="T84" s="38"/>
+      <c r="U84" s="38"/>
+      <c r="V84" s="37">
         <v>2005</v>
       </c>
-      <c r="W84" s="31"/>
-      <c r="X84" s="31"/>
-      <c r="Y84" s="31"/>
-      <c r="Z84" s="30">
+      <c r="W84" s="38"/>
+      <c r="X84" s="38"/>
+      <c r="Y84" s="38"/>
+      <c r="Z84" s="37">
         <v>2006</v>
       </c>
-      <c r="AA84" s="31"/>
-      <c r="AB84" s="31"/>
-      <c r="AC84" s="31"/>
-      <c r="AD84" s="30">
+      <c r="AA84" s="38"/>
+      <c r="AB84" s="38"/>
+      <c r="AC84" s="38"/>
+      <c r="AD84" s="37">
         <v>2007</v>
       </c>
-      <c r="AE84" s="31"/>
-      <c r="AF84" s="31"/>
-      <c r="AG84" s="31"/>
-      <c r="AH84" s="30">
+      <c r="AE84" s="38"/>
+      <c r="AF84" s="38"/>
+      <c r="AG84" s="38"/>
+      <c r="AH84" s="37">
         <v>2008</v>
       </c>
-      <c r="AI84" s="31"/>
-      <c r="AJ84" s="31"/>
-      <c r="AK84" s="31"/>
-      <c r="AL84" s="30">
+      <c r="AI84" s="38"/>
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="38"/>
+      <c r="AL84" s="37">
         <v>2009</v>
       </c>
-      <c r="AM84" s="31"/>
-      <c r="AN84" s="31"/>
-      <c r="AO84" s="31"/>
-      <c r="AP84" s="30">
+      <c r="AM84" s="38"/>
+      <c r="AN84" s="38"/>
+      <c r="AO84" s="38"/>
+      <c r="AP84" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="31"/>
-      <c r="AR84" s="31"/>
-      <c r="AS84" s="31"/>
-      <c r="AT84" s="30">
+      <c r="AQ84" s="38"/>
+      <c r="AR84" s="38"/>
+      <c r="AS84" s="38"/>
+      <c r="AT84" s="37">
         <v>2011</v>
       </c>
-      <c r="AU84" s="31"/>
-      <c r="AV84" s="31"/>
-      <c r="AW84" s="31"/>
-      <c r="AX84" s="30">
+      <c r="AU84" s="38"/>
+      <c r="AV84" s="38"/>
+      <c r="AW84" s="38"/>
+      <c r="AX84" s="37">
         <v>2012</v>
       </c>
-      <c r="AY84" s="31"/>
-      <c r="AZ84" s="31"/>
-      <c r="BA84" s="31"/>
-      <c r="BB84" s="30">
+      <c r="AY84" s="38"/>
+      <c r="AZ84" s="38"/>
+      <c r="BA84" s="38"/>
+      <c r="BB84" s="37">
         <v>2013</v>
       </c>
-      <c r="BC84" s="31"/>
-      <c r="BD84" s="31"/>
-      <c r="BE84" s="31"/>
-      <c r="BF84" s="30">
+      <c r="BC84" s="38"/>
+      <c r="BD84" s="38"/>
+      <c r="BE84" s="38"/>
+      <c r="BF84" s="37">
         <v>2014</v>
       </c>
-      <c r="BG84" s="31"/>
-      <c r="BH84" s="31"/>
-      <c r="BI84" s="31"/>
-      <c r="BJ84" s="30">
+      <c r="BG84" s="38"/>
+      <c r="BH84" s="38"/>
+      <c r="BI84" s="38"/>
+      <c r="BJ84" s="37">
         <v>2015</v>
       </c>
-      <c r="BK84" s="31"/>
-      <c r="BL84" s="31"/>
-      <c r="BM84" s="31"/>
-      <c r="BN84" s="30">
+      <c r="BK84" s="38"/>
+      <c r="BL84" s="38"/>
+      <c r="BM84" s="38"/>
+      <c r="BN84" s="37">
         <v>2016</v>
       </c>
-      <c r="BO84" s="31"/>
-      <c r="BP84" s="31"/>
-      <c r="BQ84" s="31"/>
-      <c r="BR84" s="30">
+      <c r="BO84" s="38"/>
+      <c r="BP84" s="38"/>
+      <c r="BQ84" s="38"/>
+      <c r="BR84" s="37">
         <v>2017</v>
       </c>
-      <c r="BS84" s="31"/>
-      <c r="BT84" s="31"/>
-      <c r="BU84" s="31"/>
-      <c r="BV84" s="30">
+      <c r="BS84" s="38"/>
+      <c r="BT84" s="38"/>
+      <c r="BU84" s="38"/>
+      <c r="BV84" s="37">
         <v>2018</v>
       </c>
-      <c r="BW84" s="31"/>
-      <c r="BX84" s="31"/>
-      <c r="BY84" s="31"/>
-      <c r="BZ84" s="30">
+      <c r="BW84" s="38"/>
+      <c r="BX84" s="38"/>
+      <c r="BY84" s="38"/>
+      <c r="BZ84" s="36">
         <v>2019</v>
       </c>
-      <c r="CA84" s="31"/>
-      <c r="CB84" s="31"/>
-      <c r="CC84" s="31"/>
-      <c r="CD84" s="29">
+      <c r="CA84" s="39"/>
+      <c r="CB84" s="39"/>
+      <c r="CC84" s="39"/>
+      <c r="CD84" s="36">
         <v>2020</v>
       </c>
-      <c r="CE84" s="29"/>
-      <c r="CF84" s="29"/>
-      <c r="CG84" s="29"/>
-      <c r="CH84" s="29">
+      <c r="CE84" s="36"/>
+      <c r="CF84" s="36"/>
+      <c r="CG84" s="36"/>
+      <c r="CH84" s="36">
         <v>2021</v>
       </c>
-      <c r="CI84" s="29"/>
-      <c r="CJ84" s="29"/>
-      <c r="CK84" s="29"/>
+      <c r="CI84" s="36"/>
+      <c r="CJ84" s="36"/>
+      <c r="CK84" s="36"/>
+      <c r="CL84" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="85" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -33081,16 +33216,16 @@
       <c r="BY85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="6" t="s">
+      <c r="BZ85" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="6" t="s">
+      <c r="CA85" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="6" t="s">
+      <c r="CB85" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="6" t="s">
+      <c r="CC85" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CD85" s="19" t="s">
@@ -33117,11 +33252,14 @@
       <c r="CK85" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="CL85" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="86" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -33353,43 +33491,45 @@
       <c r="BY87" s="15">
         <v>102.18532219185337</v>
       </c>
-      <c r="BZ87" s="15">
+      <c r="BZ87" s="25">
         <v>102.85081050151221</v>
       </c>
-      <c r="CA87" s="15">
+      <c r="CA87" s="25">
         <v>97.370930043163213</v>
       </c>
-      <c r="CB87" s="15">
+      <c r="CB87" s="25">
         <v>101.80213057272474</v>
       </c>
-      <c r="CC87" s="15">
+      <c r="CC87" s="25">
         <v>101.88413772525031</v>
       </c>
-      <c r="CD87" s="27">
+      <c r="CD87" s="25">
         <v>108.78263956737213</v>
       </c>
-      <c r="CE87" s="27">
+      <c r="CE87" s="25">
         <v>102.76418395011466</v>
       </c>
-      <c r="CF87" s="27">
+      <c r="CF87" s="25">
         <v>106.79051206663661</v>
       </c>
-      <c r="CG87" s="27">
-        <v>106.55816550557229</v>
-      </c>
-      <c r="CH87" s="27">
+      <c r="CG87" s="25">
+        <v>106.5581655055723</v>
+      </c>
+      <c r="CH87" s="25">
         <v>111.77210384805913</v>
       </c>
-      <c r="CI87" s="27">
+      <c r="CI87" s="25">
         <v>104.48024575744026</v>
       </c>
-      <c r="CJ87" s="27">
-        <v>106.76599863541485</v>
-      </c>
-      <c r="CK87" s="27">
+      <c r="CJ87" s="25">
+        <v>106.76790436123562</v>
+      </c>
+      <c r="CK87" s="25">
         <v>108.06880471121292</v>
       </c>
-      <c r="CL87" s="9"/>
+      <c r="CL87" s="25">
+        <v>112.8929346820664</v>
+      </c>
       <c r="CM87" s="9"/>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
@@ -33504,7 +33644,7 @@
       <c r="GT87" s="9"/>
       <c r="GU87" s="9"/>
     </row>
-    <row r="88" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -33736,43 +33876,45 @@
       <c r="BY88" s="15">
         <v>102.74951593057217</v>
       </c>
-      <c r="BZ88" s="15">
+      <c r="BZ88" s="25">
         <v>103.45888938723216</v>
       </c>
-      <c r="CA88" s="15">
+      <c r="CA88" s="25">
         <v>97.956508261236564</v>
       </c>
-      <c r="CB88" s="15">
+      <c r="CB88" s="25">
         <v>102.39640999743334</v>
       </c>
-      <c r="CC88" s="15">
+      <c r="CC88" s="25">
         <v>102.44272266885228</v>
       </c>
-      <c r="CD88" s="27">
+      <c r="CD88" s="25">
         <v>110.97462726862879</v>
       </c>
-      <c r="CE88" s="27">
+      <c r="CE88" s="25">
         <v>105.69685263893433</v>
       </c>
-      <c r="CF88" s="27">
+      <c r="CF88" s="25">
         <v>108.14732434535352</v>
       </c>
-      <c r="CG88" s="27">
+      <c r="CG88" s="25">
         <v>112.28317469001713</v>
       </c>
-      <c r="CH88" s="27">
+      <c r="CH88" s="25">
         <v>117.834359896264</v>
       </c>
-      <c r="CI88" s="27">
+      <c r="CI88" s="25">
         <v>115.78838538179785</v>
       </c>
-      <c r="CJ88" s="27">
-        <v>117.0468711670611</v>
-      </c>
-      <c r="CK88" s="27">
+      <c r="CJ88" s="25">
+        <v>116.4956717045641</v>
+      </c>
+      <c r="CK88" s="25">
         <v>116.99424484412614</v>
       </c>
-      <c r="CL88" s="9"/>
+      <c r="CL88" s="25">
+        <v>121.3423778590109</v>
+      </c>
       <c r="CM88" s="9"/>
       <c r="CN88" s="9"/>
       <c r="CO88" s="9"/>
@@ -33887,7 +34029,7 @@
       <c r="GT88" s="9"/>
       <c r="GU88" s="9"/>
     </row>
-    <row r="89" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -33964,10 +34106,10 @@
       <c r="BW89" s="9"/>
       <c r="BX89" s="9"/>
       <c r="BY89" s="9"/>
-      <c r="BZ89" s="9"/>
-      <c r="CA89" s="9"/>
-      <c r="CB89" s="9"/>
-      <c r="CC89" s="9"/>
+      <c r="BZ89" s="21"/>
+      <c r="CA89" s="21"/>
+      <c r="CB89" s="21"/>
+      <c r="CC89" s="21"/>
       <c r="CD89" s="21"/>
       <c r="CE89" s="21"/>
       <c r="CF89" s="21"/>
@@ -33976,7 +34118,7 @@
       <c r="CI89" s="21"/>
       <c r="CJ89" s="21"/>
       <c r="CK89" s="21"/>
-      <c r="CL89" s="9"/>
+      <c r="CL89" s="21"/>
       <c r="CM89" s="9"/>
       <c r="CN89" s="9"/>
       <c r="CO89" s="9"/>
@@ -34091,7 +34233,7 @@
       <c r="GT89" s="9"/>
       <c r="GU89" s="9"/>
     </row>
-    <row r="90" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>13</v>
       </c>
@@ -34323,43 +34465,45 @@
       <c r="BY90" s="15">
         <v>102.54329422410487</v>
       </c>
-      <c r="BZ90" s="15">
+      <c r="BZ90" s="25">
         <v>103.2357163417994</v>
       </c>
-      <c r="CA90" s="15">
+      <c r="CA90" s="25">
         <v>97.740981458444693</v>
       </c>
-      <c r="CB90" s="15">
+      <c r="CB90" s="25">
         <v>102.17730832227652</v>
       </c>
-      <c r="CC90" s="15">
+      <c r="CC90" s="25">
         <v>102.24070571308532</v>
       </c>
-      <c r="CD90" s="27">
+      <c r="CD90" s="25">
         <v>110.24290085023982</v>
       </c>
-      <c r="CE90" s="27">
+      <c r="CE90" s="25">
         <v>104.8368370292458</v>
       </c>
-      <c r="CF90" s="27">
+      <c r="CF90" s="25">
         <v>107.84499716914782</v>
       </c>
-      <c r="CG90" s="27">
-        <v>110.85706662788061</v>
-      </c>
-      <c r="CH90" s="27">
+      <c r="CG90" s="25">
+        <v>110.85368201058678</v>
+      </c>
+      <c r="CH90" s="25">
         <v>116.40913797647367</v>
       </c>
-      <c r="CI90" s="27">
+      <c r="CI90" s="25">
         <v>113.29756307777923</v>
       </c>
-      <c r="CJ90" s="27">
-        <v>114.83099054921659</v>
-      </c>
-      <c r="CK90" s="27">
-        <v>114.57306897879656</v>
-      </c>
-      <c r="CL90" s="9"/>
+      <c r="CJ90" s="25">
+        <v>114.40107810865211</v>
+      </c>
+      <c r="CK90" s="25">
+        <v>114.63662106674199</v>
+      </c>
+      <c r="CL90" s="25">
+        <v>119.34319554369137</v>
+      </c>
       <c r="CM90" s="9"/>
       <c r="CN90" s="9"/>
       <c r="CO90" s="9"/>
@@ -34474,7 +34618,7 @@
       <c r="GT90" s="9"/>
       <c r="GU90" s="9"/>
     </row>
-    <row r="91" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -34552,10 +34696,10 @@
       <c r="BW91" s="12"/>
       <c r="BX91" s="12"/>
       <c r="BY91" s="12"/>
-      <c r="BZ91" s="12"/>
-      <c r="CA91" s="12"/>
-      <c r="CB91" s="12"/>
-      <c r="CC91" s="12"/>
+      <c r="BZ91" s="23"/>
+      <c r="CA91" s="23"/>
+      <c r="CB91" s="23"/>
+      <c r="CC91" s="23"/>
       <c r="CD91" s="23"/>
       <c r="CE91" s="23"/>
       <c r="CF91" s="23"/>
@@ -34564,178 +34708,182 @@
       <c r="CI91" s="23"/>
       <c r="CJ91" s="23"/>
       <c r="CK91" s="23"/>
+      <c r="CL91" s="23"/>
     </row>
-    <row r="92" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="30">
+      <c r="B103" s="37">
         <v>2000</v>
       </c>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="30">
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="37">
         <v>2001</v>
       </c>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="30">
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
+      <c r="J103" s="37">
         <v>2002</v>
       </c>
-      <c r="K103" s="31"/>
-      <c r="L103" s="31"/>
-      <c r="M103" s="31"/>
-      <c r="N103" s="30">
+      <c r="K103" s="38"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="38"/>
+      <c r="N103" s="37">
         <v>2003</v>
       </c>
-      <c r="O103" s="31"/>
-      <c r="P103" s="31"/>
-      <c r="Q103" s="31"/>
-      <c r="R103" s="30">
+      <c r="O103" s="38"/>
+      <c r="P103" s="38"/>
+      <c r="Q103" s="38"/>
+      <c r="R103" s="37">
         <v>2004</v>
       </c>
-      <c r="S103" s="31"/>
-      <c r="T103" s="31"/>
-      <c r="U103" s="31"/>
-      <c r="V103" s="30">
+      <c r="S103" s="38"/>
+      <c r="T103" s="38"/>
+      <c r="U103" s="38"/>
+      <c r="V103" s="37">
         <v>2005</v>
       </c>
-      <c r="W103" s="31"/>
-      <c r="X103" s="31"/>
-      <c r="Y103" s="31"/>
-      <c r="Z103" s="30">
+      <c r="W103" s="38"/>
+      <c r="X103" s="38"/>
+      <c r="Y103" s="38"/>
+      <c r="Z103" s="37">
         <v>2006</v>
       </c>
-      <c r="AA103" s="31"/>
-      <c r="AB103" s="31"/>
-      <c r="AC103" s="31"/>
-      <c r="AD103" s="30">
+      <c r="AA103" s="38"/>
+      <c r="AB103" s="38"/>
+      <c r="AC103" s="38"/>
+      <c r="AD103" s="37">
         <v>2007</v>
       </c>
-      <c r="AE103" s="31"/>
-      <c r="AF103" s="31"/>
-      <c r="AG103" s="31"/>
-      <c r="AH103" s="30">
+      <c r="AE103" s="38"/>
+      <c r="AF103" s="38"/>
+      <c r="AG103" s="38"/>
+      <c r="AH103" s="37">
         <v>2008</v>
       </c>
-      <c r="AI103" s="31"/>
-      <c r="AJ103" s="31"/>
-      <c r="AK103" s="31"/>
-      <c r="AL103" s="30">
+      <c r="AI103" s="38"/>
+      <c r="AJ103" s="38"/>
+      <c r="AK103" s="38"/>
+      <c r="AL103" s="37">
         <v>2009</v>
       </c>
-      <c r="AM103" s="31"/>
-      <c r="AN103" s="31"/>
-      <c r="AO103" s="31"/>
-      <c r="AP103" s="30">
+      <c r="AM103" s="38"/>
+      <c r="AN103" s="38"/>
+      <c r="AO103" s="38"/>
+      <c r="AP103" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="31"/>
-      <c r="AR103" s="31"/>
-      <c r="AS103" s="31"/>
-      <c r="AT103" s="30">
+      <c r="AQ103" s="38"/>
+      <c r="AR103" s="38"/>
+      <c r="AS103" s="38"/>
+      <c r="AT103" s="37">
         <v>2011</v>
       </c>
-      <c r="AU103" s="31"/>
-      <c r="AV103" s="31"/>
-      <c r="AW103" s="31"/>
-      <c r="AX103" s="30">
+      <c r="AU103" s="38"/>
+      <c r="AV103" s="38"/>
+      <c r="AW103" s="38"/>
+      <c r="AX103" s="37">
         <v>2012</v>
       </c>
-      <c r="AY103" s="31"/>
-      <c r="AZ103" s="31"/>
-      <c r="BA103" s="31"/>
-      <c r="BB103" s="30">
+      <c r="AY103" s="38"/>
+      <c r="AZ103" s="38"/>
+      <c r="BA103" s="38"/>
+      <c r="BB103" s="37">
         <v>2013</v>
       </c>
-      <c r="BC103" s="31"/>
-      <c r="BD103" s="31"/>
-      <c r="BE103" s="31"/>
-      <c r="BF103" s="30">
+      <c r="BC103" s="38"/>
+      <c r="BD103" s="38"/>
+      <c r="BE103" s="38"/>
+      <c r="BF103" s="37">
         <v>2014</v>
       </c>
-      <c r="BG103" s="31"/>
-      <c r="BH103" s="31"/>
-      <c r="BI103" s="31"/>
-      <c r="BJ103" s="30">
+      <c r="BG103" s="38"/>
+      <c r="BH103" s="38"/>
+      <c r="BI103" s="38"/>
+      <c r="BJ103" s="37">
         <v>2015</v>
       </c>
-      <c r="BK103" s="31"/>
-      <c r="BL103" s="31"/>
-      <c r="BM103" s="31"/>
-      <c r="BN103" s="30">
+      <c r="BK103" s="38"/>
+      <c r="BL103" s="38"/>
+      <c r="BM103" s="38"/>
+      <c r="BN103" s="37">
         <v>2016</v>
       </c>
-      <c r="BO103" s="31"/>
-      <c r="BP103" s="31"/>
-      <c r="BQ103" s="31"/>
-      <c r="BR103" s="30">
+      <c r="BO103" s="38"/>
+      <c r="BP103" s="38"/>
+      <c r="BQ103" s="38"/>
+      <c r="BR103" s="37">
         <v>2017</v>
       </c>
-      <c r="BS103" s="31"/>
-      <c r="BT103" s="31"/>
-      <c r="BU103" s="31"/>
-      <c r="BV103" s="30">
+      <c r="BS103" s="38"/>
+      <c r="BT103" s="38"/>
+      <c r="BU103" s="38"/>
+      <c r="BV103" s="37">
         <v>2018</v>
       </c>
-      <c r="BW103" s="31"/>
-      <c r="BX103" s="31"/>
-      <c r="BY103" s="31"/>
-      <c r="BZ103" s="30">
+      <c r="BW103" s="38"/>
+      <c r="BX103" s="38"/>
+      <c r="BY103" s="38"/>
+      <c r="BZ103" s="36">
         <v>2019</v>
       </c>
-      <c r="CA103" s="31"/>
-      <c r="CB103" s="31"/>
-      <c r="CC103" s="31"/>
-      <c r="CD103" s="29">
+      <c r="CA103" s="39"/>
+      <c r="CB103" s="39"/>
+      <c r="CC103" s="39"/>
+      <c r="CD103" s="36">
         <v>2020</v>
       </c>
-      <c r="CE103" s="29"/>
-      <c r="CF103" s="29"/>
-      <c r="CG103" s="29"/>
-      <c r="CH103" s="29">
+      <c r="CE103" s="36"/>
+      <c r="CF103" s="36"/>
+      <c r="CG103" s="36"/>
+      <c r="CH103" s="36">
         <v>2021</v>
       </c>
-      <c r="CI103" s="29"/>
-      <c r="CJ103" s="29"/>
-      <c r="CK103" s="29"/>
+      <c r="CI103" s="36"/>
+      <c r="CJ103" s="36"/>
+      <c r="CK103" s="36"/>
+      <c r="CL103" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="104" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -34967,16 +35115,16 @@
       <c r="BY104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="6" t="s">
+      <c r="BZ104" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="6" t="s">
+      <c r="CA104" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="6" t="s">
+      <c r="CB104" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="6" t="s">
+      <c r="CC104" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CD104" s="19" t="s">
@@ -35003,11 +35151,14 @@
       <c r="CK104" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="CL104" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="105" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -35239,43 +35390,45 @@
       <c r="BY106" s="15">
         <v>36.423977381531472</v>
       </c>
-      <c r="BZ106" s="15">
+      <c r="BZ106" s="25">
         <v>36.564493257398354</v>
       </c>
-      <c r="CA106" s="15">
+      <c r="CA106" s="25">
         <v>36.666461070128314</v>
       </c>
-      <c r="CB106" s="15">
+      <c r="CB106" s="25">
         <v>36.733085798252077</v>
       </c>
-      <c r="CC106" s="15">
+      <c r="CC106" s="25">
         <v>36.039713739375919</v>
       </c>
-      <c r="CD106" s="27">
+      <c r="CD106" s="25">
         <v>32.939695658060884</v>
       </c>
-      <c r="CE106" s="27">
+      <c r="CE106" s="25">
         <v>28.745588206092492</v>
       </c>
-      <c r="CF106" s="27">
+      <c r="CF106" s="25">
         <v>22.064296663155599</v>
       </c>
-      <c r="CG106" s="27">
-        <v>23.944159666298525</v>
-      </c>
-      <c r="CH106" s="27">
+      <c r="CG106" s="25">
+        <v>24.001719733790509</v>
+      </c>
+      <c r="CH106" s="25">
         <v>22.573274874215045</v>
       </c>
-      <c r="CI106" s="27">
+      <c r="CI106" s="25">
         <v>20.312585227014196</v>
       </c>
-      <c r="CJ106" s="27">
-        <v>20.039654961727095</v>
-      </c>
-      <c r="CK106" s="27">
-        <v>25.586712923158661</v>
-      </c>
-      <c r="CL106" s="9"/>
+      <c r="CJ106" s="25">
+        <v>20.09542508873157</v>
+      </c>
+      <c r="CK106" s="25">
+        <v>24.901289241063303</v>
+      </c>
+      <c r="CL106" s="25">
+        <v>22.38171762096572</v>
+      </c>
       <c r="CM106" s="9"/>
       <c r="CN106" s="9"/>
       <c r="CO106" s="9"/>
@@ -35390,7 +35543,7 @@
       <c r="GT106" s="9"/>
       <c r="GU106" s="9"/>
     </row>
-    <row r="107" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -35622,43 +35775,45 @@
       <c r="BY107" s="15">
         <v>63.576022618468528</v>
       </c>
-      <c r="BZ107" s="15">
+      <c r="BZ107" s="25">
         <v>63.435506742601646</v>
       </c>
-      <c r="CA107" s="15">
+      <c r="CA107" s="25">
         <v>63.333538929871679</v>
       </c>
-      <c r="CB107" s="15">
+      <c r="CB107" s="25">
         <v>63.266914201747923</v>
       </c>
-      <c r="CC107" s="15">
+      <c r="CC107" s="25">
         <v>63.960286260624081</v>
       </c>
-      <c r="CD107" s="27">
+      <c r="CD107" s="25">
         <v>67.060304341939116</v>
       </c>
-      <c r="CE107" s="27">
+      <c r="CE107" s="25">
         <v>71.254411793907508</v>
       </c>
-      <c r="CF107" s="27">
+      <c r="CF107" s="25">
         <v>77.935703336844398</v>
       </c>
-      <c r="CG107" s="27">
-        <v>76.055840333701468</v>
-      </c>
-      <c r="CH107" s="27">
+      <c r="CG107" s="25">
+        <v>75.998280266209491</v>
+      </c>
+      <c r="CH107" s="25">
         <v>77.426725125784941</v>
       </c>
-      <c r="CI107" s="27">
+      <c r="CI107" s="25">
         <v>79.687414772985804</v>
       </c>
-      <c r="CJ107" s="27">
-        <v>79.960345038272905</v>
-      </c>
-      <c r="CK107" s="27">
-        <v>74.413287076841343</v>
-      </c>
-      <c r="CL107" s="9"/>
+      <c r="CJ107" s="25">
+        <v>79.90457491126844</v>
+      </c>
+      <c r="CK107" s="25">
+        <v>75.09871075893669</v>
+      </c>
+      <c r="CL107" s="25">
+        <v>77.61828237903427</v>
+      </c>
       <c r="CM107" s="9"/>
       <c r="CN107" s="9"/>
       <c r="CO107" s="9"/>
@@ -35773,7 +35928,7 @@
       <c r="GT107" s="9"/>
       <c r="GU107" s="9"/>
     </row>
-    <row r="108" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -35850,10 +36005,10 @@
       <c r="BW108" s="9"/>
       <c r="BX108" s="9"/>
       <c r="BY108" s="9"/>
-      <c r="BZ108" s="9"/>
-      <c r="CA108" s="9"/>
-      <c r="CB108" s="9"/>
-      <c r="CC108" s="9"/>
+      <c r="BZ108" s="21"/>
+      <c r="CA108" s="21"/>
+      <c r="CB108" s="21"/>
+      <c r="CC108" s="21"/>
       <c r="CD108" s="21"/>
       <c r="CE108" s="21"/>
       <c r="CF108" s="21"/>
@@ -35862,7 +36017,7 @@
       <c r="CI108" s="21"/>
       <c r="CJ108" s="21"/>
       <c r="CK108" s="21"/>
-      <c r="CL108" s="9"/>
+      <c r="CL108" s="21"/>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
@@ -35977,7 +36132,7 @@
       <c r="GT108" s="9"/>
       <c r="GU108" s="9"/>
     </row>
-    <row r="109" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>13</v>
       </c>
@@ -36209,43 +36364,45 @@
       <c r="BY109" s="15">
         <v>100</v>
       </c>
-      <c r="BZ109" s="15">
+      <c r="BZ109" s="25">
         <v>100</v>
       </c>
-      <c r="CA109" s="15">
+      <c r="CA109" s="25">
         <v>100</v>
       </c>
-      <c r="CB109" s="15">
+      <c r="CB109" s="25">
         <v>100</v>
       </c>
-      <c r="CC109" s="15">
+      <c r="CC109" s="25">
         <v>100</v>
       </c>
-      <c r="CD109" s="27">
+      <c r="CD109" s="25">
         <v>100</v>
       </c>
-      <c r="CE109" s="27">
+      <c r="CE109" s="25">
         <v>100</v>
       </c>
-      <c r="CF109" s="27">
+      <c r="CF109" s="25">
         <v>100</v>
       </c>
-      <c r="CG109" s="27">
+      <c r="CG109" s="25">
         <v>100</v>
       </c>
-      <c r="CH109" s="27">
+      <c r="CH109" s="25">
         <v>100</v>
       </c>
-      <c r="CI109" s="27">
+      <c r="CI109" s="25">
         <v>100</v>
       </c>
-      <c r="CJ109" s="27">
+      <c r="CJ109" s="25">
         <v>100</v>
       </c>
-      <c r="CK109" s="27">
+      <c r="CK109" s="25">
         <v>100</v>
       </c>
-      <c r="CL109" s="9"/>
+      <c r="CL109" s="25">
+        <v>100</v>
+      </c>
       <c r="CM109" s="9"/>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
@@ -36360,7 +36517,7 @@
       <c r="GT109" s="9"/>
       <c r="GU109" s="9"/>
     </row>
-    <row r="110" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -36438,10 +36595,10 @@
       <c r="BW110" s="12"/>
       <c r="BX110" s="12"/>
       <c r="BY110" s="12"/>
-      <c r="BZ110" s="12"/>
-      <c r="CA110" s="12"/>
-      <c r="CB110" s="12"/>
-      <c r="CC110" s="12"/>
+      <c r="BZ110" s="23"/>
+      <c r="CA110" s="23"/>
+      <c r="CB110" s="23"/>
+      <c r="CC110" s="23"/>
       <c r="CD110" s="23"/>
       <c r="CE110" s="23"/>
       <c r="CF110" s="23"/>
@@ -36450,13 +36607,14 @@
       <c r="CI110" s="23"/>
       <c r="CJ110" s="23"/>
       <c r="CK110" s="23"/>
+      <c r="CL110" s="23"/>
     </row>
-    <row r="111" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -36533,10 +36691,10 @@
       <c r="BW112" s="9"/>
       <c r="BX112" s="9"/>
       <c r="BY112" s="9"/>
-      <c r="BZ112" s="9"/>
-      <c r="CA112" s="9"/>
-      <c r="CB112" s="9"/>
-      <c r="CC112" s="9"/>
+      <c r="BZ112" s="21"/>
+      <c r="CA112" s="21"/>
+      <c r="CB112" s="21"/>
+      <c r="CC112" s="21"/>
       <c r="CD112" s="21"/>
       <c r="CE112" s="21"/>
       <c r="CF112" s="21"/>
@@ -36545,7 +36703,7 @@
       <c r="CI112" s="21"/>
       <c r="CJ112" s="21"/>
       <c r="CK112" s="21"/>
-      <c r="CL112" s="9"/>
+      <c r="CL112" s="21"/>
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
       <c r="CO112" s="9"/>
@@ -36660,7 +36818,7 @@
       <c r="GT112" s="9"/>
       <c r="GU112" s="9"/>
     </row>
-    <row r="113" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -36737,10 +36895,10 @@
       <c r="BW113" s="9"/>
       <c r="BX113" s="9"/>
       <c r="BY113" s="9"/>
-      <c r="BZ113" s="9"/>
-      <c r="CA113" s="9"/>
-      <c r="CB113" s="9"/>
-      <c r="CC113" s="9"/>
+      <c r="BZ113" s="21"/>
+      <c r="CA113" s="21"/>
+      <c r="CB113" s="21"/>
+      <c r="CC113" s="21"/>
       <c r="CD113" s="21"/>
       <c r="CE113" s="21"/>
       <c r="CF113" s="21"/>
@@ -36749,7 +36907,7 @@
       <c r="CI113" s="21"/>
       <c r="CJ113" s="21"/>
       <c r="CK113" s="21"/>
-      <c r="CL113" s="9"/>
+      <c r="CL113" s="21"/>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
@@ -36864,172 +37022,175 @@
       <c r="GT113" s="9"/>
       <c r="GU113" s="9"/>
     </row>
-    <row r="114" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="30">
+      <c r="B122" s="37">
         <v>2000</v>
       </c>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="30">
+      <c r="C122" s="38"/>
+      <c r="D122" s="38"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="37">
         <v>2001</v>
       </c>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="30">
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="38"/>
+      <c r="J122" s="37">
         <v>2002</v>
       </c>
-      <c r="K122" s="31"/>
-      <c r="L122" s="31"/>
-      <c r="M122" s="31"/>
-      <c r="N122" s="30">
+      <c r="K122" s="38"/>
+      <c r="L122" s="38"/>
+      <c r="M122" s="38"/>
+      <c r="N122" s="37">
         <v>2003</v>
       </c>
-      <c r="O122" s="31"/>
-      <c r="P122" s="31"/>
-      <c r="Q122" s="31"/>
-      <c r="R122" s="30">
+      <c r="O122" s="38"/>
+      <c r="P122" s="38"/>
+      <c r="Q122" s="38"/>
+      <c r="R122" s="37">
         <v>2004</v>
       </c>
-      <c r="S122" s="31"/>
-      <c r="T122" s="31"/>
-      <c r="U122" s="31"/>
-      <c r="V122" s="30">
+      <c r="S122" s="38"/>
+      <c r="T122" s="38"/>
+      <c r="U122" s="38"/>
+      <c r="V122" s="37">
         <v>2005</v>
       </c>
-      <c r="W122" s="31"/>
-      <c r="X122" s="31"/>
-      <c r="Y122" s="31"/>
-      <c r="Z122" s="30">
+      <c r="W122" s="38"/>
+      <c r="X122" s="38"/>
+      <c r="Y122" s="38"/>
+      <c r="Z122" s="37">
         <v>2006</v>
       </c>
-      <c r="AA122" s="31"/>
-      <c r="AB122" s="31"/>
-      <c r="AC122" s="31"/>
-      <c r="AD122" s="30">
+      <c r="AA122" s="38"/>
+      <c r="AB122" s="38"/>
+      <c r="AC122" s="38"/>
+      <c r="AD122" s="37">
         <v>2007</v>
       </c>
-      <c r="AE122" s="31"/>
-      <c r="AF122" s="31"/>
-      <c r="AG122" s="31"/>
-      <c r="AH122" s="30">
+      <c r="AE122" s="38"/>
+      <c r="AF122" s="38"/>
+      <c r="AG122" s="38"/>
+      <c r="AH122" s="37">
         <v>2008</v>
       </c>
-      <c r="AI122" s="31"/>
-      <c r="AJ122" s="31"/>
-      <c r="AK122" s="31"/>
-      <c r="AL122" s="30">
+      <c r="AI122" s="38"/>
+      <c r="AJ122" s="38"/>
+      <c r="AK122" s="38"/>
+      <c r="AL122" s="37">
         <v>2009</v>
       </c>
-      <c r="AM122" s="31"/>
-      <c r="AN122" s="31"/>
-      <c r="AO122" s="31"/>
-      <c r="AP122" s="30">
+      <c r="AM122" s="38"/>
+      <c r="AN122" s="38"/>
+      <c r="AO122" s="38"/>
+      <c r="AP122" s="37">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="31"/>
-      <c r="AR122" s="31"/>
-      <c r="AS122" s="31"/>
-      <c r="AT122" s="30">
+      <c r="AQ122" s="38"/>
+      <c r="AR122" s="38"/>
+      <c r="AS122" s="38"/>
+      <c r="AT122" s="37">
         <v>2011</v>
       </c>
-      <c r="AU122" s="31"/>
-      <c r="AV122" s="31"/>
-      <c r="AW122" s="31"/>
-      <c r="AX122" s="30">
+      <c r="AU122" s="38"/>
+      <c r="AV122" s="38"/>
+      <c r="AW122" s="38"/>
+      <c r="AX122" s="37">
         <v>2012</v>
       </c>
-      <c r="AY122" s="31"/>
-      <c r="AZ122" s="31"/>
-      <c r="BA122" s="31"/>
-      <c r="BB122" s="30">
+      <c r="AY122" s="38"/>
+      <c r="AZ122" s="38"/>
+      <c r="BA122" s="38"/>
+      <c r="BB122" s="37">
         <v>2013</v>
       </c>
-      <c r="BC122" s="31"/>
-      <c r="BD122" s="31"/>
-      <c r="BE122" s="31"/>
-      <c r="BF122" s="30">
+      <c r="BC122" s="38"/>
+      <c r="BD122" s="38"/>
+      <c r="BE122" s="38"/>
+      <c r="BF122" s="37">
         <v>2014</v>
       </c>
-      <c r="BG122" s="31"/>
-      <c r="BH122" s="31"/>
-      <c r="BI122" s="31"/>
-      <c r="BJ122" s="30">
+      <c r="BG122" s="38"/>
+      <c r="BH122" s="38"/>
+      <c r="BI122" s="38"/>
+      <c r="BJ122" s="37">
         <v>2015</v>
       </c>
-      <c r="BK122" s="31"/>
-      <c r="BL122" s="31"/>
-      <c r="BM122" s="31"/>
-      <c r="BN122" s="30">
+      <c r="BK122" s="38"/>
+      <c r="BL122" s="38"/>
+      <c r="BM122" s="38"/>
+      <c r="BN122" s="37">
         <v>2016</v>
       </c>
-      <c r="BO122" s="31"/>
-      <c r="BP122" s="31"/>
-      <c r="BQ122" s="31"/>
-      <c r="BR122" s="30">
+      <c r="BO122" s="38"/>
+      <c r="BP122" s="38"/>
+      <c r="BQ122" s="38"/>
+      <c r="BR122" s="37">
         <v>2017</v>
       </c>
-      <c r="BS122" s="31"/>
-      <c r="BT122" s="31"/>
-      <c r="BU122" s="31"/>
-      <c r="BV122" s="30">
+      <c r="BS122" s="38"/>
+      <c r="BT122" s="38"/>
+      <c r="BU122" s="38"/>
+      <c r="BV122" s="37">
         <v>2018</v>
       </c>
-      <c r="BW122" s="31"/>
-      <c r="BX122" s="31"/>
-      <c r="BY122" s="31"/>
-      <c r="BZ122" s="30">
+      <c r="BW122" s="38"/>
+      <c r="BX122" s="38"/>
+      <c r="BY122" s="38"/>
+      <c r="BZ122" s="36">
         <v>2019</v>
       </c>
-      <c r="CA122" s="31"/>
-      <c r="CB122" s="31"/>
-      <c r="CC122" s="31"/>
-      <c r="CD122" s="29">
+      <c r="CA122" s="39"/>
+      <c r="CB122" s="39"/>
+      <c r="CC122" s="39"/>
+      <c r="CD122" s="36">
         <v>2020</v>
       </c>
-      <c r="CE122" s="29"/>
-      <c r="CF122" s="29"/>
-      <c r="CG122" s="29"/>
-      <c r="CH122" s="29">
+      <c r="CE122" s="36"/>
+      <c r="CF122" s="36"/>
+      <c r="CG122" s="36"/>
+      <c r="CH122" s="36">
         <v>2021</v>
       </c>
-      <c r="CI122" s="29"/>
-      <c r="CJ122" s="29"/>
-      <c r="CK122" s="29"/>
+      <c r="CI122" s="36"/>
+      <c r="CJ122" s="36"/>
+      <c r="CK122" s="36"/>
+      <c r="CL122" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="123" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -37261,16 +37422,16 @@
       <c r="BY123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="6" t="s">
+      <c r="BZ123" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="6" t="s">
+      <c r="CA123" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="6" t="s">
+      <c r="CB123" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="6" t="s">
+      <c r="CC123" s="19" t="s">
         <v>9</v>
       </c>
       <c r="CD123" s="19" t="s">
@@ -37297,11 +37458,14 @@
       <c r="CK123" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="CL123" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="124" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -37533,43 +37697,45 @@
       <c r="BY125" s="15">
         <v>36.55157657999041</v>
       </c>
-      <c r="BZ125" s="15">
+      <c r="BZ125" s="25">
         <v>36.701331138726545</v>
       </c>
-      <c r="CA125" s="15">
+      <c r="CA125" s="25">
         <v>36.805809393147825</v>
       </c>
-      <c r="CB125" s="15">
+      <c r="CB125" s="25">
         <v>36.86846053340102</v>
       </c>
-      <c r="CC125" s="15">
+      <c r="CC125" s="25">
         <v>36.165843365607373</v>
       </c>
-      <c r="CD125" s="27">
+      <c r="CD125" s="25">
         <v>33.381866968025484</v>
       </c>
-      <c r="CE125" s="27">
+      <c r="CE125" s="25">
         <v>29.325358604850443</v>
       </c>
-      <c r="CF125" s="27">
+      <c r="CF125" s="25">
         <v>22.282166881009474</v>
       </c>
-      <c r="CG125" s="27">
-        <v>24.910144528873861</v>
-      </c>
-      <c r="CH125" s="27">
+      <c r="CG125" s="25">
+        <v>24.969264386760688</v>
+      </c>
+      <c r="CH125" s="25">
         <v>23.509761192161676</v>
       </c>
-      <c r="CI125" s="27">
+      <c r="CI125" s="25">
         <v>22.02680888953137</v>
       </c>
-      <c r="CJ125" s="27">
-        <v>21.553429546214485</v>
-      </c>
-      <c r="CK125" s="27">
-        <v>27.126683158193138</v>
-      </c>
-      <c r="CL125" s="9"/>
+      <c r="CJ125" s="25">
+        <v>21.532110318700106</v>
+      </c>
+      <c r="CK125" s="25">
+        <v>26.414650059555335</v>
+      </c>
+      <c r="CL125" s="25">
+        <v>23.660521450390757</v>
+      </c>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
@@ -37684,7 +37850,7 @@
       <c r="GT125" s="9"/>
       <c r="GU125" s="9"/>
     </row>
-    <row r="126" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -37916,43 +38082,45 @@
       <c r="BY126" s="15">
         <v>63.44842342000959</v>
       </c>
-      <c r="BZ126" s="15">
+      <c r="BZ126" s="25">
         <v>63.29866886127347</v>
       </c>
-      <c r="CA126" s="15">
+      <c r="CA126" s="25">
         <v>63.194190606852175</v>
       </c>
-      <c r="CB126" s="15">
+      <c r="CB126" s="25">
         <v>63.131539466598987</v>
       </c>
-      <c r="CC126" s="15">
+      <c r="CC126" s="25">
         <v>63.834156634392627</v>
       </c>
-      <c r="CD126" s="27">
+      <c r="CD126" s="25">
         <v>66.618133031974523</v>
       </c>
-      <c r="CE126" s="27">
+      <c r="CE126" s="25">
         <v>70.67464139514955</v>
       </c>
-      <c r="CF126" s="27">
+      <c r="CF126" s="25">
         <v>77.717833118990526</v>
       </c>
-      <c r="CG126" s="27">
-        <v>75.089855471126128</v>
-      </c>
-      <c r="CH126" s="27">
+      <c r="CG126" s="25">
+        <v>75.030735613239301</v>
+      </c>
+      <c r="CH126" s="25">
         <v>76.490238807838324</v>
       </c>
-      <c r="CI126" s="27">
+      <c r="CI126" s="25">
         <v>77.973191110468619</v>
       </c>
-      <c r="CJ126" s="27">
-        <v>78.446570453785512</v>
-      </c>
-      <c r="CK126" s="27">
-        <v>72.873316841806869</v>
-      </c>
-      <c r="CL126" s="9"/>
+      <c r="CJ126" s="25">
+        <v>78.46788968129988</v>
+      </c>
+      <c r="CK126" s="25">
+        <v>73.585349940444672</v>
+      </c>
+      <c r="CL126" s="25">
+        <v>76.339478549609254</v>
+      </c>
       <c r="CM126" s="9"/>
       <c r="CN126" s="9"/>
       <c r="CO126" s="9"/>
@@ -38067,7 +38235,7 @@
       <c r="GT126" s="9"/>
       <c r="GU126" s="9"/>
     </row>
-    <row r="127" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -38144,10 +38312,10 @@
       <c r="BW127" s="9"/>
       <c r="BX127" s="9"/>
       <c r="BY127" s="9"/>
-      <c r="BZ127" s="9"/>
-      <c r="CA127" s="9"/>
-      <c r="CB127" s="9"/>
-      <c r="CC127" s="9"/>
+      <c r="BZ127" s="21"/>
+      <c r="CA127" s="21"/>
+      <c r="CB127" s="21"/>
+      <c r="CC127" s="21"/>
       <c r="CD127" s="21"/>
       <c r="CE127" s="21"/>
       <c r="CF127" s="21"/>
@@ -38156,7 +38324,7 @@
       <c r="CI127" s="21"/>
       <c r="CJ127" s="21"/>
       <c r="CK127" s="21"/>
-      <c r="CL127" s="9"/>
+      <c r="CL127" s="21"/>
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
       <c r="CO127" s="9"/>
@@ -38271,7 +38439,7 @@
       <c r="GT127" s="9"/>
       <c r="GU127" s="9"/>
     </row>
-    <row r="128" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>13</v>
       </c>
@@ -38503,43 +38671,45 @@
       <c r="BY128" s="15">
         <v>100</v>
       </c>
-      <c r="BZ128" s="15">
+      <c r="BZ128" s="25">
         <v>100</v>
       </c>
-      <c r="CA128" s="15">
+      <c r="CA128" s="25">
         <v>100</v>
       </c>
-      <c r="CB128" s="15">
+      <c r="CB128" s="25">
         <v>100</v>
       </c>
-      <c r="CC128" s="15">
+      <c r="CC128" s="25">
         <v>100</v>
       </c>
-      <c r="CD128" s="27">
+      <c r="CD128" s="25">
         <v>100</v>
       </c>
-      <c r="CE128" s="27">
+      <c r="CE128" s="25">
         <v>100</v>
       </c>
-      <c r="CF128" s="27">
+      <c r="CF128" s="25">
         <v>100</v>
       </c>
-      <c r="CG128" s="27">
+      <c r="CG128" s="25">
         <v>100</v>
       </c>
-      <c r="CH128" s="27">
+      <c r="CH128" s="25">
         <v>100</v>
       </c>
-      <c r="CI128" s="27">
+      <c r="CI128" s="25">
         <v>100</v>
       </c>
-      <c r="CJ128" s="27">
+      <c r="CJ128" s="25">
         <v>100</v>
       </c>
-      <c r="CK128" s="27">
+      <c r="CK128" s="25">
         <v>100</v>
       </c>
-      <c r="CL128" s="9"/>
+      <c r="CL128" s="25">
+        <v>100</v>
+      </c>
       <c r="CM128" s="9"/>
       <c r="CN128" s="9"/>
       <c r="CO128" s="9"/>
@@ -38654,7 +38824,7 @@
       <c r="GT128" s="9"/>
       <c r="GU128" s="9"/>
     </row>
-    <row r="129" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -38732,10 +38902,10 @@
       <c r="BW129" s="12"/>
       <c r="BX129" s="12"/>
       <c r="BY129" s="12"/>
-      <c r="BZ129" s="12"/>
-      <c r="CA129" s="12"/>
-      <c r="CB129" s="12"/>
-      <c r="CC129" s="12"/>
+      <c r="BZ129" s="23"/>
+      <c r="CA129" s="23"/>
+      <c r="CB129" s="23"/>
+      <c r="CC129" s="23"/>
       <c r="CD129" s="23"/>
       <c r="CE129" s="23"/>
       <c r="CF129" s="23"/>
@@ -38744,13 +38914,14 @@
       <c r="CI129" s="23"/>
       <c r="CJ129" s="23"/>
       <c r="CK129" s="23"/>
+      <c r="CL129" s="23"/>
     </row>
-    <row r="130" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:203" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:203" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -38828,19 +38999,19 @@
       <c r="BW131" s="1"/>
       <c r="BX131" s="1"/>
       <c r="BY131" s="1"/>
-      <c r="BZ131" s="1"/>
-      <c r="CA131" s="1"/>
-      <c r="CB131" s="1"/>
-      <c r="CC131" s="1"/>
-      <c r="CD131" s="18"/>
-      <c r="CE131" s="18"/>
-      <c r="CF131" s="18"/>
-      <c r="CG131" s="18"/>
-      <c r="CH131" s="18"/>
-      <c r="CI131" s="18"/>
-      <c r="CJ131" s="18"/>
-      <c r="CK131" s="18"/>
-      <c r="CL131" s="16"/>
+      <c r="BZ131" s="18"/>
+      <c r="CA131" s="18"/>
+      <c r="CB131" s="18"/>
+      <c r="CC131" s="18"/>
+      <c r="CD131" s="28"/>
+      <c r="CE131" s="28"/>
+      <c r="CF131" s="28"/>
+      <c r="CG131" s="28"/>
+      <c r="CH131" s="28"/>
+      <c r="CI131" s="28"/>
+      <c r="CJ131" s="28"/>
+      <c r="CK131" s="28"/>
+      <c r="CL131" s="28"/>
       <c r="CM131" s="16"/>
       <c r="CN131" s="16"/>
       <c r="CO131" s="16"/>
@@ -38955,7 +39126,7 @@
       <c r="GT131" s="16"/>
       <c r="GU131" s="16"/>
     </row>
-    <row r="132" spans="1:203" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:203" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -39033,19 +39204,19 @@
       <c r="BW132" s="1"/>
       <c r="BX132" s="1"/>
       <c r="BY132" s="1"/>
-      <c r="BZ132" s="1"/>
-      <c r="CA132" s="1"/>
-      <c r="CB132" s="1"/>
-      <c r="CC132" s="1"/>
-      <c r="CD132" s="18"/>
-      <c r="CE132" s="18"/>
-      <c r="CF132" s="18"/>
-      <c r="CG132" s="18"/>
-      <c r="CH132" s="18"/>
-      <c r="CI132" s="18"/>
-      <c r="CJ132" s="18"/>
-      <c r="CK132" s="18"/>
-      <c r="CL132" s="16"/>
+      <c r="BZ132" s="18"/>
+      <c r="CA132" s="18"/>
+      <c r="CB132" s="18"/>
+      <c r="CC132" s="18"/>
+      <c r="CD132" s="28"/>
+      <c r="CE132" s="28"/>
+      <c r="CF132" s="28"/>
+      <c r="CG132" s="28"/>
+      <c r="CH132" s="28"/>
+      <c r="CI132" s="28"/>
+      <c r="CJ132" s="28"/>
+      <c r="CK132" s="28"/>
+      <c r="CL132" s="28"/>
       <c r="CM132" s="16"/>
       <c r="CN132" s="16"/>
       <c r="CO132" s="16"/>
@@ -39160,8 +39331,165 @@
       <c r="GT132" s="16"/>
       <c r="GU132" s="16"/>
     </row>
+    <row r="138" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CC138" s="1"/>
+      <c r="CD138" s="1"/>
+      <c r="CE138" s="1"/>
+      <c r="CF138" s="1"/>
+      <c r="CG138" s="1"/>
+      <c r="CH138" s="1"/>
+      <c r="CI138" s="1"/>
+      <c r="CJ138" s="1"/>
+      <c r="CK138" s="1"/>
+      <c r="CL138" s="1"/>
+    </row>
+    <row r="139" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CC139" s="1"/>
+      <c r="CD139" s="1"/>
+      <c r="CE139" s="1"/>
+      <c r="CF139" s="1"/>
+      <c r="CG139" s="1"/>
+      <c r="CH139" s="1"/>
+      <c r="CI139" s="1"/>
+      <c r="CJ139" s="1"/>
+      <c r="CK139" s="1"/>
+      <c r="CL139" s="1"/>
+    </row>
+    <row r="140" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CC140" s="1"/>
+      <c r="CD140" s="1"/>
+      <c r="CE140" s="1"/>
+      <c r="CF140" s="1"/>
+      <c r="CG140" s="1"/>
+      <c r="CH140" s="1"/>
+      <c r="CI140" s="1"/>
+      <c r="CJ140" s="1"/>
+      <c r="CK140" s="1"/>
+      <c r="CL140" s="1"/>
+    </row>
+    <row r="141" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CC141" s="1"/>
+      <c r="CD141" s="1"/>
+      <c r="CE141" s="1"/>
+      <c r="CF141" s="1"/>
+      <c r="CG141" s="1"/>
+      <c r="CH141" s="1"/>
+      <c r="CI141" s="1"/>
+      <c r="CJ141" s="1"/>
+      <c r="CK141" s="1"/>
+      <c r="CL141" s="1"/>
+    </row>
+    <row r="142" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CC142" s="1"/>
+      <c r="CD142" s="1"/>
+      <c r="CE142" s="1"/>
+      <c r="CF142" s="1"/>
+      <c r="CG142" s="1"/>
+      <c r="CH142" s="1"/>
+      <c r="CI142" s="1"/>
+      <c r="CJ142" s="1"/>
+      <c r="CK142" s="1"/>
+      <c r="CL142" s="1"/>
+    </row>
+    <row r="143" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CC143" s="1"/>
+      <c r="CD143" s="1"/>
+      <c r="CE143" s="1"/>
+      <c r="CF143" s="1"/>
+      <c r="CG143" s="1"/>
+      <c r="CH143" s="1"/>
+      <c r="CI143" s="1"/>
+      <c r="CJ143" s="1"/>
+      <c r="CK143" s="1"/>
+      <c r="CL143" s="1"/>
+    </row>
+    <row r="144" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CC144" s="1"/>
+      <c r="CD144" s="1"/>
+      <c r="CE144" s="1"/>
+      <c r="CF144" s="1"/>
+      <c r="CG144" s="1"/>
+      <c r="CH144" s="1"/>
+      <c r="CI144" s="1"/>
+      <c r="CJ144" s="1"/>
+      <c r="CK144" s="1"/>
+      <c r="CL144" s="1"/>
+    </row>
+    <row r="145" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC145" s="1"/>
+      <c r="CD145" s="1"/>
+      <c r="CE145" s="1"/>
+      <c r="CF145" s="1"/>
+      <c r="CG145" s="1"/>
+      <c r="CH145" s="1"/>
+      <c r="CI145" s="1"/>
+      <c r="CJ145" s="1"/>
+      <c r="CK145" s="1"/>
+      <c r="CL145" s="1"/>
+    </row>
+    <row r="146" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC146" s="1"/>
+      <c r="CD146" s="1"/>
+      <c r="CE146" s="1"/>
+      <c r="CF146" s="1"/>
+      <c r="CG146" s="1"/>
+      <c r="CH146" s="1"/>
+      <c r="CI146" s="1"/>
+      <c r="CJ146" s="1"/>
+      <c r="CK146" s="1"/>
+      <c r="CL146" s="1"/>
+    </row>
+    <row r="147" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC147" s="1"/>
+      <c r="CD147" s="1"/>
+      <c r="CE147" s="1"/>
+      <c r="CF147" s="1"/>
+      <c r="CG147" s="1"/>
+      <c r="CH147" s="1"/>
+      <c r="CI147" s="1"/>
+      <c r="CJ147" s="1"/>
+      <c r="CK147" s="1"/>
+      <c r="CL147" s="1"/>
+    </row>
+    <row r="148" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC148" s="1"/>
+      <c r="CD148" s="1"/>
+      <c r="CE148" s="1"/>
+      <c r="CF148" s="1"/>
+      <c r="CG148" s="1"/>
+      <c r="CH148" s="1"/>
+      <c r="CI148" s="1"/>
+      <c r="CJ148" s="1"/>
+      <c r="CK148" s="1"/>
+      <c r="CL148" s="1"/>
+    </row>
+    <row r="149" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC149" s="1"/>
+      <c r="CD149" s="1"/>
+      <c r="CE149" s="1"/>
+      <c r="CF149" s="1"/>
+      <c r="CG149" s="1"/>
+      <c r="CH149" s="1"/>
+      <c r="CI149" s="1"/>
+      <c r="CJ149" s="1"/>
+      <c r="CK149" s="1"/>
+      <c r="CL149" s="1"/>
+    </row>
+    <row r="150" spans="81:90" x14ac:dyDescent="0.2">
+      <c r="CC150" s="1"/>
+      <c r="CD150" s="1"/>
+      <c r="CE150" s="1"/>
+      <c r="CF150" s="1"/>
+      <c r="CG150" s="1"/>
+      <c r="CH150" s="1"/>
+      <c r="CI150" s="1"/>
+      <c r="CJ150" s="1"/>
+      <c r="CK150" s="1"/>
+      <c r="CL150" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -39175,10 +39503,6 @@
     <mergeCell ref="F103:I103"/>
     <mergeCell ref="J103:M103"/>
     <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="R122:U122"/>
     <mergeCell ref="V122:Y122"/>
     <mergeCell ref="Z122:AC122"/>
@@ -39194,27 +39518,21 @@
     <mergeCell ref="AX122:BA122"/>
     <mergeCell ref="R103:U103"/>
     <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
     <mergeCell ref="BF122:BI122"/>
     <mergeCell ref="BJ122:BM122"/>
     <mergeCell ref="BN122:BQ122"/>
     <mergeCell ref="BF103:BI103"/>
     <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BN103:BQ103"/>
     <mergeCell ref="B66:E66"/>
     <mergeCell ref="F66:I66"/>
@@ -39233,6 +39551,18 @@
     <mergeCell ref="AH103:AK103"/>
     <mergeCell ref="AL103:AO103"/>
     <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AP66:AS66"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -39256,7 +39586,7 @@
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BB47:BE47"/>
     <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="F47:I47"/>
     <mergeCell ref="J47:M47"/>
     <mergeCell ref="N47:Q47"/>
     <mergeCell ref="R47:U47"/>
@@ -39264,8 +39594,7 @@
     <mergeCell ref="Z47:AC47"/>
     <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -39289,15 +39618,6 @@
     <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="B47:E47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>
     <mergeCell ref="BZ28:CC28"/>
@@ -39310,19 +39630,26 @@
     <mergeCell ref="BZ66:CC66"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="CD103:CG103"/>
     <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CD122:CG122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="86" man="1"/>
-    <brk id="76" max="86" man="1"/>
-    <brk id="94" max="86" man="1"/>
+    <brk id="38" max="88" man="1"/>
+    <brk id="76" max="88" man="1"/>
+    <brk id="94" max="88" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1983594C-C1E3-4607-9E86-E22EF186A8DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD587B-26F1-433A-AA88-0EA8B4C22404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CK$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CM$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -628,10 +628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -702,84 +702,65 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{246255EE-D572-4156-8207-28FA76EA8150}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2A2C0BFA-9017-45E8-A071-2F8E5FCA409B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23618,192 +23599,191 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:GU150"/>
+  <dimension ref="A1:GU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A43" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BU1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CP74" sqref="CP74"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="77" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="9.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="79" max="90" width="9.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
+    <col min="2" max="91" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="37">
+      <c r="B9" s="23">
         <v>2000</v>
       </c>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23">
         <v>2001</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37">
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23">
         <v>2002</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37">
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23">
         <v>2003</v>
       </c>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37">
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23">
         <v>2004</v>
       </c>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37">
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23">
         <v>2005</v>
       </c>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37">
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23">
         <v>2006</v>
       </c>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37">
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23">
         <v>2007</v>
       </c>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37">
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23">
         <v>2008</v>
       </c>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37">
+      <c r="AI9" s="23"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="23"/>
+      <c r="AL9" s="23">
         <v>2009</v>
       </c>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37">
+      <c r="AM9" s="23"/>
+      <c r="AN9" s="23"/>
+      <c r="AO9" s="23"/>
+      <c r="AP9" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
-      <c r="AS9" s="37"/>
-      <c r="AT9" s="37">
+      <c r="AQ9" s="23"/>
+      <c r="AR9" s="23"/>
+      <c r="AS9" s="23"/>
+      <c r="AT9" s="23">
         <v>2011</v>
       </c>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="37"/>
-      <c r="AW9" s="37"/>
-      <c r="AX9" s="37">
+      <c r="AU9" s="23"/>
+      <c r="AV9" s="23"/>
+      <c r="AW9" s="23"/>
+      <c r="AX9" s="23">
         <v>2012</v>
       </c>
-      <c r="AY9" s="37"/>
-      <c r="AZ9" s="37"/>
-      <c r="BA9" s="37"/>
-      <c r="BB9" s="37">
+      <c r="AY9" s="23"/>
+      <c r="AZ9" s="23"/>
+      <c r="BA9" s="23"/>
+      <c r="BB9" s="23">
         <v>2013</v>
       </c>
-      <c r="BC9" s="37"/>
-      <c r="BD9" s="37"/>
-      <c r="BE9" s="37"/>
-      <c r="BF9" s="37">
+      <c r="BC9" s="23"/>
+      <c r="BD9" s="23"/>
+      <c r="BE9" s="23"/>
+      <c r="BF9" s="23">
         <v>2014</v>
       </c>
-      <c r="BG9" s="37"/>
-      <c r="BH9" s="37"/>
-      <c r="BI9" s="37"/>
-      <c r="BJ9" s="37">
+      <c r="BG9" s="23"/>
+      <c r="BH9" s="23"/>
+      <c r="BI9" s="23"/>
+      <c r="BJ9" s="23">
         <v>2015</v>
       </c>
-      <c r="BK9" s="37"/>
-      <c r="BL9" s="37"/>
-      <c r="BM9" s="37"/>
-      <c r="BN9" s="37">
+      <c r="BK9" s="23"/>
+      <c r="BL9" s="23"/>
+      <c r="BM9" s="23"/>
+      <c r="BN9" s="23">
         <v>2016</v>
       </c>
-      <c r="BO9" s="37"/>
-      <c r="BP9" s="37"/>
-      <c r="BQ9" s="37"/>
-      <c r="BR9" s="37">
+      <c r="BO9" s="23"/>
+      <c r="BP9" s="23"/>
+      <c r="BQ9" s="23"/>
+      <c r="BR9" s="23">
         <v>2017</v>
       </c>
-      <c r="BS9" s="37"/>
-      <c r="BT9" s="37"/>
-      <c r="BU9" s="37"/>
-      <c r="BV9" s="37">
+      <c r="BS9" s="23"/>
+      <c r="BT9" s="23"/>
+      <c r="BU9" s="23"/>
+      <c r="BV9" s="23">
         <v>2018</v>
       </c>
-      <c r="BW9" s="37"/>
-      <c r="BX9" s="37"/>
-      <c r="BY9" s="37"/>
-      <c r="BZ9" s="36">
+      <c r="BW9" s="23"/>
+      <c r="BX9" s="23"/>
+      <c r="BY9" s="23"/>
+      <c r="BZ9" s="23">
         <v>2019</v>
       </c>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36">
+      <c r="CA9" s="23"/>
+      <c r="CB9" s="23"/>
+      <c r="CC9" s="23"/>
+      <c r="CD9" s="23">
         <v>2020</v>
       </c>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36">
+      <c r="CE9" s="23"/>
+      <c r="CF9" s="23"/>
+      <c r="CG9" s="23"/>
+      <c r="CH9" s="23">
         <v>2021</v>
       </c>
-      <c r="CI9" s="36"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="36"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="23"/>
+      <c r="CJ9" s="23"/>
+      <c r="CK9" s="23"/>
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
+      <c r="CM9" s="23"/>
     </row>
-    <row r="10" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24035,50 +24015,53 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="19" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="19" t="s">
+      <c r="CA10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="19" t="s">
+      <c r="CB10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="19" t="s">
+      <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="19" t="s">
+      <c r="CD10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="19" t="s">
+      <c r="CE10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="19" t="s">
+      <c r="CF10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="19" t="s">
+      <c r="CG10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="19" t="s">
+      <c r="CH10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="19" t="s">
+      <c r="CI10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="19" t="s">
+      <c r="CJ10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="19" t="s">
+      <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="19" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24310,46 +24293,48 @@
       <c r="BY12" s="8">
         <v>40362.130634180307</v>
       </c>
-      <c r="BZ12" s="20">
+      <c r="BZ12" s="8">
         <v>40200.920446033299</v>
       </c>
-      <c r="CA12" s="20">
+      <c r="CA12" s="8">
         <v>35405.087038760299</v>
       </c>
-      <c r="CB12" s="20">
+      <c r="CB12" s="8">
         <v>40027.320209709702</v>
       </c>
-      <c r="CC12" s="20">
+      <c r="CC12" s="8">
         <v>41915.822312789198</v>
       </c>
-      <c r="CD12" s="20">
+      <c r="CD12" s="8">
         <v>32535.792962124964</v>
       </c>
-      <c r="CE12" s="20">
+      <c r="CE12" s="8">
         <v>9782.8104847882059</v>
       </c>
-      <c r="CF12" s="20">
+      <c r="CF12" s="8">
         <v>11523.24586456906</v>
       </c>
-      <c r="CG12" s="20">
+      <c r="CG12" s="8">
         <v>16316.674780339399</v>
       </c>
-      <c r="CH12" s="20">
+      <c r="CH12" s="19">
         <v>18245.77194646827</v>
       </c>
-      <c r="CI12" s="20">
+      <c r="CI12" s="19">
         <v>11707.296323984163</v>
       </c>
-      <c r="CJ12" s="20">
+      <c r="CJ12" s="19">
         <v>12514.2688316575</v>
       </c>
-      <c r="CK12" s="20">
+      <c r="CK12" s="19">
         <v>21042.815017700836</v>
       </c>
-      <c r="CL12" s="20">
-        <v>22433.629495157711</v>
-      </c>
-      <c r="CM12" s="9"/>
+      <c r="CL12" s="19">
+        <v>22217.171288109632</v>
+      </c>
+      <c r="CM12" s="19">
+        <v>20654.791946411562</v>
+      </c>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
@@ -24463,7 +24448,7 @@
       <c r="GT12" s="9"/>
       <c r="GU12" s="9"/>
     </row>
-    <row r="13" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24695,46 +24680,48 @@
       <c r="BY13" s="8">
         <v>70449.849648471776</v>
       </c>
-      <c r="BZ13" s="20">
+      <c r="BZ13" s="8">
         <v>69744.321138571904</v>
       </c>
-      <c r="CA13" s="20">
+      <c r="CA13" s="8">
         <v>61154.78267717571</v>
       </c>
-      <c r="CB13" s="20">
+      <c r="CB13" s="8">
         <v>68940.7104903258</v>
       </c>
-      <c r="CC13" s="20">
+      <c r="CC13" s="8">
         <v>74388.714998208394</v>
       </c>
-      <c r="CD13" s="20">
+      <c r="CD13" s="8">
         <v>66238.018732649813</v>
       </c>
-      <c r="CE13" s="20">
+      <c r="CE13" s="8">
         <v>24249.578814919303</v>
       </c>
-      <c r="CF13" s="20">
+      <c r="CF13" s="8">
         <v>40702.51070718393</v>
       </c>
-      <c r="CG13" s="20">
+      <c r="CG13" s="8">
         <v>51664.598900513491</v>
       </c>
-      <c r="CH13" s="20">
+      <c r="CH13" s="19">
         <v>62583.314874735559</v>
       </c>
-      <c r="CI13" s="20">
+      <c r="CI13" s="19">
         <v>45928.382212957295</v>
       </c>
-      <c r="CJ13" s="20">
+      <c r="CJ13" s="19">
         <v>49759.949187621067</v>
       </c>
-      <c r="CK13" s="20">
+      <c r="CK13" s="19">
         <v>63462.106851968158</v>
       </c>
-      <c r="CL13" s="20">
-        <v>77798.30924641306</v>
-      </c>
-      <c r="CM13" s="9"/>
+      <c r="CL13" s="19">
+        <v>77519.819252167275</v>
+      </c>
+      <c r="CM13" s="19">
+        <v>58877.793745588831</v>
+      </c>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
@@ -24848,7 +24835,7 @@
       <c r="GT13" s="9"/>
       <c r="GU13" s="9"/>
     </row>
-    <row r="14" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -24925,19 +24912,19 @@
       <c r="BW14" s="9"/>
       <c r="BX14" s="9"/>
       <c r="BY14" s="9"/>
-      <c r="BZ14" s="21"/>
-      <c r="CA14" s="21"/>
-      <c r="CB14" s="21"/>
-      <c r="CC14" s="21"/>
-      <c r="CD14" s="21"/>
-      <c r="CE14" s="21"/>
-      <c r="CF14" s="21"/>
-      <c r="CG14" s="21"/>
-      <c r="CH14" s="21"/>
-      <c r="CI14" s="21"/>
-      <c r="CJ14" s="21"/>
-      <c r="CK14" s="21"/>
-      <c r="CL14" s="21"/>
+      <c r="BZ14" s="9"/>
+      <c r="CA14" s="9"/>
+      <c r="CB14" s="9"/>
+      <c r="CC14" s="9"/>
+      <c r="CD14" s="9"/>
+      <c r="CE14" s="9"/>
+      <c r="CF14" s="9"/>
+      <c r="CG14" s="9"/>
+      <c r="CH14" s="9"/>
+      <c r="CI14" s="9"/>
+      <c r="CJ14" s="9"/>
+      <c r="CK14" s="9"/>
+      <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -25052,7 +25039,7 @@
       <c r="GT14" s="9"/>
       <c r="GU14" s="9"/>
     </row>
-    <row r="15" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -25284,46 +25271,48 @@
       <c r="BY15" s="11">
         <v>110811.98028265208</v>
       </c>
-      <c r="BZ15" s="22">
+      <c r="BZ15" s="11">
         <v>109945.2415846052</v>
       </c>
-      <c r="CA15" s="22">
+      <c r="CA15" s="11">
         <v>96559.869715936016</v>
       </c>
-      <c r="CB15" s="22">
+      <c r="CB15" s="11">
         <v>108968.03070003551</v>
       </c>
-      <c r="CC15" s="22">
+      <c r="CC15" s="11">
         <v>116304.53731099759</v>
       </c>
-      <c r="CD15" s="22">
+      <c r="CD15" s="11">
         <v>98773.811694774777</v>
       </c>
-      <c r="CE15" s="22">
+      <c r="CE15" s="11">
         <v>34032.389299707509</v>
       </c>
-      <c r="CF15" s="22">
+      <c r="CF15" s="11">
         <v>52225.756571752994</v>
       </c>
-      <c r="CG15" s="22">
+      <c r="CG15" s="11">
         <v>67981.273680852886</v>
       </c>
-      <c r="CH15" s="22">
+      <c r="CH15" s="20">
         <v>80829.086821203833</v>
       </c>
-      <c r="CI15" s="22">
+      <c r="CI15" s="20">
         <v>57635.678536941457</v>
       </c>
-      <c r="CJ15" s="22">
+      <c r="CJ15" s="20">
         <v>62274.218019278567</v>
       </c>
-      <c r="CK15" s="22">
+      <c r="CK15" s="20">
         <v>84504.921869668993</v>
       </c>
-      <c r="CL15" s="22">
-        <v>100231.93874157078</v>
-      </c>
-      <c r="CM15" s="9"/>
+      <c r="CL15" s="20">
+        <v>99736.990540276907</v>
+      </c>
+      <c r="CM15" s="20">
+        <v>79532.585692000401</v>
+      </c>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
@@ -25437,7 +25426,7 @@
       <c r="GT15" s="9"/>
       <c r="GU15" s="9"/>
     </row>
-    <row r="16" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -25515,26 +25504,27 @@
       <c r="BW16" s="12"/>
       <c r="BX16" s="12"/>
       <c r="BY16" s="12"/>
-      <c r="BZ16" s="23"/>
-      <c r="CA16" s="23"/>
-      <c r="CB16" s="23"/>
-      <c r="CC16" s="23"/>
-      <c r="CD16" s="23"/>
-      <c r="CE16" s="23"/>
-      <c r="CF16" s="23"/>
-      <c r="CG16" s="23"/>
-      <c r="CH16" s="23"/>
-      <c r="CI16" s="23"/>
-      <c r="CJ16" s="23"/>
-      <c r="CK16" s="23"/>
-      <c r="CL16" s="23"/>
+      <c r="BZ16" s="12"/>
+      <c r="CA16" s="12"/>
+      <c r="CB16" s="12"/>
+      <c r="CC16" s="12"/>
+      <c r="CD16" s="12"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="12"/>
+      <c r="CI16" s="12"/>
+      <c r="CJ16" s="12"/>
+      <c r="CK16" s="12"/>
+      <c r="CL16" s="12"/>
+      <c r="CM16" s="12"/>
     </row>
-    <row r="17" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -25611,19 +25601,19 @@
       <c r="BW18" s="9"/>
       <c r="BX18" s="9"/>
       <c r="BY18" s="9"/>
-      <c r="BZ18" s="21"/>
-      <c r="CA18" s="21"/>
-      <c r="CB18" s="21"/>
-      <c r="CC18" s="21"/>
-      <c r="CD18" s="21"/>
-      <c r="CE18" s="21"/>
-      <c r="CF18" s="21"/>
-      <c r="CG18" s="21"/>
-      <c r="CH18" s="21"/>
-      <c r="CI18" s="21"/>
-      <c r="CJ18" s="21"/>
-      <c r="CK18" s="21"/>
-      <c r="CL18" s="21"/>
+      <c r="BZ18" s="9"/>
+      <c r="CA18" s="9"/>
+      <c r="CB18" s="9"/>
+      <c r="CC18" s="9"/>
+      <c r="CD18" s="9"/>
+      <c r="CE18" s="9"/>
+      <c r="CF18" s="9"/>
+      <c r="CG18" s="9"/>
+      <c r="CH18" s="9"/>
+      <c r="CI18" s="9"/>
+      <c r="CJ18" s="9"/>
+      <c r="CK18" s="9"/>
+      <c r="CL18" s="9"/>
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
@@ -25738,7 +25728,7 @@
       <c r="GT18" s="9"/>
       <c r="GU18" s="9"/>
     </row>
-    <row r="19" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -25815,20 +25805,20 @@
       <c r="BW19" s="14"/>
       <c r="BX19" s="14"/>
       <c r="BY19" s="14"/>
-      <c r="BZ19" s="24"/>
-      <c r="CA19" s="24"/>
-      <c r="CB19" s="24"/>
-      <c r="CC19" s="24"/>
-      <c r="CD19" s="24"/>
-      <c r="CE19" s="24"/>
-      <c r="CF19" s="24"/>
-      <c r="CG19" s="24"/>
-      <c r="CH19" s="24"/>
-      <c r="CI19" s="24"/>
-      <c r="CJ19" s="24"/>
-      <c r="CK19" s="24"/>
-      <c r="CL19" s="24"/>
-      <c r="CM19" s="9"/>
+      <c r="BZ19" s="14"/>
+      <c r="CA19" s="14"/>
+      <c r="CB19" s="14"/>
+      <c r="CC19" s="14"/>
+      <c r="CD19" s="14"/>
+      <c r="CE19" s="14"/>
+      <c r="CF19" s="14"/>
+      <c r="CG19" s="14"/>
+      <c r="CH19" s="14"/>
+      <c r="CI19" s="14"/>
+      <c r="CJ19" s="14"/>
+      <c r="CK19" s="14"/>
+      <c r="CL19" s="14"/>
+      <c r="CM19" s="14"/>
       <c r="CN19" s="9"/>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
@@ -25942,175 +25932,176 @@
       <c r="GT19" s="9"/>
       <c r="GU19" s="9"/>
     </row>
-    <row r="20" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="37">
+      <c r="B28" s="23">
         <v>2000</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="37">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23">
         <v>2001</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="37">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="23">
         <v>2002</v>
       </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="37">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="23">
         <v>2003</v>
       </c>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="37">
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="23">
         <v>2004</v>
       </c>
-      <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="37">
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="23">
         <v>2005</v>
       </c>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="37">
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="23">
         <v>2006</v>
       </c>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
-      <c r="AC28" s="38"/>
-      <c r="AD28" s="37">
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="23">
         <v>2007</v>
       </c>
-      <c r="AE28" s="38"/>
-      <c r="AF28" s="38"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="37">
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="23">
         <v>2008</v>
       </c>
-      <c r="AI28" s="38"/>
-      <c r="AJ28" s="38"/>
-      <c r="AK28" s="38"/>
-      <c r="AL28" s="37">
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="23">
         <v>2009</v>
       </c>
-      <c r="AM28" s="38"/>
-      <c r="AN28" s="38"/>
-      <c r="AO28" s="38"/>
-      <c r="AP28" s="37">
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="38"/>
-      <c r="AR28" s="38"/>
-      <c r="AS28" s="38"/>
-      <c r="AT28" s="37">
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="23">
         <v>2011</v>
       </c>
-      <c r="AU28" s="38"/>
-      <c r="AV28" s="38"/>
-      <c r="AW28" s="38"/>
-      <c r="AX28" s="37">
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="23">
         <v>2012</v>
       </c>
-      <c r="AY28" s="38"/>
-      <c r="AZ28" s="38"/>
-      <c r="BA28" s="38"/>
-      <c r="BB28" s="37">
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="23">
         <v>2013</v>
       </c>
-      <c r="BC28" s="38"/>
-      <c r="BD28" s="38"/>
-      <c r="BE28" s="38"/>
-      <c r="BF28" s="37">
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="23">
         <v>2014</v>
       </c>
-      <c r="BG28" s="38"/>
-      <c r="BH28" s="38"/>
-      <c r="BI28" s="38"/>
-      <c r="BJ28" s="37">
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="23">
         <v>2015</v>
       </c>
-      <c r="BK28" s="38"/>
-      <c r="BL28" s="38"/>
-      <c r="BM28" s="38"/>
-      <c r="BN28" s="37">
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="25"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="23">
         <v>2016</v>
       </c>
-      <c r="BO28" s="38"/>
-      <c r="BP28" s="38"/>
-      <c r="BQ28" s="38"/>
-      <c r="BR28" s="37">
+      <c r="BO28" s="25"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
+      <c r="BR28" s="23">
         <v>2017</v>
       </c>
-      <c r="BS28" s="38"/>
-      <c r="BT28" s="38"/>
-      <c r="BU28" s="38"/>
-      <c r="BV28" s="37">
+      <c r="BS28" s="25"/>
+      <c r="BT28" s="25"/>
+      <c r="BU28" s="25"/>
+      <c r="BV28" s="23">
         <v>2018</v>
       </c>
-      <c r="BW28" s="38"/>
-      <c r="BX28" s="38"/>
-      <c r="BY28" s="38"/>
-      <c r="BZ28" s="36">
+      <c r="BW28" s="25"/>
+      <c r="BX28" s="25"/>
+      <c r="BY28" s="25"/>
+      <c r="BZ28" s="23">
         <v>2019</v>
       </c>
-      <c r="CA28" s="39"/>
-      <c r="CB28" s="39"/>
-      <c r="CC28" s="39"/>
-      <c r="CD28" s="36">
+      <c r="CA28" s="25"/>
+      <c r="CB28" s="25"/>
+      <c r="CC28" s="25"/>
+      <c r="CD28" s="23">
         <v>2020</v>
       </c>
-      <c r="CE28" s="36"/>
-      <c r="CF28" s="36"/>
-      <c r="CG28" s="36"/>
-      <c r="CH28" s="36">
+      <c r="CE28" s="25"/>
+      <c r="CF28" s="25"/>
+      <c r="CG28" s="25"/>
+      <c r="CH28" s="23">
         <v>2021</v>
       </c>
-      <c r="CI28" s="36"/>
-      <c r="CJ28" s="36"/>
-      <c r="CK28" s="36"/>
-      <c r="CL28" s="27">
+      <c r="CI28" s="23"/>
+      <c r="CJ28" s="23"/>
+      <c r="CK28" s="23"/>
+      <c r="CL28" s="23">
         <v>2022</v>
       </c>
+      <c r="CM28" s="23"/>
     </row>
-    <row r="29" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -26342,50 +26333,53 @@
       <c r="BY29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ29" s="19" t="s">
+      <c r="BZ29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA29" s="19" t="s">
+      <c r="CA29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB29" s="19" t="s">
+      <c r="CB29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC29" s="19" t="s">
+      <c r="CC29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD29" s="19" t="s">
+      <c r="CD29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE29" s="19" t="s">
+      <c r="CE29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF29" s="19" t="s">
+      <c r="CF29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG29" s="19" t="s">
+      <c r="CG29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH29" s="19" t="s">
+      <c r="CH29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI29" s="19" t="s">
+      <c r="CI29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ29" s="19" t="s">
+      <c r="CJ29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK29" s="19" t="s">
+      <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="19" t="s">
+      <c r="CL29" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM29" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -26617,46 +26611,48 @@
       <c r="BY31" s="8">
         <v>39498.95128617419</v>
       </c>
-      <c r="BZ31" s="20">
+      <c r="BZ31" s="8">
         <v>39086.634563217398</v>
       </c>
-      <c r="CA31" s="20">
+      <c r="CA31" s="8">
         <v>36361.044331265715</v>
       </c>
-      <c r="CB31" s="20">
+      <c r="CB31" s="8">
         <v>39318.745083743852</v>
       </c>
-      <c r="CC31" s="20">
+      <c r="CC31" s="8">
         <v>41140.67532850214</v>
       </c>
-      <c r="CD31" s="20">
+      <c r="CD31" s="8">
         <v>29908.993835339541</v>
       </c>
-      <c r="CE31" s="20">
+      <c r="CE31" s="8">
         <v>9519.6693135198984</v>
       </c>
-      <c r="CF31" s="20">
+      <c r="CF31" s="8">
         <v>10790.514664241546</v>
       </c>
-      <c r="CG31" s="20">
+      <c r="CG31" s="8">
         <v>15312.458414541812</v>
       </c>
-      <c r="CH31" s="20">
+      <c r="CH31" s="19">
         <v>16324.083844096935</v>
       </c>
-      <c r="CI31" s="20">
+      <c r="CI31" s="19">
         <v>11205.272574840264</v>
       </c>
-      <c r="CJ31" s="20">
+      <c r="CJ31" s="19">
         <v>11721.002586429966</v>
       </c>
-      <c r="CK31" s="20">
+      <c r="CK31" s="19">
         <v>19471.682946741701</v>
       </c>
-      <c r="CL31" s="20">
-        <v>19871.597419569433</v>
-      </c>
-      <c r="CM31" s="9"/>
+      <c r="CL31" s="19">
+        <v>19679.859816452212</v>
+      </c>
+      <c r="CM31" s="19">
+        <v>18530.034634681397</v>
+      </c>
       <c r="CN31" s="9"/>
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
@@ -26770,7 +26766,7 @@
       <c r="GT31" s="9"/>
       <c r="GU31" s="9"/>
     </row>
-    <row r="32" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -27002,46 +26998,48 @@
       <c r="BY32" s="8">
         <v>68564.65357566718</v>
       </c>
-      <c r="BZ32" s="20">
+      <c r="BZ32" s="8">
         <v>67412.594076405236</v>
       </c>
-      <c r="CA32" s="20">
+      <c r="CA32" s="8">
         <v>62430.545721458649</v>
       </c>
-      <c r="CB32" s="20">
+      <c r="CB32" s="8">
         <v>67327.27298940839</v>
       </c>
-      <c r="CC32" s="20">
+      <c r="CC32" s="8">
         <v>72614.933555281517</v>
       </c>
-      <c r="CD32" s="20">
+      <c r="CD32" s="8">
         <v>59687.534315670113</v>
       </c>
-      <c r="CE32" s="20">
+      <c r="CE32" s="8">
         <v>22942.574172721172</v>
       </c>
-      <c r="CF32" s="20">
+      <c r="CF32" s="8">
         <v>37636.169876201551</v>
       </c>
-      <c r="CG32" s="20">
+      <c r="CG32" s="8">
         <v>46012.769983699865</v>
       </c>
-      <c r="CH32" s="20">
+      <c r="CH32" s="19">
         <v>53111.261375570801</v>
       </c>
-      <c r="CI32" s="20">
+      <c r="CI32" s="19">
         <v>39665.793819919112</v>
       </c>
-      <c r="CJ32" s="20">
+      <c r="CJ32" s="19">
         <v>42713.989678357771</v>
       </c>
-      <c r="CK32" s="20">
+      <c r="CK32" s="19">
         <v>54243.785184920882</v>
       </c>
-      <c r="CL32" s="20">
-        <v>64114.706353297122</v>
-      </c>
-      <c r="CM32" s="9"/>
+      <c r="CL32" s="19">
+        <v>63845.468740591867</v>
+      </c>
+      <c r="CM32" s="19">
+        <v>47568.852709692859</v>
+      </c>
       <c r="CN32" s="9"/>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
@@ -27155,7 +27153,7 @@
       <c r="GT32" s="9"/>
       <c r="GU32" s="9"/>
     </row>
-    <row r="33" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -27232,19 +27230,19 @@
       <c r="BW33" s="9"/>
       <c r="BX33" s="9"/>
       <c r="BY33" s="9"/>
-      <c r="BZ33" s="21"/>
-      <c r="CA33" s="21"/>
-      <c r="CB33" s="21"/>
-      <c r="CC33" s="21"/>
-      <c r="CD33" s="21"/>
-      <c r="CE33" s="21"/>
-      <c r="CF33" s="21"/>
-      <c r="CG33" s="21"/>
-      <c r="CH33" s="21"/>
-      <c r="CI33" s="21"/>
-      <c r="CJ33" s="21"/>
-      <c r="CK33" s="21"/>
-      <c r="CL33" s="21"/>
+      <c r="BZ33" s="9"/>
+      <c r="CA33" s="9"/>
+      <c r="CB33" s="9"/>
+      <c r="CC33" s="9"/>
+      <c r="CD33" s="9"/>
+      <c r="CE33" s="9"/>
+      <c r="CF33" s="9"/>
+      <c r="CG33" s="9"/>
+      <c r="CH33" s="9"/>
+      <c r="CI33" s="9"/>
+      <c r="CJ33" s="9"/>
+      <c r="CK33" s="9"/>
+      <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
@@ -27359,7 +27357,7 @@
       <c r="GT33" s="9"/>
       <c r="GU33" s="9"/>
     </row>
-    <row r="34" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>13</v>
       </c>
@@ -27591,46 +27589,48 @@
       <c r="BY34" s="11">
         <v>108063.60486184136</v>
       </c>
-      <c r="BZ34" s="22">
+      <c r="BZ34" s="11">
         <v>106499.22863962263</v>
       </c>
-      <c r="CA34" s="22">
+      <c r="CA34" s="11">
         <v>98791.590052724365</v>
       </c>
-      <c r="CB34" s="22">
+      <c r="CB34" s="11">
         <v>106646.01807315224</v>
       </c>
-      <c r="CC34" s="22">
+      <c r="CC34" s="11">
         <v>113755.60888378366</v>
       </c>
-      <c r="CD34" s="22">
+      <c r="CD34" s="11">
         <v>89596.528151009654</v>
       </c>
-      <c r="CE34" s="22">
+      <c r="CE34" s="11">
         <v>32462.24348624107</v>
       </c>
-      <c r="CF34" s="22">
+      <c r="CF34" s="11">
         <v>48426.684540443093</v>
       </c>
-      <c r="CG34" s="22">
+      <c r="CG34" s="11">
         <v>61325.228398241677</v>
       </c>
-      <c r="CH34" s="22">
+      <c r="CH34" s="20">
         <v>69435.345219667739</v>
       </c>
-      <c r="CI34" s="22">
+      <c r="CI34" s="20">
         <v>50871.066394759378</v>
       </c>
-      <c r="CJ34" s="22">
+      <c r="CJ34" s="20">
         <v>54434.992264787739</v>
       </c>
-      <c r="CK34" s="22">
+      <c r="CK34" s="20">
         <v>73715.468131662579</v>
       </c>
-      <c r="CL34" s="22">
-        <v>83986.303772866551</v>
-      </c>
-      <c r="CM34" s="9"/>
+      <c r="CL34" s="20">
+        <v>83525.328557044078</v>
+      </c>
+      <c r="CM34" s="20">
+        <v>66098.887344374263</v>
+      </c>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
@@ -27744,7 +27744,7 @@
       <c r="GT34" s="9"/>
       <c r="GU34" s="9"/>
     </row>
-    <row r="35" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -27822,26 +27822,27 @@
       <c r="BW35" s="12"/>
       <c r="BX35" s="12"/>
       <c r="BY35" s="12"/>
-      <c r="BZ35" s="23"/>
-      <c r="CA35" s="23"/>
-      <c r="CB35" s="23"/>
-      <c r="CC35" s="23"/>
-      <c r="CD35" s="23"/>
-      <c r="CE35" s="23"/>
-      <c r="CF35" s="23"/>
-      <c r="CG35" s="23"/>
-      <c r="CH35" s="23"/>
-      <c r="CI35" s="23"/>
-      <c r="CJ35" s="23"/>
-      <c r="CK35" s="23"/>
-      <c r="CL35" s="23"/>
+      <c r="BZ35" s="12"/>
+      <c r="CA35" s="12"/>
+      <c r="CB35" s="12"/>
+      <c r="CC35" s="12"/>
+      <c r="CD35" s="12"/>
+      <c r="CE35" s="12"/>
+      <c r="CF35" s="12"/>
+      <c r="CG35" s="12"/>
+      <c r="CH35" s="12"/>
+      <c r="CI35" s="12"/>
+      <c r="CJ35" s="12"/>
+      <c r="CK35" s="12"/>
+      <c r="CL35" s="12"/>
+      <c r="CM35" s="12"/>
     </row>
-    <row r="36" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -27918,19 +27919,19 @@
       <c r="BW37" s="9"/>
       <c r="BX37" s="9"/>
       <c r="BY37" s="9"/>
-      <c r="BZ37" s="21"/>
-      <c r="CA37" s="21"/>
-      <c r="CB37" s="21"/>
-      <c r="CC37" s="21"/>
-      <c r="CD37" s="21"/>
-      <c r="CE37" s="21"/>
-      <c r="CF37" s="21"/>
-      <c r="CG37" s="21"/>
-      <c r="CH37" s="21"/>
-      <c r="CI37" s="21"/>
-      <c r="CJ37" s="21"/>
-      <c r="CK37" s="21"/>
-      <c r="CL37" s="21"/>
+      <c r="BZ37" s="9"/>
+      <c r="CA37" s="9"/>
+      <c r="CB37" s="9"/>
+      <c r="CC37" s="9"/>
+      <c r="CD37" s="9"/>
+      <c r="CE37" s="9"/>
+      <c r="CF37" s="9"/>
+      <c r="CG37" s="9"/>
+      <c r="CH37" s="9"/>
+      <c r="CI37" s="9"/>
+      <c r="CJ37" s="9"/>
+      <c r="CK37" s="9"/>
+      <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -28045,7 +28046,7 @@
       <c r="GT37" s="9"/>
       <c r="GU37" s="9"/>
     </row>
-    <row r="38" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -28122,19 +28123,19 @@
       <c r="BW38" s="9"/>
       <c r="BX38" s="9"/>
       <c r="BY38" s="9"/>
-      <c r="BZ38" s="21"/>
-      <c r="CA38" s="21"/>
-      <c r="CB38" s="21"/>
-      <c r="CC38" s="21"/>
-      <c r="CD38" s="21"/>
-      <c r="CE38" s="21"/>
-      <c r="CF38" s="21"/>
-      <c r="CG38" s="21"/>
-      <c r="CH38" s="21"/>
-      <c r="CI38" s="21"/>
-      <c r="CJ38" s="21"/>
-      <c r="CK38" s="21"/>
-      <c r="CL38" s="21"/>
+      <c r="BZ38" s="9"/>
+      <c r="CA38" s="9"/>
+      <c r="CB38" s="9"/>
+      <c r="CC38" s="9"/>
+      <c r="CD38" s="9"/>
+      <c r="CE38" s="9"/>
+      <c r="CF38" s="9"/>
+      <c r="CG38" s="9"/>
+      <c r="CH38" s="9"/>
+      <c r="CI38" s="9"/>
+      <c r="CJ38" s="9"/>
+      <c r="CK38" s="9"/>
+      <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
@@ -28249,196 +28250,174 @@
       <c r="GT38" s="9"/>
       <c r="GU38" s="9"/>
     </row>
-    <row r="39" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="CI43" s="29"/>
-      <c r="CJ43" s="29"/>
-      <c r="CK43" s="29"/>
-      <c r="CL43" s="29"/>
-      <c r="CM43" s="30"/>
     </row>
-    <row r="44" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="CI44" s="29"/>
-      <c r="CJ44" s="29"/>
-      <c r="CK44" s="29"/>
-      <c r="CL44" s="29"/>
-      <c r="CM44" s="30"/>
     </row>
-    <row r="45" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CI45" s="29"/>
-      <c r="CJ45" s="29"/>
-      <c r="CK45" s="29"/>
-      <c r="CL45" s="29"/>
-      <c r="CM45" s="30"/>
     </row>
-    <row r="46" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CI46" s="29"/>
-      <c r="CJ46" s="29"/>
-      <c r="CK46" s="29"/>
-      <c r="CL46" s="29"/>
-      <c r="CM46" s="30"/>
+    <row r="47" spans="1:203" x14ac:dyDescent="0.25">
+      <c r="A47" s="4"/>
+      <c r="B47" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
+      <c r="N47" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="23"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S47" s="23"/>
+      <c r="T47" s="23"/>
+      <c r="U47" s="23"/>
+      <c r="V47" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W47" s="23"/>
+      <c r="X47" s="23"/>
+      <c r="Y47" s="23"/>
+      <c r="Z47" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA47" s="23"/>
+      <c r="AB47" s="23"/>
+      <c r="AC47" s="23"/>
+      <c r="AD47" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE47" s="23"/>
+      <c r="AF47" s="23"/>
+      <c r="AG47" s="23"/>
+      <c r="AH47" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI47" s="23"/>
+      <c r="AJ47" s="23"/>
+      <c r="AK47" s="23"/>
+      <c r="AL47" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM47" s="23"/>
+      <c r="AN47" s="23"/>
+      <c r="AO47" s="23"/>
+      <c r="AP47" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ47" s="23"/>
+      <c r="AR47" s="23"/>
+      <c r="AS47" s="23"/>
+      <c r="AT47" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU47" s="23"/>
+      <c r="AV47" s="23"/>
+      <c r="AW47" s="23"/>
+      <c r="AX47" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY47" s="23"/>
+      <c r="AZ47" s="23"/>
+      <c r="BA47" s="23"/>
+      <c r="BB47" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC47" s="23"/>
+      <c r="BD47" s="23"/>
+      <c r="BE47" s="23"/>
+      <c r="BF47" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG47" s="23"/>
+      <c r="BH47" s="23"/>
+      <c r="BI47" s="23"/>
+      <c r="BJ47" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK47" s="23"/>
+      <c r="BL47" s="23"/>
+      <c r="BM47" s="23"/>
+      <c r="BN47" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO47" s="23"/>
+      <c r="BP47" s="23"/>
+      <c r="BQ47" s="23"/>
+      <c r="BR47" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS47" s="23"/>
+      <c r="BT47" s="23"/>
+      <c r="BU47" s="23"/>
+      <c r="BV47" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW47" s="23"/>
+      <c r="BX47" s="23"/>
+      <c r="BY47" s="23"/>
+      <c r="BZ47" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA47" s="23"/>
+      <c r="CB47" s="23"/>
+      <c r="CC47" s="23"/>
+      <c r="CD47" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE47" s="23"/>
+      <c r="CF47" s="23"/>
+      <c r="CG47" s="23"/>
+      <c r="CH47" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI47" s="23"/>
+      <c r="CJ47" s="21"/>
+      <c r="CK47" s="21"/>
+      <c r="CL47" s="18"/>
+      <c r="CM47" s="18"/>
     </row>
-    <row r="47" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K47" s="37"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="37"/>
-      <c r="P47" s="37"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="S47" s="37"/>
-      <c r="T47" s="37"/>
-      <c r="U47" s="37"/>
-      <c r="V47" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="W47" s="37"/>
-      <c r="X47" s="37"/>
-      <c r="Y47" s="37"/>
-      <c r="Z47" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA47" s="37"/>
-      <c r="AB47" s="37"/>
-      <c r="AC47" s="37"/>
-      <c r="AD47" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE47" s="37"/>
-      <c r="AF47" s="37"/>
-      <c r="AG47" s="37"/>
-      <c r="AH47" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI47" s="37"/>
-      <c r="AJ47" s="37"/>
-      <c r="AK47" s="37"/>
-      <c r="AL47" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM47" s="37"/>
-      <c r="AN47" s="37"/>
-      <c r="AO47" s="37"/>
-      <c r="AP47" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ47" s="37"/>
-      <c r="AR47" s="37"/>
-      <c r="AS47" s="37"/>
-      <c r="AT47" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU47" s="37"/>
-      <c r="AV47" s="37"/>
-      <c r="AW47" s="37"/>
-      <c r="AX47" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY47" s="37"/>
-      <c r="AZ47" s="37"/>
-      <c r="BA47" s="37"/>
-      <c r="BB47" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC47" s="37"/>
-      <c r="BD47" s="37"/>
-      <c r="BE47" s="37"/>
-      <c r="BF47" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG47" s="37"/>
-      <c r="BH47" s="37"/>
-      <c r="BI47" s="37"/>
-      <c r="BJ47" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK47" s="37"/>
-      <c r="BL47" s="37"/>
-      <c r="BM47" s="37"/>
-      <c r="BN47" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO47" s="37"/>
-      <c r="BP47" s="37"/>
-      <c r="BQ47" s="37"/>
-      <c r="BR47" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="BS47" s="37"/>
-      <c r="BT47" s="37"/>
-      <c r="BU47" s="37"/>
-      <c r="BV47" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW47" s="37"/>
-      <c r="BX47" s="37"/>
-      <c r="BY47" s="37"/>
-      <c r="BZ47" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA47" s="36"/>
-      <c r="CB47" s="36"/>
-      <c r="CC47" s="36"/>
-      <c r="CD47" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE47" s="36"/>
-      <c r="CF47" s="36"/>
-      <c r="CG47" s="36"/>
-      <c r="CH47" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI47" s="31"/>
-      <c r="CJ47" s="31"/>
-      <c r="CK47" s="31"/>
-      <c r="CL47" s="32"/>
-      <c r="CM47" s="30"/>
-    </row>
-    <row r="48" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -28670,48 +28649,45 @@
       <c r="BY48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ48" s="26" t="s">
+      <c r="BZ48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA48" s="26" t="s">
+      <c r="CA48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB48" s="26" t="s">
+      <c r="CB48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC48" s="26" t="s">
+      <c r="CC48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD48" s="26" t="s">
+      <c r="CD48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE48" s="26" t="s">
+      <c r="CE48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF48" s="26" t="s">
+      <c r="CF48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG48" s="26" t="s">
+      <c r="CG48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH48" s="26" t="s">
+      <c r="CH48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI48" s="31"/>
-      <c r="CJ48" s="31"/>
-      <c r="CK48" s="31"/>
-      <c r="CL48" s="31"/>
-      <c r="CM48" s="30"/>
+      <c r="CI48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ48" s="5"/>
+      <c r="CK48" s="5"/>
+      <c r="CL48" s="5"/>
+      <c r="CM48" s="22"/>
     </row>
-    <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:199" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="CI49" s="29"/>
-      <c r="CJ49" s="29"/>
-      <c r="CK49" s="29"/>
-      <c r="CL49" s="29"/>
-      <c r="CM49" s="30"/>
     </row>
-    <row r="50" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -28943,38 +28919,40 @@
       <c r="BY50" s="15">
         <v>3.8493797383757595</v>
       </c>
-      <c r="BZ50" s="25">
+      <c r="BZ50" s="15">
         <v>-19.067044731471242</v>
       </c>
-      <c r="CA50" s="25">
+      <c r="CA50" s="15">
         <v>-72.368912766466821</v>
       </c>
-      <c r="CB50" s="25">
+      <c r="CB50" s="15">
         <v>-71.211548002222273</v>
       </c>
-      <c r="CC50" s="25">
+      <c r="CC50" s="15">
         <v>-61.072755155370253</v>
       </c>
-      <c r="CD50" s="25">
+      <c r="CD50" s="15">
         <v>-43.920924356421118</v>
       </c>
-      <c r="CE50" s="25">
+      <c r="CE50" s="15">
         <v>19.672116128472879</v>
       </c>
-      <c r="CF50" s="25">
+      <c r="CF50" s="15">
         <v>8.6002067363291559</v>
       </c>
-      <c r="CG50" s="25">
+      <c r="CG50" s="15">
         <v>28.965094303749595</v>
       </c>
-      <c r="CH50" s="25">
-        <v>22.95248214751507</v>
-      </c>
-      <c r="CI50" s="33"/>
-      <c r="CJ50" s="33"/>
-      <c r="CK50" s="33"/>
-      <c r="CL50" s="33"/>
-      <c r="CM50" s="34"/>
+      <c r="CH50" s="15">
+        <v>21.766134934126939</v>
+      </c>
+      <c r="CI50" s="15">
+        <v>76.426660561218597</v>
+      </c>
+      <c r="CJ50" s="15"/>
+      <c r="CK50" s="15"/>
+      <c r="CL50" s="15"/>
+      <c r="CM50" s="9"/>
       <c r="CN50" s="9"/>
       <c r="CO50" s="9"/>
       <c r="CP50" s="9"/>
@@ -29084,7 +29062,7 @@
       <c r="GP50" s="9"/>
       <c r="GQ50" s="9"/>
     </row>
-    <row r="51" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -29316,38 +29294,40 @@
       <c r="BY51" s="15">
         <v>5.5910202355159413</v>
       </c>
-      <c r="BZ51" s="25">
+      <c r="BZ51" s="15">
         <v>-5.0273661692907865</v>
       </c>
-      <c r="CA51" s="25">
+      <c r="CA51" s="15">
         <v>-60.347207931506929</v>
       </c>
-      <c r="CB51" s="25">
+      <c r="CB51" s="15">
         <v>-40.960122955368192</v>
       </c>
-      <c r="CC51" s="25">
+      <c r="CC51" s="15">
         <v>-30.547800292345684</v>
       </c>
-      <c r="CD51" s="25">
+      <c r="CD51" s="15">
         <v>-5.5175319670495924</v>
       </c>
-      <c r="CE51" s="25">
+      <c r="CE51" s="15">
         <v>89.398680131715651</v>
       </c>
-      <c r="CF51" s="25">
+      <c r="CF51" s="15">
         <v>22.252775868291863</v>
       </c>
-      <c r="CG51" s="25">
+      <c r="CG51" s="15">
         <v>22.834800235596944</v>
       </c>
-      <c r="CH51" s="25">
-        <v>24.311582731166069</v>
-      </c>
-      <c r="CI51" s="33"/>
-      <c r="CJ51" s="33"/>
-      <c r="CK51" s="33"/>
-      <c r="CL51" s="33"/>
-      <c r="CM51" s="34"/>
+      <c r="CH51" s="15">
+        <v>23.866591930018515</v>
+      </c>
+      <c r="CI51" s="15">
+        <v>28.194791344029227</v>
+      </c>
+      <c r="CJ51" s="15"/>
+      <c r="CK51" s="15"/>
+      <c r="CL51" s="15"/>
+      <c r="CM51" s="9"/>
       <c r="CN51" s="9"/>
       <c r="CO51" s="9"/>
       <c r="CP51" s="9"/>
@@ -29457,7 +29437,7 @@
       <c r="GP51" s="9"/>
       <c r="GQ51" s="9"/>
     </row>
-    <row r="52" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -29535,20 +29515,20 @@
       <c r="BW52" s="9"/>
       <c r="BX52" s="9"/>
       <c r="BY52" s="9"/>
-      <c r="BZ52" s="21"/>
-      <c r="CA52" s="21"/>
-      <c r="CB52" s="21"/>
-      <c r="CC52" s="21"/>
-      <c r="CD52" s="21"/>
-      <c r="CE52" s="21"/>
-      <c r="CF52" s="21"/>
-      <c r="CG52" s="21"/>
-      <c r="CH52" s="21"/>
-      <c r="CI52" s="33"/>
-      <c r="CJ52" s="33"/>
-      <c r="CK52" s="33"/>
-      <c r="CL52" s="33"/>
-      <c r="CM52" s="34"/>
+      <c r="BZ52" s="9"/>
+      <c r="CA52" s="9"/>
+      <c r="CB52" s="9"/>
+      <c r="CC52" s="9"/>
+      <c r="CD52" s="9"/>
+      <c r="CE52" s="9"/>
+      <c r="CF52" s="9"/>
+      <c r="CG52" s="9"/>
+      <c r="CH52" s="9"/>
+      <c r="CI52" s="9"/>
+      <c r="CJ52" s="9"/>
+      <c r="CK52" s="9"/>
+      <c r="CL52" s="9"/>
+      <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
       <c r="CP52" s="9"/>
@@ -29658,7 +29638,7 @@
       <c r="GP52" s="9"/>
       <c r="GQ52" s="9"/>
     </row>
-    <row r="53" spans="1:199" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:199" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>13</v>
       </c>
@@ -29890,38 +29870,40 @@
       <c r="BY53" s="15">
         <v>4.9566454947700151</v>
       </c>
-      <c r="BZ53" s="25">
+      <c r="BZ53" s="15">
         <v>-10.160903490519672</v>
       </c>
-      <c r="CA53" s="25">
+      <c r="CA53" s="15">
         <v>-64.755141654783245</v>
       </c>
-      <c r="CB53" s="25">
+      <c r="CB53" s="15">
         <v>-52.072404873023025</v>
       </c>
-      <c r="CC53" s="25">
+      <c r="CC53" s="15">
         <v>-41.548906644053453</v>
       </c>
-      <c r="CD53" s="25">
+      <c r="CD53" s="15">
         <v>-18.167492542479494</v>
       </c>
-      <c r="CE53" s="25">
+      <c r="CE53" s="15">
         <v>69.355369173085961</v>
       </c>
-      <c r="CF53" s="25">
+      <c r="CF53" s="15">
         <v>19.240432512873198</v>
       </c>
-      <c r="CG53" s="25">
+      <c r="CG53" s="15">
         <v>24.306176236692139</v>
       </c>
-      <c r="CH53" s="25">
-        <v>24.004789220601481</v>
-      </c>
-      <c r="CI53" s="33"/>
-      <c r="CJ53" s="33"/>
-      <c r="CK53" s="33"/>
-      <c r="CL53" s="33"/>
-      <c r="CM53" s="34"/>
+      <c r="CH53" s="15">
+        <v>23.392449998721233</v>
+      </c>
+      <c r="CI53" s="15">
+        <v>37.991930885352843</v>
+      </c>
+      <c r="CJ53" s="15"/>
+      <c r="CK53" s="15"/>
+      <c r="CL53" s="15"/>
+      <c r="CM53" s="9"/>
       <c r="CN53" s="9"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
@@ -30031,7 +30013,7 @@
       <c r="GP53" s="9"/>
       <c r="GQ53" s="9"/>
     </row>
-    <row r="54" spans="1:199" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:199" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -30109,32 +30091,27 @@
       <c r="BW54" s="12"/>
       <c r="BX54" s="12"/>
       <c r="BY54" s="12"/>
-      <c r="BZ54" s="23"/>
-      <c r="CA54" s="23"/>
-      <c r="CB54" s="23"/>
-      <c r="CC54" s="23"/>
-      <c r="CD54" s="23"/>
-      <c r="CE54" s="23"/>
-      <c r="CF54" s="23"/>
-      <c r="CG54" s="23"/>
-      <c r="CH54" s="23"/>
-      <c r="CI54" s="35"/>
-      <c r="CJ54" s="35"/>
-      <c r="CK54" s="35"/>
-      <c r="CL54" s="35"/>
-      <c r="CM54" s="30"/>
+      <c r="BZ54" s="12"/>
+      <c r="CA54" s="12"/>
+      <c r="CB54" s="12"/>
+      <c r="CC54" s="12"/>
+      <c r="CD54" s="12"/>
+      <c r="CE54" s="12"/>
+      <c r="CF54" s="12"/>
+      <c r="CG54" s="12"/>
+      <c r="CH54" s="12"/>
+      <c r="CI54" s="12"/>
+      <c r="CJ54" s="12"/>
+      <c r="CK54" s="12"/>
+      <c r="CL54" s="12"/>
+      <c r="CM54" s="12"/>
     </row>
-    <row r="55" spans="1:199" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CI55" s="29"/>
-      <c r="CJ55" s="29"/>
-      <c r="CK55" s="29"/>
-      <c r="CL55" s="29"/>
-      <c r="CM55" s="30"/>
     </row>
-    <row r="56" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -30211,20 +30188,20 @@
       <c r="BW56" s="9"/>
       <c r="BX56" s="9"/>
       <c r="BY56" s="9"/>
-      <c r="BZ56" s="21"/>
-      <c r="CA56" s="21"/>
-      <c r="CB56" s="21"/>
-      <c r="CC56" s="21"/>
-      <c r="CD56" s="21"/>
-      <c r="CE56" s="21"/>
-      <c r="CF56" s="21"/>
-      <c r="CG56" s="21"/>
-      <c r="CH56" s="21"/>
-      <c r="CI56" s="33"/>
-      <c r="CJ56" s="33"/>
-      <c r="CK56" s="33"/>
-      <c r="CL56" s="33"/>
-      <c r="CM56" s="34"/>
+      <c r="BZ56" s="9"/>
+      <c r="CA56" s="9"/>
+      <c r="CB56" s="9"/>
+      <c r="CC56" s="9"/>
+      <c r="CD56" s="9"/>
+      <c r="CE56" s="9"/>
+      <c r="CF56" s="9"/>
+      <c r="CG56" s="9"/>
+      <c r="CH56" s="9"/>
+      <c r="CI56" s="9"/>
+      <c r="CJ56" s="9"/>
+      <c r="CK56" s="9"/>
+      <c r="CL56" s="9"/>
+      <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
@@ -30334,7 +30311,7 @@
       <c r="GP56" s="9"/>
       <c r="GQ56" s="9"/>
     </row>
-    <row r="57" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:199" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -30411,20 +30388,20 @@
       <c r="BW57" s="9"/>
       <c r="BX57" s="9"/>
       <c r="BY57" s="9"/>
-      <c r="BZ57" s="21"/>
-      <c r="CA57" s="21"/>
-      <c r="CB57" s="21"/>
-      <c r="CC57" s="21"/>
-      <c r="CD57" s="21"/>
-      <c r="CE57" s="21"/>
-      <c r="CF57" s="21"/>
-      <c r="CG57" s="21"/>
-      <c r="CH57" s="21"/>
-      <c r="CI57" s="33"/>
-      <c r="CJ57" s="33"/>
-      <c r="CK57" s="33"/>
-      <c r="CL57" s="33"/>
-      <c r="CM57" s="34"/>
+      <c r="BZ57" s="9"/>
+      <c r="CA57" s="9"/>
+      <c r="CB57" s="9"/>
+      <c r="CC57" s="9"/>
+      <c r="CD57" s="9"/>
+      <c r="CE57" s="9"/>
+      <c r="CF57" s="9"/>
+      <c r="CG57" s="9"/>
+      <c r="CH57" s="9"/>
+      <c r="CI57" s="9"/>
+      <c r="CJ57" s="9"/>
+      <c r="CK57" s="9"/>
+      <c r="CL57" s="9"/>
+      <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
@@ -30534,191 +30511,174 @@
       <c r="GP57" s="9"/>
       <c r="GQ57" s="9"/>
     </row>
-    <row r="58" spans="1:199" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:199" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:199" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:199" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:199" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CI63" s="29"/>
-      <c r="CJ63" s="29"/>
-      <c r="CK63" s="29"/>
-      <c r="CL63" s="29"/>
-      <c r="CM63" s="30"/>
     </row>
-    <row r="64" spans="1:199" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:199" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CI64" s="29"/>
-      <c r="CJ64" s="29"/>
-      <c r="CK64" s="29"/>
-      <c r="CL64" s="29"/>
-      <c r="CM64" s="30"/>
     </row>
-    <row r="65" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CI65" s="29"/>
-      <c r="CJ65" s="29"/>
-      <c r="CK65" s="29"/>
-      <c r="CL65" s="29"/>
-      <c r="CM65" s="30"/>
+    <row r="66" spans="1:203" x14ac:dyDescent="0.25">
+      <c r="A66" s="4"/>
+      <c r="B66" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY66" s="24"/>
+      <c r="AZ66" s="24"/>
+      <c r="BA66" s="24"/>
+      <c r="BB66" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC66" s="24"/>
+      <c r="BD66" s="24"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG66" s="24"/>
+      <c r="BH66" s="24"/>
+      <c r="BI66" s="24"/>
+      <c r="BJ66" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="BK66" s="24"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="BO66" s="24"/>
+      <c r="BP66" s="24"/>
+      <c r="BQ66" s="24"/>
+      <c r="BR66" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="24"/>
+      <c r="BU66" s="24"/>
+      <c r="BV66" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="BW66" s="24"/>
+      <c r="BX66" s="24"/>
+      <c r="BY66" s="24"/>
+      <c r="BZ66" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA66" s="24"/>
+      <c r="CB66" s="24"/>
+      <c r="CC66" s="24"/>
+      <c r="CD66" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="CE66" s="24"/>
+      <c r="CF66" s="24"/>
+      <c r="CG66" s="24"/>
+      <c r="CH66" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="CI66" s="23"/>
+      <c r="CJ66" s="21"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="18"/>
+      <c r="CM66" s="18"/>
     </row>
-    <row r="66" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="40"/>
-      <c r="N66" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
-      <c r="AC66" s="40"/>
-      <c r="AD66" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE66" s="40"/>
-      <c r="AF66" s="40"/>
-      <c r="AG66" s="40"/>
-      <c r="AH66" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
-      <c r="AK66" s="40"/>
-      <c r="AL66" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM66" s="40"/>
-      <c r="AN66" s="40"/>
-      <c r="AO66" s="40"/>
-      <c r="AP66" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ66" s="40"/>
-      <c r="AR66" s="40"/>
-      <c r="AS66" s="40"/>
-      <c r="AT66" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU66" s="40"/>
-      <c r="AV66" s="40"/>
-      <c r="AW66" s="40"/>
-      <c r="AX66" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY66" s="40"/>
-      <c r="AZ66" s="40"/>
-      <c r="BA66" s="40"/>
-      <c r="BB66" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC66" s="40"/>
-      <c r="BD66" s="40"/>
-      <c r="BE66" s="40"/>
-      <c r="BF66" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="BG66" s="40"/>
-      <c r="BH66" s="40"/>
-      <c r="BI66" s="40"/>
-      <c r="BJ66" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="BK66" s="40"/>
-      <c r="BL66" s="40"/>
-      <c r="BM66" s="40"/>
-      <c r="BN66" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="BO66" s="40"/>
-      <c r="BP66" s="40"/>
-      <c r="BQ66" s="40"/>
-      <c r="BR66" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="BS66" s="40"/>
-      <c r="BT66" s="40"/>
-      <c r="BU66" s="40"/>
-      <c r="BV66" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="BW66" s="40"/>
-      <c r="BX66" s="40"/>
-      <c r="BY66" s="40"/>
-      <c r="BZ66" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA66" s="36"/>
-      <c r="CB66" s="36"/>
-      <c r="CC66" s="36"/>
-      <c r="CD66" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="CE66" s="36"/>
-      <c r="CF66" s="36"/>
-      <c r="CG66" s="36"/>
-      <c r="CH66" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="CI66" s="31"/>
-      <c r="CJ66" s="31"/>
-      <c r="CK66" s="31"/>
-      <c r="CL66" s="32"/>
-      <c r="CM66" s="30"/>
-    </row>
-    <row r="67" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -30950,48 +30910,45 @@
       <c r="BY67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ67" s="26" t="s">
+      <c r="BZ67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA67" s="26" t="s">
+      <c r="CA67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB67" s="26" t="s">
+      <c r="CB67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC67" s="26" t="s">
+      <c r="CC67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD67" s="26" t="s">
+      <c r="CD67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE67" s="26" t="s">
+      <c r="CE67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF67" s="26" t="s">
+      <c r="CF67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG67" s="26" t="s">
+      <c r="CG67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH67" s="26" t="s">
+      <c r="CH67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI67" s="31"/>
-      <c r="CJ67" s="31"/>
-      <c r="CK67" s="31"/>
-      <c r="CL67" s="31"/>
-      <c r="CM67" s="30"/>
+      <c r="CI67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ67" s="5"/>
+      <c r="CK67" s="5"/>
+      <c r="CL67" s="5"/>
+      <c r="CM67" s="22"/>
     </row>
-    <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7"/>
-      <c r="CI68" s="29"/>
-      <c r="CJ68" s="29"/>
-      <c r="CK68" s="29"/>
-      <c r="CL68" s="29"/>
-      <c r="CM68" s="30"/>
     </row>
-    <row r="69" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -31223,38 +31180,40 @@
       <c r="BY69" s="15">
         <v>4.1563737488458372</v>
       </c>
-      <c r="BZ69" s="25">
+      <c r="BZ69" s="15">
         <v>-23.480253110649002</v>
       </c>
-      <c r="CA69" s="25">
+      <c r="CA69" s="15">
         <v>-73.819043185912477</v>
       </c>
-      <c r="CB69" s="25">
+      <c r="CB69" s="15">
         <v>-72.556309614513026</v>
       </c>
-      <c r="CC69" s="25">
+      <c r="CC69" s="15">
         <v>-62.780245359916627</v>
       </c>
-      <c r="CD69" s="25">
+      <c r="CD69" s="15">
         <v>-45.42081912227718</v>
       </c>
-      <c r="CE69" s="25">
+      <c r="CE69" s="15">
         <v>17.706531664145729</v>
       </c>
-      <c r="CF69" s="25">
+      <c r="CF69" s="15">
         <v>8.6232024249218</v>
       </c>
-      <c r="CG69" s="25">
+      <c r="CG69" s="15">
         <v>27.162356426385401</v>
       </c>
-      <c r="CH69" s="25">
-        <v>21.731777472800346</v>
-      </c>
-      <c r="CI69" s="33"/>
-      <c r="CJ69" s="33"/>
-      <c r="CK69" s="33"/>
-      <c r="CL69" s="33"/>
-      <c r="CM69" s="34"/>
+      <c r="CH69" s="15">
+        <v>20.55720862747701</v>
+      </c>
+      <c r="CI69" s="15">
+        <v>65.368887824181741</v>
+      </c>
+      <c r="CJ69" s="15"/>
+      <c r="CK69" s="15"/>
+      <c r="CL69" s="15"/>
+      <c r="CM69" s="9"/>
       <c r="CN69" s="9"/>
       <c r="CO69" s="9"/>
       <c r="CP69" s="9"/>
@@ -31364,7 +31323,7 @@
       <c r="GP69" s="9"/>
       <c r="GQ69" s="9"/>
     </row>
-    <row r="70" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -31596,38 +31555,40 @@
       <c r="BY70" s="15">
         <v>5.907241951050608</v>
       </c>
-      <c r="BZ70" s="25">
+      <c r="BZ70" s="15">
         <v>-11.4593717488153</v>
       </c>
-      <c r="CA70" s="25">
+      <c r="CA70" s="15">
         <v>-63.251043367325011</v>
       </c>
-      <c r="CB70" s="25">
+      <c r="CB70" s="15">
         <v>-44.099666888153486</v>
       </c>
-      <c r="CC70" s="25">
+      <c r="CC70" s="15">
         <v>-36.634562987418441</v>
       </c>
-      <c r="CD70" s="25">
+      <c r="CD70" s="15">
         <v>-11.01783314639755</v>
       </c>
-      <c r="CE70" s="25">
+      <c r="CE70" s="15">
         <v>72.891644683367417</v>
       </c>
-      <c r="CF70" s="25">
+      <c r="CF70" s="15">
         <v>13.491861203886941</v>
       </c>
-      <c r="CG70" s="25">
+      <c r="CG70" s="15">
         <v>17.888545297613831</v>
       </c>
-      <c r="CH70" s="25">
-        <v>20.71772481530158</v>
-      </c>
-      <c r="CI70" s="33"/>
-      <c r="CJ70" s="33"/>
-      <c r="CK70" s="33"/>
-      <c r="CL70" s="33"/>
-      <c r="CM70" s="34"/>
+      <c r="CH70" s="15">
+        <v>20.21079350594826</v>
+      </c>
+      <c r="CI70" s="15">
+        <v>19.924116294390259</v>
+      </c>
+      <c r="CJ70" s="15"/>
+      <c r="CK70" s="15"/>
+      <c r="CL70" s="15"/>
+      <c r="CM70" s="9"/>
       <c r="CN70" s="9"/>
       <c r="CO70" s="9"/>
       <c r="CP70" s="9"/>
@@ -31737,7 +31698,7 @@
       <c r="GP70" s="9"/>
       <c r="GQ70" s="9"/>
     </row>
-    <row r="71" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -31814,20 +31775,20 @@
       <c r="BW71" s="9"/>
       <c r="BX71" s="9"/>
       <c r="BY71" s="9"/>
-      <c r="BZ71" s="21"/>
-      <c r="CA71" s="21"/>
-      <c r="CB71" s="21"/>
-      <c r="CC71" s="21"/>
-      <c r="CD71" s="21"/>
-      <c r="CE71" s="21"/>
-      <c r="CF71" s="21"/>
-      <c r="CG71" s="21"/>
-      <c r="CH71" s="21"/>
-      <c r="CI71" s="33"/>
-      <c r="CJ71" s="33"/>
-      <c r="CK71" s="33"/>
-      <c r="CL71" s="33"/>
-      <c r="CM71" s="34"/>
+      <c r="BZ71" s="9"/>
+      <c r="CA71" s="9"/>
+      <c r="CB71" s="9"/>
+      <c r="CC71" s="9"/>
+      <c r="CD71" s="9"/>
+      <c r="CE71" s="9"/>
+      <c r="CF71" s="9"/>
+      <c r="CG71" s="9"/>
+      <c r="CH71" s="9"/>
+      <c r="CI71" s="9"/>
+      <c r="CJ71" s="9"/>
+      <c r="CK71" s="9"/>
+      <c r="CL71" s="9"/>
+      <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
       <c r="CP71" s="9"/>
@@ -31937,7 +31898,7 @@
       <c r="GP71" s="9"/>
       <c r="GQ71" s="9"/>
     </row>
-    <row r="72" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>13</v>
       </c>
@@ -32169,38 +32130,40 @@
       <c r="BY72" s="15">
         <v>5.267272019307029</v>
       </c>
-      <c r="BZ72" s="25">
+      <c r="BZ72" s="15">
         <v>-15.871195223215338</v>
       </c>
-      <c r="CA72" s="25">
+      <c r="CA72" s="15">
         <v>-67.140681237222509</v>
       </c>
-      <c r="CB72" s="25">
+      <c r="CB72" s="15">
         <v>-54.591192980852284</v>
       </c>
-      <c r="CC72" s="25">
+      <c r="CC72" s="15">
         <v>-46.090369521125353</v>
       </c>
-      <c r="CD72" s="25">
+      <c r="CD72" s="15">
         <v>-22.502192157894143</v>
       </c>
-      <c r="CE72" s="25">
+      <c r="CE72" s="15">
         <v>56.708412393988681</v>
       </c>
-      <c r="CF72" s="25">
+      <c r="CF72" s="15">
         <v>12.407018529891033</v>
       </c>
-      <c r="CG72" s="25">
+      <c r="CG72" s="15">
         <v>20.204147717085647</v>
       </c>
-      <c r="CH72" s="25">
-        <v>20.956126173442314</v>
-      </c>
-      <c r="CI72" s="33"/>
-      <c r="CJ72" s="33"/>
-      <c r="CK72" s="33"/>
-      <c r="CL72" s="33"/>
-      <c r="CM72" s="34"/>
+      <c r="CH72" s="15">
+        <v>20.292234873753202</v>
+      </c>
+      <c r="CI72" s="15">
+        <v>29.934149269541592</v>
+      </c>
+      <c r="CJ72" s="15"/>
+      <c r="CK72" s="15"/>
+      <c r="CL72" s="15"/>
+      <c r="CM72" s="9"/>
       <c r="CN72" s="9"/>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
@@ -32310,7 +32273,7 @@
       <c r="GP72" s="9"/>
       <c r="GQ72" s="9"/>
     </row>
-    <row r="73" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -32388,32 +32351,27 @@
       <c r="BW73" s="12"/>
       <c r="BX73" s="12"/>
       <c r="BY73" s="12"/>
-      <c r="BZ73" s="23"/>
-      <c r="CA73" s="23"/>
-      <c r="CB73" s="23"/>
-      <c r="CC73" s="23"/>
-      <c r="CD73" s="23"/>
-      <c r="CE73" s="23"/>
-      <c r="CF73" s="23"/>
-      <c r="CG73" s="23"/>
-      <c r="CH73" s="23"/>
-      <c r="CI73" s="35"/>
-      <c r="CJ73" s="35"/>
-      <c r="CK73" s="35"/>
-      <c r="CL73" s="35"/>
-      <c r="CM73" s="30"/>
+      <c r="BZ73" s="12"/>
+      <c r="CA73" s="12"/>
+      <c r="CB73" s="12"/>
+      <c r="CC73" s="12"/>
+      <c r="CD73" s="12"/>
+      <c r="CE73" s="12"/>
+      <c r="CF73" s="12"/>
+      <c r="CG73" s="12"/>
+      <c r="CH73" s="12"/>
+      <c r="CI73" s="12"/>
+      <c r="CJ73" s="12"/>
+      <c r="CK73" s="12"/>
+      <c r="CL73" s="12"/>
+      <c r="CM73" s="12"/>
     </row>
-    <row r="74" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CI74" s="29"/>
-      <c r="CJ74" s="29"/>
-      <c r="CK74" s="29"/>
-      <c r="CL74" s="29"/>
-      <c r="CM74" s="30"/>
     </row>
-    <row r="75" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -32490,20 +32448,20 @@
       <c r="BW75" s="9"/>
       <c r="BX75" s="9"/>
       <c r="BY75" s="9"/>
-      <c r="BZ75" s="21"/>
-      <c r="CA75" s="21"/>
-      <c r="CB75" s="21"/>
-      <c r="CC75" s="21"/>
-      <c r="CD75" s="21"/>
-      <c r="CE75" s="21"/>
-      <c r="CF75" s="21"/>
-      <c r="CG75" s="21"/>
-      <c r="CH75" s="21"/>
-      <c r="CI75" s="33"/>
-      <c r="CJ75" s="33"/>
-      <c r="CK75" s="33"/>
-      <c r="CL75" s="33"/>
-      <c r="CM75" s="34"/>
+      <c r="BZ75" s="9"/>
+      <c r="CA75" s="9"/>
+      <c r="CB75" s="9"/>
+      <c r="CC75" s="9"/>
+      <c r="CD75" s="9"/>
+      <c r="CE75" s="9"/>
+      <c r="CF75" s="9"/>
+      <c r="CG75" s="9"/>
+      <c r="CH75" s="9"/>
+      <c r="CI75" s="9"/>
+      <c r="CJ75" s="9"/>
+      <c r="CK75" s="9"/>
+      <c r="CL75" s="9"/>
+      <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
@@ -32617,7 +32575,7 @@
       <c r="GT75" s="9"/>
       <c r="GU75" s="9"/>
     </row>
-    <row r="76" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -32694,20 +32652,20 @@
       <c r="BW76" s="9"/>
       <c r="BX76" s="9"/>
       <c r="BY76" s="9"/>
-      <c r="BZ76" s="21"/>
-      <c r="CA76" s="21"/>
-      <c r="CB76" s="21"/>
-      <c r="CC76" s="21"/>
-      <c r="CD76" s="21"/>
-      <c r="CE76" s="21"/>
-      <c r="CF76" s="21"/>
-      <c r="CG76" s="21"/>
-      <c r="CH76" s="21"/>
-      <c r="CI76" s="33"/>
-      <c r="CJ76" s="33"/>
-      <c r="CK76" s="33"/>
-      <c r="CL76" s="33"/>
-      <c r="CM76" s="34"/>
+      <c r="BZ76" s="9"/>
+      <c r="CA76" s="9"/>
+      <c r="CB76" s="9"/>
+      <c r="CC76" s="9"/>
+      <c r="CD76" s="9"/>
+      <c r="CE76" s="9"/>
+      <c r="CF76" s="9"/>
+      <c r="CG76" s="9"/>
+      <c r="CH76" s="9"/>
+      <c r="CI76" s="9"/>
+      <c r="CJ76" s="9"/>
+      <c r="CK76" s="9"/>
+      <c r="CL76" s="9"/>
+      <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
@@ -32821,170 +32779,171 @@
       <c r="GT76" s="9"/>
       <c r="GU76" s="9"/>
     </row>
-    <row r="77" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="82" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="37">
+      <c r="B84" s="23">
         <v>2000</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="37">
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="23">
         <v>2001</v>
       </c>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="37">
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="23">
         <v>2002</v>
       </c>
-      <c r="K84" s="38"/>
-      <c r="L84" s="38"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="37">
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="23">
         <v>2003</v>
       </c>
-      <c r="O84" s="38"/>
-      <c r="P84" s="38"/>
-      <c r="Q84" s="38"/>
-      <c r="R84" s="37">
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="23">
         <v>2004</v>
       </c>
-      <c r="S84" s="38"/>
-      <c r="T84" s="38"/>
-      <c r="U84" s="38"/>
-      <c r="V84" s="37">
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="23">
         <v>2005</v>
       </c>
-      <c r="W84" s="38"/>
-      <c r="X84" s="38"/>
-      <c r="Y84" s="38"/>
-      <c r="Z84" s="37">
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="23">
         <v>2006</v>
       </c>
-      <c r="AA84" s="38"/>
-      <c r="AB84" s="38"/>
-      <c r="AC84" s="38"/>
-      <c r="AD84" s="37">
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="23">
         <v>2007</v>
       </c>
-      <c r="AE84" s="38"/>
-      <c r="AF84" s="38"/>
-      <c r="AG84" s="38"/>
-      <c r="AH84" s="37">
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="23">
         <v>2008</v>
       </c>
-      <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="38"/>
-      <c r="AL84" s="37">
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="23">
         <v>2009</v>
       </c>
-      <c r="AM84" s="38"/>
-      <c r="AN84" s="38"/>
-      <c r="AO84" s="38"/>
-      <c r="AP84" s="37">
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="25"/>
+      <c r="AP84" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="38"/>
-      <c r="AR84" s="38"/>
-      <c r="AS84" s="38"/>
-      <c r="AT84" s="37">
+      <c r="AQ84" s="25"/>
+      <c r="AR84" s="25"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="23">
         <v>2011</v>
       </c>
-      <c r="AU84" s="38"/>
-      <c r="AV84" s="38"/>
-      <c r="AW84" s="38"/>
-      <c r="AX84" s="37">
+      <c r="AU84" s="25"/>
+      <c r="AV84" s="25"/>
+      <c r="AW84" s="25"/>
+      <c r="AX84" s="23">
         <v>2012</v>
       </c>
-      <c r="AY84" s="38"/>
-      <c r="AZ84" s="38"/>
-      <c r="BA84" s="38"/>
-      <c r="BB84" s="37">
+      <c r="AY84" s="25"/>
+      <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="23">
         <v>2013</v>
       </c>
-      <c r="BC84" s="38"/>
-      <c r="BD84" s="38"/>
-      <c r="BE84" s="38"/>
-      <c r="BF84" s="37">
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+      <c r="BF84" s="23">
         <v>2014</v>
       </c>
-      <c r="BG84" s="38"/>
-      <c r="BH84" s="38"/>
-      <c r="BI84" s="38"/>
-      <c r="BJ84" s="37">
+      <c r="BG84" s="25"/>
+      <c r="BH84" s="25"/>
+      <c r="BI84" s="25"/>
+      <c r="BJ84" s="23">
         <v>2015</v>
       </c>
-      <c r="BK84" s="38"/>
-      <c r="BL84" s="38"/>
-      <c r="BM84" s="38"/>
-      <c r="BN84" s="37">
+      <c r="BK84" s="25"/>
+      <c r="BL84" s="25"/>
+      <c r="BM84" s="25"/>
+      <c r="BN84" s="23">
         <v>2016</v>
       </c>
-      <c r="BO84" s="38"/>
-      <c r="BP84" s="38"/>
-      <c r="BQ84" s="38"/>
-      <c r="BR84" s="37">
+      <c r="BO84" s="25"/>
+      <c r="BP84" s="25"/>
+      <c r="BQ84" s="25"/>
+      <c r="BR84" s="23">
         <v>2017</v>
       </c>
-      <c r="BS84" s="38"/>
-      <c r="BT84" s="38"/>
-      <c r="BU84" s="38"/>
-      <c r="BV84" s="37">
+      <c r="BS84" s="25"/>
+      <c r="BT84" s="25"/>
+      <c r="BU84" s="25"/>
+      <c r="BV84" s="23">
         <v>2018</v>
       </c>
-      <c r="BW84" s="38"/>
-      <c r="BX84" s="38"/>
-      <c r="BY84" s="38"/>
-      <c r="BZ84" s="36">
+      <c r="BW84" s="25"/>
+      <c r="BX84" s="25"/>
+      <c r="BY84" s="25"/>
+      <c r="BZ84" s="23">
         <v>2019</v>
       </c>
-      <c r="CA84" s="39"/>
-      <c r="CB84" s="39"/>
-      <c r="CC84" s="39"/>
-      <c r="CD84" s="36">
+      <c r="CA84" s="25"/>
+      <c r="CB84" s="25"/>
+      <c r="CC84" s="25"/>
+      <c r="CD84" s="23">
         <v>2020</v>
       </c>
-      <c r="CE84" s="36"/>
-      <c r="CF84" s="36"/>
-      <c r="CG84" s="36"/>
-      <c r="CH84" s="36">
+      <c r="CE84" s="25"/>
+      <c r="CF84" s="25"/>
+      <c r="CG84" s="25"/>
+      <c r="CH84" s="23">
         <v>2021</v>
       </c>
-      <c r="CI84" s="36"/>
-      <c r="CJ84" s="36"/>
-      <c r="CK84" s="36"/>
-      <c r="CL84" s="27">
+      <c r="CI84" s="23"/>
+      <c r="CJ84" s="23"/>
+      <c r="CK84" s="23"/>
+      <c r="CL84" s="23">
         <v>2022</v>
       </c>
+      <c r="CM84" s="23"/>
     </row>
-    <row r="85" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -33216,50 +33175,53 @@
       <c r="BY85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ85" s="19" t="s">
+      <c r="BZ85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA85" s="19" t="s">
+      <c r="CA85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB85" s="19" t="s">
+      <c r="CB85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC85" s="19" t="s">
+      <c r="CC85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD85" s="19" t="s">
+      <c r="CD85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE85" s="19" t="s">
+      <c r="CE85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF85" s="19" t="s">
+      <c r="CF85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG85" s="19" t="s">
+      <c r="CG85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH85" s="19" t="s">
+      <c r="CH85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI85" s="19" t="s">
+      <c r="CI85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ85" s="19" t="s">
+      <c r="CJ85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK85" s="19" t="s">
+      <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="19" t="s">
+      <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM85" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -33491,46 +33453,48 @@
       <c r="BY87" s="15">
         <v>102.18532219185337</v>
       </c>
-      <c r="BZ87" s="25">
+      <c r="BZ87" s="15">
         <v>102.85081050151221</v>
       </c>
-      <c r="CA87" s="25">
+      <c r="CA87" s="15">
         <v>97.370930043163213</v>
       </c>
-      <c r="CB87" s="25">
+      <c r="CB87" s="15">
         <v>101.80213057272474</v>
       </c>
-      <c r="CC87" s="25">
+      <c r="CC87" s="15">
         <v>101.88413772525031</v>
       </c>
-      <c r="CD87" s="25">
+      <c r="CD87" s="15">
         <v>108.78263956737213</v>
       </c>
-      <c r="CE87" s="25">
+      <c r="CE87" s="15">
         <v>102.76418395011466</v>
       </c>
-      <c r="CF87" s="25">
+      <c r="CF87" s="15">
         <v>106.79051206663661</v>
       </c>
-      <c r="CG87" s="25">
+      <c r="CG87" s="15">
         <v>106.5581655055723</v>
       </c>
-      <c r="CH87" s="25">
+      <c r="CH87" s="15">
         <v>111.77210384805913</v>
       </c>
-      <c r="CI87" s="25">
+      <c r="CI87" s="15">
         <v>104.48024575744026</v>
       </c>
-      <c r="CJ87" s="25">
+      <c r="CJ87" s="15">
         <v>106.76790436123562</v>
       </c>
-      <c r="CK87" s="25">
+      <c r="CK87" s="15">
         <v>108.06880471121292</v>
       </c>
-      <c r="CL87" s="25">
-        <v>112.8929346820664</v>
-      </c>
-      <c r="CM87" s="9"/>
+      <c r="CL87" s="15">
+        <v>112.89293468206643</v>
+      </c>
+      <c r="CM87" s="15">
+        <v>111.46655877131175</v>
+      </c>
       <c r="CN87" s="9"/>
       <c r="CO87" s="9"/>
       <c r="CP87" s="9"/>
@@ -33644,7 +33608,7 @@
       <c r="GT87" s="9"/>
       <c r="GU87" s="9"/>
     </row>
-    <row r="88" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -33876,46 +33840,48 @@
       <c r="BY88" s="15">
         <v>102.74951593057217</v>
       </c>
-      <c r="BZ88" s="25">
+      <c r="BZ88" s="15">
         <v>103.45888938723216</v>
       </c>
-      <c r="CA88" s="25">
+      <c r="CA88" s="15">
         <v>97.956508261236564</v>
       </c>
-      <c r="CB88" s="25">
+      <c r="CB88" s="15">
         <v>102.39640999743334</v>
       </c>
-      <c r="CC88" s="25">
+      <c r="CC88" s="15">
         <v>102.44272266885228</v>
       </c>
-      <c r="CD88" s="25">
+      <c r="CD88" s="15">
         <v>110.97462726862879</v>
       </c>
-      <c r="CE88" s="25">
+      <c r="CE88" s="15">
         <v>105.69685263893433</v>
       </c>
-      <c r="CF88" s="25">
+      <c r="CF88" s="15">
         <v>108.14732434535352</v>
       </c>
-      <c r="CG88" s="25">
+      <c r="CG88" s="15">
         <v>112.28317469001713</v>
       </c>
-      <c r="CH88" s="25">
+      <c r="CH88" s="15">
         <v>117.834359896264</v>
       </c>
-      <c r="CI88" s="25">
+      <c r="CI88" s="15">
         <v>115.78838538179785</v>
       </c>
-      <c r="CJ88" s="25">
+      <c r="CJ88" s="15">
         <v>116.4956717045641</v>
       </c>
-      <c r="CK88" s="25">
+      <c r="CK88" s="15">
         <v>116.99424484412614</v>
       </c>
-      <c r="CL88" s="25">
-        <v>121.3423778590109</v>
-      </c>
-      <c r="CM88" s="9"/>
+      <c r="CL88" s="15">
+        <v>121.41788725388665</v>
+      </c>
+      <c r="CM88" s="15">
+        <v>123.7738360117977</v>
+      </c>
       <c r="CN88" s="9"/>
       <c r="CO88" s="9"/>
       <c r="CP88" s="9"/>
@@ -34029,7 +33995,7 @@
       <c r="GT88" s="9"/>
       <c r="GU88" s="9"/>
     </row>
-    <row r="89" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -34106,19 +34072,19 @@
       <c r="BW89" s="9"/>
       <c r="BX89" s="9"/>
       <c r="BY89" s="9"/>
-      <c r="BZ89" s="21"/>
-      <c r="CA89" s="21"/>
-      <c r="CB89" s="21"/>
-      <c r="CC89" s="21"/>
-      <c r="CD89" s="21"/>
-      <c r="CE89" s="21"/>
-      <c r="CF89" s="21"/>
-      <c r="CG89" s="21"/>
-      <c r="CH89" s="21"/>
-      <c r="CI89" s="21"/>
-      <c r="CJ89" s="21"/>
-      <c r="CK89" s="21"/>
-      <c r="CL89" s="21"/>
+      <c r="BZ89" s="9"/>
+      <c r="CA89" s="9"/>
+      <c r="CB89" s="9"/>
+      <c r="CC89" s="9"/>
+      <c r="CD89" s="9"/>
+      <c r="CE89" s="9"/>
+      <c r="CF89" s="9"/>
+      <c r="CG89" s="9"/>
+      <c r="CH89" s="9"/>
+      <c r="CI89" s="9"/>
+      <c r="CJ89" s="9"/>
+      <c r="CK89" s="9"/>
+      <c r="CL89" s="9"/>
       <c r="CM89" s="9"/>
       <c r="CN89" s="9"/>
       <c r="CO89" s="9"/>
@@ -34233,7 +34199,7 @@
       <c r="GT89" s="9"/>
       <c r="GU89" s="9"/>
     </row>
-    <row r="90" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>13</v>
       </c>
@@ -34465,46 +34431,48 @@
       <c r="BY90" s="15">
         <v>102.54329422410487</v>
       </c>
-      <c r="BZ90" s="25">
+      <c r="BZ90" s="15">
         <v>103.2357163417994</v>
       </c>
-      <c r="CA90" s="25">
+      <c r="CA90" s="15">
         <v>97.740981458444693</v>
       </c>
-      <c r="CB90" s="25">
+      <c r="CB90" s="15">
         <v>102.17730832227652</v>
       </c>
-      <c r="CC90" s="25">
+      <c r="CC90" s="15">
         <v>102.24070571308532</v>
       </c>
-      <c r="CD90" s="25">
+      <c r="CD90" s="15">
         <v>110.24290085023982</v>
       </c>
-      <c r="CE90" s="25">
+      <c r="CE90" s="15">
         <v>104.8368370292458</v>
       </c>
-      <c r="CF90" s="25">
+      <c r="CF90" s="15">
         <v>107.84499716914782</v>
       </c>
-      <c r="CG90" s="25">
+      <c r="CG90" s="15">
         <v>110.85368201058678</v>
       </c>
-      <c r="CH90" s="25">
+      <c r="CH90" s="15">
         <v>116.40913797647367</v>
       </c>
-      <c r="CI90" s="25">
+      <c r="CI90" s="15">
         <v>113.29756307777923</v>
       </c>
-      <c r="CJ90" s="25">
+      <c r="CJ90" s="15">
         <v>114.40107810865211</v>
       </c>
-      <c r="CK90" s="25">
+      <c r="CK90" s="15">
         <v>114.63662106674199</v>
       </c>
-      <c r="CL90" s="25">
-        <v>119.34319554369137</v>
-      </c>
-      <c r="CM90" s="9"/>
+      <c r="CL90" s="15">
+        <v>119.40927651923093</v>
+      </c>
+      <c r="CM90" s="15">
+        <v>120.32363763952148</v>
+      </c>
       <c r="CN90" s="9"/>
       <c r="CO90" s="9"/>
       <c r="CP90" s="9"/>
@@ -34618,7 +34586,7 @@
       <c r="GT90" s="9"/>
       <c r="GU90" s="9"/>
     </row>
-    <row r="91" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -34696,194 +34664,196 @@
       <c r="BW91" s="12"/>
       <c r="BX91" s="12"/>
       <c r="BY91" s="12"/>
-      <c r="BZ91" s="23"/>
-      <c r="CA91" s="23"/>
-      <c r="CB91" s="23"/>
-      <c r="CC91" s="23"/>
-      <c r="CD91" s="23"/>
-      <c r="CE91" s="23"/>
-      <c r="CF91" s="23"/>
-      <c r="CG91" s="23"/>
-      <c r="CH91" s="23"/>
-      <c r="CI91" s="23"/>
-      <c r="CJ91" s="23"/>
-      <c r="CK91" s="23"/>
-      <c r="CL91" s="23"/>
+      <c r="BZ91" s="12"/>
+      <c r="CA91" s="12"/>
+      <c r="CB91" s="12"/>
+      <c r="CC91" s="12"/>
+      <c r="CD91" s="12"/>
+      <c r="CE91" s="12"/>
+      <c r="CF91" s="12"/>
+      <c r="CG91" s="12"/>
+      <c r="CH91" s="12"/>
+      <c r="CI91" s="12"/>
+      <c r="CJ91" s="12"/>
+      <c r="CK91" s="12"/>
+      <c r="CL91" s="12"/>
+      <c r="CM91" s="12"/>
     </row>
-    <row r="92" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="101" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="37">
+      <c r="B103" s="23">
         <v>2000</v>
       </c>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="37">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="23">
         <v>2001</v>
       </c>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="37">
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="23">
         <v>2002</v>
       </c>
-      <c r="K103" s="38"/>
-      <c r="L103" s="38"/>
-      <c r="M103" s="38"/>
-      <c r="N103" s="37">
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="23">
         <v>2003</v>
       </c>
-      <c r="O103" s="38"/>
-      <c r="P103" s="38"/>
-      <c r="Q103" s="38"/>
-      <c r="R103" s="37">
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="23">
         <v>2004</v>
       </c>
-      <c r="S103" s="38"/>
-      <c r="T103" s="38"/>
-      <c r="U103" s="38"/>
-      <c r="V103" s="37">
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="23">
         <v>2005</v>
       </c>
-      <c r="W103" s="38"/>
-      <c r="X103" s="38"/>
-      <c r="Y103" s="38"/>
-      <c r="Z103" s="37">
+      <c r="W103" s="25"/>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="23">
         <v>2006</v>
       </c>
-      <c r="AA103" s="38"/>
-      <c r="AB103" s="38"/>
-      <c r="AC103" s="38"/>
-      <c r="AD103" s="37">
+      <c r="AA103" s="25"/>
+      <c r="AB103" s="25"/>
+      <c r="AC103" s="25"/>
+      <c r="AD103" s="23">
         <v>2007</v>
       </c>
-      <c r="AE103" s="38"/>
-      <c r="AF103" s="38"/>
-      <c r="AG103" s="38"/>
-      <c r="AH103" s="37">
+      <c r="AE103" s="25"/>
+      <c r="AF103" s="25"/>
+      <c r="AG103" s="25"/>
+      <c r="AH103" s="23">
         <v>2008</v>
       </c>
-      <c r="AI103" s="38"/>
-      <c r="AJ103" s="38"/>
-      <c r="AK103" s="38"/>
-      <c r="AL103" s="37">
+      <c r="AI103" s="25"/>
+      <c r="AJ103" s="25"/>
+      <c r="AK103" s="25"/>
+      <c r="AL103" s="23">
         <v>2009</v>
       </c>
-      <c r="AM103" s="38"/>
-      <c r="AN103" s="38"/>
-      <c r="AO103" s="38"/>
-      <c r="AP103" s="37">
+      <c r="AM103" s="25"/>
+      <c r="AN103" s="25"/>
+      <c r="AO103" s="25"/>
+      <c r="AP103" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="38"/>
-      <c r="AR103" s="38"/>
-      <c r="AS103" s="38"/>
-      <c r="AT103" s="37">
+      <c r="AQ103" s="25"/>
+      <c r="AR103" s="25"/>
+      <c r="AS103" s="25"/>
+      <c r="AT103" s="23">
         <v>2011</v>
       </c>
-      <c r="AU103" s="38"/>
-      <c r="AV103" s="38"/>
-      <c r="AW103" s="38"/>
-      <c r="AX103" s="37">
+      <c r="AU103" s="25"/>
+      <c r="AV103" s="25"/>
+      <c r="AW103" s="25"/>
+      <c r="AX103" s="23">
         <v>2012</v>
       </c>
-      <c r="AY103" s="38"/>
-      <c r="AZ103" s="38"/>
-      <c r="BA103" s="38"/>
-      <c r="BB103" s="37">
+      <c r="AY103" s="25"/>
+      <c r="AZ103" s="25"/>
+      <c r="BA103" s="25"/>
+      <c r="BB103" s="23">
         <v>2013</v>
       </c>
-      <c r="BC103" s="38"/>
-      <c r="BD103" s="38"/>
-      <c r="BE103" s="38"/>
-      <c r="BF103" s="37">
+      <c r="BC103" s="25"/>
+      <c r="BD103" s="25"/>
+      <c r="BE103" s="25"/>
+      <c r="BF103" s="23">
         <v>2014</v>
       </c>
-      <c r="BG103" s="38"/>
-      <c r="BH103" s="38"/>
-      <c r="BI103" s="38"/>
-      <c r="BJ103" s="37">
+      <c r="BG103" s="25"/>
+      <c r="BH103" s="25"/>
+      <c r="BI103" s="25"/>
+      <c r="BJ103" s="23">
         <v>2015</v>
       </c>
-      <c r="BK103" s="38"/>
-      <c r="BL103" s="38"/>
-      <c r="BM103" s="38"/>
-      <c r="BN103" s="37">
+      <c r="BK103" s="25"/>
+      <c r="BL103" s="25"/>
+      <c r="BM103" s="25"/>
+      <c r="BN103" s="23">
         <v>2016</v>
       </c>
-      <c r="BO103" s="38"/>
-      <c r="BP103" s="38"/>
-      <c r="BQ103" s="38"/>
-      <c r="BR103" s="37">
+      <c r="BO103" s="25"/>
+      <c r="BP103" s="25"/>
+      <c r="BQ103" s="25"/>
+      <c r="BR103" s="23">
         <v>2017</v>
       </c>
-      <c r="BS103" s="38"/>
-      <c r="BT103" s="38"/>
-      <c r="BU103" s="38"/>
-      <c r="BV103" s="37">
+      <c r="BS103" s="25"/>
+      <c r="BT103" s="25"/>
+      <c r="BU103" s="25"/>
+      <c r="BV103" s="23">
         <v>2018</v>
       </c>
-      <c r="BW103" s="38"/>
-      <c r="BX103" s="38"/>
-      <c r="BY103" s="38"/>
-      <c r="BZ103" s="36">
+      <c r="BW103" s="25"/>
+      <c r="BX103" s="25"/>
+      <c r="BY103" s="25"/>
+      <c r="BZ103" s="23">
         <v>2019</v>
       </c>
-      <c r="CA103" s="39"/>
-      <c r="CB103" s="39"/>
-      <c r="CC103" s="39"/>
-      <c r="CD103" s="36">
+      <c r="CA103" s="25"/>
+      <c r="CB103" s="25"/>
+      <c r="CC103" s="25"/>
+      <c r="CD103" s="23">
         <v>2020</v>
       </c>
-      <c r="CE103" s="36"/>
-      <c r="CF103" s="36"/>
-      <c r="CG103" s="36"/>
-      <c r="CH103" s="36">
+      <c r="CE103" s="25"/>
+      <c r="CF103" s="25"/>
+      <c r="CG103" s="25"/>
+      <c r="CH103" s="23">
         <v>2021</v>
       </c>
-      <c r="CI103" s="36"/>
-      <c r="CJ103" s="36"/>
-      <c r="CK103" s="36"/>
-      <c r="CL103" s="27">
+      <c r="CI103" s="23"/>
+      <c r="CJ103" s="23"/>
+      <c r="CK103" s="23"/>
+      <c r="CL103" s="23">
         <v>2022</v>
       </c>
+      <c r="CM103" s="23"/>
     </row>
-    <row r="104" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -35115,50 +35085,53 @@
       <c r="BY104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ104" s="19" t="s">
+      <c r="BZ104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA104" s="19" t="s">
+      <c r="CA104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB104" s="19" t="s">
+      <c r="CB104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC104" s="19" t="s">
+      <c r="CC104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD104" s="19" t="s">
+      <c r="CD104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE104" s="19" t="s">
+      <c r="CE104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF104" s="19" t="s">
+      <c r="CF104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG104" s="19" t="s">
+      <c r="CG104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH104" s="19" t="s">
+      <c r="CH104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI104" s="19" t="s">
+      <c r="CI104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ104" s="19" t="s">
+      <c r="CJ104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK104" s="19" t="s">
+      <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="19" t="s">
+      <c r="CL104" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM104" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -35390,46 +35363,48 @@
       <c r="BY106" s="15">
         <v>36.423977381531472</v>
       </c>
-      <c r="BZ106" s="25">
+      <c r="BZ106" s="15">
         <v>36.564493257398354</v>
       </c>
-      <c r="CA106" s="25">
+      <c r="CA106" s="15">
         <v>36.666461070128314</v>
       </c>
-      <c r="CB106" s="25">
+      <c r="CB106" s="15">
         <v>36.733085798252077</v>
       </c>
-      <c r="CC106" s="25">
+      <c r="CC106" s="15">
         <v>36.039713739375919</v>
       </c>
-      <c r="CD106" s="25">
+      <c r="CD106" s="15">
         <v>32.939695658060884</v>
       </c>
-      <c r="CE106" s="25">
+      <c r="CE106" s="15">
         <v>28.745588206092492</v>
       </c>
-      <c r="CF106" s="25">
+      <c r="CF106" s="15">
         <v>22.064296663155599</v>
       </c>
-      <c r="CG106" s="25">
+      <c r="CG106" s="15">
         <v>24.001719733790509</v>
       </c>
-      <c r="CH106" s="25">
+      <c r="CH106" s="15">
         <v>22.573274874215045</v>
       </c>
-      <c r="CI106" s="25">
+      <c r="CI106" s="15">
         <v>20.312585227014196</v>
       </c>
-      <c r="CJ106" s="25">
+      <c r="CJ106" s="15">
         <v>20.09542508873157</v>
       </c>
-      <c r="CK106" s="25">
+      <c r="CK106" s="15">
         <v>24.901289241063303</v>
       </c>
-      <c r="CL106" s="25">
-        <v>22.38171762096572</v>
-      </c>
-      <c r="CM106" s="9"/>
+      <c r="CL106" s="15">
+        <v>22.275758640559388</v>
+      </c>
+      <c r="CM106" s="15">
+        <v>25.970225620979747</v>
+      </c>
       <c r="CN106" s="9"/>
       <c r="CO106" s="9"/>
       <c r="CP106" s="9"/>
@@ -35543,7 +35518,7 @@
       <c r="GT106" s="9"/>
       <c r="GU106" s="9"/>
     </row>
-    <row r="107" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -35775,46 +35750,48 @@
       <c r="BY107" s="15">
         <v>63.576022618468528</v>
       </c>
-      <c r="BZ107" s="25">
+      <c r="BZ107" s="15">
         <v>63.435506742601646</v>
       </c>
-      <c r="CA107" s="25">
+      <c r="CA107" s="15">
         <v>63.333538929871679</v>
       </c>
-      <c r="CB107" s="25">
+      <c r="CB107" s="15">
         <v>63.266914201747923</v>
       </c>
-      <c r="CC107" s="25">
+      <c r="CC107" s="15">
         <v>63.960286260624081</v>
       </c>
-      <c r="CD107" s="25">
+      <c r="CD107" s="15">
         <v>67.060304341939116</v>
       </c>
-      <c r="CE107" s="25">
+      <c r="CE107" s="15">
         <v>71.254411793907508</v>
       </c>
-      <c r="CF107" s="25">
+      <c r="CF107" s="15">
         <v>77.935703336844398</v>
       </c>
-      <c r="CG107" s="25">
+      <c r="CG107" s="15">
         <v>75.998280266209491</v>
       </c>
-      <c r="CH107" s="25">
+      <c r="CH107" s="15">
         <v>77.426725125784941</v>
       </c>
-      <c r="CI107" s="25">
+      <c r="CI107" s="15">
         <v>79.687414772985804</v>
       </c>
-      <c r="CJ107" s="25">
+      <c r="CJ107" s="15">
         <v>79.90457491126844</v>
       </c>
-      <c r="CK107" s="25">
+      <c r="CK107" s="15">
         <v>75.09871075893669</v>
       </c>
-      <c r="CL107" s="25">
-        <v>77.61828237903427</v>
-      </c>
-      <c r="CM107" s="9"/>
+      <c r="CL107" s="15">
+        <v>77.724241359440612</v>
+      </c>
+      <c r="CM107" s="15">
+        <v>74.029774379020239</v>
+      </c>
       <c r="CN107" s="9"/>
       <c r="CO107" s="9"/>
       <c r="CP107" s="9"/>
@@ -35928,7 +35905,7 @@
       <c r="GT107" s="9"/>
       <c r="GU107" s="9"/>
     </row>
-    <row r="108" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -36005,19 +35982,19 @@
       <c r="BW108" s="9"/>
       <c r="BX108" s="9"/>
       <c r="BY108" s="9"/>
-      <c r="BZ108" s="21"/>
-      <c r="CA108" s="21"/>
-      <c r="CB108" s="21"/>
-      <c r="CC108" s="21"/>
-      <c r="CD108" s="21"/>
-      <c r="CE108" s="21"/>
-      <c r="CF108" s="21"/>
-      <c r="CG108" s="21"/>
-      <c r="CH108" s="21"/>
-      <c r="CI108" s="21"/>
-      <c r="CJ108" s="21"/>
-      <c r="CK108" s="21"/>
-      <c r="CL108" s="21"/>
+      <c r="BZ108" s="9"/>
+      <c r="CA108" s="9"/>
+      <c r="CB108" s="9"/>
+      <c r="CC108" s="9"/>
+      <c r="CD108" s="9"/>
+      <c r="CE108" s="9"/>
+      <c r="CF108" s="9"/>
+      <c r="CG108" s="9"/>
+      <c r="CH108" s="9"/>
+      <c r="CI108" s="9"/>
+      <c r="CJ108" s="9"/>
+      <c r="CK108" s="9"/>
+      <c r="CL108" s="9"/>
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
@@ -36132,7 +36109,7 @@
       <c r="GT108" s="9"/>
       <c r="GU108" s="9"/>
     </row>
-    <row r="109" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>13</v>
       </c>
@@ -36364,46 +36341,48 @@
       <c r="BY109" s="15">
         <v>100</v>
       </c>
-      <c r="BZ109" s="25">
+      <c r="BZ109" s="15">
         <v>100</v>
       </c>
-      <c r="CA109" s="25">
+      <c r="CA109" s="15">
         <v>100</v>
       </c>
-      <c r="CB109" s="25">
+      <c r="CB109" s="15">
         <v>100</v>
       </c>
-      <c r="CC109" s="25">
+      <c r="CC109" s="15">
         <v>100</v>
       </c>
-      <c r="CD109" s="25">
+      <c r="CD109" s="15">
         <v>100</v>
       </c>
-      <c r="CE109" s="25">
+      <c r="CE109" s="15">
         <v>100</v>
       </c>
-      <c r="CF109" s="25">
+      <c r="CF109" s="15">
         <v>100</v>
       </c>
-      <c r="CG109" s="25">
+      <c r="CG109" s="15">
         <v>100</v>
       </c>
-      <c r="CH109" s="25">
+      <c r="CH109" s="15">
         <v>100</v>
       </c>
-      <c r="CI109" s="25">
+      <c r="CI109" s="15">
         <v>100</v>
       </c>
-      <c r="CJ109" s="25">
+      <c r="CJ109" s="15">
         <v>100</v>
       </c>
-      <c r="CK109" s="25">
+      <c r="CK109" s="15">
         <v>100</v>
       </c>
-      <c r="CL109" s="25">
+      <c r="CL109" s="15">
         <v>100</v>
       </c>
-      <c r="CM109" s="9"/>
+      <c r="CM109" s="15">
+        <v>100</v>
+      </c>
       <c r="CN109" s="9"/>
       <c r="CO109" s="9"/>
       <c r="CP109" s="9"/>
@@ -36517,7 +36496,7 @@
       <c r="GT109" s="9"/>
       <c r="GU109" s="9"/>
     </row>
-    <row r="110" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -36595,26 +36574,27 @@
       <c r="BW110" s="12"/>
       <c r="BX110" s="12"/>
       <c r="BY110" s="12"/>
-      <c r="BZ110" s="23"/>
-      <c r="CA110" s="23"/>
-      <c r="CB110" s="23"/>
-      <c r="CC110" s="23"/>
-      <c r="CD110" s="23"/>
-      <c r="CE110" s="23"/>
-      <c r="CF110" s="23"/>
-      <c r="CG110" s="23"/>
-      <c r="CH110" s="23"/>
-      <c r="CI110" s="23"/>
-      <c r="CJ110" s="23"/>
-      <c r="CK110" s="23"/>
-      <c r="CL110" s="23"/>
+      <c r="BZ110" s="12"/>
+      <c r="CA110" s="12"/>
+      <c r="CB110" s="12"/>
+      <c r="CC110" s="12"/>
+      <c r="CD110" s="12"/>
+      <c r="CE110" s="12"/>
+      <c r="CF110" s="12"/>
+      <c r="CG110" s="12"/>
+      <c r="CH110" s="12"/>
+      <c r="CI110" s="12"/>
+      <c r="CJ110" s="12"/>
+      <c r="CK110" s="12"/>
+      <c r="CL110" s="12"/>
+      <c r="CM110" s="12"/>
     </row>
-    <row r="111" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -36691,19 +36671,19 @@
       <c r="BW112" s="9"/>
       <c r="BX112" s="9"/>
       <c r="BY112" s="9"/>
-      <c r="BZ112" s="21"/>
-      <c r="CA112" s="21"/>
-      <c r="CB112" s="21"/>
-      <c r="CC112" s="21"/>
-      <c r="CD112" s="21"/>
-      <c r="CE112" s="21"/>
-      <c r="CF112" s="21"/>
-      <c r="CG112" s="21"/>
-      <c r="CH112" s="21"/>
-      <c r="CI112" s="21"/>
-      <c r="CJ112" s="21"/>
-      <c r="CK112" s="21"/>
-      <c r="CL112" s="21"/>
+      <c r="BZ112" s="9"/>
+      <c r="CA112" s="9"/>
+      <c r="CB112" s="9"/>
+      <c r="CC112" s="9"/>
+      <c r="CD112" s="9"/>
+      <c r="CE112" s="9"/>
+      <c r="CF112" s="9"/>
+      <c r="CG112" s="9"/>
+      <c r="CH112" s="9"/>
+      <c r="CI112" s="9"/>
+      <c r="CJ112" s="9"/>
+      <c r="CK112" s="9"/>
+      <c r="CL112" s="9"/>
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
       <c r="CO112" s="9"/>
@@ -36818,7 +36798,7 @@
       <c r="GT112" s="9"/>
       <c r="GU112" s="9"/>
     </row>
-    <row r="113" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -36895,19 +36875,19 @@
       <c r="BW113" s="9"/>
       <c r="BX113" s="9"/>
       <c r="BY113" s="9"/>
-      <c r="BZ113" s="21"/>
-      <c r="CA113" s="21"/>
-      <c r="CB113" s="21"/>
-      <c r="CC113" s="21"/>
-      <c r="CD113" s="21"/>
-      <c r="CE113" s="21"/>
-      <c r="CF113" s="21"/>
-      <c r="CG113" s="21"/>
-      <c r="CH113" s="21"/>
-      <c r="CI113" s="21"/>
-      <c r="CJ113" s="21"/>
-      <c r="CK113" s="21"/>
-      <c r="CL113" s="21"/>
+      <c r="BZ113" s="9"/>
+      <c r="CA113" s="9"/>
+      <c r="CB113" s="9"/>
+      <c r="CC113" s="9"/>
+      <c r="CD113" s="9"/>
+      <c r="CE113" s="9"/>
+      <c r="CF113" s="9"/>
+      <c r="CG113" s="9"/>
+      <c r="CH113" s="9"/>
+      <c r="CI113" s="9"/>
+      <c r="CJ113" s="9"/>
+      <c r="CK113" s="9"/>
+      <c r="CL113" s="9"/>
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
@@ -37022,175 +37002,176 @@
       <c r="GT113" s="9"/>
       <c r="GU113" s="9"/>
     </row>
-    <row r="114" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="118" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="37">
+      <c r="B122" s="23">
         <v>2000</v>
       </c>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="37">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="23">
         <v>2001</v>
       </c>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="37">
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="23">
         <v>2002</v>
       </c>
-      <c r="K122" s="38"/>
-      <c r="L122" s="38"/>
-      <c r="M122" s="38"/>
-      <c r="N122" s="37">
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="23">
         <v>2003</v>
       </c>
-      <c r="O122" s="38"/>
-      <c r="P122" s="38"/>
-      <c r="Q122" s="38"/>
-      <c r="R122" s="37">
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="25"/>
+      <c r="R122" s="23">
         <v>2004</v>
       </c>
-      <c r="S122" s="38"/>
-      <c r="T122" s="38"/>
-      <c r="U122" s="38"/>
-      <c r="V122" s="37">
+      <c r="S122" s="25"/>
+      <c r="T122" s="25"/>
+      <c r="U122" s="25"/>
+      <c r="V122" s="23">
         <v>2005</v>
       </c>
-      <c r="W122" s="38"/>
-      <c r="X122" s="38"/>
-      <c r="Y122" s="38"/>
-      <c r="Z122" s="37">
+      <c r="W122" s="25"/>
+      <c r="X122" s="25"/>
+      <c r="Y122" s="25"/>
+      <c r="Z122" s="23">
         <v>2006</v>
       </c>
-      <c r="AA122" s="38"/>
-      <c r="AB122" s="38"/>
-      <c r="AC122" s="38"/>
-      <c r="AD122" s="37">
+      <c r="AA122" s="25"/>
+      <c r="AB122" s="25"/>
+      <c r="AC122" s="25"/>
+      <c r="AD122" s="23">
         <v>2007</v>
       </c>
-      <c r="AE122" s="38"/>
-      <c r="AF122" s="38"/>
-      <c r="AG122" s="38"/>
-      <c r="AH122" s="37">
+      <c r="AE122" s="25"/>
+      <c r="AF122" s="25"/>
+      <c r="AG122" s="25"/>
+      <c r="AH122" s="23">
         <v>2008</v>
       </c>
-      <c r="AI122" s="38"/>
-      <c r="AJ122" s="38"/>
-      <c r="AK122" s="38"/>
-      <c r="AL122" s="37">
+      <c r="AI122" s="25"/>
+      <c r="AJ122" s="25"/>
+      <c r="AK122" s="25"/>
+      <c r="AL122" s="23">
         <v>2009</v>
       </c>
-      <c r="AM122" s="38"/>
-      <c r="AN122" s="38"/>
-      <c r="AO122" s="38"/>
-      <c r="AP122" s="37">
+      <c r="AM122" s="25"/>
+      <c r="AN122" s="25"/>
+      <c r="AO122" s="25"/>
+      <c r="AP122" s="23">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="38"/>
-      <c r="AR122" s="38"/>
-      <c r="AS122" s="38"/>
-      <c r="AT122" s="37">
+      <c r="AQ122" s="25"/>
+      <c r="AR122" s="25"/>
+      <c r="AS122" s="25"/>
+      <c r="AT122" s="23">
         <v>2011</v>
       </c>
-      <c r="AU122" s="38"/>
-      <c r="AV122" s="38"/>
-      <c r="AW122" s="38"/>
-      <c r="AX122" s="37">
+      <c r="AU122" s="25"/>
+      <c r="AV122" s="25"/>
+      <c r="AW122" s="25"/>
+      <c r="AX122" s="23">
         <v>2012</v>
       </c>
-      <c r="AY122" s="38"/>
-      <c r="AZ122" s="38"/>
-      <c r="BA122" s="38"/>
-      <c r="BB122" s="37">
+      <c r="AY122" s="25"/>
+      <c r="AZ122" s="25"/>
+      <c r="BA122" s="25"/>
+      <c r="BB122" s="23">
         <v>2013</v>
       </c>
-      <c r="BC122" s="38"/>
-      <c r="BD122" s="38"/>
-      <c r="BE122" s="38"/>
-      <c r="BF122" s="37">
+      <c r="BC122" s="25"/>
+      <c r="BD122" s="25"/>
+      <c r="BE122" s="25"/>
+      <c r="BF122" s="23">
         <v>2014</v>
       </c>
-      <c r="BG122" s="38"/>
-      <c r="BH122" s="38"/>
-      <c r="BI122" s="38"/>
-      <c r="BJ122" s="37">
+      <c r="BG122" s="25"/>
+      <c r="BH122" s="25"/>
+      <c r="BI122" s="25"/>
+      <c r="BJ122" s="23">
         <v>2015</v>
       </c>
-      <c r="BK122" s="38"/>
-      <c r="BL122" s="38"/>
-      <c r="BM122" s="38"/>
-      <c r="BN122" s="37">
+      <c r="BK122" s="25"/>
+      <c r="BL122" s="25"/>
+      <c r="BM122" s="25"/>
+      <c r="BN122" s="23">
         <v>2016</v>
       </c>
-      <c r="BO122" s="38"/>
-      <c r="BP122" s="38"/>
-      <c r="BQ122" s="38"/>
-      <c r="BR122" s="37">
+      <c r="BO122" s="25"/>
+      <c r="BP122" s="25"/>
+      <c r="BQ122" s="25"/>
+      <c r="BR122" s="23">
         <v>2017</v>
       </c>
-      <c r="BS122" s="38"/>
-      <c r="BT122" s="38"/>
-      <c r="BU122" s="38"/>
-      <c r="BV122" s="37">
+      <c r="BS122" s="25"/>
+      <c r="BT122" s="25"/>
+      <c r="BU122" s="25"/>
+      <c r="BV122" s="23">
         <v>2018</v>
       </c>
-      <c r="BW122" s="38"/>
-      <c r="BX122" s="38"/>
-      <c r="BY122" s="38"/>
-      <c r="BZ122" s="36">
+      <c r="BW122" s="25"/>
+      <c r="BX122" s="25"/>
+      <c r="BY122" s="25"/>
+      <c r="BZ122" s="23">
         <v>2019</v>
       </c>
-      <c r="CA122" s="39"/>
-      <c r="CB122" s="39"/>
-      <c r="CC122" s="39"/>
-      <c r="CD122" s="36">
+      <c r="CA122" s="25"/>
+      <c r="CB122" s="25"/>
+      <c r="CC122" s="25"/>
+      <c r="CD122" s="23">
         <v>2020</v>
       </c>
-      <c r="CE122" s="36"/>
-      <c r="CF122" s="36"/>
-      <c r="CG122" s="36"/>
-      <c r="CH122" s="36">
+      <c r="CE122" s="25"/>
+      <c r="CF122" s="25"/>
+      <c r="CG122" s="25"/>
+      <c r="CH122" s="23">
         <v>2021</v>
       </c>
-      <c r="CI122" s="36"/>
-      <c r="CJ122" s="36"/>
-      <c r="CK122" s="36"/>
-      <c r="CL122" s="27">
+      <c r="CI122" s="23"/>
+      <c r="CJ122" s="23"/>
+      <c r="CK122" s="23"/>
+      <c r="CL122" s="23">
         <v>2022</v>
       </c>
+      <c r="CM122" s="23"/>
     </row>
-    <row r="123" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -37422,50 +37403,53 @@
       <c r="BY123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ123" s="19" t="s">
+      <c r="BZ123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA123" s="19" t="s">
+      <c r="CA123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB123" s="19" t="s">
+      <c r="CB123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC123" s="19" t="s">
+      <c r="CC123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD123" s="19" t="s">
+      <c r="CD123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE123" s="19" t="s">
+      <c r="CE123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF123" s="19" t="s">
+      <c r="CF123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG123" s="19" t="s">
+      <c r="CG123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH123" s="19" t="s">
+      <c r="CH123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI123" s="19" t="s">
+      <c r="CI123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ123" s="19" t="s">
+      <c r="CJ123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK123" s="19" t="s">
+      <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="19" t="s">
+      <c r="CL123" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM123" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -37697,46 +37681,48 @@
       <c r="BY125" s="15">
         <v>36.55157657999041</v>
       </c>
-      <c r="BZ125" s="25">
+      <c r="BZ125" s="15">
         <v>36.701331138726545</v>
       </c>
-      <c r="CA125" s="25">
+      <c r="CA125" s="15">
         <v>36.805809393147825</v>
       </c>
-      <c r="CB125" s="25">
+      <c r="CB125" s="15">
         <v>36.86846053340102</v>
       </c>
-      <c r="CC125" s="25">
+      <c r="CC125" s="15">
         <v>36.165843365607373</v>
       </c>
-      <c r="CD125" s="25">
+      <c r="CD125" s="15">
         <v>33.381866968025484</v>
       </c>
-      <c r="CE125" s="25">
+      <c r="CE125" s="15">
         <v>29.325358604850443</v>
       </c>
-      <c r="CF125" s="25">
+      <c r="CF125" s="15">
         <v>22.282166881009474</v>
       </c>
-      <c r="CG125" s="25">
+      <c r="CG125" s="15">
         <v>24.969264386760688</v>
       </c>
-      <c r="CH125" s="25">
+      <c r="CH125" s="15">
         <v>23.509761192161676</v>
       </c>
-      <c r="CI125" s="25">
+      <c r="CI125" s="15">
         <v>22.02680888953137</v>
       </c>
-      <c r="CJ125" s="25">
+      <c r="CJ125" s="15">
         <v>21.532110318700106</v>
       </c>
-      <c r="CK125" s="25">
+      <c r="CK125" s="15">
         <v>26.414650059555335</v>
       </c>
-      <c r="CL125" s="25">
-        <v>23.660521450390757</v>
-      </c>
-      <c r="CM125" s="9"/>
+      <c r="CL125" s="15">
+        <v>23.561547325146702</v>
+      </c>
+      <c r="CM125" s="15">
+        <v>28.033807192759813</v>
+      </c>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
       <c r="CP125" s="9"/>
@@ -37850,7 +37836,7 @@
       <c r="GT125" s="9"/>
       <c r="GU125" s="9"/>
     </row>
-    <row r="126" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -38082,46 +38068,48 @@
       <c r="BY126" s="15">
         <v>63.44842342000959</v>
       </c>
-      <c r="BZ126" s="25">
+      <c r="BZ126" s="15">
         <v>63.29866886127347</v>
       </c>
-      <c r="CA126" s="25">
+      <c r="CA126" s="15">
         <v>63.194190606852175</v>
       </c>
-      <c r="CB126" s="25">
+      <c r="CB126" s="15">
         <v>63.131539466598987</v>
       </c>
-      <c r="CC126" s="25">
+      <c r="CC126" s="15">
         <v>63.834156634392627</v>
       </c>
-      <c r="CD126" s="25">
+      <c r="CD126" s="15">
         <v>66.618133031974523</v>
       </c>
-      <c r="CE126" s="25">
+      <c r="CE126" s="15">
         <v>70.67464139514955</v>
       </c>
-      <c r="CF126" s="25">
+      <c r="CF126" s="15">
         <v>77.717833118990526</v>
       </c>
-      <c r="CG126" s="25">
+      <c r="CG126" s="15">
         <v>75.030735613239301</v>
       </c>
-      <c r="CH126" s="25">
+      <c r="CH126" s="15">
         <v>76.490238807838324</v>
       </c>
-      <c r="CI126" s="25">
+      <c r="CI126" s="15">
         <v>77.973191110468619</v>
       </c>
-      <c r="CJ126" s="25">
+      <c r="CJ126" s="15">
         <v>78.46788968129988</v>
       </c>
-      <c r="CK126" s="25">
+      <c r="CK126" s="15">
         <v>73.585349940444672</v>
       </c>
-      <c r="CL126" s="25">
-        <v>76.339478549609254</v>
-      </c>
-      <c r="CM126" s="9"/>
+      <c r="CL126" s="15">
+        <v>76.438452674853295</v>
+      </c>
+      <c r="CM126" s="15">
+        <v>71.966192807240176</v>
+      </c>
       <c r="CN126" s="9"/>
       <c r="CO126" s="9"/>
       <c r="CP126" s="9"/>
@@ -38235,7 +38223,7 @@
       <c r="GT126" s="9"/>
       <c r="GU126" s="9"/>
     </row>
-    <row r="127" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -38312,19 +38300,19 @@
       <c r="BW127" s="9"/>
       <c r="BX127" s="9"/>
       <c r="BY127" s="9"/>
-      <c r="BZ127" s="21"/>
-      <c r="CA127" s="21"/>
-      <c r="CB127" s="21"/>
-      <c r="CC127" s="21"/>
-      <c r="CD127" s="21"/>
-      <c r="CE127" s="21"/>
-      <c r="CF127" s="21"/>
-      <c r="CG127" s="21"/>
-      <c r="CH127" s="21"/>
-      <c r="CI127" s="21"/>
-      <c r="CJ127" s="21"/>
-      <c r="CK127" s="21"/>
-      <c r="CL127" s="21"/>
+      <c r="BZ127" s="9"/>
+      <c r="CA127" s="9"/>
+      <c r="CB127" s="9"/>
+      <c r="CC127" s="9"/>
+      <c r="CD127" s="9"/>
+      <c r="CE127" s="9"/>
+      <c r="CF127" s="9"/>
+      <c r="CG127" s="9"/>
+      <c r="CH127" s="9"/>
+      <c r="CI127" s="9"/>
+      <c r="CJ127" s="9"/>
+      <c r="CK127" s="9"/>
+      <c r="CL127" s="9"/>
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
       <c r="CO127" s="9"/>
@@ -38439,7 +38427,7 @@
       <c r="GT127" s="9"/>
       <c r="GU127" s="9"/>
     </row>
-    <row r="128" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>13</v>
       </c>
@@ -38671,46 +38659,48 @@
       <c r="BY128" s="15">
         <v>100</v>
       </c>
-      <c r="BZ128" s="25">
+      <c r="BZ128" s="15">
         <v>100</v>
       </c>
-      <c r="CA128" s="25">
+      <c r="CA128" s="15">
         <v>100</v>
       </c>
-      <c r="CB128" s="25">
+      <c r="CB128" s="15">
         <v>100</v>
       </c>
-      <c r="CC128" s="25">
+      <c r="CC128" s="15">
         <v>100</v>
       </c>
-      <c r="CD128" s="25">
+      <c r="CD128" s="15">
         <v>100</v>
       </c>
-      <c r="CE128" s="25">
+      <c r="CE128" s="15">
         <v>100</v>
       </c>
-      <c r="CF128" s="25">
+      <c r="CF128" s="15">
         <v>100</v>
       </c>
-      <c r="CG128" s="25">
+      <c r="CG128" s="15">
         <v>100</v>
       </c>
-      <c r="CH128" s="25">
+      <c r="CH128" s="15">
         <v>100</v>
       </c>
-      <c r="CI128" s="25">
+      <c r="CI128" s="15">
         <v>100</v>
       </c>
-      <c r="CJ128" s="25">
+      <c r="CJ128" s="15">
         <v>100</v>
       </c>
-      <c r="CK128" s="25">
+      <c r="CK128" s="15">
         <v>100</v>
       </c>
-      <c r="CL128" s="25">
+      <c r="CL128" s="15">
         <v>100</v>
       </c>
-      <c r="CM128" s="9"/>
+      <c r="CM128" s="15">
+        <v>100</v>
+      </c>
       <c r="CN128" s="9"/>
       <c r="CO128" s="9"/>
       <c r="CP128" s="9"/>
@@ -38824,7 +38814,7 @@
       <c r="GT128" s="9"/>
       <c r="GU128" s="9"/>
     </row>
-    <row r="129" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -38902,26 +38892,27 @@
       <c r="BW129" s="12"/>
       <c r="BX129" s="12"/>
       <c r="BY129" s="12"/>
-      <c r="BZ129" s="23"/>
-      <c r="CA129" s="23"/>
-      <c r="CB129" s="23"/>
-      <c r="CC129" s="23"/>
-      <c r="CD129" s="23"/>
-      <c r="CE129" s="23"/>
-      <c r="CF129" s="23"/>
-      <c r="CG129" s="23"/>
-      <c r="CH129" s="23"/>
-      <c r="CI129" s="23"/>
-      <c r="CJ129" s="23"/>
-      <c r="CK129" s="23"/>
-      <c r="CL129" s="23"/>
+      <c r="BZ129" s="12"/>
+      <c r="CA129" s="12"/>
+      <c r="CB129" s="12"/>
+      <c r="CC129" s="12"/>
+      <c r="CD129" s="12"/>
+      <c r="CE129" s="12"/>
+      <c r="CF129" s="12"/>
+      <c r="CG129" s="12"/>
+      <c r="CH129" s="12"/>
+      <c r="CI129" s="12"/>
+      <c r="CJ129" s="12"/>
+      <c r="CK129" s="12"/>
+      <c r="CL129" s="12"/>
+      <c r="CM129" s="12"/>
     </row>
-    <row r="130" spans="1:203" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:203" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:203" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:203" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -38999,20 +38990,20 @@
       <c r="BW131" s="1"/>
       <c r="BX131" s="1"/>
       <c r="BY131" s="1"/>
-      <c r="BZ131" s="18"/>
-      <c r="CA131" s="18"/>
-      <c r="CB131" s="18"/>
-      <c r="CC131" s="18"/>
-      <c r="CD131" s="28"/>
-      <c r="CE131" s="28"/>
-      <c r="CF131" s="28"/>
-      <c r="CG131" s="28"/>
-      <c r="CH131" s="28"/>
-      <c r="CI131" s="28"/>
-      <c r="CJ131" s="28"/>
-      <c r="CK131" s="28"/>
-      <c r="CL131" s="28"/>
-      <c r="CM131" s="16"/>
+      <c r="BZ131" s="1"/>
+      <c r="CA131" s="1"/>
+      <c r="CB131" s="1"/>
+      <c r="CC131" s="1"/>
+      <c r="CD131" s="1"/>
+      <c r="CE131" s="1"/>
+      <c r="CF131" s="1"/>
+      <c r="CG131" s="1"/>
+      <c r="CH131" s="1"/>
+      <c r="CI131" s="1"/>
+      <c r="CJ131" s="1"/>
+      <c r="CK131" s="1"/>
+      <c r="CL131" s="1"/>
+      <c r="CM131" s="1"/>
       <c r="CN131" s="16"/>
       <c r="CO131" s="16"/>
       <c r="CP131" s="16"/>
@@ -39126,7 +39117,7 @@
       <c r="GT131" s="16"/>
       <c r="GU131" s="16"/>
     </row>
-    <row r="132" spans="1:203" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:203" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -39204,20 +39195,20 @@
       <c r="BW132" s="1"/>
       <c r="BX132" s="1"/>
       <c r="BY132" s="1"/>
-      <c r="BZ132" s="18"/>
-      <c r="CA132" s="18"/>
-      <c r="CB132" s="18"/>
-      <c r="CC132" s="18"/>
-      <c r="CD132" s="28"/>
-      <c r="CE132" s="28"/>
-      <c r="CF132" s="28"/>
-      <c r="CG132" s="28"/>
-      <c r="CH132" s="28"/>
-      <c r="CI132" s="28"/>
-      <c r="CJ132" s="28"/>
-      <c r="CK132" s="28"/>
-      <c r="CL132" s="28"/>
-      <c r="CM132" s="16"/>
+      <c r="BZ132" s="1"/>
+      <c r="CA132" s="1"/>
+      <c r="CB132" s="1"/>
+      <c r="CC132" s="1"/>
+      <c r="CD132" s="1"/>
+      <c r="CE132" s="1"/>
+      <c r="CF132" s="1"/>
+      <c r="CG132" s="1"/>
+      <c r="CH132" s="1"/>
+      <c r="CI132" s="1"/>
+      <c r="CJ132" s="1"/>
+      <c r="CK132" s="1"/>
+      <c r="CL132" s="1"/>
+      <c r="CM132" s="1"/>
       <c r="CN132" s="16"/>
       <c r="CO132" s="16"/>
       <c r="CP132" s="16"/>
@@ -39331,164 +39322,8 @@
       <c r="GT132" s="16"/>
       <c r="GU132" s="16"/>
     </row>
-    <row r="138" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CC138" s="1"/>
-      <c r="CD138" s="1"/>
-      <c r="CE138" s="1"/>
-      <c r="CF138" s="1"/>
-      <c r="CG138" s="1"/>
-      <c r="CH138" s="1"/>
-      <c r="CI138" s="1"/>
-      <c r="CJ138" s="1"/>
-      <c r="CK138" s="1"/>
-      <c r="CL138" s="1"/>
-    </row>
-    <row r="139" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CC139" s="1"/>
-      <c r="CD139" s="1"/>
-      <c r="CE139" s="1"/>
-      <c r="CF139" s="1"/>
-      <c r="CG139" s="1"/>
-      <c r="CH139" s="1"/>
-      <c r="CI139" s="1"/>
-      <c r="CJ139" s="1"/>
-      <c r="CK139" s="1"/>
-      <c r="CL139" s="1"/>
-    </row>
-    <row r="140" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CC140" s="1"/>
-      <c r="CD140" s="1"/>
-      <c r="CE140" s="1"/>
-      <c r="CF140" s="1"/>
-      <c r="CG140" s="1"/>
-      <c r="CH140" s="1"/>
-      <c r="CI140" s="1"/>
-      <c r="CJ140" s="1"/>
-      <c r="CK140" s="1"/>
-      <c r="CL140" s="1"/>
-    </row>
-    <row r="141" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CC141" s="1"/>
-      <c r="CD141" s="1"/>
-      <c r="CE141" s="1"/>
-      <c r="CF141" s="1"/>
-      <c r="CG141" s="1"/>
-      <c r="CH141" s="1"/>
-      <c r="CI141" s="1"/>
-      <c r="CJ141" s="1"/>
-      <c r="CK141" s="1"/>
-      <c r="CL141" s="1"/>
-    </row>
-    <row r="142" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CC142" s="1"/>
-      <c r="CD142" s="1"/>
-      <c r="CE142" s="1"/>
-      <c r="CF142" s="1"/>
-      <c r="CG142" s="1"/>
-      <c r="CH142" s="1"/>
-      <c r="CI142" s="1"/>
-      <c r="CJ142" s="1"/>
-      <c r="CK142" s="1"/>
-      <c r="CL142" s="1"/>
-    </row>
-    <row r="143" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CC143" s="1"/>
-      <c r="CD143" s="1"/>
-      <c r="CE143" s="1"/>
-      <c r="CF143" s="1"/>
-      <c r="CG143" s="1"/>
-      <c r="CH143" s="1"/>
-      <c r="CI143" s="1"/>
-      <c r="CJ143" s="1"/>
-      <c r="CK143" s="1"/>
-      <c r="CL143" s="1"/>
-    </row>
-    <row r="144" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CC144" s="1"/>
-      <c r="CD144" s="1"/>
-      <c r="CE144" s="1"/>
-      <c r="CF144" s="1"/>
-      <c r="CG144" s="1"/>
-      <c r="CH144" s="1"/>
-      <c r="CI144" s="1"/>
-      <c r="CJ144" s="1"/>
-      <c r="CK144" s="1"/>
-      <c r="CL144" s="1"/>
-    </row>
-    <row r="145" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC145" s="1"/>
-      <c r="CD145" s="1"/>
-      <c r="CE145" s="1"/>
-      <c r="CF145" s="1"/>
-      <c r="CG145" s="1"/>
-      <c r="CH145" s="1"/>
-      <c r="CI145" s="1"/>
-      <c r="CJ145" s="1"/>
-      <c r="CK145" s="1"/>
-      <c r="CL145" s="1"/>
-    </row>
-    <row r="146" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC146" s="1"/>
-      <c r="CD146" s="1"/>
-      <c r="CE146" s="1"/>
-      <c r="CF146" s="1"/>
-      <c r="CG146" s="1"/>
-      <c r="CH146" s="1"/>
-      <c r="CI146" s="1"/>
-      <c r="CJ146" s="1"/>
-      <c r="CK146" s="1"/>
-      <c r="CL146" s="1"/>
-    </row>
-    <row r="147" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC147" s="1"/>
-      <c r="CD147" s="1"/>
-      <c r="CE147" s="1"/>
-      <c r="CF147" s="1"/>
-      <c r="CG147" s="1"/>
-      <c r="CH147" s="1"/>
-      <c r="CI147" s="1"/>
-      <c r="CJ147" s="1"/>
-      <c r="CK147" s="1"/>
-      <c r="CL147" s="1"/>
-    </row>
-    <row r="148" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC148" s="1"/>
-      <c r="CD148" s="1"/>
-      <c r="CE148" s="1"/>
-      <c r="CF148" s="1"/>
-      <c r="CG148" s="1"/>
-      <c r="CH148" s="1"/>
-      <c r="CI148" s="1"/>
-      <c r="CJ148" s="1"/>
-      <c r="CK148" s="1"/>
-      <c r="CL148" s="1"/>
-    </row>
-    <row r="149" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC149" s="1"/>
-      <c r="CD149" s="1"/>
-      <c r="CE149" s="1"/>
-      <c r="CF149" s="1"/>
-      <c r="CG149" s="1"/>
-      <c r="CH149" s="1"/>
-      <c r="CI149" s="1"/>
-      <c r="CJ149" s="1"/>
-      <c r="CK149" s="1"/>
-      <c r="CL149" s="1"/>
-    </row>
-    <row r="150" spans="81:90" x14ac:dyDescent="0.2">
-      <c r="CC150" s="1"/>
-      <c r="CD150" s="1"/>
-      <c r="CE150" s="1"/>
-      <c r="CF150" s="1"/>
-      <c r="CG150" s="1"/>
-      <c r="CH150" s="1"/>
-      <c r="CI150" s="1"/>
-      <c r="CJ150" s="1"/>
-      <c r="CK150" s="1"/>
-      <c r="CL150" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="159">
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
@@ -39581,7 +39416,6 @@
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
     <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="AH9:AK9"/>
     <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BB47:BE47"/>
@@ -39594,7 +39428,6 @@
     <mergeCell ref="Z47:AC47"/>
     <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="BR122:BU122"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -39618,6 +39451,14 @@
     <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="B47:E47"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>
     <mergeCell ref="BZ28:CC28"/>
@@ -39632,24 +39473,25 @@
     <mergeCell ref="BV66:BY66"/>
     <mergeCell ref="CD103:CG103"/>
     <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL28:CM28"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="CH66:CI66"/>
+    <mergeCell ref="CL84:CM84"/>
+    <mergeCell ref="CL103:CM103"/>
+    <mergeCell ref="CL122:CM122"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CD122:CG122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="88" man="1"/>
-    <brk id="76" max="88" man="1"/>
-    <brk id="94" max="88" man="1"/>
+    <brk id="38" max="90" man="1"/>
+    <brk id="76" max="90" man="1"/>
+    <brk id="94" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFD587B-26F1-433A-AA88-0EA8B4C22404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C029D5-ED30-4EE5-AD2C-365395FADFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CM$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CN$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -628,10 +628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -705,11 +705,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -724,34 +724,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23604,186 +23598,187 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CM1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.453125" style="1" customWidth="1"/>
-    <col min="2" max="91" width="9.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
+    <col min="2" max="92" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="23">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="23"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="23">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="23"/>
-      <c r="AN9" s="23"/>
-      <c r="AO9" s="23"/>
-      <c r="AP9" s="23">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="23"/>
-      <c r="AR9" s="23"/>
-      <c r="AS9" s="23"/>
-      <c r="AT9" s="23">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="23"/>
-      <c r="AV9" s="23"/>
-      <c r="AW9" s="23"/>
-      <c r="AX9" s="23">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="23"/>
-      <c r="BB9" s="23">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="23"/>
-      <c r="BD9" s="23"/>
-      <c r="BE9" s="23"/>
-      <c r="BF9" s="23">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="23"/>
-      <c r="BH9" s="23"/>
-      <c r="BI9" s="23"/>
-      <c r="BJ9" s="23">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="23"/>
-      <c r="BL9" s="23"/>
-      <c r="BM9" s="23"/>
-      <c r="BN9" s="23">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="23"/>
-      <c r="BP9" s="23"/>
-      <c r="BQ9" s="23"/>
-      <c r="BR9" s="23">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="23"/>
-      <c r="BT9" s="23"/>
-      <c r="BU9" s="23"/>
-      <c r="BV9" s="23">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="23"/>
-      <c r="BX9" s="23"/>
-      <c r="BY9" s="23"/>
-      <c r="BZ9" s="23">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="23"/>
-      <c r="CB9" s="23"/>
-      <c r="CC9" s="23"/>
-      <c r="CD9" s="23">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="23"/>
-      <c r="CF9" s="23"/>
-      <c r="CG9" s="23"/>
-      <c r="CH9" s="23">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="23"/>
-      <c r="CJ9" s="23"/>
-      <c r="CK9" s="23"/>
-      <c r="CL9" s="23">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="23"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
     </row>
-    <row r="10" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24057,11 +24052,14 @@
       <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24317,25 +24315,27 @@
       <c r="CG12" s="8">
         <v>16316.674780339399</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="18">
         <v>18245.77194646827</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="18">
         <v>11707.296323984163</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="18">
         <v>12514.2688316575</v>
       </c>
-      <c r="CK12" s="19">
+      <c r="CK12" s="18">
         <v>21042.815017700836</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="18">
         <v>22217.171288109632</v>
       </c>
-      <c r="CM12" s="19">
-        <v>20654.791946411562</v>
-      </c>
-      <c r="CN12" s="9"/>
+      <c r="CM12" s="18">
+        <v>20785.30183821536</v>
+      </c>
+      <c r="CN12" s="18">
+        <v>22381.11230703782</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24448,7 +24448,7 @@
       <c r="GT12" s="9"/>
       <c r="GU12" s="9"/>
     </row>
-    <row r="13" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24704,25 +24704,27 @@
       <c r="CG13" s="8">
         <v>51664.598900513491</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="18">
         <v>62583.314874735559</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="18">
         <v>45928.382212957295</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="18">
         <v>49759.949187621067</v>
       </c>
-      <c r="CK13" s="19">
+      <c r="CK13" s="18">
         <v>63462.106851968158</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="18">
         <v>77519.819252167275</v>
       </c>
-      <c r="CM13" s="19">
-        <v>58877.793745588831</v>
-      </c>
-      <c r="CN13" s="9"/>
+      <c r="CM13" s="18">
+        <v>59276.84388777717</v>
+      </c>
+      <c r="CN13" s="18">
+        <v>69045.526641244156</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -24835,7 +24837,7 @@
       <c r="GT13" s="9"/>
       <c r="GU13" s="9"/>
     </row>
-    <row r="14" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -25039,7 +25041,7 @@
       <c r="GT14" s="9"/>
       <c r="GU14" s="9"/>
     </row>
-    <row r="15" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
@@ -25295,25 +25297,27 @@
       <c r="CG15" s="11">
         <v>67981.273680852886</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="19">
         <v>80829.086821203833</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="19">
         <v>57635.678536941457</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="19">
         <v>62274.218019278567</v>
       </c>
-      <c r="CK15" s="20">
+      <c r="CK15" s="19">
         <v>84504.921869668993</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="19">
         <v>99736.990540276907</v>
       </c>
-      <c r="CM15" s="20">
-        <v>79532.585692000401</v>
-      </c>
-      <c r="CN15" s="9"/>
+      <c r="CM15" s="19">
+        <v>80062.145725992537</v>
+      </c>
+      <c r="CN15" s="19">
+        <v>91426.63894828198</v>
+      </c>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25426,7 +25430,7 @@
       <c r="GT15" s="9"/>
       <c r="GU15" s="9"/>
     </row>
-    <row r="16" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -25518,13 +25522,14 @@
       <c r="CK16" s="12"/>
       <c r="CL16" s="12"/>
       <c r="CM16" s="12"/>
+      <c r="CN16" s="12"/>
     </row>
-    <row r="17" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -25728,7 +25733,7 @@
       <c r="GT18" s="9"/>
       <c r="GU18" s="9"/>
     </row>
-    <row r="19" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -25819,7 +25824,7 @@
       <c r="CK19" s="14"/>
       <c r="CL19" s="14"/>
       <c r="CM19" s="14"/>
-      <c r="CN19" s="9"/>
+      <c r="CN19" s="14"/>
       <c r="CO19" s="9"/>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
@@ -25932,176 +25937,177 @@
       <c r="GT19" s="9"/>
       <c r="GU19" s="9"/>
     </row>
-    <row r="20" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="23">
+      <c r="B28" s="21">
         <v>2000</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="23">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21">
         <v>2001</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="23">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21">
         <v>2002</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="23">
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21">
         <v>2003</v>
       </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="23">
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21">
         <v>2004</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="23">
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21">
         <v>2005</v>
       </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="23">
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="21">
         <v>2006</v>
       </c>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="23">
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="21">
         <v>2007</v>
       </c>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="23">
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="21">
         <v>2008</v>
       </c>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="23">
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="21">
         <v>2009</v>
       </c>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="23">
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="23">
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="21">
         <v>2011</v>
       </c>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="23">
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="21">
         <v>2012</v>
       </c>
-      <c r="AY28" s="25"/>
-      <c r="AZ28" s="25"/>
-      <c r="BA28" s="25"/>
-      <c r="BB28" s="23">
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="21">
         <v>2013</v>
       </c>
-      <c r="BC28" s="25"/>
-      <c r="BD28" s="25"/>
-      <c r="BE28" s="25"/>
-      <c r="BF28" s="23">
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="21">
         <v>2014</v>
       </c>
-      <c r="BG28" s="25"/>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="25"/>
-      <c r="BJ28" s="23">
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="21">
         <v>2015</v>
       </c>
-      <c r="BK28" s="25"/>
-      <c r="BL28" s="25"/>
-      <c r="BM28" s="25"/>
-      <c r="BN28" s="23">
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="21">
         <v>2016</v>
       </c>
-      <c r="BO28" s="25"/>
-      <c r="BP28" s="25"/>
-      <c r="BQ28" s="25"/>
-      <c r="BR28" s="23">
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="21">
         <v>2017</v>
       </c>
-      <c r="BS28" s="25"/>
-      <c r="BT28" s="25"/>
-      <c r="BU28" s="25"/>
-      <c r="BV28" s="23">
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="21">
         <v>2018</v>
       </c>
-      <c r="BW28" s="25"/>
-      <c r="BX28" s="25"/>
-      <c r="BY28" s="25"/>
-      <c r="BZ28" s="23">
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="21">
         <v>2019</v>
       </c>
-      <c r="CA28" s="25"/>
-      <c r="CB28" s="25"/>
-      <c r="CC28" s="25"/>
-      <c r="CD28" s="23">
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="21">
         <v>2020</v>
       </c>
-      <c r="CE28" s="25"/>
-      <c r="CF28" s="25"/>
-      <c r="CG28" s="25"/>
-      <c r="CH28" s="23">
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
+      <c r="CH28" s="21">
         <v>2021</v>
       </c>
-      <c r="CI28" s="23"/>
-      <c r="CJ28" s="23"/>
-      <c r="CK28" s="23"/>
-      <c r="CL28" s="23">
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21">
         <v>2022</v>
       </c>
-      <c r="CM28" s="23"/>
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
     </row>
-    <row r="29" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
@@ -26375,11 +26381,14 @@
       <c r="CM29" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN29" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="30" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
@@ -26635,25 +26644,27 @@
       <c r="CG31" s="8">
         <v>15312.458414541812</v>
       </c>
-      <c r="CH31" s="19">
+      <c r="CH31" s="18">
         <v>16324.083844096935</v>
       </c>
-      <c r="CI31" s="19">
+      <c r="CI31" s="18">
         <v>11205.272574840264</v>
       </c>
-      <c r="CJ31" s="19">
+      <c r="CJ31" s="18">
         <v>11721.002586429966</v>
       </c>
-      <c r="CK31" s="19">
+      <c r="CK31" s="18">
         <v>19471.682946741701</v>
       </c>
-      <c r="CL31" s="19">
+      <c r="CL31" s="18">
         <v>19679.859816452212</v>
       </c>
-      <c r="CM31" s="19">
-        <v>18530.034634681397</v>
-      </c>
-      <c r="CN31" s="9"/>
+      <c r="CM31" s="18">
+        <v>18647.118981092011</v>
+      </c>
+      <c r="CN31" s="18">
+        <v>20451.119322511528</v>
+      </c>
       <c r="CO31" s="9"/>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
@@ -26766,7 +26777,7 @@
       <c r="GT31" s="9"/>
       <c r="GU31" s="9"/>
     </row>
-    <row r="32" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>12</v>
       </c>
@@ -27022,25 +27033,27 @@
       <c r="CG32" s="8">
         <v>46012.769983699865</v>
       </c>
-      <c r="CH32" s="19">
+      <c r="CH32" s="18">
         <v>53111.261375570801</v>
       </c>
-      <c r="CI32" s="19">
+      <c r="CI32" s="18">
         <v>39665.793819919112</v>
       </c>
-      <c r="CJ32" s="19">
+      <c r="CJ32" s="18">
         <v>42713.989678357771</v>
       </c>
-      <c r="CK32" s="19">
+      <c r="CK32" s="18">
         <v>54243.785184920882</v>
       </c>
-      <c r="CL32" s="19">
+      <c r="CL32" s="18">
         <v>63845.468740591867</v>
       </c>
-      <c r="CM32" s="19">
-        <v>47568.852709692859</v>
-      </c>
-      <c r="CN32" s="9"/>
+      <c r="CM32" s="18">
+        <v>47891.255371714476</v>
+      </c>
+      <c r="CN32" s="18">
+        <v>56072.609716363979</v>
+      </c>
       <c r="CO32" s="9"/>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
@@ -27153,7 +27166,7 @@
       <c r="GT32" s="9"/>
       <c r="GU32" s="9"/>
     </row>
-    <row r="33" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -27357,7 +27370,7 @@
       <c r="GT33" s="9"/>
       <c r="GU33" s="9"/>
     </row>
-    <row r="34" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
         <v>13</v>
       </c>
@@ -27613,25 +27626,27 @@
       <c r="CG34" s="11">
         <v>61325.228398241677</v>
       </c>
-      <c r="CH34" s="20">
+      <c r="CH34" s="19">
         <v>69435.345219667739</v>
       </c>
-      <c r="CI34" s="20">
+      <c r="CI34" s="19">
         <v>50871.066394759378</v>
       </c>
-      <c r="CJ34" s="20">
+      <c r="CJ34" s="19">
         <v>54434.992264787739</v>
       </c>
-      <c r="CK34" s="20">
+      <c r="CK34" s="19">
         <v>73715.468131662579</v>
       </c>
-      <c r="CL34" s="20">
+      <c r="CL34" s="19">
         <v>83525.328557044078</v>
       </c>
-      <c r="CM34" s="20">
-        <v>66098.887344374263</v>
-      </c>
-      <c r="CN34" s="9"/>
+      <c r="CM34" s="19">
+        <v>66538.374352806481</v>
+      </c>
+      <c r="CN34" s="19">
+        <v>76523.729038875506</v>
+      </c>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -27744,7 +27759,7 @@
       <c r="GT34" s="9"/>
       <c r="GU34" s="9"/>
     </row>
-    <row r="35" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -27836,13 +27851,14 @@
       <c r="CK35" s="12"/>
       <c r="CL35" s="12"/>
       <c r="CM35" s="12"/>
+      <c r="CN35" s="12"/>
     </row>
-    <row r="36" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -28046,7 +28062,7 @@
       <c r="GT37" s="9"/>
       <c r="GU37" s="9"/>
     </row>
-    <row r="38" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -28250,174 +28266,175 @@
       <c r="GT38" s="9"/>
       <c r="GU38" s="9"/>
     </row>
-    <row r="39" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23" t="s">
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23" t="s">
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23" t="s">
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23" t="s">
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23" t="s">
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23" t="s">
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23" t="s">
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23" t="s">
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="23"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23" t="s">
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="23"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
-      <c r="AX47" s="23" t="s">
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="23"/>
-      <c r="AZ47" s="23"/>
-      <c r="BA47" s="23"/>
-      <c r="BB47" s="23" t="s">
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="21"/>
+      <c r="BA47" s="21"/>
+      <c r="BB47" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="23"/>
-      <c r="BD47" s="23"/>
-      <c r="BE47" s="23"/>
-      <c r="BF47" s="23" t="s">
+      <c r="BC47" s="21"/>
+      <c r="BD47" s="21"/>
+      <c r="BE47" s="21"/>
+      <c r="BF47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="23"/>
-      <c r="BH47" s="23"/>
-      <c r="BI47" s="23"/>
-      <c r="BJ47" s="23" t="s">
+      <c r="BG47" s="21"/>
+      <c r="BH47" s="21"/>
+      <c r="BI47" s="21"/>
+      <c r="BJ47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="23"/>
-      <c r="BL47" s="23"/>
-      <c r="BM47" s="23"/>
-      <c r="BN47" s="23" t="s">
+      <c r="BK47" s="21"/>
+      <c r="BL47" s="21"/>
+      <c r="BM47" s="21"/>
+      <c r="BN47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="23"/>
-      <c r="BP47" s="23"/>
-      <c r="BQ47" s="23"/>
-      <c r="BR47" s="23" t="s">
+      <c r="BO47" s="21"/>
+      <c r="BP47" s="21"/>
+      <c r="BQ47" s="21"/>
+      <c r="BR47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="23"/>
-      <c r="BT47" s="23"/>
-      <c r="BU47" s="23"/>
-      <c r="BV47" s="23" t="s">
+      <c r="BS47" s="21"/>
+      <c r="BT47" s="21"/>
+      <c r="BU47" s="21"/>
+      <c r="BV47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="23"/>
-      <c r="BX47" s="23"/>
-      <c r="BY47" s="23"/>
-      <c r="BZ47" s="23" t="s">
+      <c r="BW47" s="21"/>
+      <c r="BX47" s="21"/>
+      <c r="BY47" s="21"/>
+      <c r="BZ47" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="23"/>
-      <c r="CB47" s="23"/>
-      <c r="CC47" s="23"/>
-      <c r="CD47" s="23" t="s">
+      <c r="CA47" s="21"/>
+      <c r="CB47" s="21"/>
+      <c r="CC47" s="21"/>
+      <c r="CD47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="23"/>
-      <c r="CF47" s="23"/>
-      <c r="CG47" s="23"/>
-      <c r="CH47" s="23" t="s">
+      <c r="CE47" s="21"/>
+      <c r="CF47" s="21"/>
+      <c r="CG47" s="21"/>
+      <c r="CH47" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="23"/>
+      <c r="CI47" s="21"/>
       <c r="CJ47" s="21"/>
-      <c r="CK47" s="21"/>
-      <c r="CL47" s="18"/>
-      <c r="CM47" s="18"/>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="21"/>
+      <c r="CM47" s="21"/>
+      <c r="CN47" s="20"/>
     </row>
-    <row r="48" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
@@ -28679,15 +28696,18 @@
       <c r="CI48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ48" s="5"/>
+      <c r="CJ48" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK48" s="5"/>
       <c r="CL48" s="5"/>
-      <c r="CM48" s="22"/>
+      <c r="CM48" s="5"/>
+      <c r="CN48" s="5"/>
     </row>
-    <row r="49" spans="1:199" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
     </row>
-    <row r="50" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>11</v>
       </c>
@@ -28947,13 +28967,15 @@
         <v>21.766134934126939</v>
       </c>
       <c r="CI50" s="15">
-        <v>76.426660561218597</v>
-      </c>
-      <c r="CJ50" s="15"/>
+        <v>77.541434529452658</v>
+      </c>
+      <c r="CJ50" s="15">
+        <v>78.844746010410461</v>
+      </c>
       <c r="CK50" s="15"/>
       <c r="CL50" s="15"/>
-      <c r="CM50" s="9"/>
-      <c r="CN50" s="9"/>
+      <c r="CM50" s="15"/>
+      <c r="CN50" s="15"/>
       <c r="CO50" s="9"/>
       <c r="CP50" s="9"/>
       <c r="CQ50" s="9"/>
@@ -29062,7 +29084,7 @@
       <c r="GP50" s="9"/>
       <c r="GQ50" s="9"/>
     </row>
-    <row r="51" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>12</v>
       </c>
@@ -29322,13 +29344,15 @@
         <v>23.866591930018515</v>
       </c>
       <c r="CI51" s="15">
-        <v>28.194791344029227</v>
-      </c>
-      <c r="CJ51" s="15"/>
+        <v>29.06364437773297</v>
+      </c>
+      <c r="CJ51" s="15">
+        <v>38.757228993354403</v>
+      </c>
       <c r="CK51" s="15"/>
       <c r="CL51" s="15"/>
-      <c r="CM51" s="9"/>
-      <c r="CN51" s="9"/>
+      <c r="CM51" s="15"/>
+      <c r="CN51" s="15"/>
       <c r="CO51" s="9"/>
       <c r="CP51" s="9"/>
       <c r="CQ51" s="9"/>
@@ -29437,7 +29461,7 @@
       <c r="GP51" s="9"/>
       <c r="GQ51" s="9"/>
     </row>
-    <row r="52" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -29638,7 +29662,7 @@
       <c r="GP52" s="9"/>
       <c r="GQ52" s="9"/>
     </row>
-    <row r="53" spans="1:199" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:199" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
         <v>13</v>
       </c>
@@ -29898,13 +29922,15 @@
         <v>23.392449998721233</v>
       </c>
       <c r="CI53" s="15">
-        <v>37.991930885352843</v>
-      </c>
-      <c r="CJ53" s="15"/>
+        <v>38.910736818474135</v>
+      </c>
+      <c r="CJ53" s="15">
+        <v>46.812985945449412</v>
+      </c>
       <c r="CK53" s="15"/>
       <c r="CL53" s="15"/>
-      <c r="CM53" s="9"/>
-      <c r="CN53" s="9"/>
+      <c r="CM53" s="15"/>
+      <c r="CN53" s="15"/>
       <c r="CO53" s="9"/>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
@@ -30013,7 +30039,7 @@
       <c r="GP53" s="9"/>
       <c r="GQ53" s="9"/>
     </row>
-    <row r="54" spans="1:199" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:199" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -30105,13 +30131,14 @@
       <c r="CK54" s="12"/>
       <c r="CL54" s="12"/>
       <c r="CM54" s="12"/>
+      <c r="CN54" s="12"/>
     </row>
-    <row r="55" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:199" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -30311,7 +30338,7 @@
       <c r="GP56" s="9"/>
       <c r="GQ56" s="9"/>
     </row>
-    <row r="57" spans="1:199" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -30511,174 +30538,175 @@
       <c r="GP57" s="9"/>
       <c r="GQ57" s="9"/>
     </row>
-    <row r="58" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="64" spans="1:199" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="23" t="s">
+      <c r="B66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="23" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="23" t="s">
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="23" t="s">
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="23" t="s">
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="23" t="s">
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="23" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="23" t="s">
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="23" t="s">
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="23" t="s">
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="23" t="s">
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="23"/>
+      <c r="AP66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="24"/>
-      <c r="AR66" s="24"/>
-      <c r="AS66" s="24"/>
-      <c r="AT66" s="23" t="s">
+      <c r="AQ66" s="23"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="24"/>
-      <c r="AV66" s="24"/>
-      <c r="AW66" s="24"/>
-      <c r="AX66" s="23" t="s">
+      <c r="AU66" s="23"/>
+      <c r="AV66" s="23"/>
+      <c r="AW66" s="23"/>
+      <c r="AX66" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="24"/>
-      <c r="AZ66" s="24"/>
-      <c r="BA66" s="24"/>
-      <c r="BB66" s="23" t="s">
+      <c r="AY66" s="23"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="23"/>
+      <c r="BB66" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="24"/>
-      <c r="BD66" s="24"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="23" t="s">
+      <c r="BC66" s="23"/>
+      <c r="BD66" s="23"/>
+      <c r="BE66" s="23"/>
+      <c r="BF66" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="24"/>
-      <c r="BH66" s="24"/>
-      <c r="BI66" s="24"/>
-      <c r="BJ66" s="23" t="s">
+      <c r="BG66" s="23"/>
+      <c r="BH66" s="23"/>
+      <c r="BI66" s="23"/>
+      <c r="BJ66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="24"/>
-      <c r="BL66" s="24"/>
-      <c r="BM66" s="24"/>
-      <c r="BN66" s="23" t="s">
+      <c r="BK66" s="23"/>
+      <c r="BL66" s="23"/>
+      <c r="BM66" s="23"/>
+      <c r="BN66" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="24"/>
-      <c r="BP66" s="24"/>
-      <c r="BQ66" s="24"/>
-      <c r="BR66" s="23" t="s">
+      <c r="BO66" s="23"/>
+      <c r="BP66" s="23"/>
+      <c r="BQ66" s="23"/>
+      <c r="BR66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="24"/>
-      <c r="BT66" s="24"/>
-      <c r="BU66" s="24"/>
-      <c r="BV66" s="23" t="s">
+      <c r="BS66" s="23"/>
+      <c r="BT66" s="23"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="24"/>
-      <c r="BX66" s="24"/>
-      <c r="BY66" s="24"/>
-      <c r="BZ66" s="23" t="s">
+      <c r="BW66" s="23"/>
+      <c r="BX66" s="23"/>
+      <c r="BY66" s="23"/>
+      <c r="BZ66" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="24"/>
-      <c r="CB66" s="24"/>
-      <c r="CC66" s="24"/>
-      <c r="CD66" s="23" t="s">
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
+      <c r="CD66" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="24"/>
-      <c r="CF66" s="24"/>
-      <c r="CG66" s="24"/>
-      <c r="CH66" s="23" t="s">
+      <c r="CE66" s="23"/>
+      <c r="CF66" s="23"/>
+      <c r="CG66" s="23"/>
+      <c r="CH66" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="23"/>
+      <c r="CI66" s="21"/>
       <c r="CJ66" s="21"/>
-      <c r="CK66" s="21"/>
-      <c r="CL66" s="18"/>
-      <c r="CM66" s="18"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="21"/>
+      <c r="CM66" s="21"/>
+      <c r="CN66" s="20"/>
     </row>
-    <row r="67" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>4</v>
       </c>
@@ -30940,15 +30968,18 @@
       <c r="CI67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ67" s="5"/>
+      <c r="CJ67" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK67" s="5"/>
       <c r="CL67" s="5"/>
-      <c r="CM67" s="22"/>
+      <c r="CM67" s="5"/>
+      <c r="CN67" s="5"/>
     </row>
-    <row r="68" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
     </row>
-    <row r="69" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>11</v>
       </c>
@@ -31208,13 +31239,15 @@
         <v>20.55720862747701</v>
       </c>
       <c r="CI69" s="15">
-        <v>65.368887824181741</v>
-      </c>
-      <c r="CJ69" s="15"/>
+        <v>66.413791869385506</v>
+      </c>
+      <c r="CJ69" s="15">
+        <v>74.482679034546805</v>
+      </c>
       <c r="CK69" s="15"/>
       <c r="CL69" s="15"/>
-      <c r="CM69" s="9"/>
-      <c r="CN69" s="9"/>
+      <c r="CM69" s="15"/>
+      <c r="CN69" s="15"/>
       <c r="CO69" s="9"/>
       <c r="CP69" s="9"/>
       <c r="CQ69" s="9"/>
@@ -31323,7 +31356,7 @@
       <c r="GP69" s="9"/>
       <c r="GQ69" s="9"/>
     </row>
-    <row r="70" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>12</v>
       </c>
@@ -31583,13 +31616,15 @@
         <v>20.21079350594826</v>
       </c>
       <c r="CI70" s="15">
-        <v>19.924116294390259</v>
-      </c>
-      <c r="CJ70" s="15"/>
+        <v>20.73691399985232</v>
+      </c>
+      <c r="CJ70" s="15">
+        <v>31.274578044800904</v>
+      </c>
       <c r="CK70" s="15"/>
       <c r="CL70" s="15"/>
-      <c r="CM70" s="9"/>
-      <c r="CN70" s="9"/>
+      <c r="CM70" s="15"/>
+      <c r="CN70" s="15"/>
       <c r="CO70" s="9"/>
       <c r="CP70" s="9"/>
       <c r="CQ70" s="9"/>
@@ -31698,7 +31733,7 @@
       <c r="GP70" s="9"/>
       <c r="GQ70" s="9"/>
     </row>
-    <row r="71" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -31898,7 +31933,7 @@
       <c r="GP71" s="9"/>
       <c r="GQ71" s="9"/>
     </row>
-    <row r="72" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
         <v>13</v>
       </c>
@@ -32158,13 +32193,15 @@
         <v>20.292234873753202</v>
       </c>
       <c r="CI72" s="15">
-        <v>29.934149269541592</v>
-      </c>
-      <c r="CJ72" s="15"/>
+        <v>30.798072594879045</v>
+      </c>
+      <c r="CJ72" s="15">
+        <v>40.578194016528357</v>
+      </c>
       <c r="CK72" s="15"/>
       <c r="CL72" s="15"/>
-      <c r="CM72" s="9"/>
-      <c r="CN72" s="9"/>
+      <c r="CM72" s="15"/>
+      <c r="CN72" s="15"/>
       <c r="CO72" s="9"/>
       <c r="CP72" s="9"/>
       <c r="CQ72" s="9"/>
@@ -32273,7 +32310,7 @@
       <c r="GP72" s="9"/>
       <c r="GQ72" s="9"/>
     </row>
-    <row r="73" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -32365,13 +32402,14 @@
       <c r="CK73" s="12"/>
       <c r="CL73" s="12"/>
       <c r="CM73" s="12"/>
+      <c r="CN73" s="12"/>
     </row>
-    <row r="74" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -32575,7 +32613,7 @@
       <c r="GT75" s="9"/>
       <c r="GU75" s="9"/>
     </row>
-    <row r="76" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9"/>
@@ -32779,171 +32817,172 @@
       <c r="GT76" s="9"/>
       <c r="GU76" s="9"/>
     </row>
-    <row r="77" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="23">
+      <c r="B84" s="21">
         <v>2000</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="23">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21">
         <v>2001</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="23">
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="21">
         <v>2002</v>
       </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="23">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21">
         <v>2003</v>
       </c>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="23">
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="21">
         <v>2004</v>
       </c>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="25"/>
-      <c r="V84" s="23">
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="21">
         <v>2005</v>
       </c>
-      <c r="W84" s="25"/>
-      <c r="X84" s="25"/>
-      <c r="Y84" s="25"/>
-      <c r="Z84" s="23">
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="21">
         <v>2006</v>
       </c>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="25"/>
-      <c r="AD84" s="23">
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="21">
         <v>2007</v>
       </c>
-      <c r="AE84" s="25"/>
-      <c r="AF84" s="25"/>
-      <c r="AG84" s="25"/>
-      <c r="AH84" s="23">
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="21">
         <v>2008</v>
       </c>
-      <c r="AI84" s="25"/>
-      <c r="AJ84" s="25"/>
-      <c r="AK84" s="25"/>
-      <c r="AL84" s="23">
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="21">
         <v>2009</v>
       </c>
-      <c r="AM84" s="25"/>
-      <c r="AN84" s="25"/>
-      <c r="AO84" s="25"/>
-      <c r="AP84" s="23">
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="25"/>
-      <c r="AR84" s="25"/>
-      <c r="AS84" s="25"/>
-      <c r="AT84" s="23">
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="21">
         <v>2011</v>
       </c>
-      <c r="AU84" s="25"/>
-      <c r="AV84" s="25"/>
-      <c r="AW84" s="25"/>
-      <c r="AX84" s="23">
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="21">
         <v>2012</v>
       </c>
-      <c r="AY84" s="25"/>
-      <c r="AZ84" s="25"/>
-      <c r="BA84" s="25"/>
-      <c r="BB84" s="23">
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="21">
         <v>2013</v>
       </c>
-      <c r="BC84" s="25"/>
-      <c r="BD84" s="25"/>
-      <c r="BE84" s="25"/>
-      <c r="BF84" s="23">
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="21">
         <v>2014</v>
       </c>
-      <c r="BG84" s="25"/>
-      <c r="BH84" s="25"/>
-      <c r="BI84" s="25"/>
-      <c r="BJ84" s="23">
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="21">
         <v>2015</v>
       </c>
-      <c r="BK84" s="25"/>
-      <c r="BL84" s="25"/>
-      <c r="BM84" s="25"/>
-      <c r="BN84" s="23">
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="21">
         <v>2016</v>
       </c>
-      <c r="BO84" s="25"/>
-      <c r="BP84" s="25"/>
-      <c r="BQ84" s="25"/>
-      <c r="BR84" s="23">
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
+      <c r="BR84" s="21">
         <v>2017</v>
       </c>
-      <c r="BS84" s="25"/>
-      <c r="BT84" s="25"/>
-      <c r="BU84" s="25"/>
-      <c r="BV84" s="23">
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
+      <c r="BV84" s="21">
         <v>2018</v>
       </c>
-      <c r="BW84" s="25"/>
-      <c r="BX84" s="25"/>
-      <c r="BY84" s="25"/>
-      <c r="BZ84" s="23">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="21">
         <v>2019</v>
       </c>
-      <c r="CA84" s="25"/>
-      <c r="CB84" s="25"/>
-      <c r="CC84" s="25"/>
-      <c r="CD84" s="23">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="21">
         <v>2020</v>
       </c>
-      <c r="CE84" s="25"/>
-      <c r="CF84" s="25"/>
-      <c r="CG84" s="25"/>
-      <c r="CH84" s="23">
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
+      <c r="CH84" s="21">
         <v>2021</v>
       </c>
-      <c r="CI84" s="23"/>
-      <c r="CJ84" s="23"/>
-      <c r="CK84" s="23"/>
-      <c r="CL84" s="23">
+      <c r="CI84" s="21"/>
+      <c r="CJ84" s="21"/>
+      <c r="CK84" s="21"/>
+      <c r="CL84" s="21">
         <v>2022</v>
       </c>
-      <c r="CM84" s="23"/>
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
     </row>
-    <row r="85" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>4</v>
       </c>
@@ -33217,11 +33256,14 @@
       <c r="CM85" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN85" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="86" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
     </row>
-    <row r="87" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>11</v>
       </c>
@@ -33493,9 +33535,11 @@
         <v>112.89293468206643</v>
       </c>
       <c r="CM87" s="15">
-        <v>111.46655877131175</v>
-      </c>
-      <c r="CN87" s="9"/>
+        <v>111.46655877131178</v>
+      </c>
+      <c r="CN87" s="15">
+        <v>109.43710197026653</v>
+      </c>
       <c r="CO87" s="9"/>
       <c r="CP87" s="9"/>
       <c r="CQ87" s="9"/>
@@ -33608,7 +33652,7 @@
       <c r="GT87" s="9"/>
       <c r="GU87" s="9"/>
     </row>
-    <row r="88" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
@@ -33880,9 +33924,11 @@
         <v>121.41788725388665</v>
       </c>
       <c r="CM88" s="15">
-        <v>123.7738360117977</v>
-      </c>
-      <c r="CN88" s="9"/>
+        <v>123.77383601179777</v>
+      </c>
+      <c r="CN88" s="15">
+        <v>123.13592499172412</v>
+      </c>
       <c r="CO88" s="9"/>
       <c r="CP88" s="9"/>
       <c r="CQ88" s="9"/>
@@ -33995,7 +34041,7 @@
       <c r="GT88" s="9"/>
       <c r="GU88" s="9"/>
     </row>
-    <row r="89" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -34199,7 +34245,7 @@
       <c r="GT89" s="9"/>
       <c r="GU89" s="9"/>
     </row>
-    <row r="90" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
         <v>13</v>
       </c>
@@ -34471,9 +34517,11 @@
         <v>119.40927651923093</v>
       </c>
       <c r="CM90" s="15">
-        <v>120.32363763952148</v>
-      </c>
-      <c r="CN90" s="9"/>
+        <v>120.3247697358504</v>
+      </c>
+      <c r="CN90" s="15">
+        <v>119.47488719719279</v>
+      </c>
       <c r="CO90" s="9"/>
       <c r="CP90" s="9"/>
       <c r="CQ90" s="9"/>
@@ -34586,7 +34634,7 @@
       <c r="GT90" s="9"/>
       <c r="GU90" s="9"/>
     </row>
-    <row r="91" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -34678,182 +34726,184 @@
       <c r="CK91" s="12"/>
       <c r="CL91" s="12"/>
       <c r="CM91" s="12"/>
+      <c r="CN91" s="12"/>
     </row>
-    <row r="92" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="23">
+      <c r="B103" s="21">
         <v>2000</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="23">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21">
         <v>2001</v>
       </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="23">
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21">
         <v>2002</v>
       </c>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="23">
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="21">
         <v>2003</v>
       </c>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="23">
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="21">
         <v>2004</v>
       </c>
-      <c r="S103" s="25"/>
-      <c r="T103" s="25"/>
-      <c r="U103" s="25"/>
-      <c r="V103" s="23">
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="21">
         <v>2005</v>
       </c>
-      <c r="W103" s="25"/>
-      <c r="X103" s="25"/>
-      <c r="Y103" s="25"/>
-      <c r="Z103" s="23">
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="21">
         <v>2006</v>
       </c>
-      <c r="AA103" s="25"/>
-      <c r="AB103" s="25"/>
-      <c r="AC103" s="25"/>
-      <c r="AD103" s="23">
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
+      <c r="AD103" s="21">
         <v>2007</v>
       </c>
-      <c r="AE103" s="25"/>
-      <c r="AF103" s="25"/>
-      <c r="AG103" s="25"/>
-      <c r="AH103" s="23">
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="21">
         <v>2008</v>
       </c>
-      <c r="AI103" s="25"/>
-      <c r="AJ103" s="25"/>
-      <c r="AK103" s="25"/>
-      <c r="AL103" s="23">
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="21">
         <v>2009</v>
       </c>
-      <c r="AM103" s="25"/>
-      <c r="AN103" s="25"/>
-      <c r="AO103" s="25"/>
-      <c r="AP103" s="23">
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
+      <c r="AP103" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="25"/>
-      <c r="AR103" s="25"/>
-      <c r="AS103" s="25"/>
-      <c r="AT103" s="23">
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
+      <c r="AT103" s="21">
         <v>2011</v>
       </c>
-      <c r="AU103" s="25"/>
-      <c r="AV103" s="25"/>
-      <c r="AW103" s="25"/>
-      <c r="AX103" s="23">
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
+      <c r="AX103" s="21">
         <v>2012</v>
       </c>
-      <c r="AY103" s="25"/>
-      <c r="AZ103" s="25"/>
-      <c r="BA103" s="25"/>
-      <c r="BB103" s="23">
+      <c r="AY103" s="22"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="21">
         <v>2013</v>
       </c>
-      <c r="BC103" s="25"/>
-      <c r="BD103" s="25"/>
-      <c r="BE103" s="25"/>
-      <c r="BF103" s="23">
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="21">
         <v>2014</v>
       </c>
-      <c r="BG103" s="25"/>
-      <c r="BH103" s="25"/>
-      <c r="BI103" s="25"/>
-      <c r="BJ103" s="23">
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
+      <c r="BJ103" s="21">
         <v>2015</v>
       </c>
-      <c r="BK103" s="25"/>
-      <c r="BL103" s="25"/>
-      <c r="BM103" s="25"/>
-      <c r="BN103" s="23">
+      <c r="BK103" s="22"/>
+      <c r="BL103" s="22"/>
+      <c r="BM103" s="22"/>
+      <c r="BN103" s="21">
         <v>2016</v>
       </c>
-      <c r="BO103" s="25"/>
-      <c r="BP103" s="25"/>
-      <c r="BQ103" s="25"/>
-      <c r="BR103" s="23">
+      <c r="BO103" s="22"/>
+      <c r="BP103" s="22"/>
+      <c r="BQ103" s="22"/>
+      <c r="BR103" s="21">
         <v>2017</v>
       </c>
-      <c r="BS103" s="25"/>
-      <c r="BT103" s="25"/>
-      <c r="BU103" s="25"/>
-      <c r="BV103" s="23">
+      <c r="BS103" s="22"/>
+      <c r="BT103" s="22"/>
+      <c r="BU103" s="22"/>
+      <c r="BV103" s="21">
         <v>2018</v>
       </c>
-      <c r="BW103" s="25"/>
-      <c r="BX103" s="25"/>
-      <c r="BY103" s="25"/>
-      <c r="BZ103" s="23">
+      <c r="BW103" s="22"/>
+      <c r="BX103" s="22"/>
+      <c r="BY103" s="22"/>
+      <c r="BZ103" s="21">
         <v>2019</v>
       </c>
-      <c r="CA103" s="25"/>
-      <c r="CB103" s="25"/>
-      <c r="CC103" s="25"/>
-      <c r="CD103" s="23">
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
+      <c r="CD103" s="21">
         <v>2020</v>
       </c>
-      <c r="CE103" s="25"/>
-      <c r="CF103" s="25"/>
-      <c r="CG103" s="25"/>
-      <c r="CH103" s="23">
+      <c r="CE103" s="22"/>
+      <c r="CF103" s="22"/>
+      <c r="CG103" s="22"/>
+      <c r="CH103" s="21">
         <v>2021</v>
       </c>
-      <c r="CI103" s="23"/>
-      <c r="CJ103" s="23"/>
-      <c r="CK103" s="23"/>
-      <c r="CL103" s="23">
+      <c r="CI103" s="21"/>
+      <c r="CJ103" s="21"/>
+      <c r="CK103" s="21"/>
+      <c r="CL103" s="21">
         <v>2022</v>
       </c>
-      <c r="CM103" s="23"/>
+      <c r="CM103" s="21"/>
+      <c r="CN103" s="21"/>
     </row>
-    <row r="104" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>4</v>
       </c>
@@ -35127,11 +35177,14 @@
       <c r="CM104" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN104" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="105" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
     </row>
-    <row r="106" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>11</v>
       </c>
@@ -35403,9 +35456,11 @@
         <v>22.275758640559388</v>
       </c>
       <c r="CM106" s="15">
-        <v>25.970225620979747</v>
-      </c>
-      <c r="CN106" s="9"/>
+        <v>25.961459875621745</v>
+      </c>
+      <c r="CN106" s="15">
+        <v>24.479859004439962</v>
+      </c>
       <c r="CO106" s="9"/>
       <c r="CP106" s="9"/>
       <c r="CQ106" s="9"/>
@@ -35518,7 +35573,7 @@
       <c r="GT106" s="9"/>
       <c r="GU106" s="9"/>
     </row>
-    <row r="107" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>12</v>
       </c>
@@ -35790,9 +35845,11 @@
         <v>77.724241359440612</v>
       </c>
       <c r="CM107" s="15">
-        <v>74.029774379020239</v>
-      </c>
-      <c r="CN107" s="9"/>
+        <v>74.038540124378244</v>
+      </c>
+      <c r="CN107" s="15">
+        <v>75.520140995560041</v>
+      </c>
       <c r="CO107" s="9"/>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
@@ -35905,7 +35962,7 @@
       <c r="GT107" s="9"/>
       <c r="GU107" s="9"/>
     </row>
-    <row r="108" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9"/>
@@ -36109,7 +36166,7 @@
       <c r="GT108" s="9"/>
       <c r="GU108" s="9"/>
     </row>
-    <row r="109" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="10" t="s">
         <v>13</v>
       </c>
@@ -36383,7 +36440,9 @@
       <c r="CM109" s="15">
         <v>100</v>
       </c>
-      <c r="CN109" s="9"/>
+      <c r="CN109" s="15">
+        <v>100</v>
+      </c>
       <c r="CO109" s="9"/>
       <c r="CP109" s="9"/>
       <c r="CQ109" s="9"/>
@@ -36496,7 +36555,7 @@
       <c r="GT109" s="9"/>
       <c r="GU109" s="9"/>
     </row>
-    <row r="110" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -36588,13 +36647,14 @@
       <c r="CK110" s="12"/>
       <c r="CL110" s="12"/>
       <c r="CM110" s="12"/>
+      <c r="CN110" s="12"/>
     </row>
-    <row r="111" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -36798,7 +36858,7 @@
       <c r="GT112" s="9"/>
       <c r="GU112" s="9"/>
     </row>
-    <row r="113" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9"/>
@@ -37002,176 +37062,177 @@
       <c r="GT113" s="9"/>
       <c r="GU113" s="9"/>
     </row>
-    <row r="114" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="118" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="23">
+      <c r="B122" s="21">
         <v>2000</v>
       </c>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="23">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="21">
         <v>2001</v>
       </c>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="23">
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="21">
         <v>2002</v>
       </c>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="23">
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="21">
         <v>2003</v>
       </c>
-      <c r="O122" s="25"/>
-      <c r="P122" s="25"/>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="23">
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="21">
         <v>2004</v>
       </c>
-      <c r="S122" s="25"/>
-      <c r="T122" s="25"/>
-      <c r="U122" s="25"/>
-      <c r="V122" s="23">
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="21">
         <v>2005</v>
       </c>
-      <c r="W122" s="25"/>
-      <c r="X122" s="25"/>
-      <c r="Y122" s="25"/>
-      <c r="Z122" s="23">
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="21">
         <v>2006</v>
       </c>
-      <c r="AA122" s="25"/>
-      <c r="AB122" s="25"/>
-      <c r="AC122" s="25"/>
-      <c r="AD122" s="23">
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="21">
         <v>2007</v>
       </c>
-      <c r="AE122" s="25"/>
-      <c r="AF122" s="25"/>
-      <c r="AG122" s="25"/>
-      <c r="AH122" s="23">
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="21">
         <v>2008</v>
       </c>
-      <c r="AI122" s="25"/>
-      <c r="AJ122" s="25"/>
-      <c r="AK122" s="25"/>
-      <c r="AL122" s="23">
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="21">
         <v>2009</v>
       </c>
-      <c r="AM122" s="25"/>
-      <c r="AN122" s="25"/>
-      <c r="AO122" s="25"/>
-      <c r="AP122" s="23">
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="25"/>
-      <c r="AR122" s="25"/>
-      <c r="AS122" s="25"/>
-      <c r="AT122" s="23">
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="21">
         <v>2011</v>
       </c>
-      <c r="AU122" s="25"/>
-      <c r="AV122" s="25"/>
-      <c r="AW122" s="25"/>
-      <c r="AX122" s="23">
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="21">
         <v>2012</v>
       </c>
-      <c r="AY122" s="25"/>
-      <c r="AZ122" s="25"/>
-      <c r="BA122" s="25"/>
-      <c r="BB122" s="23">
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="21">
         <v>2013</v>
       </c>
-      <c r="BC122" s="25"/>
-      <c r="BD122" s="25"/>
-      <c r="BE122" s="25"/>
-      <c r="BF122" s="23">
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="21">
         <v>2014</v>
       </c>
-      <c r="BG122" s="25"/>
-      <c r="BH122" s="25"/>
-      <c r="BI122" s="25"/>
-      <c r="BJ122" s="23">
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="21">
         <v>2015</v>
       </c>
-      <c r="BK122" s="25"/>
-      <c r="BL122" s="25"/>
-      <c r="BM122" s="25"/>
-      <c r="BN122" s="23">
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="21">
         <v>2016</v>
       </c>
-      <c r="BO122" s="25"/>
-      <c r="BP122" s="25"/>
-      <c r="BQ122" s="25"/>
-      <c r="BR122" s="23">
+      <c r="BO122" s="22"/>
+      <c r="BP122" s="22"/>
+      <c r="BQ122" s="22"/>
+      <c r="BR122" s="21">
         <v>2017</v>
       </c>
-      <c r="BS122" s="25"/>
-      <c r="BT122" s="25"/>
-      <c r="BU122" s="25"/>
-      <c r="BV122" s="23">
+      <c r="BS122" s="22"/>
+      <c r="BT122" s="22"/>
+      <c r="BU122" s="22"/>
+      <c r="BV122" s="21">
         <v>2018</v>
       </c>
-      <c r="BW122" s="25"/>
-      <c r="BX122" s="25"/>
-      <c r="BY122" s="25"/>
-      <c r="BZ122" s="23">
+      <c r="BW122" s="22"/>
+      <c r="BX122" s="22"/>
+      <c r="BY122" s="22"/>
+      <c r="BZ122" s="21">
         <v>2019</v>
       </c>
-      <c r="CA122" s="25"/>
-      <c r="CB122" s="25"/>
-      <c r="CC122" s="25"/>
-      <c r="CD122" s="23">
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
+      <c r="CD122" s="21">
         <v>2020</v>
       </c>
-      <c r="CE122" s="25"/>
-      <c r="CF122" s="25"/>
-      <c r="CG122" s="25"/>
-      <c r="CH122" s="23">
+      <c r="CE122" s="22"/>
+      <c r="CF122" s="22"/>
+      <c r="CG122" s="22"/>
+      <c r="CH122" s="21">
         <v>2021</v>
       </c>
-      <c r="CI122" s="23"/>
-      <c r="CJ122" s="23"/>
-      <c r="CK122" s="23"/>
-      <c r="CL122" s="23">
+      <c r="CI122" s="21"/>
+      <c r="CJ122" s="21"/>
+      <c r="CK122" s="21"/>
+      <c r="CL122" s="21">
         <v>2022</v>
       </c>
-      <c r="CM122" s="23"/>
+      <c r="CM122" s="21"/>
+      <c r="CN122" s="21"/>
     </row>
-    <row r="123" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>4</v>
       </c>
@@ -37445,11 +37506,14 @@
       <c r="CM123" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN123" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="124" spans="1:203" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
     </row>
-    <row r="125" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>11</v>
       </c>
@@ -37721,9 +37785,11 @@
         <v>23.561547325146702</v>
       </c>
       <c r="CM125" s="15">
-        <v>28.033807192759813</v>
-      </c>
-      <c r="CN125" s="9"/>
+        <v>28.024608599872575</v>
+      </c>
+      <c r="CN125" s="15">
+        <v>26.725199594131084</v>
+      </c>
       <c r="CO125" s="9"/>
       <c r="CP125" s="9"/>
       <c r="CQ125" s="9"/>
@@ -37836,7 +37902,7 @@
       <c r="GT125" s="9"/>
       <c r="GU125" s="9"/>
     </row>
-    <row r="126" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>12</v>
       </c>
@@ -38108,9 +38174,11 @@
         <v>76.438452674853295</v>
       </c>
       <c r="CM126" s="15">
-        <v>71.966192807240176</v>
-      </c>
-      <c r="CN126" s="9"/>
+        <v>71.975391400127435</v>
+      </c>
+      <c r="CN126" s="15">
+        <v>73.274800405868916</v>
+      </c>
       <c r="CO126" s="9"/>
       <c r="CP126" s="9"/>
       <c r="CQ126" s="9"/>
@@ -38223,7 +38291,7 @@
       <c r="GT126" s="9"/>
       <c r="GU126" s="9"/>
     </row>
-    <row r="127" spans="1:203" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9"/>
@@ -38427,7 +38495,7 @@
       <c r="GT127" s="9"/>
       <c r="GU127" s="9"/>
     </row>
-    <row r="128" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:203" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="10" t="s">
         <v>13</v>
       </c>
@@ -38701,7 +38769,9 @@
       <c r="CM128" s="15">
         <v>100</v>
       </c>
-      <c r="CN128" s="9"/>
+      <c r="CN128" s="15">
+        <v>100</v>
+      </c>
       <c r="CO128" s="9"/>
       <c r="CP128" s="9"/>
       <c r="CQ128" s="9"/>
@@ -38814,7 +38884,7 @@
       <c r="GT128" s="9"/>
       <c r="GU128" s="9"/>
     </row>
-    <row r="129" spans="1:203" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:203" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -38906,13 +38976,14 @@
       <c r="CK129" s="12"/>
       <c r="CL129" s="12"/>
       <c r="CM129" s="12"/>
+      <c r="CN129" s="12"/>
     </row>
-    <row r="130" spans="1:203" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:203" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:203" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -39004,7 +39075,7 @@
       <c r="CK131" s="1"/>
       <c r="CL131" s="1"/>
       <c r="CM131" s="1"/>
-      <c r="CN131" s="16"/>
+      <c r="CN131" s="1"/>
       <c r="CO131" s="16"/>
       <c r="CP131" s="16"/>
       <c r="CQ131" s="16"/>
@@ -39117,7 +39188,7 @@
       <c r="GT131" s="16"/>
       <c r="GU131" s="16"/>
     </row>
-    <row r="132" spans="1:203" s="17" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:203" s="17" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -39209,7 +39280,7 @@
       <c r="CK132" s="1"/>
       <c r="CL132" s="1"/>
       <c r="CM132" s="1"/>
-      <c r="CN132" s="16"/>
+      <c r="CN132" s="1"/>
       <c r="CO132" s="16"/>
       <c r="CP132" s="16"/>
       <c r="CQ132" s="16"/>
@@ -39323,7 +39394,144 @@
       <c r="GU132" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="161">
+    <mergeCell ref="CL103:CN103"/>
+    <mergeCell ref="CL122:CN122"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL28:CN28"/>
+    <mergeCell ref="CH47:CJ47"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CH66:CJ66"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="CL84:CN84"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="V103:Y103"/>
     <mergeCell ref="AL84:AO84"/>
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
@@ -39343,155 +39551,20 @@
     <mergeCell ref="Z122:AC122"/>
     <mergeCell ref="AD122:AG122"/>
     <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
     <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="BN47:BQ47"/>
     <mergeCell ref="V84:Y84"/>
     <mergeCell ref="Z84:AC84"/>
     <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL28:CM28"/>
-    <mergeCell ref="CH47:CI47"/>
-    <mergeCell ref="CH66:CI66"/>
-    <mergeCell ref="CL84:CM84"/>
-    <mergeCell ref="CL103:CM103"/>
-    <mergeCell ref="CL122:CM122"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="90" man="1"/>
-    <brk id="76" max="90" man="1"/>
-    <brk id="94" max="90" man="1"/>
+    <brk id="38" max="91" man="1"/>
+    <brk id="76" max="91" man="1"/>
+    <brk id="94" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C029D5-ED30-4EE5-AD2C-365395FADFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D068AE25-4B9C-4517-9E5D-D9A5EE5BE8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CN$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CO$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -775,7 +775,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15142,7 +15142,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15165,7 +15165,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15194,7 +15194,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15257,7 +15257,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15286,7 +15286,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15317,7 +15317,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17711,7 +17711,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17799,7 +17799,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17820,7 +17820,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17877,7 +17877,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17894,7 +17894,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17935,7 +17935,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -17982,7 +17982,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18011,7 +18011,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22428,7 +22428,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22471,7 +22471,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22585,7 +22585,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23582,7 +23582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23595,17 +23595,17 @@
   </sheetPr>
   <dimension ref="A1:GU132"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CN1048576"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="92" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23620,7 +23620,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23630,7 +23630,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23777,6 +23777,7 @@
       </c>
       <c r="CM9" s="21"/>
       <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24054,6 +24055,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24334,9 +24338,11 @@
         <v>20785.30183821536</v>
       </c>
       <c r="CN12" s="18">
-        <v>22381.11230703782</v>
-      </c>
-      <c r="CO12" s="9"/>
+        <v>22437.395801773204</v>
+      </c>
+      <c r="CO12" s="18">
+        <v>32708.617209421598</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
@@ -24723,9 +24729,11 @@
         <v>59276.84388777717</v>
       </c>
       <c r="CN13" s="18">
-        <v>69045.526641244156</v>
-      </c>
-      <c r="CO13" s="9"/>
+        <v>69655.853036750515</v>
+      </c>
+      <c r="CO13" s="18">
+        <v>89744.162879058102</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
@@ -25316,9 +25324,11 @@
         <v>80062.145725992537</v>
       </c>
       <c r="CN15" s="19">
-        <v>91426.63894828198</v>
-      </c>
-      <c r="CO15" s="9"/>
+        <v>92093.248838523723</v>
+      </c>
+      <c r="CO15" s="19">
+        <v>122452.7800884797</v>
+      </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
@@ -25523,6 +25533,7 @@
       <c r="CL16" s="12"/>
       <c r="CM16" s="12"/>
       <c r="CN16" s="12"/>
+      <c r="CO16" s="12"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25825,7 +25836,7 @@
       <c r="CL19" s="14"/>
       <c r="CM19" s="14"/>
       <c r="CN19" s="14"/>
-      <c r="CO19" s="9"/>
+      <c r="CO19" s="14"/>
       <c r="CP19" s="9"/>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
@@ -25949,7 +25960,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -25959,7 +25970,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -26106,6 +26117,7 @@
       </c>
       <c r="CM28" s="21"/>
       <c r="CN28" s="21"/>
+      <c r="CO28" s="21"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26383,6 +26395,9 @@
       </c>
       <c r="CN29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26663,9 +26678,11 @@
         <v>18647.118981092011</v>
       </c>
       <c r="CN31" s="18">
-        <v>20451.119322511528</v>
-      </c>
-      <c r="CO31" s="9"/>
+        <v>20502.549316290671</v>
+      </c>
+      <c r="CO31" s="18">
+        <v>29142.235222113955</v>
+      </c>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
@@ -27052,9 +27069,11 @@
         <v>47891.255371714476</v>
       </c>
       <c r="CN32" s="18">
-        <v>56072.609716363979</v>
-      </c>
-      <c r="CO32" s="9"/>
+        <v>56568.262301543611</v>
+      </c>
+      <c r="CO32" s="18">
+        <v>71191.294035251631</v>
+      </c>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
@@ -27645,9 +27664,11 @@
         <v>66538.374352806481</v>
       </c>
       <c r="CN34" s="19">
-        <v>76523.729038875506</v>
-      </c>
-      <c r="CO34" s="9"/>
+        <v>77070.81161783429</v>
+      </c>
+      <c r="CO34" s="19">
+        <v>100333.52925736559</v>
+      </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
@@ -27852,6 +27873,7 @@
       <c r="CL35" s="12"/>
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
+      <c r="CO35" s="12"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28278,7 +28300,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28288,7 +28310,7 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
@@ -28429,10 +28451,11 @@
       </c>
       <c r="CI47" s="21"/>
       <c r="CJ47" s="21"/>
-      <c r="CK47" s="20"/>
+      <c r="CK47" s="21"/>
       <c r="CL47" s="21"/>
       <c r="CM47" s="21"/>
       <c r="CN47" s="20"/>
+      <c r="CO47" s="20"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28699,10 +28722,13 @@
       <c r="CJ48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK48" s="5"/>
+      <c r="CK48" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL48" s="5"/>
       <c r="CM48" s="5"/>
       <c r="CN48" s="5"/>
+      <c r="CO48" s="5"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28970,13 +28996,15 @@
         <v>77.541434529452658</v>
       </c>
       <c r="CJ50" s="15">
-        <v>78.844746010410461</v>
-      </c>
-      <c r="CK50" s="15"/>
+        <v>79.294500570525116</v>
+      </c>
+      <c r="CK50" s="15">
+        <v>55.438410601945151</v>
+      </c>
       <c r="CL50" s="15"/>
       <c r="CM50" s="15"/>
       <c r="CN50" s="15"/>
-      <c r="CO50" s="9"/>
+      <c r="CO50" s="15"/>
       <c r="CP50" s="9"/>
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
@@ -29347,13 +29375,15 @@
         <v>29.06364437773297</v>
       </c>
       <c r="CJ51" s="15">
-        <v>38.757228993354403</v>
-      </c>
-      <c r="CK51" s="15"/>
+        <v>39.983770429731493</v>
+      </c>
+      <c r="CK51" s="15">
+        <v>41.413777970522659</v>
+      </c>
       <c r="CL51" s="15"/>
       <c r="CM51" s="15"/>
       <c r="CN51" s="15"/>
-      <c r="CO51" s="9"/>
+      <c r="CO51" s="15"/>
       <c r="CP51" s="9"/>
       <c r="CQ51" s="9"/>
       <c r="CR51" s="9"/>
@@ -29925,13 +29955,15 @@
         <v>38.910736818474135</v>
       </c>
       <c r="CJ53" s="15">
-        <v>46.812985945449412</v>
-      </c>
-      <c r="CK53" s="15"/>
+        <v>47.883428757008119</v>
+      </c>
+      <c r="CK53" s="15">
+        <v>44.906092307069713</v>
+      </c>
       <c r="CL53" s="15"/>
       <c r="CM53" s="15"/>
       <c r="CN53" s="15"/>
-      <c r="CO53" s="9"/>
+      <c r="CO53" s="15"/>
       <c r="CP53" s="9"/>
       <c r="CQ53" s="9"/>
       <c r="CR53" s="9"/>
@@ -30132,6 +30164,7 @@
       <c r="CL54" s="12"/>
       <c r="CM54" s="12"/>
       <c r="CN54" s="12"/>
+      <c r="CO54" s="12"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30550,7 +30583,7 @@
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
@@ -30560,7 +30593,7 @@
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
@@ -30701,10 +30734,11 @@
       </c>
       <c r="CI66" s="21"/>
       <c r="CJ66" s="21"/>
-      <c r="CK66" s="20"/>
+      <c r="CK66" s="21"/>
       <c r="CL66" s="21"/>
       <c r="CM66" s="21"/>
       <c r="CN66" s="20"/>
+      <c r="CO66" s="20"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -30971,10 +31005,13 @@
       <c r="CJ67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK67" s="5"/>
+      <c r="CK67" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL67" s="5"/>
       <c r="CM67" s="5"/>
       <c r="CN67" s="5"/>
+      <c r="CO67" s="5"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31242,13 +31279,15 @@
         <v>66.413791869385506</v>
       </c>
       <c r="CJ69" s="15">
-        <v>74.482679034546805</v>
-      </c>
-      <c r="CK69" s="15"/>
+        <v>74.921463971244009</v>
+      </c>
+      <c r="CK69" s="15">
+        <v>49.664696687095955</v>
+      </c>
       <c r="CL69" s="15"/>
       <c r="CM69" s="15"/>
       <c r="CN69" s="15"/>
-      <c r="CO69" s="9"/>
+      <c r="CO69" s="15"/>
       <c r="CP69" s="9"/>
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
@@ -31619,13 +31658,15 @@
         <v>20.73691399985232</v>
       </c>
       <c r="CJ70" s="15">
-        <v>31.274578044800904</v>
-      </c>
-      <c r="CK70" s="15"/>
+        <v>32.434976754712977</v>
+      </c>
+      <c r="CK70" s="15">
+        <v>31.243226837056994</v>
+      </c>
       <c r="CL70" s="15"/>
       <c r="CM70" s="15"/>
       <c r="CN70" s="15"/>
-      <c r="CO70" s="9"/>
+      <c r="CO70" s="15"/>
       <c r="CP70" s="9"/>
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
@@ -32196,13 +32237,15 @@
         <v>30.798072594879045</v>
       </c>
       <c r="CJ72" s="15">
-        <v>40.578194016528357</v>
-      </c>
-      <c r="CK72" s="15"/>
+        <v>41.583214052716869</v>
+      </c>
+      <c r="CK72" s="15">
+        <v>36.109193633771298</v>
+      </c>
       <c r="CL72" s="15"/>
       <c r="CM72" s="15"/>
       <c r="CN72" s="15"/>
-      <c r="CO72" s="9"/>
+      <c r="CO72" s="15"/>
       <c r="CP72" s="9"/>
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
@@ -32403,6 +32446,7 @@
       <c r="CL73" s="12"/>
       <c r="CM73" s="12"/>
       <c r="CN73" s="12"/>
+      <c r="CO73" s="12"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32824,7 +32868,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -32834,7 +32878,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -32981,6 +33025,7 @@
       </c>
       <c r="CM84" s="21"/>
       <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33258,6 +33303,9 @@
       </c>
       <c r="CN85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33540,7 +33588,9 @@
       <c r="CN87" s="15">
         <v>109.43710197026653</v>
       </c>
-      <c r="CO87" s="9"/>
+      <c r="CO87" s="15">
+        <v>112.23784641131908</v>
+      </c>
       <c r="CP87" s="9"/>
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
@@ -33927,9 +33977,11 @@
         <v>123.77383601179777</v>
       </c>
       <c r="CN88" s="15">
-        <v>123.13592499172412</v>
-      </c>
-      <c r="CO88" s="9"/>
+        <v>123.13592499172417</v>
+      </c>
+      <c r="CO88" s="15">
+        <v>126.06058661417178</v>
+      </c>
       <c r="CP88" s="9"/>
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
@@ -34520,9 +34572,11 @@
         <v>120.3247697358504</v>
       </c>
       <c r="CN90" s="15">
-        <v>119.47488719719279</v>
-      </c>
-      <c r="CO90" s="9"/>
+        <v>119.49173351797586</v>
+      </c>
+      <c r="CO90" s="15">
+        <v>122.04572189858489</v>
+      </c>
       <c r="CP90" s="9"/>
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
@@ -34727,6 +34781,7 @@
       <c r="CL91" s="12"/>
       <c r="CM91" s="12"/>
       <c r="CN91" s="12"/>
+      <c r="CO91" s="12"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -34745,7 +34800,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -34755,7 +34810,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -34902,6 +34957,7 @@
       </c>
       <c r="CM103" s="21"/>
       <c r="CN103" s="21"/>
+      <c r="CO103" s="21"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35179,6 +35235,9 @@
       </c>
       <c r="CN104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35459,9 +35518,11 @@
         <v>25.961459875621745</v>
       </c>
       <c r="CN106" s="15">
-        <v>24.479859004439962</v>
-      </c>
-      <c r="CO106" s="9"/>
+        <v>24.363779196360994</v>
+      </c>
+      <c r="CO106" s="15">
+        <v>26.711208341523644</v>
+      </c>
       <c r="CP106" s="9"/>
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
@@ -35848,9 +35909,11 @@
         <v>74.038540124378244</v>
       </c>
       <c r="CN107" s="15">
-        <v>75.520140995560041</v>
-      </c>
-      <c r="CO107" s="9"/>
+        <v>75.636220803639006</v>
+      </c>
+      <c r="CO107" s="15">
+        <v>73.288791658476356</v>
+      </c>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
@@ -36443,7 +36506,9 @@
       <c r="CN109" s="15">
         <v>100</v>
       </c>
-      <c r="CO109" s="9"/>
+      <c r="CO109" s="15">
+        <v>100</v>
+      </c>
       <c r="CP109" s="9"/>
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
@@ -36648,6 +36713,7 @@
       <c r="CL110" s="12"/>
       <c r="CM110" s="12"/>
       <c r="CN110" s="12"/>
+      <c r="CO110" s="12"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37074,7 +37140,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37084,7 +37150,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37231,6 +37297,7 @@
       </c>
       <c r="CM122" s="21"/>
       <c r="CN122" s="21"/>
+      <c r="CO122" s="21"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37508,6 +37575,9 @@
       </c>
       <c r="CN123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37788,9 +37858,11 @@
         <v>28.024608599872575</v>
       </c>
       <c r="CN125" s="15">
-        <v>26.725199594131084</v>
-      </c>
-      <c r="CO125" s="9"/>
+        <v>26.602223183992464</v>
+      </c>
+      <c r="CO125" s="15">
+        <v>29.045360447115531</v>
+      </c>
       <c r="CP125" s="9"/>
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
@@ -38177,9 +38249,11 @@
         <v>71.975391400127435</v>
       </c>
       <c r="CN126" s="15">
-        <v>73.274800405868916</v>
-      </c>
-      <c r="CO126" s="9"/>
+        <v>73.397776816007521</v>
+      </c>
+      <c r="CO126" s="15">
+        <v>70.954639552884473</v>
+      </c>
       <c r="CP126" s="9"/>
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
@@ -38772,7 +38846,9 @@
       <c r="CN128" s="15">
         <v>100</v>
       </c>
-      <c r="CO128" s="9"/>
+      <c r="CO128" s="15">
+        <v>100</v>
+      </c>
       <c r="CP128" s="9"/>
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
@@ -38977,6 +39053,7 @@
       <c r="CL129" s="12"/>
       <c r="CM129" s="12"/>
       <c r="CN129" s="12"/>
+      <c r="CO129" s="12"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39076,7 +39153,7 @@
       <c r="CL131" s="1"/>
       <c r="CM131" s="1"/>
       <c r="CN131" s="1"/>
-      <c r="CO131" s="16"/>
+      <c r="CO131" s="1"/>
       <c r="CP131" s="16"/>
       <c r="CQ131" s="16"/>
       <c r="CR131" s="16"/>
@@ -39281,7 +39358,7 @@
       <c r="CL132" s="1"/>
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
-      <c r="CO132" s="16"/>
+      <c r="CO132" s="1"/>
       <c r="CP132" s="16"/>
       <c r="CQ132" s="16"/>
       <c r="CR132" s="16"/>
@@ -39395,113 +39472,40 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CL103:CN103"/>
-    <mergeCell ref="CL122:CN122"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL28:CN28"/>
-    <mergeCell ref="CH47:CJ47"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CH66:CJ66"/>
-    <mergeCell ref="CL66:CM66"/>
-    <mergeCell ref="CL84:CN84"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
     <mergeCell ref="BJ66:BM66"/>
     <mergeCell ref="BN66:BQ66"/>
     <mergeCell ref="BR84:BU84"/>
@@ -39522,49 +39526,122 @@
     <mergeCell ref="BN84:BQ84"/>
     <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R122:U122"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CL66:CM66"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="91" man="1"/>
-    <brk id="76" max="91" man="1"/>
-    <brk id="94" max="91" man="1"/>
+    <brk id="38" max="92" man="1"/>
+    <brk id="76" max="92" man="1"/>
+    <brk id="94" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D068AE25-4B9C-4517-9E5D-D9A5EE5BE8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C00AFC-BC09-4D4B-A0A8-93385395F2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -614,13 +614,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,9 +736,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23582,7 +23579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23596,9 +23593,9 @@
   <dimension ref="A1:GU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CG1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23620,7 +23617,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23630,7 +23627,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23640,144 +23637,144 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="18">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21">
+      <c r="CI9" s="18"/>
+      <c r="CJ9" s="18"/>
+      <c r="CK9" s="18"/>
+      <c r="CL9" s="18">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
+      <c r="CM9" s="18"/>
+      <c r="CN9" s="18"/>
+      <c r="CO9" s="18"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24319,29 +24316,29 @@
       <c r="CG12" s="8">
         <v>16316.674780339399</v>
       </c>
-      <c r="CH12" s="18">
+      <c r="CH12" s="8">
         <v>18245.77194646827</v>
       </c>
-      <c r="CI12" s="18">
+      <c r="CI12" s="8">
         <v>11707.296323984163</v>
       </c>
-      <c r="CJ12" s="18">
+      <c r="CJ12" s="8">
         <v>12514.2688316575</v>
       </c>
-      <c r="CK12" s="18">
-        <v>21042.815017700836</v>
-      </c>
-      <c r="CL12" s="18">
-        <v>22217.171288109632</v>
-      </c>
-      <c r="CM12" s="18">
-        <v>20785.30183821536</v>
-      </c>
-      <c r="CN12" s="18">
-        <v>22437.395801773204</v>
-      </c>
-      <c r="CO12" s="18">
-        <v>32708.617209421598</v>
+      <c r="CK12" s="8">
+        <v>20982.743841316627</v>
+      </c>
+      <c r="CL12" s="8">
+        <v>22322.262683393026</v>
+      </c>
+      <c r="CM12" s="8">
+        <v>20822.70058913936</v>
+      </c>
+      <c r="CN12" s="8">
+        <v>22543.517584578036</v>
+      </c>
+      <c r="CO12" s="8">
+        <v>33785.120903230876</v>
       </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24710,29 +24707,29 @@
       <c r="CG13" s="8">
         <v>51664.598900513491</v>
       </c>
-      <c r="CH13" s="18">
+      <c r="CH13" s="8">
         <v>62583.314874735559</v>
       </c>
-      <c r="CI13" s="18">
+      <c r="CI13" s="8">
         <v>45928.382212957295</v>
       </c>
-      <c r="CJ13" s="18">
+      <c r="CJ13" s="8">
         <v>49759.949187621067</v>
       </c>
-      <c r="CK13" s="18">
-        <v>63462.106851968158</v>
-      </c>
-      <c r="CL13" s="18">
-        <v>77519.819252167275</v>
-      </c>
-      <c r="CM13" s="18">
-        <v>59276.84388777717</v>
-      </c>
-      <c r="CN13" s="18">
-        <v>69655.853036750515</v>
-      </c>
-      <c r="CO13" s="18">
-        <v>89744.162879058102</v>
+      <c r="CK13" s="8">
+        <v>63465.290659731603</v>
+      </c>
+      <c r="CL13" s="8">
+        <v>77568.127837813096</v>
+      </c>
+      <c r="CM13" s="8">
+        <v>59307.20143239318</v>
+      </c>
+      <c r="CN13" s="8">
+        <v>69694.055287976895</v>
+      </c>
+      <c r="CO13" s="8">
+        <v>89030.247513492825</v>
       </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -25305,29 +25302,29 @@
       <c r="CG15" s="11">
         <v>67981.273680852886</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="CH15" s="11">
         <v>80829.086821203833</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="CI15" s="11">
         <v>57635.678536941457</v>
       </c>
-      <c r="CJ15" s="19">
+      <c r="CJ15" s="11">
         <v>62274.218019278567</v>
       </c>
-      <c r="CK15" s="19">
-        <v>84504.921869668993</v>
-      </c>
-      <c r="CL15" s="19">
-        <v>99736.990540276907</v>
-      </c>
-      <c r="CM15" s="19">
-        <v>80062.145725992537</v>
-      </c>
-      <c r="CN15" s="19">
-        <v>92093.248838523723</v>
-      </c>
-      <c r="CO15" s="19">
-        <v>122452.7800884797</v>
+      <c r="CK15" s="11">
+        <v>84448.034501048227</v>
+      </c>
+      <c r="CL15" s="11">
+        <v>99890.390521206122</v>
+      </c>
+      <c r="CM15" s="11">
+        <v>80129.902021532544</v>
+      </c>
+      <c r="CN15" s="11">
+        <v>92237.572872554927</v>
+      </c>
+      <c r="CO15" s="11">
+        <v>122815.36841672371</v>
       </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25960,7 +25957,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -25970,7 +25967,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -25980,144 +25977,144 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="21">
+      <c r="B28" s="18">
         <v>2000</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="18">
         <v>2001</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21">
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="18">
         <v>2002</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="21">
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="18">
         <v>2003</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="21">
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="18">
         <v>2004</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="21">
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="18">
         <v>2005</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="21">
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="18">
         <v>2006</v>
       </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="21">
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="18">
         <v>2007</v>
       </c>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="21">
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="18">
         <v>2008</v>
       </c>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="21">
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="18">
         <v>2009</v>
       </c>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="21">
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="21">
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+      <c r="AS28" s="19"/>
+      <c r="AT28" s="18">
         <v>2011</v>
       </c>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="21">
+      <c r="AU28" s="19"/>
+      <c r="AV28" s="19"/>
+      <c r="AW28" s="19"/>
+      <c r="AX28" s="18">
         <v>2012</v>
       </c>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="21">
+      <c r="AY28" s="19"/>
+      <c r="AZ28" s="19"/>
+      <c r="BA28" s="19"/>
+      <c r="BB28" s="18">
         <v>2013</v>
       </c>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="21">
+      <c r="BC28" s="19"/>
+      <c r="BD28" s="19"/>
+      <c r="BE28" s="19"/>
+      <c r="BF28" s="18">
         <v>2014</v>
       </c>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="21">
+      <c r="BG28" s="19"/>
+      <c r="BH28" s="19"/>
+      <c r="BI28" s="19"/>
+      <c r="BJ28" s="18">
         <v>2015</v>
       </c>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="21">
+      <c r="BK28" s="19"/>
+      <c r="BL28" s="19"/>
+      <c r="BM28" s="19"/>
+      <c r="BN28" s="18">
         <v>2016</v>
       </c>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="21">
+      <c r="BO28" s="19"/>
+      <c r="BP28" s="19"/>
+      <c r="BQ28" s="19"/>
+      <c r="BR28" s="18">
         <v>2017</v>
       </c>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="21">
+      <c r="BS28" s="19"/>
+      <c r="BT28" s="19"/>
+      <c r="BU28" s="19"/>
+      <c r="BV28" s="18">
         <v>2018</v>
       </c>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="21">
+      <c r="BW28" s="19"/>
+      <c r="BX28" s="19"/>
+      <c r="BY28" s="19"/>
+      <c r="BZ28" s="18">
         <v>2019</v>
       </c>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="21">
+      <c r="CA28" s="19"/>
+      <c r="CB28" s="19"/>
+      <c r="CC28" s="19"/>
+      <c r="CD28" s="18">
         <v>2020</v>
       </c>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
-      <c r="CH28" s="21">
+      <c r="CE28" s="19"/>
+      <c r="CF28" s="19"/>
+      <c r="CG28" s="19"/>
+      <c r="CH28" s="18">
         <v>2021</v>
       </c>
-      <c r="CI28" s="21"/>
-      <c r="CJ28" s="21"/>
-      <c r="CK28" s="21"/>
-      <c r="CL28" s="21">
+      <c r="CI28" s="19"/>
+      <c r="CJ28" s="19"/>
+      <c r="CK28" s="19"/>
+      <c r="CL28" s="18">
         <v>2022</v>
       </c>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
-      <c r="CO28" s="21"/>
+      <c r="CM28" s="19"/>
+      <c r="CN28" s="19"/>
+      <c r="CO28" s="19"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26659,29 +26656,29 @@
       <c r="CG31" s="8">
         <v>15312.458414541812</v>
       </c>
-      <c r="CH31" s="18">
+      <c r="CH31" s="8">
         <v>16324.083844096935</v>
       </c>
-      <c r="CI31" s="18">
+      <c r="CI31" s="8">
         <v>11205.272574840264</v>
       </c>
-      <c r="CJ31" s="18">
+      <c r="CJ31" s="8">
         <v>11721.002586429966</v>
       </c>
-      <c r="CK31" s="18">
-        <v>19471.682946741701</v>
-      </c>
-      <c r="CL31" s="18">
-        <v>19679.859816452212</v>
-      </c>
-      <c r="CM31" s="18">
-        <v>18647.118981092011</v>
-      </c>
-      <c r="CN31" s="18">
-        <v>20502.549316290671</v>
-      </c>
-      <c r="CO31" s="18">
-        <v>29142.235222113955</v>
+      <c r="CK31" s="8">
+        <v>19416.096899922053</v>
+      </c>
+      <c r="CL31" s="8">
+        <v>19772.949251658556</v>
+      </c>
+      <c r="CM31" s="8">
+        <v>18680.670524564997</v>
+      </c>
+      <c r="CN31" s="8">
+        <v>20599.519887417155</v>
+      </c>
+      <c r="CO31" s="8">
+        <v>30101.362404458672</v>
       </c>
       <c r="CP31" s="9"/>
       <c r="CQ31" s="9"/>
@@ -27050,29 +27047,29 @@
       <c r="CG32" s="8">
         <v>46012.769983699865</v>
       </c>
-      <c r="CH32" s="18">
+      <c r="CH32" s="8">
         <v>53111.261375570801</v>
       </c>
-      <c r="CI32" s="18">
+      <c r="CI32" s="8">
         <v>39665.793819919112</v>
       </c>
-      <c r="CJ32" s="18">
+      <c r="CJ32" s="8">
         <v>42713.989678357771</v>
       </c>
-      <c r="CK32" s="18">
-        <v>54243.785184920882</v>
-      </c>
-      <c r="CL32" s="18">
-        <v>63845.468740591867</v>
-      </c>
-      <c r="CM32" s="18">
-        <v>47891.255371714476</v>
-      </c>
-      <c r="CN32" s="18">
-        <v>56568.262301543611</v>
-      </c>
-      <c r="CO32" s="18">
-        <v>71191.294035251631</v>
+      <c r="CK32" s="8">
+        <v>54246.506521998381</v>
+      </c>
+      <c r="CL32" s="8">
+        <v>63885.717107942037</v>
+      </c>
+      <c r="CM32" s="8">
+        <v>47915.781996721969</v>
+      </c>
+      <c r="CN32" s="8">
+        <v>56599.28675783363</v>
+      </c>
+      <c r="CO32" s="8">
+        <v>70624.966855012244</v>
       </c>
       <c r="CP32" s="9"/>
       <c r="CQ32" s="9"/>
@@ -27645,29 +27642,29 @@
       <c r="CG34" s="11">
         <v>61325.228398241677</v>
       </c>
-      <c r="CH34" s="19">
+      <c r="CH34" s="11">
         <v>69435.345219667739</v>
       </c>
-      <c r="CI34" s="19">
+      <c r="CI34" s="11">
         <v>50871.066394759378</v>
       </c>
-      <c r="CJ34" s="19">
+      <c r="CJ34" s="11">
         <v>54434.992264787739</v>
       </c>
-      <c r="CK34" s="19">
-        <v>73715.468131662579</v>
-      </c>
-      <c r="CL34" s="19">
-        <v>83525.328557044078</v>
-      </c>
-      <c r="CM34" s="19">
-        <v>66538.374352806481</v>
-      </c>
-      <c r="CN34" s="19">
-        <v>77070.81161783429</v>
-      </c>
-      <c r="CO34" s="19">
-        <v>100333.52925736559</v>
+      <c r="CK34" s="11">
+        <v>73662.60342192043</v>
+      </c>
+      <c r="CL34" s="11">
+        <v>83658.666359600596</v>
+      </c>
+      <c r="CM34" s="11">
+        <v>66596.452521286963</v>
+      </c>
+      <c r="CN34" s="11">
+        <v>77198.806645250792</v>
+      </c>
+      <c r="CO34" s="11">
+        <v>100726.32925947092</v>
       </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -28300,7 +28297,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28310,7 +28307,7 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
@@ -28320,142 +28317,142 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21" t="s">
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21" t="s">
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21" t="s">
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21" t="s">
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21" t="s">
+      <c r="W47" s="18"/>
+      <c r="X47" s="18"/>
+      <c r="Y47" s="18"/>
+      <c r="Z47" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21" t="s">
+      <c r="AA47" s="18"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21" t="s">
+      <c r="AE47" s="18"/>
+      <c r="AF47" s="18"/>
+      <c r="AG47" s="18"/>
+      <c r="AH47" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21" t="s">
+      <c r="AI47" s="18"/>
+      <c r="AJ47" s="18"/>
+      <c r="AK47" s="18"/>
+      <c r="AL47" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21" t="s">
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="18"/>
+      <c r="AO47" s="18"/>
+      <c r="AP47" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21" t="s">
+      <c r="AQ47" s="18"/>
+      <c r="AR47" s="18"/>
+      <c r="AS47" s="18"/>
+      <c r="AT47" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21" t="s">
+      <c r="AU47" s="18"/>
+      <c r="AV47" s="18"/>
+      <c r="AW47" s="18"/>
+      <c r="AX47" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="21"/>
-      <c r="BA47" s="21"/>
-      <c r="BB47" s="21" t="s">
+      <c r="AY47" s="18"/>
+      <c r="AZ47" s="18"/>
+      <c r="BA47" s="18"/>
+      <c r="BB47" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="21"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="21"/>
-      <c r="BF47" s="21" t="s">
+      <c r="BC47" s="18"/>
+      <c r="BD47" s="18"/>
+      <c r="BE47" s="18"/>
+      <c r="BF47" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="21"/>
-      <c r="BH47" s="21"/>
-      <c r="BI47" s="21"/>
-      <c r="BJ47" s="21" t="s">
+      <c r="BG47" s="18"/>
+      <c r="BH47" s="18"/>
+      <c r="BI47" s="18"/>
+      <c r="BJ47" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="21"/>
-      <c r="BL47" s="21"/>
-      <c r="BM47" s="21"/>
-      <c r="BN47" s="21" t="s">
+      <c r="BK47" s="18"/>
+      <c r="BL47" s="18"/>
+      <c r="BM47" s="18"/>
+      <c r="BN47" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="21"/>
-      <c r="BP47" s="21"/>
-      <c r="BQ47" s="21"/>
-      <c r="BR47" s="21" t="s">
+      <c r="BO47" s="18"/>
+      <c r="BP47" s="18"/>
+      <c r="BQ47" s="18"/>
+      <c r="BR47" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="21"/>
-      <c r="BT47" s="21"/>
-      <c r="BU47" s="21"/>
-      <c r="BV47" s="21" t="s">
+      <c r="BS47" s="18"/>
+      <c r="BT47" s="18"/>
+      <c r="BU47" s="18"/>
+      <c r="BV47" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="21"/>
-      <c r="BX47" s="21"/>
-      <c r="BY47" s="21"/>
-      <c r="BZ47" s="21" t="s">
+      <c r="BW47" s="18"/>
+      <c r="BX47" s="18"/>
+      <c r="BY47" s="18"/>
+      <c r="BZ47" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="21"/>
-      <c r="CB47" s="21"/>
-      <c r="CC47" s="21"/>
-      <c r="CD47" s="21" t="s">
+      <c r="CA47" s="18"/>
+      <c r="CB47" s="18"/>
+      <c r="CC47" s="18"/>
+      <c r="CD47" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="21"/>
-      <c r="CF47" s="21"/>
-      <c r="CG47" s="21"/>
-      <c r="CH47" s="21" t="s">
+      <c r="CE47" s="18"/>
+      <c r="CF47" s="18"/>
+      <c r="CG47" s="18"/>
+      <c r="CH47" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="21"/>
-      <c r="CJ47" s="21"/>
-      <c r="CK47" s="21"/>
-      <c r="CL47" s="21"/>
-      <c r="CM47" s="21"/>
-      <c r="CN47" s="20"/>
-      <c r="CO47" s="20"/>
+      <c r="CI47" s="18"/>
+      <c r="CJ47" s="18"/>
+      <c r="CK47" s="18"/>
+      <c r="CL47" s="18"/>
+      <c r="CM47" s="18"/>
+      <c r="CN47" s="18"/>
+      <c r="CO47" s="18"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28987,19 +28984,19 @@
         <v>8.6002067363291559</v>
       </c>
       <c r="CG50" s="15">
-        <v>28.965094303749595</v>
+        <v>28.596936102443863</v>
       </c>
       <c r="CH50" s="15">
-        <v>21.766134934126939</v>
+        <v>22.342111634875607</v>
       </c>
       <c r="CI50" s="15">
-        <v>77.541434529452658</v>
+        <v>77.860882759761665</v>
       </c>
       <c r="CJ50" s="15">
-        <v>79.294500570525116</v>
+        <v>80.142506828280858</v>
       </c>
       <c r="CK50" s="15">
-        <v>55.438410601945151</v>
+        <v>61.013836697111969</v>
       </c>
       <c r="CL50" s="15"/>
       <c r="CM50" s="15"/>
@@ -29366,19 +29363,19 @@
         <v>22.252775868291863</v>
       </c>
       <c r="CG51" s="15">
-        <v>22.834800235596944</v>
+        <v>22.840962690800694</v>
       </c>
       <c r="CH51" s="15">
-        <v>23.866591930018515</v>
+        <v>23.943782768730898</v>
       </c>
       <c r="CI51" s="15">
-        <v>29.06364437773297</v>
+        <v>29.129741947804689</v>
       </c>
       <c r="CJ51" s="15">
-        <v>39.983770429731493</v>
+        <v>40.06054352104303</v>
       </c>
       <c r="CK51" s="15">
-        <v>41.413777970522659</v>
+        <v>40.281792753187631</v>
       </c>
       <c r="CL51" s="15"/>
       <c r="CM51" s="15"/>
@@ -29946,19 +29943,19 @@
         <v>19.240432512873198</v>
       </c>
       <c r="CG53" s="15">
-        <v>24.306176236692139</v>
+        <v>24.222495297014788</v>
       </c>
       <c r="CH53" s="15">
-        <v>23.392449998721233</v>
+        <v>23.582233141104794</v>
       </c>
       <c r="CI53" s="15">
-        <v>38.910736818474135</v>
+        <v>39.028296457329759</v>
       </c>
       <c r="CJ53" s="15">
-        <v>47.883428757008119</v>
+        <v>48.115184431541849</v>
       </c>
       <c r="CK53" s="15">
-        <v>44.906092307069713</v>
+        <v>45.433069155918901</v>
       </c>
       <c r="CL53" s="15"/>
       <c r="CM53" s="15"/>
@@ -30583,7 +30580,7 @@
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
@@ -30593,7 +30590,7 @@
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
@@ -30603,140 +30600,140 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="21" t="s">
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
+      <c r="F66" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="21" t="s">
+      <c r="G66" s="20"/>
+      <c r="H66" s="20"/>
+      <c r="I66" s="20"/>
+      <c r="J66" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="21" t="s">
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="21" t="s">
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="21" t="s">
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="21" t="s">
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="21" t="s">
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="20"/>
+      <c r="AD66" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="23"/>
-      <c r="AH66" s="21" t="s">
+      <c r="AE66" s="20"/>
+      <c r="AF66" s="20"/>
+      <c r="AG66" s="20"/>
+      <c r="AH66" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="21" t="s">
+      <c r="AI66" s="20"/>
+      <c r="AJ66" s="20"/>
+      <c r="AK66" s="20"/>
+      <c r="AL66" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="23"/>
-      <c r="AO66" s="23"/>
-      <c r="AP66" s="21" t="s">
+      <c r="AM66" s="20"/>
+      <c r="AN66" s="20"/>
+      <c r="AO66" s="20"/>
+      <c r="AP66" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="23"/>
-      <c r="AR66" s="23"/>
-      <c r="AS66" s="23"/>
-      <c r="AT66" s="21" t="s">
+      <c r="AQ66" s="20"/>
+      <c r="AR66" s="20"/>
+      <c r="AS66" s="20"/>
+      <c r="AT66" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="23"/>
-      <c r="AV66" s="23"/>
-      <c r="AW66" s="23"/>
-      <c r="AX66" s="21" t="s">
+      <c r="AU66" s="20"/>
+      <c r="AV66" s="20"/>
+      <c r="AW66" s="20"/>
+      <c r="AX66" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="23"/>
-      <c r="AZ66" s="23"/>
-      <c r="BA66" s="23"/>
-      <c r="BB66" s="21" t="s">
+      <c r="AY66" s="20"/>
+      <c r="AZ66" s="20"/>
+      <c r="BA66" s="20"/>
+      <c r="BB66" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="23"/>
-      <c r="BD66" s="23"/>
-      <c r="BE66" s="23"/>
-      <c r="BF66" s="21" t="s">
+      <c r="BC66" s="20"/>
+      <c r="BD66" s="20"/>
+      <c r="BE66" s="20"/>
+      <c r="BF66" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="23"/>
-      <c r="BH66" s="23"/>
-      <c r="BI66" s="23"/>
-      <c r="BJ66" s="21" t="s">
+      <c r="BG66" s="20"/>
+      <c r="BH66" s="20"/>
+      <c r="BI66" s="20"/>
+      <c r="BJ66" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="23"/>
-      <c r="BL66" s="23"/>
-      <c r="BM66" s="23"/>
-      <c r="BN66" s="21" t="s">
+      <c r="BK66" s="20"/>
+      <c r="BL66" s="20"/>
+      <c r="BM66" s="20"/>
+      <c r="BN66" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="23"/>
-      <c r="BP66" s="23"/>
-      <c r="BQ66" s="23"/>
-      <c r="BR66" s="21" t="s">
+      <c r="BO66" s="20"/>
+      <c r="BP66" s="20"/>
+      <c r="BQ66" s="20"/>
+      <c r="BR66" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="23"/>
-      <c r="BT66" s="23"/>
-      <c r="BU66" s="23"/>
-      <c r="BV66" s="21" t="s">
+      <c r="BS66" s="20"/>
+      <c r="BT66" s="20"/>
+      <c r="BU66" s="20"/>
+      <c r="BV66" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="23"/>
-      <c r="BX66" s="23"/>
-      <c r="BY66" s="23"/>
-      <c r="BZ66" s="21" t="s">
+      <c r="BW66" s="20"/>
+      <c r="BX66" s="20"/>
+      <c r="BY66" s="20"/>
+      <c r="BZ66" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="21" t="s">
+      <c r="CA66" s="20"/>
+      <c r="CB66" s="20"/>
+      <c r="CC66" s="20"/>
+      <c r="CD66" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="23"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="23"/>
-      <c r="CH66" s="21" t="s">
+      <c r="CE66" s="20"/>
+      <c r="CF66" s="20"/>
+      <c r="CG66" s="20"/>
+      <c r="CH66" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="21"/>
-      <c r="CJ66" s="21"/>
-      <c r="CK66" s="21"/>
-      <c r="CL66" s="21"/>
-      <c r="CM66" s="21"/>
+      <c r="CI66" s="20"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="18"/>
+      <c r="CM66" s="20"/>
       <c r="CN66" s="20"/>
       <c r="CO66" s="20"/>
     </row>
@@ -31270,19 +31267,19 @@
         <v>8.6232024249218</v>
       </c>
       <c r="CG69" s="15">
-        <v>27.162356426385401</v>
+        <v>26.799344522517245</v>
       </c>
       <c r="CH69" s="15">
-        <v>20.55720862747701</v>
+        <v>21.127466879611688</v>
       </c>
       <c r="CI69" s="15">
-        <v>66.413791869385506</v>
+        <v>66.713218262174195</v>
       </c>
       <c r="CJ69" s="15">
-        <v>74.921463971244009</v>
+        <v>75.748787149542352</v>
       </c>
       <c r="CK69" s="15">
-        <v>49.664696687095955</v>
+        <v>55.033025224444145</v>
       </c>
       <c r="CL69" s="15"/>
       <c r="CM69" s="15"/>
@@ -31649,19 +31646,19 @@
         <v>13.491861203886941</v>
       </c>
       <c r="CG70" s="15">
-        <v>17.888545297613831</v>
+        <v>17.894459605921</v>
       </c>
       <c r="CH70" s="15">
-        <v>20.21079350594826</v>
+        <v>20.286574736346012</v>
       </c>
       <c r="CI70" s="15">
-        <v>20.73691399985232</v>
+        <v>20.79874718821317</v>
       </c>
       <c r="CJ70" s="15">
-        <v>32.434976754712977</v>
+        <v>32.507609764468413</v>
       </c>
       <c r="CK70" s="15">
-        <v>31.243226837056994</v>
+        <v>30.192654574671963</v>
       </c>
       <c r="CL70" s="15"/>
       <c r="CM70" s="15"/>
@@ -32228,19 +32225,19 @@
         <v>12.407018529891033</v>
       </c>
       <c r="CG72" s="15">
-        <v>20.204147717085647</v>
+        <v>20.117943864082676</v>
       </c>
       <c r="CH72" s="15">
-        <v>20.292234873753202</v>
+        <v>20.484266471111411</v>
       </c>
       <c r="CI72" s="15">
-        <v>30.798072594879045</v>
+        <v>30.912239984313715</v>
       </c>
       <c r="CJ72" s="15">
-        <v>41.583214052716869</v>
+        <v>41.818347782127347</v>
       </c>
       <c r="CK72" s="15">
-        <v>36.109193633771298</v>
+        <v>36.740115853001356</v>
       </c>
       <c r="CL72" s="15"/>
       <c r="CM72" s="15"/>
@@ -32868,7 +32865,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -32878,7 +32875,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -32888,144 +32885,144 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="21">
+      <c r="B84" s="18">
         <v>2000</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="21">
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="18">
         <v>2001</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="21">
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="18">
         <v>2002</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="21">
+      <c r="K84" s="19"/>
+      <c r="L84" s="19"/>
+      <c r="M84" s="19"/>
+      <c r="N84" s="18">
         <v>2003</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="21">
+      <c r="O84" s="19"/>
+      <c r="P84" s="19"/>
+      <c r="Q84" s="19"/>
+      <c r="R84" s="18">
         <v>2004</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="21">
+      <c r="S84" s="19"/>
+      <c r="T84" s="19"/>
+      <c r="U84" s="19"/>
+      <c r="V84" s="18">
         <v>2005</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="21">
+      <c r="W84" s="19"/>
+      <c r="X84" s="19"/>
+      <c r="Y84" s="19"/>
+      <c r="Z84" s="18">
         <v>2006</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="21">
+      <c r="AA84" s="19"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="19"/>
+      <c r="AD84" s="18">
         <v>2007</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="21">
+      <c r="AE84" s="19"/>
+      <c r="AF84" s="19"/>
+      <c r="AG84" s="19"/>
+      <c r="AH84" s="18">
         <v>2008</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="21">
+      <c r="AI84" s="19"/>
+      <c r="AJ84" s="19"/>
+      <c r="AK84" s="19"/>
+      <c r="AL84" s="18">
         <v>2009</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="21">
+      <c r="AM84" s="19"/>
+      <c r="AN84" s="19"/>
+      <c r="AO84" s="19"/>
+      <c r="AP84" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="21">
+      <c r="AQ84" s="19"/>
+      <c r="AR84" s="19"/>
+      <c r="AS84" s="19"/>
+      <c r="AT84" s="18">
         <v>2011</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="21">
+      <c r="AU84" s="19"/>
+      <c r="AV84" s="19"/>
+      <c r="AW84" s="19"/>
+      <c r="AX84" s="18">
         <v>2012</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="21">
+      <c r="AY84" s="19"/>
+      <c r="AZ84" s="19"/>
+      <c r="BA84" s="19"/>
+      <c r="BB84" s="18">
         <v>2013</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="21">
+      <c r="BC84" s="19"/>
+      <c r="BD84" s="19"/>
+      <c r="BE84" s="19"/>
+      <c r="BF84" s="18">
         <v>2014</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="21">
+      <c r="BG84" s="19"/>
+      <c r="BH84" s="19"/>
+      <c r="BI84" s="19"/>
+      <c r="BJ84" s="18">
         <v>2015</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="21">
+      <c r="BK84" s="19"/>
+      <c r="BL84" s="19"/>
+      <c r="BM84" s="19"/>
+      <c r="BN84" s="18">
         <v>2016</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="21">
+      <c r="BO84" s="19"/>
+      <c r="BP84" s="19"/>
+      <c r="BQ84" s="19"/>
+      <c r="BR84" s="18">
         <v>2017</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="21">
+      <c r="BS84" s="19"/>
+      <c r="BT84" s="19"/>
+      <c r="BU84" s="19"/>
+      <c r="BV84" s="18">
         <v>2018</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="21">
+      <c r="BW84" s="19"/>
+      <c r="BX84" s="19"/>
+      <c r="BY84" s="19"/>
+      <c r="BZ84" s="18">
         <v>2019</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="21">
+      <c r="CA84" s="19"/>
+      <c r="CB84" s="19"/>
+      <c r="CC84" s="19"/>
+      <c r="CD84" s="18">
         <v>2020</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
-      <c r="CH84" s="21">
+      <c r="CE84" s="19"/>
+      <c r="CF84" s="19"/>
+      <c r="CG84" s="19"/>
+      <c r="CH84" s="18">
         <v>2021</v>
       </c>
-      <c r="CI84" s="21"/>
-      <c r="CJ84" s="21"/>
-      <c r="CK84" s="21"/>
-      <c r="CL84" s="21">
+      <c r="CI84" s="19"/>
+      <c r="CJ84" s="19"/>
+      <c r="CK84" s="19"/>
+      <c r="CL84" s="18">
         <v>2022</v>
       </c>
-      <c r="CM84" s="21"/>
-      <c r="CN84" s="21"/>
-      <c r="CO84" s="21"/>
+      <c r="CM84" s="19"/>
+      <c r="CN84" s="19"/>
+      <c r="CO84" s="19"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33580,16 +33577,16 @@
         <v>108.06880471121292</v>
       </c>
       <c r="CL87" s="15">
-        <v>112.89293468206643</v>
+        <v>112.89293468206638</v>
       </c>
       <c r="CM87" s="15">
         <v>111.46655877131178</v>
       </c>
       <c r="CN87" s="15">
-        <v>109.43710197026653</v>
+        <v>109.43710197026648</v>
       </c>
       <c r="CO87" s="15">
-        <v>112.23784641131908</v>
+        <v>112.23784641131911</v>
       </c>
       <c r="CP87" s="9"/>
       <c r="CQ87" s="9"/>
@@ -33968,16 +33965,16 @@
         <v>116.4956717045641</v>
       </c>
       <c r="CK88" s="15">
-        <v>116.99424484412614</v>
+        <v>116.99424484412606</v>
       </c>
       <c r="CL88" s="15">
-        <v>121.41788725388665</v>
+        <v>121.41701048256701</v>
       </c>
       <c r="CM88" s="15">
-        <v>123.77383601179777</v>
+        <v>123.77383601179778</v>
       </c>
       <c r="CN88" s="15">
-        <v>123.13592499172417</v>
+        <v>123.13592499172418</v>
       </c>
       <c r="CO88" s="15">
         <v>126.06058661417178</v>
@@ -34563,19 +34560,19 @@
         <v>114.40107810865211</v>
       </c>
       <c r="CK90" s="15">
-        <v>114.63662106674199</v>
+        <v>114.64166426124207</v>
       </c>
       <c r="CL90" s="15">
-        <v>119.40927651923093</v>
+        <v>119.40232239877535</v>
       </c>
       <c r="CM90" s="15">
-        <v>120.3247697358504</v>
+        <v>120.32157718298843</v>
       </c>
       <c r="CN90" s="15">
-        <v>119.49173351797586</v>
+        <v>119.48056826371851</v>
       </c>
       <c r="CO90" s="15">
-        <v>122.04572189858489</v>
+        <v>121.92975691623928</v>
       </c>
       <c r="CP90" s="9"/>
       <c r="CQ90" s="9"/>
@@ -34800,7 +34797,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -34810,7 +34807,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -34820,144 +34817,144 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="21">
+      <c r="B103" s="18">
         <v>2000</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="21">
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="18">
         <v>2001</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="21">
+      <c r="G103" s="19"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="18">
         <v>2002</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="21">
+      <c r="K103" s="19"/>
+      <c r="L103" s="19"/>
+      <c r="M103" s="19"/>
+      <c r="N103" s="18">
         <v>2003</v>
       </c>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="21">
+      <c r="O103" s="19"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="19"/>
+      <c r="R103" s="18">
         <v>2004</v>
       </c>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="21">
+      <c r="S103" s="19"/>
+      <c r="T103" s="19"/>
+      <c r="U103" s="19"/>
+      <c r="V103" s="18">
         <v>2005</v>
       </c>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="21">
+      <c r="W103" s="19"/>
+      <c r="X103" s="19"/>
+      <c r="Y103" s="19"/>
+      <c r="Z103" s="18">
         <v>2006</v>
       </c>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="21">
+      <c r="AA103" s="19"/>
+      <c r="AB103" s="19"/>
+      <c r="AC103" s="19"/>
+      <c r="AD103" s="18">
         <v>2007</v>
       </c>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="21">
+      <c r="AE103" s="19"/>
+      <c r="AF103" s="19"/>
+      <c r="AG103" s="19"/>
+      <c r="AH103" s="18">
         <v>2008</v>
       </c>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="21">
+      <c r="AI103" s="19"/>
+      <c r="AJ103" s="19"/>
+      <c r="AK103" s="19"/>
+      <c r="AL103" s="18">
         <v>2009</v>
       </c>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="21">
+      <c r="AM103" s="19"/>
+      <c r="AN103" s="19"/>
+      <c r="AO103" s="19"/>
+      <c r="AP103" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="21">
+      <c r="AQ103" s="19"/>
+      <c r="AR103" s="19"/>
+      <c r="AS103" s="19"/>
+      <c r="AT103" s="18">
         <v>2011</v>
       </c>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="22"/>
-      <c r="AW103" s="22"/>
-      <c r="AX103" s="21">
+      <c r="AU103" s="19"/>
+      <c r="AV103" s="19"/>
+      <c r="AW103" s="19"/>
+      <c r="AX103" s="18">
         <v>2012</v>
       </c>
-      <c r="AY103" s="22"/>
-      <c r="AZ103" s="22"/>
-      <c r="BA103" s="22"/>
-      <c r="BB103" s="21">
+      <c r="AY103" s="19"/>
+      <c r="AZ103" s="19"/>
+      <c r="BA103" s="19"/>
+      <c r="BB103" s="18">
         <v>2013</v>
       </c>
-      <c r="BC103" s="22"/>
-      <c r="BD103" s="22"/>
-      <c r="BE103" s="22"/>
-      <c r="BF103" s="21">
+      <c r="BC103" s="19"/>
+      <c r="BD103" s="19"/>
+      <c r="BE103" s="19"/>
+      <c r="BF103" s="18">
         <v>2014</v>
       </c>
-      <c r="BG103" s="22"/>
-      <c r="BH103" s="22"/>
-      <c r="BI103" s="22"/>
-      <c r="BJ103" s="21">
+      <c r="BG103" s="19"/>
+      <c r="BH103" s="19"/>
+      <c r="BI103" s="19"/>
+      <c r="BJ103" s="18">
         <v>2015</v>
       </c>
-      <c r="BK103" s="22"/>
-      <c r="BL103" s="22"/>
-      <c r="BM103" s="22"/>
-      <c r="BN103" s="21">
+      <c r="BK103" s="19"/>
+      <c r="BL103" s="19"/>
+      <c r="BM103" s="19"/>
+      <c r="BN103" s="18">
         <v>2016</v>
       </c>
-      <c r="BO103" s="22"/>
-      <c r="BP103" s="22"/>
-      <c r="BQ103" s="22"/>
-      <c r="BR103" s="21">
+      <c r="BO103" s="19"/>
+      <c r="BP103" s="19"/>
+      <c r="BQ103" s="19"/>
+      <c r="BR103" s="18">
         <v>2017</v>
       </c>
-      <c r="BS103" s="22"/>
-      <c r="BT103" s="22"/>
-      <c r="BU103" s="22"/>
-      <c r="BV103" s="21">
+      <c r="BS103" s="19"/>
+      <c r="BT103" s="19"/>
+      <c r="BU103" s="19"/>
+      <c r="BV103" s="18">
         <v>2018</v>
       </c>
-      <c r="BW103" s="22"/>
-      <c r="BX103" s="22"/>
-      <c r="BY103" s="22"/>
-      <c r="BZ103" s="21">
+      <c r="BW103" s="19"/>
+      <c r="BX103" s="19"/>
+      <c r="BY103" s="19"/>
+      <c r="BZ103" s="18">
         <v>2019</v>
       </c>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="21">
+      <c r="CA103" s="19"/>
+      <c r="CB103" s="19"/>
+      <c r="CC103" s="19"/>
+      <c r="CD103" s="18">
         <v>2020</v>
       </c>
-      <c r="CE103" s="22"/>
-      <c r="CF103" s="22"/>
-      <c r="CG103" s="22"/>
-      <c r="CH103" s="21">
+      <c r="CE103" s="19"/>
+      <c r="CF103" s="19"/>
+      <c r="CG103" s="19"/>
+      <c r="CH103" s="18">
         <v>2021</v>
       </c>
-      <c r="CI103" s="21"/>
-      <c r="CJ103" s="21"/>
-      <c r="CK103" s="21"/>
-      <c r="CL103" s="21">
+      <c r="CI103" s="19"/>
+      <c r="CJ103" s="19"/>
+      <c r="CK103" s="19"/>
+      <c r="CL103" s="18">
         <v>2022</v>
       </c>
-      <c r="CM103" s="21"/>
-      <c r="CN103" s="21"/>
-      <c r="CO103" s="21"/>
+      <c r="CM103" s="19"/>
+      <c r="CN103" s="19"/>
+      <c r="CO103" s="19"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35509,19 +35506,19 @@
         <v>20.09542508873157</v>
       </c>
       <c r="CK106" s="15">
-        <v>24.901289241063303</v>
+        <v>24.84692978977051</v>
       </c>
       <c r="CL106" s="15">
-        <v>22.275758640559388</v>
+        <v>22.346756847100469</v>
       </c>
       <c r="CM106" s="15">
-        <v>25.961459875621745</v>
+        <v>25.986180019967918</v>
       </c>
       <c r="CN106" s="15">
-        <v>24.363779196360994</v>
+        <v>24.440709878312298</v>
       </c>
       <c r="CO106" s="15">
-        <v>26.711208341523644</v>
+        <v>27.508870704678333</v>
       </c>
       <c r="CP106" s="9"/>
       <c r="CQ106" s="9"/>
@@ -35900,19 +35897,19 @@
         <v>79.90457491126844</v>
       </c>
       <c r="CK107" s="15">
-        <v>75.09871075893669</v>
+        <v>75.153070210229501</v>
       </c>
       <c r="CL107" s="15">
-        <v>77.724241359440612</v>
+        <v>77.653243152899535</v>
       </c>
       <c r="CM107" s="15">
-        <v>74.038540124378244</v>
+        <v>74.013819980032082</v>
       </c>
       <c r="CN107" s="15">
-        <v>75.636220803639006</v>
+        <v>75.55929012168771</v>
       </c>
       <c r="CO107" s="15">
-        <v>73.288791658476356</v>
+        <v>72.491129295321656</v>
       </c>
       <c r="CP107" s="9"/>
       <c r="CQ107" s="9"/>
@@ -37140,7 +37137,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37150,7 +37147,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37160,144 +37157,144 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="21">
+      <c r="B122" s="18">
         <v>2000</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="21">
+      <c r="C122" s="19"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="18">
         <v>2001</v>
       </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="21">
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="18">
         <v>2002</v>
       </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="21">
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="18">
         <v>2003</v>
       </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="21">
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="18">
         <v>2004</v>
       </c>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="22"/>
-      <c r="V122" s="21">
+      <c r="S122" s="19"/>
+      <c r="T122" s="19"/>
+      <c r="U122" s="19"/>
+      <c r="V122" s="18">
         <v>2005</v>
       </c>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="21">
+      <c r="W122" s="19"/>
+      <c r="X122" s="19"/>
+      <c r="Y122" s="19"/>
+      <c r="Z122" s="18">
         <v>2006</v>
       </c>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="21">
+      <c r="AA122" s="19"/>
+      <c r="AB122" s="19"/>
+      <c r="AC122" s="19"/>
+      <c r="AD122" s="18">
         <v>2007</v>
       </c>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="21">
+      <c r="AE122" s="19"/>
+      <c r="AF122" s="19"/>
+      <c r="AG122" s="19"/>
+      <c r="AH122" s="18">
         <v>2008</v>
       </c>
-      <c r="AI122" s="22"/>
-      <c r="AJ122" s="22"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="21">
+      <c r="AI122" s="19"/>
+      <c r="AJ122" s="19"/>
+      <c r="AK122" s="19"/>
+      <c r="AL122" s="18">
         <v>2009</v>
       </c>
-      <c r="AM122" s="22"/>
-      <c r="AN122" s="22"/>
-      <c r="AO122" s="22"/>
-      <c r="AP122" s="21">
+      <c r="AM122" s="19"/>
+      <c r="AN122" s="19"/>
+      <c r="AO122" s="19"/>
+      <c r="AP122" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="22"/>
-      <c r="AR122" s="22"/>
-      <c r="AS122" s="22"/>
-      <c r="AT122" s="21">
+      <c r="AQ122" s="19"/>
+      <c r="AR122" s="19"/>
+      <c r="AS122" s="19"/>
+      <c r="AT122" s="18">
         <v>2011</v>
       </c>
-      <c r="AU122" s="22"/>
-      <c r="AV122" s="22"/>
-      <c r="AW122" s="22"/>
-      <c r="AX122" s="21">
+      <c r="AU122" s="19"/>
+      <c r="AV122" s="19"/>
+      <c r="AW122" s="19"/>
+      <c r="AX122" s="18">
         <v>2012</v>
       </c>
-      <c r="AY122" s="22"/>
-      <c r="AZ122" s="22"/>
-      <c r="BA122" s="22"/>
-      <c r="BB122" s="21">
+      <c r="AY122" s="19"/>
+      <c r="AZ122" s="19"/>
+      <c r="BA122" s="19"/>
+      <c r="BB122" s="18">
         <v>2013</v>
       </c>
-      <c r="BC122" s="22"/>
-      <c r="BD122" s="22"/>
-      <c r="BE122" s="22"/>
-      <c r="BF122" s="21">
+      <c r="BC122" s="19"/>
+      <c r="BD122" s="19"/>
+      <c r="BE122" s="19"/>
+      <c r="BF122" s="18">
         <v>2014</v>
       </c>
-      <c r="BG122" s="22"/>
-      <c r="BH122" s="22"/>
-      <c r="BI122" s="22"/>
-      <c r="BJ122" s="21">
+      <c r="BG122" s="19"/>
+      <c r="BH122" s="19"/>
+      <c r="BI122" s="19"/>
+      <c r="BJ122" s="18">
         <v>2015</v>
       </c>
-      <c r="BK122" s="22"/>
-      <c r="BL122" s="22"/>
-      <c r="BM122" s="22"/>
-      <c r="BN122" s="21">
+      <c r="BK122" s="19"/>
+      <c r="BL122" s="19"/>
+      <c r="BM122" s="19"/>
+      <c r="BN122" s="18">
         <v>2016</v>
       </c>
-      <c r="BO122" s="22"/>
-      <c r="BP122" s="22"/>
-      <c r="BQ122" s="22"/>
-      <c r="BR122" s="21">
+      <c r="BO122" s="19"/>
+      <c r="BP122" s="19"/>
+      <c r="BQ122" s="19"/>
+      <c r="BR122" s="18">
         <v>2017</v>
       </c>
-      <c r="BS122" s="22"/>
-      <c r="BT122" s="22"/>
-      <c r="BU122" s="22"/>
-      <c r="BV122" s="21">
+      <c r="BS122" s="19"/>
+      <c r="BT122" s="19"/>
+      <c r="BU122" s="19"/>
+      <c r="BV122" s="18">
         <v>2018</v>
       </c>
-      <c r="BW122" s="22"/>
-      <c r="BX122" s="22"/>
-      <c r="BY122" s="22"/>
-      <c r="BZ122" s="21">
+      <c r="BW122" s="19"/>
+      <c r="BX122" s="19"/>
+      <c r="BY122" s="19"/>
+      <c r="BZ122" s="18">
         <v>2019</v>
       </c>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="21">
+      <c r="CA122" s="19"/>
+      <c r="CB122" s="19"/>
+      <c r="CC122" s="19"/>
+      <c r="CD122" s="18">
         <v>2020</v>
       </c>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
-      <c r="CH122" s="21">
+      <c r="CE122" s="19"/>
+      <c r="CF122" s="19"/>
+      <c r="CG122" s="19"/>
+      <c r="CH122" s="18">
         <v>2021</v>
       </c>
-      <c r="CI122" s="21"/>
-      <c r="CJ122" s="21"/>
-      <c r="CK122" s="21"/>
-      <c r="CL122" s="21">
+      <c r="CI122" s="19"/>
+      <c r="CJ122" s="19"/>
+      <c r="CK122" s="19"/>
+      <c r="CL122" s="18">
         <v>2022</v>
       </c>
-      <c r="CM122" s="21"/>
-      <c r="CN122" s="21"/>
-      <c r="CO122" s="21"/>
+      <c r="CM122" s="19"/>
+      <c r="CN122" s="19"/>
+      <c r="CO122" s="19"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37849,19 +37846,19 @@
         <v>21.532110318700106</v>
       </c>
       <c r="CK125" s="15">
-        <v>26.414650059555335</v>
+        <v>26.358146465054528</v>
       </c>
       <c r="CL125" s="15">
-        <v>23.561547325146702</v>
+        <v>23.63526710629834</v>
       </c>
       <c r="CM125" s="15">
-        <v>28.024608599872575</v>
+        <v>28.050548966694418</v>
       </c>
       <c r="CN125" s="15">
-        <v>26.602223183992464</v>
+        <v>26.683728392431593</v>
       </c>
       <c r="CO125" s="15">
-        <v>29.045360447115531</v>
+        <v>29.884303960802139</v>
       </c>
       <c r="CP125" s="9"/>
       <c r="CQ125" s="9"/>
@@ -38240,19 +38237,19 @@
         <v>78.46788968129988</v>
       </c>
       <c r="CK126" s="15">
-        <v>73.585349940444672</v>
+        <v>73.641853534945483</v>
       </c>
       <c r="CL126" s="15">
-        <v>76.438452674853295</v>
+        <v>76.364732893701657</v>
       </c>
       <c r="CM126" s="15">
-        <v>71.975391400127435</v>
+        <v>71.949451033305593</v>
       </c>
       <c r="CN126" s="15">
-        <v>73.397776816007521</v>
+        <v>73.316271607568396</v>
       </c>
       <c r="CO126" s="15">
-        <v>70.954639552884473</v>
+        <v>70.115696039197857</v>
       </c>
       <c r="CP126" s="9"/>
       <c r="CQ126" s="9"/>
@@ -39506,11 +39503,6 @@
     <mergeCell ref="AL122:AO122"/>
     <mergeCell ref="V84:Y84"/>
     <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR47:BU47"/>
     <mergeCell ref="AP103:AS103"/>
     <mergeCell ref="AT103:AW103"/>
     <mergeCell ref="AX103:BA103"/>
@@ -39527,7 +39519,6 @@
     <mergeCell ref="BF84:BI84"/>
     <mergeCell ref="BF66:BI66"/>
     <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BV122:BY122"/>
     <mergeCell ref="BZ122:CC122"/>
     <mergeCell ref="BR103:BU103"/>
@@ -39563,8 +39554,6 @@
     <mergeCell ref="AT28:AW28"/>
     <mergeCell ref="AX28:BA28"/>
     <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AL9:AO9"/>
     <mergeCell ref="BB47:BE47"/>
     <mergeCell ref="B47:E47"/>
     <mergeCell ref="V9:Y9"/>
@@ -39577,17 +39566,6 @@
     <mergeCell ref="V47:Y47"/>
     <mergeCell ref="Z47:AC47"/>
     <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -39601,10 +39579,17 @@
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BR28:BU28"/>
@@ -39613,13 +39598,21 @@
     <mergeCell ref="CD66:CG66"/>
     <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CL66:CM66"/>
     <mergeCell ref="BZ28:CC28"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL28:CO28"/>
@@ -39633,6 +39626,10 @@
     <mergeCell ref="BZ66:CC66"/>
     <mergeCell ref="CL103:CO103"/>
     <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CL66:CO66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C00AFC-BC09-4D4B-A0A8-93385395F2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2132ACF-41D2-4E89-8157-D010AD3DA15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CO$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CP$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -614,13 +614,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -709,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -736,6 +739,11 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23595,14 +23603,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="93" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="94" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23617,7 +23625,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23627,7 +23635,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23637,144 +23645,147 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="18">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="18"/>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="18"/>
-      <c r="BT9" s="18"/>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="18">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="18"/>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="18">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="18"/>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="18"/>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="18"/>
-      <c r="CJ9" s="18"/>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="18">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
-      <c r="CM9" s="18"/>
-      <c r="CN9" s="18"/>
-      <c r="CO9" s="18"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="21"/>
+      <c r="CO9" s="21"/>
+      <c r="CP9" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24055,6 +24066,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24304,43 +24318,45 @@
       <c r="CC12" s="8">
         <v>41915.822312789198</v>
       </c>
-      <c r="CD12" s="8">
+      <c r="CD12" s="19">
         <v>32535.792962124964</v>
       </c>
-      <c r="CE12" s="8">
+      <c r="CE12" s="19">
         <v>9782.8104847882059</v>
       </c>
-      <c r="CF12" s="8">
+      <c r="CF12" s="19">
         <v>11523.24586456906</v>
       </c>
-      <c r="CG12" s="8">
+      <c r="CG12" s="19">
         <v>16316.674780339399</v>
       </c>
-      <c r="CH12" s="8">
+      <c r="CH12" s="19">
         <v>18245.77194646827</v>
       </c>
-      <c r="CI12" s="8">
+      <c r="CI12" s="19">
         <v>11707.296323984163</v>
       </c>
-      <c r="CJ12" s="8">
+      <c r="CJ12" s="19">
         <v>12514.2688316575</v>
       </c>
-      <c r="CK12" s="8">
+      <c r="CK12" s="19">
         <v>20982.743841316627</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="19">
         <v>22322.262683393026</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="19">
         <v>20822.70058913936</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="19">
         <v>22543.517584578036</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="19">
         <v>33785.120903230876</v>
       </c>
-      <c r="CP12" s="9"/>
+      <c r="CP12" s="19">
+        <v>36737.539997276312</v>
+      </c>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
@@ -24695,43 +24711,45 @@
       <c r="CC13" s="8">
         <v>74388.714998208394</v>
       </c>
-      <c r="CD13" s="8">
+      <c r="CD13" s="19">
         <v>66238.018732649813</v>
       </c>
-      <c r="CE13" s="8">
+      <c r="CE13" s="19">
         <v>24249.578814919303</v>
       </c>
-      <c r="CF13" s="8">
+      <c r="CF13" s="19">
         <v>40702.51070718393</v>
       </c>
-      <c r="CG13" s="8">
+      <c r="CG13" s="19">
         <v>51664.598900513491</v>
       </c>
-      <c r="CH13" s="8">
+      <c r="CH13" s="19">
         <v>62583.314874735559</v>
       </c>
-      <c r="CI13" s="8">
+      <c r="CI13" s="19">
         <v>45928.382212957295</v>
       </c>
-      <c r="CJ13" s="8">
+      <c r="CJ13" s="19">
         <v>49759.949187621067</v>
       </c>
-      <c r="CK13" s="8">
+      <c r="CK13" s="19">
         <v>63465.290659731603</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="19">
         <v>77568.127837813096</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="19">
         <v>59307.20143239318</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="19">
         <v>69694.055287976895</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="19">
         <v>89030.247513492825</v>
       </c>
-      <c r="CP13" s="9"/>
+      <c r="CP13" s="19">
+        <v>98983.972875563777</v>
+      </c>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
@@ -25290,43 +25308,45 @@
       <c r="CC15" s="11">
         <v>116304.53731099759</v>
       </c>
-      <c r="CD15" s="11">
+      <c r="CD15" s="20">
         <v>98773.811694774777</v>
       </c>
-      <c r="CE15" s="11">
+      <c r="CE15" s="20">
         <v>34032.389299707509</v>
       </c>
-      <c r="CF15" s="11">
+      <c r="CF15" s="20">
         <v>52225.756571752994</v>
       </c>
-      <c r="CG15" s="11">
+      <c r="CG15" s="20">
         <v>67981.273680852886</v>
       </c>
-      <c r="CH15" s="11">
+      <c r="CH15" s="20">
         <v>80829.086821203833</v>
       </c>
-      <c r="CI15" s="11">
+      <c r="CI15" s="20">
         <v>57635.678536941457</v>
       </c>
-      <c r="CJ15" s="11">
+      <c r="CJ15" s="20">
         <v>62274.218019278567</v>
       </c>
-      <c r="CK15" s="11">
+      <c r="CK15" s="20">
         <v>84448.034501048227</v>
       </c>
-      <c r="CL15" s="11">
+      <c r="CL15" s="20">
         <v>99890.390521206122</v>
       </c>
-      <c r="CM15" s="11">
+      <c r="CM15" s="20">
         <v>80129.902021532544</v>
       </c>
-      <c r="CN15" s="11">
+      <c r="CN15" s="20">
         <v>92237.572872554927</v>
       </c>
-      <c r="CO15" s="11">
+      <c r="CO15" s="20">
         <v>122815.36841672371</v>
       </c>
-      <c r="CP15" s="9"/>
+      <c r="CP15" s="20">
+        <v>135721.5128728401</v>
+      </c>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
@@ -25531,6 +25551,7 @@
       <c r="CM16" s="12"/>
       <c r="CN16" s="12"/>
       <c r="CO16" s="12"/>
+      <c r="CP16" s="12"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25834,7 +25855,7 @@
       <c r="CM19" s="14"/>
       <c r="CN19" s="14"/>
       <c r="CO19" s="14"/>
-      <c r="CP19" s="9"/>
+      <c r="CP19" s="14"/>
       <c r="CQ19" s="9"/>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
@@ -25957,7 +25978,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -25967,7 +25988,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -25977,144 +25998,147 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="18">
+      <c r="B28" s="21">
         <v>2000</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="18">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="21">
         <v>2001</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="18">
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="21">
         <v>2002</v>
       </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="18">
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21">
         <v>2003</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="18">
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="21">
         <v>2004</v>
       </c>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="18">
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21">
         <v>2005</v>
       </c>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="18">
+      <c r="W28" s="22"/>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="22"/>
+      <c r="Z28" s="21">
         <v>2006</v>
       </c>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="18">
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="21">
         <v>2007</v>
       </c>
-      <c r="AE28" s="19"/>
-      <c r="AF28" s="19"/>
-      <c r="AG28" s="19"/>
-      <c r="AH28" s="18">
+      <c r="AE28" s="22"/>
+      <c r="AF28" s="22"/>
+      <c r="AG28" s="22"/>
+      <c r="AH28" s="21">
         <v>2008</v>
       </c>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="19"/>
-      <c r="AK28" s="19"/>
-      <c r="AL28" s="18">
+      <c r="AI28" s="22"/>
+      <c r="AJ28" s="22"/>
+      <c r="AK28" s="22"/>
+      <c r="AL28" s="21">
         <v>2009</v>
       </c>
-      <c r="AM28" s="19"/>
-      <c r="AN28" s="19"/>
-      <c r="AO28" s="19"/>
-      <c r="AP28" s="18">
+      <c r="AM28" s="22"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="22"/>
+      <c r="AP28" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
-      <c r="AT28" s="18">
+      <c r="AQ28" s="22"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="21">
         <v>2011</v>
       </c>
-      <c r="AU28" s="19"/>
-      <c r="AV28" s="19"/>
-      <c r="AW28" s="19"/>
-      <c r="AX28" s="18">
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="21">
         <v>2012</v>
       </c>
-      <c r="AY28" s="19"/>
-      <c r="AZ28" s="19"/>
-      <c r="BA28" s="19"/>
-      <c r="BB28" s="18">
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="21">
         <v>2013</v>
       </c>
-      <c r="BC28" s="19"/>
-      <c r="BD28" s="19"/>
-      <c r="BE28" s="19"/>
-      <c r="BF28" s="18">
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="21">
         <v>2014</v>
       </c>
-      <c r="BG28" s="19"/>
-      <c r="BH28" s="19"/>
-      <c r="BI28" s="19"/>
-      <c r="BJ28" s="18">
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="21">
         <v>2015</v>
       </c>
-      <c r="BK28" s="19"/>
-      <c r="BL28" s="19"/>
-      <c r="BM28" s="19"/>
-      <c r="BN28" s="18">
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="21">
         <v>2016</v>
       </c>
-      <c r="BO28" s="19"/>
-      <c r="BP28" s="19"/>
-      <c r="BQ28" s="19"/>
-      <c r="BR28" s="18">
+      <c r="BO28" s="22"/>
+      <c r="BP28" s="22"/>
+      <c r="BQ28" s="22"/>
+      <c r="BR28" s="21">
         <v>2017</v>
       </c>
-      <c r="BS28" s="19"/>
-      <c r="BT28" s="19"/>
-      <c r="BU28" s="19"/>
-      <c r="BV28" s="18">
+      <c r="BS28" s="22"/>
+      <c r="BT28" s="22"/>
+      <c r="BU28" s="22"/>
+      <c r="BV28" s="21">
         <v>2018</v>
       </c>
-      <c r="BW28" s="19"/>
-      <c r="BX28" s="19"/>
-      <c r="BY28" s="19"/>
-      <c r="BZ28" s="18">
+      <c r="BW28" s="22"/>
+      <c r="BX28" s="22"/>
+      <c r="BY28" s="22"/>
+      <c r="BZ28" s="21">
         <v>2019</v>
       </c>
-      <c r="CA28" s="19"/>
-      <c r="CB28" s="19"/>
-      <c r="CC28" s="19"/>
-      <c r="CD28" s="18">
+      <c r="CA28" s="22"/>
+      <c r="CB28" s="22"/>
+      <c r="CC28" s="22"/>
+      <c r="CD28" s="21">
         <v>2020</v>
       </c>
-      <c r="CE28" s="19"/>
-      <c r="CF28" s="19"/>
-      <c r="CG28" s="19"/>
-      <c r="CH28" s="18">
+      <c r="CE28" s="21"/>
+      <c r="CF28" s="21"/>
+      <c r="CG28" s="21"/>
+      <c r="CH28" s="21">
         <v>2021</v>
       </c>
-      <c r="CI28" s="19"/>
-      <c r="CJ28" s="19"/>
-      <c r="CK28" s="19"/>
-      <c r="CL28" s="18">
+      <c r="CI28" s="21"/>
+      <c r="CJ28" s="21"/>
+      <c r="CK28" s="21"/>
+      <c r="CL28" s="21">
         <v>2022</v>
       </c>
-      <c r="CM28" s="19"/>
-      <c r="CN28" s="19"/>
-      <c r="CO28" s="19"/>
+      <c r="CM28" s="21"/>
+      <c r="CN28" s="21"/>
+      <c r="CO28" s="21"/>
+      <c r="CP28" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26395,6 +26419,9 @@
       </c>
       <c r="CO29" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP29" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26644,43 +26671,45 @@
       <c r="CC31" s="8">
         <v>41140.67532850214</v>
       </c>
-      <c r="CD31" s="8">
+      <c r="CD31" s="19">
         <v>29908.993835339541</v>
       </c>
-      <c r="CE31" s="8">
+      <c r="CE31" s="19">
         <v>9519.6693135198984</v>
       </c>
-      <c r="CF31" s="8">
+      <c r="CF31" s="19">
         <v>10790.514664241546</v>
       </c>
-      <c r="CG31" s="8">
+      <c r="CG31" s="19">
         <v>15312.458414541812</v>
       </c>
-      <c r="CH31" s="8">
+      <c r="CH31" s="19">
         <v>16324.083844096935</v>
       </c>
-      <c r="CI31" s="8">
+      <c r="CI31" s="19">
         <v>11205.272574840264</v>
       </c>
-      <c r="CJ31" s="8">
+      <c r="CJ31" s="19">
         <v>11721.002586429966</v>
       </c>
-      <c r="CK31" s="8">
+      <c r="CK31" s="19">
         <v>19416.096899922053</v>
       </c>
-      <c r="CL31" s="8">
+      <c r="CL31" s="19">
         <v>19772.949251658556</v>
       </c>
-      <c r="CM31" s="8">
+      <c r="CM31" s="19">
         <v>18680.670524564997</v>
       </c>
-      <c r="CN31" s="8">
+      <c r="CN31" s="19">
         <v>20599.519887417155</v>
       </c>
-      <c r="CO31" s="8">
+      <c r="CO31" s="19">
         <v>30101.362404458672</v>
       </c>
-      <c r="CP31" s="9"/>
+      <c r="CP31" s="19">
+        <v>31057.131035238272</v>
+      </c>
       <c r="CQ31" s="9"/>
       <c r="CR31" s="9"/>
       <c r="CS31" s="9"/>
@@ -27035,43 +27064,45 @@
       <c r="CC32" s="8">
         <v>72614.933555281517</v>
       </c>
-      <c r="CD32" s="8">
+      <c r="CD32" s="19">
         <v>59687.534315670113</v>
       </c>
-      <c r="CE32" s="8">
+      <c r="CE32" s="19">
         <v>22942.574172721172</v>
       </c>
-      <c r="CF32" s="8">
+      <c r="CF32" s="19">
         <v>37636.169876201551</v>
       </c>
-      <c r="CG32" s="8">
+      <c r="CG32" s="19">
         <v>46012.769983699865</v>
       </c>
-      <c r="CH32" s="8">
+      <c r="CH32" s="19">
         <v>53111.261375570801</v>
       </c>
-      <c r="CI32" s="8">
+      <c r="CI32" s="19">
         <v>39665.793819919112</v>
       </c>
-      <c r="CJ32" s="8">
+      <c r="CJ32" s="19">
         <v>42713.989678357771</v>
       </c>
-      <c r="CK32" s="8">
+      <c r="CK32" s="19">
         <v>54246.506521998381</v>
       </c>
-      <c r="CL32" s="8">
+      <c r="CL32" s="19">
         <v>63885.717107942037</v>
       </c>
-      <c r="CM32" s="8">
+      <c r="CM32" s="19">
         <v>47915.781996721969</v>
       </c>
-      <c r="CN32" s="8">
+      <c r="CN32" s="19">
         <v>56599.28675783363</v>
       </c>
-      <c r="CO32" s="8">
+      <c r="CO32" s="19">
         <v>70624.966855012244</v>
       </c>
-      <c r="CP32" s="9"/>
+      <c r="CP32" s="19">
+        <v>75081.307556823755</v>
+      </c>
       <c r="CQ32" s="9"/>
       <c r="CR32" s="9"/>
       <c r="CS32" s="9"/>
@@ -27630,43 +27661,45 @@
       <c r="CC34" s="11">
         <v>113755.60888378366</v>
       </c>
-      <c r="CD34" s="11">
+      <c r="CD34" s="20">
         <v>89596.528151009654</v>
       </c>
-      <c r="CE34" s="11">
+      <c r="CE34" s="20">
         <v>32462.24348624107</v>
       </c>
-      <c r="CF34" s="11">
+      <c r="CF34" s="20">
         <v>48426.684540443093</v>
       </c>
-      <c r="CG34" s="11">
+      <c r="CG34" s="20">
         <v>61325.228398241677</v>
       </c>
-      <c r="CH34" s="11">
+      <c r="CH34" s="20">
         <v>69435.345219667739</v>
       </c>
-      <c r="CI34" s="11">
+      <c r="CI34" s="20">
         <v>50871.066394759378</v>
       </c>
-      <c r="CJ34" s="11">
+      <c r="CJ34" s="20">
         <v>54434.992264787739</v>
       </c>
-      <c r="CK34" s="11">
+      <c r="CK34" s="20">
         <v>73662.60342192043</v>
       </c>
-      <c r="CL34" s="11">
+      <c r="CL34" s="20">
         <v>83658.666359600596</v>
       </c>
-      <c r="CM34" s="11">
+      <c r="CM34" s="20">
         <v>66596.452521286963</v>
       </c>
-      <c r="CN34" s="11">
+      <c r="CN34" s="20">
         <v>77198.806645250792</v>
       </c>
-      <c r="CO34" s="11">
+      <c r="CO34" s="20">
         <v>100726.32925947092</v>
       </c>
-      <c r="CP34" s="9"/>
+      <c r="CP34" s="20">
+        <v>106138.43859206203</v>
+      </c>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
@@ -27871,6 +27904,7 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
+      <c r="CP35" s="12"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28297,7 +28331,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28307,7 +28341,7 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
@@ -28317,142 +28351,145 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18" t="s">
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18" t="s">
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18" t="s">
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18" t="s">
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18" t="s">
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18" t="s">
+      <c r="W47" s="21"/>
+      <c r="X47" s="21"/>
+      <c r="Y47" s="21"/>
+      <c r="Z47" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18" t="s">
+      <c r="AA47" s="21"/>
+      <c r="AB47" s="21"/>
+      <c r="AC47" s="21"/>
+      <c r="AD47" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="18"/>
-      <c r="AF47" s="18"/>
-      <c r="AG47" s="18"/>
-      <c r="AH47" s="18" t="s">
+      <c r="AE47" s="21"/>
+      <c r="AF47" s="21"/>
+      <c r="AG47" s="21"/>
+      <c r="AH47" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="18"/>
-      <c r="AJ47" s="18"/>
-      <c r="AK47" s="18"/>
-      <c r="AL47" s="18" t="s">
+      <c r="AI47" s="21"/>
+      <c r="AJ47" s="21"/>
+      <c r="AK47" s="21"/>
+      <c r="AL47" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="18"/>
-      <c r="AN47" s="18"/>
-      <c r="AO47" s="18"/>
-      <c r="AP47" s="18" t="s">
+      <c r="AM47" s="21"/>
+      <c r="AN47" s="21"/>
+      <c r="AO47" s="21"/>
+      <c r="AP47" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="18"/>
-      <c r="AR47" s="18"/>
-      <c r="AS47" s="18"/>
-      <c r="AT47" s="18" t="s">
+      <c r="AQ47" s="21"/>
+      <c r="AR47" s="21"/>
+      <c r="AS47" s="21"/>
+      <c r="AT47" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="18"/>
-      <c r="AV47" s="18"/>
-      <c r="AW47" s="18"/>
-      <c r="AX47" s="18" t="s">
+      <c r="AU47" s="21"/>
+      <c r="AV47" s="21"/>
+      <c r="AW47" s="21"/>
+      <c r="AX47" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="18"/>
-      <c r="AZ47" s="18"/>
-      <c r="BA47" s="18"/>
-      <c r="BB47" s="18" t="s">
+      <c r="AY47" s="21"/>
+      <c r="AZ47" s="21"/>
+      <c r="BA47" s="21"/>
+      <c r="BB47" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="18"/>
-      <c r="BD47" s="18"/>
-      <c r="BE47" s="18"/>
-      <c r="BF47" s="18" t="s">
+      <c r="BC47" s="21"/>
+      <c r="BD47" s="21"/>
+      <c r="BE47" s="21"/>
+      <c r="BF47" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="18"/>
-      <c r="BH47" s="18"/>
-      <c r="BI47" s="18"/>
-      <c r="BJ47" s="18" t="s">
+      <c r="BG47" s="21"/>
+      <c r="BH47" s="21"/>
+      <c r="BI47" s="21"/>
+      <c r="BJ47" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="18"/>
-      <c r="BL47" s="18"/>
-      <c r="BM47" s="18"/>
-      <c r="BN47" s="18" t="s">
+      <c r="BK47" s="21"/>
+      <c r="BL47" s="21"/>
+      <c r="BM47" s="21"/>
+      <c r="BN47" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="18"/>
-      <c r="BP47" s="18"/>
-      <c r="BQ47" s="18"/>
-      <c r="BR47" s="18" t="s">
+      <c r="BO47" s="21"/>
+      <c r="BP47" s="21"/>
+      <c r="BQ47" s="21"/>
+      <c r="BR47" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="18"/>
-      <c r="BT47" s="18"/>
-      <c r="BU47" s="18"/>
-      <c r="BV47" s="18" t="s">
+      <c r="BS47" s="21"/>
+      <c r="BT47" s="21"/>
+      <c r="BU47" s="21"/>
+      <c r="BV47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="18"/>
-      <c r="BX47" s="18"/>
-      <c r="BY47" s="18"/>
-      <c r="BZ47" s="18" t="s">
+      <c r="BW47" s="21"/>
+      <c r="BX47" s="21"/>
+      <c r="BY47" s="21"/>
+      <c r="BZ47" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="18"/>
-      <c r="CB47" s="18"/>
-      <c r="CC47" s="18"/>
-      <c r="CD47" s="18" t="s">
+      <c r="CA47" s="21"/>
+      <c r="CB47" s="21"/>
+      <c r="CC47" s="21"/>
+      <c r="CD47" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="18"/>
-      <c r="CF47" s="18"/>
-      <c r="CG47" s="18"/>
-      <c r="CH47" s="18" t="s">
+      <c r="CE47" s="21"/>
+      <c r="CF47" s="21"/>
+      <c r="CG47" s="21"/>
+      <c r="CH47" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="18"/>
-      <c r="CJ47" s="18"/>
-      <c r="CK47" s="18"/>
-      <c r="CL47" s="18"/>
+      <c r="CI47" s="21"/>
+      <c r="CJ47" s="21"/>
+      <c r="CK47" s="21"/>
+      <c r="CL47" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="CM47" s="18"/>
       <c r="CN47" s="18"/>
       <c r="CO47" s="18"/>
+      <c r="CP47" s="18"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28722,10 +28759,13 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5"/>
+      <c r="CL48" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM48" s="5"/>
       <c r="CN48" s="5"/>
       <c r="CO48" s="5"/>
+      <c r="CP48" s="5"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -28998,11 +29038,13 @@
       <c r="CK50" s="15">
         <v>61.013836697111969</v>
       </c>
-      <c r="CL50" s="15"/>
+      <c r="CL50" s="15">
+        <v>64.578029200452619</v>
+      </c>
       <c r="CM50" s="15"/>
       <c r="CN50" s="15"/>
       <c r="CO50" s="15"/>
-      <c r="CP50" s="9"/>
+      <c r="CP50" s="15"/>
       <c r="CQ50" s="9"/>
       <c r="CR50" s="9"/>
       <c r="CS50" s="9"/>
@@ -29377,11 +29419,13 @@
       <c r="CK51" s="15">
         <v>40.281792753187631</v>
       </c>
-      <c r="CL51" s="15"/>
+      <c r="CL51" s="15">
+        <v>27.609078154534018</v>
+      </c>
       <c r="CM51" s="15"/>
       <c r="CN51" s="15"/>
       <c r="CO51" s="15"/>
-      <c r="CP51" s="9"/>
+      <c r="CP51" s="15"/>
       <c r="CQ51" s="9"/>
       <c r="CR51" s="9"/>
       <c r="CS51" s="9"/>
@@ -29957,11 +30001,13 @@
       <c r="CK53" s="15">
         <v>45.433069155918901</v>
       </c>
-      <c r="CL53" s="15"/>
+      <c r="CL53" s="15">
+        <v>35.870439753689055</v>
+      </c>
       <c r="CM53" s="15"/>
       <c r="CN53" s="15"/>
       <c r="CO53" s="15"/>
-      <c r="CP53" s="9"/>
+      <c r="CP53" s="15"/>
       <c r="CQ53" s="9"/>
       <c r="CR53" s="9"/>
       <c r="CS53" s="9"/>
@@ -30162,6 +30208,7 @@
       <c r="CM54" s="12"/>
       <c r="CN54" s="12"/>
       <c r="CO54" s="12"/>
+      <c r="CP54" s="12"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30580,7 +30627,7 @@
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
@@ -30590,7 +30637,7 @@
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
@@ -30600,142 +30647,145 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="18" t="s">
+      <c r="C66" s="23"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="18" t="s">
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="18" t="s">
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="18" t="s">
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="18" t="s">
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="20"/>
-      <c r="X66" s="20"/>
-      <c r="Y66" s="20"/>
-      <c r="Z66" s="18" t="s">
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="20"/>
-      <c r="AB66" s="20"/>
-      <c r="AC66" s="20"/>
-      <c r="AD66" s="18" t="s">
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="20"/>
-      <c r="AF66" s="20"/>
-      <c r="AG66" s="20"/>
-      <c r="AH66" s="18" t="s">
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="20"/>
-      <c r="AJ66" s="20"/>
-      <c r="AK66" s="20"/>
-      <c r="AL66" s="18" t="s">
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="20"/>
-      <c r="AN66" s="20"/>
-      <c r="AO66" s="20"/>
-      <c r="AP66" s="18" t="s">
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="23"/>
+      <c r="AP66" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="20"/>
-      <c r="AR66" s="20"/>
-      <c r="AS66" s="20"/>
-      <c r="AT66" s="18" t="s">
+      <c r="AQ66" s="23"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="20"/>
-      <c r="AV66" s="20"/>
-      <c r="AW66" s="20"/>
-      <c r="AX66" s="18" t="s">
+      <c r="AU66" s="23"/>
+      <c r="AV66" s="23"/>
+      <c r="AW66" s="23"/>
+      <c r="AX66" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="20"/>
-      <c r="AZ66" s="20"/>
-      <c r="BA66" s="20"/>
-      <c r="BB66" s="18" t="s">
+      <c r="AY66" s="23"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="23"/>
+      <c r="BB66" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="20"/>
-      <c r="BD66" s="20"/>
-      <c r="BE66" s="20"/>
-      <c r="BF66" s="18" t="s">
+      <c r="BC66" s="23"/>
+      <c r="BD66" s="23"/>
+      <c r="BE66" s="23"/>
+      <c r="BF66" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="20"/>
-      <c r="BH66" s="20"/>
-      <c r="BI66" s="20"/>
-      <c r="BJ66" s="18" t="s">
+      <c r="BG66" s="23"/>
+      <c r="BH66" s="23"/>
+      <c r="BI66" s="23"/>
+      <c r="BJ66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="20"/>
-      <c r="BL66" s="20"/>
-      <c r="BM66" s="20"/>
-      <c r="BN66" s="18" t="s">
+      <c r="BK66" s="23"/>
+      <c r="BL66" s="23"/>
+      <c r="BM66" s="23"/>
+      <c r="BN66" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="20"/>
-      <c r="BP66" s="20"/>
-      <c r="BQ66" s="20"/>
-      <c r="BR66" s="18" t="s">
+      <c r="BO66" s="23"/>
+      <c r="BP66" s="23"/>
+      <c r="BQ66" s="23"/>
+      <c r="BR66" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="20"/>
-      <c r="BT66" s="20"/>
-      <c r="BU66" s="20"/>
-      <c r="BV66" s="18" t="s">
+      <c r="BS66" s="23"/>
+      <c r="BT66" s="23"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="20"/>
-      <c r="BX66" s="20"/>
-      <c r="BY66" s="20"/>
-      <c r="BZ66" s="18" t="s">
+      <c r="BW66" s="23"/>
+      <c r="BX66" s="23"/>
+      <c r="BY66" s="23"/>
+      <c r="BZ66" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="20"/>
-      <c r="CB66" s="20"/>
-      <c r="CC66" s="20"/>
-      <c r="CD66" s="18" t="s">
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
+      <c r="CD66" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="20"/>
-      <c r="CF66" s="20"/>
-      <c r="CG66" s="20"/>
-      <c r="CH66" s="18" t="s">
+      <c r="CE66" s="21"/>
+      <c r="CF66" s="21"/>
+      <c r="CG66" s="21"/>
+      <c r="CH66" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="20"/>
-      <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
-      <c r="CL66" s="18"/>
-      <c r="CM66" s="20"/>
-      <c r="CN66" s="20"/>
-      <c r="CO66" s="20"/>
+      <c r="CI66" s="21"/>
+      <c r="CJ66" s="21"/>
+      <c r="CK66" s="21"/>
+      <c r="CL66" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM66" s="18"/>
+      <c r="CN66" s="18"/>
+      <c r="CO66" s="18"/>
+      <c r="CP66" s="18"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31005,10 +31055,13 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5"/>
+      <c r="CL67" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM67" s="5"/>
       <c r="CN67" s="5"/>
       <c r="CO67" s="5"/>
+      <c r="CP67" s="5"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31281,11 +31334,13 @@
       <c r="CK69" s="15">
         <v>55.033025224444145</v>
       </c>
-      <c r="CL69" s="15"/>
+      <c r="CL69" s="15">
+        <v>57.068784428469598</v>
+      </c>
       <c r="CM69" s="15"/>
       <c r="CN69" s="15"/>
       <c r="CO69" s="15"/>
-      <c r="CP69" s="9"/>
+      <c r="CP69" s="15"/>
       <c r="CQ69" s="9"/>
       <c r="CR69" s="9"/>
       <c r="CS69" s="9"/>
@@ -31660,11 +31715,13 @@
       <c r="CK70" s="15">
         <v>30.192654574671963</v>
       </c>
-      <c r="CL70" s="15"/>
+      <c r="CL70" s="15">
+        <v>17.524402880170413</v>
+      </c>
       <c r="CM70" s="15"/>
       <c r="CN70" s="15"/>
       <c r="CO70" s="15"/>
-      <c r="CP70" s="9"/>
+      <c r="CP70" s="15"/>
       <c r="CQ70" s="9"/>
       <c r="CR70" s="9"/>
       <c r="CS70" s="9"/>
@@ -32239,11 +32296,13 @@
       <c r="CK72" s="15">
         <v>36.740115853001356</v>
       </c>
-      <c r="CL72" s="15"/>
+      <c r="CL72" s="15">
+        <v>26.870823084644684</v>
+      </c>
       <c r="CM72" s="15"/>
       <c r="CN72" s="15"/>
       <c r="CO72" s="15"/>
-      <c r="CP72" s="9"/>
+      <c r="CP72" s="15"/>
       <c r="CQ72" s="9"/>
       <c r="CR72" s="9"/>
       <c r="CS72" s="9"/>
@@ -32444,6 +32503,7 @@
       <c r="CM73" s="12"/>
       <c r="CN73" s="12"/>
       <c r="CO73" s="12"/>
+      <c r="CP73" s="12"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32865,7 +32925,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -32875,7 +32935,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -32885,144 +32945,147 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="18">
+      <c r="B84" s="21">
         <v>2000</v>
       </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="18">
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="21">
         <v>2001</v>
       </c>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="18">
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="21">
         <v>2002</v>
       </c>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="18">
+      <c r="K84" s="22"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="21">
         <v>2003</v>
       </c>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="18">
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="21">
         <v>2004</v>
       </c>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="18">
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
+      <c r="V84" s="21">
         <v>2005</v>
       </c>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="19"/>
-      <c r="Z84" s="18">
+      <c r="W84" s="22"/>
+      <c r="X84" s="22"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="21">
         <v>2006</v>
       </c>
-      <c r="AA84" s="19"/>
-      <c r="AB84" s="19"/>
-      <c r="AC84" s="19"/>
-      <c r="AD84" s="18">
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="21">
         <v>2007</v>
       </c>
-      <c r="AE84" s="19"/>
-      <c r="AF84" s="19"/>
-      <c r="AG84" s="19"/>
-      <c r="AH84" s="18">
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
+      <c r="AG84" s="22"/>
+      <c r="AH84" s="21">
         <v>2008</v>
       </c>
-      <c r="AI84" s="19"/>
-      <c r="AJ84" s="19"/>
-      <c r="AK84" s="19"/>
-      <c r="AL84" s="18">
+      <c r="AI84" s="22"/>
+      <c r="AJ84" s="22"/>
+      <c r="AK84" s="22"/>
+      <c r="AL84" s="21">
         <v>2009</v>
       </c>
-      <c r="AM84" s="19"/>
-      <c r="AN84" s="19"/>
-      <c r="AO84" s="19"/>
-      <c r="AP84" s="18">
+      <c r="AM84" s="22"/>
+      <c r="AN84" s="22"/>
+      <c r="AO84" s="22"/>
+      <c r="AP84" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="19"/>
-      <c r="AR84" s="19"/>
-      <c r="AS84" s="19"/>
-      <c r="AT84" s="18">
+      <c r="AQ84" s="22"/>
+      <c r="AR84" s="22"/>
+      <c r="AS84" s="22"/>
+      <c r="AT84" s="21">
         <v>2011</v>
       </c>
-      <c r="AU84" s="19"/>
-      <c r="AV84" s="19"/>
-      <c r="AW84" s="19"/>
-      <c r="AX84" s="18">
+      <c r="AU84" s="22"/>
+      <c r="AV84" s="22"/>
+      <c r="AW84" s="22"/>
+      <c r="AX84" s="21">
         <v>2012</v>
       </c>
-      <c r="AY84" s="19"/>
-      <c r="AZ84" s="19"/>
-      <c r="BA84" s="19"/>
-      <c r="BB84" s="18">
+      <c r="AY84" s="22"/>
+      <c r="AZ84" s="22"/>
+      <c r="BA84" s="22"/>
+      <c r="BB84" s="21">
         <v>2013</v>
       </c>
-      <c r="BC84" s="19"/>
-      <c r="BD84" s="19"/>
-      <c r="BE84" s="19"/>
-      <c r="BF84" s="18">
+      <c r="BC84" s="22"/>
+      <c r="BD84" s="22"/>
+      <c r="BE84" s="22"/>
+      <c r="BF84" s="21">
         <v>2014</v>
       </c>
-      <c r="BG84" s="19"/>
-      <c r="BH84" s="19"/>
-      <c r="BI84" s="19"/>
-      <c r="BJ84" s="18">
+      <c r="BG84" s="22"/>
+      <c r="BH84" s="22"/>
+      <c r="BI84" s="22"/>
+      <c r="BJ84" s="21">
         <v>2015</v>
       </c>
-      <c r="BK84" s="19"/>
-      <c r="BL84" s="19"/>
-      <c r="BM84" s="19"/>
-      <c r="BN84" s="18">
+      <c r="BK84" s="22"/>
+      <c r="BL84" s="22"/>
+      <c r="BM84" s="22"/>
+      <c r="BN84" s="21">
         <v>2016</v>
       </c>
-      <c r="BO84" s="19"/>
-      <c r="BP84" s="19"/>
-      <c r="BQ84" s="19"/>
-      <c r="BR84" s="18">
+      <c r="BO84" s="22"/>
+      <c r="BP84" s="22"/>
+      <c r="BQ84" s="22"/>
+      <c r="BR84" s="21">
         <v>2017</v>
       </c>
-      <c r="BS84" s="19"/>
-      <c r="BT84" s="19"/>
-      <c r="BU84" s="19"/>
-      <c r="BV84" s="18">
+      <c r="BS84" s="22"/>
+      <c r="BT84" s="22"/>
+      <c r="BU84" s="22"/>
+      <c r="BV84" s="21">
         <v>2018</v>
       </c>
-      <c r="BW84" s="19"/>
-      <c r="BX84" s="19"/>
-      <c r="BY84" s="19"/>
-      <c r="BZ84" s="18">
+      <c r="BW84" s="22"/>
+      <c r="BX84" s="22"/>
+      <c r="BY84" s="22"/>
+      <c r="BZ84" s="21">
         <v>2019</v>
       </c>
-      <c r="CA84" s="19"/>
-      <c r="CB84" s="19"/>
-      <c r="CC84" s="19"/>
-      <c r="CD84" s="18">
+      <c r="CA84" s="22"/>
+      <c r="CB84" s="22"/>
+      <c r="CC84" s="22"/>
+      <c r="CD84" s="21">
         <v>2020</v>
       </c>
-      <c r="CE84" s="19"/>
-      <c r="CF84" s="19"/>
-      <c r="CG84" s="19"/>
-      <c r="CH84" s="18">
+      <c r="CE84" s="21"/>
+      <c r="CF84" s="21"/>
+      <c r="CG84" s="21"/>
+      <c r="CH84" s="21">
         <v>2021</v>
       </c>
-      <c r="CI84" s="19"/>
-      <c r="CJ84" s="19"/>
-      <c r="CK84" s="19"/>
-      <c r="CL84" s="18">
+      <c r="CI84" s="21"/>
+      <c r="CJ84" s="21"/>
+      <c r="CK84" s="21"/>
+      <c r="CL84" s="21">
         <v>2022</v>
       </c>
-      <c r="CM84" s="19"/>
-      <c r="CN84" s="19"/>
-      <c r="CO84" s="19"/>
+      <c r="CM84" s="21"/>
+      <c r="CN84" s="21"/>
+      <c r="CO84" s="21"/>
+      <c r="CP84" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33303,6 +33366,9 @@
       </c>
       <c r="CO85" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP85" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33588,7 +33654,9 @@
       <c r="CO87" s="15">
         <v>112.23784641131911</v>
       </c>
-      <c r="CP87" s="9"/>
+      <c r="CP87" s="15">
+        <v>118.290192212516</v>
+      </c>
       <c r="CQ87" s="9"/>
       <c r="CR87" s="9"/>
       <c r="CS87" s="9"/>
@@ -33979,7 +34047,9 @@
       <c r="CO88" s="15">
         <v>126.06058661417178</v>
       </c>
-      <c r="CP88" s="9"/>
+      <c r="CP88" s="15">
+        <v>131.83570731057097</v>
+      </c>
       <c r="CQ88" s="9"/>
       <c r="CR88" s="9"/>
       <c r="CS88" s="9"/>
@@ -34574,7 +34644,9 @@
       <c r="CO90" s="15">
         <v>121.92975691623928</v>
       </c>
-      <c r="CP90" s="9"/>
+      <c r="CP90" s="15">
+        <v>127.872158921123</v>
+      </c>
       <c r="CQ90" s="9"/>
       <c r="CR90" s="9"/>
       <c r="CS90" s="9"/>
@@ -34779,6 +34851,7 @@
       <c r="CM91" s="12"/>
       <c r="CN91" s="12"/>
       <c r="CO91" s="12"/>
+      <c r="CP91" s="12"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -34797,7 +34870,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -34807,7 +34880,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -34817,144 +34890,147 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="18">
+      <c r="B103" s="21">
         <v>2000</v>
       </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="18">
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21">
         <v>2001</v>
       </c>
-      <c r="G103" s="19"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="18">
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="22"/>
+      <c r="J103" s="21">
         <v>2002</v>
       </c>
-      <c r="K103" s="19"/>
-      <c r="L103" s="19"/>
-      <c r="M103" s="19"/>
-      <c r="N103" s="18">
+      <c r="K103" s="22"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="21">
         <v>2003</v>
       </c>
-      <c r="O103" s="19"/>
-      <c r="P103" s="19"/>
-      <c r="Q103" s="19"/>
-      <c r="R103" s="18">
+      <c r="O103" s="22"/>
+      <c r="P103" s="22"/>
+      <c r="Q103" s="22"/>
+      <c r="R103" s="21">
         <v>2004</v>
       </c>
-      <c r="S103" s="19"/>
-      <c r="T103" s="19"/>
-      <c r="U103" s="19"/>
-      <c r="V103" s="18">
+      <c r="S103" s="22"/>
+      <c r="T103" s="22"/>
+      <c r="U103" s="22"/>
+      <c r="V103" s="21">
         <v>2005</v>
       </c>
-      <c r="W103" s="19"/>
-      <c r="X103" s="19"/>
-      <c r="Y103" s="19"/>
-      <c r="Z103" s="18">
+      <c r="W103" s="22"/>
+      <c r="X103" s="22"/>
+      <c r="Y103" s="22"/>
+      <c r="Z103" s="21">
         <v>2006</v>
       </c>
-      <c r="AA103" s="19"/>
-      <c r="AB103" s="19"/>
-      <c r="AC103" s="19"/>
-      <c r="AD103" s="18">
+      <c r="AA103" s="22"/>
+      <c r="AB103" s="22"/>
+      <c r="AC103" s="22"/>
+      <c r="AD103" s="21">
         <v>2007</v>
       </c>
-      <c r="AE103" s="19"/>
-      <c r="AF103" s="19"/>
-      <c r="AG103" s="19"/>
-      <c r="AH103" s="18">
+      <c r="AE103" s="22"/>
+      <c r="AF103" s="22"/>
+      <c r="AG103" s="22"/>
+      <c r="AH103" s="21">
         <v>2008</v>
       </c>
-      <c r="AI103" s="19"/>
-      <c r="AJ103" s="19"/>
-      <c r="AK103" s="19"/>
-      <c r="AL103" s="18">
+      <c r="AI103" s="22"/>
+      <c r="AJ103" s="22"/>
+      <c r="AK103" s="22"/>
+      <c r="AL103" s="21">
         <v>2009</v>
       </c>
-      <c r="AM103" s="19"/>
-      <c r="AN103" s="19"/>
-      <c r="AO103" s="19"/>
-      <c r="AP103" s="18">
+      <c r="AM103" s="22"/>
+      <c r="AN103" s="22"/>
+      <c r="AO103" s="22"/>
+      <c r="AP103" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="19"/>
-      <c r="AR103" s="19"/>
-      <c r="AS103" s="19"/>
-      <c r="AT103" s="18">
+      <c r="AQ103" s="22"/>
+      <c r="AR103" s="22"/>
+      <c r="AS103" s="22"/>
+      <c r="AT103" s="21">
         <v>2011</v>
       </c>
-      <c r="AU103" s="19"/>
-      <c r="AV103" s="19"/>
-      <c r="AW103" s="19"/>
-      <c r="AX103" s="18">
+      <c r="AU103" s="22"/>
+      <c r="AV103" s="22"/>
+      <c r="AW103" s="22"/>
+      <c r="AX103" s="21">
         <v>2012</v>
       </c>
-      <c r="AY103" s="19"/>
-      <c r="AZ103" s="19"/>
-      <c r="BA103" s="19"/>
-      <c r="BB103" s="18">
+      <c r="AY103" s="22"/>
+      <c r="AZ103" s="22"/>
+      <c r="BA103" s="22"/>
+      <c r="BB103" s="21">
         <v>2013</v>
       </c>
-      <c r="BC103" s="19"/>
-      <c r="BD103" s="19"/>
-      <c r="BE103" s="19"/>
-      <c r="BF103" s="18">
+      <c r="BC103" s="22"/>
+      <c r="BD103" s="22"/>
+      <c r="BE103" s="22"/>
+      <c r="BF103" s="21">
         <v>2014</v>
       </c>
-      <c r="BG103" s="19"/>
-      <c r="BH103" s="19"/>
-      <c r="BI103" s="19"/>
-      <c r="BJ103" s="18">
+      <c r="BG103" s="22"/>
+      <c r="BH103" s="22"/>
+      <c r="BI103" s="22"/>
+      <c r="BJ103" s="21">
         <v>2015</v>
       </c>
-      <c r="BK103" s="19"/>
-      <c r="BL103" s="19"/>
-      <c r="BM103" s="19"/>
-      <c r="BN103" s="18">
+      <c r="BK103" s="22"/>
+      <c r="BL103" s="22"/>
+      <c r="BM103" s="22"/>
+      <c r="BN103" s="21">
         <v>2016</v>
       </c>
-      <c r="BO103" s="19"/>
-      <c r="BP103" s="19"/>
-      <c r="BQ103" s="19"/>
-      <c r="BR103" s="18">
+      <c r="BO103" s="22"/>
+      <c r="BP103" s="22"/>
+      <c r="BQ103" s="22"/>
+      <c r="BR103" s="21">
         <v>2017</v>
       </c>
-      <c r="BS103" s="19"/>
-      <c r="BT103" s="19"/>
-      <c r="BU103" s="19"/>
-      <c r="BV103" s="18">
+      <c r="BS103" s="22"/>
+      <c r="BT103" s="22"/>
+      <c r="BU103" s="22"/>
+      <c r="BV103" s="21">
         <v>2018</v>
       </c>
-      <c r="BW103" s="19"/>
-      <c r="BX103" s="19"/>
-      <c r="BY103" s="19"/>
-      <c r="BZ103" s="18">
+      <c r="BW103" s="22"/>
+      <c r="BX103" s="22"/>
+      <c r="BY103" s="22"/>
+      <c r="BZ103" s="21">
         <v>2019</v>
       </c>
-      <c r="CA103" s="19"/>
-      <c r="CB103" s="19"/>
-      <c r="CC103" s="19"/>
-      <c r="CD103" s="18">
+      <c r="CA103" s="22"/>
+      <c r="CB103" s="22"/>
+      <c r="CC103" s="22"/>
+      <c r="CD103" s="21">
         <v>2020</v>
       </c>
-      <c r="CE103" s="19"/>
-      <c r="CF103" s="19"/>
-      <c r="CG103" s="19"/>
-      <c r="CH103" s="18">
+      <c r="CE103" s="21"/>
+      <c r="CF103" s="21"/>
+      <c r="CG103" s="21"/>
+      <c r="CH103" s="21">
         <v>2021</v>
       </c>
-      <c r="CI103" s="19"/>
-      <c r="CJ103" s="19"/>
-      <c r="CK103" s="19"/>
-      <c r="CL103" s="18">
+      <c r="CI103" s="21"/>
+      <c r="CJ103" s="21"/>
+      <c r="CK103" s="21"/>
+      <c r="CL103" s="21">
         <v>2022</v>
       </c>
-      <c r="CM103" s="19"/>
-      <c r="CN103" s="19"/>
-      <c r="CO103" s="19"/>
+      <c r="CM103" s="21"/>
+      <c r="CN103" s="21"/>
+      <c r="CO103" s="21"/>
+      <c r="CP103" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35235,6 +35311,9 @@
       </c>
       <c r="CO104" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP104" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35520,7 +35599,9 @@
       <c r="CO106" s="15">
         <v>27.508870704678333</v>
       </c>
-      <c r="CP106" s="9"/>
+      <c r="CP106" s="15">
+        <v>27.068324851120963</v>
+      </c>
       <c r="CQ106" s="9"/>
       <c r="CR106" s="9"/>
       <c r="CS106" s="9"/>
@@ -35911,7 +35992,9 @@
       <c r="CO107" s="15">
         <v>72.491129295321656</v>
       </c>
-      <c r="CP107" s="9"/>
+      <c r="CP107" s="15">
+        <v>72.931675148879023</v>
+      </c>
       <c r="CQ107" s="9"/>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
@@ -36506,7 +36589,9 @@
       <c r="CO109" s="15">
         <v>100</v>
       </c>
-      <c r="CP109" s="9"/>
+      <c r="CP109" s="15">
+        <v>100</v>
+      </c>
       <c r="CQ109" s="9"/>
       <c r="CR109" s="9"/>
       <c r="CS109" s="9"/>
@@ -36711,6 +36796,7 @@
       <c r="CM110" s="12"/>
       <c r="CN110" s="12"/>
       <c r="CO110" s="12"/>
+      <c r="CP110" s="12"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37137,7 +37223,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37147,7 +37233,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37157,144 +37243,147 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="18">
+      <c r="B122" s="21">
         <v>2000</v>
       </c>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="18">
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+      <c r="E122" s="22"/>
+      <c r="F122" s="21">
         <v>2001</v>
       </c>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="18">
+      <c r="G122" s="22"/>
+      <c r="H122" s="22"/>
+      <c r="I122" s="22"/>
+      <c r="J122" s="21">
         <v>2002</v>
       </c>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="18">
+      <c r="K122" s="22"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="22"/>
+      <c r="N122" s="21">
         <v>2003</v>
       </c>
-      <c r="O122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-      <c r="R122" s="18">
+      <c r="O122" s="22"/>
+      <c r="P122" s="22"/>
+      <c r="Q122" s="22"/>
+      <c r="R122" s="21">
         <v>2004</v>
       </c>
-      <c r="S122" s="19"/>
-      <c r="T122" s="19"/>
-      <c r="U122" s="19"/>
-      <c r="V122" s="18">
+      <c r="S122" s="22"/>
+      <c r="T122" s="22"/>
+      <c r="U122" s="22"/>
+      <c r="V122" s="21">
         <v>2005</v>
       </c>
-      <c r="W122" s="19"/>
-      <c r="X122" s="19"/>
-      <c r="Y122" s="19"/>
-      <c r="Z122" s="18">
+      <c r="W122" s="22"/>
+      <c r="X122" s="22"/>
+      <c r="Y122" s="22"/>
+      <c r="Z122" s="21">
         <v>2006</v>
       </c>
-      <c r="AA122" s="19"/>
-      <c r="AB122" s="19"/>
-      <c r="AC122" s="19"/>
-      <c r="AD122" s="18">
+      <c r="AA122" s="22"/>
+      <c r="AB122" s="22"/>
+      <c r="AC122" s="22"/>
+      <c r="AD122" s="21">
         <v>2007</v>
       </c>
-      <c r="AE122" s="19"/>
-      <c r="AF122" s="19"/>
-      <c r="AG122" s="19"/>
-      <c r="AH122" s="18">
+      <c r="AE122" s="22"/>
+      <c r="AF122" s="22"/>
+      <c r="AG122" s="22"/>
+      <c r="AH122" s="21">
         <v>2008</v>
       </c>
-      <c r="AI122" s="19"/>
-      <c r="AJ122" s="19"/>
-      <c r="AK122" s="19"/>
-      <c r="AL122" s="18">
+      <c r="AI122" s="22"/>
+      <c r="AJ122" s="22"/>
+      <c r="AK122" s="22"/>
+      <c r="AL122" s="21">
         <v>2009</v>
       </c>
-      <c r="AM122" s="19"/>
-      <c r="AN122" s="19"/>
-      <c r="AO122" s="19"/>
-      <c r="AP122" s="18">
+      <c r="AM122" s="22"/>
+      <c r="AN122" s="22"/>
+      <c r="AO122" s="22"/>
+      <c r="AP122" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="19"/>
-      <c r="AR122" s="19"/>
-      <c r="AS122" s="19"/>
-      <c r="AT122" s="18">
+      <c r="AQ122" s="22"/>
+      <c r="AR122" s="22"/>
+      <c r="AS122" s="22"/>
+      <c r="AT122" s="21">
         <v>2011</v>
       </c>
-      <c r="AU122" s="19"/>
-      <c r="AV122" s="19"/>
-      <c r="AW122" s="19"/>
-      <c r="AX122" s="18">
+      <c r="AU122" s="22"/>
+      <c r="AV122" s="22"/>
+      <c r="AW122" s="22"/>
+      <c r="AX122" s="21">
         <v>2012</v>
       </c>
-      <c r="AY122" s="19"/>
-      <c r="AZ122" s="19"/>
-      <c r="BA122" s="19"/>
-      <c r="BB122" s="18">
+      <c r="AY122" s="22"/>
+      <c r="AZ122" s="22"/>
+      <c r="BA122" s="22"/>
+      <c r="BB122" s="21">
         <v>2013</v>
       </c>
-      <c r="BC122" s="19"/>
-      <c r="BD122" s="19"/>
-      <c r="BE122" s="19"/>
-      <c r="BF122" s="18">
+      <c r="BC122" s="22"/>
+      <c r="BD122" s="22"/>
+      <c r="BE122" s="22"/>
+      <c r="BF122" s="21">
         <v>2014</v>
       </c>
-      <c r="BG122" s="19"/>
-      <c r="BH122" s="19"/>
-      <c r="BI122" s="19"/>
-      <c r="BJ122" s="18">
+      <c r="BG122" s="22"/>
+      <c r="BH122" s="22"/>
+      <c r="BI122" s="22"/>
+      <c r="BJ122" s="21">
         <v>2015</v>
       </c>
-      <c r="BK122" s="19"/>
-      <c r="BL122" s="19"/>
-      <c r="BM122" s="19"/>
-      <c r="BN122" s="18">
+      <c r="BK122" s="22"/>
+      <c r="BL122" s="22"/>
+      <c r="BM122" s="22"/>
+      <c r="BN122" s="21">
         <v>2016</v>
       </c>
-      <c r="BO122" s="19"/>
-      <c r="BP122" s="19"/>
-      <c r="BQ122" s="19"/>
-      <c r="BR122" s="18">
+      <c r="BO122" s="22"/>
+      <c r="BP122" s="22"/>
+      <c r="BQ122" s="22"/>
+      <c r="BR122" s="21">
         <v>2017</v>
       </c>
-      <c r="BS122" s="19"/>
-      <c r="BT122" s="19"/>
-      <c r="BU122" s="19"/>
-      <c r="BV122" s="18">
+      <c r="BS122" s="22"/>
+      <c r="BT122" s="22"/>
+      <c r="BU122" s="22"/>
+      <c r="BV122" s="21">
         <v>2018</v>
       </c>
-      <c r="BW122" s="19"/>
-      <c r="BX122" s="19"/>
-      <c r="BY122" s="19"/>
-      <c r="BZ122" s="18">
+      <c r="BW122" s="22"/>
+      <c r="BX122" s="22"/>
+      <c r="BY122" s="22"/>
+      <c r="BZ122" s="21">
         <v>2019</v>
       </c>
-      <c r="CA122" s="19"/>
-      <c r="CB122" s="19"/>
-      <c r="CC122" s="19"/>
-      <c r="CD122" s="18">
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
+      <c r="CD122" s="21">
         <v>2020</v>
       </c>
-      <c r="CE122" s="19"/>
-      <c r="CF122" s="19"/>
-      <c r="CG122" s="19"/>
-      <c r="CH122" s="18">
+      <c r="CE122" s="21"/>
+      <c r="CF122" s="21"/>
+      <c r="CG122" s="21"/>
+      <c r="CH122" s="21">
         <v>2021</v>
       </c>
-      <c r="CI122" s="19"/>
-      <c r="CJ122" s="19"/>
-      <c r="CK122" s="19"/>
-      <c r="CL122" s="18">
+      <c r="CI122" s="21"/>
+      <c r="CJ122" s="21"/>
+      <c r="CK122" s="21"/>
+      <c r="CL122" s="21">
         <v>2022</v>
       </c>
-      <c r="CM122" s="19"/>
-      <c r="CN122" s="19"/>
-      <c r="CO122" s="19"/>
+      <c r="CM122" s="21"/>
+      <c r="CN122" s="21"/>
+      <c r="CO122" s="21"/>
+      <c r="CP122" s="18">
+        <v>2023</v>
+      </c>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37575,6 +37664,9 @@
       </c>
       <c r="CO123" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP123" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37860,7 +37952,9 @@
       <c r="CO125" s="15">
         <v>29.884303960802139</v>
       </c>
-      <c r="CP125" s="9"/>
+      <c r="CP125" s="15">
+        <v>29.260964686511791</v>
+      </c>
       <c r="CQ125" s="9"/>
       <c r="CR125" s="9"/>
       <c r="CS125" s="9"/>
@@ -38251,7 +38345,9 @@
       <c r="CO126" s="15">
         <v>70.115696039197857</v>
       </c>
-      <c r="CP126" s="9"/>
+      <c r="CP126" s="15">
+        <v>70.739035313488202</v>
+      </c>
       <c r="CQ126" s="9"/>
       <c r="CR126" s="9"/>
       <c r="CS126" s="9"/>
@@ -38846,7 +38942,9 @@
       <c r="CO128" s="15">
         <v>100</v>
       </c>
-      <c r="CP128" s="9"/>
+      <c r="CP128" s="15">
+        <v>100</v>
+      </c>
       <c r="CQ128" s="9"/>
       <c r="CR128" s="9"/>
       <c r="CS128" s="9"/>
@@ -39051,6 +39149,7 @@
       <c r="CM129" s="12"/>
       <c r="CN129" s="12"/>
       <c r="CO129" s="12"/>
+      <c r="CP129" s="12"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39151,7 +39250,7 @@
       <c r="CM131" s="1"/>
       <c r="CN131" s="1"/>
       <c r="CO131" s="1"/>
-      <c r="CP131" s="16"/>
+      <c r="CP131" s="1"/>
       <c r="CQ131" s="16"/>
       <c r="CR131" s="16"/>
       <c r="CS131" s="16"/>
@@ -39356,7 +39455,7 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
       <c r="CO132" s="1"/>
-      <c r="CP132" s="16"/>
+      <c r="CP132" s="1"/>
       <c r="CQ132" s="16"/>
       <c r="CR132" s="16"/>
       <c r="CS132" s="16"/>
@@ -39468,7 +39567,7 @@
       <c r="GU132" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="159">
     <mergeCell ref="B122:E122"/>
     <mergeCell ref="F122:I122"/>
     <mergeCell ref="J122:M122"/>
@@ -39628,17 +39727,15 @@
     <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="CD103:CG103"/>
     <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CL66:CO66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="92" man="1"/>
-    <brk id="76" max="92" man="1"/>
-    <brk id="94" max="92" man="1"/>
+    <brk id="38" max="93" man="1"/>
+    <brk id="76" max="93" man="1"/>
+    <brk id="94" max="93" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2132ACF-41D2-4E89-8157-D010AD3DA15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E6E8F-1B73-42A6-B4F9-CBD17D5989FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="2340" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CP$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CQ$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,13 +617,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -739,9 +739,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23603,14 +23600,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CR3" sqref="CR3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="94" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="95" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23645,147 +23642,148 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="21"/>
-      <c r="CO9" s="21"/>
-      <c r="CP9" s="18">
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
+      <c r="CP9" s="20">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="22"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24069,6 +24067,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24318,46 +24319,48 @@
       <c r="CC12" s="8">
         <v>41915.822312789198</v>
       </c>
-      <c r="CD12" s="19">
+      <c r="CD12" s="18">
         <v>32535.792962124964</v>
       </c>
-      <c r="CE12" s="19">
+      <c r="CE12" s="18">
         <v>9782.8104847882059</v>
       </c>
-      <c r="CF12" s="19">
+      <c r="CF12" s="18">
         <v>11523.24586456906</v>
       </c>
-      <c r="CG12" s="19">
+      <c r="CG12" s="18">
         <v>16316.674780339399</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="18">
         <v>18245.77194646827</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="18">
         <v>11707.296323984163</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="18">
         <v>12514.2688316575</v>
       </c>
-      <c r="CK12" s="19">
+      <c r="CK12" s="18">
         <v>20982.743841316627</v>
       </c>
-      <c r="CL12" s="19">
+      <c r="CL12" s="18">
         <v>22322.262683393026</v>
       </c>
-      <c r="CM12" s="19">
+      <c r="CM12" s="18">
         <v>20822.70058913936</v>
       </c>
-      <c r="CN12" s="19">
+      <c r="CN12" s="18">
         <v>22543.517584578036</v>
       </c>
-      <c r="CO12" s="19">
+      <c r="CO12" s="18">
         <v>33785.120903230876</v>
       </c>
-      <c r="CP12" s="19">
-        <v>36737.539997276312</v>
-      </c>
-      <c r="CQ12" s="9"/>
+      <c r="CP12" s="18">
+        <v>38087.235358183301</v>
+      </c>
+      <c r="CQ12" s="18">
+        <v>29997.862699271078</v>
+      </c>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
@@ -24711,46 +24714,48 @@
       <c r="CC13" s="8">
         <v>74388.714998208394</v>
       </c>
-      <c r="CD13" s="19">
+      <c r="CD13" s="18">
         <v>66238.018732649813</v>
       </c>
-      <c r="CE13" s="19">
+      <c r="CE13" s="18">
         <v>24249.578814919303</v>
       </c>
-      <c r="CF13" s="19">
+      <c r="CF13" s="18">
         <v>40702.51070718393</v>
       </c>
-      <c r="CG13" s="19">
+      <c r="CG13" s="18">
         <v>51664.598900513491</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="18">
         <v>62583.314874735559</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="18">
         <v>45928.382212957295</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="18">
         <v>49759.949187621067</v>
       </c>
-      <c r="CK13" s="19">
+      <c r="CK13" s="18">
         <v>63465.290659731603</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="18">
         <v>77568.127837813096</v>
       </c>
-      <c r="CM13" s="19">
+      <c r="CM13" s="18">
         <v>59307.20143239318</v>
       </c>
-      <c r="CN13" s="19">
+      <c r="CN13" s="18">
         <v>69694.055287976895</v>
       </c>
-      <c r="CO13" s="19">
+      <c r="CO13" s="18">
         <v>89030.247513492825</v>
       </c>
-      <c r="CP13" s="19">
-        <v>98983.972875563777</v>
-      </c>
-      <c r="CQ13" s="9"/>
+      <c r="CP13" s="18">
+        <v>98509.509651755565</v>
+      </c>
+      <c r="CQ13" s="18">
+        <v>77467.844951715844</v>
+      </c>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
@@ -25308,46 +25313,48 @@
       <c r="CC15" s="11">
         <v>116304.53731099759</v>
       </c>
-      <c r="CD15" s="20">
+      <c r="CD15" s="19">
         <v>98773.811694774777</v>
       </c>
-      <c r="CE15" s="20">
+      <c r="CE15" s="19">
         <v>34032.389299707509</v>
       </c>
-      <c r="CF15" s="20">
+      <c r="CF15" s="19">
         <v>52225.756571752994</v>
       </c>
-      <c r="CG15" s="20">
+      <c r="CG15" s="19">
         <v>67981.273680852886</v>
       </c>
-      <c r="CH15" s="20">
+      <c r="CH15" s="19">
         <v>80829.086821203833</v>
       </c>
-      <c r="CI15" s="20">
+      <c r="CI15" s="19">
         <v>57635.678536941457</v>
       </c>
-      <c r="CJ15" s="20">
+      <c r="CJ15" s="19">
         <v>62274.218019278567</v>
       </c>
-      <c r="CK15" s="20">
+      <c r="CK15" s="19">
         <v>84448.034501048227</v>
       </c>
-      <c r="CL15" s="20">
+      <c r="CL15" s="19">
         <v>99890.390521206122</v>
       </c>
-      <c r="CM15" s="20">
+      <c r="CM15" s="19">
         <v>80129.902021532544</v>
       </c>
-      <c r="CN15" s="20">
+      <c r="CN15" s="19">
         <v>92237.572872554927</v>
       </c>
-      <c r="CO15" s="20">
+      <c r="CO15" s="19">
         <v>122815.36841672371</v>
       </c>
-      <c r="CP15" s="20">
-        <v>135721.5128728401</v>
-      </c>
-      <c r="CQ15" s="9"/>
+      <c r="CP15" s="19">
+        <v>136596.74500993887</v>
+      </c>
+      <c r="CQ15" s="19">
+        <v>107465.70765098692</v>
+      </c>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
@@ -25552,6 +25559,7 @@
       <c r="CN16" s="12"/>
       <c r="CO16" s="12"/>
       <c r="CP16" s="12"/>
+      <c r="CQ16" s="12"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25856,7 +25864,7 @@
       <c r="CN19" s="14"/>
       <c r="CO19" s="14"/>
       <c r="CP19" s="14"/>
-      <c r="CQ19" s="9"/>
+      <c r="CQ19" s="14"/>
       <c r="CR19" s="9"/>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
@@ -25998,147 +26006,148 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>2000</v>
       </c>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21">
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20">
         <v>2001</v>
       </c>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="21">
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="20">
         <v>2002</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="21">
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="20">
         <v>2003</v>
       </c>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="21">
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="20">
         <v>2004</v>
       </c>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="21">
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="20">
         <v>2005</v>
       </c>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="21">
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="20">
         <v>2006</v>
       </c>
-      <c r="AA28" s="22"/>
-      <c r="AB28" s="22"/>
-      <c r="AC28" s="22"/>
-      <c r="AD28" s="21">
+      <c r="AA28" s="21"/>
+      <c r="AB28" s="21"/>
+      <c r="AC28" s="21"/>
+      <c r="AD28" s="20">
         <v>2007</v>
       </c>
-      <c r="AE28" s="22"/>
-      <c r="AF28" s="22"/>
-      <c r="AG28" s="22"/>
-      <c r="AH28" s="21">
+      <c r="AE28" s="21"/>
+      <c r="AF28" s="21"/>
+      <c r="AG28" s="21"/>
+      <c r="AH28" s="20">
         <v>2008</v>
       </c>
-      <c r="AI28" s="22"/>
-      <c r="AJ28" s="22"/>
-      <c r="AK28" s="22"/>
-      <c r="AL28" s="21">
+      <c r="AI28" s="21"/>
+      <c r="AJ28" s="21"/>
+      <c r="AK28" s="21"/>
+      <c r="AL28" s="20">
         <v>2009</v>
       </c>
-      <c r="AM28" s="22"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="22"/>
-      <c r="AP28" s="21">
+      <c r="AM28" s="21"/>
+      <c r="AN28" s="21"/>
+      <c r="AO28" s="21"/>
+      <c r="AP28" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="22"/>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="21">
+      <c r="AQ28" s="21"/>
+      <c r="AR28" s="21"/>
+      <c r="AS28" s="21"/>
+      <c r="AT28" s="20">
         <v>2011</v>
       </c>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="21">
+      <c r="AU28" s="21"/>
+      <c r="AV28" s="21"/>
+      <c r="AW28" s="21"/>
+      <c r="AX28" s="20">
         <v>2012</v>
       </c>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="21">
+      <c r="AY28" s="21"/>
+      <c r="AZ28" s="21"/>
+      <c r="BA28" s="21"/>
+      <c r="BB28" s="20">
         <v>2013</v>
       </c>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="21">
+      <c r="BC28" s="21"/>
+      <c r="BD28" s="21"/>
+      <c r="BE28" s="21"/>
+      <c r="BF28" s="20">
         <v>2014</v>
       </c>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="21">
+      <c r="BG28" s="21"/>
+      <c r="BH28" s="21"/>
+      <c r="BI28" s="21"/>
+      <c r="BJ28" s="20">
         <v>2015</v>
       </c>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="21">
+      <c r="BK28" s="21"/>
+      <c r="BL28" s="21"/>
+      <c r="BM28" s="21"/>
+      <c r="BN28" s="20">
         <v>2016</v>
       </c>
-      <c r="BO28" s="22"/>
-      <c r="BP28" s="22"/>
-      <c r="BQ28" s="22"/>
-      <c r="BR28" s="21">
+      <c r="BO28" s="21"/>
+      <c r="BP28" s="21"/>
+      <c r="BQ28" s="21"/>
+      <c r="BR28" s="20">
         <v>2017</v>
       </c>
-      <c r="BS28" s="22"/>
-      <c r="BT28" s="22"/>
-      <c r="BU28" s="22"/>
-      <c r="BV28" s="21">
+      <c r="BS28" s="21"/>
+      <c r="BT28" s="21"/>
+      <c r="BU28" s="21"/>
+      <c r="BV28" s="20">
         <v>2018</v>
       </c>
-      <c r="BW28" s="22"/>
-      <c r="BX28" s="22"/>
-      <c r="BY28" s="22"/>
-      <c r="BZ28" s="21">
+      <c r="BW28" s="21"/>
+      <c r="BX28" s="21"/>
+      <c r="BY28" s="21"/>
+      <c r="BZ28" s="20">
         <v>2019</v>
       </c>
-      <c r="CA28" s="22"/>
-      <c r="CB28" s="22"/>
-      <c r="CC28" s="22"/>
-      <c r="CD28" s="21">
+      <c r="CA28" s="21"/>
+      <c r="CB28" s="21"/>
+      <c r="CC28" s="21"/>
+      <c r="CD28" s="20">
         <v>2020</v>
       </c>
-      <c r="CE28" s="21"/>
-      <c r="CF28" s="21"/>
-      <c r="CG28" s="21"/>
-      <c r="CH28" s="21">
+      <c r="CE28" s="20"/>
+      <c r="CF28" s="20"/>
+      <c r="CG28" s="20"/>
+      <c r="CH28" s="20">
         <v>2021</v>
       </c>
-      <c r="CI28" s="21"/>
-      <c r="CJ28" s="21"/>
-      <c r="CK28" s="21"/>
-      <c r="CL28" s="21">
+      <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
+      <c r="CL28" s="20">
         <v>2022</v>
       </c>
-      <c r="CM28" s="21"/>
-      <c r="CN28" s="21"/>
-      <c r="CO28" s="21"/>
-      <c r="CP28" s="18">
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="20"/>
+      <c r="CO28" s="20"/>
+      <c r="CP28" s="20">
         <v>2023</v>
       </c>
+      <c r="CQ28" s="22"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26422,6 +26431,9 @@
       </c>
       <c r="CP29" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ29" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26671,46 +26683,48 @@
       <c r="CC31" s="8">
         <v>41140.67532850214</v>
       </c>
-      <c r="CD31" s="19">
+      <c r="CD31" s="18">
         <v>29908.993835339541</v>
       </c>
-      <c r="CE31" s="19">
+      <c r="CE31" s="18">
         <v>9519.6693135198984</v>
       </c>
-      <c r="CF31" s="19">
+      <c r="CF31" s="18">
         <v>10790.514664241546</v>
       </c>
-      <c r="CG31" s="19">
+      <c r="CG31" s="18">
         <v>15312.458414541812</v>
       </c>
-      <c r="CH31" s="19">
+      <c r="CH31" s="18">
         <v>16324.083844096935</v>
       </c>
-      <c r="CI31" s="19">
+      <c r="CI31" s="18">
         <v>11205.272574840264</v>
       </c>
-      <c r="CJ31" s="19">
+      <c r="CJ31" s="18">
         <v>11721.002586429966</v>
       </c>
-      <c r="CK31" s="19">
+      <c r="CK31" s="18">
         <v>19416.096899922053</v>
       </c>
-      <c r="CL31" s="19">
+      <c r="CL31" s="18">
         <v>19772.949251658556</v>
       </c>
-      <c r="CM31" s="19">
+      <c r="CM31" s="18">
         <v>18680.670524564997</v>
       </c>
-      <c r="CN31" s="19">
+      <c r="CN31" s="18">
         <v>20599.519887417155</v>
       </c>
-      <c r="CO31" s="19">
+      <c r="CO31" s="18">
         <v>30101.362404458672</v>
       </c>
-      <c r="CP31" s="19">
-        <v>31057.131035238272</v>
-      </c>
-      <c r="CQ31" s="9"/>
+      <c r="CP31" s="18">
+        <v>32198.134643113197</v>
+      </c>
+      <c r="CQ31" s="18">
+        <v>25676.790829229485</v>
+      </c>
       <c r="CR31" s="9"/>
       <c r="CS31" s="9"/>
       <c r="CT31" s="9"/>
@@ -27064,46 +27078,48 @@
       <c r="CC32" s="8">
         <v>72614.933555281517</v>
       </c>
-      <c r="CD32" s="19">
+      <c r="CD32" s="18">
         <v>59687.534315670113</v>
       </c>
-      <c r="CE32" s="19">
+      <c r="CE32" s="18">
         <v>22942.574172721172</v>
       </c>
-      <c r="CF32" s="19">
+      <c r="CF32" s="18">
         <v>37636.169876201551</v>
       </c>
-      <c r="CG32" s="19">
+      <c r="CG32" s="18">
         <v>46012.769983699865</v>
       </c>
-      <c r="CH32" s="19">
+      <c r="CH32" s="18">
         <v>53111.261375570801</v>
       </c>
-      <c r="CI32" s="19">
+      <c r="CI32" s="18">
         <v>39665.793819919112</v>
       </c>
-      <c r="CJ32" s="19">
+      <c r="CJ32" s="18">
         <v>42713.989678357771</v>
       </c>
-      <c r="CK32" s="19">
+      <c r="CK32" s="18">
         <v>54246.506521998381</v>
       </c>
-      <c r="CL32" s="19">
+      <c r="CL32" s="18">
         <v>63885.717107942037</v>
       </c>
-      <c r="CM32" s="19">
+      <c r="CM32" s="18">
         <v>47915.781996721969</v>
       </c>
-      <c r="CN32" s="19">
+      <c r="CN32" s="18">
         <v>56599.28675783363</v>
       </c>
-      <c r="CO32" s="19">
+      <c r="CO32" s="18">
         <v>70624.966855012244</v>
       </c>
-      <c r="CP32" s="19">
-        <v>75081.307556823755</v>
-      </c>
-      <c r="CQ32" s="9"/>
+      <c r="CP32" s="18">
+        <v>74717.583630875568</v>
+      </c>
+      <c r="CQ32" s="18">
+        <v>59784.260875440494</v>
+      </c>
       <c r="CR32" s="9"/>
       <c r="CS32" s="9"/>
       <c r="CT32" s="9"/>
@@ -27661,46 +27677,48 @@
       <c r="CC34" s="11">
         <v>113755.60888378366</v>
       </c>
-      <c r="CD34" s="20">
+      <c r="CD34" s="19">
         <v>89596.528151009654</v>
       </c>
-      <c r="CE34" s="20">
+      <c r="CE34" s="19">
         <v>32462.24348624107</v>
       </c>
-      <c r="CF34" s="20">
+      <c r="CF34" s="19">
         <v>48426.684540443093</v>
       </c>
-      <c r="CG34" s="20">
+      <c r="CG34" s="19">
         <v>61325.228398241677</v>
       </c>
-      <c r="CH34" s="20">
+      <c r="CH34" s="19">
         <v>69435.345219667739</v>
       </c>
-      <c r="CI34" s="20">
+      <c r="CI34" s="19">
         <v>50871.066394759378</v>
       </c>
-      <c r="CJ34" s="20">
+      <c r="CJ34" s="19">
         <v>54434.992264787739</v>
       </c>
-      <c r="CK34" s="20">
+      <c r="CK34" s="19">
         <v>73662.60342192043</v>
       </c>
-      <c r="CL34" s="20">
+      <c r="CL34" s="19">
         <v>83658.666359600596</v>
       </c>
-      <c r="CM34" s="20">
+      <c r="CM34" s="19">
         <v>66596.452521286963</v>
       </c>
-      <c r="CN34" s="20">
+      <c r="CN34" s="19">
         <v>77198.806645250792</v>
       </c>
-      <c r="CO34" s="20">
+      <c r="CO34" s="19">
         <v>100726.32925947092</v>
       </c>
-      <c r="CP34" s="20">
-        <v>106138.43859206203</v>
-      </c>
-      <c r="CQ34" s="9"/>
+      <c r="CP34" s="19">
+        <v>106915.71827398876</v>
+      </c>
+      <c r="CQ34" s="19">
+        <v>85461.051704669982</v>
+      </c>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
@@ -27905,6 +27923,7 @@
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
       <c r="CP35" s="12"/>
+      <c r="CQ35" s="12"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28351,145 +28370,146 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="21" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21" t="s">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21" t="s">
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21" t="s">
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="21"/>
-      <c r="X47" s="21"/>
-      <c r="Y47" s="21"/>
-      <c r="Z47" s="21" t="s">
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="21"/>
-      <c r="AB47" s="21"/>
-      <c r="AC47" s="21"/>
-      <c r="AD47" s="21" t="s">
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="20"/>
+      <c r="AD47" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="21"/>
-      <c r="AF47" s="21"/>
-      <c r="AG47" s="21"/>
-      <c r="AH47" s="21" t="s">
+      <c r="AE47" s="20"/>
+      <c r="AF47" s="20"/>
+      <c r="AG47" s="20"/>
+      <c r="AH47" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="21"/>
-      <c r="AJ47" s="21"/>
-      <c r="AK47" s="21"/>
-      <c r="AL47" s="21" t="s">
+      <c r="AI47" s="20"/>
+      <c r="AJ47" s="20"/>
+      <c r="AK47" s="20"/>
+      <c r="AL47" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="21"/>
-      <c r="AN47" s="21"/>
-      <c r="AO47" s="21"/>
-      <c r="AP47" s="21" t="s">
+      <c r="AM47" s="20"/>
+      <c r="AN47" s="20"/>
+      <c r="AO47" s="20"/>
+      <c r="AP47" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="21"/>
-      <c r="AR47" s="21"/>
-      <c r="AS47" s="21"/>
-      <c r="AT47" s="21" t="s">
+      <c r="AQ47" s="20"/>
+      <c r="AR47" s="20"/>
+      <c r="AS47" s="20"/>
+      <c r="AT47" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="21"/>
-      <c r="AV47" s="21"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21" t="s">
+      <c r="AU47" s="20"/>
+      <c r="AV47" s="20"/>
+      <c r="AW47" s="20"/>
+      <c r="AX47" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="21"/>
-      <c r="AZ47" s="21"/>
-      <c r="BA47" s="21"/>
-      <c r="BB47" s="21" t="s">
+      <c r="AY47" s="20"/>
+      <c r="AZ47" s="20"/>
+      <c r="BA47" s="20"/>
+      <c r="BB47" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="21"/>
-      <c r="BD47" s="21"/>
-      <c r="BE47" s="21"/>
-      <c r="BF47" s="21" t="s">
+      <c r="BC47" s="20"/>
+      <c r="BD47" s="20"/>
+      <c r="BE47" s="20"/>
+      <c r="BF47" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="21"/>
-      <c r="BH47" s="21"/>
-      <c r="BI47" s="21"/>
-      <c r="BJ47" s="21" t="s">
+      <c r="BG47" s="20"/>
+      <c r="BH47" s="20"/>
+      <c r="BI47" s="20"/>
+      <c r="BJ47" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="21"/>
-      <c r="BL47" s="21"/>
-      <c r="BM47" s="21"/>
-      <c r="BN47" s="21" t="s">
+      <c r="BK47" s="20"/>
+      <c r="BL47" s="20"/>
+      <c r="BM47" s="20"/>
+      <c r="BN47" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="21"/>
-      <c r="BP47" s="21"/>
-      <c r="BQ47" s="21"/>
-      <c r="BR47" s="21" t="s">
+      <c r="BO47" s="20"/>
+      <c r="BP47" s="20"/>
+      <c r="BQ47" s="20"/>
+      <c r="BR47" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="21"/>
-      <c r="BT47" s="21"/>
-      <c r="BU47" s="21"/>
-      <c r="BV47" s="21" t="s">
+      <c r="BS47" s="20"/>
+      <c r="BT47" s="20"/>
+      <c r="BU47" s="20"/>
+      <c r="BV47" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="21"/>
-      <c r="BX47" s="21"/>
-      <c r="BY47" s="21"/>
-      <c r="BZ47" s="21" t="s">
+      <c r="BW47" s="20"/>
+      <c r="BX47" s="20"/>
+      <c r="BY47" s="20"/>
+      <c r="BZ47" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="21"/>
-      <c r="CB47" s="21"/>
-      <c r="CC47" s="21"/>
-      <c r="CD47" s="21" t="s">
+      <c r="CA47" s="20"/>
+      <c r="CB47" s="20"/>
+      <c r="CC47" s="20"/>
+      <c r="CD47" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="21"/>
-      <c r="CF47" s="21"/>
-      <c r="CG47" s="21"/>
-      <c r="CH47" s="21" t="s">
+      <c r="CE47" s="20"/>
+      <c r="CF47" s="20"/>
+      <c r="CG47" s="20"/>
+      <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="21"/>
-      <c r="CJ47" s="21"/>
-      <c r="CK47" s="21"/>
-      <c r="CL47" s="18" t="s">
+      <c r="CI47" s="20"/>
+      <c r="CJ47" s="20"/>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="18"/>
-      <c r="CN47" s="18"/>
-      <c r="CO47" s="18"/>
-      <c r="CP47" s="18"/>
+      <c r="CM47" s="20"/>
+      <c r="CN47" s="20"/>
+      <c r="CO47" s="20"/>
+      <c r="CP47" s="20"/>
+      <c r="CQ47" s="22"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28762,10 +28782,13 @@
       <c r="CL48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5"/>
+      <c r="CM48" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN48" s="5"/>
       <c r="CO48" s="5"/>
       <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -29039,13 +29062,15 @@
         <v>61.013836697111969</v>
       </c>
       <c r="CL50" s="15">
-        <v>64.578029200452619</v>
-      </c>
-      <c r="CM50" s="15"/>
+        <v>70.624438473788132</v>
+      </c>
+      <c r="CM50" s="15">
+        <v>44.063266773942246</v>
+      </c>
       <c r="CN50" s="15"/>
       <c r="CO50" s="15"/>
       <c r="CP50" s="15"/>
-      <c r="CQ50" s="9"/>
+      <c r="CQ50" s="15"/>
       <c r="CR50" s="9"/>
       <c r="CS50" s="9"/>
       <c r="CT50" s="9"/>
@@ -29420,13 +29445,15 @@
         <v>40.281792753187631</v>
       </c>
       <c r="CL51" s="15">
-        <v>27.609078154534018</v>
-      </c>
-      <c r="CM51" s="15"/>
+        <v>26.99740524578435</v>
+      </c>
+      <c r="CM51" s="15">
+        <v>30.621312556831327</v>
+      </c>
       <c r="CN51" s="15"/>
       <c r="CO51" s="15"/>
       <c r="CP51" s="15"/>
-      <c r="CQ51" s="9"/>
+      <c r="CQ51" s="15"/>
       <c r="CR51" s="9"/>
       <c r="CS51" s="9"/>
       <c r="CT51" s="9"/>
@@ -30002,13 +30029,15 @@
         <v>45.433069155918901</v>
       </c>
       <c r="CL53" s="15">
-        <v>35.870439753689055</v>
-      </c>
-      <c r="CM53" s="15"/>
+        <v>36.746632280850093</v>
+      </c>
+      <c r="CM53" s="15">
+        <v>34.114362977891432</v>
+      </c>
       <c r="CN53" s="15"/>
       <c r="CO53" s="15"/>
       <c r="CP53" s="15"/>
-      <c r="CQ53" s="9"/>
+      <c r="CQ53" s="15"/>
       <c r="CR53" s="9"/>
       <c r="CS53" s="9"/>
       <c r="CT53" s="9"/>
@@ -30209,6 +30238,7 @@
       <c r="CN54" s="12"/>
       <c r="CO54" s="12"/>
       <c r="CP54" s="12"/>
+      <c r="CQ54" s="12"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30647,145 +30677,146 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="21" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="21" t="s">
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="21" t="s">
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="21" t="s">
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="21" t="s">
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="21" t="s">
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="21" t="s">
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="23"/>
-      <c r="AH66" s="21" t="s">
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="21" t="s">
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="23"/>
-      <c r="AO66" s="23"/>
-      <c r="AP66" s="21" t="s">
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="22"/>
+      <c r="AO66" s="22"/>
+      <c r="AP66" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="23"/>
-      <c r="AR66" s="23"/>
-      <c r="AS66" s="23"/>
-      <c r="AT66" s="21" t="s">
+      <c r="AQ66" s="22"/>
+      <c r="AR66" s="22"/>
+      <c r="AS66" s="22"/>
+      <c r="AT66" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="23"/>
-      <c r="AV66" s="23"/>
-      <c r="AW66" s="23"/>
-      <c r="AX66" s="21" t="s">
+      <c r="AU66" s="22"/>
+      <c r="AV66" s="22"/>
+      <c r="AW66" s="22"/>
+      <c r="AX66" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="23"/>
-      <c r="AZ66" s="23"/>
-      <c r="BA66" s="23"/>
-      <c r="BB66" s="21" t="s">
+      <c r="AY66" s="22"/>
+      <c r="AZ66" s="22"/>
+      <c r="BA66" s="22"/>
+      <c r="BB66" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="23"/>
-      <c r="BD66" s="23"/>
-      <c r="BE66" s="23"/>
-      <c r="BF66" s="21" t="s">
+      <c r="BC66" s="22"/>
+      <c r="BD66" s="22"/>
+      <c r="BE66" s="22"/>
+      <c r="BF66" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="23"/>
-      <c r="BH66" s="23"/>
-      <c r="BI66" s="23"/>
-      <c r="BJ66" s="21" t="s">
+      <c r="BG66" s="22"/>
+      <c r="BH66" s="22"/>
+      <c r="BI66" s="22"/>
+      <c r="BJ66" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="23"/>
-      <c r="BL66" s="23"/>
-      <c r="BM66" s="23"/>
-      <c r="BN66" s="21" t="s">
+      <c r="BK66" s="22"/>
+      <c r="BL66" s="22"/>
+      <c r="BM66" s="22"/>
+      <c r="BN66" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="23"/>
-      <c r="BP66" s="23"/>
-      <c r="BQ66" s="23"/>
-      <c r="BR66" s="21" t="s">
+      <c r="BO66" s="22"/>
+      <c r="BP66" s="22"/>
+      <c r="BQ66" s="22"/>
+      <c r="BR66" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="23"/>
-      <c r="BT66" s="23"/>
-      <c r="BU66" s="23"/>
-      <c r="BV66" s="21" t="s">
+      <c r="BS66" s="22"/>
+      <c r="BT66" s="22"/>
+      <c r="BU66" s="22"/>
+      <c r="BV66" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="23"/>
-      <c r="BX66" s="23"/>
-      <c r="BY66" s="23"/>
-      <c r="BZ66" s="21" t="s">
+      <c r="BW66" s="22"/>
+      <c r="BX66" s="22"/>
+      <c r="BY66" s="22"/>
+      <c r="BZ66" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="21" t="s">
+      <c r="CA66" s="22"/>
+      <c r="CB66" s="22"/>
+      <c r="CC66" s="22"/>
+      <c r="CD66" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="21"/>
-      <c r="CF66" s="21"/>
-      <c r="CG66" s="21"/>
-      <c r="CH66" s="21" t="s">
+      <c r="CE66" s="20"/>
+      <c r="CF66" s="20"/>
+      <c r="CG66" s="20"/>
+      <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="21"/>
-      <c r="CJ66" s="21"/>
-      <c r="CK66" s="21"/>
-      <c r="CL66" s="18" t="s">
+      <c r="CI66" s="20"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="18"/>
-      <c r="CN66" s="18"/>
-      <c r="CO66" s="18"/>
-      <c r="CP66" s="18"/>
+      <c r="CM66" s="20"/>
+      <c r="CN66" s="20"/>
+      <c r="CO66" s="20"/>
+      <c r="CP66" s="20"/>
+      <c r="CQ66" s="22"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31058,10 +31089,13 @@
       <c r="CL67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5"/>
+      <c r="CM67" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN67" s="5"/>
       <c r="CO67" s="5"/>
       <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31335,13 +31369,15 @@
         <v>55.033025224444145</v>
       </c>
       <c r="CL69" s="15">
-        <v>57.068784428469598</v>
-      </c>
-      <c r="CM69" s="15"/>
+        <v>62.839312604883247</v>
+      </c>
+      <c r="CM69" s="15">
+        <v>37.45111983782715</v>
+      </c>
       <c r="CN69" s="15"/>
       <c r="CO69" s="15"/>
       <c r="CP69" s="15"/>
-      <c r="CQ69" s="9"/>
+      <c r="CQ69" s="15"/>
       <c r="CR69" s="9"/>
       <c r="CS69" s="9"/>
       <c r="CT69" s="9"/>
@@ -31716,13 +31752,15 @@
         <v>30.192654574671963</v>
       </c>
       <c r="CL70" s="15">
-        <v>17.524402880170413</v>
-      </c>
-      <c r="CM70" s="15"/>
+        <v>16.955067600840863</v>
+      </c>
+      <c r="CM70" s="15">
+        <v>24.769456709546091</v>
+      </c>
       <c r="CN70" s="15"/>
       <c r="CO70" s="15"/>
       <c r="CP70" s="15"/>
-      <c r="CQ70" s="9"/>
+      <c r="CQ70" s="15"/>
       <c r="CR70" s="9"/>
       <c r="CS70" s="9"/>
       <c r="CT70" s="9"/>
@@ -32297,13 +32335,15 @@
         <v>36.740115853001356</v>
       </c>
       <c r="CL72" s="15">
-        <v>26.870823084644684</v>
-      </c>
-      <c r="CM72" s="15"/>
+        <v>27.799931467254638</v>
+      </c>
+      <c r="CM72" s="15">
+        <v>28.3267328351358</v>
+      </c>
       <c r="CN72" s="15"/>
       <c r="CO72" s="15"/>
       <c r="CP72" s="15"/>
-      <c r="CQ72" s="9"/>
+      <c r="CQ72" s="15"/>
       <c r="CR72" s="9"/>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
@@ -32504,6 +32544,7 @@
       <c r="CN73" s="12"/>
       <c r="CO73" s="12"/>
       <c r="CP73" s="12"/>
+      <c r="CQ73" s="12"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32945,147 +32986,148 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="21">
+      <c r="B84" s="20">
         <v>2000</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="21">
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="20">
         <v>2001</v>
       </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="21">
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="20">
         <v>2002</v>
       </c>
-      <c r="K84" s="22"/>
-      <c r="L84" s="22"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="21">
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="20">
         <v>2003</v>
       </c>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="21">
+      <c r="O84" s="21"/>
+      <c r="P84" s="21"/>
+      <c r="Q84" s="21"/>
+      <c r="R84" s="20">
         <v>2004</v>
       </c>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
-      <c r="V84" s="21">
+      <c r="S84" s="21"/>
+      <c r="T84" s="21"/>
+      <c r="U84" s="21"/>
+      <c r="V84" s="20">
         <v>2005</v>
       </c>
-      <c r="W84" s="22"/>
-      <c r="X84" s="22"/>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="21">
+      <c r="W84" s="21"/>
+      <c r="X84" s="21"/>
+      <c r="Y84" s="21"/>
+      <c r="Z84" s="20">
         <v>2006</v>
       </c>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="21">
+      <c r="AA84" s="21"/>
+      <c r="AB84" s="21"/>
+      <c r="AC84" s="21"/>
+      <c r="AD84" s="20">
         <v>2007</v>
       </c>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
-      <c r="AG84" s="22"/>
-      <c r="AH84" s="21">
+      <c r="AE84" s="21"/>
+      <c r="AF84" s="21"/>
+      <c r="AG84" s="21"/>
+      <c r="AH84" s="20">
         <v>2008</v>
       </c>
-      <c r="AI84" s="22"/>
-      <c r="AJ84" s="22"/>
-      <c r="AK84" s="22"/>
-      <c r="AL84" s="21">
+      <c r="AI84" s="21"/>
+      <c r="AJ84" s="21"/>
+      <c r="AK84" s="21"/>
+      <c r="AL84" s="20">
         <v>2009</v>
       </c>
-      <c r="AM84" s="22"/>
-      <c r="AN84" s="22"/>
-      <c r="AO84" s="22"/>
-      <c r="AP84" s="21">
+      <c r="AM84" s="21"/>
+      <c r="AN84" s="21"/>
+      <c r="AO84" s="21"/>
+      <c r="AP84" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="22"/>
-      <c r="AR84" s="22"/>
-      <c r="AS84" s="22"/>
-      <c r="AT84" s="21">
+      <c r="AQ84" s="21"/>
+      <c r="AR84" s="21"/>
+      <c r="AS84" s="21"/>
+      <c r="AT84" s="20">
         <v>2011</v>
       </c>
-      <c r="AU84" s="22"/>
-      <c r="AV84" s="22"/>
-      <c r="AW84" s="22"/>
-      <c r="AX84" s="21">
+      <c r="AU84" s="21"/>
+      <c r="AV84" s="21"/>
+      <c r="AW84" s="21"/>
+      <c r="AX84" s="20">
         <v>2012</v>
       </c>
-      <c r="AY84" s="22"/>
-      <c r="AZ84" s="22"/>
-      <c r="BA84" s="22"/>
-      <c r="BB84" s="21">
+      <c r="AY84" s="21"/>
+      <c r="AZ84" s="21"/>
+      <c r="BA84" s="21"/>
+      <c r="BB84" s="20">
         <v>2013</v>
       </c>
-      <c r="BC84" s="22"/>
-      <c r="BD84" s="22"/>
-      <c r="BE84" s="22"/>
-      <c r="BF84" s="21">
+      <c r="BC84" s="21"/>
+      <c r="BD84" s="21"/>
+      <c r="BE84" s="21"/>
+      <c r="BF84" s="20">
         <v>2014</v>
       </c>
-      <c r="BG84" s="22"/>
-      <c r="BH84" s="22"/>
-      <c r="BI84" s="22"/>
-      <c r="BJ84" s="21">
+      <c r="BG84" s="21"/>
+      <c r="BH84" s="21"/>
+      <c r="BI84" s="21"/>
+      <c r="BJ84" s="20">
         <v>2015</v>
       </c>
-      <c r="BK84" s="22"/>
-      <c r="BL84" s="22"/>
-      <c r="BM84" s="22"/>
-      <c r="BN84" s="21">
+      <c r="BK84" s="21"/>
+      <c r="BL84" s="21"/>
+      <c r="BM84" s="21"/>
+      <c r="BN84" s="20">
         <v>2016</v>
       </c>
-      <c r="BO84" s="22"/>
-      <c r="BP84" s="22"/>
-      <c r="BQ84" s="22"/>
-      <c r="BR84" s="21">
+      <c r="BO84" s="21"/>
+      <c r="BP84" s="21"/>
+      <c r="BQ84" s="21"/>
+      <c r="BR84" s="20">
         <v>2017</v>
       </c>
-      <c r="BS84" s="22"/>
-      <c r="BT84" s="22"/>
-      <c r="BU84" s="22"/>
-      <c r="BV84" s="21">
+      <c r="BS84" s="21"/>
+      <c r="BT84" s="21"/>
+      <c r="BU84" s="21"/>
+      <c r="BV84" s="20">
         <v>2018</v>
       </c>
-      <c r="BW84" s="22"/>
-      <c r="BX84" s="22"/>
-      <c r="BY84" s="22"/>
-      <c r="BZ84" s="21">
+      <c r="BW84" s="21"/>
+      <c r="BX84" s="21"/>
+      <c r="BY84" s="21"/>
+      <c r="BZ84" s="20">
         <v>2019</v>
       </c>
-      <c r="CA84" s="22"/>
-      <c r="CB84" s="22"/>
-      <c r="CC84" s="22"/>
-      <c r="CD84" s="21">
+      <c r="CA84" s="21"/>
+      <c r="CB84" s="21"/>
+      <c r="CC84" s="21"/>
+      <c r="CD84" s="20">
         <v>2020</v>
       </c>
-      <c r="CE84" s="21"/>
-      <c r="CF84" s="21"/>
-      <c r="CG84" s="21"/>
-      <c r="CH84" s="21">
+      <c r="CE84" s="20"/>
+      <c r="CF84" s="20"/>
+      <c r="CG84" s="20"/>
+      <c r="CH84" s="20">
         <v>2021</v>
       </c>
-      <c r="CI84" s="21"/>
-      <c r="CJ84" s="21"/>
-      <c r="CK84" s="21"/>
-      <c r="CL84" s="21">
+      <c r="CI84" s="20"/>
+      <c r="CJ84" s="20"/>
+      <c r="CK84" s="20"/>
+      <c r="CL84" s="20">
         <v>2022</v>
       </c>
-      <c r="CM84" s="21"/>
-      <c r="CN84" s="21"/>
-      <c r="CO84" s="21"/>
-      <c r="CP84" s="18">
+      <c r="CM84" s="20"/>
+      <c r="CN84" s="20"/>
+      <c r="CO84" s="20"/>
+      <c r="CP84" s="20">
         <v>2023</v>
       </c>
+      <c r="CQ84" s="22"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33369,6 +33411,9 @@
       </c>
       <c r="CP85" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ85" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33657,7 +33702,9 @@
       <c r="CP87" s="15">
         <v>118.290192212516</v>
       </c>
-      <c r="CQ87" s="9"/>
+      <c r="CQ87" s="15">
+        <v>116.82870690025113</v>
+      </c>
       <c r="CR87" s="9"/>
       <c r="CS87" s="9"/>
       <c r="CT87" s="9"/>
@@ -34048,9 +34095,11 @@
         <v>126.06058661417178</v>
       </c>
       <c r="CP88" s="15">
-        <v>131.83570731057097</v>
-      </c>
-      <c r="CQ88" s="9"/>
+        <v>131.84247250074139</v>
+      </c>
+      <c r="CQ88" s="15">
+        <v>129.57899590515771</v>
+      </c>
       <c r="CR88" s="9"/>
       <c r="CS88" s="9"/>
       <c r="CT88" s="9"/>
@@ -34645,9 +34694,11 @@
         <v>121.92975691623928</v>
       </c>
       <c r="CP90" s="15">
-        <v>127.872158921123</v>
-      </c>
-      <c r="CQ90" s="9"/>
+        <v>127.76114421257283</v>
+      </c>
+      <c r="CQ90" s="15">
+        <v>125.74816891132936</v>
+      </c>
       <c r="CR90" s="9"/>
       <c r="CS90" s="9"/>
       <c r="CT90" s="9"/>
@@ -34852,6 +34903,7 @@
       <c r="CN91" s="12"/>
       <c r="CO91" s="12"/>
       <c r="CP91" s="12"/>
+      <c r="CQ91" s="12"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -34890,147 +34942,148 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="21">
+      <c r="B103" s="20">
         <v>2000</v>
       </c>
-      <c r="C103" s="22"/>
-      <c r="D103" s="22"/>
-      <c r="E103" s="22"/>
-      <c r="F103" s="21">
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="20">
         <v>2001</v>
       </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="21">
+      <c r="G103" s="21"/>
+      <c r="H103" s="21"/>
+      <c r="I103" s="21"/>
+      <c r="J103" s="20">
         <v>2002</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="22"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="21">
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="20">
         <v>2003</v>
       </c>
-      <c r="O103" s="22"/>
-      <c r="P103" s="22"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="21">
+      <c r="O103" s="21"/>
+      <c r="P103" s="21"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="20">
         <v>2004</v>
       </c>
-      <c r="S103" s="22"/>
-      <c r="T103" s="22"/>
-      <c r="U103" s="22"/>
-      <c r="V103" s="21">
+      <c r="S103" s="21"/>
+      <c r="T103" s="21"/>
+      <c r="U103" s="21"/>
+      <c r="V103" s="20">
         <v>2005</v>
       </c>
-      <c r="W103" s="22"/>
-      <c r="X103" s="22"/>
-      <c r="Y103" s="22"/>
-      <c r="Z103" s="21">
+      <c r="W103" s="21"/>
+      <c r="X103" s="21"/>
+      <c r="Y103" s="21"/>
+      <c r="Z103" s="20">
         <v>2006</v>
       </c>
-      <c r="AA103" s="22"/>
-      <c r="AB103" s="22"/>
-      <c r="AC103" s="22"/>
-      <c r="AD103" s="21">
+      <c r="AA103" s="21"/>
+      <c r="AB103" s="21"/>
+      <c r="AC103" s="21"/>
+      <c r="AD103" s="20">
         <v>2007</v>
       </c>
-      <c r="AE103" s="22"/>
-      <c r="AF103" s="22"/>
-      <c r="AG103" s="22"/>
-      <c r="AH103" s="21">
+      <c r="AE103" s="21"/>
+      <c r="AF103" s="21"/>
+      <c r="AG103" s="21"/>
+      <c r="AH103" s="20">
         <v>2008</v>
       </c>
-      <c r="AI103" s="22"/>
-      <c r="AJ103" s="22"/>
-      <c r="AK103" s="22"/>
-      <c r="AL103" s="21">
+      <c r="AI103" s="21"/>
+      <c r="AJ103" s="21"/>
+      <c r="AK103" s="21"/>
+      <c r="AL103" s="20">
         <v>2009</v>
       </c>
-      <c r="AM103" s="22"/>
-      <c r="AN103" s="22"/>
-      <c r="AO103" s="22"/>
-      <c r="AP103" s="21">
+      <c r="AM103" s="21"/>
+      <c r="AN103" s="21"/>
+      <c r="AO103" s="21"/>
+      <c r="AP103" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="22"/>
-      <c r="AR103" s="22"/>
-      <c r="AS103" s="22"/>
-      <c r="AT103" s="21">
+      <c r="AQ103" s="21"/>
+      <c r="AR103" s="21"/>
+      <c r="AS103" s="21"/>
+      <c r="AT103" s="20">
         <v>2011</v>
       </c>
-      <c r="AU103" s="22"/>
-      <c r="AV103" s="22"/>
-      <c r="AW103" s="22"/>
-      <c r="AX103" s="21">
+      <c r="AU103" s="21"/>
+      <c r="AV103" s="21"/>
+      <c r="AW103" s="21"/>
+      <c r="AX103" s="20">
         <v>2012</v>
       </c>
-      <c r="AY103" s="22"/>
-      <c r="AZ103" s="22"/>
-      <c r="BA103" s="22"/>
-      <c r="BB103" s="21">
+      <c r="AY103" s="21"/>
+      <c r="AZ103" s="21"/>
+      <c r="BA103" s="21"/>
+      <c r="BB103" s="20">
         <v>2013</v>
       </c>
-      <c r="BC103" s="22"/>
-      <c r="BD103" s="22"/>
-      <c r="BE103" s="22"/>
-      <c r="BF103" s="21">
+      <c r="BC103" s="21"/>
+      <c r="BD103" s="21"/>
+      <c r="BE103" s="21"/>
+      <c r="BF103" s="20">
         <v>2014</v>
       </c>
-      <c r="BG103" s="22"/>
-      <c r="BH103" s="22"/>
-      <c r="BI103" s="22"/>
-      <c r="BJ103" s="21">
+      <c r="BG103" s="21"/>
+      <c r="BH103" s="21"/>
+      <c r="BI103" s="21"/>
+      <c r="BJ103" s="20">
         <v>2015</v>
       </c>
-      <c r="BK103" s="22"/>
-      <c r="BL103" s="22"/>
-      <c r="BM103" s="22"/>
-      <c r="BN103" s="21">
+      <c r="BK103" s="21"/>
+      <c r="BL103" s="21"/>
+      <c r="BM103" s="21"/>
+      <c r="BN103" s="20">
         <v>2016</v>
       </c>
-      <c r="BO103" s="22"/>
-      <c r="BP103" s="22"/>
-      <c r="BQ103" s="22"/>
-      <c r="BR103" s="21">
+      <c r="BO103" s="21"/>
+      <c r="BP103" s="21"/>
+      <c r="BQ103" s="21"/>
+      <c r="BR103" s="20">
         <v>2017</v>
       </c>
-      <c r="BS103" s="22"/>
-      <c r="BT103" s="22"/>
-      <c r="BU103" s="22"/>
-      <c r="BV103" s="21">
+      <c r="BS103" s="21"/>
+      <c r="BT103" s="21"/>
+      <c r="BU103" s="21"/>
+      <c r="BV103" s="20">
         <v>2018</v>
       </c>
-      <c r="BW103" s="22"/>
-      <c r="BX103" s="22"/>
-      <c r="BY103" s="22"/>
-      <c r="BZ103" s="21">
+      <c r="BW103" s="21"/>
+      <c r="BX103" s="21"/>
+      <c r="BY103" s="21"/>
+      <c r="BZ103" s="20">
         <v>2019</v>
       </c>
-      <c r="CA103" s="22"/>
-      <c r="CB103" s="22"/>
-      <c r="CC103" s="22"/>
-      <c r="CD103" s="21">
+      <c r="CA103" s="21"/>
+      <c r="CB103" s="21"/>
+      <c r="CC103" s="21"/>
+      <c r="CD103" s="20">
         <v>2020</v>
       </c>
-      <c r="CE103" s="21"/>
-      <c r="CF103" s="21"/>
-      <c r="CG103" s="21"/>
-      <c r="CH103" s="21">
+      <c r="CE103" s="20"/>
+      <c r="CF103" s="20"/>
+      <c r="CG103" s="20"/>
+      <c r="CH103" s="20">
         <v>2021</v>
       </c>
-      <c r="CI103" s="21"/>
-      <c r="CJ103" s="21"/>
-      <c r="CK103" s="21"/>
-      <c r="CL103" s="21">
+      <c r="CI103" s="20"/>
+      <c r="CJ103" s="20"/>
+      <c r="CK103" s="20"/>
+      <c r="CL103" s="20">
         <v>2022</v>
       </c>
-      <c r="CM103" s="21"/>
-      <c r="CN103" s="21"/>
-      <c r="CO103" s="21"/>
-      <c r="CP103" s="18">
+      <c r="CM103" s="20"/>
+      <c r="CN103" s="20"/>
+      <c r="CO103" s="20"/>
+      <c r="CP103" s="20">
         <v>2023</v>
       </c>
+      <c r="CQ103" s="22"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35314,6 +35367,9 @@
       </c>
       <c r="CP104" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ104" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35600,9 +35656,11 @@
         <v>27.508870704678333</v>
       </c>
       <c r="CP106" s="15">
-        <v>27.068324851120963</v>
-      </c>
-      <c r="CQ106" s="9"/>
+        <v>27.882974338379768</v>
+      </c>
+      <c r="CQ106" s="15">
+        <v>27.913893050138576</v>
+      </c>
       <c r="CR106" s="9"/>
       <c r="CS106" s="9"/>
       <c r="CT106" s="9"/>
@@ -35993,9 +36051,11 @@
         <v>72.491129295321656</v>
       </c>
       <c r="CP107" s="15">
-        <v>72.931675148879023</v>
-      </c>
-      <c r="CQ107" s="9"/>
+        <v>72.117025661620232</v>
+      </c>
+      <c r="CQ107" s="15">
+        <v>72.086106949861431</v>
+      </c>
       <c r="CR107" s="9"/>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
@@ -36592,7 +36652,9 @@
       <c r="CP109" s="15">
         <v>100</v>
       </c>
-      <c r="CQ109" s="9"/>
+      <c r="CQ109" s="15">
+        <v>100</v>
+      </c>
       <c r="CR109" s="9"/>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
@@ -36797,6 +36859,7 @@
       <c r="CN110" s="12"/>
       <c r="CO110" s="12"/>
       <c r="CP110" s="12"/>
+      <c r="CQ110" s="12"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37243,147 +37306,148 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="21">
+      <c r="B122" s="20">
         <v>2000</v>
       </c>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="22"/>
-      <c r="F122" s="21">
+      <c r="C122" s="21"/>
+      <c r="D122" s="21"/>
+      <c r="E122" s="21"/>
+      <c r="F122" s="20">
         <v>2001</v>
       </c>
-      <c r="G122" s="22"/>
-      <c r="H122" s="22"/>
-      <c r="I122" s="22"/>
-      <c r="J122" s="21">
+      <c r="G122" s="21"/>
+      <c r="H122" s="21"/>
+      <c r="I122" s="21"/>
+      <c r="J122" s="20">
         <v>2002</v>
       </c>
-      <c r="K122" s="22"/>
-      <c r="L122" s="22"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="21">
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="20">
         <v>2003</v>
       </c>
-      <c r="O122" s="22"/>
-      <c r="P122" s="22"/>
-      <c r="Q122" s="22"/>
-      <c r="R122" s="21">
+      <c r="O122" s="21"/>
+      <c r="P122" s="21"/>
+      <c r="Q122" s="21"/>
+      <c r="R122" s="20">
         <v>2004</v>
       </c>
-      <c r="S122" s="22"/>
-      <c r="T122" s="22"/>
-      <c r="U122" s="22"/>
-      <c r="V122" s="21">
+      <c r="S122" s="21"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="21"/>
+      <c r="V122" s="20">
         <v>2005</v>
       </c>
-      <c r="W122" s="22"/>
-      <c r="X122" s="22"/>
-      <c r="Y122" s="22"/>
-      <c r="Z122" s="21">
+      <c r="W122" s="21"/>
+      <c r="X122" s="21"/>
+      <c r="Y122" s="21"/>
+      <c r="Z122" s="20">
         <v>2006</v>
       </c>
-      <c r="AA122" s="22"/>
-      <c r="AB122" s="22"/>
-      <c r="AC122" s="22"/>
-      <c r="AD122" s="21">
+      <c r="AA122" s="21"/>
+      <c r="AB122" s="21"/>
+      <c r="AC122" s="21"/>
+      <c r="AD122" s="20">
         <v>2007</v>
       </c>
-      <c r="AE122" s="22"/>
-      <c r="AF122" s="22"/>
-      <c r="AG122" s="22"/>
-      <c r="AH122" s="21">
+      <c r="AE122" s="21"/>
+      <c r="AF122" s="21"/>
+      <c r="AG122" s="21"/>
+      <c r="AH122" s="20">
         <v>2008</v>
       </c>
-      <c r="AI122" s="22"/>
-      <c r="AJ122" s="22"/>
-      <c r="AK122" s="22"/>
-      <c r="AL122" s="21">
+      <c r="AI122" s="21"/>
+      <c r="AJ122" s="21"/>
+      <c r="AK122" s="21"/>
+      <c r="AL122" s="20">
         <v>2009</v>
       </c>
-      <c r="AM122" s="22"/>
-      <c r="AN122" s="22"/>
-      <c r="AO122" s="22"/>
-      <c r="AP122" s="21">
+      <c r="AM122" s="21"/>
+      <c r="AN122" s="21"/>
+      <c r="AO122" s="21"/>
+      <c r="AP122" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="22"/>
-      <c r="AR122" s="22"/>
-      <c r="AS122" s="22"/>
-      <c r="AT122" s="21">
+      <c r="AQ122" s="21"/>
+      <c r="AR122" s="21"/>
+      <c r="AS122" s="21"/>
+      <c r="AT122" s="20">
         <v>2011</v>
       </c>
-      <c r="AU122" s="22"/>
-      <c r="AV122" s="22"/>
-      <c r="AW122" s="22"/>
-      <c r="AX122" s="21">
+      <c r="AU122" s="21"/>
+      <c r="AV122" s="21"/>
+      <c r="AW122" s="21"/>
+      <c r="AX122" s="20">
         <v>2012</v>
       </c>
-      <c r="AY122" s="22"/>
-      <c r="AZ122" s="22"/>
-      <c r="BA122" s="22"/>
-      <c r="BB122" s="21">
+      <c r="AY122" s="21"/>
+      <c r="AZ122" s="21"/>
+      <c r="BA122" s="21"/>
+      <c r="BB122" s="20">
         <v>2013</v>
       </c>
-      <c r="BC122" s="22"/>
-      <c r="BD122" s="22"/>
-      <c r="BE122" s="22"/>
-      <c r="BF122" s="21">
+      <c r="BC122" s="21"/>
+      <c r="BD122" s="21"/>
+      <c r="BE122" s="21"/>
+      <c r="BF122" s="20">
         <v>2014</v>
       </c>
-      <c r="BG122" s="22"/>
-      <c r="BH122" s="22"/>
-      <c r="BI122" s="22"/>
-      <c r="BJ122" s="21">
+      <c r="BG122" s="21"/>
+      <c r="BH122" s="21"/>
+      <c r="BI122" s="21"/>
+      <c r="BJ122" s="20">
         <v>2015</v>
       </c>
-      <c r="BK122" s="22"/>
-      <c r="BL122" s="22"/>
-      <c r="BM122" s="22"/>
-      <c r="BN122" s="21">
+      <c r="BK122" s="21"/>
+      <c r="BL122" s="21"/>
+      <c r="BM122" s="21"/>
+      <c r="BN122" s="20">
         <v>2016</v>
       </c>
-      <c r="BO122" s="22"/>
-      <c r="BP122" s="22"/>
-      <c r="BQ122" s="22"/>
-      <c r="BR122" s="21">
+      <c r="BO122" s="21"/>
+      <c r="BP122" s="21"/>
+      <c r="BQ122" s="21"/>
+      <c r="BR122" s="20">
         <v>2017</v>
       </c>
-      <c r="BS122" s="22"/>
-      <c r="BT122" s="22"/>
-      <c r="BU122" s="22"/>
-      <c r="BV122" s="21">
+      <c r="BS122" s="21"/>
+      <c r="BT122" s="21"/>
+      <c r="BU122" s="21"/>
+      <c r="BV122" s="20">
         <v>2018</v>
       </c>
-      <c r="BW122" s="22"/>
-      <c r="BX122" s="22"/>
-      <c r="BY122" s="22"/>
-      <c r="BZ122" s="21">
+      <c r="BW122" s="21"/>
+      <c r="BX122" s="21"/>
+      <c r="BY122" s="21"/>
+      <c r="BZ122" s="20">
         <v>2019</v>
       </c>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="21">
+      <c r="CA122" s="21"/>
+      <c r="CB122" s="21"/>
+      <c r="CC122" s="21"/>
+      <c r="CD122" s="20">
         <v>2020</v>
       </c>
-      <c r="CE122" s="21"/>
-      <c r="CF122" s="21"/>
-      <c r="CG122" s="21"/>
-      <c r="CH122" s="21">
+      <c r="CE122" s="20"/>
+      <c r="CF122" s="20"/>
+      <c r="CG122" s="20"/>
+      <c r="CH122" s="20">
         <v>2021</v>
       </c>
-      <c r="CI122" s="21"/>
-      <c r="CJ122" s="21"/>
-      <c r="CK122" s="21"/>
-      <c r="CL122" s="21">
+      <c r="CI122" s="20"/>
+      <c r="CJ122" s="20"/>
+      <c r="CK122" s="20"/>
+      <c r="CL122" s="20">
         <v>2022</v>
       </c>
-      <c r="CM122" s="21"/>
-      <c r="CN122" s="21"/>
-      <c r="CO122" s="21"/>
-      <c r="CP122" s="18">
+      <c r="CM122" s="20"/>
+      <c r="CN122" s="20"/>
+      <c r="CO122" s="20"/>
+      <c r="CP122" s="20">
         <v>2023</v>
       </c>
+      <c r="CQ122" s="22"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37667,6 +37731,9 @@
       </c>
       <c r="CP123" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ123" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37953,9 +38020,11 @@
         <v>29.884303960802139</v>
       </c>
       <c r="CP125" s="15">
-        <v>29.260964686511791</v>
-      </c>
-      <c r="CQ125" s="9"/>
+        <v>30.115435936744383</v>
+      </c>
+      <c r="CQ125" s="15">
+        <v>30.045020880343777</v>
+      </c>
       <c r="CR125" s="9"/>
       <c r="CS125" s="9"/>
       <c r="CT125" s="9"/>
@@ -38346,9 +38415,11 @@
         <v>70.115696039197857</v>
       </c>
       <c r="CP126" s="15">
-        <v>70.739035313488202</v>
-      </c>
-      <c r="CQ126" s="9"/>
+        <v>69.88456406325561</v>
+      </c>
+      <c r="CQ126" s="15">
+        <v>69.95497911965623</v>
+      </c>
       <c r="CR126" s="9"/>
       <c r="CS126" s="9"/>
       <c r="CT126" s="9"/>
@@ -38945,7 +39016,9 @@
       <c r="CP128" s="15">
         <v>100</v>
       </c>
-      <c r="CQ128" s="9"/>
+      <c r="CQ128" s="15">
+        <v>100</v>
+      </c>
       <c r="CR128" s="9"/>
       <c r="CS128" s="9"/>
       <c r="CT128" s="9"/>
@@ -39150,6 +39223,7 @@
       <c r="CN129" s="12"/>
       <c r="CO129" s="12"/>
       <c r="CP129" s="12"/>
+      <c r="CQ129" s="12"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39251,7 +39325,7 @@
       <c r="CN131" s="1"/>
       <c r="CO131" s="1"/>
       <c r="CP131" s="1"/>
-      <c r="CQ131" s="16"/>
+      <c r="CQ131" s="1"/>
       <c r="CR131" s="16"/>
       <c r="CS131" s="16"/>
       <c r="CT131" s="16"/>
@@ -39456,7 +39530,7 @@
       <c r="CN132" s="1"/>
       <c r="CO132" s="1"/>
       <c r="CP132" s="1"/>
-      <c r="CQ132" s="16"/>
+      <c r="CQ132" s="1"/>
       <c r="CR132" s="16"/>
       <c r="CS132" s="16"/>
       <c r="CT132" s="16"/>
@@ -39567,21 +39641,137 @@
       <c r="GU132" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R122:U122"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP28:CQ28"/>
+    <mergeCell ref="CP84:CQ84"/>
+    <mergeCell ref="CP103:CQ103"/>
+    <mergeCell ref="CP122:CQ122"/>
+    <mergeCell ref="CL47:CO47"/>
+    <mergeCell ref="CP47:CQ47"/>
+    <mergeCell ref="CL66:CO66"/>
+    <mergeCell ref="CP66:CQ66"/>
+    <mergeCell ref="CH122:CK122"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH28:CK28"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL28:CO28"/>
+    <mergeCell ref="CH47:CK47"/>
+    <mergeCell ref="CH66:CK66"/>
+    <mergeCell ref="CL84:CO84"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CL103:CO103"/>
+    <mergeCell ref="CL122:CO122"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
+    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="AP122:AS122"/>
@@ -39606,136 +39796,29 @@
     <mergeCell ref="AT103:AW103"/>
     <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
-    <mergeCell ref="CH103:CK103"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="CH122:CK122"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R122:U122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="93" man="1"/>
-    <brk id="76" max="93" man="1"/>
-    <brk id="94" max="93" man="1"/>
+    <brk id="38" max="94" man="1"/>
+    <brk id="76" max="94" man="1"/>
+    <brk id="94" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9E6E8F-1B73-42A6-B4F9-CBD17D5989FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD6AFE-020E-44EF-B36A-87201F8B60DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="2340" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CQ$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CR$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,13 +617,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,6 +741,23 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23600,14 +23617,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CR3" sqref="CR3"/>
+      <selection pane="topRight" activeCell="CR7" sqref="CR7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="95" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="96" width="9.44140625" style="21" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23642,148 +23660,149 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="31">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="31">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="33">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
-      <c r="CP9" s="20">
+      <c r="CM9" s="33"/>
+      <c r="CN9" s="33"/>
+      <c r="CO9" s="33"/>
+      <c r="CP9" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="22"/>
+      <c r="CQ9" s="33"/>
+      <c r="CR9" s="33"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24053,23 +24072,26 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24343,25 +24365,27 @@
       <c r="CK12" s="18">
         <v>20982.743841316627</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="23">
         <v>22322.262683393026</v>
       </c>
-      <c r="CM12" s="18">
+      <c r="CM12" s="23">
         <v>20822.70058913936</v>
       </c>
-      <c r="CN12" s="18">
+      <c r="CN12" s="23">
         <v>22543.517584578036</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="23">
         <v>33785.120903230876</v>
       </c>
-      <c r="CP12" s="18">
+      <c r="CP12" s="23">
         <v>38087.235358183301</v>
       </c>
-      <c r="CQ12" s="18">
-        <v>29997.862699271078</v>
-      </c>
-      <c r="CR12" s="9"/>
+      <c r="CQ12" s="23">
+        <v>29696.72509027673</v>
+      </c>
+      <c r="CR12" s="23">
+        <v>29947.328777151608</v>
+      </c>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -24738,25 +24762,27 @@
       <c r="CK13" s="18">
         <v>63465.290659731603</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="23">
         <v>77568.127837813096</v>
       </c>
-      <c r="CM13" s="18">
+      <c r="CM13" s="23">
         <v>59307.20143239318</v>
       </c>
-      <c r="CN13" s="18">
+      <c r="CN13" s="23">
         <v>69694.055287976895</v>
       </c>
-      <c r="CO13" s="18">
+      <c r="CO13" s="23">
         <v>89030.247513492825</v>
       </c>
-      <c r="CP13" s="18">
+      <c r="CP13" s="23">
         <v>98509.509651755565</v>
       </c>
-      <c r="CQ13" s="18">
-        <v>77467.844951715844</v>
-      </c>
-      <c r="CR13" s="9"/>
+      <c r="CQ13" s="23">
+        <v>76837.777480061748</v>
+      </c>
+      <c r="CR13" s="23">
+        <v>84603.713850445551</v>
+      </c>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -24954,13 +24980,13 @@
       <c r="CI14" s="9"/>
       <c r="CJ14" s="9"/>
       <c r="CK14" s="9"/>
-      <c r="CL14" s="9"/>
-      <c r="CM14" s="9"/>
-      <c r="CN14" s="9"/>
-      <c r="CO14" s="9"/>
-      <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
-      <c r="CR14" s="9"/>
+      <c r="CL14" s="24"/>
+      <c r="CM14" s="24"/>
+      <c r="CN14" s="24"/>
+      <c r="CO14" s="24"/>
+      <c r="CP14" s="24"/>
+      <c r="CQ14" s="24"/>
+      <c r="CR14" s="24"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -25337,25 +25363,27 @@
       <c r="CK15" s="19">
         <v>84448.034501048227</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="CL15" s="25">
         <v>99890.390521206122</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="CM15" s="25">
         <v>80129.902021532544</v>
       </c>
-      <c r="CN15" s="19">
+      <c r="CN15" s="25">
         <v>92237.572872554927</v>
       </c>
-      <c r="CO15" s="19">
+      <c r="CO15" s="25">
         <v>122815.36841672371</v>
       </c>
-      <c r="CP15" s="19">
+      <c r="CP15" s="25">
         <v>136596.74500993887</v>
       </c>
-      <c r="CQ15" s="19">
-        <v>107465.70765098692</v>
-      </c>
-      <c r="CR15" s="9"/>
+      <c r="CQ15" s="25">
+        <v>106534.50257033847</v>
+      </c>
+      <c r="CR15" s="25">
+        <v>114551.04262759715</v>
+      </c>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25554,12 +25582,13 @@
       <c r="CI16" s="12"/>
       <c r="CJ16" s="12"/>
       <c r="CK16" s="12"/>
-      <c r="CL16" s="12"/>
-      <c r="CM16" s="12"/>
-      <c r="CN16" s="12"/>
-      <c r="CO16" s="12"/>
-      <c r="CP16" s="12"/>
-      <c r="CQ16" s="12"/>
+      <c r="CL16" s="26"/>
+      <c r="CM16" s="26"/>
+      <c r="CN16" s="26"/>
+      <c r="CO16" s="26"/>
+      <c r="CP16" s="26"/>
+      <c r="CQ16" s="26"/>
+      <c r="CR16" s="26"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25655,13 +25684,13 @@
       <c r="CI18" s="9"/>
       <c r="CJ18" s="9"/>
       <c r="CK18" s="9"/>
-      <c r="CL18" s="9"/>
-      <c r="CM18" s="9"/>
-      <c r="CN18" s="9"/>
-      <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="9"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="24"/>
+      <c r="CP18" s="24"/>
+      <c r="CQ18" s="24"/>
+      <c r="CR18" s="24"/>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
@@ -25859,13 +25888,13 @@
       <c r="CI19" s="14"/>
       <c r="CJ19" s="14"/>
       <c r="CK19" s="14"/>
-      <c r="CL19" s="14"/>
-      <c r="CM19" s="14"/>
-      <c r="CN19" s="14"/>
-      <c r="CO19" s="14"/>
-      <c r="CP19" s="14"/>
-      <c r="CQ19" s="14"/>
-      <c r="CR19" s="9"/>
+      <c r="CL19" s="27"/>
+      <c r="CM19" s="27"/>
+      <c r="CN19" s="27"/>
+      <c r="CO19" s="27"/>
+      <c r="CP19" s="27"/>
+      <c r="CQ19" s="27"/>
+      <c r="CR19" s="27"/>
       <c r="CS19" s="9"/>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
@@ -26006,148 +26035,149 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="20">
+      <c r="B28" s="31">
         <v>2000</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="20">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="31">
         <v>2001</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="20">
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="31">
         <v>2002</v>
       </c>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="20">
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="31">
         <v>2003</v>
       </c>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="20">
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="31">
         <v>2004</v>
       </c>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="20">
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="31">
         <v>2005</v>
       </c>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="20">
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="31">
         <v>2006</v>
       </c>
-      <c r="AA28" s="21"/>
-      <c r="AB28" s="21"/>
-      <c r="AC28" s="21"/>
-      <c r="AD28" s="20">
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="31">
         <v>2007</v>
       </c>
-      <c r="AE28" s="21"/>
-      <c r="AF28" s="21"/>
-      <c r="AG28" s="21"/>
-      <c r="AH28" s="20">
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="31">
         <v>2008</v>
       </c>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="20">
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="31">
         <v>2009</v>
       </c>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="21"/>
-      <c r="AO28" s="21"/>
-      <c r="AP28" s="20">
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="21"/>
-      <c r="AR28" s="21"/>
-      <c r="AS28" s="21"/>
-      <c r="AT28" s="20">
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="31">
         <v>2011</v>
       </c>
-      <c r="AU28" s="21"/>
-      <c r="AV28" s="21"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="20">
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="31">
         <v>2012</v>
       </c>
-      <c r="AY28" s="21"/>
-      <c r="AZ28" s="21"/>
-      <c r="BA28" s="21"/>
-      <c r="BB28" s="20">
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="32"/>
+      <c r="BA28" s="32"/>
+      <c r="BB28" s="31">
         <v>2013</v>
       </c>
-      <c r="BC28" s="21"/>
-      <c r="BD28" s="21"/>
-      <c r="BE28" s="21"/>
-      <c r="BF28" s="20">
+      <c r="BC28" s="32"/>
+      <c r="BD28" s="32"/>
+      <c r="BE28" s="32"/>
+      <c r="BF28" s="31">
         <v>2014</v>
       </c>
-      <c r="BG28" s="21"/>
-      <c r="BH28" s="21"/>
-      <c r="BI28" s="21"/>
-      <c r="BJ28" s="20">
+      <c r="BG28" s="32"/>
+      <c r="BH28" s="32"/>
+      <c r="BI28" s="32"/>
+      <c r="BJ28" s="31">
         <v>2015</v>
       </c>
-      <c r="BK28" s="21"/>
-      <c r="BL28" s="21"/>
-      <c r="BM28" s="21"/>
-      <c r="BN28" s="20">
+      <c r="BK28" s="32"/>
+      <c r="BL28" s="32"/>
+      <c r="BM28" s="32"/>
+      <c r="BN28" s="31">
         <v>2016</v>
       </c>
-      <c r="BO28" s="21"/>
-      <c r="BP28" s="21"/>
-      <c r="BQ28" s="21"/>
-      <c r="BR28" s="20">
+      <c r="BO28" s="32"/>
+      <c r="BP28" s="32"/>
+      <c r="BQ28" s="32"/>
+      <c r="BR28" s="31">
         <v>2017</v>
       </c>
-      <c r="BS28" s="21"/>
-      <c r="BT28" s="21"/>
-      <c r="BU28" s="21"/>
-      <c r="BV28" s="20">
+      <c r="BS28" s="32"/>
+      <c r="BT28" s="32"/>
+      <c r="BU28" s="32"/>
+      <c r="BV28" s="31">
         <v>2018</v>
       </c>
-      <c r="BW28" s="21"/>
-      <c r="BX28" s="21"/>
-      <c r="BY28" s="21"/>
-      <c r="BZ28" s="20">
+      <c r="BW28" s="32"/>
+      <c r="BX28" s="32"/>
+      <c r="BY28" s="32"/>
+      <c r="BZ28" s="31">
         <v>2019</v>
       </c>
-      <c r="CA28" s="21"/>
-      <c r="CB28" s="21"/>
-      <c r="CC28" s="21"/>
-      <c r="CD28" s="20">
+      <c r="CA28" s="32"/>
+      <c r="CB28" s="32"/>
+      <c r="CC28" s="32"/>
+      <c r="CD28" s="31">
         <v>2020</v>
       </c>
-      <c r="CE28" s="20"/>
-      <c r="CF28" s="20"/>
-      <c r="CG28" s="20"/>
-      <c r="CH28" s="20">
+      <c r="CE28" s="31"/>
+      <c r="CF28" s="31"/>
+      <c r="CG28" s="31"/>
+      <c r="CH28" s="31">
         <v>2021</v>
       </c>
-      <c r="CI28" s="20"/>
-      <c r="CJ28" s="20"/>
-      <c r="CK28" s="20"/>
-      <c r="CL28" s="20">
+      <c r="CI28" s="31"/>
+      <c r="CJ28" s="31"/>
+      <c r="CK28" s="31"/>
+      <c r="CL28" s="33">
         <v>2022</v>
       </c>
-      <c r="CM28" s="20"/>
-      <c r="CN28" s="20"/>
-      <c r="CO28" s="20"/>
-      <c r="CP28" s="20">
+      <c r="CM28" s="33"/>
+      <c r="CN28" s="33"/>
+      <c r="CO28" s="33"/>
+      <c r="CP28" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="22"/>
+      <c r="CQ28" s="33"/>
+      <c r="CR28" s="33"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26417,23 +26447,26 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="6" t="s">
+      <c r="CL29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="6" t="s">
+      <c r="CM29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="6" t="s">
+      <c r="CN29" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="6" t="s">
+      <c r="CO29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR29" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26707,25 +26740,27 @@
       <c r="CK31" s="18">
         <v>19416.096899922053</v>
       </c>
-      <c r="CL31" s="18">
+      <c r="CL31" s="23">
         <v>19772.949251658556</v>
       </c>
-      <c r="CM31" s="18">
+      <c r="CM31" s="23">
         <v>18680.670524564997</v>
       </c>
-      <c r="CN31" s="18">
+      <c r="CN31" s="23">
         <v>20599.519887417155</v>
       </c>
-      <c r="CO31" s="18">
+      <c r="CO31" s="23">
         <v>30101.362404458672</v>
       </c>
-      <c r="CP31" s="18">
+      <c r="CP31" s="23">
         <v>32198.134643113197</v>
       </c>
-      <c r="CQ31" s="18">
-        <v>25676.790829229485</v>
-      </c>
-      <c r="CR31" s="9"/>
+      <c r="CQ31" s="23">
+        <v>25432.823313286179</v>
+      </c>
+      <c r="CR31" s="23">
+        <v>26270.210896125438</v>
+      </c>
       <c r="CS31" s="9"/>
       <c r="CT31" s="9"/>
       <c r="CU31" s="9"/>
@@ -27102,25 +27137,27 @@
       <c r="CK32" s="18">
         <v>54246.506521998381</v>
       </c>
-      <c r="CL32" s="18">
+      <c r="CL32" s="23">
         <v>63885.717107942037</v>
       </c>
-      <c r="CM32" s="18">
+      <c r="CM32" s="23">
         <v>47915.781996721969</v>
       </c>
-      <c r="CN32" s="18">
+      <c r="CN32" s="23">
         <v>56599.28675783363</v>
       </c>
-      <c r="CO32" s="18">
+      <c r="CO32" s="23">
         <v>70624.966855012244</v>
       </c>
-      <c r="CP32" s="18">
+      <c r="CP32" s="23">
         <v>74717.583630875568</v>
       </c>
-      <c r="CQ32" s="18">
-        <v>59784.260875440494</v>
-      </c>
-      <c r="CR32" s="9"/>
+      <c r="CQ32" s="23">
+        <v>59298.01889829534</v>
+      </c>
+      <c r="CR32" s="23">
+        <v>66361.697623267639</v>
+      </c>
       <c r="CS32" s="9"/>
       <c r="CT32" s="9"/>
       <c r="CU32" s="9"/>
@@ -27318,13 +27355,13 @@
       <c r="CI33" s="9"/>
       <c r="CJ33" s="9"/>
       <c r="CK33" s="9"/>
-      <c r="CL33" s="9"/>
-      <c r="CM33" s="9"/>
-      <c r="CN33" s="9"/>
-      <c r="CO33" s="9"/>
-      <c r="CP33" s="9"/>
-      <c r="CQ33" s="9"/>
-      <c r="CR33" s="9"/>
+      <c r="CL33" s="24"/>
+      <c r="CM33" s="24"/>
+      <c r="CN33" s="24"/>
+      <c r="CO33" s="24"/>
+      <c r="CP33" s="24"/>
+      <c r="CQ33" s="24"/>
+      <c r="CR33" s="24"/>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
@@ -27701,25 +27738,27 @@
       <c r="CK34" s="19">
         <v>73662.60342192043</v>
       </c>
-      <c r="CL34" s="19">
+      <c r="CL34" s="25">
         <v>83658.666359600596</v>
       </c>
-      <c r="CM34" s="19">
+      <c r="CM34" s="25">
         <v>66596.452521286963</v>
       </c>
-      <c r="CN34" s="19">
+      <c r="CN34" s="25">
         <v>77198.806645250792</v>
       </c>
-      <c r="CO34" s="19">
+      <c r="CO34" s="25">
         <v>100726.32925947092</v>
       </c>
-      <c r="CP34" s="19">
+      <c r="CP34" s="25">
         <v>106915.71827398876</v>
       </c>
-      <c r="CQ34" s="19">
-        <v>85461.051704669982</v>
-      </c>
-      <c r="CR34" s="9"/>
+      <c r="CQ34" s="25">
+        <v>84730.842211581519</v>
+      </c>
+      <c r="CR34" s="25">
+        <v>92631.90851939308</v>
+      </c>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
@@ -27918,12 +27957,13 @@
       <c r="CI35" s="12"/>
       <c r="CJ35" s="12"/>
       <c r="CK35" s="12"/>
-      <c r="CL35" s="12"/>
-      <c r="CM35" s="12"/>
-      <c r="CN35" s="12"/>
-      <c r="CO35" s="12"/>
-      <c r="CP35" s="12"/>
-      <c r="CQ35" s="12"/>
+      <c r="CL35" s="26"/>
+      <c r="CM35" s="26"/>
+      <c r="CN35" s="26"/>
+      <c r="CO35" s="26"/>
+      <c r="CP35" s="26"/>
+      <c r="CQ35" s="26"/>
+      <c r="CR35" s="26"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28019,13 +28059,13 @@
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
       <c r="CK37" s="9"/>
-      <c r="CL37" s="9"/>
-      <c r="CM37" s="9"/>
-      <c r="CN37" s="9"/>
-      <c r="CO37" s="9"/>
-      <c r="CP37" s="9"/>
-      <c r="CQ37" s="9"/>
-      <c r="CR37" s="9"/>
+      <c r="CL37" s="24"/>
+      <c r="CM37" s="24"/>
+      <c r="CN37" s="24"/>
+      <c r="CO37" s="24"/>
+      <c r="CP37" s="24"/>
+      <c r="CQ37" s="24"/>
+      <c r="CR37" s="24"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -28223,13 +28263,13 @@
       <c r="CI38" s="9"/>
       <c r="CJ38" s="9"/>
       <c r="CK38" s="9"/>
-      <c r="CL38" s="9"/>
-      <c r="CM38" s="9"/>
-      <c r="CN38" s="9"/>
-      <c r="CO38" s="9"/>
-      <c r="CP38" s="9"/>
-      <c r="CQ38" s="9"/>
-      <c r="CR38" s="9"/>
+      <c r="CL38" s="24"/>
+      <c r="CM38" s="24"/>
+      <c r="CN38" s="24"/>
+      <c r="CO38" s="24"/>
+      <c r="CP38" s="24"/>
+      <c r="CQ38" s="24"/>
+      <c r="CR38" s="24"/>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
@@ -28370,146 +28410,147 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20" t="s">
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20" t="s">
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20" t="s">
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20" t="s">
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="Q47" s="31"/>
+      <c r="R47" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20" t="s">
+      <c r="S47" s="31"/>
+      <c r="T47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="20"/>
-      <c r="X47" s="20"/>
-      <c r="Y47" s="20"/>
-      <c r="Z47" s="20" t="s">
+      <c r="W47" s="31"/>
+      <c r="X47" s="31"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="20"/>
-      <c r="AB47" s="20"/>
-      <c r="AC47" s="20"/>
-      <c r="AD47" s="20" t="s">
+      <c r="AA47" s="31"/>
+      <c r="AB47" s="31"/>
+      <c r="AC47" s="31"/>
+      <c r="AD47" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
-      <c r="AG47" s="20"/>
-      <c r="AH47" s="20" t="s">
+      <c r="AE47" s="31"/>
+      <c r="AF47" s="31"/>
+      <c r="AG47" s="31"/>
+      <c r="AH47" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="20"/>
-      <c r="AJ47" s="20"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20" t="s">
+      <c r="AI47" s="31"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="31"/>
+      <c r="AL47" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="20"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
-      <c r="AP47" s="20" t="s">
+      <c r="AM47" s="31"/>
+      <c r="AN47" s="31"/>
+      <c r="AO47" s="31"/>
+      <c r="AP47" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
-      <c r="AS47" s="20"/>
-      <c r="AT47" s="20" t="s">
+      <c r="AQ47" s="31"/>
+      <c r="AR47" s="31"/>
+      <c r="AS47" s="31"/>
+      <c r="AT47" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="20"/>
-      <c r="AV47" s="20"/>
-      <c r="AW47" s="20"/>
-      <c r="AX47" s="20" t="s">
+      <c r="AU47" s="31"/>
+      <c r="AV47" s="31"/>
+      <c r="AW47" s="31"/>
+      <c r="AX47" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="20"/>
-      <c r="AZ47" s="20"/>
-      <c r="BA47" s="20"/>
-      <c r="BB47" s="20" t="s">
+      <c r="AY47" s="31"/>
+      <c r="AZ47" s="31"/>
+      <c r="BA47" s="31"/>
+      <c r="BB47" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="20"/>
-      <c r="BD47" s="20"/>
-      <c r="BE47" s="20"/>
-      <c r="BF47" s="20" t="s">
+      <c r="BC47" s="31"/>
+      <c r="BD47" s="31"/>
+      <c r="BE47" s="31"/>
+      <c r="BF47" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="20"/>
-      <c r="BH47" s="20"/>
-      <c r="BI47" s="20"/>
-      <c r="BJ47" s="20" t="s">
+      <c r="BG47" s="31"/>
+      <c r="BH47" s="31"/>
+      <c r="BI47" s="31"/>
+      <c r="BJ47" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="20"/>
-      <c r="BL47" s="20"/>
-      <c r="BM47" s="20"/>
-      <c r="BN47" s="20" t="s">
+      <c r="BK47" s="31"/>
+      <c r="BL47" s="31"/>
+      <c r="BM47" s="31"/>
+      <c r="BN47" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="20"/>
-      <c r="BP47" s="20"/>
-      <c r="BQ47" s="20"/>
-      <c r="BR47" s="20" t="s">
+      <c r="BO47" s="31"/>
+      <c r="BP47" s="31"/>
+      <c r="BQ47" s="31"/>
+      <c r="BR47" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="20"/>
-      <c r="BT47" s="20"/>
-      <c r="BU47" s="20"/>
-      <c r="BV47" s="20" t="s">
+      <c r="BS47" s="31"/>
+      <c r="BT47" s="31"/>
+      <c r="BU47" s="31"/>
+      <c r="BV47" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="20"/>
-      <c r="BX47" s="20"/>
-      <c r="BY47" s="20"/>
-      <c r="BZ47" s="20" t="s">
+      <c r="BW47" s="31"/>
+      <c r="BX47" s="31"/>
+      <c r="BY47" s="31"/>
+      <c r="BZ47" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="20"/>
-      <c r="CB47" s="20"/>
-      <c r="CC47" s="20"/>
-      <c r="CD47" s="20" t="s">
+      <c r="CA47" s="31"/>
+      <c r="CB47" s="31"/>
+      <c r="CC47" s="31"/>
+      <c r="CD47" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="20"/>
-      <c r="CF47" s="20"/>
-      <c r="CG47" s="20"/>
-      <c r="CH47" s="20" t="s">
+      <c r="CE47" s="31"/>
+      <c r="CF47" s="31"/>
+      <c r="CG47" s="31"/>
+      <c r="CH47" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="20"/>
-      <c r="CJ47" s="20"/>
-      <c r="CK47" s="20"/>
-      <c r="CL47" s="20" t="s">
+      <c r="CI47" s="31"/>
+      <c r="CJ47" s="31"/>
+      <c r="CK47" s="31"/>
+      <c r="CL47" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="20"/>
-      <c r="CN47" s="20"/>
-      <c r="CO47" s="20"/>
+      <c r="CM47" s="33"/>
+      <c r="CN47" s="33"/>
+      <c r="CO47" s="28"/>
       <c r="CP47" s="20"/>
-      <c r="CQ47" s="22"/>
+      <c r="CQ47" s="20"/>
+      <c r="CR47" s="20"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28779,16 +28820,19 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5" t="s">
+      <c r="CL48" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5" t="s">
+      <c r="CM48" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="5"/>
-      <c r="CO48" s="5"/>
-      <c r="CP48" s="5"/>
-      <c r="CQ48" s="5"/>
+      <c r="CN48" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO48" s="29"/>
+      <c r="CP48" s="29"/>
+      <c r="CQ48" s="29"/>
+      <c r="CR48" s="29"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -29061,17 +29105,19 @@
       <c r="CK50" s="15">
         <v>61.013836697111969</v>
       </c>
-      <c r="CL50" s="15">
+      <c r="CL50" s="30">
         <v>70.624438473788132</v>
       </c>
-      <c r="CM50" s="15">
-        <v>44.063266773942246</v>
-      </c>
-      <c r="CN50" s="15"/>
-      <c r="CO50" s="15"/>
-      <c r="CP50" s="15"/>
-      <c r="CQ50" s="15"/>
-      <c r="CR50" s="9"/>
+      <c r="CM50" s="30">
+        <v>42.617068151889271</v>
+      </c>
+      <c r="CN50" s="30">
+        <v>32.842306728735622</v>
+      </c>
+      <c r="CO50" s="30"/>
+      <c r="CP50" s="30"/>
+      <c r="CQ50" s="30"/>
+      <c r="CR50" s="30"/>
       <c r="CS50" s="9"/>
       <c r="CT50" s="9"/>
       <c r="CU50" s="9"/>
@@ -29444,17 +29490,19 @@
       <c r="CK51" s="15">
         <v>40.281792753187631</v>
       </c>
-      <c r="CL51" s="15">
+      <c r="CL51" s="30">
         <v>26.99740524578435</v>
       </c>
-      <c r="CM51" s="15">
-        <v>30.621312556831327</v>
-      </c>
-      <c r="CN51" s="15"/>
-      <c r="CO51" s="15"/>
-      <c r="CP51" s="15"/>
-      <c r="CQ51" s="15"/>
-      <c r="CR51" s="9"/>
+      <c r="CM51" s="30">
+        <v>29.558933189003056</v>
+      </c>
+      <c r="CN51" s="30">
+        <v>21.393013365145293</v>
+      </c>
+      <c r="CO51" s="30"/>
+      <c r="CP51" s="30"/>
+      <c r="CQ51" s="30"/>
+      <c r="CR51" s="30"/>
       <c r="CS51" s="9"/>
       <c r="CT51" s="9"/>
       <c r="CU51" s="9"/>
@@ -29649,13 +29697,13 @@
       <c r="CI52" s="9"/>
       <c r="CJ52" s="9"/>
       <c r="CK52" s="9"/>
-      <c r="CL52" s="9"/>
-      <c r="CM52" s="9"/>
-      <c r="CN52" s="9"/>
-      <c r="CO52" s="9"/>
-      <c r="CP52" s="9"/>
-      <c r="CQ52" s="9"/>
-      <c r="CR52" s="9"/>
+      <c r="CL52" s="24"/>
+      <c r="CM52" s="24"/>
+      <c r="CN52" s="24"/>
+      <c r="CO52" s="24"/>
+      <c r="CP52" s="24"/>
+      <c r="CQ52" s="24"/>
+      <c r="CR52" s="24"/>
       <c r="CS52" s="9"/>
       <c r="CT52" s="9"/>
       <c r="CU52" s="9"/>
@@ -30028,17 +30076,19 @@
       <c r="CK53" s="15">
         <v>45.433069155918901</v>
       </c>
-      <c r="CL53" s="15">
+      <c r="CL53" s="30">
         <v>36.746632280850093</v>
       </c>
-      <c r="CM53" s="15">
-        <v>34.114362977891432</v>
-      </c>
-      <c r="CN53" s="15"/>
-      <c r="CO53" s="15"/>
-      <c r="CP53" s="15"/>
-      <c r="CQ53" s="15"/>
-      <c r="CR53" s="9"/>
+      <c r="CM53" s="30">
+        <v>32.952243647709025</v>
+      </c>
+      <c r="CN53" s="30">
+        <v>24.191301939257272</v>
+      </c>
+      <c r="CO53" s="30"/>
+      <c r="CP53" s="30"/>
+      <c r="CQ53" s="30"/>
+      <c r="CR53" s="30"/>
       <c r="CS53" s="9"/>
       <c r="CT53" s="9"/>
       <c r="CU53" s="9"/>
@@ -30233,12 +30283,13 @@
       <c r="CI54" s="12"/>
       <c r="CJ54" s="12"/>
       <c r="CK54" s="12"/>
-      <c r="CL54" s="12"/>
-      <c r="CM54" s="12"/>
-      <c r="CN54" s="12"/>
-      <c r="CO54" s="12"/>
-      <c r="CP54" s="12"/>
-      <c r="CQ54" s="12"/>
+      <c r="CL54" s="26"/>
+      <c r="CM54" s="26"/>
+      <c r="CN54" s="26"/>
+      <c r="CO54" s="26"/>
+      <c r="CP54" s="26"/>
+      <c r="CQ54" s="26"/>
+      <c r="CR54" s="26"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30334,13 +30385,13 @@
       <c r="CI56" s="9"/>
       <c r="CJ56" s="9"/>
       <c r="CK56" s="9"/>
-      <c r="CL56" s="9"/>
-      <c r="CM56" s="9"/>
-      <c r="CN56" s="9"/>
-      <c r="CO56" s="9"/>
-      <c r="CP56" s="9"/>
-      <c r="CQ56" s="9"/>
-      <c r="CR56" s="9"/>
+      <c r="CL56" s="24"/>
+      <c r="CM56" s="24"/>
+      <c r="CN56" s="24"/>
+      <c r="CO56" s="24"/>
+      <c r="CP56" s="24"/>
+      <c r="CQ56" s="24"/>
+      <c r="CR56" s="24"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
@@ -30534,13 +30585,13 @@
       <c r="CI57" s="9"/>
       <c r="CJ57" s="9"/>
       <c r="CK57" s="9"/>
-      <c r="CL57" s="9"/>
-      <c r="CM57" s="9"/>
-      <c r="CN57" s="9"/>
-      <c r="CO57" s="9"/>
-      <c r="CP57" s="9"/>
-      <c r="CQ57" s="9"/>
-      <c r="CR57" s="9"/>
+      <c r="CL57" s="24"/>
+      <c r="CM57" s="24"/>
+      <c r="CN57" s="24"/>
+      <c r="CO57" s="24"/>
+      <c r="CP57" s="24"/>
+      <c r="CQ57" s="24"/>
+      <c r="CR57" s="24"/>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
@@ -30677,146 +30728,147 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="20" t="s">
+      <c r="C66" s="33"/>
+      <c r="D66" s="33"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="20" t="s">
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="20" t="s">
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="20" t="s">
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="20" t="s">
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="20" t="s">
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="20" t="s">
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="33"/>
+      <c r="AD66" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="20" t="s">
+      <c r="AE66" s="33"/>
+      <c r="AF66" s="33"/>
+      <c r="AG66" s="33"/>
+      <c r="AH66" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="20" t="s">
+      <c r="AI66" s="33"/>
+      <c r="AJ66" s="33"/>
+      <c r="AK66" s="33"/>
+      <c r="AL66" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="22"/>
-      <c r="AO66" s="22"/>
-      <c r="AP66" s="20" t="s">
+      <c r="AM66" s="33"/>
+      <c r="AN66" s="33"/>
+      <c r="AO66" s="33"/>
+      <c r="AP66" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="22"/>
-      <c r="AR66" s="22"/>
-      <c r="AS66" s="22"/>
-      <c r="AT66" s="20" t="s">
+      <c r="AQ66" s="33"/>
+      <c r="AR66" s="33"/>
+      <c r="AS66" s="33"/>
+      <c r="AT66" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="22"/>
-      <c r="AV66" s="22"/>
-      <c r="AW66" s="22"/>
-      <c r="AX66" s="20" t="s">
+      <c r="AU66" s="33"/>
+      <c r="AV66" s="33"/>
+      <c r="AW66" s="33"/>
+      <c r="AX66" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="22"/>
-      <c r="AZ66" s="22"/>
-      <c r="BA66" s="22"/>
-      <c r="BB66" s="20" t="s">
+      <c r="AY66" s="33"/>
+      <c r="AZ66" s="33"/>
+      <c r="BA66" s="33"/>
+      <c r="BB66" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="22"/>
-      <c r="BD66" s="22"/>
-      <c r="BE66" s="22"/>
-      <c r="BF66" s="20" t="s">
+      <c r="BC66" s="33"/>
+      <c r="BD66" s="33"/>
+      <c r="BE66" s="33"/>
+      <c r="BF66" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="22"/>
-      <c r="BH66" s="22"/>
-      <c r="BI66" s="22"/>
-      <c r="BJ66" s="20" t="s">
+      <c r="BG66" s="33"/>
+      <c r="BH66" s="33"/>
+      <c r="BI66" s="33"/>
+      <c r="BJ66" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="22"/>
-      <c r="BL66" s="22"/>
-      <c r="BM66" s="22"/>
-      <c r="BN66" s="20" t="s">
+      <c r="BK66" s="33"/>
+      <c r="BL66" s="33"/>
+      <c r="BM66" s="33"/>
+      <c r="BN66" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="22"/>
-      <c r="BP66" s="22"/>
-      <c r="BQ66" s="22"/>
-      <c r="BR66" s="20" t="s">
+      <c r="BO66" s="33"/>
+      <c r="BP66" s="33"/>
+      <c r="BQ66" s="33"/>
+      <c r="BR66" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="22"/>
-      <c r="BT66" s="22"/>
-      <c r="BU66" s="22"/>
-      <c r="BV66" s="20" t="s">
+      <c r="BS66" s="33"/>
+      <c r="BT66" s="33"/>
+      <c r="BU66" s="33"/>
+      <c r="BV66" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="22"/>
-      <c r="BX66" s="22"/>
-      <c r="BY66" s="22"/>
-      <c r="BZ66" s="20" t="s">
+      <c r="BW66" s="33"/>
+      <c r="BX66" s="33"/>
+      <c r="BY66" s="33"/>
+      <c r="BZ66" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="22"/>
-      <c r="CB66" s="22"/>
-      <c r="CC66" s="22"/>
-      <c r="CD66" s="20" t="s">
+      <c r="CA66" s="33"/>
+      <c r="CB66" s="33"/>
+      <c r="CC66" s="33"/>
+      <c r="CD66" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="20"/>
-      <c r="CF66" s="20"/>
-      <c r="CG66" s="20"/>
-      <c r="CH66" s="20" t="s">
+      <c r="CE66" s="31"/>
+      <c r="CF66" s="31"/>
+      <c r="CG66" s="31"/>
+      <c r="CH66" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="20"/>
-      <c r="CJ66" s="20"/>
-      <c r="CK66" s="20"/>
-      <c r="CL66" s="20" t="s">
+      <c r="CI66" s="31"/>
+      <c r="CJ66" s="31"/>
+      <c r="CK66" s="31"/>
+      <c r="CL66" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="20"/>
-      <c r="CN66" s="20"/>
-      <c r="CO66" s="20"/>
+      <c r="CM66" s="33"/>
+      <c r="CN66" s="33"/>
+      <c r="CO66" s="28"/>
       <c r="CP66" s="20"/>
-      <c r="CQ66" s="22"/>
+      <c r="CQ66" s="20"/>
+      <c r="CR66" s="20"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31086,16 +31138,19 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5" t="s">
+      <c r="CL67" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5" t="s">
+      <c r="CM67" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="5"/>
-      <c r="CO67" s="5"/>
-      <c r="CP67" s="5"/>
-      <c r="CQ67" s="5"/>
+      <c r="CN67" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO67" s="29"/>
+      <c r="CP67" s="29"/>
+      <c r="CQ67" s="29"/>
+      <c r="CR67" s="29"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31368,17 +31423,19 @@
       <c r="CK69" s="15">
         <v>55.033025224444145</v>
       </c>
-      <c r="CL69" s="15">
+      <c r="CL69" s="30">
         <v>62.839312604883247</v>
       </c>
-      <c r="CM69" s="15">
-        <v>37.45111983782715</v>
-      </c>
-      <c r="CN69" s="15"/>
-      <c r="CO69" s="15"/>
-      <c r="CP69" s="15"/>
-      <c r="CQ69" s="15"/>
-      <c r="CR69" s="9"/>
+      <c r="CM69" s="30">
+        <v>36.145130764134677</v>
+      </c>
+      <c r="CN69" s="30">
+        <v>27.528267841679764</v>
+      </c>
+      <c r="CO69" s="30"/>
+      <c r="CP69" s="30"/>
+      <c r="CQ69" s="30"/>
+      <c r="CR69" s="30"/>
       <c r="CS69" s="9"/>
       <c r="CT69" s="9"/>
       <c r="CU69" s="9"/>
@@ -31751,17 +31808,19 @@
       <c r="CK70" s="15">
         <v>30.192654574671963</v>
       </c>
-      <c r="CL70" s="15">
+      <c r="CL70" s="30">
         <v>16.955067600840863</v>
       </c>
-      <c r="CM70" s="15">
-        <v>24.769456709546091</v>
-      </c>
-      <c r="CN70" s="15"/>
-      <c r="CO70" s="15"/>
-      <c r="CP70" s="15"/>
-      <c r="CQ70" s="15"/>
-      <c r="CR70" s="9"/>
+      <c r="CM70" s="30">
+        <v>23.754672108559262</v>
+      </c>
+      <c r="CN70" s="30">
+        <v>17.248293087514639</v>
+      </c>
+      <c r="CO70" s="30"/>
+      <c r="CP70" s="30"/>
+      <c r="CQ70" s="30"/>
+      <c r="CR70" s="30"/>
       <c r="CS70" s="9"/>
       <c r="CT70" s="9"/>
       <c r="CU70" s="9"/>
@@ -31955,13 +32014,13 @@
       <c r="CI71" s="9"/>
       <c r="CJ71" s="9"/>
       <c r="CK71" s="9"/>
-      <c r="CL71" s="9"/>
-      <c r="CM71" s="9"/>
-      <c r="CN71" s="9"/>
-      <c r="CO71" s="9"/>
-      <c r="CP71" s="9"/>
-      <c r="CQ71" s="9"/>
-      <c r="CR71" s="9"/>
+      <c r="CL71" s="24"/>
+      <c r="CM71" s="24"/>
+      <c r="CN71" s="24"/>
+      <c r="CO71" s="24"/>
+      <c r="CP71" s="24"/>
+      <c r="CQ71" s="24"/>
+      <c r="CR71" s="24"/>
       <c r="CS71" s="9"/>
       <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
@@ -32334,17 +32393,19 @@
       <c r="CK72" s="15">
         <v>36.740115853001356</v>
       </c>
-      <c r="CL72" s="15">
+      <c r="CL72" s="30">
         <v>27.799931467254638</v>
       </c>
-      <c r="CM72" s="15">
-        <v>28.3267328351358</v>
-      </c>
-      <c r="CN72" s="15"/>
-      <c r="CO72" s="15"/>
-      <c r="CP72" s="15"/>
-      <c r="CQ72" s="15"/>
-      <c r="CR72" s="9"/>
+      <c r="CM72" s="30">
+        <v>27.230263780939467</v>
+      </c>
+      <c r="CN72" s="30">
+        <v>19.99137362972661</v>
+      </c>
+      <c r="CO72" s="30"/>
+      <c r="CP72" s="30"/>
+      <c r="CQ72" s="30"/>
+      <c r="CR72" s="30"/>
       <c r="CS72" s="9"/>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
@@ -32539,12 +32600,13 @@
       <c r="CI73" s="12"/>
       <c r="CJ73" s="12"/>
       <c r="CK73" s="12"/>
-      <c r="CL73" s="12"/>
-      <c r="CM73" s="12"/>
-      <c r="CN73" s="12"/>
-      <c r="CO73" s="12"/>
-      <c r="CP73" s="12"/>
-      <c r="CQ73" s="12"/>
+      <c r="CL73" s="26"/>
+      <c r="CM73" s="26"/>
+      <c r="CN73" s="26"/>
+      <c r="CO73" s="26"/>
+      <c r="CP73" s="26"/>
+      <c r="CQ73" s="26"/>
+      <c r="CR73" s="26"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32640,13 +32702,13 @@
       <c r="CI75" s="9"/>
       <c r="CJ75" s="9"/>
       <c r="CK75" s="9"/>
-      <c r="CL75" s="9"/>
-      <c r="CM75" s="9"/>
-      <c r="CN75" s="9"/>
-      <c r="CO75" s="9"/>
-      <c r="CP75" s="9"/>
-      <c r="CQ75" s="9"/>
-      <c r="CR75" s="9"/>
+      <c r="CL75" s="24"/>
+      <c r="CM75" s="24"/>
+      <c r="CN75" s="24"/>
+      <c r="CO75" s="24"/>
+      <c r="CP75" s="24"/>
+      <c r="CQ75" s="24"/>
+      <c r="CR75" s="24"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
@@ -32844,13 +32906,13 @@
       <c r="CI76" s="9"/>
       <c r="CJ76" s="9"/>
       <c r="CK76" s="9"/>
-      <c r="CL76" s="9"/>
-      <c r="CM76" s="9"/>
-      <c r="CN76" s="9"/>
-      <c r="CO76" s="9"/>
-      <c r="CP76" s="9"/>
-      <c r="CQ76" s="9"/>
-      <c r="CR76" s="9"/>
+      <c r="CL76" s="24"/>
+      <c r="CM76" s="24"/>
+      <c r="CN76" s="24"/>
+      <c r="CO76" s="24"/>
+      <c r="CP76" s="24"/>
+      <c r="CQ76" s="24"/>
+      <c r="CR76" s="24"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
@@ -32986,148 +33048,149 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="20">
+      <c r="B84" s="31">
         <v>2000</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="20">
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="31">
         <v>2001</v>
       </c>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="20">
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="31">
         <v>2002</v>
       </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-      <c r="M84" s="21"/>
-      <c r="N84" s="20">
+      <c r="K84" s="32"/>
+      <c r="L84" s="32"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="31">
         <v>2003</v>
       </c>
-      <c r="O84" s="21"/>
-      <c r="P84" s="21"/>
-      <c r="Q84" s="21"/>
-      <c r="R84" s="20">
+      <c r="O84" s="32"/>
+      <c r="P84" s="32"/>
+      <c r="Q84" s="32"/>
+      <c r="R84" s="31">
         <v>2004</v>
       </c>
-      <c r="S84" s="21"/>
-      <c r="T84" s="21"/>
-      <c r="U84" s="21"/>
-      <c r="V84" s="20">
+      <c r="S84" s="32"/>
+      <c r="T84" s="32"/>
+      <c r="U84" s="32"/>
+      <c r="V84" s="31">
         <v>2005</v>
       </c>
-      <c r="W84" s="21"/>
-      <c r="X84" s="21"/>
-      <c r="Y84" s="21"/>
-      <c r="Z84" s="20">
+      <c r="W84" s="32"/>
+      <c r="X84" s="32"/>
+      <c r="Y84" s="32"/>
+      <c r="Z84" s="31">
         <v>2006</v>
       </c>
-      <c r="AA84" s="21"/>
-      <c r="AB84" s="21"/>
-      <c r="AC84" s="21"/>
-      <c r="AD84" s="20">
+      <c r="AA84" s="32"/>
+      <c r="AB84" s="32"/>
+      <c r="AC84" s="32"/>
+      <c r="AD84" s="31">
         <v>2007</v>
       </c>
-      <c r="AE84" s="21"/>
-      <c r="AF84" s="21"/>
-      <c r="AG84" s="21"/>
-      <c r="AH84" s="20">
+      <c r="AE84" s="32"/>
+      <c r="AF84" s="32"/>
+      <c r="AG84" s="32"/>
+      <c r="AH84" s="31">
         <v>2008</v>
       </c>
-      <c r="AI84" s="21"/>
-      <c r="AJ84" s="21"/>
-      <c r="AK84" s="21"/>
-      <c r="AL84" s="20">
+      <c r="AI84" s="32"/>
+      <c r="AJ84" s="32"/>
+      <c r="AK84" s="32"/>
+      <c r="AL84" s="31">
         <v>2009</v>
       </c>
-      <c r="AM84" s="21"/>
-      <c r="AN84" s="21"/>
-      <c r="AO84" s="21"/>
-      <c r="AP84" s="20">
+      <c r="AM84" s="32"/>
+      <c r="AN84" s="32"/>
+      <c r="AO84" s="32"/>
+      <c r="AP84" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="21"/>
-      <c r="AR84" s="21"/>
-      <c r="AS84" s="21"/>
-      <c r="AT84" s="20">
+      <c r="AQ84" s="32"/>
+      <c r="AR84" s="32"/>
+      <c r="AS84" s="32"/>
+      <c r="AT84" s="31">
         <v>2011</v>
       </c>
-      <c r="AU84" s="21"/>
-      <c r="AV84" s="21"/>
-      <c r="AW84" s="21"/>
-      <c r="AX84" s="20">
+      <c r="AU84" s="32"/>
+      <c r="AV84" s="32"/>
+      <c r="AW84" s="32"/>
+      <c r="AX84" s="31">
         <v>2012</v>
       </c>
-      <c r="AY84" s="21"/>
-      <c r="AZ84" s="21"/>
-      <c r="BA84" s="21"/>
-      <c r="BB84" s="20">
+      <c r="AY84" s="32"/>
+      <c r="AZ84" s="32"/>
+      <c r="BA84" s="32"/>
+      <c r="BB84" s="31">
         <v>2013</v>
       </c>
-      <c r="BC84" s="21"/>
-      <c r="BD84" s="21"/>
-      <c r="BE84" s="21"/>
-      <c r="BF84" s="20">
+      <c r="BC84" s="32"/>
+      <c r="BD84" s="32"/>
+      <c r="BE84" s="32"/>
+      <c r="BF84" s="31">
         <v>2014</v>
       </c>
-      <c r="BG84" s="21"/>
-      <c r="BH84" s="21"/>
-      <c r="BI84" s="21"/>
-      <c r="BJ84" s="20">
+      <c r="BG84" s="32"/>
+      <c r="BH84" s="32"/>
+      <c r="BI84" s="32"/>
+      <c r="BJ84" s="31">
         <v>2015</v>
       </c>
-      <c r="BK84" s="21"/>
-      <c r="BL84" s="21"/>
-      <c r="BM84" s="21"/>
-      <c r="BN84" s="20">
+      <c r="BK84" s="32"/>
+      <c r="BL84" s="32"/>
+      <c r="BM84" s="32"/>
+      <c r="BN84" s="31">
         <v>2016</v>
       </c>
-      <c r="BO84" s="21"/>
-      <c r="BP84" s="21"/>
-      <c r="BQ84" s="21"/>
-      <c r="BR84" s="20">
+      <c r="BO84" s="32"/>
+      <c r="BP84" s="32"/>
+      <c r="BQ84" s="32"/>
+      <c r="BR84" s="31">
         <v>2017</v>
       </c>
-      <c r="BS84" s="21"/>
-      <c r="BT84" s="21"/>
-      <c r="BU84" s="21"/>
-      <c r="BV84" s="20">
+      <c r="BS84" s="32"/>
+      <c r="BT84" s="32"/>
+      <c r="BU84" s="32"/>
+      <c r="BV84" s="31">
         <v>2018</v>
       </c>
-      <c r="BW84" s="21"/>
-      <c r="BX84" s="21"/>
-      <c r="BY84" s="21"/>
-      <c r="BZ84" s="20">
+      <c r="BW84" s="32"/>
+      <c r="BX84" s="32"/>
+      <c r="BY84" s="32"/>
+      <c r="BZ84" s="31">
         <v>2019</v>
       </c>
-      <c r="CA84" s="21"/>
-      <c r="CB84" s="21"/>
-      <c r="CC84" s="21"/>
-      <c r="CD84" s="20">
+      <c r="CA84" s="32"/>
+      <c r="CB84" s="32"/>
+      <c r="CC84" s="32"/>
+      <c r="CD84" s="31">
         <v>2020</v>
       </c>
-      <c r="CE84" s="20"/>
-      <c r="CF84" s="20"/>
-      <c r="CG84" s="20"/>
-      <c r="CH84" s="20">
+      <c r="CE84" s="31"/>
+      <c r="CF84" s="31"/>
+      <c r="CG84" s="31"/>
+      <c r="CH84" s="31">
         <v>2021</v>
       </c>
-      <c r="CI84" s="20"/>
-      <c r="CJ84" s="20"/>
-      <c r="CK84" s="20"/>
-      <c r="CL84" s="20">
+      <c r="CI84" s="31"/>
+      <c r="CJ84" s="31"/>
+      <c r="CK84" s="31"/>
+      <c r="CL84" s="33">
         <v>2022</v>
       </c>
-      <c r="CM84" s="20"/>
-      <c r="CN84" s="20"/>
-      <c r="CO84" s="20"/>
-      <c r="CP84" s="20">
+      <c r="CM84" s="33"/>
+      <c r="CN84" s="33"/>
+      <c r="CO84" s="33"/>
+      <c r="CP84" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="22"/>
+      <c r="CQ84" s="33"/>
+      <c r="CR84" s="33"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33397,23 +33460,26 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="6" t="s">
+      <c r="CL85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6" t="s">
+      <c r="CM85" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="6" t="s">
+      <c r="CN85" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="6" t="s">
+      <c r="CO85" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR85" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33687,25 +33753,27 @@
       <c r="CK87" s="15">
         <v>108.06880471121292</v>
       </c>
-      <c r="CL87" s="15">
+      <c r="CL87" s="30">
         <v>112.89293468206638</v>
       </c>
-      <c r="CM87" s="15">
+      <c r="CM87" s="30">
         <v>111.46655877131178</v>
       </c>
-      <c r="CN87" s="15">
+      <c r="CN87" s="30">
         <v>109.43710197026648</v>
       </c>
-      <c r="CO87" s="15">
+      <c r="CO87" s="30">
         <v>112.23784641131911</v>
       </c>
-      <c r="CP87" s="15">
+      <c r="CP87" s="30">
         <v>118.290192212516</v>
       </c>
-      <c r="CQ87" s="15">
-        <v>116.82870690025113</v>
-      </c>
-      <c r="CR87" s="9"/>
+      <c r="CQ87" s="30">
+        <v>116.76534973906368</v>
+      </c>
+      <c r="CR87" s="30">
+        <v>113.99729105931351</v>
+      </c>
       <c r="CS87" s="9"/>
       <c r="CT87" s="9"/>
       <c r="CU87" s="9"/>
@@ -34082,25 +34150,27 @@
       <c r="CK88" s="15">
         <v>116.99424484412606</v>
       </c>
-      <c r="CL88" s="15">
+      <c r="CL88" s="30">
         <v>121.41701048256701</v>
       </c>
-      <c r="CM88" s="15">
+      <c r="CM88" s="30">
         <v>123.77383601179778</v>
       </c>
-      <c r="CN88" s="15">
+      <c r="CN88" s="30">
         <v>123.13592499172418</v>
       </c>
-      <c r="CO88" s="15">
+      <c r="CO88" s="30">
         <v>126.06058661417178</v>
       </c>
-      <c r="CP88" s="15">
+      <c r="CP88" s="30">
         <v>131.84247250074139</v>
       </c>
-      <c r="CQ88" s="15">
-        <v>129.57899590515771</v>
-      </c>
-      <c r="CR88" s="9"/>
+      <c r="CQ88" s="30">
+        <v>129.57899590515768</v>
+      </c>
+      <c r="CR88" s="30">
+        <v>127.48877271153762</v>
+      </c>
       <c r="CS88" s="9"/>
       <c r="CT88" s="9"/>
       <c r="CU88" s="9"/>
@@ -34298,13 +34368,13 @@
       <c r="CI89" s="9"/>
       <c r="CJ89" s="9"/>
       <c r="CK89" s="9"/>
-      <c r="CL89" s="9"/>
-      <c r="CM89" s="9"/>
-      <c r="CN89" s="9"/>
-      <c r="CO89" s="9"/>
-      <c r="CP89" s="9"/>
-      <c r="CQ89" s="9"/>
-      <c r="CR89" s="9"/>
+      <c r="CL89" s="24"/>
+      <c r="CM89" s="24"/>
+      <c r="CN89" s="24"/>
+      <c r="CO89" s="24"/>
+      <c r="CP89" s="24"/>
+      <c r="CQ89" s="24"/>
+      <c r="CR89" s="24"/>
       <c r="CS89" s="9"/>
       <c r="CT89" s="9"/>
       <c r="CU89" s="9"/>
@@ -34681,25 +34751,27 @@
       <c r="CK90" s="15">
         <v>114.64166426124207</v>
       </c>
-      <c r="CL90" s="15">
+      <c r="CL90" s="30">
         <v>119.40232239877535</v>
       </c>
-      <c r="CM90" s="15">
+      <c r="CM90" s="30">
         <v>120.32157718298843</v>
       </c>
-      <c r="CN90" s="15">
+      <c r="CN90" s="30">
         <v>119.48056826371851</v>
       </c>
-      <c r="CO90" s="15">
+      <c r="CO90" s="30">
         <v>121.92975691623928</v>
       </c>
-      <c r="CP90" s="15">
+      <c r="CP90" s="30">
         <v>127.76114421257283</v>
       </c>
-      <c r="CQ90" s="15">
-        <v>125.74816891132936</v>
-      </c>
-      <c r="CR90" s="9"/>
+      <c r="CQ90" s="30">
+        <v>125.73284979784694</v>
+      </c>
+      <c r="CR90" s="30">
+        <v>123.6626174053352</v>
+      </c>
       <c r="CS90" s="9"/>
       <c r="CT90" s="9"/>
       <c r="CU90" s="9"/>
@@ -34898,12 +34970,13 @@
       <c r="CI91" s="12"/>
       <c r="CJ91" s="12"/>
       <c r="CK91" s="12"/>
-      <c r="CL91" s="12"/>
-      <c r="CM91" s="12"/>
-      <c r="CN91" s="12"/>
-      <c r="CO91" s="12"/>
-      <c r="CP91" s="12"/>
-      <c r="CQ91" s="12"/>
+      <c r="CL91" s="26"/>
+      <c r="CM91" s="26"/>
+      <c r="CN91" s="26"/>
+      <c r="CO91" s="26"/>
+      <c r="CP91" s="26"/>
+      <c r="CQ91" s="26"/>
+      <c r="CR91" s="26"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -34942,148 +35015,149 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="20">
+      <c r="B103" s="31">
         <v>2000</v>
       </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="21"/>
-      <c r="E103" s="21"/>
-      <c r="F103" s="20">
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="31">
         <v>2001</v>
       </c>
-      <c r="G103" s="21"/>
-      <c r="H103" s="21"/>
-      <c r="I103" s="21"/>
-      <c r="J103" s="20">
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="31">
         <v>2002</v>
       </c>
-      <c r="K103" s="21"/>
-      <c r="L103" s="21"/>
-      <c r="M103" s="21"/>
-      <c r="N103" s="20">
+      <c r="K103" s="32"/>
+      <c r="L103" s="32"/>
+      <c r="M103" s="32"/>
+      <c r="N103" s="31">
         <v>2003</v>
       </c>
-      <c r="O103" s="21"/>
-      <c r="P103" s="21"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="20">
+      <c r="O103" s="32"/>
+      <c r="P103" s="32"/>
+      <c r="Q103" s="32"/>
+      <c r="R103" s="31">
         <v>2004</v>
       </c>
-      <c r="S103" s="21"/>
-      <c r="T103" s="21"/>
-      <c r="U103" s="21"/>
-      <c r="V103" s="20">
+      <c r="S103" s="32"/>
+      <c r="T103" s="32"/>
+      <c r="U103" s="32"/>
+      <c r="V103" s="31">
         <v>2005</v>
       </c>
-      <c r="W103" s="21"/>
-      <c r="X103" s="21"/>
-      <c r="Y103" s="21"/>
-      <c r="Z103" s="20">
+      <c r="W103" s="32"/>
+      <c r="X103" s="32"/>
+      <c r="Y103" s="32"/>
+      <c r="Z103" s="31">
         <v>2006</v>
       </c>
-      <c r="AA103" s="21"/>
-      <c r="AB103" s="21"/>
-      <c r="AC103" s="21"/>
-      <c r="AD103" s="20">
+      <c r="AA103" s="32"/>
+      <c r="AB103" s="32"/>
+      <c r="AC103" s="32"/>
+      <c r="AD103" s="31">
         <v>2007</v>
       </c>
-      <c r="AE103" s="21"/>
-      <c r="AF103" s="21"/>
-      <c r="AG103" s="21"/>
-      <c r="AH103" s="20">
+      <c r="AE103" s="32"/>
+      <c r="AF103" s="32"/>
+      <c r="AG103" s="32"/>
+      <c r="AH103" s="31">
         <v>2008</v>
       </c>
-      <c r="AI103" s="21"/>
-      <c r="AJ103" s="21"/>
-      <c r="AK103" s="21"/>
-      <c r="AL103" s="20">
+      <c r="AI103" s="32"/>
+      <c r="AJ103" s="32"/>
+      <c r="AK103" s="32"/>
+      <c r="AL103" s="31">
         <v>2009</v>
       </c>
-      <c r="AM103" s="21"/>
-      <c r="AN103" s="21"/>
-      <c r="AO103" s="21"/>
-      <c r="AP103" s="20">
+      <c r="AM103" s="32"/>
+      <c r="AN103" s="32"/>
+      <c r="AO103" s="32"/>
+      <c r="AP103" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="21"/>
-      <c r="AR103" s="21"/>
-      <c r="AS103" s="21"/>
-      <c r="AT103" s="20">
+      <c r="AQ103" s="32"/>
+      <c r="AR103" s="32"/>
+      <c r="AS103" s="32"/>
+      <c r="AT103" s="31">
         <v>2011</v>
       </c>
-      <c r="AU103" s="21"/>
-      <c r="AV103" s="21"/>
-      <c r="AW103" s="21"/>
-      <c r="AX103" s="20">
+      <c r="AU103" s="32"/>
+      <c r="AV103" s="32"/>
+      <c r="AW103" s="32"/>
+      <c r="AX103" s="31">
         <v>2012</v>
       </c>
-      <c r="AY103" s="21"/>
-      <c r="AZ103" s="21"/>
-      <c r="BA103" s="21"/>
-      <c r="BB103" s="20">
+      <c r="AY103" s="32"/>
+      <c r="AZ103" s="32"/>
+      <c r="BA103" s="32"/>
+      <c r="BB103" s="31">
         <v>2013</v>
       </c>
-      <c r="BC103" s="21"/>
-      <c r="BD103" s="21"/>
-      <c r="BE103" s="21"/>
-      <c r="BF103" s="20">
+      <c r="BC103" s="32"/>
+      <c r="BD103" s="32"/>
+      <c r="BE103" s="32"/>
+      <c r="BF103" s="31">
         <v>2014</v>
       </c>
-      <c r="BG103" s="21"/>
-      <c r="BH103" s="21"/>
-      <c r="BI103" s="21"/>
-      <c r="BJ103" s="20">
+      <c r="BG103" s="32"/>
+      <c r="BH103" s="32"/>
+      <c r="BI103" s="32"/>
+      <c r="BJ103" s="31">
         <v>2015</v>
       </c>
-      <c r="BK103" s="21"/>
-      <c r="BL103" s="21"/>
-      <c r="BM103" s="21"/>
-      <c r="BN103" s="20">
+      <c r="BK103" s="32"/>
+      <c r="BL103" s="32"/>
+      <c r="BM103" s="32"/>
+      <c r="BN103" s="31">
         <v>2016</v>
       </c>
-      <c r="BO103" s="21"/>
-      <c r="BP103" s="21"/>
-      <c r="BQ103" s="21"/>
-      <c r="BR103" s="20">
+      <c r="BO103" s="32"/>
+      <c r="BP103" s="32"/>
+      <c r="BQ103" s="32"/>
+      <c r="BR103" s="31">
         <v>2017</v>
       </c>
-      <c r="BS103" s="21"/>
-      <c r="BT103" s="21"/>
-      <c r="BU103" s="21"/>
-      <c r="BV103" s="20">
+      <c r="BS103" s="32"/>
+      <c r="BT103" s="32"/>
+      <c r="BU103" s="32"/>
+      <c r="BV103" s="31">
         <v>2018</v>
       </c>
-      <c r="BW103" s="21"/>
-      <c r="BX103" s="21"/>
-      <c r="BY103" s="21"/>
-      <c r="BZ103" s="20">
+      <c r="BW103" s="32"/>
+      <c r="BX103" s="32"/>
+      <c r="BY103" s="32"/>
+      <c r="BZ103" s="31">
         <v>2019</v>
       </c>
-      <c r="CA103" s="21"/>
-      <c r="CB103" s="21"/>
-      <c r="CC103" s="21"/>
-      <c r="CD103" s="20">
+      <c r="CA103" s="32"/>
+      <c r="CB103" s="32"/>
+      <c r="CC103" s="32"/>
+      <c r="CD103" s="31">
         <v>2020</v>
       </c>
-      <c r="CE103" s="20"/>
-      <c r="CF103" s="20"/>
-      <c r="CG103" s="20"/>
-      <c r="CH103" s="20">
+      <c r="CE103" s="31"/>
+      <c r="CF103" s="31"/>
+      <c r="CG103" s="31"/>
+      <c r="CH103" s="31">
         <v>2021</v>
       </c>
-      <c r="CI103" s="20"/>
-      <c r="CJ103" s="20"/>
-      <c r="CK103" s="20"/>
-      <c r="CL103" s="20">
+      <c r="CI103" s="31"/>
+      <c r="CJ103" s="31"/>
+      <c r="CK103" s="31"/>
+      <c r="CL103" s="33">
         <v>2022</v>
       </c>
-      <c r="CM103" s="20"/>
-      <c r="CN103" s="20"/>
-      <c r="CO103" s="20"/>
-      <c r="CP103" s="20">
+      <c r="CM103" s="33"/>
+      <c r="CN103" s="33"/>
+      <c r="CO103" s="33"/>
+      <c r="CP103" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="22"/>
+      <c r="CQ103" s="33"/>
+      <c r="CR103" s="33"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35353,23 +35427,26 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="6" t="s">
+      <c r="CL104" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="6" t="s">
+      <c r="CM104" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="6" t="s">
+      <c r="CN104" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="6" t="s">
+      <c r="CO104" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR104" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35643,25 +35720,27 @@
       <c r="CK106" s="15">
         <v>24.84692978977051</v>
       </c>
-      <c r="CL106" s="15">
+      <c r="CL106" s="30">
         <v>22.346756847100469</v>
       </c>
-      <c r="CM106" s="15">
+      <c r="CM106" s="30">
         <v>25.986180019967918</v>
       </c>
-      <c r="CN106" s="15">
+      <c r="CN106" s="30">
         <v>24.440709878312298</v>
       </c>
-      <c r="CO106" s="15">
+      <c r="CO106" s="30">
         <v>27.508870704678333</v>
       </c>
-      <c r="CP106" s="15">
+      <c r="CP106" s="30">
         <v>27.882974338379768</v>
       </c>
-      <c r="CQ106" s="15">
-        <v>27.913893050138576</v>
-      </c>
-      <c r="CR106" s="9"/>
+      <c r="CQ106" s="30">
+        <v>27.875218238025496</v>
+      </c>
+      <c r="CR106" s="30">
+        <v>26.143217984064709</v>
+      </c>
       <c r="CS106" s="9"/>
       <c r="CT106" s="9"/>
       <c r="CU106" s="9"/>
@@ -36038,25 +36117,27 @@
       <c r="CK107" s="15">
         <v>75.153070210229501</v>
       </c>
-      <c r="CL107" s="15">
+      <c r="CL107" s="30">
         <v>77.653243152899535</v>
       </c>
-      <c r="CM107" s="15">
+      <c r="CM107" s="30">
         <v>74.013819980032082</v>
       </c>
-      <c r="CN107" s="15">
+      <c r="CN107" s="30">
         <v>75.55929012168771</v>
       </c>
-      <c r="CO107" s="15">
+      <c r="CO107" s="30">
         <v>72.491129295321656</v>
       </c>
-      <c r="CP107" s="15">
+      <c r="CP107" s="30">
         <v>72.117025661620232</v>
       </c>
-      <c r="CQ107" s="15">
-        <v>72.086106949861431</v>
-      </c>
-      <c r="CR107" s="9"/>
+      <c r="CQ107" s="30">
+        <v>72.124781761974504</v>
+      </c>
+      <c r="CR107" s="30">
+        <v>73.856782015935295</v>
+      </c>
       <c r="CS107" s="9"/>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
@@ -36254,13 +36335,13 @@
       <c r="CI108" s="9"/>
       <c r="CJ108" s="9"/>
       <c r="CK108" s="9"/>
-      <c r="CL108" s="9"/>
-      <c r="CM108" s="9"/>
-      <c r="CN108" s="9"/>
-      <c r="CO108" s="9"/>
-      <c r="CP108" s="9"/>
-      <c r="CQ108" s="9"/>
-      <c r="CR108" s="9"/>
+      <c r="CL108" s="24"/>
+      <c r="CM108" s="24"/>
+      <c r="CN108" s="24"/>
+      <c r="CO108" s="24"/>
+      <c r="CP108" s="24"/>
+      <c r="CQ108" s="24"/>
+      <c r="CR108" s="24"/>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
@@ -36637,25 +36718,27 @@
       <c r="CK109" s="15">
         <v>100</v>
       </c>
-      <c r="CL109" s="15">
+      <c r="CL109" s="30">
         <v>100</v>
       </c>
-      <c r="CM109" s="15">
+      <c r="CM109" s="30">
         <v>100</v>
       </c>
-      <c r="CN109" s="15">
+      <c r="CN109" s="30">
         <v>100</v>
       </c>
-      <c r="CO109" s="15">
+      <c r="CO109" s="30">
         <v>100</v>
       </c>
-      <c r="CP109" s="15">
+      <c r="CP109" s="30">
         <v>100</v>
       </c>
-      <c r="CQ109" s="15">
+      <c r="CQ109" s="30">
         <v>100</v>
       </c>
-      <c r="CR109" s="9"/>
+      <c r="CR109" s="30">
+        <v>100</v>
+      </c>
       <c r="CS109" s="9"/>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
@@ -36854,12 +36937,13 @@
       <c r="CI110" s="12"/>
       <c r="CJ110" s="12"/>
       <c r="CK110" s="12"/>
-      <c r="CL110" s="12"/>
-      <c r="CM110" s="12"/>
-      <c r="CN110" s="12"/>
-      <c r="CO110" s="12"/>
-      <c r="CP110" s="12"/>
-      <c r="CQ110" s="12"/>
+      <c r="CL110" s="26"/>
+      <c r="CM110" s="26"/>
+      <c r="CN110" s="26"/>
+      <c r="CO110" s="26"/>
+      <c r="CP110" s="26"/>
+      <c r="CQ110" s="26"/>
+      <c r="CR110" s="26"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -36955,13 +37039,13 @@
       <c r="CI112" s="9"/>
       <c r="CJ112" s="9"/>
       <c r="CK112" s="9"/>
-      <c r="CL112" s="9"/>
-      <c r="CM112" s="9"/>
-      <c r="CN112" s="9"/>
-      <c r="CO112" s="9"/>
-      <c r="CP112" s="9"/>
-      <c r="CQ112" s="9"/>
-      <c r="CR112" s="9"/>
+      <c r="CL112" s="24"/>
+      <c r="CM112" s="24"/>
+      <c r="CN112" s="24"/>
+      <c r="CO112" s="24"/>
+      <c r="CP112" s="24"/>
+      <c r="CQ112" s="24"/>
+      <c r="CR112" s="24"/>
       <c r="CS112" s="9"/>
       <c r="CT112" s="9"/>
       <c r="CU112" s="9"/>
@@ -37159,13 +37243,13 @@
       <c r="CI113" s="9"/>
       <c r="CJ113" s="9"/>
       <c r="CK113" s="9"/>
-      <c r="CL113" s="9"/>
-      <c r="CM113" s="9"/>
-      <c r="CN113" s="9"/>
-      <c r="CO113" s="9"/>
-      <c r="CP113" s="9"/>
-      <c r="CQ113" s="9"/>
-      <c r="CR113" s="9"/>
+      <c r="CL113" s="24"/>
+      <c r="CM113" s="24"/>
+      <c r="CN113" s="24"/>
+      <c r="CO113" s="24"/>
+      <c r="CP113" s="24"/>
+      <c r="CQ113" s="24"/>
+      <c r="CR113" s="24"/>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
@@ -37306,148 +37390,149 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="20">
+      <c r="B122" s="31">
         <v>2000</v>
       </c>
-      <c r="C122" s="21"/>
-      <c r="D122" s="21"/>
-      <c r="E122" s="21"/>
-      <c r="F122" s="20">
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="31">
         <v>2001</v>
       </c>
-      <c r="G122" s="21"/>
-      <c r="H122" s="21"/>
-      <c r="I122" s="21"/>
-      <c r="J122" s="20">
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="31">
         <v>2002</v>
       </c>
-      <c r="K122" s="21"/>
-      <c r="L122" s="21"/>
-      <c r="M122" s="21"/>
-      <c r="N122" s="20">
+      <c r="K122" s="32"/>
+      <c r="L122" s="32"/>
+      <c r="M122" s="32"/>
+      <c r="N122" s="31">
         <v>2003</v>
       </c>
-      <c r="O122" s="21"/>
-      <c r="P122" s="21"/>
-      <c r="Q122" s="21"/>
-      <c r="R122" s="20">
+      <c r="O122" s="32"/>
+      <c r="P122" s="32"/>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="31">
         <v>2004</v>
       </c>
-      <c r="S122" s="21"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="21"/>
-      <c r="V122" s="20">
+      <c r="S122" s="32"/>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32"/>
+      <c r="V122" s="31">
         <v>2005</v>
       </c>
-      <c r="W122" s="21"/>
-      <c r="X122" s="21"/>
-      <c r="Y122" s="21"/>
-      <c r="Z122" s="20">
+      <c r="W122" s="32"/>
+      <c r="X122" s="32"/>
+      <c r="Y122" s="32"/>
+      <c r="Z122" s="31">
         <v>2006</v>
       </c>
-      <c r="AA122" s="21"/>
-      <c r="AB122" s="21"/>
-      <c r="AC122" s="21"/>
-      <c r="AD122" s="20">
+      <c r="AA122" s="32"/>
+      <c r="AB122" s="32"/>
+      <c r="AC122" s="32"/>
+      <c r="AD122" s="31">
         <v>2007</v>
       </c>
-      <c r="AE122" s="21"/>
-      <c r="AF122" s="21"/>
-      <c r="AG122" s="21"/>
-      <c r="AH122" s="20">
+      <c r="AE122" s="32"/>
+      <c r="AF122" s="32"/>
+      <c r="AG122" s="32"/>
+      <c r="AH122" s="31">
         <v>2008</v>
       </c>
-      <c r="AI122" s="21"/>
-      <c r="AJ122" s="21"/>
-      <c r="AK122" s="21"/>
-      <c r="AL122" s="20">
+      <c r="AI122" s="32"/>
+      <c r="AJ122" s="32"/>
+      <c r="AK122" s="32"/>
+      <c r="AL122" s="31">
         <v>2009</v>
       </c>
-      <c r="AM122" s="21"/>
-      <c r="AN122" s="21"/>
-      <c r="AO122" s="21"/>
-      <c r="AP122" s="20">
+      <c r="AM122" s="32"/>
+      <c r="AN122" s="32"/>
+      <c r="AO122" s="32"/>
+      <c r="AP122" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="21"/>
-      <c r="AR122" s="21"/>
-      <c r="AS122" s="21"/>
-      <c r="AT122" s="20">
+      <c r="AQ122" s="32"/>
+      <c r="AR122" s="32"/>
+      <c r="AS122" s="32"/>
+      <c r="AT122" s="31">
         <v>2011</v>
       </c>
-      <c r="AU122" s="21"/>
-      <c r="AV122" s="21"/>
-      <c r="AW122" s="21"/>
-      <c r="AX122" s="20">
+      <c r="AU122" s="32"/>
+      <c r="AV122" s="32"/>
+      <c r="AW122" s="32"/>
+      <c r="AX122" s="31">
         <v>2012</v>
       </c>
-      <c r="AY122" s="21"/>
-      <c r="AZ122" s="21"/>
-      <c r="BA122" s="21"/>
-      <c r="BB122" s="20">
+      <c r="AY122" s="32"/>
+      <c r="AZ122" s="32"/>
+      <c r="BA122" s="32"/>
+      <c r="BB122" s="31">
         <v>2013</v>
       </c>
-      <c r="BC122" s="21"/>
-      <c r="BD122" s="21"/>
-      <c r="BE122" s="21"/>
-      <c r="BF122" s="20">
+      <c r="BC122" s="32"/>
+      <c r="BD122" s="32"/>
+      <c r="BE122" s="32"/>
+      <c r="BF122" s="31">
         <v>2014</v>
       </c>
-      <c r="BG122" s="21"/>
-      <c r="BH122" s="21"/>
-      <c r="BI122" s="21"/>
-      <c r="BJ122" s="20">
+      <c r="BG122" s="32"/>
+      <c r="BH122" s="32"/>
+      <c r="BI122" s="32"/>
+      <c r="BJ122" s="31">
         <v>2015</v>
       </c>
-      <c r="BK122" s="21"/>
-      <c r="BL122" s="21"/>
-      <c r="BM122" s="21"/>
-      <c r="BN122" s="20">
+      <c r="BK122" s="32"/>
+      <c r="BL122" s="32"/>
+      <c r="BM122" s="32"/>
+      <c r="BN122" s="31">
         <v>2016</v>
       </c>
-      <c r="BO122" s="21"/>
-      <c r="BP122" s="21"/>
-      <c r="BQ122" s="21"/>
-      <c r="BR122" s="20">
+      <c r="BO122" s="32"/>
+      <c r="BP122" s="32"/>
+      <c r="BQ122" s="32"/>
+      <c r="BR122" s="31">
         <v>2017</v>
       </c>
-      <c r="BS122" s="21"/>
-      <c r="BT122" s="21"/>
-      <c r="BU122" s="21"/>
-      <c r="BV122" s="20">
+      <c r="BS122" s="32"/>
+      <c r="BT122" s="32"/>
+      <c r="BU122" s="32"/>
+      <c r="BV122" s="31">
         <v>2018</v>
       </c>
-      <c r="BW122" s="21"/>
-      <c r="BX122" s="21"/>
-      <c r="BY122" s="21"/>
-      <c r="BZ122" s="20">
+      <c r="BW122" s="32"/>
+      <c r="BX122" s="32"/>
+      <c r="BY122" s="32"/>
+      <c r="BZ122" s="31">
         <v>2019</v>
       </c>
-      <c r="CA122" s="21"/>
-      <c r="CB122" s="21"/>
-      <c r="CC122" s="21"/>
-      <c r="CD122" s="20">
+      <c r="CA122" s="32"/>
+      <c r="CB122" s="32"/>
+      <c r="CC122" s="32"/>
+      <c r="CD122" s="31">
         <v>2020</v>
       </c>
-      <c r="CE122" s="20"/>
-      <c r="CF122" s="20"/>
-      <c r="CG122" s="20"/>
-      <c r="CH122" s="20">
+      <c r="CE122" s="31"/>
+      <c r="CF122" s="31"/>
+      <c r="CG122" s="31"/>
+      <c r="CH122" s="31">
         <v>2021</v>
       </c>
-      <c r="CI122" s="20"/>
-      <c r="CJ122" s="20"/>
-      <c r="CK122" s="20"/>
-      <c r="CL122" s="20">
+      <c r="CI122" s="31"/>
+      <c r="CJ122" s="31"/>
+      <c r="CK122" s="31"/>
+      <c r="CL122" s="33">
         <v>2022</v>
       </c>
-      <c r="CM122" s="20"/>
-      <c r="CN122" s="20"/>
-      <c r="CO122" s="20"/>
-      <c r="CP122" s="20">
+      <c r="CM122" s="33"/>
+      <c r="CN122" s="33"/>
+      <c r="CO122" s="33"/>
+      <c r="CP122" s="33">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="22"/>
+      <c r="CQ122" s="33"/>
+      <c r="CR122" s="33"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37717,23 +37802,26 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="6" t="s">
+      <c r="CL123" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="6" t="s">
+      <c r="CM123" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="6" t="s">
+      <c r="CN123" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="6" t="s">
+      <c r="CO123" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="22" t="s">
         <v>8</v>
+      </c>
+      <c r="CR123" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38007,25 +38095,27 @@
       <c r="CK125" s="15">
         <v>26.358146465054528</v>
       </c>
-      <c r="CL125" s="15">
+      <c r="CL125" s="30">
         <v>23.63526710629834</v>
       </c>
-      <c r="CM125" s="15">
+      <c r="CM125" s="30">
         <v>28.050548966694418</v>
       </c>
-      <c r="CN125" s="15">
+      <c r="CN125" s="30">
         <v>26.683728392431593</v>
       </c>
-      <c r="CO125" s="15">
+      <c r="CO125" s="30">
         <v>29.884303960802139</v>
       </c>
-      <c r="CP125" s="15">
+      <c r="CP125" s="30">
         <v>30.115435936744383</v>
       </c>
-      <c r="CQ125" s="15">
-        <v>30.045020880343777</v>
-      </c>
-      <c r="CR125" s="9"/>
+      <c r="CQ125" s="30">
+        <v>30.016016186618131</v>
+      </c>
+      <c r="CR125" s="30">
+        <v>28.35978586215311</v>
+      </c>
       <c r="CS125" s="9"/>
       <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
@@ -38402,25 +38492,27 @@
       <c r="CK126" s="15">
         <v>73.641853534945483</v>
       </c>
-      <c r="CL126" s="15">
+      <c r="CL126" s="30">
         <v>76.364732893701657</v>
       </c>
-      <c r="CM126" s="15">
+      <c r="CM126" s="30">
         <v>71.949451033305593</v>
       </c>
-      <c r="CN126" s="15">
+      <c r="CN126" s="30">
         <v>73.316271607568396</v>
       </c>
-      <c r="CO126" s="15">
+      <c r="CO126" s="30">
         <v>70.115696039197857</v>
       </c>
-      <c r="CP126" s="15">
+      <c r="CP126" s="30">
         <v>69.88456406325561</v>
       </c>
-      <c r="CQ126" s="15">
-        <v>69.95497911965623</v>
-      </c>
-      <c r="CR126" s="9"/>
+      <c r="CQ126" s="30">
+        <v>69.983983813381869</v>
+      </c>
+      <c r="CR126" s="30">
+        <v>71.640214137846897</v>
+      </c>
       <c r="CS126" s="9"/>
       <c r="CT126" s="9"/>
       <c r="CU126" s="9"/>
@@ -38618,13 +38710,13 @@
       <c r="CI127" s="9"/>
       <c r="CJ127" s="9"/>
       <c r="CK127" s="9"/>
-      <c r="CL127" s="9"/>
-      <c r="CM127" s="9"/>
-      <c r="CN127" s="9"/>
-      <c r="CO127" s="9"/>
-      <c r="CP127" s="9"/>
-      <c r="CQ127" s="9"/>
-      <c r="CR127" s="9"/>
+      <c r="CL127" s="24"/>
+      <c r="CM127" s="24"/>
+      <c r="CN127" s="24"/>
+      <c r="CO127" s="24"/>
+      <c r="CP127" s="24"/>
+      <c r="CQ127" s="24"/>
+      <c r="CR127" s="24"/>
       <c r="CS127" s="9"/>
       <c r="CT127" s="9"/>
       <c r="CU127" s="9"/>
@@ -39001,25 +39093,27 @@
       <c r="CK128" s="15">
         <v>100</v>
       </c>
-      <c r="CL128" s="15">
+      <c r="CL128" s="30">
         <v>100</v>
       </c>
-      <c r="CM128" s="15">
+      <c r="CM128" s="30">
         <v>100</v>
       </c>
-      <c r="CN128" s="15">
+      <c r="CN128" s="30">
         <v>100</v>
       </c>
-      <c r="CO128" s="15">
+      <c r="CO128" s="30">
         <v>100</v>
       </c>
-      <c r="CP128" s="15">
+      <c r="CP128" s="30">
         <v>100</v>
       </c>
-      <c r="CQ128" s="15">
+      <c r="CQ128" s="30">
         <v>100</v>
       </c>
-      <c r="CR128" s="9"/>
+      <c r="CR128" s="30">
+        <v>100</v>
+      </c>
       <c r="CS128" s="9"/>
       <c r="CT128" s="9"/>
       <c r="CU128" s="9"/>
@@ -39218,12 +39312,13 @@
       <c r="CI129" s="12"/>
       <c r="CJ129" s="12"/>
       <c r="CK129" s="12"/>
-      <c r="CL129" s="12"/>
-      <c r="CM129" s="12"/>
-      <c r="CN129" s="12"/>
-      <c r="CO129" s="12"/>
-      <c r="CP129" s="12"/>
-      <c r="CQ129" s="12"/>
+      <c r="CL129" s="26"/>
+      <c r="CM129" s="26"/>
+      <c r="CN129" s="26"/>
+      <c r="CO129" s="26"/>
+      <c r="CP129" s="26"/>
+      <c r="CQ129" s="26"/>
+      <c r="CR129" s="26"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39320,13 +39415,13 @@
       <c r="CI131" s="1"/>
       <c r="CJ131" s="1"/>
       <c r="CK131" s="1"/>
-      <c r="CL131" s="1"/>
-      <c r="CM131" s="1"/>
-      <c r="CN131" s="1"/>
-      <c r="CO131" s="1"/>
-      <c r="CP131" s="1"/>
-      <c r="CQ131" s="1"/>
-      <c r="CR131" s="16"/>
+      <c r="CL131" s="21"/>
+      <c r="CM131" s="21"/>
+      <c r="CN131" s="21"/>
+      <c r="CO131" s="21"/>
+      <c r="CP131" s="21"/>
+      <c r="CQ131" s="21"/>
+      <c r="CR131" s="21"/>
       <c r="CS131" s="16"/>
       <c r="CT131" s="16"/>
       <c r="CU131" s="16"/>
@@ -39525,13 +39620,13 @@
       <c r="CI132" s="1"/>
       <c r="CJ132" s="1"/>
       <c r="CK132" s="1"/>
-      <c r="CL132" s="1"/>
-      <c r="CM132" s="1"/>
-      <c r="CN132" s="1"/>
-      <c r="CO132" s="1"/>
-      <c r="CP132" s="1"/>
-      <c r="CQ132" s="1"/>
-      <c r="CR132" s="16"/>
+      <c r="CL132" s="21"/>
+      <c r="CM132" s="21"/>
+      <c r="CN132" s="21"/>
+      <c r="CO132" s="21"/>
+      <c r="CP132" s="21"/>
+      <c r="CQ132" s="21"/>
+      <c r="CR132" s="21"/>
       <c r="CS132" s="16"/>
       <c r="CT132" s="16"/>
       <c r="CU132" s="16"/>
@@ -39641,16 +39736,12 @@
       <c r="GU132" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP28:CQ28"/>
-    <mergeCell ref="CP84:CQ84"/>
-    <mergeCell ref="CP103:CQ103"/>
-    <mergeCell ref="CP122:CQ122"/>
-    <mergeCell ref="CL47:CO47"/>
-    <mergeCell ref="CP47:CQ47"/>
-    <mergeCell ref="CL66:CO66"/>
-    <mergeCell ref="CP66:CQ66"/>
+  <mergeCells count="166">
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP28:CR28"/>
+    <mergeCell ref="CP84:CR84"/>
+    <mergeCell ref="CP103:CR103"/>
+    <mergeCell ref="CP122:CR122"/>
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="BZ9:CC9"/>
@@ -39671,6 +39762,8 @@
     <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="CD103:CG103"/>
     <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CL47:CN47"/>
+    <mergeCell ref="CL66:CN66"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BR28:BU28"/>
@@ -39816,9 +39909,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="94" man="1"/>
-    <brk id="76" max="94" man="1"/>
-    <brk id="94" max="94" man="1"/>
+    <brk id="38" max="95" man="1"/>
+    <brk id="76" max="95" man="1"/>
+    <brk id="94" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFD6AFE-020E-44EF-B36A-87201F8B60DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12BF442-24E2-4001-8750-F2CAC63D4AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CR$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CS$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,13 +617,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,23 +741,14 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23313,9 +23304,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23353,7 +23344,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23459,7 +23450,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23601,7 +23592,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23617,15 +23608,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CR7" sqref="CR7"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="89" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="96" width="9.44140625" style="21" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="97" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23640,7 +23630,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23650,7 +23640,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23660,149 +23650,150 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="31">
+      <c r="B9" s="24">
         <v>2000</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24">
         <v>2001</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24">
         <v>2002</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31">
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24">
         <v>2003</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24">
         <v>2004</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24">
         <v>2005</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31">
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24">
         <v>2006</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31">
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24">
         <v>2007</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31">
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24">
         <v>2008</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31">
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24">
         <v>2009</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31">
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31">
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24">
         <v>2011</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31">
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24">
         <v>2012</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31">
+      <c r="AY9" s="24"/>
+      <c r="AZ9" s="24"/>
+      <c r="BA9" s="24"/>
+      <c r="BB9" s="24">
         <v>2013</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31">
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24">
         <v>2014</v>
       </c>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31">
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24">
         <v>2015</v>
       </c>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31">
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24">
         <v>2016</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="31">
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24">
         <v>2017</v>
       </c>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="31">
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
+      <c r="CH9" s="24">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="31"/>
-      <c r="CL9" s="33">
+      <c r="CI9" s="24"/>
+      <c r="CJ9" s="24"/>
+      <c r="CK9" s="24"/>
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
-      <c r="CM9" s="33"/>
-      <c r="CN9" s="33"/>
-      <c r="CO9" s="33"/>
-      <c r="CP9" s="33">
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
+      <c r="CO9" s="23"/>
+      <c r="CP9" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="33"/>
-      <c r="CR9" s="33"/>
+      <c r="CQ9" s="23"/>
+      <c r="CR9" s="23"/>
+      <c r="CS9" s="23"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24072,26 +24063,29 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="22" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="22" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="22" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="22" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="22" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="22" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="22" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24365,28 +24359,30 @@
       <c r="CK12" s="18">
         <v>20982.743841316627</v>
       </c>
-      <c r="CL12" s="23">
+      <c r="CL12" s="20">
         <v>22322.262683393026</v>
       </c>
-      <c r="CM12" s="23">
+      <c r="CM12" s="20">
         <v>20822.70058913936</v>
       </c>
-      <c r="CN12" s="23">
+      <c r="CN12" s="20">
         <v>22543.517584578036</v>
       </c>
-      <c r="CO12" s="23">
+      <c r="CO12" s="20">
         <v>33785.120903230876</v>
       </c>
-      <c r="CP12" s="23">
+      <c r="CP12" s="20">
         <v>38087.235358183301</v>
       </c>
-      <c r="CQ12" s="23">
+      <c r="CQ12" s="20">
         <v>29696.72509027673</v>
       </c>
-      <c r="CR12" s="23">
-        <v>29947.328777151608</v>
-      </c>
-      <c r="CS12" s="9"/>
+      <c r="CR12" s="20">
+        <v>30078.484666959972</v>
+      </c>
+      <c r="CS12" s="20">
+        <v>43127.364335223778</v>
+      </c>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -24762,28 +24758,30 @@
       <c r="CK13" s="18">
         <v>63465.290659731603</v>
       </c>
-      <c r="CL13" s="23">
+      <c r="CL13" s="20">
         <v>77568.127837813096</v>
       </c>
-      <c r="CM13" s="23">
+      <c r="CM13" s="20">
         <v>59307.20143239318</v>
       </c>
-      <c r="CN13" s="23">
+      <c r="CN13" s="20">
         <v>69694.055287976895</v>
       </c>
-      <c r="CO13" s="23">
+      <c r="CO13" s="20">
         <v>89030.247513492825</v>
       </c>
-      <c r="CP13" s="23">
+      <c r="CP13" s="20">
         <v>98509.509651755565</v>
       </c>
-      <c r="CQ13" s="23">
+      <c r="CQ13" s="20">
         <v>76837.777480061748</v>
       </c>
-      <c r="CR13" s="23">
-        <v>84603.713850445551</v>
-      </c>
-      <c r="CS13" s="9"/>
+      <c r="CR13" s="20">
+        <v>85415.155819693435</v>
+      </c>
+      <c r="CS13" s="20">
+        <v>107729.19301723834</v>
+      </c>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
@@ -24980,13 +24978,13 @@
       <c r="CI14" s="9"/>
       <c r="CJ14" s="9"/>
       <c r="CK14" s="9"/>
-      <c r="CL14" s="24"/>
-      <c r="CM14" s="24"/>
-      <c r="CN14" s="24"/>
-      <c r="CO14" s="24"/>
-      <c r="CP14" s="24"/>
-      <c r="CQ14" s="24"/>
-      <c r="CR14" s="24"/>
+      <c r="CL14" s="9"/>
+      <c r="CM14" s="9"/>
+      <c r="CN14" s="9"/>
+      <c r="CO14" s="9"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -25363,28 +25361,30 @@
       <c r="CK15" s="19">
         <v>84448.034501048227</v>
       </c>
-      <c r="CL15" s="25">
+      <c r="CL15" s="21">
         <v>99890.390521206122</v>
       </c>
-      <c r="CM15" s="25">
+      <c r="CM15" s="21">
         <v>80129.902021532544</v>
       </c>
-      <c r="CN15" s="25">
+      <c r="CN15" s="21">
         <v>92237.572872554927</v>
       </c>
-      <c r="CO15" s="25">
+      <c r="CO15" s="21">
         <v>122815.36841672371</v>
       </c>
-      <c r="CP15" s="25">
+      <c r="CP15" s="21">
         <v>136596.74500993887</v>
       </c>
-      <c r="CQ15" s="25">
+      <c r="CQ15" s="21">
         <v>106534.50257033847</v>
       </c>
-      <c r="CR15" s="25">
-        <v>114551.04262759715</v>
-      </c>
-      <c r="CS15" s="9"/>
+      <c r="CR15" s="21">
+        <v>115493.6404866534</v>
+      </c>
+      <c r="CS15" s="21">
+        <v>150856.55735246211</v>
+      </c>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
@@ -25582,13 +25582,14 @@
       <c r="CI16" s="12"/>
       <c r="CJ16" s="12"/>
       <c r="CK16" s="12"/>
-      <c r="CL16" s="26"/>
-      <c r="CM16" s="26"/>
-      <c r="CN16" s="26"/>
-      <c r="CO16" s="26"/>
-      <c r="CP16" s="26"/>
-      <c r="CQ16" s="26"/>
-      <c r="CR16" s="26"/>
+      <c r="CL16" s="12"/>
+      <c r="CM16" s="12"/>
+      <c r="CN16" s="12"/>
+      <c r="CO16" s="12"/>
+      <c r="CP16" s="12"/>
+      <c r="CQ16" s="12"/>
+      <c r="CR16" s="12"/>
+      <c r="CS16" s="12"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25684,13 +25685,13 @@
       <c r="CI18" s="9"/>
       <c r="CJ18" s="9"/>
       <c r="CK18" s="9"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
-      <c r="CQ18" s="24"/>
-      <c r="CR18" s="24"/>
+      <c r="CL18" s="9"/>
+      <c r="CM18" s="9"/>
+      <c r="CN18" s="9"/>
+      <c r="CO18" s="9"/>
+      <c r="CP18" s="9"/>
+      <c r="CQ18" s="9"/>
+      <c r="CR18" s="9"/>
       <c r="CS18" s="9"/>
       <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
@@ -25888,14 +25889,14 @@
       <c r="CI19" s="14"/>
       <c r="CJ19" s="14"/>
       <c r="CK19" s="14"/>
-      <c r="CL19" s="27"/>
-      <c r="CM19" s="27"/>
-      <c r="CN19" s="27"/>
-      <c r="CO19" s="27"/>
-      <c r="CP19" s="27"/>
-      <c r="CQ19" s="27"/>
-      <c r="CR19" s="27"/>
-      <c r="CS19" s="9"/>
+      <c r="CL19" s="14"/>
+      <c r="CM19" s="14"/>
+      <c r="CN19" s="14"/>
+      <c r="CO19" s="14"/>
+      <c r="CP19" s="14"/>
+      <c r="CQ19" s="14"/>
+      <c r="CR19" s="14"/>
+      <c r="CS19" s="14"/>
       <c r="CT19" s="9"/>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
@@ -26015,7 +26016,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -26025,7 +26026,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -26035,149 +26036,150 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="31">
+      <c r="B28" s="24">
         <v>2000</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="31">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="24">
         <v>2001</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="31">
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="24">
         <v>2002</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="31">
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="24">
         <v>2003</v>
       </c>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="31">
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="24">
         <v>2004</v>
       </c>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="31">
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="24">
         <v>2005</v>
       </c>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="31">
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="24">
         <v>2006</v>
       </c>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="31">
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="24">
         <v>2007</v>
       </c>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="31">
+      <c r="AE28" s="25"/>
+      <c r="AF28" s="25"/>
+      <c r="AG28" s="25"/>
+      <c r="AH28" s="24">
         <v>2008</v>
       </c>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="31">
+      <c r="AI28" s="25"/>
+      <c r="AJ28" s="25"/>
+      <c r="AK28" s="25"/>
+      <c r="AL28" s="24">
         <v>2009</v>
       </c>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="31">
+      <c r="AM28" s="25"/>
+      <c r="AN28" s="25"/>
+      <c r="AO28" s="25"/>
+      <c r="AP28" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-      <c r="AS28" s="32"/>
-      <c r="AT28" s="31">
+      <c r="AQ28" s="25"/>
+      <c r="AR28" s="25"/>
+      <c r="AS28" s="25"/>
+      <c r="AT28" s="24">
         <v>2011</v>
       </c>
-      <c r="AU28" s="32"/>
-      <c r="AV28" s="32"/>
-      <c r="AW28" s="32"/>
-      <c r="AX28" s="31">
+      <c r="AU28" s="25"/>
+      <c r="AV28" s="25"/>
+      <c r="AW28" s="25"/>
+      <c r="AX28" s="24">
         <v>2012</v>
       </c>
-      <c r="AY28" s="32"/>
-      <c r="AZ28" s="32"/>
-      <c r="BA28" s="32"/>
-      <c r="BB28" s="31">
+      <c r="AY28" s="25"/>
+      <c r="AZ28" s="25"/>
+      <c r="BA28" s="25"/>
+      <c r="BB28" s="24">
         <v>2013</v>
       </c>
-      <c r="BC28" s="32"/>
-      <c r="BD28" s="32"/>
-      <c r="BE28" s="32"/>
-      <c r="BF28" s="31">
+      <c r="BC28" s="25"/>
+      <c r="BD28" s="25"/>
+      <c r="BE28" s="25"/>
+      <c r="BF28" s="24">
         <v>2014</v>
       </c>
-      <c r="BG28" s="32"/>
-      <c r="BH28" s="32"/>
-      <c r="BI28" s="32"/>
-      <c r="BJ28" s="31">
+      <c r="BG28" s="25"/>
+      <c r="BH28" s="25"/>
+      <c r="BI28" s="25"/>
+      <c r="BJ28" s="24">
         <v>2015</v>
       </c>
-      <c r="BK28" s="32"/>
-      <c r="BL28" s="32"/>
-      <c r="BM28" s="32"/>
-      <c r="BN28" s="31">
+      <c r="BK28" s="25"/>
+      <c r="BL28" s="25"/>
+      <c r="BM28" s="25"/>
+      <c r="BN28" s="24">
         <v>2016</v>
       </c>
-      <c r="BO28" s="32"/>
-      <c r="BP28" s="32"/>
-      <c r="BQ28" s="32"/>
-      <c r="BR28" s="31">
+      <c r="BO28" s="25"/>
+      <c r="BP28" s="25"/>
+      <c r="BQ28" s="25"/>
+      <c r="BR28" s="24">
         <v>2017</v>
       </c>
-      <c r="BS28" s="32"/>
-      <c r="BT28" s="32"/>
-      <c r="BU28" s="32"/>
-      <c r="BV28" s="31">
+      <c r="BS28" s="25"/>
+      <c r="BT28" s="25"/>
+      <c r="BU28" s="25"/>
+      <c r="BV28" s="24">
         <v>2018</v>
       </c>
-      <c r="BW28" s="32"/>
-      <c r="BX28" s="32"/>
-      <c r="BY28" s="32"/>
-      <c r="BZ28" s="31">
+      <c r="BW28" s="25"/>
+      <c r="BX28" s="25"/>
+      <c r="BY28" s="25"/>
+      <c r="BZ28" s="24">
         <v>2019</v>
       </c>
-      <c r="CA28" s="32"/>
-      <c r="CB28" s="32"/>
-      <c r="CC28" s="32"/>
-      <c r="CD28" s="31">
+      <c r="CA28" s="25"/>
+      <c r="CB28" s="25"/>
+      <c r="CC28" s="25"/>
+      <c r="CD28" s="24">
         <v>2020</v>
       </c>
-      <c r="CE28" s="31"/>
-      <c r="CF28" s="31"/>
-      <c r="CG28" s="31"/>
-      <c r="CH28" s="31">
+      <c r="CE28" s="24"/>
+      <c r="CF28" s="24"/>
+      <c r="CG28" s="24"/>
+      <c r="CH28" s="24">
         <v>2021</v>
       </c>
-      <c r="CI28" s="31"/>
-      <c r="CJ28" s="31"/>
-      <c r="CK28" s="31"/>
-      <c r="CL28" s="33">
+      <c r="CI28" s="24"/>
+      <c r="CJ28" s="24"/>
+      <c r="CK28" s="24"/>
+      <c r="CL28" s="23">
         <v>2022</v>
       </c>
-      <c r="CM28" s="33"/>
-      <c r="CN28" s="33"/>
-      <c r="CO28" s="33"/>
-      <c r="CP28" s="33">
+      <c r="CM28" s="23"/>
+      <c r="CN28" s="23"/>
+      <c r="CO28" s="23"/>
+      <c r="CP28" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="33"/>
-      <c r="CR28" s="33"/>
+      <c r="CQ28" s="23"/>
+      <c r="CR28" s="23"/>
+      <c r="CS28" s="23"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26447,26 +26449,29 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="22" t="s">
+      <c r="CL29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="22" t="s">
+      <c r="CM29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="22" t="s">
+      <c r="CN29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="22" t="s">
+      <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="22" t="s">
+      <c r="CP29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="22" t="s">
+      <c r="CQ29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="22" t="s">
+      <c r="CR29" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS29" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26740,28 +26745,30 @@
       <c r="CK31" s="18">
         <v>19416.096899922053</v>
       </c>
-      <c r="CL31" s="23">
+      <c r="CL31" s="20">
         <v>19772.949251658556</v>
       </c>
-      <c r="CM31" s="23">
+      <c r="CM31" s="20">
         <v>18680.670524564997</v>
       </c>
-      <c r="CN31" s="23">
+      <c r="CN31" s="20">
         <v>20599.519887417155</v>
       </c>
-      <c r="CO31" s="23">
+      <c r="CO31" s="20">
         <v>30101.362404458672</v>
       </c>
-      <c r="CP31" s="23">
+      <c r="CP31" s="20">
         <v>32198.134643113197</v>
       </c>
-      <c r="CQ31" s="23">
+      <c r="CQ31" s="20">
         <v>25432.823313286179</v>
       </c>
-      <c r="CR31" s="23">
-        <v>26270.210896125438</v>
-      </c>
-      <c r="CS31" s="9"/>
+      <c r="CR31" s="20">
+        <v>26385.262656206403</v>
+      </c>
+      <c r="CS31" s="20">
+        <v>37137.870084975264</v>
+      </c>
       <c r="CT31" s="9"/>
       <c r="CU31" s="9"/>
       <c r="CV31" s="9"/>
@@ -27137,28 +27144,30 @@
       <c r="CK32" s="18">
         <v>54246.506521998381</v>
       </c>
-      <c r="CL32" s="23">
+      <c r="CL32" s="20">
         <v>63885.717107942037</v>
       </c>
-      <c r="CM32" s="23">
+      <c r="CM32" s="20">
         <v>47915.781996721969</v>
       </c>
-      <c r="CN32" s="23">
+      <c r="CN32" s="20">
         <v>56599.28675783363</v>
       </c>
-      <c r="CO32" s="23">
+      <c r="CO32" s="20">
         <v>70624.966855012244</v>
       </c>
-      <c r="CP32" s="23">
+      <c r="CP32" s="20">
         <v>74717.583630875568</v>
       </c>
-      <c r="CQ32" s="23">
+      <c r="CQ32" s="20">
         <v>59298.01889829534</v>
       </c>
-      <c r="CR32" s="23">
-        <v>66361.697623267639</v>
-      </c>
-      <c r="CS32" s="9"/>
+      <c r="CR32" s="20">
+        <v>67044.838159484236</v>
+      </c>
+      <c r="CS32" s="20">
+        <v>82890.135062703921</v>
+      </c>
       <c r="CT32" s="9"/>
       <c r="CU32" s="9"/>
       <c r="CV32" s="9"/>
@@ -27355,13 +27364,13 @@
       <c r="CI33" s="9"/>
       <c r="CJ33" s="9"/>
       <c r="CK33" s="9"/>
-      <c r="CL33" s="24"/>
-      <c r="CM33" s="24"/>
-      <c r="CN33" s="24"/>
-      <c r="CO33" s="24"/>
-      <c r="CP33" s="24"/>
-      <c r="CQ33" s="24"/>
-      <c r="CR33" s="24"/>
+      <c r="CL33" s="9"/>
+      <c r="CM33" s="9"/>
+      <c r="CN33" s="9"/>
+      <c r="CO33" s="9"/>
+      <c r="CP33" s="9"/>
+      <c r="CQ33" s="9"/>
+      <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
@@ -27738,28 +27747,30 @@
       <c r="CK34" s="19">
         <v>73662.60342192043</v>
       </c>
-      <c r="CL34" s="25">
+      <c r="CL34" s="21">
         <v>83658.666359600596</v>
       </c>
-      <c r="CM34" s="25">
+      <c r="CM34" s="21">
         <v>66596.452521286963</v>
       </c>
-      <c r="CN34" s="25">
+      <c r="CN34" s="21">
         <v>77198.806645250792</v>
       </c>
-      <c r="CO34" s="25">
+      <c r="CO34" s="21">
         <v>100726.32925947092</v>
       </c>
-      <c r="CP34" s="25">
+      <c r="CP34" s="21">
         <v>106915.71827398876</v>
       </c>
-      <c r="CQ34" s="25">
+      <c r="CQ34" s="21">
         <v>84730.842211581519</v>
       </c>
-      <c r="CR34" s="25">
-        <v>92631.90851939308</v>
-      </c>
-      <c r="CS34" s="9"/>
+      <c r="CR34" s="21">
+        <v>93430.100815690646</v>
+      </c>
+      <c r="CS34" s="21">
+        <v>120028.00514767919</v>
+      </c>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
@@ -27957,13 +27968,14 @@
       <c r="CI35" s="12"/>
       <c r="CJ35" s="12"/>
       <c r="CK35" s="12"/>
-      <c r="CL35" s="26"/>
-      <c r="CM35" s="26"/>
-      <c r="CN35" s="26"/>
-      <c r="CO35" s="26"/>
-      <c r="CP35" s="26"/>
-      <c r="CQ35" s="26"/>
-      <c r="CR35" s="26"/>
+      <c r="CL35" s="12"/>
+      <c r="CM35" s="12"/>
+      <c r="CN35" s="12"/>
+      <c r="CO35" s="12"/>
+      <c r="CP35" s="12"/>
+      <c r="CQ35" s="12"/>
+      <c r="CR35" s="12"/>
+      <c r="CS35" s="12"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28059,13 +28071,13 @@
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
       <c r="CK37" s="9"/>
-      <c r="CL37" s="24"/>
-      <c r="CM37" s="24"/>
-      <c r="CN37" s="24"/>
-      <c r="CO37" s="24"/>
-      <c r="CP37" s="24"/>
-      <c r="CQ37" s="24"/>
-      <c r="CR37" s="24"/>
+      <c r="CL37" s="9"/>
+      <c r="CM37" s="9"/>
+      <c r="CN37" s="9"/>
+      <c r="CO37" s="9"/>
+      <c r="CP37" s="9"/>
+      <c r="CQ37" s="9"/>
+      <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -28263,13 +28275,13 @@
       <c r="CI38" s="9"/>
       <c r="CJ38" s="9"/>
       <c r="CK38" s="9"/>
-      <c r="CL38" s="24"/>
-      <c r="CM38" s="24"/>
-      <c r="CN38" s="24"/>
-      <c r="CO38" s="24"/>
-      <c r="CP38" s="24"/>
-      <c r="CQ38" s="24"/>
-      <c r="CR38" s="24"/>
+      <c r="CL38" s="9"/>
+      <c r="CM38" s="9"/>
+      <c r="CN38" s="9"/>
+      <c r="CO38" s="9"/>
+      <c r="CP38" s="9"/>
+      <c r="CQ38" s="9"/>
+      <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
@@ -28390,7 +28402,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28400,7 +28412,7 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
@@ -28410,147 +28422,148 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="31" t="s">
+      <c r="B47" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31" t="s">
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31" t="s">
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31" t="s">
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31" t="s">
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31" t="s">
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31" t="s">
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31" t="s">
+      <c r="AA47" s="24"/>
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="24"/>
+      <c r="AD47" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31" t="s">
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="24"/>
+      <c r="AG47" s="24"/>
+      <c r="AH47" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31" t="s">
+      <c r="AI47" s="24"/>
+      <c r="AJ47" s="24"/>
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31" t="s">
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="31"/>
-      <c r="AS47" s="31"/>
-      <c r="AT47" s="31" t="s">
+      <c r="AQ47" s="24"/>
+      <c r="AR47" s="24"/>
+      <c r="AS47" s="24"/>
+      <c r="AT47" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="31"/>
-      <c r="AV47" s="31"/>
-      <c r="AW47" s="31"/>
-      <c r="AX47" s="31" t="s">
+      <c r="AU47" s="24"/>
+      <c r="AV47" s="24"/>
+      <c r="AW47" s="24"/>
+      <c r="AX47" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="31"/>
-      <c r="AZ47" s="31"/>
-      <c r="BA47" s="31"/>
-      <c r="BB47" s="31" t="s">
+      <c r="AY47" s="24"/>
+      <c r="AZ47" s="24"/>
+      <c r="BA47" s="24"/>
+      <c r="BB47" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="31"/>
-      <c r="BD47" s="31"/>
-      <c r="BE47" s="31"/>
-      <c r="BF47" s="31" t="s">
+      <c r="BC47" s="24"/>
+      <c r="BD47" s="24"/>
+      <c r="BE47" s="24"/>
+      <c r="BF47" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="31"/>
-      <c r="BH47" s="31"/>
-      <c r="BI47" s="31"/>
-      <c r="BJ47" s="31" t="s">
+      <c r="BG47" s="24"/>
+      <c r="BH47" s="24"/>
+      <c r="BI47" s="24"/>
+      <c r="BJ47" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="31"/>
-      <c r="BL47" s="31"/>
-      <c r="BM47" s="31"/>
-      <c r="BN47" s="31" t="s">
+      <c r="BK47" s="24"/>
+      <c r="BL47" s="24"/>
+      <c r="BM47" s="24"/>
+      <c r="BN47" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="31"/>
-      <c r="BP47" s="31"/>
-      <c r="BQ47" s="31"/>
-      <c r="BR47" s="31" t="s">
+      <c r="BO47" s="24"/>
+      <c r="BP47" s="24"/>
+      <c r="BQ47" s="24"/>
+      <c r="BR47" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="31"/>
-      <c r="BT47" s="31"/>
-      <c r="BU47" s="31"/>
-      <c r="BV47" s="31" t="s">
+      <c r="BS47" s="24"/>
+      <c r="BT47" s="24"/>
+      <c r="BU47" s="24"/>
+      <c r="BV47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="31"/>
-      <c r="BX47" s="31"/>
-      <c r="BY47" s="31"/>
-      <c r="BZ47" s="31" t="s">
+      <c r="BW47" s="24"/>
+      <c r="BX47" s="24"/>
+      <c r="BY47" s="24"/>
+      <c r="BZ47" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="31"/>
-      <c r="CB47" s="31"/>
-      <c r="CC47" s="31"/>
-      <c r="CD47" s="31" t="s">
+      <c r="CA47" s="24"/>
+      <c r="CB47" s="24"/>
+      <c r="CC47" s="24"/>
+      <c r="CD47" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="31"/>
-      <c r="CF47" s="31"/>
-      <c r="CG47" s="31"/>
-      <c r="CH47" s="31" t="s">
+      <c r="CE47" s="24"/>
+      <c r="CF47" s="24"/>
+      <c r="CG47" s="24"/>
+      <c r="CH47" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="31"/>
-      <c r="CJ47" s="31"/>
-      <c r="CK47" s="31"/>
-      <c r="CL47" s="33" t="s">
+      <c r="CI47" s="24"/>
+      <c r="CJ47" s="24"/>
+      <c r="CK47" s="24"/>
+      <c r="CL47" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="33"/>
-      <c r="CN47" s="33"/>
-      <c r="CO47" s="28"/>
-      <c r="CP47" s="20"/>
-      <c r="CQ47" s="20"/>
-      <c r="CR47" s="20"/>
+      <c r="CM47" s="23"/>
+      <c r="CN47" s="23"/>
+      <c r="CO47" s="23"/>
+      <c r="CP47" s="22"/>
+      <c r="CQ47" s="22"/>
+      <c r="CR47" s="22"/>
+      <c r="CS47" s="22"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28820,19 +28833,22 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="29" t="s">
+      <c r="CL48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="29" t="s">
+      <c r="CM48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="29" t="s">
+      <c r="CN48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="29"/>
-      <c r="CP48" s="29"/>
-      <c r="CQ48" s="29"/>
-      <c r="CR48" s="29"/>
+      <c r="CO48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP48" s="5"/>
+      <c r="CQ48" s="5"/>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -29105,20 +29121,22 @@
       <c r="CK50" s="15">
         <v>61.013836697111969</v>
       </c>
-      <c r="CL50" s="30">
+      <c r="CL50" s="15">
         <v>70.624438473788132</v>
       </c>
-      <c r="CM50" s="30">
+      <c r="CM50" s="15">
         <v>42.617068151889271</v>
       </c>
-      <c r="CN50" s="30">
-        <v>32.842306728735622</v>
-      </c>
-      <c r="CO50" s="30"/>
-      <c r="CP50" s="30"/>
-      <c r="CQ50" s="30"/>
-      <c r="CR50" s="30"/>
-      <c r="CS50" s="9"/>
+      <c r="CN50" s="15">
+        <v>33.424096546213292</v>
+      </c>
+      <c r="CO50" s="15">
+        <v>27.651946129633359</v>
+      </c>
+      <c r="CP50" s="15"/>
+      <c r="CQ50" s="15"/>
+      <c r="CR50" s="15"/>
+      <c r="CS50" s="15"/>
       <c r="CT50" s="9"/>
       <c r="CU50" s="9"/>
       <c r="CV50" s="9"/>
@@ -29490,20 +29508,22 @@
       <c r="CK51" s="15">
         <v>40.281792753187631</v>
       </c>
-      <c r="CL51" s="30">
+      <c r="CL51" s="15">
         <v>26.99740524578435</v>
       </c>
-      <c r="CM51" s="30">
+      <c r="CM51" s="15">
         <v>29.558933189003056</v>
       </c>
-      <c r="CN51" s="30">
-        <v>21.393013365145293</v>
-      </c>
-      <c r="CO51" s="30"/>
-      <c r="CP51" s="30"/>
-      <c r="CQ51" s="30"/>
-      <c r="CR51" s="30"/>
-      <c r="CS51" s="9"/>
+      <c r="CN51" s="15">
+        <v>22.557304875942037</v>
+      </c>
+      <c r="CO51" s="15">
+        <v>21.002913084018587</v>
+      </c>
+      <c r="CP51" s="15"/>
+      <c r="CQ51" s="15"/>
+      <c r="CR51" s="15"/>
+      <c r="CS51" s="15"/>
       <c r="CT51" s="9"/>
       <c r="CU51" s="9"/>
       <c r="CV51" s="9"/>
@@ -29697,13 +29717,13 @@
       <c r="CI52" s="9"/>
       <c r="CJ52" s="9"/>
       <c r="CK52" s="9"/>
-      <c r="CL52" s="24"/>
-      <c r="CM52" s="24"/>
-      <c r="CN52" s="24"/>
-      <c r="CO52" s="24"/>
-      <c r="CP52" s="24"/>
-      <c r="CQ52" s="24"/>
-      <c r="CR52" s="24"/>
+      <c r="CL52" s="9"/>
+      <c r="CM52" s="9"/>
+      <c r="CN52" s="9"/>
+      <c r="CO52" s="9"/>
+      <c r="CP52" s="9"/>
+      <c r="CQ52" s="9"/>
+      <c r="CR52" s="9"/>
       <c r="CS52" s="9"/>
       <c r="CT52" s="9"/>
       <c r="CU52" s="9"/>
@@ -30076,20 +30096,22 @@
       <c r="CK53" s="15">
         <v>45.433069155918901</v>
       </c>
-      <c r="CL53" s="30">
+      <c r="CL53" s="15">
         <v>36.746632280850093</v>
       </c>
-      <c r="CM53" s="30">
+      <c r="CM53" s="15">
         <v>32.952243647709025</v>
       </c>
-      <c r="CN53" s="30">
-        <v>24.191301939257272</v>
-      </c>
-      <c r="CO53" s="30"/>
-      <c r="CP53" s="30"/>
-      <c r="CQ53" s="30"/>
-      <c r="CR53" s="30"/>
-      <c r="CS53" s="9"/>
+      <c r="CN53" s="15">
+        <v>25.213225901153621</v>
+      </c>
+      <c r="CO53" s="15">
+        <v>22.831986987648079</v>
+      </c>
+      <c r="CP53" s="15"/>
+      <c r="CQ53" s="15"/>
+      <c r="CR53" s="15"/>
+      <c r="CS53" s="15"/>
       <c r="CT53" s="9"/>
       <c r="CU53" s="9"/>
       <c r="CV53" s="9"/>
@@ -30283,13 +30305,14 @@
       <c r="CI54" s="12"/>
       <c r="CJ54" s="12"/>
       <c r="CK54" s="12"/>
-      <c r="CL54" s="26"/>
-      <c r="CM54" s="26"/>
-      <c r="CN54" s="26"/>
-      <c r="CO54" s="26"/>
-      <c r="CP54" s="26"/>
-      <c r="CQ54" s="26"/>
-      <c r="CR54" s="26"/>
+      <c r="CL54" s="12"/>
+      <c r="CM54" s="12"/>
+      <c r="CN54" s="12"/>
+      <c r="CO54" s="12"/>
+      <c r="CP54" s="12"/>
+      <c r="CQ54" s="12"/>
+      <c r="CR54" s="12"/>
+      <c r="CS54" s="12"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30385,13 +30408,13 @@
       <c r="CI56" s="9"/>
       <c r="CJ56" s="9"/>
       <c r="CK56" s="9"/>
-      <c r="CL56" s="24"/>
-      <c r="CM56" s="24"/>
-      <c r="CN56" s="24"/>
-      <c r="CO56" s="24"/>
-      <c r="CP56" s="24"/>
-      <c r="CQ56" s="24"/>
-      <c r="CR56" s="24"/>
+      <c r="CL56" s="9"/>
+      <c r="CM56" s="9"/>
+      <c r="CN56" s="9"/>
+      <c r="CO56" s="9"/>
+      <c r="CP56" s="9"/>
+      <c r="CQ56" s="9"/>
+      <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
@@ -30585,13 +30608,13 @@
       <c r="CI57" s="9"/>
       <c r="CJ57" s="9"/>
       <c r="CK57" s="9"/>
-      <c r="CL57" s="24"/>
-      <c r="CM57" s="24"/>
-      <c r="CN57" s="24"/>
-      <c r="CO57" s="24"/>
-      <c r="CP57" s="24"/>
-      <c r="CQ57" s="24"/>
-      <c r="CR57" s="24"/>
+      <c r="CL57" s="9"/>
+      <c r="CM57" s="9"/>
+      <c r="CN57" s="9"/>
+      <c r="CO57" s="9"/>
+      <c r="CP57" s="9"/>
+      <c r="CQ57" s="9"/>
+      <c r="CR57" s="9"/>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
@@ -30708,7 +30731,7 @@
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
@@ -30718,7 +30741,7 @@
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
@@ -30728,147 +30751,148 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="31" t="s">
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="33"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="33"/>
-      <c r="J66" s="31" t="s">
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="31" t="s">
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="31" t="s">
+      <c r="O66" s="26"/>
+      <c r="P66" s="26"/>
+      <c r="Q66" s="26"/>
+      <c r="R66" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="31" t="s">
+      <c r="S66" s="26"/>
+      <c r="T66" s="26"/>
+      <c r="U66" s="26"/>
+      <c r="V66" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="31" t="s">
+      <c r="W66" s="26"/>
+      <c r="X66" s="26"/>
+      <c r="Y66" s="26"/>
+      <c r="Z66" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="33"/>
-      <c r="AD66" s="31" t="s">
+      <c r="AA66" s="26"/>
+      <c r="AB66" s="26"/>
+      <c r="AC66" s="26"/>
+      <c r="AD66" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="33"/>
-      <c r="AF66" s="33"/>
-      <c r="AG66" s="33"/>
-      <c r="AH66" s="31" t="s">
+      <c r="AE66" s="26"/>
+      <c r="AF66" s="26"/>
+      <c r="AG66" s="26"/>
+      <c r="AH66" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="33"/>
-      <c r="AJ66" s="33"/>
-      <c r="AK66" s="33"/>
-      <c r="AL66" s="31" t="s">
+      <c r="AI66" s="26"/>
+      <c r="AJ66" s="26"/>
+      <c r="AK66" s="26"/>
+      <c r="AL66" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="33"/>
-      <c r="AN66" s="33"/>
-      <c r="AO66" s="33"/>
-      <c r="AP66" s="31" t="s">
+      <c r="AM66" s="26"/>
+      <c r="AN66" s="26"/>
+      <c r="AO66" s="26"/>
+      <c r="AP66" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="33"/>
-      <c r="AR66" s="33"/>
-      <c r="AS66" s="33"/>
-      <c r="AT66" s="31" t="s">
+      <c r="AQ66" s="26"/>
+      <c r="AR66" s="26"/>
+      <c r="AS66" s="26"/>
+      <c r="AT66" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="33"/>
-      <c r="AV66" s="33"/>
-      <c r="AW66" s="33"/>
-      <c r="AX66" s="31" t="s">
+      <c r="AU66" s="26"/>
+      <c r="AV66" s="26"/>
+      <c r="AW66" s="26"/>
+      <c r="AX66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="33"/>
-      <c r="AZ66" s="33"/>
-      <c r="BA66" s="33"/>
-      <c r="BB66" s="31" t="s">
+      <c r="AY66" s="26"/>
+      <c r="AZ66" s="26"/>
+      <c r="BA66" s="26"/>
+      <c r="BB66" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="33"/>
-      <c r="BD66" s="33"/>
-      <c r="BE66" s="33"/>
-      <c r="BF66" s="31" t="s">
+      <c r="BC66" s="26"/>
+      <c r="BD66" s="26"/>
+      <c r="BE66" s="26"/>
+      <c r="BF66" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="33"/>
-      <c r="BH66" s="33"/>
-      <c r="BI66" s="33"/>
-      <c r="BJ66" s="31" t="s">
+      <c r="BG66" s="26"/>
+      <c r="BH66" s="26"/>
+      <c r="BI66" s="26"/>
+      <c r="BJ66" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="33"/>
-      <c r="BL66" s="33"/>
-      <c r="BM66" s="33"/>
-      <c r="BN66" s="31" t="s">
+      <c r="BK66" s="26"/>
+      <c r="BL66" s="26"/>
+      <c r="BM66" s="26"/>
+      <c r="BN66" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="33"/>
-      <c r="BP66" s="33"/>
-      <c r="BQ66" s="33"/>
-      <c r="BR66" s="31" t="s">
+      <c r="BO66" s="26"/>
+      <c r="BP66" s="26"/>
+      <c r="BQ66" s="26"/>
+      <c r="BR66" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="33"/>
-      <c r="BT66" s="33"/>
-      <c r="BU66" s="33"/>
-      <c r="BV66" s="31" t="s">
+      <c r="BS66" s="26"/>
+      <c r="BT66" s="26"/>
+      <c r="BU66" s="26"/>
+      <c r="BV66" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="33"/>
-      <c r="BX66" s="33"/>
-      <c r="BY66" s="33"/>
-      <c r="BZ66" s="31" t="s">
+      <c r="BW66" s="26"/>
+      <c r="BX66" s="26"/>
+      <c r="BY66" s="26"/>
+      <c r="BZ66" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="33"/>
-      <c r="CB66" s="33"/>
-      <c r="CC66" s="33"/>
-      <c r="CD66" s="31" t="s">
+      <c r="CA66" s="26"/>
+      <c r="CB66" s="26"/>
+      <c r="CC66" s="26"/>
+      <c r="CD66" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="31"/>
-      <c r="CF66" s="31"/>
-      <c r="CG66" s="31"/>
-      <c r="CH66" s="31" t="s">
+      <c r="CE66" s="24"/>
+      <c r="CF66" s="24"/>
+      <c r="CG66" s="24"/>
+      <c r="CH66" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="31"/>
-      <c r="CJ66" s="31"/>
-      <c r="CK66" s="31"/>
-      <c r="CL66" s="33" t="s">
+      <c r="CI66" s="24"/>
+      <c r="CJ66" s="24"/>
+      <c r="CK66" s="24"/>
+      <c r="CL66" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="33"/>
-      <c r="CN66" s="33"/>
-      <c r="CO66" s="28"/>
-      <c r="CP66" s="20"/>
-      <c r="CQ66" s="20"/>
-      <c r="CR66" s="20"/>
+      <c r="CM66" s="23"/>
+      <c r="CN66" s="23"/>
+      <c r="CO66" s="23"/>
+      <c r="CP66" s="22"/>
+      <c r="CQ66" s="22"/>
+      <c r="CR66" s="22"/>
+      <c r="CS66" s="22"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31138,19 +31162,22 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="29" t="s">
+      <c r="CL67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="29" t="s">
+      <c r="CM67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="29" t="s">
+      <c r="CN67" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="29"/>
-      <c r="CP67" s="29"/>
-      <c r="CQ67" s="29"/>
-      <c r="CR67" s="29"/>
+      <c r="CO67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP67" s="5"/>
+      <c r="CQ67" s="5"/>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31423,20 +31450,22 @@
       <c r="CK69" s="15">
         <v>55.033025224444145</v>
       </c>
-      <c r="CL69" s="30">
+      <c r="CL69" s="15">
         <v>62.839312604883247</v>
       </c>
-      <c r="CM69" s="30">
+      <c r="CM69" s="15">
         <v>36.145130764134677</v>
       </c>
-      <c r="CN69" s="30">
-        <v>27.528267841679764</v>
-      </c>
-      <c r="CO69" s="30"/>
-      <c r="CP69" s="30"/>
-      <c r="CQ69" s="30"/>
-      <c r="CR69" s="30"/>
-      <c r="CS69" s="9"/>
+      <c r="CN69" s="15">
+        <v>28.08678454842709</v>
+      </c>
+      <c r="CO69" s="15">
+        <v>23.376043867949093</v>
+      </c>
+      <c r="CP69" s="15"/>
+      <c r="CQ69" s="15"/>
+      <c r="CR69" s="15"/>
+      <c r="CS69" s="15"/>
       <c r="CT69" s="9"/>
       <c r="CU69" s="9"/>
       <c r="CV69" s="9"/>
@@ -31808,20 +31837,22 @@
       <c r="CK70" s="15">
         <v>30.192654574671963</v>
       </c>
-      <c r="CL70" s="30">
+      <c r="CL70" s="15">
         <v>16.955067600840863</v>
       </c>
-      <c r="CM70" s="30">
+      <c r="CM70" s="15">
         <v>23.754672108559262</v>
       </c>
-      <c r="CN70" s="30">
-        <v>17.248293087514639</v>
-      </c>
-      <c r="CO70" s="30"/>
-      <c r="CP70" s="30"/>
-      <c r="CQ70" s="30"/>
-      <c r="CR70" s="30"/>
-      <c r="CS70" s="9"/>
+      <c r="CN70" s="15">
+        <v>18.455270375301836</v>
+      </c>
+      <c r="CO70" s="15">
+        <v>17.366618001918695</v>
+      </c>
+      <c r="CP70" s="15"/>
+      <c r="CQ70" s="15"/>
+      <c r="CR70" s="15"/>
+      <c r="CS70" s="15"/>
       <c r="CT70" s="9"/>
       <c r="CU70" s="9"/>
       <c r="CV70" s="9"/>
@@ -32014,13 +32045,13 @@
       <c r="CI71" s="9"/>
       <c r="CJ71" s="9"/>
       <c r="CK71" s="9"/>
-      <c r="CL71" s="24"/>
-      <c r="CM71" s="24"/>
-      <c r="CN71" s="24"/>
-      <c r="CO71" s="24"/>
-      <c r="CP71" s="24"/>
-      <c r="CQ71" s="24"/>
-      <c r="CR71" s="24"/>
+      <c r="CL71" s="9"/>
+      <c r="CM71" s="9"/>
+      <c r="CN71" s="9"/>
+      <c r="CO71" s="9"/>
+      <c r="CP71" s="9"/>
+      <c r="CQ71" s="9"/>
+      <c r="CR71" s="9"/>
       <c r="CS71" s="9"/>
       <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
@@ -32393,20 +32424,22 @@
       <c r="CK72" s="15">
         <v>36.740115853001356</v>
       </c>
-      <c r="CL72" s="30">
+      <c r="CL72" s="15">
         <v>27.799931467254638</v>
       </c>
-      <c r="CM72" s="30">
+      <c r="CM72" s="15">
         <v>27.230263780939467</v>
       </c>
-      <c r="CN72" s="30">
-        <v>19.99137362972661</v>
-      </c>
-      <c r="CO72" s="30"/>
-      <c r="CP72" s="30"/>
-      <c r="CQ72" s="30"/>
-      <c r="CR72" s="30"/>
-      <c r="CS72" s="9"/>
+      <c r="CN72" s="15">
+        <v>21.025317457337138</v>
+      </c>
+      <c r="CO72" s="15">
+        <v>19.162493094022295</v>
+      </c>
+      <c r="CP72" s="15"/>
+      <c r="CQ72" s="15"/>
+      <c r="CR72" s="15"/>
+      <c r="CS72" s="15"/>
       <c r="CT72" s="9"/>
       <c r="CU72" s="9"/>
       <c r="CV72" s="9"/>
@@ -32600,13 +32633,14 @@
       <c r="CI73" s="12"/>
       <c r="CJ73" s="12"/>
       <c r="CK73" s="12"/>
-      <c r="CL73" s="26"/>
-      <c r="CM73" s="26"/>
-      <c r="CN73" s="26"/>
-      <c r="CO73" s="26"/>
-      <c r="CP73" s="26"/>
-      <c r="CQ73" s="26"/>
-      <c r="CR73" s="26"/>
+      <c r="CL73" s="12"/>
+      <c r="CM73" s="12"/>
+      <c r="CN73" s="12"/>
+      <c r="CO73" s="12"/>
+      <c r="CP73" s="12"/>
+      <c r="CQ73" s="12"/>
+      <c r="CR73" s="12"/>
+      <c r="CS73" s="12"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32702,13 +32736,13 @@
       <c r="CI75" s="9"/>
       <c r="CJ75" s="9"/>
       <c r="CK75" s="9"/>
-      <c r="CL75" s="24"/>
-      <c r="CM75" s="24"/>
-      <c r="CN75" s="24"/>
-      <c r="CO75" s="24"/>
-      <c r="CP75" s="24"/>
-      <c r="CQ75" s="24"/>
-      <c r="CR75" s="24"/>
+      <c r="CL75" s="9"/>
+      <c r="CM75" s="9"/>
+      <c r="CN75" s="9"/>
+      <c r="CO75" s="9"/>
+      <c r="CP75" s="9"/>
+      <c r="CQ75" s="9"/>
+      <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
@@ -32906,13 +32940,13 @@
       <c r="CI76" s="9"/>
       <c r="CJ76" s="9"/>
       <c r="CK76" s="9"/>
-      <c r="CL76" s="24"/>
-      <c r="CM76" s="24"/>
-      <c r="CN76" s="24"/>
-      <c r="CO76" s="24"/>
-      <c r="CP76" s="24"/>
-      <c r="CQ76" s="24"/>
-      <c r="CR76" s="24"/>
+      <c r="CL76" s="9"/>
+      <c r="CM76" s="9"/>
+      <c r="CN76" s="9"/>
+      <c r="CO76" s="9"/>
+      <c r="CP76" s="9"/>
+      <c r="CQ76" s="9"/>
+      <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
@@ -33028,7 +33062,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -33038,7 +33072,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -33048,149 +33082,150 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="31">
+      <c r="B84" s="24">
         <v>2000</v>
       </c>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="32"/>
-      <c r="F84" s="31">
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="24">
         <v>2001</v>
       </c>
-      <c r="G84" s="32"/>
-      <c r="H84" s="32"/>
-      <c r="I84" s="32"/>
-      <c r="J84" s="31">
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="24">
         <v>2002</v>
       </c>
-      <c r="K84" s="32"/>
-      <c r="L84" s="32"/>
-      <c r="M84" s="32"/>
-      <c r="N84" s="31">
+      <c r="K84" s="25"/>
+      <c r="L84" s="25"/>
+      <c r="M84" s="25"/>
+      <c r="N84" s="24">
         <v>2003</v>
       </c>
-      <c r="O84" s="32"/>
-      <c r="P84" s="32"/>
-      <c r="Q84" s="32"/>
-      <c r="R84" s="31">
+      <c r="O84" s="25"/>
+      <c r="P84" s="25"/>
+      <c r="Q84" s="25"/>
+      <c r="R84" s="24">
         <v>2004</v>
       </c>
-      <c r="S84" s="32"/>
-      <c r="T84" s="32"/>
-      <c r="U84" s="32"/>
-      <c r="V84" s="31">
+      <c r="S84" s="25"/>
+      <c r="T84" s="25"/>
+      <c r="U84" s="25"/>
+      <c r="V84" s="24">
         <v>2005</v>
       </c>
-      <c r="W84" s="32"/>
-      <c r="X84" s="32"/>
-      <c r="Y84" s="32"/>
-      <c r="Z84" s="31">
+      <c r="W84" s="25"/>
+      <c r="X84" s="25"/>
+      <c r="Y84" s="25"/>
+      <c r="Z84" s="24">
         <v>2006</v>
       </c>
-      <c r="AA84" s="32"/>
-      <c r="AB84" s="32"/>
-      <c r="AC84" s="32"/>
-      <c r="AD84" s="31">
+      <c r="AA84" s="25"/>
+      <c r="AB84" s="25"/>
+      <c r="AC84" s="25"/>
+      <c r="AD84" s="24">
         <v>2007</v>
       </c>
-      <c r="AE84" s="32"/>
-      <c r="AF84" s="32"/>
-      <c r="AG84" s="32"/>
-      <c r="AH84" s="31">
+      <c r="AE84" s="25"/>
+      <c r="AF84" s="25"/>
+      <c r="AG84" s="25"/>
+      <c r="AH84" s="24">
         <v>2008</v>
       </c>
-      <c r="AI84" s="32"/>
-      <c r="AJ84" s="32"/>
-      <c r="AK84" s="32"/>
-      <c r="AL84" s="31">
+      <c r="AI84" s="25"/>
+      <c r="AJ84" s="25"/>
+      <c r="AK84" s="25"/>
+      <c r="AL84" s="24">
         <v>2009</v>
       </c>
-      <c r="AM84" s="32"/>
-      <c r="AN84" s="32"/>
-      <c r="AO84" s="32"/>
-      <c r="AP84" s="31">
+      <c r="AM84" s="25"/>
+      <c r="AN84" s="25"/>
+      <c r="AO84" s="25"/>
+      <c r="AP84" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="32"/>
-      <c r="AR84" s="32"/>
-      <c r="AS84" s="32"/>
-      <c r="AT84" s="31">
+      <c r="AQ84" s="25"/>
+      <c r="AR84" s="25"/>
+      <c r="AS84" s="25"/>
+      <c r="AT84" s="24">
         <v>2011</v>
       </c>
-      <c r="AU84" s="32"/>
-      <c r="AV84" s="32"/>
-      <c r="AW84" s="32"/>
-      <c r="AX84" s="31">
+      <c r="AU84" s="25"/>
+      <c r="AV84" s="25"/>
+      <c r="AW84" s="25"/>
+      <c r="AX84" s="24">
         <v>2012</v>
       </c>
-      <c r="AY84" s="32"/>
-      <c r="AZ84" s="32"/>
-      <c r="BA84" s="32"/>
-      <c r="BB84" s="31">
+      <c r="AY84" s="25"/>
+      <c r="AZ84" s="25"/>
+      <c r="BA84" s="25"/>
+      <c r="BB84" s="24">
         <v>2013</v>
       </c>
-      <c r="BC84" s="32"/>
-      <c r="BD84" s="32"/>
-      <c r="BE84" s="32"/>
-      <c r="BF84" s="31">
+      <c r="BC84" s="25"/>
+      <c r="BD84" s="25"/>
+      <c r="BE84" s="25"/>
+      <c r="BF84" s="24">
         <v>2014</v>
       </c>
-      <c r="BG84" s="32"/>
-      <c r="BH84" s="32"/>
-      <c r="BI84" s="32"/>
-      <c r="BJ84" s="31">
+      <c r="BG84" s="25"/>
+      <c r="BH84" s="25"/>
+      <c r="BI84" s="25"/>
+      <c r="BJ84" s="24">
         <v>2015</v>
       </c>
-      <c r="BK84" s="32"/>
-      <c r="BL84" s="32"/>
-      <c r="BM84" s="32"/>
-      <c r="BN84" s="31">
+      <c r="BK84" s="25"/>
+      <c r="BL84" s="25"/>
+      <c r="BM84" s="25"/>
+      <c r="BN84" s="24">
         <v>2016</v>
       </c>
-      <c r="BO84" s="32"/>
-      <c r="BP84" s="32"/>
-      <c r="BQ84" s="32"/>
-      <c r="BR84" s="31">
+      <c r="BO84" s="25"/>
+      <c r="BP84" s="25"/>
+      <c r="BQ84" s="25"/>
+      <c r="BR84" s="24">
         <v>2017</v>
       </c>
-      <c r="BS84" s="32"/>
-      <c r="BT84" s="32"/>
-      <c r="BU84" s="32"/>
-      <c r="BV84" s="31">
+      <c r="BS84" s="25"/>
+      <c r="BT84" s="25"/>
+      <c r="BU84" s="25"/>
+      <c r="BV84" s="24">
         <v>2018</v>
       </c>
-      <c r="BW84" s="32"/>
-      <c r="BX84" s="32"/>
-      <c r="BY84" s="32"/>
-      <c r="BZ84" s="31">
+      <c r="BW84" s="25"/>
+      <c r="BX84" s="25"/>
+      <c r="BY84" s="25"/>
+      <c r="BZ84" s="24">
         <v>2019</v>
       </c>
-      <c r="CA84" s="32"/>
-      <c r="CB84" s="32"/>
-      <c r="CC84" s="32"/>
-      <c r="CD84" s="31">
+      <c r="CA84" s="25"/>
+      <c r="CB84" s="25"/>
+      <c r="CC84" s="25"/>
+      <c r="CD84" s="24">
         <v>2020</v>
       </c>
-      <c r="CE84" s="31"/>
-      <c r="CF84" s="31"/>
-      <c r="CG84" s="31"/>
-      <c r="CH84" s="31">
+      <c r="CE84" s="24"/>
+      <c r="CF84" s="24"/>
+      <c r="CG84" s="24"/>
+      <c r="CH84" s="24">
         <v>2021</v>
       </c>
-      <c r="CI84" s="31"/>
-      <c r="CJ84" s="31"/>
-      <c r="CK84" s="31"/>
-      <c r="CL84" s="33">
+      <c r="CI84" s="24"/>
+      <c r="CJ84" s="24"/>
+      <c r="CK84" s="24"/>
+      <c r="CL84" s="23">
         <v>2022</v>
       </c>
-      <c r="CM84" s="33"/>
-      <c r="CN84" s="33"/>
-      <c r="CO84" s="33"/>
-      <c r="CP84" s="33">
+      <c r="CM84" s="23"/>
+      <c r="CN84" s="23"/>
+      <c r="CO84" s="23"/>
+      <c r="CP84" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="33"/>
-      <c r="CR84" s="33"/>
+      <c r="CQ84" s="23"/>
+      <c r="CR84" s="23"/>
+      <c r="CS84" s="23"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33460,26 +33495,29 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="22" t="s">
+      <c r="CL85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="22" t="s">
+      <c r="CM85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="22" t="s">
+      <c r="CN85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="22" t="s">
+      <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="22" t="s">
+      <c r="CP85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="22" t="s">
+      <c r="CQ85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="22" t="s">
+      <c r="CR85" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS85" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33753,28 +33791,30 @@
       <c r="CK87" s="15">
         <v>108.06880471121292</v>
       </c>
-      <c r="CL87" s="30">
+      <c r="CL87" s="15">
         <v>112.89293468206638</v>
       </c>
-      <c r="CM87" s="30">
+      <c r="CM87" s="15">
         <v>111.46655877131178</v>
       </c>
-      <c r="CN87" s="30">
+      <c r="CN87" s="15">
         <v>109.43710197026648</v>
       </c>
-      <c r="CO87" s="30">
+      <c r="CO87" s="15">
         <v>112.23784641131911</v>
       </c>
-      <c r="CP87" s="30">
+      <c r="CP87" s="15">
         <v>118.290192212516</v>
       </c>
-      <c r="CQ87" s="30">
+      <c r="CQ87" s="15">
         <v>116.76534973906368</v>
       </c>
-      <c r="CR87" s="30">
-        <v>113.99729105931351</v>
-      </c>
-      <c r="CS87" s="9"/>
+      <c r="CR87" s="15">
+        <v>113.99729105931354</v>
+      </c>
+      <c r="CS87" s="15">
+        <v>116.12772686355986</v>
+      </c>
       <c r="CT87" s="9"/>
       <c r="CU87" s="9"/>
       <c r="CV87" s="9"/>
@@ -34150,28 +34190,30 @@
       <c r="CK88" s="15">
         <v>116.99424484412606</v>
       </c>
-      <c r="CL88" s="30">
+      <c r="CL88" s="15">
         <v>121.41701048256701</v>
       </c>
-      <c r="CM88" s="30">
+      <c r="CM88" s="15">
         <v>123.77383601179778</v>
       </c>
-      <c r="CN88" s="30">
+      <c r="CN88" s="15">
         <v>123.13592499172418</v>
       </c>
-      <c r="CO88" s="30">
+      <c r="CO88" s="15">
         <v>126.06058661417178</v>
       </c>
-      <c r="CP88" s="30">
+      <c r="CP88" s="15">
         <v>131.84247250074139</v>
       </c>
-      <c r="CQ88" s="30">
+      <c r="CQ88" s="15">
         <v>129.57899590515768</v>
       </c>
-      <c r="CR88" s="30">
-        <v>127.48877271153762</v>
-      </c>
-      <c r="CS88" s="9"/>
+      <c r="CR88" s="15">
+        <v>127.40004773597997</v>
+      </c>
+      <c r="CS88" s="15">
+        <v>129.96624138173308</v>
+      </c>
       <c r="CT88" s="9"/>
       <c r="CU88" s="9"/>
       <c r="CV88" s="9"/>
@@ -34368,13 +34410,13 @@
       <c r="CI89" s="9"/>
       <c r="CJ89" s="9"/>
       <c r="CK89" s="9"/>
-      <c r="CL89" s="24"/>
-      <c r="CM89" s="24"/>
-      <c r="CN89" s="24"/>
-      <c r="CO89" s="24"/>
-      <c r="CP89" s="24"/>
-      <c r="CQ89" s="24"/>
-      <c r="CR89" s="24"/>
+      <c r="CL89" s="9"/>
+      <c r="CM89" s="9"/>
+      <c r="CN89" s="9"/>
+      <c r="CO89" s="9"/>
+      <c r="CP89" s="9"/>
+      <c r="CQ89" s="9"/>
+      <c r="CR89" s="9"/>
       <c r="CS89" s="9"/>
       <c r="CT89" s="9"/>
       <c r="CU89" s="9"/>
@@ -34751,28 +34793,30 @@
       <c r="CK90" s="15">
         <v>114.64166426124207</v>
       </c>
-      <c r="CL90" s="30">
+      <c r="CL90" s="15">
         <v>119.40232239877535</v>
       </c>
-      <c r="CM90" s="30">
+      <c r="CM90" s="15">
         <v>120.32157718298843</v>
       </c>
-      <c r="CN90" s="30">
+      <c r="CN90" s="15">
         <v>119.48056826371851</v>
       </c>
-      <c r="CO90" s="30">
+      <c r="CO90" s="15">
         <v>121.92975691623928</v>
       </c>
-      <c r="CP90" s="30">
+      <c r="CP90" s="15">
         <v>127.76114421257283</v>
       </c>
-      <c r="CQ90" s="30">
+      <c r="CQ90" s="15">
         <v>125.73284979784694</v>
       </c>
-      <c r="CR90" s="30">
-        <v>123.6626174053352</v>
-      </c>
-      <c r="CS90" s="9"/>
+      <c r="CR90" s="15">
+        <v>123.61502286558317</v>
+      </c>
+      <c r="CS90" s="15">
+        <v>125.68446602678461</v>
+      </c>
       <c r="CT90" s="9"/>
       <c r="CU90" s="9"/>
       <c r="CV90" s="9"/>
@@ -34970,13 +35014,14 @@
       <c r="CI91" s="12"/>
       <c r="CJ91" s="12"/>
       <c r="CK91" s="12"/>
-      <c r="CL91" s="26"/>
-      <c r="CM91" s="26"/>
-      <c r="CN91" s="26"/>
-      <c r="CO91" s="26"/>
-      <c r="CP91" s="26"/>
-      <c r="CQ91" s="26"/>
-      <c r="CR91" s="26"/>
+      <c r="CL91" s="12"/>
+      <c r="CM91" s="12"/>
+      <c r="CN91" s="12"/>
+      <c r="CO91" s="12"/>
+      <c r="CP91" s="12"/>
+      <c r="CQ91" s="12"/>
+      <c r="CR91" s="12"/>
+      <c r="CS91" s="12"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -34995,7 +35040,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -35005,7 +35050,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -35015,149 +35060,150 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="31">
+      <c r="B103" s="24">
         <v>2000</v>
       </c>
-      <c r="C103" s="32"/>
-      <c r="D103" s="32"/>
-      <c r="E103" s="32"/>
-      <c r="F103" s="31">
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="24">
         <v>2001</v>
       </c>
-      <c r="G103" s="32"/>
-      <c r="H103" s="32"/>
-      <c r="I103" s="32"/>
-      <c r="J103" s="31">
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="24">
         <v>2002</v>
       </c>
-      <c r="K103" s="32"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="32"/>
-      <c r="N103" s="31">
+      <c r="K103" s="25"/>
+      <c r="L103" s="25"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="24">
         <v>2003</v>
       </c>
-      <c r="O103" s="32"/>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="32"/>
-      <c r="R103" s="31">
+      <c r="O103" s="25"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="24">
         <v>2004</v>
       </c>
-      <c r="S103" s="32"/>
-      <c r="T103" s="32"/>
-      <c r="U103" s="32"/>
-      <c r="V103" s="31">
+      <c r="S103" s="25"/>
+      <c r="T103" s="25"/>
+      <c r="U103" s="25"/>
+      <c r="V103" s="24">
         <v>2005</v>
       </c>
-      <c r="W103" s="32"/>
-      <c r="X103" s="32"/>
-      <c r="Y103" s="32"/>
-      <c r="Z103" s="31">
+      <c r="W103" s="25"/>
+      <c r="X103" s="25"/>
+      <c r="Y103" s="25"/>
+      <c r="Z103" s="24">
         <v>2006</v>
       </c>
-      <c r="AA103" s="32"/>
-      <c r="AB103" s="32"/>
-      <c r="AC103" s="32"/>
-      <c r="AD103" s="31">
+      <c r="AA103" s="25"/>
+      <c r="AB103" s="25"/>
+      <c r="AC103" s="25"/>
+      <c r="AD103" s="24">
         <v>2007</v>
       </c>
-      <c r="AE103" s="32"/>
-      <c r="AF103" s="32"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="31">
+      <c r="AE103" s="25"/>
+      <c r="AF103" s="25"/>
+      <c r="AG103" s="25"/>
+      <c r="AH103" s="24">
         <v>2008</v>
       </c>
-      <c r="AI103" s="32"/>
-      <c r="AJ103" s="32"/>
-      <c r="AK103" s="32"/>
-      <c r="AL103" s="31">
+      <c r="AI103" s="25"/>
+      <c r="AJ103" s="25"/>
+      <c r="AK103" s="25"/>
+      <c r="AL103" s="24">
         <v>2009</v>
       </c>
-      <c r="AM103" s="32"/>
-      <c r="AN103" s="32"/>
-      <c r="AO103" s="32"/>
-      <c r="AP103" s="31">
+      <c r="AM103" s="25"/>
+      <c r="AN103" s="25"/>
+      <c r="AO103" s="25"/>
+      <c r="AP103" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="32"/>
-      <c r="AR103" s="32"/>
-      <c r="AS103" s="32"/>
-      <c r="AT103" s="31">
+      <c r="AQ103" s="25"/>
+      <c r="AR103" s="25"/>
+      <c r="AS103" s="25"/>
+      <c r="AT103" s="24">
         <v>2011</v>
       </c>
-      <c r="AU103" s="32"/>
-      <c r="AV103" s="32"/>
-      <c r="AW103" s="32"/>
-      <c r="AX103" s="31">
+      <c r="AU103" s="25"/>
+      <c r="AV103" s="25"/>
+      <c r="AW103" s="25"/>
+      <c r="AX103" s="24">
         <v>2012</v>
       </c>
-      <c r="AY103" s="32"/>
-      <c r="AZ103" s="32"/>
-      <c r="BA103" s="32"/>
-      <c r="BB103" s="31">
+      <c r="AY103" s="25"/>
+      <c r="AZ103" s="25"/>
+      <c r="BA103" s="25"/>
+      <c r="BB103" s="24">
         <v>2013</v>
       </c>
-      <c r="BC103" s="32"/>
-      <c r="BD103" s="32"/>
-      <c r="BE103" s="32"/>
-      <c r="BF103" s="31">
+      <c r="BC103" s="25"/>
+      <c r="BD103" s="25"/>
+      <c r="BE103" s="25"/>
+      <c r="BF103" s="24">
         <v>2014</v>
       </c>
-      <c r="BG103" s="32"/>
-      <c r="BH103" s="32"/>
-      <c r="BI103" s="32"/>
-      <c r="BJ103" s="31">
+      <c r="BG103" s="25"/>
+      <c r="BH103" s="25"/>
+      <c r="BI103" s="25"/>
+      <c r="BJ103" s="24">
         <v>2015</v>
       </c>
-      <c r="BK103" s="32"/>
-      <c r="BL103" s="32"/>
-      <c r="BM103" s="32"/>
-      <c r="BN103" s="31">
+      <c r="BK103" s="25"/>
+      <c r="BL103" s="25"/>
+      <c r="BM103" s="25"/>
+      <c r="BN103" s="24">
         <v>2016</v>
       </c>
-      <c r="BO103" s="32"/>
-      <c r="BP103" s="32"/>
-      <c r="BQ103" s="32"/>
-      <c r="BR103" s="31">
+      <c r="BO103" s="25"/>
+      <c r="BP103" s="25"/>
+      <c r="BQ103" s="25"/>
+      <c r="BR103" s="24">
         <v>2017</v>
       </c>
-      <c r="BS103" s="32"/>
-      <c r="BT103" s="32"/>
-      <c r="BU103" s="32"/>
-      <c r="BV103" s="31">
+      <c r="BS103" s="25"/>
+      <c r="BT103" s="25"/>
+      <c r="BU103" s="25"/>
+      <c r="BV103" s="24">
         <v>2018</v>
       </c>
-      <c r="BW103" s="32"/>
-      <c r="BX103" s="32"/>
-      <c r="BY103" s="32"/>
-      <c r="BZ103" s="31">
+      <c r="BW103" s="25"/>
+      <c r="BX103" s="25"/>
+      <c r="BY103" s="25"/>
+      <c r="BZ103" s="24">
         <v>2019</v>
       </c>
-      <c r="CA103" s="32"/>
-      <c r="CB103" s="32"/>
-      <c r="CC103" s="32"/>
-      <c r="CD103" s="31">
+      <c r="CA103" s="25"/>
+      <c r="CB103" s="25"/>
+      <c r="CC103" s="25"/>
+      <c r="CD103" s="24">
         <v>2020</v>
       </c>
-      <c r="CE103" s="31"/>
-      <c r="CF103" s="31"/>
-      <c r="CG103" s="31"/>
-      <c r="CH103" s="31">
+      <c r="CE103" s="24"/>
+      <c r="CF103" s="24"/>
+      <c r="CG103" s="24"/>
+      <c r="CH103" s="24">
         <v>2021</v>
       </c>
-      <c r="CI103" s="31"/>
-      <c r="CJ103" s="31"/>
-      <c r="CK103" s="31"/>
-      <c r="CL103" s="33">
+      <c r="CI103" s="24"/>
+      <c r="CJ103" s="24"/>
+      <c r="CK103" s="24"/>
+      <c r="CL103" s="23">
         <v>2022</v>
       </c>
-      <c r="CM103" s="33"/>
-      <c r="CN103" s="33"/>
-      <c r="CO103" s="33"/>
-      <c r="CP103" s="33">
+      <c r="CM103" s="23"/>
+      <c r="CN103" s="23"/>
+      <c r="CO103" s="23"/>
+      <c r="CP103" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="33"/>
-      <c r="CR103" s="33"/>
+      <c r="CQ103" s="23"/>
+      <c r="CR103" s="23"/>
+      <c r="CS103" s="23"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35427,26 +35473,29 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="22" t="s">
+      <c r="CL104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="22" t="s">
+      <c r="CM104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="22" t="s">
+      <c r="CN104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="22" t="s">
+      <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="22" t="s">
+      <c r="CP104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="22" t="s">
+      <c r="CQ104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="22" t="s">
+      <c r="CR104" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS104" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35720,28 +35769,30 @@
       <c r="CK106" s="15">
         <v>24.84692978977051</v>
       </c>
-      <c r="CL106" s="30">
+      <c r="CL106" s="15">
         <v>22.346756847100469</v>
       </c>
-      <c r="CM106" s="30">
+      <c r="CM106" s="15">
         <v>25.986180019967918</v>
       </c>
-      <c r="CN106" s="30">
+      <c r="CN106" s="15">
         <v>24.440709878312298</v>
       </c>
-      <c r="CO106" s="30">
+      <c r="CO106" s="15">
         <v>27.508870704678333</v>
       </c>
-      <c r="CP106" s="30">
+      <c r="CP106" s="15">
         <v>27.882974338379768</v>
       </c>
-      <c r="CQ106" s="30">
+      <c r="CQ106" s="15">
         <v>27.875218238025496</v>
       </c>
-      <c r="CR106" s="30">
-        <v>26.143217984064709</v>
-      </c>
-      <c r="CS106" s="9"/>
+      <c r="CR106" s="15">
+        <v>26.043412035692025</v>
+      </c>
+      <c r="CS106" s="15">
+        <v>28.588325951559906</v>
+      </c>
       <c r="CT106" s="9"/>
       <c r="CU106" s="9"/>
       <c r="CV106" s="9"/>
@@ -36117,28 +36168,30 @@
       <c r="CK107" s="15">
         <v>75.153070210229501</v>
       </c>
-      <c r="CL107" s="30">
+      <c r="CL107" s="15">
         <v>77.653243152899535</v>
       </c>
-      <c r="CM107" s="30">
+      <c r="CM107" s="15">
         <v>74.013819980032082</v>
       </c>
-      <c r="CN107" s="30">
+      <c r="CN107" s="15">
         <v>75.55929012168771</v>
       </c>
-      <c r="CO107" s="30">
+      <c r="CO107" s="15">
         <v>72.491129295321656</v>
       </c>
-      <c r="CP107" s="30">
+      <c r="CP107" s="15">
         <v>72.117025661620232</v>
       </c>
-      <c r="CQ107" s="30">
+      <c r="CQ107" s="15">
         <v>72.124781761974504</v>
       </c>
-      <c r="CR107" s="30">
-        <v>73.856782015935295</v>
-      </c>
-      <c r="CS107" s="9"/>
+      <c r="CR107" s="15">
+        <v>73.956587964307971</v>
+      </c>
+      <c r="CS107" s="15">
+        <v>71.411674048440105</v>
+      </c>
       <c r="CT107" s="9"/>
       <c r="CU107" s="9"/>
       <c r="CV107" s="9"/>
@@ -36335,13 +36388,13 @@
       <c r="CI108" s="9"/>
       <c r="CJ108" s="9"/>
       <c r="CK108" s="9"/>
-      <c r="CL108" s="24"/>
-      <c r="CM108" s="24"/>
-      <c r="CN108" s="24"/>
-      <c r="CO108" s="24"/>
-      <c r="CP108" s="24"/>
-      <c r="CQ108" s="24"/>
-      <c r="CR108" s="24"/>
+      <c r="CL108" s="9"/>
+      <c r="CM108" s="9"/>
+      <c r="CN108" s="9"/>
+      <c r="CO108" s="9"/>
+      <c r="CP108" s="9"/>
+      <c r="CQ108" s="9"/>
+      <c r="CR108" s="9"/>
       <c r="CS108" s="9"/>
       <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
@@ -36718,28 +36771,30 @@
       <c r="CK109" s="15">
         <v>100</v>
       </c>
-      <c r="CL109" s="30">
+      <c r="CL109" s="15">
         <v>100</v>
       </c>
-      <c r="CM109" s="30">
+      <c r="CM109" s="15">
         <v>100</v>
       </c>
-      <c r="CN109" s="30">
+      <c r="CN109" s="15">
         <v>100</v>
       </c>
-      <c r="CO109" s="30">
+      <c r="CO109" s="15">
         <v>100</v>
       </c>
-      <c r="CP109" s="30">
+      <c r="CP109" s="15">
         <v>100</v>
       </c>
-      <c r="CQ109" s="30">
+      <c r="CQ109" s="15">
         <v>100</v>
       </c>
-      <c r="CR109" s="30">
+      <c r="CR109" s="15">
         <v>100</v>
       </c>
-      <c r="CS109" s="9"/>
+      <c r="CS109" s="15">
+        <v>100</v>
+      </c>
       <c r="CT109" s="9"/>
       <c r="CU109" s="9"/>
       <c r="CV109" s="9"/>
@@ -36937,13 +36992,14 @@
       <c r="CI110" s="12"/>
       <c r="CJ110" s="12"/>
       <c r="CK110" s="12"/>
-      <c r="CL110" s="26"/>
-      <c r="CM110" s="26"/>
-      <c r="CN110" s="26"/>
-      <c r="CO110" s="26"/>
-      <c r="CP110" s="26"/>
-      <c r="CQ110" s="26"/>
-      <c r="CR110" s="26"/>
+      <c r="CL110" s="12"/>
+      <c r="CM110" s="12"/>
+      <c r="CN110" s="12"/>
+      <c r="CO110" s="12"/>
+      <c r="CP110" s="12"/>
+      <c r="CQ110" s="12"/>
+      <c r="CR110" s="12"/>
+      <c r="CS110" s="12"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37039,13 +37095,13 @@
       <c r="CI112" s="9"/>
       <c r="CJ112" s="9"/>
       <c r="CK112" s="9"/>
-      <c r="CL112" s="24"/>
-      <c r="CM112" s="24"/>
-      <c r="CN112" s="24"/>
-      <c r="CO112" s="24"/>
-      <c r="CP112" s="24"/>
-      <c r="CQ112" s="24"/>
-      <c r="CR112" s="24"/>
+      <c r="CL112" s="9"/>
+      <c r="CM112" s="9"/>
+      <c r="CN112" s="9"/>
+      <c r="CO112" s="9"/>
+      <c r="CP112" s="9"/>
+      <c r="CQ112" s="9"/>
+      <c r="CR112" s="9"/>
       <c r="CS112" s="9"/>
       <c r="CT112" s="9"/>
       <c r="CU112" s="9"/>
@@ -37243,13 +37299,13 @@
       <c r="CI113" s="9"/>
       <c r="CJ113" s="9"/>
       <c r="CK113" s="9"/>
-      <c r="CL113" s="24"/>
-      <c r="CM113" s="24"/>
-      <c r="CN113" s="24"/>
-      <c r="CO113" s="24"/>
-      <c r="CP113" s="24"/>
-      <c r="CQ113" s="24"/>
-      <c r="CR113" s="24"/>
+      <c r="CL113" s="9"/>
+      <c r="CM113" s="9"/>
+      <c r="CN113" s="9"/>
+      <c r="CO113" s="9"/>
+      <c r="CP113" s="9"/>
+      <c r="CQ113" s="9"/>
+      <c r="CR113" s="9"/>
       <c r="CS113" s="9"/>
       <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
@@ -37370,7 +37426,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37380,7 +37436,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37390,149 +37446,150 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="31">
+      <c r="B122" s="24">
         <v>2000</v>
       </c>
-      <c r="C122" s="32"/>
-      <c r="D122" s="32"/>
-      <c r="E122" s="32"/>
-      <c r="F122" s="31">
+      <c r="C122" s="25"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="24">
         <v>2001</v>
       </c>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="32"/>
-      <c r="J122" s="31">
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="24">
         <v>2002</v>
       </c>
-      <c r="K122" s="32"/>
-      <c r="L122" s="32"/>
-      <c r="M122" s="32"/>
-      <c r="N122" s="31">
+      <c r="K122" s="25"/>
+      <c r="L122" s="25"/>
+      <c r="M122" s="25"/>
+      <c r="N122" s="24">
         <v>2003</v>
       </c>
-      <c r="O122" s="32"/>
-      <c r="P122" s="32"/>
-      <c r="Q122" s="32"/>
-      <c r="R122" s="31">
+      <c r="O122" s="25"/>
+      <c r="P122" s="25"/>
+      <c r="Q122" s="25"/>
+      <c r="R122" s="24">
         <v>2004</v>
       </c>
-      <c r="S122" s="32"/>
-      <c r="T122" s="32"/>
-      <c r="U122" s="32"/>
-      <c r="V122" s="31">
+      <c r="S122" s="25"/>
+      <c r="T122" s="25"/>
+      <c r="U122" s="25"/>
+      <c r="V122" s="24">
         <v>2005</v>
       </c>
-      <c r="W122" s="32"/>
-      <c r="X122" s="32"/>
-      <c r="Y122" s="32"/>
-      <c r="Z122" s="31">
+      <c r="W122" s="25"/>
+      <c r="X122" s="25"/>
+      <c r="Y122" s="25"/>
+      <c r="Z122" s="24">
         <v>2006</v>
       </c>
-      <c r="AA122" s="32"/>
-      <c r="AB122" s="32"/>
-      <c r="AC122" s="32"/>
-      <c r="AD122" s="31">
+      <c r="AA122" s="25"/>
+      <c r="AB122" s="25"/>
+      <c r="AC122" s="25"/>
+      <c r="AD122" s="24">
         <v>2007</v>
       </c>
-      <c r="AE122" s="32"/>
-      <c r="AF122" s="32"/>
-      <c r="AG122" s="32"/>
-      <c r="AH122" s="31">
+      <c r="AE122" s="25"/>
+      <c r="AF122" s="25"/>
+      <c r="AG122" s="25"/>
+      <c r="AH122" s="24">
         <v>2008</v>
       </c>
-      <c r="AI122" s="32"/>
-      <c r="AJ122" s="32"/>
-      <c r="AK122" s="32"/>
-      <c r="AL122" s="31">
+      <c r="AI122" s="25"/>
+      <c r="AJ122" s="25"/>
+      <c r="AK122" s="25"/>
+      <c r="AL122" s="24">
         <v>2009</v>
       </c>
-      <c r="AM122" s="32"/>
-      <c r="AN122" s="32"/>
-      <c r="AO122" s="32"/>
-      <c r="AP122" s="31">
+      <c r="AM122" s="25"/>
+      <c r="AN122" s="25"/>
+      <c r="AO122" s="25"/>
+      <c r="AP122" s="24">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="32"/>
-      <c r="AR122" s="32"/>
-      <c r="AS122" s="32"/>
-      <c r="AT122" s="31">
+      <c r="AQ122" s="25"/>
+      <c r="AR122" s="25"/>
+      <c r="AS122" s="25"/>
+      <c r="AT122" s="24">
         <v>2011</v>
       </c>
-      <c r="AU122" s="32"/>
-      <c r="AV122" s="32"/>
-      <c r="AW122" s="32"/>
-      <c r="AX122" s="31">
+      <c r="AU122" s="25"/>
+      <c r="AV122" s="25"/>
+      <c r="AW122" s="25"/>
+      <c r="AX122" s="24">
         <v>2012</v>
       </c>
-      <c r="AY122" s="32"/>
-      <c r="AZ122" s="32"/>
-      <c r="BA122" s="32"/>
-      <c r="BB122" s="31">
+      <c r="AY122" s="25"/>
+      <c r="AZ122" s="25"/>
+      <c r="BA122" s="25"/>
+      <c r="BB122" s="24">
         <v>2013</v>
       </c>
-      <c r="BC122" s="32"/>
-      <c r="BD122" s="32"/>
-      <c r="BE122" s="32"/>
-      <c r="BF122" s="31">
+      <c r="BC122" s="25"/>
+      <c r="BD122" s="25"/>
+      <c r="BE122" s="25"/>
+      <c r="BF122" s="24">
         <v>2014</v>
       </c>
-      <c r="BG122" s="32"/>
-      <c r="BH122" s="32"/>
-      <c r="BI122" s="32"/>
-      <c r="BJ122" s="31">
+      <c r="BG122" s="25"/>
+      <c r="BH122" s="25"/>
+      <c r="BI122" s="25"/>
+      <c r="BJ122" s="24">
         <v>2015</v>
       </c>
-      <c r="BK122" s="32"/>
-      <c r="BL122" s="32"/>
-      <c r="BM122" s="32"/>
-      <c r="BN122" s="31">
+      <c r="BK122" s="25"/>
+      <c r="BL122" s="25"/>
+      <c r="BM122" s="25"/>
+      <c r="BN122" s="24">
         <v>2016</v>
       </c>
-      <c r="BO122" s="32"/>
-      <c r="BP122" s="32"/>
-      <c r="BQ122" s="32"/>
-      <c r="BR122" s="31">
+      <c r="BO122" s="25"/>
+      <c r="BP122" s="25"/>
+      <c r="BQ122" s="25"/>
+      <c r="BR122" s="24">
         <v>2017</v>
       </c>
-      <c r="BS122" s="32"/>
-      <c r="BT122" s="32"/>
-      <c r="BU122" s="32"/>
-      <c r="BV122" s="31">
+      <c r="BS122" s="25"/>
+      <c r="BT122" s="25"/>
+      <c r="BU122" s="25"/>
+      <c r="BV122" s="24">
         <v>2018</v>
       </c>
-      <c r="BW122" s="32"/>
-      <c r="BX122" s="32"/>
-      <c r="BY122" s="32"/>
-      <c r="BZ122" s="31">
+      <c r="BW122" s="25"/>
+      <c r="BX122" s="25"/>
+      <c r="BY122" s="25"/>
+      <c r="BZ122" s="24">
         <v>2019</v>
       </c>
-      <c r="CA122" s="32"/>
-      <c r="CB122" s="32"/>
-      <c r="CC122" s="32"/>
-      <c r="CD122" s="31">
+      <c r="CA122" s="25"/>
+      <c r="CB122" s="25"/>
+      <c r="CC122" s="25"/>
+      <c r="CD122" s="24">
         <v>2020</v>
       </c>
-      <c r="CE122" s="31"/>
-      <c r="CF122" s="31"/>
-      <c r="CG122" s="31"/>
-      <c r="CH122" s="31">
+      <c r="CE122" s="24"/>
+      <c r="CF122" s="24"/>
+      <c r="CG122" s="24"/>
+      <c r="CH122" s="24">
         <v>2021</v>
       </c>
-      <c r="CI122" s="31"/>
-      <c r="CJ122" s="31"/>
-      <c r="CK122" s="31"/>
-      <c r="CL122" s="33">
+      <c r="CI122" s="24"/>
+      <c r="CJ122" s="24"/>
+      <c r="CK122" s="24"/>
+      <c r="CL122" s="23">
         <v>2022</v>
       </c>
-      <c r="CM122" s="33"/>
-      <c r="CN122" s="33"/>
-      <c r="CO122" s="33"/>
-      <c r="CP122" s="33">
+      <c r="CM122" s="23"/>
+      <c r="CN122" s="23"/>
+      <c r="CO122" s="23"/>
+      <c r="CP122" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="33"/>
-      <c r="CR122" s="33"/>
+      <c r="CQ122" s="23"/>
+      <c r="CR122" s="23"/>
+      <c r="CS122" s="23"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37802,26 +37859,29 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="22" t="s">
+      <c r="CL123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="22" t="s">
+      <c r="CM123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="22" t="s">
+      <c r="CN123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="22" t="s">
+      <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="22" t="s">
+      <c r="CP123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="22" t="s">
+      <c r="CQ123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="22" t="s">
+      <c r="CR123" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS123" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38095,28 +38155,30 @@
       <c r="CK125" s="15">
         <v>26.358146465054528</v>
       </c>
-      <c r="CL125" s="30">
+      <c r="CL125" s="15">
         <v>23.63526710629834</v>
       </c>
-      <c r="CM125" s="30">
+      <c r="CM125" s="15">
         <v>28.050548966694418</v>
       </c>
-      <c r="CN125" s="30">
+      <c r="CN125" s="15">
         <v>26.683728392431593</v>
       </c>
-      <c r="CO125" s="30">
+      <c r="CO125" s="15">
         <v>29.884303960802139</v>
       </c>
-      <c r="CP125" s="30">
+      <c r="CP125" s="15">
         <v>30.115435936744383</v>
       </c>
-      <c r="CQ125" s="30">
+      <c r="CQ125" s="15">
         <v>30.016016186618131</v>
       </c>
-      <c r="CR125" s="30">
-        <v>28.35978586215311</v>
-      </c>
-      <c r="CS125" s="9"/>
+      <c r="CR125" s="15">
+        <v>28.240644530884701</v>
+      </c>
+      <c r="CS125" s="15">
+        <v>30.941004175885322</v>
+      </c>
       <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
       <c r="CV125" s="9"/>
@@ -38492,28 +38554,30 @@
       <c r="CK126" s="15">
         <v>73.641853534945483</v>
       </c>
-      <c r="CL126" s="30">
+      <c r="CL126" s="15">
         <v>76.364732893701657</v>
       </c>
-      <c r="CM126" s="30">
+      <c r="CM126" s="15">
         <v>71.949451033305593</v>
       </c>
-      <c r="CN126" s="30">
+      <c r="CN126" s="15">
         <v>73.316271607568396</v>
       </c>
-      <c r="CO126" s="30">
+      <c r="CO126" s="15">
         <v>70.115696039197857</v>
       </c>
-      <c r="CP126" s="30">
+      <c r="CP126" s="15">
         <v>69.88456406325561</v>
       </c>
-      <c r="CQ126" s="30">
+      <c r="CQ126" s="15">
         <v>69.983983813381869</v>
       </c>
-      <c r="CR126" s="30">
-        <v>71.640214137846897</v>
-      </c>
-      <c r="CS126" s="9"/>
+      <c r="CR126" s="15">
+        <v>71.759355469115292</v>
+      </c>
+      <c r="CS126" s="15">
+        <v>69.058995824114675</v>
+      </c>
       <c r="CT126" s="9"/>
       <c r="CU126" s="9"/>
       <c r="CV126" s="9"/>
@@ -38710,13 +38774,13 @@
       <c r="CI127" s="9"/>
       <c r="CJ127" s="9"/>
       <c r="CK127" s="9"/>
-      <c r="CL127" s="24"/>
-      <c r="CM127" s="24"/>
-      <c r="CN127" s="24"/>
-      <c r="CO127" s="24"/>
-      <c r="CP127" s="24"/>
-      <c r="CQ127" s="24"/>
-      <c r="CR127" s="24"/>
+      <c r="CL127" s="9"/>
+      <c r="CM127" s="9"/>
+      <c r="CN127" s="9"/>
+      <c r="CO127" s="9"/>
+      <c r="CP127" s="9"/>
+      <c r="CQ127" s="9"/>
+      <c r="CR127" s="9"/>
       <c r="CS127" s="9"/>
       <c r="CT127" s="9"/>
       <c r="CU127" s="9"/>
@@ -39093,28 +39157,30 @@
       <c r="CK128" s="15">
         <v>100</v>
       </c>
-      <c r="CL128" s="30">
+      <c r="CL128" s="15">
         <v>100</v>
       </c>
-      <c r="CM128" s="30">
+      <c r="CM128" s="15">
         <v>100</v>
       </c>
-      <c r="CN128" s="30">
+      <c r="CN128" s="15">
         <v>100</v>
       </c>
-      <c r="CO128" s="30">
+      <c r="CO128" s="15">
         <v>100</v>
       </c>
-      <c r="CP128" s="30">
+      <c r="CP128" s="15">
         <v>100</v>
       </c>
-      <c r="CQ128" s="30">
+      <c r="CQ128" s="15">
         <v>100</v>
       </c>
-      <c r="CR128" s="30">
+      <c r="CR128" s="15">
         <v>100</v>
       </c>
-      <c r="CS128" s="9"/>
+      <c r="CS128" s="15">
+        <v>100</v>
+      </c>
       <c r="CT128" s="9"/>
       <c r="CU128" s="9"/>
       <c r="CV128" s="9"/>
@@ -39312,13 +39378,14 @@
       <c r="CI129" s="12"/>
       <c r="CJ129" s="12"/>
       <c r="CK129" s="12"/>
-      <c r="CL129" s="26"/>
-      <c r="CM129" s="26"/>
-      <c r="CN129" s="26"/>
-      <c r="CO129" s="26"/>
-      <c r="CP129" s="26"/>
-      <c r="CQ129" s="26"/>
-      <c r="CR129" s="26"/>
+      <c r="CL129" s="12"/>
+      <c r="CM129" s="12"/>
+      <c r="CN129" s="12"/>
+      <c r="CO129" s="12"/>
+      <c r="CP129" s="12"/>
+      <c r="CQ129" s="12"/>
+      <c r="CR129" s="12"/>
+      <c r="CS129" s="12"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39415,14 +39482,14 @@
       <c r="CI131" s="1"/>
       <c r="CJ131" s="1"/>
       <c r="CK131" s="1"/>
-      <c r="CL131" s="21"/>
-      <c r="CM131" s="21"/>
-      <c r="CN131" s="21"/>
-      <c r="CO131" s="21"/>
-      <c r="CP131" s="21"/>
-      <c r="CQ131" s="21"/>
-      <c r="CR131" s="21"/>
-      <c r="CS131" s="16"/>
+      <c r="CL131" s="1"/>
+      <c r="CM131" s="1"/>
+      <c r="CN131" s="1"/>
+      <c r="CO131" s="1"/>
+      <c r="CP131" s="1"/>
+      <c r="CQ131" s="1"/>
+      <c r="CR131" s="1"/>
+      <c r="CS131" s="1"/>
       <c r="CT131" s="16"/>
       <c r="CU131" s="16"/>
       <c r="CV131" s="16"/>
@@ -39620,14 +39687,14 @@
       <c r="CI132" s="1"/>
       <c r="CJ132" s="1"/>
       <c r="CK132" s="1"/>
-      <c r="CL132" s="21"/>
-      <c r="CM132" s="21"/>
-      <c r="CN132" s="21"/>
-      <c r="CO132" s="21"/>
-      <c r="CP132" s="21"/>
-      <c r="CQ132" s="21"/>
-      <c r="CR132" s="21"/>
-      <c r="CS132" s="16"/>
+      <c r="CL132" s="1"/>
+      <c r="CM132" s="1"/>
+      <c r="CN132" s="1"/>
+      <c r="CO132" s="1"/>
+      <c r="CP132" s="1"/>
+      <c r="CQ132" s="1"/>
+      <c r="CR132" s="1"/>
+      <c r="CS132" s="1"/>
       <c r="CT132" s="16"/>
       <c r="CU132" s="16"/>
       <c r="CV132" s="16"/>
@@ -39736,41 +39803,21 @@
       <c r="GU132" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="166">
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP28:CR28"/>
-    <mergeCell ref="CP84:CR84"/>
-    <mergeCell ref="CP103:CR103"/>
-    <mergeCell ref="CP122:CR122"/>
+  <mergeCells count="154">
     <mergeCell ref="CH122:CK122"/>
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="CH9:CK9"/>
     <mergeCell ref="CH28:CK28"/>
     <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL28:CO28"/>
     <mergeCell ref="CH47:CK47"/>
     <mergeCell ref="CH66:CK66"/>
-    <mergeCell ref="CL84:CO84"/>
     <mergeCell ref="BZ84:CC84"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD28:CG28"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CL103:CO103"/>
-    <mergeCell ref="CL122:CO122"/>
     <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CL47:CN47"/>
-    <mergeCell ref="CL66:CN66"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="CH103:CK103"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
@@ -39782,6 +39829,14 @@
     <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -39909,9 +39964,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="95" man="1"/>
-    <brk id="76" max="95" man="1"/>
-    <brk id="94" max="95" man="1"/>
+    <brk id="38" max="96" man="1"/>
+    <brk id="76" max="96" man="1"/>
+    <brk id="94" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12BF442-24E2-4001-8750-F2CAC63D4AA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94F1A6-110E-4A8D-8986-D3F30BFBDED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CS$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CT$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -617,13 +617,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -741,14 +744,28 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23608,14 +23625,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CW6" sqref="CW6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="97" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="98" width="9.33203125" style="22" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23630,7 +23648,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23640,7 +23658,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23650,150 +23668,153 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="24">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24">
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="23">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="23"/>
-      <c r="CN9" s="23"/>
-      <c r="CO9" s="23"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
       <c r="CP9" s="23">
         <v>2023</v>
       </c>
       <c r="CQ9" s="23"/>
       <c r="CR9" s="23"/>
       <c r="CS9" s="23"/>
+      <c r="CT9" s="23">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24075,17 +24096,20 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24359,31 +24383,33 @@
       <c r="CK12" s="18">
         <v>20982.743841316627</v>
       </c>
-      <c r="CL12" s="20">
-        <v>22322.262683393026</v>
-      </c>
-      <c r="CM12" s="20">
-        <v>20822.70058913936</v>
-      </c>
-      <c r="CN12" s="20">
-        <v>22543.517584578036</v>
-      </c>
-      <c r="CO12" s="20">
-        <v>33785.120903230876</v>
-      </c>
-      <c r="CP12" s="20">
-        <v>38087.235358183301</v>
-      </c>
-      <c r="CQ12" s="20">
-        <v>29696.72509027673</v>
-      </c>
-      <c r="CR12" s="20">
-        <v>30078.484666959972</v>
-      </c>
-      <c r="CS12" s="20">
-        <v>43127.364335223778</v>
-      </c>
-      <c r="CT12" s="9"/>
+      <c r="CL12" s="18">
+        <v>22634.071672887527</v>
+      </c>
+      <c r="CM12" s="18">
+        <v>20975.490728876193</v>
+      </c>
+      <c r="CN12" s="18">
+        <v>22634.684080702023</v>
+      </c>
+      <c r="CO12" s="18">
+        <v>34154.257299079633</v>
+      </c>
+      <c r="CP12" s="25">
+        <v>38702.069267098159</v>
+      </c>
+      <c r="CQ12" s="25">
+        <v>29935.0457887968</v>
+      </c>
+      <c r="CR12" s="25">
+        <v>30204.088942300223</v>
+      </c>
+      <c r="CS12" s="25">
+        <v>43389.068621789513</v>
+      </c>
+      <c r="CT12" s="25">
+        <v>47137.440501671517</v>
+      </c>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
@@ -24758,31 +24784,33 @@
       <c r="CK13" s="18">
         <v>63465.290659731603</v>
       </c>
-      <c r="CL13" s="20">
+      <c r="CL13" s="18">
         <v>77568.127837813096</v>
       </c>
-      <c r="CM13" s="20">
-        <v>59307.20143239318</v>
-      </c>
-      <c r="CN13" s="20">
-        <v>69694.055287976895</v>
-      </c>
-      <c r="CO13" s="20">
-        <v>89030.247513492825</v>
-      </c>
-      <c r="CP13" s="20">
-        <v>98509.509651755565</v>
-      </c>
-      <c r="CQ13" s="20">
-        <v>76837.777480061748</v>
-      </c>
-      <c r="CR13" s="20">
-        <v>85415.155819693435</v>
-      </c>
-      <c r="CS13" s="20">
-        <v>107729.19301723834</v>
-      </c>
-      <c r="CT13" s="9"/>
+      <c r="CM13" s="18">
+        <v>59345.89166073667</v>
+      </c>
+      <c r="CN13" s="18">
+        <v>69800.861443335511</v>
+      </c>
+      <c r="CO13" s="18">
+        <v>89030.512841717311</v>
+      </c>
+      <c r="CP13" s="25">
+        <v>99906.391930825455</v>
+      </c>
+      <c r="CQ13" s="25">
+        <v>76882.893739725201</v>
+      </c>
+      <c r="CR13" s="25">
+        <v>85530.605224931263</v>
+      </c>
+      <c r="CS13" s="25">
+        <v>106595.4637026843</v>
+      </c>
+      <c r="CT13" s="25">
+        <v>118020.44963246389</v>
+      </c>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
@@ -24982,11 +25010,11 @@
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
-      <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
-      <c r="CR14" s="9"/>
-      <c r="CS14" s="9"/>
-      <c r="CT14" s="9"/>
+      <c r="CP14" s="26"/>
+      <c r="CQ14" s="26"/>
+      <c r="CR14" s="26"/>
+      <c r="CS14" s="26"/>
+      <c r="CT14" s="26"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
@@ -25361,31 +25389,33 @@
       <c r="CK15" s="19">
         <v>84448.034501048227</v>
       </c>
-      <c r="CL15" s="21">
-        <v>99890.390521206122</v>
-      </c>
-      <c r="CM15" s="21">
-        <v>80129.902021532544</v>
-      </c>
-      <c r="CN15" s="21">
-        <v>92237.572872554927</v>
-      </c>
-      <c r="CO15" s="21">
-        <v>122815.36841672371</v>
-      </c>
-      <c r="CP15" s="21">
-        <v>136596.74500993887</v>
-      </c>
-      <c r="CQ15" s="21">
-        <v>106534.50257033847</v>
-      </c>
-      <c r="CR15" s="21">
-        <v>115493.6404866534</v>
-      </c>
-      <c r="CS15" s="21">
-        <v>150856.55735246211</v>
-      </c>
-      <c r="CT15" s="9"/>
+      <c r="CL15" s="19">
+        <v>100202.19951070062</v>
+      </c>
+      <c r="CM15" s="19">
+        <v>80321.38238961286</v>
+      </c>
+      <c r="CN15" s="19">
+        <v>92435.54552403753</v>
+      </c>
+      <c r="CO15" s="19">
+        <v>123184.77014079694</v>
+      </c>
+      <c r="CP15" s="27">
+        <v>138608.46119792361</v>
+      </c>
+      <c r="CQ15" s="27">
+        <v>106817.93952852199</v>
+      </c>
+      <c r="CR15" s="27">
+        <v>115734.69416723149</v>
+      </c>
+      <c r="CS15" s="27">
+        <v>149984.53232447381</v>
+      </c>
+      <c r="CT15" s="27">
+        <v>165157.89013413541</v>
+      </c>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25586,10 +25616,11 @@
       <c r="CM16" s="12"/>
       <c r="CN16" s="12"/>
       <c r="CO16" s="12"/>
-      <c r="CP16" s="12"/>
-      <c r="CQ16" s="12"/>
-      <c r="CR16" s="12"/>
-      <c r="CS16" s="12"/>
+      <c r="CP16" s="28"/>
+      <c r="CQ16" s="28"/>
+      <c r="CR16" s="28"/>
+      <c r="CS16" s="28"/>
+      <c r="CT16" s="28"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25689,11 +25720,11 @@
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="9"/>
-      <c r="CS18" s="9"/>
-      <c r="CT18" s="9"/>
+      <c r="CP18" s="26"/>
+      <c r="CQ18" s="26"/>
+      <c r="CR18" s="26"/>
+      <c r="CS18" s="26"/>
+      <c r="CT18" s="26"/>
       <c r="CU18" s="9"/>
       <c r="CV18" s="9"/>
       <c r="CW18" s="9"/>
@@ -25893,11 +25924,11 @@
       <c r="CM19" s="14"/>
       <c r="CN19" s="14"/>
       <c r="CO19" s="14"/>
-      <c r="CP19" s="14"/>
-      <c r="CQ19" s="14"/>
-      <c r="CR19" s="14"/>
-      <c r="CS19" s="14"/>
-      <c r="CT19" s="9"/>
+      <c r="CP19" s="29"/>
+      <c r="CQ19" s="29"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="29"/>
+      <c r="CT19" s="29"/>
       <c r="CU19" s="9"/>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
@@ -26016,7 +26047,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -26026,7 +26057,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -26036,150 +26067,153 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="24">
+      <c r="B28" s="32">
         <v>2000</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="24">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32">
         <v>2001</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="24">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32">
         <v>2002</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="24">
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="32">
         <v>2003</v>
       </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="24">
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="32">
         <v>2004</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="24">
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="32">
         <v>2005</v>
       </c>
-      <c r="W28" s="25"/>
-      <c r="X28" s="25"/>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="24">
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="32">
         <v>2006</v>
       </c>
-      <c r="AA28" s="25"/>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="25"/>
-      <c r="AD28" s="24">
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="32">
         <v>2007</v>
       </c>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="25"/>
-      <c r="AG28" s="25"/>
-      <c r="AH28" s="24">
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="32">
         <v>2008</v>
       </c>
-      <c r="AI28" s="25"/>
-      <c r="AJ28" s="25"/>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="24">
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="32">
         <v>2009</v>
       </c>
-      <c r="AM28" s="25"/>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="25"/>
-      <c r="AP28" s="24">
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="25"/>
-      <c r="AS28" s="25"/>
-      <c r="AT28" s="24">
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="32">
         <v>2011</v>
       </c>
-      <c r="AU28" s="25"/>
-      <c r="AV28" s="25"/>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="24">
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="32">
         <v>2012</v>
       </c>
-      <c r="AY28" s="25"/>
-      <c r="AZ28" s="25"/>
-      <c r="BA28" s="25"/>
-      <c r="BB28" s="24">
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="33"/>
+      <c r="BB28" s="32">
         <v>2013</v>
       </c>
-      <c r="BC28" s="25"/>
-      <c r="BD28" s="25"/>
-      <c r="BE28" s="25"/>
-      <c r="BF28" s="24">
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="32">
         <v>2014</v>
       </c>
-      <c r="BG28" s="25"/>
-      <c r="BH28" s="25"/>
-      <c r="BI28" s="25"/>
-      <c r="BJ28" s="24">
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="32">
         <v>2015</v>
       </c>
-      <c r="BK28" s="25"/>
-      <c r="BL28" s="25"/>
-      <c r="BM28" s="25"/>
-      <c r="BN28" s="24">
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="32">
         <v>2016</v>
       </c>
-      <c r="BO28" s="25"/>
-      <c r="BP28" s="25"/>
-      <c r="BQ28" s="25"/>
-      <c r="BR28" s="24">
+      <c r="BO28" s="33"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="33"/>
+      <c r="BR28" s="32">
         <v>2017</v>
       </c>
-      <c r="BS28" s="25"/>
-      <c r="BT28" s="25"/>
-      <c r="BU28" s="25"/>
-      <c r="BV28" s="24">
+      <c r="BS28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="32">
         <v>2018</v>
       </c>
-      <c r="BW28" s="25"/>
-      <c r="BX28" s="25"/>
-      <c r="BY28" s="25"/>
-      <c r="BZ28" s="24">
+      <c r="BW28" s="33"/>
+      <c r="BX28" s="33"/>
+      <c r="BY28" s="33"/>
+      <c r="BZ28" s="32">
         <v>2019</v>
       </c>
-      <c r="CA28" s="25"/>
-      <c r="CB28" s="25"/>
-      <c r="CC28" s="25"/>
-      <c r="CD28" s="24">
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="33"/>
+      <c r="CC28" s="33"/>
+      <c r="CD28" s="32">
         <v>2020</v>
       </c>
-      <c r="CE28" s="24"/>
-      <c r="CF28" s="24"/>
-      <c r="CG28" s="24"/>
-      <c r="CH28" s="24">
+      <c r="CE28" s="32"/>
+      <c r="CF28" s="32"/>
+      <c r="CG28" s="32"/>
+      <c r="CH28" s="20">
         <v>2021</v>
       </c>
-      <c r="CI28" s="24"/>
-      <c r="CJ28" s="24"/>
-      <c r="CK28" s="24"/>
-      <c r="CL28" s="23">
+      <c r="CI28" s="20"/>
+      <c r="CJ28" s="20"/>
+      <c r="CK28" s="20"/>
+      <c r="CL28" s="20">
         <v>2022</v>
       </c>
-      <c r="CM28" s="23"/>
-      <c r="CN28" s="23"/>
-      <c r="CO28" s="23"/>
+      <c r="CM28" s="20"/>
+      <c r="CN28" s="20"/>
+      <c r="CO28" s="20"/>
       <c r="CP28" s="23">
         <v>2023</v>
       </c>
       <c r="CQ28" s="23"/>
       <c r="CR28" s="23"/>
       <c r="CS28" s="23"/>
+      <c r="CT28" s="23">
+        <v>2024</v>
+      </c>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26461,17 +26495,20 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="6" t="s">
+      <c r="CR29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="6" t="s">
+      <c r="CS29" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CT29" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26745,31 +26782,33 @@
       <c r="CK31" s="18">
         <v>19416.096899922053</v>
       </c>
-      <c r="CL31" s="20">
-        <v>19772.949251658556</v>
-      </c>
-      <c r="CM31" s="20">
-        <v>18680.670524564997</v>
-      </c>
-      <c r="CN31" s="20">
-        <v>20599.519887417155</v>
-      </c>
-      <c r="CO31" s="20">
-        <v>30101.362404458672</v>
-      </c>
-      <c r="CP31" s="20">
-        <v>32198.134643113197</v>
-      </c>
-      <c r="CQ31" s="20">
-        <v>25432.823313286179</v>
-      </c>
-      <c r="CR31" s="20">
-        <v>26385.262656206403</v>
-      </c>
-      <c r="CS31" s="20">
-        <v>37137.870084975264</v>
-      </c>
-      <c r="CT31" s="9"/>
+      <c r="CL31" s="18">
+        <v>20049.14810358196</v>
+      </c>
+      <c r="CM31" s="18">
+        <v>18817.743151028968</v>
+      </c>
+      <c r="CN31" s="18">
+        <v>20682.824812787665</v>
+      </c>
+      <c r="CO31" s="18">
+        <v>30430.250036974343</v>
+      </c>
+      <c r="CP31" s="25">
+        <v>32717.902087408373</v>
+      </c>
+      <c r="CQ31" s="25">
+        <v>25636.925556847855</v>
+      </c>
+      <c r="CR31" s="25">
+        <v>26495.444463311713</v>
+      </c>
+      <c r="CS31" s="25">
+        <v>37363.229087199776</v>
+      </c>
+      <c r="CT31" s="25">
+        <v>38731.590532655449</v>
+      </c>
       <c r="CU31" s="9"/>
       <c r="CV31" s="9"/>
       <c r="CW31" s="9"/>
@@ -27144,31 +27183,33 @@
       <c r="CK32" s="18">
         <v>54246.506521998381</v>
       </c>
-      <c r="CL32" s="20">
+      <c r="CL32" s="18">
         <v>63885.717107942037</v>
       </c>
-      <c r="CM32" s="20">
-        <v>47915.781996721969</v>
-      </c>
-      <c r="CN32" s="20">
-        <v>56599.28675783363</v>
-      </c>
-      <c r="CO32" s="20">
-        <v>70624.966855012244</v>
-      </c>
-      <c r="CP32" s="20">
-        <v>74717.583630875568</v>
-      </c>
-      <c r="CQ32" s="20">
-        <v>59298.01889829534</v>
-      </c>
-      <c r="CR32" s="20">
-        <v>67044.838159484236</v>
-      </c>
-      <c r="CS32" s="20">
-        <v>82890.135062703921</v>
-      </c>
-      <c r="CT32" s="9"/>
+      <c r="CM32" s="18">
+        <v>47947.040806814781</v>
+      </c>
+      <c r="CN32" s="18">
+        <v>56686.025177483127</v>
+      </c>
+      <c r="CO32" s="18">
+        <v>70625.177331761239</v>
+      </c>
+      <c r="CP32" s="25">
+        <v>74718.662567813473</v>
+      </c>
+      <c r="CQ32" s="25">
+        <v>59332.836469884205</v>
+      </c>
+      <c r="CR32" s="25">
+        <v>67135.457752874863</v>
+      </c>
+      <c r="CS32" s="25">
+        <v>82017.809062889806</v>
+      </c>
+      <c r="CT32" s="25">
+        <v>83603.668087728613</v>
+      </c>
       <c r="CU32" s="9"/>
       <c r="CV32" s="9"/>
       <c r="CW32" s="9"/>
@@ -27368,11 +27409,11 @@
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
-      <c r="CP33" s="9"/>
-      <c r="CQ33" s="9"/>
-      <c r="CR33" s="9"/>
-      <c r="CS33" s="9"/>
-      <c r="CT33" s="9"/>
+      <c r="CP33" s="26"/>
+      <c r="CQ33" s="26"/>
+      <c r="CR33" s="26"/>
+      <c r="CS33" s="26"/>
+      <c r="CT33" s="26"/>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
@@ -27747,31 +27788,33 @@
       <c r="CK34" s="19">
         <v>73662.60342192043</v>
       </c>
-      <c r="CL34" s="21">
-        <v>83658.666359600596</v>
-      </c>
-      <c r="CM34" s="21">
-        <v>66596.452521286963</v>
-      </c>
-      <c r="CN34" s="21">
-        <v>77198.806645250792</v>
-      </c>
-      <c r="CO34" s="21">
-        <v>100726.32925947092</v>
-      </c>
-      <c r="CP34" s="21">
-        <v>106915.71827398876</v>
-      </c>
-      <c r="CQ34" s="21">
-        <v>84730.842211581519</v>
-      </c>
-      <c r="CR34" s="21">
-        <v>93430.100815690646</v>
-      </c>
-      <c r="CS34" s="21">
-        <v>120028.00514767919</v>
-      </c>
-      <c r="CT34" s="9"/>
+      <c r="CL34" s="19">
+        <v>83934.865211523997</v>
+      </c>
+      <c r="CM34" s="19">
+        <v>66764.783957843756</v>
+      </c>
+      <c r="CN34" s="19">
+        <v>77368.849990270799</v>
+      </c>
+      <c r="CO34" s="19">
+        <v>101055.42736873557</v>
+      </c>
+      <c r="CP34" s="27">
+        <v>107436.56465522185</v>
+      </c>
+      <c r="CQ34" s="27">
+        <v>84969.76202673206</v>
+      </c>
+      <c r="CR34" s="27">
+        <v>93630.902216186572</v>
+      </c>
+      <c r="CS34" s="27">
+        <v>119381.03815008959</v>
+      </c>
+      <c r="CT34" s="27">
+        <v>122335.25862038406</v>
+      </c>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
@@ -27972,10 +28015,11 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
-      <c r="CP35" s="12"/>
-      <c r="CQ35" s="12"/>
-      <c r="CR35" s="12"/>
-      <c r="CS35" s="12"/>
+      <c r="CP35" s="28"/>
+      <c r="CQ35" s="28"/>
+      <c r="CR35" s="28"/>
+      <c r="CS35" s="28"/>
+      <c r="CT35" s="28"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28075,11 +28119,11 @@
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
-      <c r="CP37" s="9"/>
-      <c r="CQ37" s="9"/>
-      <c r="CR37" s="9"/>
-      <c r="CS37" s="9"/>
-      <c r="CT37" s="9"/>
+      <c r="CP37" s="26"/>
+      <c r="CQ37" s="26"/>
+      <c r="CR37" s="26"/>
+      <c r="CS37" s="26"/>
+      <c r="CT37" s="26"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
@@ -28279,11 +28323,11 @@
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
-      <c r="CP38" s="9"/>
-      <c r="CQ38" s="9"/>
-      <c r="CR38" s="9"/>
-      <c r="CS38" s="9"/>
-      <c r="CT38" s="9"/>
+      <c r="CP38" s="26"/>
+      <c r="CQ38" s="26"/>
+      <c r="CR38" s="26"/>
+      <c r="CS38" s="26"/>
+      <c r="CT38" s="26"/>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
@@ -28402,7 +28446,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28412,7 +28456,7 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
@@ -28422,148 +28466,151 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24" t="s">
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24" t="s">
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24" t="s">
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24" t="s">
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
-      <c r="AD47" s="24" t="s">
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="24"/>
-      <c r="AF47" s="24"/>
-      <c r="AG47" s="24"/>
-      <c r="AH47" s="24" t="s">
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="24"/>
-      <c r="AJ47" s="24"/>
-      <c r="AK47" s="24"/>
-      <c r="AL47" s="24" t="s">
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24" t="s">
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="24"/>
-      <c r="AR47" s="24"/>
-      <c r="AS47" s="24"/>
-      <c r="AT47" s="24" t="s">
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="24"/>
-      <c r="AV47" s="24"/>
-      <c r="AW47" s="24"/>
-      <c r="AX47" s="24" t="s">
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="24"/>
-      <c r="AZ47" s="24"/>
-      <c r="BA47" s="24"/>
-      <c r="BB47" s="24" t="s">
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="32"/>
+      <c r="BA47" s="32"/>
+      <c r="BB47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="24"/>
-      <c r="BD47" s="24"/>
-      <c r="BE47" s="24"/>
-      <c r="BF47" s="24" t="s">
+      <c r="BC47" s="32"/>
+      <c r="BD47" s="32"/>
+      <c r="BE47" s="32"/>
+      <c r="BF47" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="24"/>
-      <c r="BH47" s="24"/>
-      <c r="BI47" s="24"/>
-      <c r="BJ47" s="24" t="s">
+      <c r="BG47" s="32"/>
+      <c r="BH47" s="32"/>
+      <c r="BI47" s="32"/>
+      <c r="BJ47" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="24"/>
-      <c r="BL47" s="24"/>
-      <c r="BM47" s="24"/>
-      <c r="BN47" s="24" t="s">
+      <c r="BK47" s="32"/>
+      <c r="BL47" s="32"/>
+      <c r="BM47" s="32"/>
+      <c r="BN47" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="24"/>
-      <c r="BP47" s="24"/>
-      <c r="BQ47" s="24"/>
-      <c r="BR47" s="24" t="s">
+      <c r="BO47" s="32"/>
+      <c r="BP47" s="32"/>
+      <c r="BQ47" s="32"/>
+      <c r="BR47" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="24"/>
-      <c r="BT47" s="24"/>
-      <c r="BU47" s="24"/>
-      <c r="BV47" s="24" t="s">
+      <c r="BS47" s="32"/>
+      <c r="BT47" s="32"/>
+      <c r="BU47" s="32"/>
+      <c r="BV47" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="24"/>
-      <c r="BX47" s="24"/>
-      <c r="BY47" s="24"/>
-      <c r="BZ47" s="24" t="s">
+      <c r="BW47" s="32"/>
+      <c r="BX47" s="32"/>
+      <c r="BY47" s="32"/>
+      <c r="BZ47" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="24"/>
-      <c r="CB47" s="24"/>
-      <c r="CC47" s="24"/>
-      <c r="CD47" s="24" t="s">
+      <c r="CA47" s="32"/>
+      <c r="CB47" s="32"/>
+      <c r="CC47" s="32"/>
+      <c r="CD47" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="24"/>
-      <c r="CF47" s="24"/>
-      <c r="CG47" s="24"/>
-      <c r="CH47" s="24" t="s">
+      <c r="CE47" s="32"/>
+      <c r="CF47" s="32"/>
+      <c r="CG47" s="32"/>
+      <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI47" s="24"/>
-      <c r="CJ47" s="24"/>
-      <c r="CK47" s="24"/>
-      <c r="CL47" s="23" t="s">
+      <c r="CI47" s="20"/>
+      <c r="CJ47" s="20"/>
+      <c r="CK47" s="20"/>
+      <c r="CL47" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="23"/>
-      <c r="CN47" s="23"/>
-      <c r="CO47" s="23"/>
-      <c r="CP47" s="22"/>
-      <c r="CQ47" s="22"/>
-      <c r="CR47" s="22"/>
-      <c r="CS47" s="22"/>
+      <c r="CM47" s="20"/>
+      <c r="CN47" s="20"/>
+      <c r="CO47" s="20"/>
+      <c r="CP47" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ47" s="21"/>
+      <c r="CR47" s="21"/>
+      <c r="CS47" s="21"/>
+      <c r="CT47" s="21"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28845,10 +28892,13 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="5"/>
-      <c r="CQ48" s="5"/>
-      <c r="CR48" s="5"/>
-      <c r="CS48" s="5"/>
+      <c r="CP48" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ48" s="30"/>
+      <c r="CR48" s="30"/>
+      <c r="CS48" s="30"/>
+      <c r="CT48" s="30"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -29110,34 +29160,36 @@
         <v>28.596936102443863</v>
       </c>
       <c r="CH50" s="15">
-        <v>22.342111634875607</v>
+        <v>24.051049959926061</v>
       </c>
       <c r="CI50" s="15">
-        <v>77.860882759761665</v>
+        <v>79.165967516383233</v>
       </c>
       <c r="CJ50" s="15">
-        <v>80.142506828280858</v>
+        <v>80.871007209328781</v>
       </c>
       <c r="CK50" s="15">
-        <v>61.013836697111969</v>
+        <v>62.773074662558116</v>
       </c>
       <c r="CL50" s="15">
-        <v>70.624438473788132</v>
+        <v>70.990309770282551</v>
       </c>
       <c r="CM50" s="15">
-        <v>42.617068151889271</v>
+        <v>42.71440022896013</v>
       </c>
       <c r="CN50" s="15">
-        <v>33.424096546213292</v>
+        <v>33.441619218585657</v>
       </c>
       <c r="CO50" s="15">
-        <v>27.651946129633359</v>
-      </c>
-      <c r="CP50" s="15"/>
-      <c r="CQ50" s="15"/>
-      <c r="CR50" s="15"/>
-      <c r="CS50" s="15"/>
-      <c r="CT50" s="9"/>
+        <v>27.038536490028548</v>
+      </c>
+      <c r="CP50" s="31">
+        <v>21.795659493960272</v>
+      </c>
+      <c r="CQ50" s="31"/>
+      <c r="CR50" s="31"/>
+      <c r="CS50" s="31"/>
+      <c r="CT50" s="31"/>
       <c r="CU50" s="9"/>
       <c r="CV50" s="9"/>
       <c r="CW50" s="9"/>
@@ -29500,31 +29552,33 @@
         <v>23.943782768730898</v>
       </c>
       <c r="CI51" s="15">
-        <v>29.129741947804689</v>
+        <v>29.213982294360108</v>
       </c>
       <c r="CJ51" s="15">
-        <v>40.06054352104303</v>
+        <v>40.275186335399383</v>
       </c>
       <c r="CK51" s="15">
-        <v>40.281792753187631</v>
+        <v>40.28221082142889</v>
       </c>
       <c r="CL51" s="15">
-        <v>26.99740524578435</v>
+        <v>28.798250925585506</v>
       </c>
       <c r="CM51" s="15">
-        <v>29.558933189003056</v>
+        <v>29.550490502767246</v>
       </c>
       <c r="CN51" s="15">
-        <v>22.557304875942037</v>
+        <v>22.535171423873024</v>
       </c>
       <c r="CO51" s="15">
-        <v>21.002913084018587</v>
-      </c>
-      <c r="CP51" s="15"/>
-      <c r="CQ51" s="15"/>
-      <c r="CR51" s="15"/>
-      <c r="CS51" s="15"/>
-      <c r="CT51" s="9"/>
+        <v>19.729135888720293</v>
+      </c>
+      <c r="CP51" s="31">
+        <v>18.131029808563696</v>
+      </c>
+      <c r="CQ51" s="31"/>
+      <c r="CR51" s="31"/>
+      <c r="CS51" s="31"/>
+      <c r="CT51" s="31"/>
       <c r="CU51" s="9"/>
       <c r="CV51" s="9"/>
       <c r="CW51" s="9"/>
@@ -29721,11 +29775,11 @@
       <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
-      <c r="CP52" s="9"/>
-      <c r="CQ52" s="9"/>
-      <c r="CR52" s="9"/>
-      <c r="CS52" s="9"/>
-      <c r="CT52" s="9"/>
+      <c r="CP52" s="26"/>
+      <c r="CQ52" s="26"/>
+      <c r="CR52" s="26"/>
+      <c r="CS52" s="26"/>
+      <c r="CT52" s="26"/>
       <c r="CU52" s="9"/>
       <c r="CV52" s="9"/>
       <c r="CW52" s="9"/>
@@ -30085,34 +30139,36 @@
         <v>24.222495297014788</v>
       </c>
       <c r="CH53" s="15">
-        <v>23.582233141104794</v>
+        <v>23.967996486649227</v>
       </c>
       <c r="CI53" s="15">
-        <v>39.028296457329759</v>
+        <v>39.360521865169062</v>
       </c>
       <c r="CJ53" s="15">
-        <v>48.115184431541849</v>
+        <v>48.433089108275539</v>
       </c>
       <c r="CK53" s="15">
-        <v>45.433069155918901</v>
+        <v>45.870499969147147</v>
       </c>
       <c r="CL53" s="15">
-        <v>36.746632280850093</v>
+        <v>38.328761119781177</v>
       </c>
       <c r="CM53" s="15">
-        <v>32.952243647709025</v>
+        <v>32.988173697488151</v>
       </c>
       <c r="CN53" s="15">
-        <v>25.213225901153621</v>
+        <v>25.205832357136998</v>
       </c>
       <c r="CO53" s="15">
-        <v>22.831986987648079</v>
-      </c>
-      <c r="CP53" s="15"/>
-      <c r="CQ53" s="15"/>
-      <c r="CR53" s="15"/>
-      <c r="CS53" s="15"/>
-      <c r="CT53" s="9"/>
+        <v>21.755743143446594</v>
+      </c>
+      <c r="CP53" s="31">
+        <v>19.154262811056682</v>
+      </c>
+      <c r="CQ53" s="31"/>
+      <c r="CR53" s="31"/>
+      <c r="CS53" s="31"/>
+      <c r="CT53" s="31"/>
       <c r="CU53" s="9"/>
       <c r="CV53" s="9"/>
       <c r="CW53" s="9"/>
@@ -30309,10 +30365,11 @@
       <c r="CM54" s="12"/>
       <c r="CN54" s="12"/>
       <c r="CO54" s="12"/>
-      <c r="CP54" s="12"/>
-      <c r="CQ54" s="12"/>
-      <c r="CR54" s="12"/>
-      <c r="CS54" s="12"/>
+      <c r="CP54" s="28"/>
+      <c r="CQ54" s="28"/>
+      <c r="CR54" s="28"/>
+      <c r="CS54" s="28"/>
+      <c r="CT54" s="28"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30412,11 +30469,11 @@
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
-      <c r="CP56" s="9"/>
-      <c r="CQ56" s="9"/>
-      <c r="CR56" s="9"/>
-      <c r="CS56" s="9"/>
-      <c r="CT56" s="9"/>
+      <c r="CP56" s="26"/>
+      <c r="CQ56" s="26"/>
+      <c r="CR56" s="26"/>
+      <c r="CS56" s="26"/>
+      <c r="CT56" s="26"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
@@ -30612,11 +30669,11 @@
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
-      <c r="CP57" s="9"/>
-      <c r="CQ57" s="9"/>
-      <c r="CR57" s="9"/>
-      <c r="CS57" s="9"/>
-      <c r="CT57" s="9"/>
+      <c r="CP57" s="26"/>
+      <c r="CQ57" s="26"/>
+      <c r="CR57" s="26"/>
+      <c r="CS57" s="26"/>
+      <c r="CT57" s="26"/>
       <c r="CU57" s="9"/>
       <c r="CV57" s="9"/>
       <c r="CW57" s="9"/>
@@ -30731,7 +30788,7 @@
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
@@ -30741,7 +30798,7 @@
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
@@ -30751,148 +30808,151 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="24" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="24" t="s">
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="24" t="s">
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="26"/>
-      <c r="P66" s="26"/>
-      <c r="Q66" s="26"/>
-      <c r="R66" s="24" t="s">
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="26"/>
-      <c r="T66" s="26"/>
-      <c r="U66" s="26"/>
-      <c r="V66" s="24" t="s">
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="26"/>
-      <c r="X66" s="26"/>
-      <c r="Y66" s="26"/>
-      <c r="Z66" s="24" t="s">
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="26"/>
-      <c r="AB66" s="26"/>
-      <c r="AC66" s="26"/>
-      <c r="AD66" s="24" t="s">
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="26"/>
-      <c r="AF66" s="26"/>
-      <c r="AG66" s="26"/>
-      <c r="AH66" s="24" t="s">
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="26"/>
-      <c r="AJ66" s="26"/>
-      <c r="AK66" s="26"/>
-      <c r="AL66" s="24" t="s">
+      <c r="AI66" s="34"/>
+      <c r="AJ66" s="34"/>
+      <c r="AK66" s="34"/>
+      <c r="AL66" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="26"/>
-      <c r="AN66" s="26"/>
-      <c r="AO66" s="26"/>
-      <c r="AP66" s="24" t="s">
+      <c r="AM66" s="34"/>
+      <c r="AN66" s="34"/>
+      <c r="AO66" s="34"/>
+      <c r="AP66" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="26"/>
-      <c r="AR66" s="26"/>
-      <c r="AS66" s="26"/>
-      <c r="AT66" s="24" t="s">
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="34"/>
+      <c r="AS66" s="34"/>
+      <c r="AT66" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="26"/>
-      <c r="AV66" s="26"/>
-      <c r="AW66" s="26"/>
-      <c r="AX66" s="24" t="s">
+      <c r="AU66" s="34"/>
+      <c r="AV66" s="34"/>
+      <c r="AW66" s="34"/>
+      <c r="AX66" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="26"/>
-      <c r="AZ66" s="26"/>
-      <c r="BA66" s="26"/>
-      <c r="BB66" s="24" t="s">
+      <c r="AY66" s="34"/>
+      <c r="AZ66" s="34"/>
+      <c r="BA66" s="34"/>
+      <c r="BB66" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="26"/>
-      <c r="BD66" s="26"/>
-      <c r="BE66" s="26"/>
-      <c r="BF66" s="24" t="s">
+      <c r="BC66" s="34"/>
+      <c r="BD66" s="34"/>
+      <c r="BE66" s="34"/>
+      <c r="BF66" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="26"/>
-      <c r="BH66" s="26"/>
-      <c r="BI66" s="26"/>
-      <c r="BJ66" s="24" t="s">
+      <c r="BG66" s="34"/>
+      <c r="BH66" s="34"/>
+      <c r="BI66" s="34"/>
+      <c r="BJ66" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="26"/>
-      <c r="BL66" s="26"/>
-      <c r="BM66" s="26"/>
-      <c r="BN66" s="24" t="s">
+      <c r="BK66" s="34"/>
+      <c r="BL66" s="34"/>
+      <c r="BM66" s="34"/>
+      <c r="BN66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="26"/>
-      <c r="BP66" s="26"/>
-      <c r="BQ66" s="26"/>
-      <c r="BR66" s="24" t="s">
+      <c r="BO66" s="34"/>
+      <c r="BP66" s="34"/>
+      <c r="BQ66" s="34"/>
+      <c r="BR66" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="26"/>
-      <c r="BT66" s="26"/>
-      <c r="BU66" s="26"/>
-      <c r="BV66" s="24" t="s">
+      <c r="BS66" s="34"/>
+      <c r="BT66" s="34"/>
+      <c r="BU66" s="34"/>
+      <c r="BV66" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="26"/>
-      <c r="BX66" s="26"/>
-      <c r="BY66" s="26"/>
-      <c r="BZ66" s="24" t="s">
+      <c r="BW66" s="34"/>
+      <c r="BX66" s="34"/>
+      <c r="BY66" s="34"/>
+      <c r="BZ66" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="26"/>
-      <c r="CB66" s="26"/>
-      <c r="CC66" s="26"/>
-      <c r="CD66" s="24" t="s">
+      <c r="CA66" s="34"/>
+      <c r="CB66" s="34"/>
+      <c r="CC66" s="34"/>
+      <c r="CD66" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="24"/>
-      <c r="CF66" s="24"/>
-      <c r="CG66" s="24"/>
-      <c r="CH66" s="24" t="s">
+      <c r="CE66" s="32"/>
+      <c r="CF66" s="32"/>
+      <c r="CG66" s="32"/>
+      <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="CI66" s="24"/>
-      <c r="CJ66" s="24"/>
-      <c r="CK66" s="24"/>
-      <c r="CL66" s="23" t="s">
+      <c r="CI66" s="20"/>
+      <c r="CJ66" s="20"/>
+      <c r="CK66" s="20"/>
+      <c r="CL66" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="23"/>
-      <c r="CN66" s="23"/>
-      <c r="CO66" s="23"/>
-      <c r="CP66" s="22"/>
-      <c r="CQ66" s="22"/>
-      <c r="CR66" s="22"/>
-      <c r="CS66" s="22"/>
+      <c r="CM66" s="20"/>
+      <c r="CN66" s="20"/>
+      <c r="CO66" s="20"/>
+      <c r="CP66" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ66" s="21"/>
+      <c r="CR66" s="21"/>
+      <c r="CS66" s="21"/>
+      <c r="CT66" s="21"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31174,10 +31234,13 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="5"/>
-      <c r="CQ67" s="5"/>
-      <c r="CR67" s="5"/>
-      <c r="CS67" s="5"/>
+      <c r="CP67" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ67" s="30"/>
+      <c r="CR67" s="30"/>
+      <c r="CS67" s="30"/>
+      <c r="CT67" s="30"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31439,34 +31502,36 @@
         <v>26.799344522517245</v>
       </c>
       <c r="CH69" s="15">
-        <v>21.127466879611688</v>
+        <v>22.819438414193584</v>
       </c>
       <c r="CI69" s="15">
-        <v>66.713218262174195</v>
+        <v>67.936505117076308</v>
       </c>
       <c r="CJ69" s="15">
-        <v>75.748787149542352</v>
+        <v>76.459519228613459</v>
       </c>
       <c r="CK69" s="15">
-        <v>55.033025224444145</v>
+        <v>56.726916814555608</v>
       </c>
       <c r="CL69" s="15">
-        <v>62.839312604883247</v>
+        <v>63.188490196064862</v>
       </c>
       <c r="CM69" s="15">
-        <v>36.145130764134677</v>
+        <v>36.238045928722386</v>
       </c>
       <c r="CN69" s="15">
-        <v>28.08678454842709</v>
+        <v>28.103606268183682</v>
       </c>
       <c r="CO69" s="15">
-        <v>23.376043867949093</v>
-      </c>
-      <c r="CP69" s="15"/>
-      <c r="CQ69" s="15"/>
-      <c r="CR69" s="15"/>
-      <c r="CS69" s="15"/>
-      <c r="CT69" s="9"/>
+        <v>22.783181346855514</v>
+      </c>
+      <c r="CP69" s="31">
+        <v>18.380421914525712</v>
+      </c>
+      <c r="CQ69" s="31"/>
+      <c r="CR69" s="31"/>
+      <c r="CS69" s="31"/>
+      <c r="CT69" s="31"/>
       <c r="CU69" s="9"/>
       <c r="CV69" s="9"/>
       <c r="CW69" s="9"/>
@@ -31829,31 +31894,33 @@
         <v>20.286574736346012</v>
       </c>
       <c r="CI70" s="15">
-        <v>20.79874718821317</v>
+        <v>20.877552645214053</v>
       </c>
       <c r="CJ70" s="15">
-        <v>32.507609764468413</v>
+        <v>32.710677706148999</v>
       </c>
       <c r="CK70" s="15">
-        <v>30.192654574671963</v>
+        <v>30.1930425752318</v>
       </c>
       <c r="CL70" s="15">
-        <v>16.955067600840863</v>
+        <v>16.956756455543839</v>
       </c>
       <c r="CM70" s="15">
-        <v>23.754672108559262</v>
+        <v>23.746607656026896</v>
       </c>
       <c r="CN70" s="15">
-        <v>18.455270375301836</v>
+        <v>18.433877737369514</v>
       </c>
       <c r="CO70" s="15">
-        <v>17.366618001918695</v>
-      </c>
-      <c r="CP70" s="15"/>
-      <c r="CQ70" s="15"/>
-      <c r="CR70" s="15"/>
-      <c r="CS70" s="15"/>
-      <c r="CT70" s="9"/>
+        <v>16.131119469777431</v>
+      </c>
+      <c r="CP70" s="31">
+        <v>11.891280189673154</v>
+      </c>
+      <c r="CQ70" s="31"/>
+      <c r="CR70" s="31"/>
+      <c r="CS70" s="31"/>
+      <c r="CT70" s="31"/>
       <c r="CU70" s="9"/>
       <c r="CV70" s="9"/>
       <c r="CW70" s="9"/>
@@ -32049,11 +32116,11 @@
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
-      <c r="CP71" s="9"/>
-      <c r="CQ71" s="9"/>
-      <c r="CR71" s="9"/>
-      <c r="CS71" s="9"/>
-      <c r="CT71" s="9"/>
+      <c r="CP71" s="26"/>
+      <c r="CQ71" s="26"/>
+      <c r="CR71" s="26"/>
+      <c r="CS71" s="26"/>
+      <c r="CT71" s="26"/>
       <c r="CU71" s="9"/>
       <c r="CV71" s="9"/>
       <c r="CW71" s="9"/>
@@ -32413,34 +32480,36 @@
         <v>20.117943864082676</v>
       </c>
       <c r="CH72" s="15">
-        <v>20.484266471111411</v>
+        <v>20.882044938330964</v>
       </c>
       <c r="CI72" s="15">
-        <v>30.912239984313715</v>
+        <v>31.243138171606546</v>
       </c>
       <c r="CJ72" s="15">
-        <v>41.818347782127347</v>
+        <v>42.130726525919329</v>
       </c>
       <c r="CK72" s="15">
-        <v>36.740115853001356</v>
+        <v>37.186880010086128</v>
       </c>
       <c r="CL72" s="15">
-        <v>27.799931467254638</v>
+        <v>27.999925161577721</v>
       </c>
       <c r="CM72" s="15">
-        <v>27.230263780939467</v>
+        <v>27.267336145928638</v>
       </c>
       <c r="CN72" s="15">
-        <v>21.025317457337138</v>
+        <v>21.018862537003884</v>
       </c>
       <c r="CO72" s="15">
-        <v>19.162493094022295</v>
-      </c>
-      <c r="CP72" s="15"/>
-      <c r="CQ72" s="15"/>
-      <c r="CR72" s="15"/>
-      <c r="CS72" s="15"/>
-      <c r="CT72" s="9"/>
+        <v>18.134217288980153</v>
+      </c>
+      <c r="CP72" s="31">
+        <v>13.867433320279815</v>
+      </c>
+      <c r="CQ72" s="31"/>
+      <c r="CR72" s="31"/>
+      <c r="CS72" s="31"/>
+      <c r="CT72" s="31"/>
       <c r="CU72" s="9"/>
       <c r="CV72" s="9"/>
       <c r="CW72" s="9"/>
@@ -32637,10 +32706,11 @@
       <c r="CM73" s="12"/>
       <c r="CN73" s="12"/>
       <c r="CO73" s="12"/>
-      <c r="CP73" s="12"/>
-      <c r="CQ73" s="12"/>
-      <c r="CR73" s="12"/>
-      <c r="CS73" s="12"/>
+      <c r="CP73" s="28"/>
+      <c r="CQ73" s="28"/>
+      <c r="CR73" s="28"/>
+      <c r="CS73" s="28"/>
+      <c r="CT73" s="28"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32740,11 +32810,11 @@
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
-      <c r="CP75" s="9"/>
-      <c r="CQ75" s="9"/>
-      <c r="CR75" s="9"/>
-      <c r="CS75" s="9"/>
-      <c r="CT75" s="9"/>
+      <c r="CP75" s="26"/>
+      <c r="CQ75" s="26"/>
+      <c r="CR75" s="26"/>
+      <c r="CS75" s="26"/>
+      <c r="CT75" s="26"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
@@ -32944,11 +33014,11 @@
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
-      <c r="CP76" s="9"/>
-      <c r="CQ76" s="9"/>
-      <c r="CR76" s="9"/>
-      <c r="CS76" s="9"/>
-      <c r="CT76" s="9"/>
+      <c r="CP76" s="26"/>
+      <c r="CQ76" s="26"/>
+      <c r="CR76" s="26"/>
+      <c r="CS76" s="26"/>
+      <c r="CT76" s="26"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
@@ -33062,7 +33132,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -33072,7 +33142,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -33082,150 +33152,153 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="24">
+      <c r="B84" s="32">
         <v>2000</v>
       </c>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="24">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="32">
         <v>2001</v>
       </c>
-      <c r="G84" s="25"/>
-      <c r="H84" s="25"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="24">
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="32">
         <v>2002</v>
       </c>
-      <c r="K84" s="25"/>
-      <c r="L84" s="25"/>
-      <c r="M84" s="25"/>
-      <c r="N84" s="24">
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="32">
         <v>2003</v>
       </c>
-      <c r="O84" s="25"/>
-      <c r="P84" s="25"/>
-      <c r="Q84" s="25"/>
-      <c r="R84" s="24">
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="32">
         <v>2004</v>
       </c>
-      <c r="S84" s="25"/>
-      <c r="T84" s="25"/>
-      <c r="U84" s="25"/>
-      <c r="V84" s="24">
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="32">
         <v>2005</v>
       </c>
-      <c r="W84" s="25"/>
-      <c r="X84" s="25"/>
-      <c r="Y84" s="25"/>
-      <c r="Z84" s="24">
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="32">
         <v>2006</v>
       </c>
-      <c r="AA84" s="25"/>
-      <c r="AB84" s="25"/>
-      <c r="AC84" s="25"/>
-      <c r="AD84" s="24">
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="32">
         <v>2007</v>
       </c>
-      <c r="AE84" s="25"/>
-      <c r="AF84" s="25"/>
-      <c r="AG84" s="25"/>
-      <c r="AH84" s="24">
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="32">
         <v>2008</v>
       </c>
-      <c r="AI84" s="25"/>
-      <c r="AJ84" s="25"/>
-      <c r="AK84" s="25"/>
-      <c r="AL84" s="24">
+      <c r="AI84" s="33"/>
+      <c r="AJ84" s="33"/>
+      <c r="AK84" s="33"/>
+      <c r="AL84" s="32">
         <v>2009</v>
       </c>
-      <c r="AM84" s="25"/>
-      <c r="AN84" s="25"/>
-      <c r="AO84" s="25"/>
-      <c r="AP84" s="24">
+      <c r="AM84" s="33"/>
+      <c r="AN84" s="33"/>
+      <c r="AO84" s="33"/>
+      <c r="AP84" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="25"/>
-      <c r="AR84" s="25"/>
-      <c r="AS84" s="25"/>
-      <c r="AT84" s="24">
+      <c r="AQ84" s="33"/>
+      <c r="AR84" s="33"/>
+      <c r="AS84" s="33"/>
+      <c r="AT84" s="32">
         <v>2011</v>
       </c>
-      <c r="AU84" s="25"/>
-      <c r="AV84" s="25"/>
-      <c r="AW84" s="25"/>
-      <c r="AX84" s="24">
+      <c r="AU84" s="33"/>
+      <c r="AV84" s="33"/>
+      <c r="AW84" s="33"/>
+      <c r="AX84" s="32">
         <v>2012</v>
       </c>
-      <c r="AY84" s="25"/>
-      <c r="AZ84" s="25"/>
-      <c r="BA84" s="25"/>
-      <c r="BB84" s="24">
+      <c r="AY84" s="33"/>
+      <c r="AZ84" s="33"/>
+      <c r="BA84" s="33"/>
+      <c r="BB84" s="32">
         <v>2013</v>
       </c>
-      <c r="BC84" s="25"/>
-      <c r="BD84" s="25"/>
-      <c r="BE84" s="25"/>
-      <c r="BF84" s="24">
+      <c r="BC84" s="33"/>
+      <c r="BD84" s="33"/>
+      <c r="BE84" s="33"/>
+      <c r="BF84" s="32">
         <v>2014</v>
       </c>
-      <c r="BG84" s="25"/>
-      <c r="BH84" s="25"/>
-      <c r="BI84" s="25"/>
-      <c r="BJ84" s="24">
+      <c r="BG84" s="33"/>
+      <c r="BH84" s="33"/>
+      <c r="BI84" s="33"/>
+      <c r="BJ84" s="32">
         <v>2015</v>
       </c>
-      <c r="BK84" s="25"/>
-      <c r="BL84" s="25"/>
-      <c r="BM84" s="25"/>
-      <c r="BN84" s="24">
+      <c r="BK84" s="33"/>
+      <c r="BL84" s="33"/>
+      <c r="BM84" s="33"/>
+      <c r="BN84" s="32">
         <v>2016</v>
       </c>
-      <c r="BO84" s="25"/>
-      <c r="BP84" s="25"/>
-      <c r="BQ84" s="25"/>
-      <c r="BR84" s="24">
+      <c r="BO84" s="33"/>
+      <c r="BP84" s="33"/>
+      <c r="BQ84" s="33"/>
+      <c r="BR84" s="32">
         <v>2017</v>
       </c>
-      <c r="BS84" s="25"/>
-      <c r="BT84" s="25"/>
-      <c r="BU84" s="25"/>
-      <c r="BV84" s="24">
+      <c r="BS84" s="33"/>
+      <c r="BT84" s="33"/>
+      <c r="BU84" s="33"/>
+      <c r="BV84" s="32">
         <v>2018</v>
       </c>
-      <c r="BW84" s="25"/>
-      <c r="BX84" s="25"/>
-      <c r="BY84" s="25"/>
-      <c r="BZ84" s="24">
+      <c r="BW84" s="33"/>
+      <c r="BX84" s="33"/>
+      <c r="BY84" s="33"/>
+      <c r="BZ84" s="32">
         <v>2019</v>
       </c>
-      <c r="CA84" s="25"/>
-      <c r="CB84" s="25"/>
-      <c r="CC84" s="25"/>
-      <c r="CD84" s="24">
+      <c r="CA84" s="33"/>
+      <c r="CB84" s="33"/>
+      <c r="CC84" s="33"/>
+      <c r="CD84" s="32">
         <v>2020</v>
       </c>
-      <c r="CE84" s="24"/>
-      <c r="CF84" s="24"/>
-      <c r="CG84" s="24"/>
-      <c r="CH84" s="24">
+      <c r="CE84" s="32"/>
+      <c r="CF84" s="32"/>
+      <c r="CG84" s="32"/>
+      <c r="CH84" s="20">
         <v>2021</v>
       </c>
-      <c r="CI84" s="24"/>
-      <c r="CJ84" s="24"/>
-      <c r="CK84" s="24"/>
-      <c r="CL84" s="23">
+      <c r="CI84" s="20"/>
+      <c r="CJ84" s="20"/>
+      <c r="CK84" s="20"/>
+      <c r="CL84" s="20">
         <v>2022</v>
       </c>
-      <c r="CM84" s="23"/>
-      <c r="CN84" s="23"/>
-      <c r="CO84" s="23"/>
+      <c r="CM84" s="20"/>
+      <c r="CN84" s="20"/>
+      <c r="CO84" s="20"/>
       <c r="CP84" s="23">
         <v>2023</v>
       </c>
       <c r="CQ84" s="23"/>
       <c r="CR84" s="23"/>
       <c r="CS84" s="23"/>
+      <c r="CT84" s="23">
+        <v>2024</v>
+      </c>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33507,17 +33580,20 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="6" t="s">
+      <c r="CR85" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="6" t="s">
+      <c r="CS85" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CT85" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33792,30 +33868,32 @@
         <v>108.06880471121292</v>
       </c>
       <c r="CL87" s="15">
-        <v>112.89293468206638</v>
+        <v>112.89293468206635</v>
       </c>
       <c r="CM87" s="15">
-        <v>111.46655877131178</v>
+        <v>111.46655877131172</v>
       </c>
       <c r="CN87" s="15">
-        <v>109.43710197026648</v>
+        <v>109.43710197026653</v>
       </c>
       <c r="CO87" s="15">
-        <v>112.23784641131911</v>
-      </c>
-      <c r="CP87" s="15">
-        <v>118.290192212516</v>
-      </c>
-      <c r="CQ87" s="15">
-        <v>116.76534973906368</v>
-      </c>
-      <c r="CR87" s="15">
+        <v>112.23784641131908</v>
+      </c>
+      <c r="CP87" s="31">
+        <v>118.29019221251602</v>
+      </c>
+      <c r="CQ87" s="31">
+        <v>116.76534973906369</v>
+      </c>
+      <c r="CR87" s="31">
         <v>113.99729105931354</v>
       </c>
-      <c r="CS87" s="15">
-        <v>116.12772686355986</v>
-      </c>
-      <c r="CT87" s="9"/>
+      <c r="CS87" s="31">
+        <v>116.12772686355987</v>
+      </c>
+      <c r="CT87" s="31">
+        <v>121.70282669370087</v>
+      </c>
       <c r="CU87" s="9"/>
       <c r="CV87" s="9"/>
       <c r="CW87" s="9"/>
@@ -34194,27 +34272,29 @@
         <v>121.41701048256701</v>
       </c>
       <c r="CM88" s="15">
-        <v>123.77383601179778</v>
+        <v>123.77383601179774</v>
       </c>
       <c r="CN88" s="15">
         <v>123.13592499172418</v>
       </c>
       <c r="CO88" s="15">
-        <v>126.06058661417178</v>
-      </c>
-      <c r="CP88" s="15">
-        <v>131.84247250074139</v>
-      </c>
-      <c r="CQ88" s="15">
-        <v>129.57899590515768</v>
-      </c>
-      <c r="CR88" s="15">
-        <v>127.40004773597997</v>
-      </c>
-      <c r="CS88" s="15">
-        <v>129.96624138173308</v>
-      </c>
-      <c r="CT88" s="9"/>
+        <v>126.06058661417181</v>
+      </c>
+      <c r="CP88" s="31">
+        <v>133.71009129098371</v>
+      </c>
+      <c r="CQ88" s="31">
+        <v>129.57899590515777</v>
+      </c>
+      <c r="CR88" s="31">
+        <v>127.40004773598</v>
+      </c>
+      <c r="CS88" s="31">
+        <v>129.96624138173306</v>
+      </c>
+      <c r="CT88" s="31">
+        <v>141.16659272487948</v>
+      </c>
       <c r="CU88" s="9"/>
       <c r="CV88" s="9"/>
       <c r="CW88" s="9"/>
@@ -34414,11 +34494,11 @@
       <c r="CM89" s="9"/>
       <c r="CN89" s="9"/>
       <c r="CO89" s="9"/>
-      <c r="CP89" s="9"/>
-      <c r="CQ89" s="9"/>
-      <c r="CR89" s="9"/>
-      <c r="CS89" s="9"/>
-      <c r="CT89" s="9"/>
+      <c r="CP89" s="26"/>
+      <c r="CQ89" s="26"/>
+      <c r="CR89" s="26"/>
+      <c r="CS89" s="26"/>
+      <c r="CT89" s="26"/>
       <c r="CU89" s="9"/>
       <c r="CV89" s="9"/>
       <c r="CW89" s="9"/>
@@ -34794,30 +34874,32 @@
         <v>114.64166426124207</v>
       </c>
       <c r="CL90" s="15">
-        <v>119.40232239877535</v>
+        <v>119.38090239161208</v>
       </c>
       <c r="CM90" s="15">
-        <v>120.32157718298843</v>
+        <v>120.30501355374554</v>
       </c>
       <c r="CN90" s="15">
-        <v>119.48056826371851</v>
+        <v>119.4738522488849</v>
       </c>
       <c r="CO90" s="15">
-        <v>121.92975691623928</v>
-      </c>
-      <c r="CP90" s="15">
-        <v>127.76114421257283</v>
-      </c>
-      <c r="CQ90" s="15">
-        <v>125.73284979784694</v>
-      </c>
-      <c r="CR90" s="15">
-        <v>123.61502286558317</v>
-      </c>
-      <c r="CS90" s="15">
-        <v>125.68446602678461</v>
-      </c>
-      <c r="CT90" s="9"/>
+        <v>121.89822293394974</v>
+      </c>
+      <c r="CP90" s="31">
+        <v>129.01423425324191</v>
+      </c>
+      <c r="CQ90" s="31">
+        <v>125.71288536140229</v>
+      </c>
+      <c r="CR90" s="31">
+        <v>123.60736832377088</v>
+      </c>
+      <c r="CS90" s="31">
+        <v>125.635138250271</v>
+      </c>
+      <c r="CT90" s="31">
+        <v>135.00432499728745</v>
+      </c>
       <c r="CU90" s="9"/>
       <c r="CV90" s="9"/>
       <c r="CW90" s="9"/>
@@ -35018,10 +35100,11 @@
       <c r="CM91" s="12"/>
       <c r="CN91" s="12"/>
       <c r="CO91" s="12"/>
-      <c r="CP91" s="12"/>
-      <c r="CQ91" s="12"/>
-      <c r="CR91" s="12"/>
-      <c r="CS91" s="12"/>
+      <c r="CP91" s="28"/>
+      <c r="CQ91" s="28"/>
+      <c r="CR91" s="28"/>
+      <c r="CS91" s="28"/>
+      <c r="CT91" s="28"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -35040,7 +35123,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -35050,7 +35133,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -35060,150 +35143,153 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="24">
+      <c r="B103" s="32">
         <v>2000</v>
       </c>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="24">
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="32">
         <v>2001</v>
       </c>
-      <c r="G103" s="25"/>
-      <c r="H103" s="25"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="24">
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="32">
         <v>2002</v>
       </c>
-      <c r="K103" s="25"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="25"/>
-      <c r="N103" s="24">
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="32">
         <v>2003</v>
       </c>
-      <c r="O103" s="25"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="24">
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="32">
         <v>2004</v>
       </c>
-      <c r="S103" s="25"/>
-      <c r="T103" s="25"/>
-      <c r="U103" s="25"/>
-      <c r="V103" s="24">
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="32">
         <v>2005</v>
       </c>
-      <c r="W103" s="25"/>
-      <c r="X103" s="25"/>
-      <c r="Y103" s="25"/>
-      <c r="Z103" s="24">
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="32">
         <v>2006</v>
       </c>
-      <c r="AA103" s="25"/>
-      <c r="AB103" s="25"/>
-      <c r="AC103" s="25"/>
-      <c r="AD103" s="24">
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="32">
         <v>2007</v>
       </c>
-      <c r="AE103" s="25"/>
-      <c r="AF103" s="25"/>
-      <c r="AG103" s="25"/>
-      <c r="AH103" s="24">
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="33"/>
+      <c r="AG103" s="33"/>
+      <c r="AH103" s="32">
         <v>2008</v>
       </c>
-      <c r="AI103" s="25"/>
-      <c r="AJ103" s="25"/>
-      <c r="AK103" s="25"/>
-      <c r="AL103" s="24">
+      <c r="AI103" s="33"/>
+      <c r="AJ103" s="33"/>
+      <c r="AK103" s="33"/>
+      <c r="AL103" s="32">
         <v>2009</v>
       </c>
-      <c r="AM103" s="25"/>
-      <c r="AN103" s="25"/>
-      <c r="AO103" s="25"/>
-      <c r="AP103" s="24">
+      <c r="AM103" s="33"/>
+      <c r="AN103" s="33"/>
+      <c r="AO103" s="33"/>
+      <c r="AP103" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="25"/>
-      <c r="AR103" s="25"/>
-      <c r="AS103" s="25"/>
-      <c r="AT103" s="24">
+      <c r="AQ103" s="33"/>
+      <c r="AR103" s="33"/>
+      <c r="AS103" s="33"/>
+      <c r="AT103" s="32">
         <v>2011</v>
       </c>
-      <c r="AU103" s="25"/>
-      <c r="AV103" s="25"/>
-      <c r="AW103" s="25"/>
-      <c r="AX103" s="24">
+      <c r="AU103" s="33"/>
+      <c r="AV103" s="33"/>
+      <c r="AW103" s="33"/>
+      <c r="AX103" s="32">
         <v>2012</v>
       </c>
-      <c r="AY103" s="25"/>
-      <c r="AZ103" s="25"/>
-      <c r="BA103" s="25"/>
-      <c r="BB103" s="24">
+      <c r="AY103" s="33"/>
+      <c r="AZ103" s="33"/>
+      <c r="BA103" s="33"/>
+      <c r="BB103" s="32">
         <v>2013</v>
       </c>
-      <c r="BC103" s="25"/>
-      <c r="BD103" s="25"/>
-      <c r="BE103" s="25"/>
-      <c r="BF103" s="24">
+      <c r="BC103" s="33"/>
+      <c r="BD103" s="33"/>
+      <c r="BE103" s="33"/>
+      <c r="BF103" s="32">
         <v>2014</v>
       </c>
-      <c r="BG103" s="25"/>
-      <c r="BH103" s="25"/>
-      <c r="BI103" s="25"/>
-      <c r="BJ103" s="24">
+      <c r="BG103" s="33"/>
+      <c r="BH103" s="33"/>
+      <c r="BI103" s="33"/>
+      <c r="BJ103" s="32">
         <v>2015</v>
       </c>
-      <c r="BK103" s="25"/>
-      <c r="BL103" s="25"/>
-      <c r="BM103" s="25"/>
-      <c r="BN103" s="24">
+      <c r="BK103" s="33"/>
+      <c r="BL103" s="33"/>
+      <c r="BM103" s="33"/>
+      <c r="BN103" s="32">
         <v>2016</v>
       </c>
-      <c r="BO103" s="25"/>
-      <c r="BP103" s="25"/>
-      <c r="BQ103" s="25"/>
-      <c r="BR103" s="24">
+      <c r="BO103" s="33"/>
+      <c r="BP103" s="33"/>
+      <c r="BQ103" s="33"/>
+      <c r="BR103" s="32">
         <v>2017</v>
       </c>
-      <c r="BS103" s="25"/>
-      <c r="BT103" s="25"/>
-      <c r="BU103" s="25"/>
-      <c r="BV103" s="24">
+      <c r="BS103" s="33"/>
+      <c r="BT103" s="33"/>
+      <c r="BU103" s="33"/>
+      <c r="BV103" s="32">
         <v>2018</v>
       </c>
-      <c r="BW103" s="25"/>
-      <c r="BX103" s="25"/>
-      <c r="BY103" s="25"/>
-      <c r="BZ103" s="24">
+      <c r="BW103" s="33"/>
+      <c r="BX103" s="33"/>
+      <c r="BY103" s="33"/>
+      <c r="BZ103" s="32">
         <v>2019</v>
       </c>
-      <c r="CA103" s="25"/>
-      <c r="CB103" s="25"/>
-      <c r="CC103" s="25"/>
-      <c r="CD103" s="24">
+      <c r="CA103" s="33"/>
+      <c r="CB103" s="33"/>
+      <c r="CC103" s="33"/>
+      <c r="CD103" s="32">
         <v>2020</v>
       </c>
-      <c r="CE103" s="24"/>
-      <c r="CF103" s="24"/>
-      <c r="CG103" s="24"/>
-      <c r="CH103" s="24">
+      <c r="CE103" s="32"/>
+      <c r="CF103" s="32"/>
+      <c r="CG103" s="32"/>
+      <c r="CH103" s="20">
         <v>2021</v>
       </c>
-      <c r="CI103" s="24"/>
-      <c r="CJ103" s="24"/>
-      <c r="CK103" s="24"/>
-      <c r="CL103" s="23">
+      <c r="CI103" s="20"/>
+      <c r="CJ103" s="20"/>
+      <c r="CK103" s="20"/>
+      <c r="CL103" s="20">
         <v>2022</v>
       </c>
-      <c r="CM103" s="23"/>
-      <c r="CN103" s="23"/>
-      <c r="CO103" s="23"/>
+      <c r="CM103" s="20"/>
+      <c r="CN103" s="20"/>
+      <c r="CO103" s="20"/>
       <c r="CP103" s="23">
         <v>2023</v>
       </c>
       <c r="CQ103" s="23"/>
       <c r="CR103" s="23"/>
       <c r="CS103" s="23"/>
+      <c r="CT103" s="23">
+        <v>2024</v>
+      </c>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35485,17 +35571,20 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="6" t="s">
+      <c r="CR104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="6" t="s">
+      <c r="CS104" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CT104" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35770,30 +35859,32 @@
         <v>24.84692978977051</v>
       </c>
       <c r="CL106" s="15">
-        <v>22.346756847100469</v>
+        <v>22.58839804257034</v>
       </c>
       <c r="CM106" s="15">
-        <v>25.986180019967918</v>
+        <v>26.114454339357508</v>
       </c>
       <c r="CN106" s="15">
-        <v>24.440709878312298</v>
+        <v>24.486991397498656</v>
       </c>
       <c r="CO106" s="15">
-        <v>27.508870704678333</v>
-      </c>
-      <c r="CP106" s="15">
-        <v>27.882974338379768</v>
-      </c>
-      <c r="CQ106" s="15">
-        <v>27.875218238025496</v>
-      </c>
-      <c r="CR106" s="15">
-        <v>26.043412035692025</v>
-      </c>
-      <c r="CS106" s="15">
-        <v>28.588325951559906</v>
-      </c>
-      <c r="CT106" s="9"/>
+        <v>27.726038908902634</v>
+      </c>
+      <c r="CP106" s="31">
+        <v>27.921866336741303</v>
+      </c>
+      <c r="CQ106" s="31">
+        <v>28.024361751336436</v>
+      </c>
+      <c r="CR106" s="31">
+        <v>26.097696252306722</v>
+      </c>
+      <c r="CS106" s="31">
+        <v>28.929028846736273</v>
+      </c>
+      <c r="CT106" s="31">
+        <v>28.540834751151252</v>
+      </c>
       <c r="CU106" s="9"/>
       <c r="CV106" s="9"/>
       <c r="CW106" s="9"/>
@@ -36169,30 +36260,32 @@
         <v>75.153070210229501</v>
       </c>
       <c r="CL107" s="15">
-        <v>77.653243152899535</v>
+        <v>77.411601957429653</v>
       </c>
       <c r="CM107" s="15">
-        <v>74.013819980032082</v>
+        <v>73.885545660642492</v>
       </c>
       <c r="CN107" s="15">
-        <v>75.55929012168771</v>
+        <v>75.513008602501358</v>
       </c>
       <c r="CO107" s="15">
-        <v>72.491129295321656</v>
-      </c>
-      <c r="CP107" s="15">
-        <v>72.117025661620232</v>
-      </c>
-      <c r="CQ107" s="15">
-        <v>72.124781761974504</v>
-      </c>
-      <c r="CR107" s="15">
-        <v>73.956587964307971</v>
-      </c>
-      <c r="CS107" s="15">
-        <v>71.411674048440105</v>
-      </c>
-      <c r="CT107" s="9"/>
+        <v>72.273961091097377</v>
+      </c>
+      <c r="CP107" s="31">
+        <v>72.078133663258697</v>
+      </c>
+      <c r="CQ107" s="31">
+        <v>71.975638248663572</v>
+      </c>
+      <c r="CR107" s="31">
+        <v>73.902303747693281</v>
+      </c>
+      <c r="CS107" s="31">
+        <v>71.070971153263727</v>
+      </c>
+      <c r="CT107" s="31">
+        <v>71.459165248848748</v>
+      </c>
       <c r="CU107" s="9"/>
       <c r="CV107" s="9"/>
       <c r="CW107" s="9"/>
@@ -36392,11 +36485,11 @@
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
-      <c r="CP108" s="9"/>
-      <c r="CQ108" s="9"/>
-      <c r="CR108" s="9"/>
-      <c r="CS108" s="9"/>
-      <c r="CT108" s="9"/>
+      <c r="CP108" s="26"/>
+      <c r="CQ108" s="26"/>
+      <c r="CR108" s="26"/>
+      <c r="CS108" s="26"/>
+      <c r="CT108" s="26"/>
       <c r="CU108" s="9"/>
       <c r="CV108" s="9"/>
       <c r="CW108" s="9"/>
@@ -36783,19 +36876,21 @@
       <c r="CO109" s="15">
         <v>100</v>
       </c>
-      <c r="CP109" s="15">
+      <c r="CP109" s="31">
         <v>100</v>
       </c>
-      <c r="CQ109" s="15">
+      <c r="CQ109" s="31">
         <v>100</v>
       </c>
-      <c r="CR109" s="15">
+      <c r="CR109" s="31">
         <v>100</v>
       </c>
-      <c r="CS109" s="15">
+      <c r="CS109" s="31">
         <v>100</v>
       </c>
-      <c r="CT109" s="9"/>
+      <c r="CT109" s="31">
+        <v>100</v>
+      </c>
       <c r="CU109" s="9"/>
       <c r="CV109" s="9"/>
       <c r="CW109" s="9"/>
@@ -36996,10 +37091,11 @@
       <c r="CM110" s="12"/>
       <c r="CN110" s="12"/>
       <c r="CO110" s="12"/>
-      <c r="CP110" s="12"/>
-      <c r="CQ110" s="12"/>
-      <c r="CR110" s="12"/>
-      <c r="CS110" s="12"/>
+      <c r="CP110" s="28"/>
+      <c r="CQ110" s="28"/>
+      <c r="CR110" s="28"/>
+      <c r="CS110" s="28"/>
+      <c r="CT110" s="28"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37099,11 +37195,11 @@
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
       <c r="CO112" s="9"/>
-      <c r="CP112" s="9"/>
-      <c r="CQ112" s="9"/>
-      <c r="CR112" s="9"/>
-      <c r="CS112" s="9"/>
-      <c r="CT112" s="9"/>
+      <c r="CP112" s="26"/>
+      <c r="CQ112" s="26"/>
+      <c r="CR112" s="26"/>
+      <c r="CS112" s="26"/>
+      <c r="CT112" s="26"/>
       <c r="CU112" s="9"/>
       <c r="CV112" s="9"/>
       <c r="CW112" s="9"/>
@@ -37303,11 +37399,11 @@
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
-      <c r="CP113" s="9"/>
-      <c r="CQ113" s="9"/>
-      <c r="CR113" s="9"/>
-      <c r="CS113" s="9"/>
-      <c r="CT113" s="9"/>
+      <c r="CP113" s="26"/>
+      <c r="CQ113" s="26"/>
+      <c r="CR113" s="26"/>
+      <c r="CS113" s="26"/>
+      <c r="CT113" s="26"/>
       <c r="CU113" s="9"/>
       <c r="CV113" s="9"/>
       <c r="CW113" s="9"/>
@@ -37426,7 +37522,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37436,7 +37532,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37446,150 +37542,153 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="24">
+      <c r="B122" s="32">
         <v>2000</v>
       </c>
-      <c r="C122" s="25"/>
-      <c r="D122" s="25"/>
-      <c r="E122" s="25"/>
-      <c r="F122" s="24">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="32">
         <v>2001</v>
       </c>
-      <c r="G122" s="25"/>
-      <c r="H122" s="25"/>
-      <c r="I122" s="25"/>
-      <c r="J122" s="24">
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="32">
         <v>2002</v>
       </c>
-      <c r="K122" s="25"/>
-      <c r="L122" s="25"/>
-      <c r="M122" s="25"/>
-      <c r="N122" s="24">
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="32">
         <v>2003</v>
       </c>
-      <c r="O122" s="25"/>
-      <c r="P122" s="25"/>
-      <c r="Q122" s="25"/>
-      <c r="R122" s="24">
+      <c r="O122" s="33"/>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="32">
         <v>2004</v>
       </c>
-      <c r="S122" s="25"/>
-      <c r="T122" s="25"/>
-      <c r="U122" s="25"/>
-      <c r="V122" s="24">
+      <c r="S122" s="33"/>
+      <c r="T122" s="33"/>
+      <c r="U122" s="33"/>
+      <c r="V122" s="32">
         <v>2005</v>
       </c>
-      <c r="W122" s="25"/>
-      <c r="X122" s="25"/>
-      <c r="Y122" s="25"/>
-      <c r="Z122" s="24">
+      <c r="W122" s="33"/>
+      <c r="X122" s="33"/>
+      <c r="Y122" s="33"/>
+      <c r="Z122" s="32">
         <v>2006</v>
       </c>
-      <c r="AA122" s="25"/>
-      <c r="AB122" s="25"/>
-      <c r="AC122" s="25"/>
-      <c r="AD122" s="24">
+      <c r="AA122" s="33"/>
+      <c r="AB122" s="33"/>
+      <c r="AC122" s="33"/>
+      <c r="AD122" s="32">
         <v>2007</v>
       </c>
-      <c r="AE122" s="25"/>
-      <c r="AF122" s="25"/>
-      <c r="AG122" s="25"/>
-      <c r="AH122" s="24">
+      <c r="AE122" s="33"/>
+      <c r="AF122" s="33"/>
+      <c r="AG122" s="33"/>
+      <c r="AH122" s="32">
         <v>2008</v>
       </c>
-      <c r="AI122" s="25"/>
-      <c r="AJ122" s="25"/>
-      <c r="AK122" s="25"/>
-      <c r="AL122" s="24">
+      <c r="AI122" s="33"/>
+      <c r="AJ122" s="33"/>
+      <c r="AK122" s="33"/>
+      <c r="AL122" s="32">
         <v>2009</v>
       </c>
-      <c r="AM122" s="25"/>
-      <c r="AN122" s="25"/>
-      <c r="AO122" s="25"/>
-      <c r="AP122" s="24">
+      <c r="AM122" s="33"/>
+      <c r="AN122" s="33"/>
+      <c r="AO122" s="33"/>
+      <c r="AP122" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="25"/>
-      <c r="AR122" s="25"/>
-      <c r="AS122" s="25"/>
-      <c r="AT122" s="24">
+      <c r="AQ122" s="33"/>
+      <c r="AR122" s="33"/>
+      <c r="AS122" s="33"/>
+      <c r="AT122" s="32">
         <v>2011</v>
       </c>
-      <c r="AU122" s="25"/>
-      <c r="AV122" s="25"/>
-      <c r="AW122" s="25"/>
-      <c r="AX122" s="24">
+      <c r="AU122" s="33"/>
+      <c r="AV122" s="33"/>
+      <c r="AW122" s="33"/>
+      <c r="AX122" s="32">
         <v>2012</v>
       </c>
-      <c r="AY122" s="25"/>
-      <c r="AZ122" s="25"/>
-      <c r="BA122" s="25"/>
-      <c r="BB122" s="24">
+      <c r="AY122" s="33"/>
+      <c r="AZ122" s="33"/>
+      <c r="BA122" s="33"/>
+      <c r="BB122" s="32">
         <v>2013</v>
       </c>
-      <c r="BC122" s="25"/>
-      <c r="BD122" s="25"/>
-      <c r="BE122" s="25"/>
-      <c r="BF122" s="24">
+      <c r="BC122" s="33"/>
+      <c r="BD122" s="33"/>
+      <c r="BE122" s="33"/>
+      <c r="BF122" s="32">
         <v>2014</v>
       </c>
-      <c r="BG122" s="25"/>
-      <c r="BH122" s="25"/>
-      <c r="BI122" s="25"/>
-      <c r="BJ122" s="24">
+      <c r="BG122" s="33"/>
+      <c r="BH122" s="33"/>
+      <c r="BI122" s="33"/>
+      <c r="BJ122" s="32">
         <v>2015</v>
       </c>
-      <c r="BK122" s="25"/>
-      <c r="BL122" s="25"/>
-      <c r="BM122" s="25"/>
-      <c r="BN122" s="24">
+      <c r="BK122" s="33"/>
+      <c r="BL122" s="33"/>
+      <c r="BM122" s="33"/>
+      <c r="BN122" s="32">
         <v>2016</v>
       </c>
-      <c r="BO122" s="25"/>
-      <c r="BP122" s="25"/>
-      <c r="BQ122" s="25"/>
-      <c r="BR122" s="24">
+      <c r="BO122" s="33"/>
+      <c r="BP122" s="33"/>
+      <c r="BQ122" s="33"/>
+      <c r="BR122" s="32">
         <v>2017</v>
       </c>
-      <c r="BS122" s="25"/>
-      <c r="BT122" s="25"/>
-      <c r="BU122" s="25"/>
-      <c r="BV122" s="24">
+      <c r="BS122" s="33"/>
+      <c r="BT122" s="33"/>
+      <c r="BU122" s="33"/>
+      <c r="BV122" s="32">
         <v>2018</v>
       </c>
-      <c r="BW122" s="25"/>
-      <c r="BX122" s="25"/>
-      <c r="BY122" s="25"/>
-      <c r="BZ122" s="24">
+      <c r="BW122" s="33"/>
+      <c r="BX122" s="33"/>
+      <c r="BY122" s="33"/>
+      <c r="BZ122" s="32">
         <v>2019</v>
       </c>
-      <c r="CA122" s="25"/>
-      <c r="CB122" s="25"/>
-      <c r="CC122" s="25"/>
-      <c r="CD122" s="24">
+      <c r="CA122" s="33"/>
+      <c r="CB122" s="33"/>
+      <c r="CC122" s="33"/>
+      <c r="CD122" s="32">
         <v>2020</v>
       </c>
-      <c r="CE122" s="24"/>
-      <c r="CF122" s="24"/>
-      <c r="CG122" s="24"/>
-      <c r="CH122" s="24">
+      <c r="CE122" s="32"/>
+      <c r="CF122" s="32"/>
+      <c r="CG122" s="32"/>
+      <c r="CH122" s="20">
         <v>2021</v>
       </c>
-      <c r="CI122" s="24"/>
-      <c r="CJ122" s="24"/>
-      <c r="CK122" s="24"/>
-      <c r="CL122" s="23">
+      <c r="CI122" s="20"/>
+      <c r="CJ122" s="20"/>
+      <c r="CK122" s="20"/>
+      <c r="CL122" s="20">
         <v>2022</v>
       </c>
-      <c r="CM122" s="23"/>
-      <c r="CN122" s="23"/>
-      <c r="CO122" s="23"/>
+      <c r="CM122" s="20"/>
+      <c r="CN122" s="20"/>
+      <c r="CO122" s="20"/>
       <c r="CP122" s="23">
         <v>2023</v>
       </c>
       <c r="CQ122" s="23"/>
       <c r="CR122" s="23"/>
       <c r="CS122" s="23"/>
+      <c r="CT122" s="23">
+        <v>2024</v>
+      </c>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37871,17 +37970,20 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="6" t="s">
+      <c r="CR123" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="6" t="s">
+      <c r="CS123" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CT123" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38156,30 +38258,32 @@
         <v>26.358146465054528</v>
       </c>
       <c r="CL125" s="15">
-        <v>23.63526710629834</v>
+        <v>23.886555429684865</v>
       </c>
       <c r="CM125" s="15">
-        <v>28.050548966694418</v>
+        <v>28.185132993032319</v>
       </c>
       <c r="CN125" s="15">
-        <v>26.683728392431593</v>
+        <v>26.732754610400111</v>
       </c>
       <c r="CO125" s="15">
-        <v>29.884303960802139</v>
-      </c>
-      <c r="CP125" s="15">
-        <v>30.115435936744383</v>
-      </c>
-      <c r="CQ125" s="15">
-        <v>30.016016186618131</v>
-      </c>
-      <c r="CR125" s="15">
-        <v>28.240644530884701</v>
-      </c>
-      <c r="CS125" s="15">
-        <v>30.941004175885322</v>
-      </c>
-      <c r="CT125" s="9"/>
+        <v>30.112435154956184</v>
+      </c>
+      <c r="CP125" s="31">
+        <v>30.453228090831502</v>
+      </c>
+      <c r="CQ125" s="31">
+        <v>30.171822240460443</v>
+      </c>
+      <c r="CR125" s="31">
+        <v>28.297756228104866</v>
+      </c>
+      <c r="CS125" s="31">
+        <v>31.297457005044262</v>
+      </c>
+      <c r="CT125" s="31">
+        <v>31.660202438319622</v>
+      </c>
       <c r="CU125" s="9"/>
       <c r="CV125" s="9"/>
       <c r="CW125" s="9"/>
@@ -38555,30 +38659,32 @@
         <v>73.641853534945483</v>
       </c>
       <c r="CL126" s="15">
-        <v>76.364732893701657</v>
+        <v>76.113444570315139</v>
       </c>
       <c r="CM126" s="15">
-        <v>71.949451033305593</v>
+        <v>71.814867006967674</v>
       </c>
       <c r="CN126" s="15">
-        <v>73.316271607568396</v>
+        <v>73.267245389599879</v>
       </c>
       <c r="CO126" s="15">
-        <v>70.115696039197857</v>
-      </c>
-      <c r="CP126" s="15">
-        <v>69.88456406325561</v>
-      </c>
-      <c r="CQ126" s="15">
-        <v>69.983983813381869</v>
-      </c>
-      <c r="CR126" s="15">
-        <v>71.759355469115292</v>
-      </c>
-      <c r="CS126" s="15">
-        <v>69.058995824114675</v>
-      </c>
-      <c r="CT126" s="9"/>
+        <v>69.887564845043826</v>
+      </c>
+      <c r="CP126" s="31">
+        <v>69.546771909168498</v>
+      </c>
+      <c r="CQ126" s="31">
+        <v>69.828177759539557</v>
+      </c>
+      <c r="CR126" s="31">
+        <v>71.702243771895141</v>
+      </c>
+      <c r="CS126" s="31">
+        <v>68.702542994955735</v>
+      </c>
+      <c r="CT126" s="31">
+        <v>68.339797561680385</v>
+      </c>
       <c r="CU126" s="9"/>
       <c r="CV126" s="9"/>
       <c r="CW126" s="9"/>
@@ -38778,11 +38884,11 @@
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
       <c r="CO127" s="9"/>
-      <c r="CP127" s="9"/>
-      <c r="CQ127" s="9"/>
-      <c r="CR127" s="9"/>
-      <c r="CS127" s="9"/>
-      <c r="CT127" s="9"/>
+      <c r="CP127" s="26"/>
+      <c r="CQ127" s="26"/>
+      <c r="CR127" s="26"/>
+      <c r="CS127" s="26"/>
+      <c r="CT127" s="26"/>
       <c r="CU127" s="9"/>
       <c r="CV127" s="9"/>
       <c r="CW127" s="9"/>
@@ -39169,19 +39275,21 @@
       <c r="CO128" s="15">
         <v>100</v>
       </c>
-      <c r="CP128" s="15">
+      <c r="CP128" s="31">
         <v>100</v>
       </c>
-      <c r="CQ128" s="15">
+      <c r="CQ128" s="31">
         <v>100</v>
       </c>
-      <c r="CR128" s="15">
+      <c r="CR128" s="31">
         <v>100</v>
       </c>
-      <c r="CS128" s="15">
+      <c r="CS128" s="31">
         <v>100</v>
       </c>
-      <c r="CT128" s="9"/>
+      <c r="CT128" s="31">
+        <v>100</v>
+      </c>
       <c r="CU128" s="9"/>
       <c r="CV128" s="9"/>
       <c r="CW128" s="9"/>
@@ -39382,10 +39490,11 @@
       <c r="CM129" s="12"/>
       <c r="CN129" s="12"/>
       <c r="CO129" s="12"/>
-      <c r="CP129" s="12"/>
-      <c r="CQ129" s="12"/>
-      <c r="CR129" s="12"/>
-      <c r="CS129" s="12"/>
+      <c r="CP129" s="28"/>
+      <c r="CQ129" s="28"/>
+      <c r="CR129" s="28"/>
+      <c r="CS129" s="28"/>
+      <c r="CT129" s="28"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39486,11 +39595,11 @@
       <c r="CM131" s="1"/>
       <c r="CN131" s="1"/>
       <c r="CO131" s="1"/>
-      <c r="CP131" s="1"/>
-      <c r="CQ131" s="1"/>
-      <c r="CR131" s="1"/>
-      <c r="CS131" s="1"/>
-      <c r="CT131" s="16"/>
+      <c r="CP131" s="22"/>
+      <c r="CQ131" s="22"/>
+      <c r="CR131" s="22"/>
+      <c r="CS131" s="22"/>
+      <c r="CT131" s="22"/>
       <c r="CU131" s="16"/>
       <c r="CV131" s="16"/>
       <c r="CW131" s="16"/>
@@ -39691,11 +39800,11 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
       <c r="CO132" s="1"/>
-      <c r="CP132" s="1"/>
-      <c r="CQ132" s="1"/>
-      <c r="CR132" s="1"/>
-      <c r="CS132" s="1"/>
-      <c r="CT132" s="16"/>
+      <c r="CP132" s="22"/>
+      <c r="CQ132" s="22"/>
+      <c r="CR132" s="22"/>
+      <c r="CS132" s="22"/>
+      <c r="CT132" s="22"/>
       <c r="CU132" s="16"/>
       <c r="CV132" s="16"/>
       <c r="CW132" s="16"/>
@@ -39803,22 +39912,19 @@
       <c r="GU132" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="CH122:CK122"/>
+  <mergeCells count="147">
     <mergeCell ref="CD122:CG122"/>
     <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH28:CK28"/>
     <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="CH47:CK47"/>
-    <mergeCell ref="CH66:CK66"/>
     <mergeCell ref="BZ84:CC84"/>
     <mergeCell ref="CD9:CG9"/>
     <mergeCell ref="CD28:CG28"/>
     <mergeCell ref="BZ47:CC47"/>
     <mergeCell ref="BZ66:CC66"/>
     <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CH103:CK103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
     <mergeCell ref="BJ9:BM9"/>
     <mergeCell ref="BN9:BQ9"/>
     <mergeCell ref="BJ66:BM66"/>
@@ -39829,14 +39935,10 @@
     <mergeCell ref="BV47:BY47"/>
     <mergeCell ref="BR66:BU66"/>
     <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="CD84:CG84"/>
     <mergeCell ref="BR9:BU9"/>
     <mergeCell ref="BV9:BY9"/>
     <mergeCell ref="BR28:BU28"/>
     <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="CH84:CK84"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -39964,9 +40066,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="96" man="1"/>
-    <brk id="76" max="96" man="1"/>
-    <brk id="94" max="96" man="1"/>
+    <brk id="38" max="97" man="1"/>
+    <brk id="76" max="97" man="1"/>
+    <brk id="94" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B94F1A6-110E-4A8D-8986-D3F30BFBDED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DDB04-C067-405D-B968-8F2BD5939D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CT$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CU$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -620,13 +620,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,25 +747,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23625,15 +23609,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CW6" sqref="CW6"/>
+      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
     <col min="2" max="93" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.33203125" style="22" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="99" width="9.6640625" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23648,7 +23632,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23658,7 +23642,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23668,132 +23652,132 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="32">
+      <c r="B9" s="22">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="22"/>
+      <c r="X9" s="22"/>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="22"/>
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22"/>
+      <c r="AT9" s="22">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22"/>
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="22"/>
+      <c r="AZ9" s="22"/>
+      <c r="BA9" s="22"/>
+      <c r="BB9" s="22">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="22"/>
+      <c r="BD9" s="22"/>
+      <c r="BE9" s="22"/>
+      <c r="BF9" s="22">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="22"/>
+      <c r="BH9" s="22"/>
+      <c r="BI9" s="22"/>
+      <c r="BJ9" s="22">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="22"/>
+      <c r="BL9" s="22"/>
+      <c r="BM9" s="22"/>
+      <c r="BN9" s="22">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="22"/>
+      <c r="BP9" s="22"/>
+      <c r="BQ9" s="22"/>
+      <c r="BR9" s="22">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="22"/>
+      <c r="BT9" s="22"/>
+      <c r="BU9" s="22"/>
+      <c r="BV9" s="22">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="22"/>
+      <c r="BX9" s="22"/>
+      <c r="BY9" s="22"/>
+      <c r="BZ9" s="22">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="22">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
+      <c r="CE9" s="22"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
       <c r="CH9" s="20">
         <v>2021</v>
       </c>
@@ -23806,15 +23790,16 @@
       <c r="CM9" s="20"/>
       <c r="CN9" s="20"/>
       <c r="CO9" s="20"/>
-      <c r="CP9" s="23">
+      <c r="CP9" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="23"/>
-      <c r="CR9" s="23"/>
-      <c r="CS9" s="23"/>
-      <c r="CT9" s="23">
+      <c r="CQ9" s="20"/>
+      <c r="CR9" s="20"/>
+      <c r="CS9" s="20"/>
+      <c r="CT9" s="20">
         <v>2024</v>
       </c>
+      <c r="CU9" s="20"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24096,20 +24081,23 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="24" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="24" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="24" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="24" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="24" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24395,22 +24383,24 @@
       <c r="CO12" s="18">
         <v>34154.257299079633</v>
       </c>
-      <c r="CP12" s="25">
+      <c r="CP12" s="18">
         <v>38702.069267098159</v>
       </c>
-      <c r="CQ12" s="25">
+      <c r="CQ12" s="18">
         <v>29935.0457887968</v>
       </c>
-      <c r="CR12" s="25">
+      <c r="CR12" s="18">
         <v>30204.088942300223</v>
       </c>
-      <c r="CS12" s="25">
+      <c r="CS12" s="18">
         <v>43389.068621789513</v>
       </c>
-      <c r="CT12" s="25">
-        <v>47137.440501671517</v>
-      </c>
-      <c r="CU12" s="9"/>
+      <c r="CT12" s="18">
+        <v>46239.352016217403</v>
+      </c>
+      <c r="CU12" s="18">
+        <v>34670.384831882926</v>
+      </c>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
@@ -24796,22 +24786,24 @@
       <c r="CO13" s="18">
         <v>89030.512841717311</v>
       </c>
-      <c r="CP13" s="25">
+      <c r="CP13" s="18">
         <v>99906.391930825455</v>
       </c>
-      <c r="CQ13" s="25">
+      <c r="CQ13" s="18">
         <v>76882.893739725201</v>
       </c>
-      <c r="CR13" s="25">
+      <c r="CR13" s="18">
         <v>85530.605224931263</v>
       </c>
-      <c r="CS13" s="25">
+      <c r="CS13" s="18">
         <v>106595.4637026843</v>
       </c>
-      <c r="CT13" s="25">
-        <v>118020.44963246389</v>
-      </c>
-      <c r="CU13" s="9"/>
+      <c r="CT13" s="18">
+        <v>117959.63332912553</v>
+      </c>
+      <c r="CU13" s="18">
+        <v>88573.241698659665</v>
+      </c>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
@@ -25010,11 +25002,11 @@
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
-      <c r="CP14" s="26"/>
-      <c r="CQ14" s="26"/>
-      <c r="CR14" s="26"/>
-      <c r="CS14" s="26"/>
-      <c r="CT14" s="26"/>
+      <c r="CP14" s="9"/>
+      <c r="CQ14" s="9"/>
+      <c r="CR14" s="9"/>
+      <c r="CS14" s="9"/>
+      <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
@@ -25401,22 +25393,24 @@
       <c r="CO15" s="19">
         <v>123184.77014079694</v>
       </c>
-      <c r="CP15" s="27">
+      <c r="CP15" s="19">
         <v>138608.46119792361</v>
       </c>
-      <c r="CQ15" s="27">
+      <c r="CQ15" s="19">
         <v>106817.93952852199</v>
       </c>
-      <c r="CR15" s="27">
+      <c r="CR15" s="19">
         <v>115734.69416723149</v>
       </c>
-      <c r="CS15" s="27">
+      <c r="CS15" s="19">
         <v>149984.53232447381</v>
       </c>
-      <c r="CT15" s="27">
-        <v>165157.89013413541</v>
-      </c>
-      <c r="CU15" s="9"/>
+      <c r="CT15" s="19">
+        <v>164198.98534534292</v>
+      </c>
+      <c r="CU15" s="19">
+        <v>123243.62653054259</v>
+      </c>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
@@ -25616,11 +25610,12 @@
       <c r="CM16" s="12"/>
       <c r="CN16" s="12"/>
       <c r="CO16" s="12"/>
-      <c r="CP16" s="28"/>
-      <c r="CQ16" s="28"/>
-      <c r="CR16" s="28"/>
-      <c r="CS16" s="28"/>
-      <c r="CT16" s="28"/>
+      <c r="CP16" s="12"/>
+      <c r="CQ16" s="12"/>
+      <c r="CR16" s="12"/>
+      <c r="CS16" s="12"/>
+      <c r="CT16" s="12"/>
+      <c r="CU16" s="12"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25720,11 +25715,11 @@
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
-      <c r="CP18" s="26"/>
-      <c r="CQ18" s="26"/>
-      <c r="CR18" s="26"/>
-      <c r="CS18" s="26"/>
-      <c r="CT18" s="26"/>
+      <c r="CP18" s="9"/>
+      <c r="CQ18" s="9"/>
+      <c r="CR18" s="9"/>
+      <c r="CS18" s="9"/>
+      <c r="CT18" s="9"/>
       <c r="CU18" s="9"/>
       <c r="CV18" s="9"/>
       <c r="CW18" s="9"/>
@@ -25924,12 +25919,12 @@
       <c r="CM19" s="14"/>
       <c r="CN19" s="14"/>
       <c r="CO19" s="14"/>
-      <c r="CP19" s="29"/>
-      <c r="CQ19" s="29"/>
-      <c r="CR19" s="29"/>
-      <c r="CS19" s="29"/>
-      <c r="CT19" s="29"/>
-      <c r="CU19" s="9"/>
+      <c r="CP19" s="14"/>
+      <c r="CQ19" s="14"/>
+      <c r="CR19" s="14"/>
+      <c r="CS19" s="14"/>
+      <c r="CT19" s="14"/>
+      <c r="CU19" s="14"/>
       <c r="CV19" s="9"/>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
@@ -26047,7 +26042,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -26057,7 +26052,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -26067,132 +26062,132 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="32">
+      <c r="B28" s="22">
         <v>2000</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="32">
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22">
         <v>2001</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32">
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="22">
         <v>2002</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="32">
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22">
         <v>2003</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="32">
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="22">
         <v>2004</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="32">
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="22">
         <v>2005</v>
       </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="32">
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="22">
         <v>2006</v>
       </c>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="32">
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="22">
         <v>2007</v>
       </c>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="32">
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="23"/>
+      <c r="AH28" s="22">
         <v>2008</v>
       </c>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="32">
+      <c r="AI28" s="23"/>
+      <c r="AJ28" s="23"/>
+      <c r="AK28" s="23"/>
+      <c r="AL28" s="22">
         <v>2009</v>
       </c>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="32">
+      <c r="AM28" s="23"/>
+      <c r="AN28" s="23"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="32">
+      <c r="AQ28" s="23"/>
+      <c r="AR28" s="23"/>
+      <c r="AS28" s="23"/>
+      <c r="AT28" s="22">
         <v>2011</v>
       </c>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="32">
+      <c r="AU28" s="23"/>
+      <c r="AV28" s="23"/>
+      <c r="AW28" s="23"/>
+      <c r="AX28" s="22">
         <v>2012</v>
       </c>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="32">
+      <c r="AY28" s="23"/>
+      <c r="AZ28" s="23"/>
+      <c r="BA28" s="23"/>
+      <c r="BB28" s="22">
         <v>2013</v>
       </c>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="32">
+      <c r="BC28" s="23"/>
+      <c r="BD28" s="23"/>
+      <c r="BE28" s="23"/>
+      <c r="BF28" s="22">
         <v>2014</v>
       </c>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="32">
+      <c r="BG28" s="23"/>
+      <c r="BH28" s="23"/>
+      <c r="BI28" s="23"/>
+      <c r="BJ28" s="22">
         <v>2015</v>
       </c>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="32">
+      <c r="BK28" s="23"/>
+      <c r="BL28" s="23"/>
+      <c r="BM28" s="23"/>
+      <c r="BN28" s="22">
         <v>2016</v>
       </c>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="32">
+      <c r="BO28" s="23"/>
+      <c r="BP28" s="23"/>
+      <c r="BQ28" s="23"/>
+      <c r="BR28" s="22">
         <v>2017</v>
       </c>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
-      <c r="BU28" s="33"/>
-      <c r="BV28" s="32">
+      <c r="BS28" s="23"/>
+      <c r="BT28" s="23"/>
+      <c r="BU28" s="23"/>
+      <c r="BV28" s="22">
         <v>2018</v>
       </c>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="32">
+      <c r="BW28" s="23"/>
+      <c r="BX28" s="23"/>
+      <c r="BY28" s="23"/>
+      <c r="BZ28" s="22">
         <v>2019</v>
       </c>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
-      <c r="CD28" s="32">
+      <c r="CA28" s="23"/>
+      <c r="CB28" s="23"/>
+      <c r="CC28" s="23"/>
+      <c r="CD28" s="22">
         <v>2020</v>
       </c>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
+      <c r="CE28" s="22"/>
+      <c r="CF28" s="22"/>
+      <c r="CG28" s="22"/>
       <c r="CH28" s="20">
         <v>2021</v>
       </c>
@@ -26205,15 +26200,16 @@
       <c r="CM28" s="20"/>
       <c r="CN28" s="20"/>
       <c r="CO28" s="20"/>
-      <c r="CP28" s="23">
+      <c r="CP28" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="23"/>
-      <c r="CR28" s="23"/>
-      <c r="CS28" s="23"/>
-      <c r="CT28" s="23">
+      <c r="CQ28" s="20"/>
+      <c r="CR28" s="20"/>
+      <c r="CS28" s="20"/>
+      <c r="CT28" s="20">
         <v>2024</v>
       </c>
+      <c r="CU28" s="20"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26495,20 +26491,23 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="24" t="s">
+      <c r="CP29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="24" t="s">
+      <c r="CQ29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="24" t="s">
+      <c r="CR29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="24" t="s">
+      <c r="CS29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="24" t="s">
+      <c r="CT29" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU29" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26794,22 +26793,24 @@
       <c r="CO31" s="18">
         <v>30430.250036974343</v>
       </c>
-      <c r="CP31" s="25">
+      <c r="CP31" s="18">
         <v>32717.902087408373</v>
       </c>
-      <c r="CQ31" s="25">
+      <c r="CQ31" s="18">
         <v>25636.925556847855</v>
       </c>
-      <c r="CR31" s="25">
+      <c r="CR31" s="18">
         <v>26495.444463311713</v>
       </c>
-      <c r="CS31" s="25">
+      <c r="CS31" s="18">
         <v>37363.229087199776</v>
       </c>
-      <c r="CT31" s="25">
-        <v>38731.590532655449</v>
-      </c>
-      <c r="CU31" s="9"/>
+      <c r="CT31" s="18">
+        <v>37993.654931772151</v>
+      </c>
+      <c r="CU31" s="18">
+        <v>28936.265428202405</v>
+      </c>
       <c r="CV31" s="9"/>
       <c r="CW31" s="9"/>
       <c r="CX31" s="9"/>
@@ -27195,22 +27196,24 @@
       <c r="CO32" s="18">
         <v>70625.177331761239</v>
       </c>
-      <c r="CP32" s="25">
+      <c r="CP32" s="18">
         <v>74718.662567813473</v>
       </c>
-      <c r="CQ32" s="25">
+      <c r="CQ32" s="18">
         <v>59332.836469884205</v>
       </c>
-      <c r="CR32" s="25">
+      <c r="CR32" s="18">
         <v>67135.457752874863</v>
       </c>
-      <c r="CS32" s="25">
+      <c r="CS32" s="18">
         <v>82017.809062889806</v>
       </c>
-      <c r="CT32" s="25">
-        <v>83603.668087728613</v>
-      </c>
-      <c r="CU32" s="9"/>
+      <c r="CT32" s="18">
+        <v>83560.085312483774</v>
+      </c>
+      <c r="CU32" s="18">
+        <v>64912.054069889418</v>
+      </c>
       <c r="CV32" s="9"/>
       <c r="CW32" s="9"/>
       <c r="CX32" s="9"/>
@@ -27409,11 +27412,11 @@
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
-      <c r="CP33" s="26"/>
-      <c r="CQ33" s="26"/>
-      <c r="CR33" s="26"/>
-      <c r="CS33" s="26"/>
-      <c r="CT33" s="26"/>
+      <c r="CP33" s="9"/>
+      <c r="CQ33" s="9"/>
+      <c r="CR33" s="9"/>
+      <c r="CS33" s="9"/>
+      <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
@@ -27800,22 +27803,24 @@
       <c r="CO34" s="19">
         <v>101055.42736873557</v>
       </c>
-      <c r="CP34" s="27">
+      <c r="CP34" s="19">
         <v>107436.56465522185</v>
       </c>
-      <c r="CQ34" s="27">
+      <c r="CQ34" s="19">
         <v>84969.76202673206</v>
       </c>
-      <c r="CR34" s="27">
+      <c r="CR34" s="19">
         <v>93630.902216186572</v>
       </c>
-      <c r="CS34" s="27">
+      <c r="CS34" s="19">
         <v>119381.03815008959</v>
       </c>
-      <c r="CT34" s="27">
-        <v>122335.25862038406</v>
-      </c>
-      <c r="CU34" s="9"/>
+      <c r="CT34" s="19">
+        <v>121553.74024425593</v>
+      </c>
+      <c r="CU34" s="19">
+        <v>93848.31949809182</v>
+      </c>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
@@ -28015,11 +28020,12 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
-      <c r="CP35" s="28"/>
-      <c r="CQ35" s="28"/>
-      <c r="CR35" s="28"/>
-      <c r="CS35" s="28"/>
-      <c r="CT35" s="28"/>
+      <c r="CP35" s="12"/>
+      <c r="CQ35" s="12"/>
+      <c r="CR35" s="12"/>
+      <c r="CS35" s="12"/>
+      <c r="CT35" s="12"/>
+      <c r="CU35" s="12"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28119,11 +28125,11 @@
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
-      <c r="CP37" s="26"/>
-      <c r="CQ37" s="26"/>
-      <c r="CR37" s="26"/>
-      <c r="CS37" s="26"/>
-      <c r="CT37" s="26"/>
+      <c r="CP37" s="9"/>
+      <c r="CQ37" s="9"/>
+      <c r="CR37" s="9"/>
+      <c r="CS37" s="9"/>
+      <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
@@ -28323,11 +28329,11 @@
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
-      <c r="CP38" s="26"/>
-      <c r="CQ38" s="26"/>
-      <c r="CR38" s="26"/>
-      <c r="CS38" s="26"/>
-      <c r="CT38" s="26"/>
+      <c r="CP38" s="9"/>
+      <c r="CQ38" s="9"/>
+      <c r="CR38" s="9"/>
+      <c r="CS38" s="9"/>
+      <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
@@ -28446,7 +28452,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28456,7 +28462,7 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
@@ -28466,132 +28472,132 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32" t="s">
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32" t="s">
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32" t="s">
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32" t="s">
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32" t="s">
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32" t="s">
+      <c r="AA47" s="22"/>
+      <c r="AB47" s="22"/>
+      <c r="AC47" s="22"/>
+      <c r="AD47" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32" t="s">
+      <c r="AE47" s="22"/>
+      <c r="AF47" s="22"/>
+      <c r="AG47" s="22"/>
+      <c r="AH47" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32" t="s">
+      <c r="AI47" s="22"/>
+      <c r="AJ47" s="22"/>
+      <c r="AK47" s="22"/>
+      <c r="AL47" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="32" t="s">
+      <c r="AM47" s="22"/>
+      <c r="AN47" s="22"/>
+      <c r="AO47" s="22"/>
+      <c r="AP47" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32" t="s">
+      <c r="AQ47" s="22"/>
+      <c r="AR47" s="22"/>
+      <c r="AS47" s="22"/>
+      <c r="AT47" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32" t="s">
+      <c r="AU47" s="22"/>
+      <c r="AV47" s="22"/>
+      <c r="AW47" s="22"/>
+      <c r="AX47" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="32"/>
-      <c r="BA47" s="32"/>
-      <c r="BB47" s="32" t="s">
+      <c r="AY47" s="22"/>
+      <c r="AZ47" s="22"/>
+      <c r="BA47" s="22"/>
+      <c r="BB47" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="32"/>
-      <c r="BD47" s="32"/>
-      <c r="BE47" s="32"/>
-      <c r="BF47" s="32" t="s">
+      <c r="BC47" s="22"/>
+      <c r="BD47" s="22"/>
+      <c r="BE47" s="22"/>
+      <c r="BF47" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="32"/>
-      <c r="BH47" s="32"/>
-      <c r="BI47" s="32"/>
-      <c r="BJ47" s="32" t="s">
+      <c r="BG47" s="22"/>
+      <c r="BH47" s="22"/>
+      <c r="BI47" s="22"/>
+      <c r="BJ47" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="32"/>
-      <c r="BL47" s="32"/>
-      <c r="BM47" s="32"/>
-      <c r="BN47" s="32" t="s">
+      <c r="BK47" s="22"/>
+      <c r="BL47" s="22"/>
+      <c r="BM47" s="22"/>
+      <c r="BN47" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="32"/>
-      <c r="BP47" s="32"/>
-      <c r="BQ47" s="32"/>
-      <c r="BR47" s="32" t="s">
+      <c r="BO47" s="22"/>
+      <c r="BP47" s="22"/>
+      <c r="BQ47" s="22"/>
+      <c r="BR47" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="32"/>
-      <c r="BT47" s="32"/>
-      <c r="BU47" s="32"/>
-      <c r="BV47" s="32" t="s">
+      <c r="BS47" s="22"/>
+      <c r="BT47" s="22"/>
+      <c r="BU47" s="22"/>
+      <c r="BV47" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="32"/>
-      <c r="BX47" s="32"/>
-      <c r="BY47" s="32"/>
-      <c r="BZ47" s="32" t="s">
+      <c r="BW47" s="22"/>
+      <c r="BX47" s="22"/>
+      <c r="BY47" s="22"/>
+      <c r="BZ47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="32"/>
-      <c r="CB47" s="32"/>
-      <c r="CC47" s="32"/>
-      <c r="CD47" s="32" t="s">
+      <c r="CA47" s="22"/>
+      <c r="CB47" s="22"/>
+      <c r="CC47" s="22"/>
+      <c r="CD47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="32"/>
-      <c r="CF47" s="32"/>
-      <c r="CG47" s="32"/>
+      <c r="CE47" s="22"/>
+      <c r="CF47" s="22"/>
+      <c r="CG47" s="22"/>
       <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
@@ -28604,13 +28610,14 @@
       <c r="CM47" s="20"/>
       <c r="CN47" s="20"/>
       <c r="CO47" s="20"/>
-      <c r="CP47" s="23" t="s">
+      <c r="CP47" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="21"/>
+      <c r="CQ47" s="20"/>
       <c r="CR47" s="21"/>
       <c r="CS47" s="21"/>
-      <c r="CT47" s="21"/>
+      <c r="CT47" s="20"/>
+      <c r="CU47" s="21"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28892,13 +28899,16 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="30" t="s">
+      <c r="CP48" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="30"/>
-      <c r="CR48" s="30"/>
-      <c r="CS48" s="30"/>
-      <c r="CT48" s="30"/>
+      <c r="CQ48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR48" s="5"/>
+      <c r="CS48" s="5"/>
+      <c r="CT48" s="5"/>
+      <c r="CU48" s="5"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -29183,14 +29193,16 @@
       <c r="CO50" s="15">
         <v>27.038536490028548</v>
       </c>
-      <c r="CP50" s="31">
-        <v>21.795659493960272</v>
-      </c>
-      <c r="CQ50" s="31"/>
-      <c r="CR50" s="31"/>
-      <c r="CS50" s="31"/>
-      <c r="CT50" s="31"/>
-      <c r="CU50" s="9"/>
+      <c r="CP50" s="15">
+        <v>19.475141489467916</v>
+      </c>
+      <c r="CQ50" s="15">
+        <v>15.818713211584011</v>
+      </c>
+      <c r="CR50" s="15"/>
+      <c r="CS50" s="15"/>
+      <c r="CT50" s="15"/>
+      <c r="CU50" s="15"/>
       <c r="CV50" s="9"/>
       <c r="CW50" s="9"/>
       <c r="CX50" s="9"/>
@@ -29572,14 +29584,16 @@
       <c r="CO51" s="15">
         <v>19.729135888720293</v>
       </c>
-      <c r="CP51" s="31">
-        <v>18.131029808563696</v>
-      </c>
-      <c r="CQ51" s="31"/>
-      <c r="CR51" s="31"/>
-      <c r="CS51" s="31"/>
-      <c r="CT51" s="31"/>
-      <c r="CU51" s="9"/>
+      <c r="CP51" s="15">
+        <v>18.070156522917983</v>
+      </c>
+      <c r="CQ51" s="15">
+        <v>15.205395362081802</v>
+      </c>
+      <c r="CR51" s="15"/>
+      <c r="CS51" s="15"/>
+      <c r="CT51" s="15"/>
+      <c r="CU51" s="15"/>
       <c r="CV51" s="9"/>
       <c r="CW51" s="9"/>
       <c r="CX51" s="9"/>
@@ -29775,11 +29789,11 @@
       <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
-      <c r="CP52" s="26"/>
-      <c r="CQ52" s="26"/>
-      <c r="CR52" s="26"/>
-      <c r="CS52" s="26"/>
-      <c r="CT52" s="26"/>
+      <c r="CP52" s="9"/>
+      <c r="CQ52" s="9"/>
+      <c r="CR52" s="9"/>
+      <c r="CS52" s="9"/>
+      <c r="CT52" s="9"/>
       <c r="CU52" s="9"/>
       <c r="CV52" s="9"/>
       <c r="CW52" s="9"/>
@@ -30162,14 +30176,16 @@
       <c r="CO53" s="15">
         <v>21.755743143446594</v>
       </c>
-      <c r="CP53" s="31">
-        <v>19.154262811056682</v>
-      </c>
-      <c r="CQ53" s="31"/>
-      <c r="CR53" s="31"/>
-      <c r="CS53" s="31"/>
-      <c r="CT53" s="31"/>
-      <c r="CU53" s="9"/>
+      <c r="CP53" s="15">
+        <v>18.462454547329372</v>
+      </c>
+      <c r="CQ53" s="15">
+        <v>15.377273774911828</v>
+      </c>
+      <c r="CR53" s="15"/>
+      <c r="CS53" s="15"/>
+      <c r="CT53" s="15"/>
+      <c r="CU53" s="15"/>
       <c r="CV53" s="9"/>
       <c r="CW53" s="9"/>
       <c r="CX53" s="9"/>
@@ -30365,11 +30381,12 @@
       <c r="CM54" s="12"/>
       <c r="CN54" s="12"/>
       <c r="CO54" s="12"/>
-      <c r="CP54" s="28"/>
-      <c r="CQ54" s="28"/>
-      <c r="CR54" s="28"/>
-      <c r="CS54" s="28"/>
-      <c r="CT54" s="28"/>
+      <c r="CP54" s="12"/>
+      <c r="CQ54" s="12"/>
+      <c r="CR54" s="12"/>
+      <c r="CS54" s="12"/>
+      <c r="CT54" s="12"/>
+      <c r="CU54" s="12"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30469,11 +30486,11 @@
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
-      <c r="CP56" s="26"/>
-      <c r="CQ56" s="26"/>
-      <c r="CR56" s="26"/>
-      <c r="CS56" s="26"/>
-      <c r="CT56" s="26"/>
+      <c r="CP56" s="9"/>
+      <c r="CQ56" s="9"/>
+      <c r="CR56" s="9"/>
+      <c r="CS56" s="9"/>
+      <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
@@ -30669,11 +30686,11 @@
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
-      <c r="CP57" s="26"/>
-      <c r="CQ57" s="26"/>
-      <c r="CR57" s="26"/>
-      <c r="CS57" s="26"/>
-      <c r="CT57" s="26"/>
+      <c r="CP57" s="9"/>
+      <c r="CQ57" s="9"/>
+      <c r="CR57" s="9"/>
+      <c r="CS57" s="9"/>
+      <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
       <c r="CV57" s="9"/>
       <c r="CW57" s="9"/>
@@ -30788,7 +30805,7 @@
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
@@ -30798,7 +30815,7 @@
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
@@ -30808,132 +30825,132 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="32" t="s">
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="32" t="s">
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="32" t="s">
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+      <c r="N66" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="32" t="s">
+      <c r="O66" s="24"/>
+      <c r="P66" s="24"/>
+      <c r="Q66" s="24"/>
+      <c r="R66" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="32" t="s">
+      <c r="S66" s="24"/>
+      <c r="T66" s="24"/>
+      <c r="U66" s="24"/>
+      <c r="V66" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="32" t="s">
+      <c r="W66" s="24"/>
+      <c r="X66" s="24"/>
+      <c r="Y66" s="24"/>
+      <c r="Z66" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="32" t="s">
+      <c r="AA66" s="24"/>
+      <c r="AB66" s="24"/>
+      <c r="AC66" s="24"/>
+      <c r="AD66" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="32" t="s">
+      <c r="AE66" s="24"/>
+      <c r="AF66" s="24"/>
+      <c r="AG66" s="24"/>
+      <c r="AH66" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="32" t="s">
+      <c r="AI66" s="24"/>
+      <c r="AJ66" s="24"/>
+      <c r="AK66" s="24"/>
+      <c r="AL66" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="34"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="32" t="s">
+      <c r="AM66" s="24"/>
+      <c r="AN66" s="24"/>
+      <c r="AO66" s="24"/>
+      <c r="AP66" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="34"/>
-      <c r="AS66" s="34"/>
-      <c r="AT66" s="32" t="s">
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="24"/>
+      <c r="AS66" s="24"/>
+      <c r="AT66" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="34"/>
-      <c r="AW66" s="34"/>
-      <c r="AX66" s="32" t="s">
+      <c r="AU66" s="24"/>
+      <c r="AV66" s="24"/>
+      <c r="AW66" s="24"/>
+      <c r="AX66" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="34"/>
-      <c r="AZ66" s="34"/>
-      <c r="BA66" s="34"/>
-      <c r="BB66" s="32" t="s">
+      <c r="AY66" s="24"/>
+      <c r="AZ66" s="24"/>
+      <c r="BA66" s="24"/>
+      <c r="BB66" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="34"/>
-      <c r="BD66" s="34"/>
-      <c r="BE66" s="34"/>
-      <c r="BF66" s="32" t="s">
+      <c r="BC66" s="24"/>
+      <c r="BD66" s="24"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="34"/>
-      <c r="BH66" s="34"/>
-      <c r="BI66" s="34"/>
-      <c r="BJ66" s="32" t="s">
+      <c r="BG66" s="24"/>
+      <c r="BH66" s="24"/>
+      <c r="BI66" s="24"/>
+      <c r="BJ66" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="34"/>
-      <c r="BL66" s="34"/>
-      <c r="BM66" s="34"/>
-      <c r="BN66" s="32" t="s">
+      <c r="BK66" s="24"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="24"/>
+      <c r="BN66" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="34"/>
-      <c r="BP66" s="34"/>
-      <c r="BQ66" s="34"/>
-      <c r="BR66" s="32" t="s">
+      <c r="BO66" s="24"/>
+      <c r="BP66" s="24"/>
+      <c r="BQ66" s="24"/>
+      <c r="BR66" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="34"/>
-      <c r="BT66" s="34"/>
-      <c r="BU66" s="34"/>
-      <c r="BV66" s="32" t="s">
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="24"/>
+      <c r="BU66" s="24"/>
+      <c r="BV66" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="34"/>
-      <c r="BX66" s="34"/>
-      <c r="BY66" s="34"/>
-      <c r="BZ66" s="32" t="s">
+      <c r="BW66" s="24"/>
+      <c r="BX66" s="24"/>
+      <c r="BY66" s="24"/>
+      <c r="BZ66" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="34"/>
-      <c r="CB66" s="34"/>
-      <c r="CC66" s="34"/>
-      <c r="CD66" s="32" t="s">
+      <c r="CA66" s="24"/>
+      <c r="CB66" s="24"/>
+      <c r="CC66" s="24"/>
+      <c r="CD66" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="32"/>
-      <c r="CF66" s="32"/>
-      <c r="CG66" s="32"/>
+      <c r="CE66" s="22"/>
+      <c r="CF66" s="22"/>
+      <c r="CG66" s="22"/>
       <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
@@ -30946,13 +30963,14 @@
       <c r="CM66" s="20"/>
       <c r="CN66" s="20"/>
       <c r="CO66" s="20"/>
-      <c r="CP66" s="23" t="s">
+      <c r="CP66" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="21"/>
+      <c r="CQ66" s="20"/>
       <c r="CR66" s="21"/>
       <c r="CS66" s="21"/>
-      <c r="CT66" s="21"/>
+      <c r="CT66" s="20"/>
+      <c r="CU66" s="21"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31234,13 +31252,16 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="30" t="s">
+      <c r="CP67" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="30"/>
-      <c r="CR67" s="30"/>
-      <c r="CS67" s="30"/>
-      <c r="CT67" s="30"/>
+      <c r="CQ67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR67" s="5"/>
+      <c r="CS67" s="5"/>
+      <c r="CT67" s="5"/>
+      <c r="CU67" s="5"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31525,14 +31546,16 @@
       <c r="CO69" s="15">
         <v>22.783181346855514</v>
       </c>
-      <c r="CP69" s="31">
-        <v>18.380421914525712</v>
-      </c>
-      <c r="CQ69" s="31"/>
-      <c r="CR69" s="31"/>
-      <c r="CS69" s="31"/>
-      <c r="CT69" s="31"/>
-      <c r="CU69" s="9"/>
+      <c r="CP69" s="15">
+        <v>16.124972897923612</v>
+      </c>
+      <c r="CQ69" s="15">
+        <v>12.869483370923419</v>
+      </c>
+      <c r="CR69" s="15"/>
+      <c r="CS69" s="15"/>
+      <c r="CT69" s="15"/>
+      <c r="CU69" s="15"/>
       <c r="CV69" s="9"/>
       <c r="CW69" s="9"/>
       <c r="CX69" s="9"/>
@@ -31914,14 +31937,16 @@
       <c r="CO70" s="15">
         <v>16.131119469777431</v>
       </c>
-      <c r="CP70" s="31">
-        <v>11.891280189673154</v>
-      </c>
-      <c r="CQ70" s="31"/>
-      <c r="CR70" s="31"/>
-      <c r="CS70" s="31"/>
-      <c r="CT70" s="31"/>
-      <c r="CU70" s="9"/>
+      <c r="CP70" s="15">
+        <v>11.832951020296932</v>
+      </c>
+      <c r="CQ70" s="15">
+        <v>9.4032544741680795</v>
+      </c>
+      <c r="CR70" s="15"/>
+      <c r="CS70" s="15"/>
+      <c r="CT70" s="15"/>
+      <c r="CU70" s="15"/>
       <c r="CV70" s="9"/>
       <c r="CW70" s="9"/>
       <c r="CX70" s="9"/>
@@ -32116,11 +32141,11 @@
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
-      <c r="CP71" s="26"/>
-      <c r="CQ71" s="26"/>
-      <c r="CR71" s="26"/>
-      <c r="CS71" s="26"/>
-      <c r="CT71" s="26"/>
+      <c r="CP71" s="9"/>
+      <c r="CQ71" s="9"/>
+      <c r="CR71" s="9"/>
+      <c r="CS71" s="9"/>
+      <c r="CT71" s="9"/>
       <c r="CU71" s="9"/>
       <c r="CV71" s="9"/>
       <c r="CW71" s="9"/>
@@ -32503,14 +32528,16 @@
       <c r="CO72" s="15">
         <v>18.134217288980153</v>
       </c>
-      <c r="CP72" s="31">
-        <v>13.867433320279815</v>
-      </c>
-      <c r="CQ72" s="31"/>
-      <c r="CR72" s="31"/>
-      <c r="CS72" s="31"/>
-      <c r="CT72" s="31"/>
-      <c r="CU72" s="9"/>
+      <c r="CP72" s="15">
+        <v>13.14001023239895</v>
+      </c>
+      <c r="CQ72" s="15">
+        <v>10.44907889534457</v>
+      </c>
+      <c r="CR72" s="15"/>
+      <c r="CS72" s="15"/>
+      <c r="CT72" s="15"/>
+      <c r="CU72" s="15"/>
       <c r="CV72" s="9"/>
       <c r="CW72" s="9"/>
       <c r="CX72" s="9"/>
@@ -32706,11 +32733,12 @@
       <c r="CM73" s="12"/>
       <c r="CN73" s="12"/>
       <c r="CO73" s="12"/>
-      <c r="CP73" s="28"/>
-      <c r="CQ73" s="28"/>
-      <c r="CR73" s="28"/>
-      <c r="CS73" s="28"/>
-      <c r="CT73" s="28"/>
+      <c r="CP73" s="12"/>
+      <c r="CQ73" s="12"/>
+      <c r="CR73" s="12"/>
+      <c r="CS73" s="12"/>
+      <c r="CT73" s="12"/>
+      <c r="CU73" s="12"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32810,11 +32838,11 @@
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
-      <c r="CP75" s="26"/>
-      <c r="CQ75" s="26"/>
-      <c r="CR75" s="26"/>
-      <c r="CS75" s="26"/>
-      <c r="CT75" s="26"/>
+      <c r="CP75" s="9"/>
+      <c r="CQ75" s="9"/>
+      <c r="CR75" s="9"/>
+      <c r="CS75" s="9"/>
+      <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
@@ -33014,11 +33042,11 @@
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
-      <c r="CP76" s="26"/>
-      <c r="CQ76" s="26"/>
-      <c r="CR76" s="26"/>
-      <c r="CS76" s="26"/>
-      <c r="CT76" s="26"/>
+      <c r="CP76" s="9"/>
+      <c r="CQ76" s="9"/>
+      <c r="CR76" s="9"/>
+      <c r="CS76" s="9"/>
+      <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
@@ -33132,7 +33160,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -33142,7 +33170,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -33152,132 +33180,132 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="32">
+      <c r="B84" s="22">
         <v>2000</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="32">
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="22">
         <v>2001</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="32">
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="22">
         <v>2002</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="32">
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="N84" s="22">
         <v>2003</v>
       </c>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="32">
+      <c r="O84" s="23"/>
+      <c r="P84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="22">
         <v>2004</v>
       </c>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="32">
+      <c r="S84" s="23"/>
+      <c r="T84" s="23"/>
+      <c r="U84" s="23"/>
+      <c r="V84" s="22">
         <v>2005</v>
       </c>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="32">
+      <c r="W84" s="23"/>
+      <c r="X84" s="23"/>
+      <c r="Y84" s="23"/>
+      <c r="Z84" s="22">
         <v>2006</v>
       </c>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="32">
+      <c r="AA84" s="23"/>
+      <c r="AB84" s="23"/>
+      <c r="AC84" s="23"/>
+      <c r="AD84" s="22">
         <v>2007</v>
       </c>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="33"/>
-      <c r="AH84" s="32">
+      <c r="AE84" s="23"/>
+      <c r="AF84" s="23"/>
+      <c r="AG84" s="23"/>
+      <c r="AH84" s="22">
         <v>2008</v>
       </c>
-      <c r="AI84" s="33"/>
-      <c r="AJ84" s="33"/>
-      <c r="AK84" s="33"/>
-      <c r="AL84" s="32">
+      <c r="AI84" s="23"/>
+      <c r="AJ84" s="23"/>
+      <c r="AK84" s="23"/>
+      <c r="AL84" s="22">
         <v>2009</v>
       </c>
-      <c r="AM84" s="33"/>
-      <c r="AN84" s="33"/>
-      <c r="AO84" s="33"/>
-      <c r="AP84" s="32">
+      <c r="AM84" s="23"/>
+      <c r="AN84" s="23"/>
+      <c r="AO84" s="23"/>
+      <c r="AP84" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="33"/>
-      <c r="AR84" s="33"/>
-      <c r="AS84" s="33"/>
-      <c r="AT84" s="32">
+      <c r="AQ84" s="23"/>
+      <c r="AR84" s="23"/>
+      <c r="AS84" s="23"/>
+      <c r="AT84" s="22">
         <v>2011</v>
       </c>
-      <c r="AU84" s="33"/>
-      <c r="AV84" s="33"/>
-      <c r="AW84" s="33"/>
-      <c r="AX84" s="32">
+      <c r="AU84" s="23"/>
+      <c r="AV84" s="23"/>
+      <c r="AW84" s="23"/>
+      <c r="AX84" s="22">
         <v>2012</v>
       </c>
-      <c r="AY84" s="33"/>
-      <c r="AZ84" s="33"/>
-      <c r="BA84" s="33"/>
-      <c r="BB84" s="32">
+      <c r="AY84" s="23"/>
+      <c r="AZ84" s="23"/>
+      <c r="BA84" s="23"/>
+      <c r="BB84" s="22">
         <v>2013</v>
       </c>
-      <c r="BC84" s="33"/>
-      <c r="BD84" s="33"/>
-      <c r="BE84" s="33"/>
-      <c r="BF84" s="32">
+      <c r="BC84" s="23"/>
+      <c r="BD84" s="23"/>
+      <c r="BE84" s="23"/>
+      <c r="BF84" s="22">
         <v>2014</v>
       </c>
-      <c r="BG84" s="33"/>
-      <c r="BH84" s="33"/>
-      <c r="BI84" s="33"/>
-      <c r="BJ84" s="32">
+      <c r="BG84" s="23"/>
+      <c r="BH84" s="23"/>
+      <c r="BI84" s="23"/>
+      <c r="BJ84" s="22">
         <v>2015</v>
       </c>
-      <c r="BK84" s="33"/>
-      <c r="BL84" s="33"/>
-      <c r="BM84" s="33"/>
-      <c r="BN84" s="32">
+      <c r="BK84" s="23"/>
+      <c r="BL84" s="23"/>
+      <c r="BM84" s="23"/>
+      <c r="BN84" s="22">
         <v>2016</v>
       </c>
-      <c r="BO84" s="33"/>
-      <c r="BP84" s="33"/>
-      <c r="BQ84" s="33"/>
-      <c r="BR84" s="32">
+      <c r="BO84" s="23"/>
+      <c r="BP84" s="23"/>
+      <c r="BQ84" s="23"/>
+      <c r="BR84" s="22">
         <v>2017</v>
       </c>
-      <c r="BS84" s="33"/>
-      <c r="BT84" s="33"/>
-      <c r="BU84" s="33"/>
-      <c r="BV84" s="32">
+      <c r="BS84" s="23"/>
+      <c r="BT84" s="23"/>
+      <c r="BU84" s="23"/>
+      <c r="BV84" s="22">
         <v>2018</v>
       </c>
-      <c r="BW84" s="33"/>
-      <c r="BX84" s="33"/>
-      <c r="BY84" s="33"/>
-      <c r="BZ84" s="32">
+      <c r="BW84" s="23"/>
+      <c r="BX84" s="23"/>
+      <c r="BY84" s="23"/>
+      <c r="BZ84" s="22">
         <v>2019</v>
       </c>
-      <c r="CA84" s="33"/>
-      <c r="CB84" s="33"/>
-      <c r="CC84" s="33"/>
-      <c r="CD84" s="32">
+      <c r="CA84" s="23"/>
+      <c r="CB84" s="23"/>
+      <c r="CC84" s="23"/>
+      <c r="CD84" s="22">
         <v>2020</v>
       </c>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="32"/>
+      <c r="CE84" s="22"/>
+      <c r="CF84" s="22"/>
+      <c r="CG84" s="22"/>
       <c r="CH84" s="20">
         <v>2021</v>
       </c>
@@ -33290,15 +33318,16 @@
       <c r="CM84" s="20"/>
       <c r="CN84" s="20"/>
       <c r="CO84" s="20"/>
-      <c r="CP84" s="23">
+      <c r="CP84" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="23"/>
-      <c r="CR84" s="23"/>
-      <c r="CS84" s="23"/>
-      <c r="CT84" s="23">
+      <c r="CQ84" s="20"/>
+      <c r="CR84" s="20"/>
+      <c r="CS84" s="20"/>
+      <c r="CT84" s="20">
         <v>2024</v>
       </c>
+      <c r="CU84" s="20"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33580,20 +33609,23 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="24" t="s">
+      <c r="CP85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="24" t="s">
+      <c r="CQ85" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="24" t="s">
+      <c r="CR85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="24" t="s">
+      <c r="CS85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="24" t="s">
+      <c r="CT85" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU85" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33879,22 +33911,24 @@
       <c r="CO87" s="15">
         <v>112.23784641131908</v>
       </c>
-      <c r="CP87" s="31">
+      <c r="CP87" s="15">
         <v>118.29019221251602</v>
       </c>
-      <c r="CQ87" s="31">
+      <c r="CQ87" s="15">
         <v>116.76534973906369</v>
       </c>
-      <c r="CR87" s="31">
+      <c r="CR87" s="15">
         <v>113.99729105931354</v>
       </c>
-      <c r="CS87" s="31">
+      <c r="CS87" s="15">
         <v>116.12772686355987</v>
       </c>
-      <c r="CT87" s="31">
-        <v>121.70282669370087</v>
-      </c>
-      <c r="CU87" s="9"/>
+      <c r="CT87" s="15">
+        <v>121.7028266937009</v>
+      </c>
+      <c r="CU87" s="15">
+        <v>119.81637685038591</v>
+      </c>
       <c r="CV87" s="9"/>
       <c r="CW87" s="9"/>
       <c r="CX87" s="9"/>
@@ -34280,22 +34314,24 @@
       <c r="CO88" s="15">
         <v>126.06058661417181</v>
       </c>
-      <c r="CP88" s="31">
+      <c r="CP88" s="15">
         <v>133.71009129098371</v>
       </c>
-      <c r="CQ88" s="31">
+      <c r="CQ88" s="15">
         <v>129.57899590515777</v>
       </c>
-      <c r="CR88" s="31">
+      <c r="CR88" s="15">
         <v>127.40004773598</v>
       </c>
-      <c r="CS88" s="31">
+      <c r="CS88" s="15">
         <v>129.96624138173306</v>
       </c>
-      <c r="CT88" s="31">
-        <v>141.16659272487948</v>
-      </c>
-      <c r="CU88" s="9"/>
+      <c r="CT88" s="15">
+        <v>141.16744003790828</v>
+      </c>
+      <c r="CU88" s="15">
+        <v>136.45114604337547</v>
+      </c>
       <c r="CV88" s="9"/>
       <c r="CW88" s="9"/>
       <c r="CX88" s="9"/>
@@ -34494,11 +34530,11 @@
       <c r="CM89" s="9"/>
       <c r="CN89" s="9"/>
       <c r="CO89" s="9"/>
-      <c r="CP89" s="26"/>
-      <c r="CQ89" s="26"/>
-      <c r="CR89" s="26"/>
-      <c r="CS89" s="26"/>
-      <c r="CT89" s="26"/>
+      <c r="CP89" s="9"/>
+      <c r="CQ89" s="9"/>
+      <c r="CR89" s="9"/>
+      <c r="CS89" s="9"/>
+      <c r="CT89" s="9"/>
       <c r="CU89" s="9"/>
       <c r="CV89" s="9"/>
       <c r="CW89" s="9"/>
@@ -34885,22 +34921,24 @@
       <c r="CO90" s="15">
         <v>121.89822293394974</v>
       </c>
-      <c r="CP90" s="31">
+      <c r="CP90" s="15">
         <v>129.01423425324191</v>
       </c>
-      <c r="CQ90" s="31">
+      <c r="CQ90" s="15">
         <v>125.71288536140229</v>
       </c>
-      <c r="CR90" s="31">
+      <c r="CR90" s="15">
         <v>123.60736832377088</v>
       </c>
-      <c r="CS90" s="31">
+      <c r="CS90" s="15">
         <v>125.635138250271</v>
       </c>
-      <c r="CT90" s="31">
-        <v>135.00432499728745</v>
-      </c>
-      <c r="CU90" s="9"/>
+      <c r="CT90" s="15">
+        <v>135.08344952232122</v>
+      </c>
+      <c r="CU90" s="15">
+        <v>131.32214534011817</v>
+      </c>
       <c r="CV90" s="9"/>
       <c r="CW90" s="9"/>
       <c r="CX90" s="9"/>
@@ -35100,11 +35138,12 @@
       <c r="CM91" s="12"/>
       <c r="CN91" s="12"/>
       <c r="CO91" s="12"/>
-      <c r="CP91" s="28"/>
-      <c r="CQ91" s="28"/>
-      <c r="CR91" s="28"/>
-      <c r="CS91" s="28"/>
-      <c r="CT91" s="28"/>
+      <c r="CP91" s="12"/>
+      <c r="CQ91" s="12"/>
+      <c r="CR91" s="12"/>
+      <c r="CS91" s="12"/>
+      <c r="CT91" s="12"/>
+      <c r="CU91" s="12"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -35123,7 +35162,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -35133,7 +35172,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -35143,132 +35182,132 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="32">
+      <c r="B103" s="22">
         <v>2000</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="32">
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="22">
         <v>2001</v>
       </c>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="32">
+      <c r="G103" s="23"/>
+      <c r="H103" s="23"/>
+      <c r="I103" s="23"/>
+      <c r="J103" s="22">
         <v>2002</v>
       </c>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="32">
+      <c r="K103" s="23"/>
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="N103" s="22">
         <v>2003</v>
       </c>
-      <c r="O103" s="33"/>
-      <c r="P103" s="33"/>
-      <c r="Q103" s="33"/>
-      <c r="R103" s="32">
+      <c r="O103" s="23"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="22">
         <v>2004</v>
       </c>
-      <c r="S103" s="33"/>
-      <c r="T103" s="33"/>
-      <c r="U103" s="33"/>
-      <c r="V103" s="32">
+      <c r="S103" s="23"/>
+      <c r="T103" s="23"/>
+      <c r="U103" s="23"/>
+      <c r="V103" s="22">
         <v>2005</v>
       </c>
-      <c r="W103" s="33"/>
-      <c r="X103" s="33"/>
-      <c r="Y103" s="33"/>
-      <c r="Z103" s="32">
+      <c r="W103" s="23"/>
+      <c r="X103" s="23"/>
+      <c r="Y103" s="23"/>
+      <c r="Z103" s="22">
         <v>2006</v>
       </c>
-      <c r="AA103" s="33"/>
-      <c r="AB103" s="33"/>
-      <c r="AC103" s="33"/>
-      <c r="AD103" s="32">
+      <c r="AA103" s="23"/>
+      <c r="AB103" s="23"/>
+      <c r="AC103" s="23"/>
+      <c r="AD103" s="22">
         <v>2007</v>
       </c>
-      <c r="AE103" s="33"/>
-      <c r="AF103" s="33"/>
-      <c r="AG103" s="33"/>
-      <c r="AH103" s="32">
+      <c r="AE103" s="23"/>
+      <c r="AF103" s="23"/>
+      <c r="AG103" s="23"/>
+      <c r="AH103" s="22">
         <v>2008</v>
       </c>
-      <c r="AI103" s="33"/>
-      <c r="AJ103" s="33"/>
-      <c r="AK103" s="33"/>
-      <c r="AL103" s="32">
+      <c r="AI103" s="23"/>
+      <c r="AJ103" s="23"/>
+      <c r="AK103" s="23"/>
+      <c r="AL103" s="22">
         <v>2009</v>
       </c>
-      <c r="AM103" s="33"/>
-      <c r="AN103" s="33"/>
-      <c r="AO103" s="33"/>
-      <c r="AP103" s="32">
+      <c r="AM103" s="23"/>
+      <c r="AN103" s="23"/>
+      <c r="AO103" s="23"/>
+      <c r="AP103" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="33"/>
-      <c r="AR103" s="33"/>
-      <c r="AS103" s="33"/>
-      <c r="AT103" s="32">
+      <c r="AQ103" s="23"/>
+      <c r="AR103" s="23"/>
+      <c r="AS103" s="23"/>
+      <c r="AT103" s="22">
         <v>2011</v>
       </c>
-      <c r="AU103" s="33"/>
-      <c r="AV103" s="33"/>
-      <c r="AW103" s="33"/>
-      <c r="AX103" s="32">
+      <c r="AU103" s="23"/>
+      <c r="AV103" s="23"/>
+      <c r="AW103" s="23"/>
+      <c r="AX103" s="22">
         <v>2012</v>
       </c>
-      <c r="AY103" s="33"/>
-      <c r="AZ103" s="33"/>
-      <c r="BA103" s="33"/>
-      <c r="BB103" s="32">
+      <c r="AY103" s="23"/>
+      <c r="AZ103" s="23"/>
+      <c r="BA103" s="23"/>
+      <c r="BB103" s="22">
         <v>2013</v>
       </c>
-      <c r="BC103" s="33"/>
-      <c r="BD103" s="33"/>
-      <c r="BE103" s="33"/>
-      <c r="BF103" s="32">
+      <c r="BC103" s="23"/>
+      <c r="BD103" s="23"/>
+      <c r="BE103" s="23"/>
+      <c r="BF103" s="22">
         <v>2014</v>
       </c>
-      <c r="BG103" s="33"/>
-      <c r="BH103" s="33"/>
-      <c r="BI103" s="33"/>
-      <c r="BJ103" s="32">
+      <c r="BG103" s="23"/>
+      <c r="BH103" s="23"/>
+      <c r="BI103" s="23"/>
+      <c r="BJ103" s="22">
         <v>2015</v>
       </c>
-      <c r="BK103" s="33"/>
-      <c r="BL103" s="33"/>
-      <c r="BM103" s="33"/>
-      <c r="BN103" s="32">
+      <c r="BK103" s="23"/>
+      <c r="BL103" s="23"/>
+      <c r="BM103" s="23"/>
+      <c r="BN103" s="22">
         <v>2016</v>
       </c>
-      <c r="BO103" s="33"/>
-      <c r="BP103" s="33"/>
-      <c r="BQ103" s="33"/>
-      <c r="BR103" s="32">
+      <c r="BO103" s="23"/>
+      <c r="BP103" s="23"/>
+      <c r="BQ103" s="23"/>
+      <c r="BR103" s="22">
         <v>2017</v>
       </c>
-      <c r="BS103" s="33"/>
-      <c r="BT103" s="33"/>
-      <c r="BU103" s="33"/>
-      <c r="BV103" s="32">
+      <c r="BS103" s="23"/>
+      <c r="BT103" s="23"/>
+      <c r="BU103" s="23"/>
+      <c r="BV103" s="22">
         <v>2018</v>
       </c>
-      <c r="BW103" s="33"/>
-      <c r="BX103" s="33"/>
-      <c r="BY103" s="33"/>
-      <c r="BZ103" s="32">
+      <c r="BW103" s="23"/>
+      <c r="BX103" s="23"/>
+      <c r="BY103" s="23"/>
+      <c r="BZ103" s="22">
         <v>2019</v>
       </c>
-      <c r="CA103" s="33"/>
-      <c r="CB103" s="33"/>
-      <c r="CC103" s="33"/>
-      <c r="CD103" s="32">
+      <c r="CA103" s="23"/>
+      <c r="CB103" s="23"/>
+      <c r="CC103" s="23"/>
+      <c r="CD103" s="22">
         <v>2020</v>
       </c>
-      <c r="CE103" s="32"/>
-      <c r="CF103" s="32"/>
-      <c r="CG103" s="32"/>
+      <c r="CE103" s="22"/>
+      <c r="CF103" s="22"/>
+      <c r="CG103" s="22"/>
       <c r="CH103" s="20">
         <v>2021</v>
       </c>
@@ -35281,15 +35320,16 @@
       <c r="CM103" s="20"/>
       <c r="CN103" s="20"/>
       <c r="CO103" s="20"/>
-      <c r="CP103" s="23">
+      <c r="CP103" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="23"/>
-      <c r="CR103" s="23"/>
-      <c r="CS103" s="23"/>
-      <c r="CT103" s="23">
+      <c r="CQ103" s="20"/>
+      <c r="CR103" s="20"/>
+      <c r="CS103" s="20"/>
+      <c r="CT103" s="20">
         <v>2024</v>
       </c>
+      <c r="CU103" s="20"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35571,20 +35611,23 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="24" t="s">
+      <c r="CP104" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="24" t="s">
+      <c r="CQ104" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="24" t="s">
+      <c r="CR104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="24" t="s">
+      <c r="CS104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="24" t="s">
+      <c r="CT104" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU104" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35870,22 +35913,24 @@
       <c r="CO106" s="15">
         <v>27.726038908902634</v>
       </c>
-      <c r="CP106" s="31">
+      <c r="CP106" s="15">
         <v>27.921866336741303</v>
       </c>
-      <c r="CQ106" s="31">
+      <c r="CQ106" s="15">
         <v>28.024361751336436</v>
       </c>
-      <c r="CR106" s="31">
+      <c r="CR106" s="15">
         <v>26.097696252306722</v>
       </c>
-      <c r="CS106" s="31">
+      <c r="CS106" s="15">
         <v>28.929028846736273</v>
       </c>
-      <c r="CT106" s="31">
-        <v>28.540834751151252</v>
-      </c>
-      <c r="CU106" s="9"/>
+      <c r="CT106" s="15">
+        <v>28.160558921217998</v>
+      </c>
+      <c r="CU106" s="15">
+        <v>28.131584413649829</v>
+      </c>
       <c r="CV106" s="9"/>
       <c r="CW106" s="9"/>
       <c r="CX106" s="9"/>
@@ -36271,22 +36316,24 @@
       <c r="CO107" s="15">
         <v>72.273961091097377</v>
       </c>
-      <c r="CP107" s="31">
+      <c r="CP107" s="15">
         <v>72.078133663258697</v>
       </c>
-      <c r="CQ107" s="31">
+      <c r="CQ107" s="15">
         <v>71.975638248663572</v>
       </c>
-      <c r="CR107" s="31">
+      <c r="CR107" s="15">
         <v>73.902303747693281</v>
       </c>
-      <c r="CS107" s="31">
+      <c r="CS107" s="15">
         <v>71.070971153263727</v>
       </c>
-      <c r="CT107" s="31">
-        <v>71.459165248848748</v>
-      </c>
-      <c r="CU107" s="9"/>
+      <c r="CT107" s="15">
+        <v>71.839441078782002</v>
+      </c>
+      <c r="CU107" s="15">
+        <v>71.868415586350167</v>
+      </c>
       <c r="CV107" s="9"/>
       <c r="CW107" s="9"/>
       <c r="CX107" s="9"/>
@@ -36485,11 +36532,11 @@
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
-      <c r="CP108" s="26"/>
-      <c r="CQ108" s="26"/>
-      <c r="CR108" s="26"/>
-      <c r="CS108" s="26"/>
-      <c r="CT108" s="26"/>
+      <c r="CP108" s="9"/>
+      <c r="CQ108" s="9"/>
+      <c r="CR108" s="9"/>
+      <c r="CS108" s="9"/>
+      <c r="CT108" s="9"/>
       <c r="CU108" s="9"/>
       <c r="CV108" s="9"/>
       <c r="CW108" s="9"/>
@@ -36876,22 +36923,24 @@
       <c r="CO109" s="15">
         <v>100</v>
       </c>
-      <c r="CP109" s="31">
+      <c r="CP109" s="15">
         <v>100</v>
       </c>
-      <c r="CQ109" s="31">
+      <c r="CQ109" s="15">
         <v>100</v>
       </c>
-      <c r="CR109" s="31">
+      <c r="CR109" s="15">
         <v>100</v>
       </c>
-      <c r="CS109" s="31">
+      <c r="CS109" s="15">
         <v>100</v>
       </c>
-      <c r="CT109" s="31">
+      <c r="CT109" s="15">
         <v>100</v>
       </c>
-      <c r="CU109" s="9"/>
+      <c r="CU109" s="15">
+        <v>100</v>
+      </c>
       <c r="CV109" s="9"/>
       <c r="CW109" s="9"/>
       <c r="CX109" s="9"/>
@@ -37091,11 +37140,12 @@
       <c r="CM110" s="12"/>
       <c r="CN110" s="12"/>
       <c r="CO110" s="12"/>
-      <c r="CP110" s="28"/>
-      <c r="CQ110" s="28"/>
-      <c r="CR110" s="28"/>
-      <c r="CS110" s="28"/>
-      <c r="CT110" s="28"/>
+      <c r="CP110" s="12"/>
+      <c r="CQ110" s="12"/>
+      <c r="CR110" s="12"/>
+      <c r="CS110" s="12"/>
+      <c r="CT110" s="12"/>
+      <c r="CU110" s="12"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37195,11 +37245,11 @@
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
       <c r="CO112" s="9"/>
-      <c r="CP112" s="26"/>
-      <c r="CQ112" s="26"/>
-      <c r="CR112" s="26"/>
-      <c r="CS112" s="26"/>
-      <c r="CT112" s="26"/>
+      <c r="CP112" s="9"/>
+      <c r="CQ112" s="9"/>
+      <c r="CR112" s="9"/>
+      <c r="CS112" s="9"/>
+      <c r="CT112" s="9"/>
       <c r="CU112" s="9"/>
       <c r="CV112" s="9"/>
       <c r="CW112" s="9"/>
@@ -37399,11 +37449,11 @@
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
-      <c r="CP113" s="26"/>
-      <c r="CQ113" s="26"/>
-      <c r="CR113" s="26"/>
-      <c r="CS113" s="26"/>
-      <c r="CT113" s="26"/>
+      <c r="CP113" s="9"/>
+      <c r="CQ113" s="9"/>
+      <c r="CR113" s="9"/>
+      <c r="CS113" s="9"/>
+      <c r="CT113" s="9"/>
       <c r="CU113" s="9"/>
       <c r="CV113" s="9"/>
       <c r="CW113" s="9"/>
@@ -37522,7 +37572,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37532,7 +37582,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37542,132 +37592,132 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="32">
+      <c r="B122" s="22">
         <v>2000</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="32">
+      <c r="C122" s="23"/>
+      <c r="D122" s="23"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="22">
         <v>2001</v>
       </c>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="32">
+      <c r="G122" s="23"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="23"/>
+      <c r="J122" s="22">
         <v>2002</v>
       </c>
-      <c r="K122" s="33"/>
-      <c r="L122" s="33"/>
-      <c r="M122" s="33"/>
-      <c r="N122" s="32">
+      <c r="K122" s="23"/>
+      <c r="L122" s="23"/>
+      <c r="M122" s="23"/>
+      <c r="N122" s="22">
         <v>2003</v>
       </c>
-      <c r="O122" s="33"/>
-      <c r="P122" s="33"/>
-      <c r="Q122" s="33"/>
-      <c r="R122" s="32">
+      <c r="O122" s="23"/>
+      <c r="P122" s="23"/>
+      <c r="Q122" s="23"/>
+      <c r="R122" s="22">
         <v>2004</v>
       </c>
-      <c r="S122" s="33"/>
-      <c r="T122" s="33"/>
-      <c r="U122" s="33"/>
-      <c r="V122" s="32">
+      <c r="S122" s="23"/>
+      <c r="T122" s="23"/>
+      <c r="U122" s="23"/>
+      <c r="V122" s="22">
         <v>2005</v>
       </c>
-      <c r="W122" s="33"/>
-      <c r="X122" s="33"/>
-      <c r="Y122" s="33"/>
-      <c r="Z122" s="32">
+      <c r="W122" s="23"/>
+      <c r="X122" s="23"/>
+      <c r="Y122" s="23"/>
+      <c r="Z122" s="22">
         <v>2006</v>
       </c>
-      <c r="AA122" s="33"/>
-      <c r="AB122" s="33"/>
-      <c r="AC122" s="33"/>
-      <c r="AD122" s="32">
+      <c r="AA122" s="23"/>
+      <c r="AB122" s="23"/>
+      <c r="AC122" s="23"/>
+      <c r="AD122" s="22">
         <v>2007</v>
       </c>
-      <c r="AE122" s="33"/>
-      <c r="AF122" s="33"/>
-      <c r="AG122" s="33"/>
-      <c r="AH122" s="32">
+      <c r="AE122" s="23"/>
+      <c r="AF122" s="23"/>
+      <c r="AG122" s="23"/>
+      <c r="AH122" s="22">
         <v>2008</v>
       </c>
-      <c r="AI122" s="33"/>
-      <c r="AJ122" s="33"/>
-      <c r="AK122" s="33"/>
-      <c r="AL122" s="32">
+      <c r="AI122" s="23"/>
+      <c r="AJ122" s="23"/>
+      <c r="AK122" s="23"/>
+      <c r="AL122" s="22">
         <v>2009</v>
       </c>
-      <c r="AM122" s="33"/>
-      <c r="AN122" s="33"/>
-      <c r="AO122" s="33"/>
-      <c r="AP122" s="32">
+      <c r="AM122" s="23"/>
+      <c r="AN122" s="23"/>
+      <c r="AO122" s="23"/>
+      <c r="AP122" s="22">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="33"/>
-      <c r="AR122" s="33"/>
-      <c r="AS122" s="33"/>
-      <c r="AT122" s="32">
+      <c r="AQ122" s="23"/>
+      <c r="AR122" s="23"/>
+      <c r="AS122" s="23"/>
+      <c r="AT122" s="22">
         <v>2011</v>
       </c>
-      <c r="AU122" s="33"/>
-      <c r="AV122" s="33"/>
-      <c r="AW122" s="33"/>
-      <c r="AX122" s="32">
+      <c r="AU122" s="23"/>
+      <c r="AV122" s="23"/>
+      <c r="AW122" s="23"/>
+      <c r="AX122" s="22">
         <v>2012</v>
       </c>
-      <c r="AY122" s="33"/>
-      <c r="AZ122" s="33"/>
-      <c r="BA122" s="33"/>
-      <c r="BB122" s="32">
+      <c r="AY122" s="23"/>
+      <c r="AZ122" s="23"/>
+      <c r="BA122" s="23"/>
+      <c r="BB122" s="22">
         <v>2013</v>
       </c>
-      <c r="BC122" s="33"/>
-      <c r="BD122" s="33"/>
-      <c r="BE122" s="33"/>
-      <c r="BF122" s="32">
+      <c r="BC122" s="23"/>
+      <c r="BD122" s="23"/>
+      <c r="BE122" s="23"/>
+      <c r="BF122" s="22">
         <v>2014</v>
       </c>
-      <c r="BG122" s="33"/>
-      <c r="BH122" s="33"/>
-      <c r="BI122" s="33"/>
-      <c r="BJ122" s="32">
+      <c r="BG122" s="23"/>
+      <c r="BH122" s="23"/>
+      <c r="BI122" s="23"/>
+      <c r="BJ122" s="22">
         <v>2015</v>
       </c>
-      <c r="BK122" s="33"/>
-      <c r="BL122" s="33"/>
-      <c r="BM122" s="33"/>
-      <c r="BN122" s="32">
+      <c r="BK122" s="23"/>
+      <c r="BL122" s="23"/>
+      <c r="BM122" s="23"/>
+      <c r="BN122" s="22">
         <v>2016</v>
       </c>
-      <c r="BO122" s="33"/>
-      <c r="BP122" s="33"/>
-      <c r="BQ122" s="33"/>
-      <c r="BR122" s="32">
+      <c r="BO122" s="23"/>
+      <c r="BP122" s="23"/>
+      <c r="BQ122" s="23"/>
+      <c r="BR122" s="22">
         <v>2017</v>
       </c>
-      <c r="BS122" s="33"/>
-      <c r="BT122" s="33"/>
-      <c r="BU122" s="33"/>
-      <c r="BV122" s="32">
+      <c r="BS122" s="23"/>
+      <c r="BT122" s="23"/>
+      <c r="BU122" s="23"/>
+      <c r="BV122" s="22">
         <v>2018</v>
       </c>
-      <c r="BW122" s="33"/>
-      <c r="BX122" s="33"/>
-      <c r="BY122" s="33"/>
-      <c r="BZ122" s="32">
+      <c r="BW122" s="23"/>
+      <c r="BX122" s="23"/>
+      <c r="BY122" s="23"/>
+      <c r="BZ122" s="22">
         <v>2019</v>
       </c>
-      <c r="CA122" s="33"/>
-      <c r="CB122" s="33"/>
-      <c r="CC122" s="33"/>
-      <c r="CD122" s="32">
+      <c r="CA122" s="23"/>
+      <c r="CB122" s="23"/>
+      <c r="CC122" s="23"/>
+      <c r="CD122" s="22">
         <v>2020</v>
       </c>
-      <c r="CE122" s="32"/>
-      <c r="CF122" s="32"/>
-      <c r="CG122" s="32"/>
+      <c r="CE122" s="22"/>
+      <c r="CF122" s="22"/>
+      <c r="CG122" s="22"/>
       <c r="CH122" s="20">
         <v>2021</v>
       </c>
@@ -37680,15 +37730,16 @@
       <c r="CM122" s="20"/>
       <c r="CN122" s="20"/>
       <c r="CO122" s="20"/>
-      <c r="CP122" s="23">
+      <c r="CP122" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="23"/>
-      <c r="CR122" s="23"/>
-      <c r="CS122" s="23"/>
-      <c r="CT122" s="23">
+      <c r="CQ122" s="20"/>
+      <c r="CR122" s="20"/>
+      <c r="CS122" s="20"/>
+      <c r="CT122" s="20">
         <v>2024</v>
       </c>
+      <c r="CU122" s="20"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -37970,20 +38021,23 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="24" t="s">
+      <c r="CP123" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="24" t="s">
+      <c r="CQ123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="24" t="s">
+      <c r="CR123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="24" t="s">
+      <c r="CS123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="24" t="s">
+      <c r="CT123" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU123" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38269,22 +38323,24 @@
       <c r="CO125" s="15">
         <v>30.112435154956184</v>
       </c>
-      <c r="CP125" s="31">
+      <c r="CP125" s="15">
         <v>30.453228090831502</v>
       </c>
-      <c r="CQ125" s="31">
+      <c r="CQ125" s="15">
         <v>30.171822240460443</v>
       </c>
-      <c r="CR125" s="31">
+      <c r="CR125" s="15">
         <v>28.297756228104866</v>
       </c>
-      <c r="CS125" s="31">
+      <c r="CS125" s="15">
         <v>31.297457005044262</v>
       </c>
-      <c r="CT125" s="31">
-        <v>31.660202438319622</v>
-      </c>
-      <c r="CU125" s="9"/>
+      <c r="CT125" s="15">
+        <v>31.256672855500682</v>
+      </c>
+      <c r="CU125" s="15">
+        <v>30.833013934565717</v>
+      </c>
       <c r="CV125" s="9"/>
       <c r="CW125" s="9"/>
       <c r="CX125" s="9"/>
@@ -38670,22 +38726,24 @@
       <c r="CO126" s="15">
         <v>69.887564845043826</v>
       </c>
-      <c r="CP126" s="31">
+      <c r="CP126" s="15">
         <v>69.546771909168498</v>
       </c>
-      <c r="CQ126" s="31">
+      <c r="CQ126" s="15">
         <v>69.828177759539557</v>
       </c>
-      <c r="CR126" s="31">
+      <c r="CR126" s="15">
         <v>71.702243771895141</v>
       </c>
-      <c r="CS126" s="31">
+      <c r="CS126" s="15">
         <v>68.702542994955735</v>
       </c>
-      <c r="CT126" s="31">
-        <v>68.339797561680385</v>
-      </c>
-      <c r="CU126" s="9"/>
+      <c r="CT126" s="15">
+        <v>68.743327144499318</v>
+      </c>
+      <c r="CU126" s="15">
+        <v>69.166986065434287</v>
+      </c>
       <c r="CV126" s="9"/>
       <c r="CW126" s="9"/>
       <c r="CX126" s="9"/>
@@ -38884,11 +38942,11 @@
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
       <c r="CO127" s="9"/>
-      <c r="CP127" s="26"/>
-      <c r="CQ127" s="26"/>
-      <c r="CR127" s="26"/>
-      <c r="CS127" s="26"/>
-      <c r="CT127" s="26"/>
+      <c r="CP127" s="9"/>
+      <c r="CQ127" s="9"/>
+      <c r="CR127" s="9"/>
+      <c r="CS127" s="9"/>
+      <c r="CT127" s="9"/>
       <c r="CU127" s="9"/>
       <c r="CV127" s="9"/>
       <c r="CW127" s="9"/>
@@ -39275,22 +39333,24 @@
       <c r="CO128" s="15">
         <v>100</v>
       </c>
-      <c r="CP128" s="31">
+      <c r="CP128" s="15">
         <v>100</v>
       </c>
-      <c r="CQ128" s="31">
+      <c r="CQ128" s="15">
         <v>100</v>
       </c>
-      <c r="CR128" s="31">
+      <c r="CR128" s="15">
         <v>100</v>
       </c>
-      <c r="CS128" s="31">
+      <c r="CS128" s="15">
         <v>100</v>
       </c>
-      <c r="CT128" s="31">
+      <c r="CT128" s="15">
         <v>100</v>
       </c>
-      <c r="CU128" s="9"/>
+      <c r="CU128" s="15">
+        <v>100</v>
+      </c>
       <c r="CV128" s="9"/>
       <c r="CW128" s="9"/>
       <c r="CX128" s="9"/>
@@ -39490,11 +39550,12 @@
       <c r="CM129" s="12"/>
       <c r="CN129" s="12"/>
       <c r="CO129" s="12"/>
-      <c r="CP129" s="28"/>
-      <c r="CQ129" s="28"/>
-      <c r="CR129" s="28"/>
-      <c r="CS129" s="28"/>
-      <c r="CT129" s="28"/>
+      <c r="CP129" s="12"/>
+      <c r="CQ129" s="12"/>
+      <c r="CR129" s="12"/>
+      <c r="CS129" s="12"/>
+      <c r="CT129" s="12"/>
+      <c r="CU129" s="12"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39595,12 +39656,12 @@
       <c r="CM131" s="1"/>
       <c r="CN131" s="1"/>
       <c r="CO131" s="1"/>
-      <c r="CP131" s="22"/>
-      <c r="CQ131" s="22"/>
-      <c r="CR131" s="22"/>
-      <c r="CS131" s="22"/>
-      <c r="CT131" s="22"/>
-      <c r="CU131" s="16"/>
+      <c r="CP131" s="1"/>
+      <c r="CQ131" s="1"/>
+      <c r="CR131" s="1"/>
+      <c r="CS131" s="1"/>
+      <c r="CT131" s="1"/>
+      <c r="CU131" s="1"/>
       <c r="CV131" s="16"/>
       <c r="CW131" s="16"/>
       <c r="CX131" s="16"/>
@@ -39800,12 +39861,12 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
       <c r="CO132" s="1"/>
-      <c r="CP132" s="22"/>
-      <c r="CQ132" s="22"/>
-      <c r="CR132" s="22"/>
-      <c r="CS132" s="22"/>
-      <c r="CT132" s="22"/>
-      <c r="CU132" s="16"/>
+      <c r="CP132" s="1"/>
+      <c r="CQ132" s="1"/>
+      <c r="CR132" s="1"/>
+      <c r="CS132" s="1"/>
+      <c r="CT132" s="1"/>
+      <c r="CU132" s="1"/>
       <c r="CV132" s="16"/>
       <c r="CW132" s="16"/>
       <c r="CX132" s="16"/>
@@ -39913,32 +39974,103 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -39963,112 +40095,41 @@
     <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="97" man="1"/>
-    <brk id="76" max="97" man="1"/>
-    <brk id="94" max="97" man="1"/>
+    <brk id="38" max="98" man="1"/>
+    <brk id="76" max="98" man="1"/>
+    <brk id="94" max="98" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DDB04-C067-405D-B968-8F2BD5939D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587350D1-07B0-437F-BE46-7E30A94D2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CU$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CV$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -620,13 +620,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,9 +747,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23607,17 +23623,17 @@
   <dimension ref="A1:GU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CP1" sqref="CP1:CU1048576"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
     <col min="2" max="93" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="99" width="9.6640625" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="100" width="10.109375" style="22" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23652,132 +23668,132 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="22">
+      <c r="B9" s="32">
         <v>2000</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32">
         <v>2001</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22">
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32">
         <v>2002</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22">
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32">
         <v>2003</v>
       </c>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22">
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="32">
         <v>2004</v>
       </c>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22">
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="32"/>
+      <c r="V9" s="32">
         <v>2005</v>
       </c>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22">
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32">
         <v>2006</v>
       </c>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22">
+      <c r="AA9" s="32"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="32"/>
+      <c r="AD9" s="32">
         <v>2007</v>
       </c>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22">
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32">
         <v>2008</v>
       </c>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22">
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="32"/>
+      <c r="AK9" s="32"/>
+      <c r="AL9" s="32">
         <v>2009</v>
       </c>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22">
+      <c r="AM9" s="32"/>
+      <c r="AN9" s="32"/>
+      <c r="AO9" s="32"/>
+      <c r="AP9" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22">
+      <c r="AQ9" s="32"/>
+      <c r="AR9" s="32"/>
+      <c r="AS9" s="32"/>
+      <c r="AT9" s="32">
         <v>2011</v>
       </c>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="22">
+      <c r="AU9" s="32"/>
+      <c r="AV9" s="32"/>
+      <c r="AW9" s="32"/>
+      <c r="AX9" s="32">
         <v>2012</v>
       </c>
-      <c r="AY9" s="22"/>
-      <c r="AZ9" s="22"/>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22">
+      <c r="AY9" s="32"/>
+      <c r="AZ9" s="32"/>
+      <c r="BA9" s="32"/>
+      <c r="BB9" s="32">
         <v>2013</v>
       </c>
-      <c r="BC9" s="22"/>
-      <c r="BD9" s="22"/>
-      <c r="BE9" s="22"/>
-      <c r="BF9" s="22">
+      <c r="BC9" s="32"/>
+      <c r="BD9" s="32"/>
+      <c r="BE9" s="32"/>
+      <c r="BF9" s="32">
         <v>2014</v>
       </c>
-      <c r="BG9" s="22"/>
-      <c r="BH9" s="22"/>
-      <c r="BI9" s="22"/>
-      <c r="BJ9" s="22">
+      <c r="BG9" s="32"/>
+      <c r="BH9" s="32"/>
+      <c r="BI9" s="32"/>
+      <c r="BJ9" s="32">
         <v>2015</v>
       </c>
-      <c r="BK9" s="22"/>
-      <c r="BL9" s="22"/>
-      <c r="BM9" s="22"/>
-      <c r="BN9" s="22">
+      <c r="BK9" s="32"/>
+      <c r="BL9" s="32"/>
+      <c r="BM9" s="32"/>
+      <c r="BN9" s="32">
         <v>2016</v>
       </c>
-      <c r="BO9" s="22"/>
-      <c r="BP9" s="22"/>
-      <c r="BQ9" s="22"/>
-      <c r="BR9" s="22">
+      <c r="BO9" s="32"/>
+      <c r="BP9" s="32"/>
+      <c r="BQ9" s="32"/>
+      <c r="BR9" s="32">
         <v>2017</v>
       </c>
-      <c r="BS9" s="22"/>
-      <c r="BT9" s="22"/>
-      <c r="BU9" s="22"/>
-      <c r="BV9" s="22">
+      <c r="BS9" s="32"/>
+      <c r="BT9" s="32"/>
+      <c r="BU9" s="32"/>
+      <c r="BV9" s="32">
         <v>2018</v>
       </c>
-      <c r="BW9" s="22"/>
-      <c r="BX9" s="22"/>
-      <c r="BY9" s="22"/>
-      <c r="BZ9" s="22">
+      <c r="BW9" s="32"/>
+      <c r="BX9" s="32"/>
+      <c r="BY9" s="32"/>
+      <c r="BZ9" s="32">
         <v>2019</v>
       </c>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="22">
+      <c r="CA9" s="32"/>
+      <c r="CB9" s="32"/>
+      <c r="CC9" s="32"/>
+      <c r="CD9" s="32">
         <v>2020</v>
       </c>
-      <c r="CE9" s="22"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
+      <c r="CE9" s="32"/>
+      <c r="CF9" s="32"/>
+      <c r="CG9" s="32"/>
       <c r="CH9" s="20">
         <v>2021</v>
       </c>
@@ -23790,16 +23806,17 @@
       <c r="CM9" s="20"/>
       <c r="CN9" s="20"/>
       <c r="CO9" s="20"/>
-      <c r="CP9" s="20">
+      <c r="CP9" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="20"/>
-      <c r="CR9" s="20"/>
-      <c r="CS9" s="20"/>
-      <c r="CT9" s="20">
+      <c r="CQ9" s="23"/>
+      <c r="CR9" s="23"/>
+      <c r="CS9" s="23"/>
+      <c r="CT9" s="23">
         <v>2024</v>
       </c>
-      <c r="CU9" s="20"/>
+      <c r="CU9" s="23"/>
+      <c r="CV9" s="23"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24081,23 +24098,26 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24383,25 +24403,27 @@
       <c r="CO12" s="18">
         <v>34154.257299079633</v>
       </c>
-      <c r="CP12" s="18">
+      <c r="CP12" s="25">
         <v>38702.069267098159</v>
       </c>
-      <c r="CQ12" s="18">
+      <c r="CQ12" s="25">
         <v>29935.0457887968</v>
       </c>
-      <c r="CR12" s="18">
+      <c r="CR12" s="25">
         <v>30204.088942300223</v>
       </c>
-      <c r="CS12" s="18">
+      <c r="CS12" s="25">
         <v>43389.068621789513</v>
       </c>
-      <c r="CT12" s="18">
+      <c r="CT12" s="25">
         <v>46239.352016217403</v>
       </c>
-      <c r="CU12" s="18">
-        <v>34670.384831882926</v>
-      </c>
-      <c r="CV12" s="9"/>
+      <c r="CU12" s="25">
+        <v>35354.678662058337</v>
+      </c>
+      <c r="CV12" s="25">
+        <v>35407.212338076155</v>
+      </c>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
@@ -24786,25 +24808,27 @@
       <c r="CO13" s="18">
         <v>89030.512841717311</v>
       </c>
-      <c r="CP13" s="18">
+      <c r="CP13" s="25">
         <v>99906.391930825455</v>
       </c>
-      <c r="CQ13" s="18">
+      <c r="CQ13" s="25">
         <v>76882.893739725201</v>
       </c>
-      <c r="CR13" s="18">
+      <c r="CR13" s="25">
         <v>85530.605224931263</v>
       </c>
-      <c r="CS13" s="18">
+      <c r="CS13" s="25">
         <v>106595.4637026843</v>
       </c>
-      <c r="CT13" s="18">
+      <c r="CT13" s="25">
         <v>117959.63332912553</v>
       </c>
-      <c r="CU13" s="18">
-        <v>88573.241698659665</v>
-      </c>
-      <c r="CV13" s="9"/>
+      <c r="CU13" s="25">
+        <v>89661.070534502855</v>
+      </c>
+      <c r="CV13" s="25">
+        <v>97618.612699451827</v>
+      </c>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
@@ -25002,13 +25026,13 @@
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
-      <c r="CP14" s="9"/>
-      <c r="CQ14" s="9"/>
-      <c r="CR14" s="9"/>
-      <c r="CS14" s="9"/>
-      <c r="CT14" s="9"/>
-      <c r="CU14" s="9"/>
-      <c r="CV14" s="9"/>
+      <c r="CP14" s="26"/>
+      <c r="CQ14" s="26"/>
+      <c r="CR14" s="26"/>
+      <c r="CS14" s="26"/>
+      <c r="CT14" s="26"/>
+      <c r="CU14" s="26"/>
+      <c r="CV14" s="26"/>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
@@ -25393,25 +25417,27 @@
       <c r="CO15" s="19">
         <v>123184.77014079694</v>
       </c>
-      <c r="CP15" s="19">
+      <c r="CP15" s="27">
         <v>138608.46119792361</v>
       </c>
-      <c r="CQ15" s="19">
+      <c r="CQ15" s="27">
         <v>106817.93952852199</v>
       </c>
-      <c r="CR15" s="19">
+      <c r="CR15" s="27">
         <v>115734.69416723149</v>
       </c>
-      <c r="CS15" s="19">
+      <c r="CS15" s="27">
         <v>149984.53232447381</v>
       </c>
-      <c r="CT15" s="19">
+      <c r="CT15" s="27">
         <v>164198.98534534292</v>
       </c>
-      <c r="CU15" s="19">
-        <v>123243.62653054259</v>
-      </c>
-      <c r="CV15" s="9"/>
+      <c r="CU15" s="27">
+        <v>125015.7491965612</v>
+      </c>
+      <c r="CV15" s="27">
+        <v>133025.82503752797</v>
+      </c>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
@@ -25610,12 +25636,13 @@
       <c r="CM16" s="12"/>
       <c r="CN16" s="12"/>
       <c r="CO16" s="12"/>
-      <c r="CP16" s="12"/>
-      <c r="CQ16" s="12"/>
-      <c r="CR16" s="12"/>
-      <c r="CS16" s="12"/>
-      <c r="CT16" s="12"/>
-      <c r="CU16" s="12"/>
+      <c r="CP16" s="28"/>
+      <c r="CQ16" s="28"/>
+      <c r="CR16" s="28"/>
+      <c r="CS16" s="28"/>
+      <c r="CT16" s="28"/>
+      <c r="CU16" s="28"/>
+      <c r="CV16" s="28"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25715,13 +25742,13 @@
       <c r="CM18" s="9"/>
       <c r="CN18" s="9"/>
       <c r="CO18" s="9"/>
-      <c r="CP18" s="9"/>
-      <c r="CQ18" s="9"/>
-      <c r="CR18" s="9"/>
-      <c r="CS18" s="9"/>
-      <c r="CT18" s="9"/>
-      <c r="CU18" s="9"/>
-      <c r="CV18" s="9"/>
+      <c r="CP18" s="26"/>
+      <c r="CQ18" s="26"/>
+      <c r="CR18" s="26"/>
+      <c r="CS18" s="26"/>
+      <c r="CT18" s="26"/>
+      <c r="CU18" s="26"/>
+      <c r="CV18" s="26"/>
       <c r="CW18" s="9"/>
       <c r="CX18" s="9"/>
       <c r="CY18" s="9"/>
@@ -25919,13 +25946,13 @@
       <c r="CM19" s="14"/>
       <c r="CN19" s="14"/>
       <c r="CO19" s="14"/>
-      <c r="CP19" s="14"/>
-      <c r="CQ19" s="14"/>
-      <c r="CR19" s="14"/>
-      <c r="CS19" s="14"/>
-      <c r="CT19" s="14"/>
-      <c r="CU19" s="14"/>
-      <c r="CV19" s="9"/>
+      <c r="CP19" s="29"/>
+      <c r="CQ19" s="29"/>
+      <c r="CR19" s="29"/>
+      <c r="CS19" s="29"/>
+      <c r="CT19" s="29"/>
+      <c r="CU19" s="29"/>
+      <c r="CV19" s="29"/>
       <c r="CW19" s="9"/>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
@@ -26062,132 +26089,132 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="22">
+      <c r="B28" s="32">
         <v>2000</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="22">
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32">
         <v>2001</v>
       </c>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22">
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="32">
         <v>2002</v>
       </c>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="22">
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="32">
         <v>2003</v>
       </c>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="22">
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="32">
         <v>2004</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="22">
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="32">
         <v>2005</v>
       </c>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="22">
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="32">
         <v>2006</v>
       </c>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="22">
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="33"/>
+      <c r="AD28" s="32">
         <v>2007</v>
       </c>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
-      <c r="AG28" s="23"/>
-      <c r="AH28" s="22">
+      <c r="AE28" s="33"/>
+      <c r="AF28" s="33"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="32">
         <v>2008</v>
       </c>
-      <c r="AI28" s="23"/>
-      <c r="AJ28" s="23"/>
-      <c r="AK28" s="23"/>
-      <c r="AL28" s="22">
+      <c r="AI28" s="33"/>
+      <c r="AJ28" s="33"/>
+      <c r="AK28" s="33"/>
+      <c r="AL28" s="32">
         <v>2009</v>
       </c>
-      <c r="AM28" s="23"/>
-      <c r="AN28" s="23"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="22">
+      <c r="AM28" s="33"/>
+      <c r="AN28" s="33"/>
+      <c r="AO28" s="33"/>
+      <c r="AP28" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="23"/>
-      <c r="AR28" s="23"/>
-      <c r="AS28" s="23"/>
-      <c r="AT28" s="22">
+      <c r="AQ28" s="33"/>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="32">
         <v>2011</v>
       </c>
-      <c r="AU28" s="23"/>
-      <c r="AV28" s="23"/>
-      <c r="AW28" s="23"/>
-      <c r="AX28" s="22">
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="32">
         <v>2012</v>
       </c>
-      <c r="AY28" s="23"/>
-      <c r="AZ28" s="23"/>
-      <c r="BA28" s="23"/>
-      <c r="BB28" s="22">
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="33"/>
+      <c r="BB28" s="32">
         <v>2013</v>
       </c>
-      <c r="BC28" s="23"/>
-      <c r="BD28" s="23"/>
-      <c r="BE28" s="23"/>
-      <c r="BF28" s="22">
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="32">
         <v>2014</v>
       </c>
-      <c r="BG28" s="23"/>
-      <c r="BH28" s="23"/>
-      <c r="BI28" s="23"/>
-      <c r="BJ28" s="22">
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="32">
         <v>2015</v>
       </c>
-      <c r="BK28" s="23"/>
-      <c r="BL28" s="23"/>
-      <c r="BM28" s="23"/>
-      <c r="BN28" s="22">
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="32">
         <v>2016</v>
       </c>
-      <c r="BO28" s="23"/>
-      <c r="BP28" s="23"/>
-      <c r="BQ28" s="23"/>
-      <c r="BR28" s="22">
+      <c r="BO28" s="33"/>
+      <c r="BP28" s="33"/>
+      <c r="BQ28" s="33"/>
+      <c r="BR28" s="32">
         <v>2017</v>
       </c>
-      <c r="BS28" s="23"/>
-      <c r="BT28" s="23"/>
-      <c r="BU28" s="23"/>
-      <c r="BV28" s="22">
+      <c r="BS28" s="33"/>
+      <c r="BT28" s="33"/>
+      <c r="BU28" s="33"/>
+      <c r="BV28" s="32">
         <v>2018</v>
       </c>
-      <c r="BW28" s="23"/>
-      <c r="BX28" s="23"/>
-      <c r="BY28" s="23"/>
-      <c r="BZ28" s="22">
+      <c r="BW28" s="33"/>
+      <c r="BX28" s="33"/>
+      <c r="BY28" s="33"/>
+      <c r="BZ28" s="32">
         <v>2019</v>
       </c>
-      <c r="CA28" s="23"/>
-      <c r="CB28" s="23"/>
-      <c r="CC28" s="23"/>
-      <c r="CD28" s="22">
+      <c r="CA28" s="33"/>
+      <c r="CB28" s="33"/>
+      <c r="CC28" s="33"/>
+      <c r="CD28" s="32">
         <v>2020</v>
       </c>
-      <c r="CE28" s="22"/>
-      <c r="CF28" s="22"/>
-      <c r="CG28" s="22"/>
+      <c r="CE28" s="32"/>
+      <c r="CF28" s="32"/>
+      <c r="CG28" s="32"/>
       <c r="CH28" s="20">
         <v>2021</v>
       </c>
@@ -26200,16 +26227,17 @@
       <c r="CM28" s="20"/>
       <c r="CN28" s="20"/>
       <c r="CO28" s="20"/>
-      <c r="CP28" s="20">
+      <c r="CP28" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ28" s="20"/>
-      <c r="CR28" s="20"/>
-      <c r="CS28" s="20"/>
-      <c r="CT28" s="20">
+      <c r="CQ28" s="23"/>
+      <c r="CR28" s="23"/>
+      <c r="CS28" s="23"/>
+      <c r="CT28" s="23">
         <v>2024</v>
       </c>
-      <c r="CU28" s="20"/>
+      <c r="CU28" s="23"/>
+      <c r="CV28" s="23"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26491,23 +26519,26 @@
       <c r="CO29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP29" s="6" t="s">
+      <c r="CP29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ29" s="6" t="s">
+      <c r="CQ29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR29" s="6" t="s">
+      <c r="CR29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS29" s="6" t="s">
+      <c r="CS29" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CT29" s="6" t="s">
+      <c r="CT29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CU29" s="6" t="s">
+      <c r="CU29" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CV29" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26793,25 +26824,27 @@
       <c r="CO31" s="18">
         <v>30430.250036974343</v>
       </c>
-      <c r="CP31" s="18">
+      <c r="CP31" s="25">
         <v>32717.902087408373</v>
       </c>
-      <c r="CQ31" s="18">
+      <c r="CQ31" s="25">
         <v>25636.925556847855</v>
       </c>
-      <c r="CR31" s="18">
+      <c r="CR31" s="25">
         <v>26495.444463311713</v>
       </c>
-      <c r="CS31" s="18">
+      <c r="CS31" s="25">
         <v>37363.229087199776</v>
       </c>
-      <c r="CT31" s="18">
+      <c r="CT31" s="25">
         <v>37993.654931772151</v>
       </c>
-      <c r="CU31" s="18">
-        <v>28936.265428202405</v>
-      </c>
-      <c r="CV31" s="9"/>
+      <c r="CU31" s="25">
+        <v>29507.384208592404</v>
+      </c>
+      <c r="CV31" s="25">
+        <v>30391.992536404076</v>
+      </c>
       <c r="CW31" s="9"/>
       <c r="CX31" s="9"/>
       <c r="CY31" s="9"/>
@@ -27196,25 +27229,27 @@
       <c r="CO32" s="18">
         <v>70625.177331761239</v>
       </c>
-      <c r="CP32" s="18">
+      <c r="CP32" s="25">
         <v>74718.662567813473</v>
       </c>
-      <c r="CQ32" s="18">
+      <c r="CQ32" s="25">
         <v>59332.836469884205</v>
       </c>
-      <c r="CR32" s="18">
+      <c r="CR32" s="25">
         <v>67135.457752874863</v>
       </c>
-      <c r="CS32" s="18">
+      <c r="CS32" s="25">
         <v>82017.809062889806</v>
       </c>
-      <c r="CT32" s="18">
+      <c r="CT32" s="25">
         <v>83560.085312483774</v>
       </c>
-      <c r="CU32" s="18">
-        <v>64912.054069889418</v>
-      </c>
-      <c r="CV32" s="9"/>
+      <c r="CU32" s="25">
+        <v>65709.283603965596</v>
+      </c>
+      <c r="CV32" s="25">
+        <v>73256.917801463293</v>
+      </c>
       <c r="CW32" s="9"/>
       <c r="CX32" s="9"/>
       <c r="CY32" s="9"/>
@@ -27412,13 +27447,13 @@
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
-      <c r="CP33" s="9"/>
-      <c r="CQ33" s="9"/>
-      <c r="CR33" s="9"/>
-      <c r="CS33" s="9"/>
-      <c r="CT33" s="9"/>
-      <c r="CU33" s="9"/>
-      <c r="CV33" s="9"/>
+      <c r="CP33" s="26"/>
+      <c r="CQ33" s="26"/>
+      <c r="CR33" s="26"/>
+      <c r="CS33" s="26"/>
+      <c r="CT33" s="26"/>
+      <c r="CU33" s="26"/>
+      <c r="CV33" s="26"/>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
@@ -27803,25 +27838,27 @@
       <c r="CO34" s="19">
         <v>101055.42736873557</v>
       </c>
-      <c r="CP34" s="19">
+      <c r="CP34" s="27">
         <v>107436.56465522185</v>
       </c>
-      <c r="CQ34" s="19">
+      <c r="CQ34" s="27">
         <v>84969.76202673206</v>
       </c>
-      <c r="CR34" s="19">
+      <c r="CR34" s="27">
         <v>93630.902216186572</v>
       </c>
-      <c r="CS34" s="19">
+      <c r="CS34" s="27">
         <v>119381.03815008959</v>
       </c>
-      <c r="CT34" s="19">
+      <c r="CT34" s="27">
         <v>121553.74024425593</v>
       </c>
-      <c r="CU34" s="19">
-        <v>93848.31949809182</v>
-      </c>
-      <c r="CV34" s="9"/>
+      <c r="CU34" s="27">
+        <v>95216.667812558007</v>
+      </c>
+      <c r="CV34" s="27">
+        <v>103648.91033786736</v>
+      </c>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
@@ -28020,12 +28057,13 @@
       <c r="CM35" s="12"/>
       <c r="CN35" s="12"/>
       <c r="CO35" s="12"/>
-      <c r="CP35" s="12"/>
-      <c r="CQ35" s="12"/>
-      <c r="CR35" s="12"/>
-      <c r="CS35" s="12"/>
-      <c r="CT35" s="12"/>
-      <c r="CU35" s="12"/>
+      <c r="CP35" s="28"/>
+      <c r="CQ35" s="28"/>
+      <c r="CR35" s="28"/>
+      <c r="CS35" s="28"/>
+      <c r="CT35" s="28"/>
+      <c r="CU35" s="28"/>
+      <c r="CV35" s="28"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28125,13 +28163,13 @@
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
-      <c r="CP37" s="9"/>
-      <c r="CQ37" s="9"/>
-      <c r="CR37" s="9"/>
-      <c r="CS37" s="9"/>
-      <c r="CT37" s="9"/>
-      <c r="CU37" s="9"/>
-      <c r="CV37" s="9"/>
+      <c r="CP37" s="26"/>
+      <c r="CQ37" s="26"/>
+      <c r="CR37" s="26"/>
+      <c r="CS37" s="26"/>
+      <c r="CT37" s="26"/>
+      <c r="CU37" s="26"/>
+      <c r="CV37" s="26"/>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
@@ -28329,13 +28367,13 @@
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
-      <c r="CP38" s="9"/>
-      <c r="CQ38" s="9"/>
-      <c r="CR38" s="9"/>
-      <c r="CS38" s="9"/>
-      <c r="CT38" s="9"/>
-      <c r="CU38" s="9"/>
-      <c r="CV38" s="9"/>
+      <c r="CP38" s="26"/>
+      <c r="CQ38" s="26"/>
+      <c r="CR38" s="26"/>
+      <c r="CS38" s="26"/>
+      <c r="CT38" s="26"/>
+      <c r="CU38" s="26"/>
+      <c r="CV38" s="26"/>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
@@ -28472,132 +28510,132 @@
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22" t="s">
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22" t="s">
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22" t="s">
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22" t="s">
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22" t="s">
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22" t="s">
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="22"/>
-      <c r="AB47" s="22"/>
-      <c r="AC47" s="22"/>
-      <c r="AD47" s="22" t="s">
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="22"/>
-      <c r="AF47" s="22"/>
-      <c r="AG47" s="22"/>
-      <c r="AH47" s="22" t="s">
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="22"/>
-      <c r="AJ47" s="22"/>
-      <c r="AK47" s="22"/>
-      <c r="AL47" s="22" t="s">
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="22"/>
-      <c r="AN47" s="22"/>
-      <c r="AO47" s="22"/>
-      <c r="AP47" s="22" t="s">
+      <c r="AM47" s="32"/>
+      <c r="AN47" s="32"/>
+      <c r="AO47" s="32"/>
+      <c r="AP47" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="22"/>
-      <c r="AR47" s="22"/>
-      <c r="AS47" s="22"/>
-      <c r="AT47" s="22" t="s">
+      <c r="AQ47" s="32"/>
+      <c r="AR47" s="32"/>
+      <c r="AS47" s="32"/>
+      <c r="AT47" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="22"/>
-      <c r="AV47" s="22"/>
-      <c r="AW47" s="22"/>
-      <c r="AX47" s="22" t="s">
+      <c r="AU47" s="32"/>
+      <c r="AV47" s="32"/>
+      <c r="AW47" s="32"/>
+      <c r="AX47" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="22"/>
-      <c r="AZ47" s="22"/>
-      <c r="BA47" s="22"/>
-      <c r="BB47" s="22" t="s">
+      <c r="AY47" s="32"/>
+      <c r="AZ47" s="32"/>
+      <c r="BA47" s="32"/>
+      <c r="BB47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="22"/>
-      <c r="BD47" s="22"/>
-      <c r="BE47" s="22"/>
-      <c r="BF47" s="22" t="s">
+      <c r="BC47" s="32"/>
+      <c r="BD47" s="32"/>
+      <c r="BE47" s="32"/>
+      <c r="BF47" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="22"/>
-      <c r="BH47" s="22"/>
-      <c r="BI47" s="22"/>
-      <c r="BJ47" s="22" t="s">
+      <c r="BG47" s="32"/>
+      <c r="BH47" s="32"/>
+      <c r="BI47" s="32"/>
+      <c r="BJ47" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="22"/>
-      <c r="BL47" s="22"/>
-      <c r="BM47" s="22"/>
-      <c r="BN47" s="22" t="s">
+      <c r="BK47" s="32"/>
+      <c r="BL47" s="32"/>
+      <c r="BM47" s="32"/>
+      <c r="BN47" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="22"/>
-      <c r="BP47" s="22"/>
-      <c r="BQ47" s="22"/>
-      <c r="BR47" s="22" t="s">
+      <c r="BO47" s="32"/>
+      <c r="BP47" s="32"/>
+      <c r="BQ47" s="32"/>
+      <c r="BR47" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="22"/>
-      <c r="BT47" s="22"/>
-      <c r="BU47" s="22"/>
-      <c r="BV47" s="22" t="s">
+      <c r="BS47" s="32"/>
+      <c r="BT47" s="32"/>
+      <c r="BU47" s="32"/>
+      <c r="BV47" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="22"/>
-      <c r="BX47" s="22"/>
-      <c r="BY47" s="22"/>
-      <c r="BZ47" s="22" t="s">
+      <c r="BW47" s="32"/>
+      <c r="BX47" s="32"/>
+      <c r="BY47" s="32"/>
+      <c r="BZ47" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="22"/>
-      <c r="CB47" s="22"/>
-      <c r="CC47" s="22"/>
-      <c r="CD47" s="22" t="s">
+      <c r="CA47" s="32"/>
+      <c r="CB47" s="32"/>
+      <c r="CC47" s="32"/>
+      <c r="CD47" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="22"/>
-      <c r="CF47" s="22"/>
-      <c r="CG47" s="22"/>
+      <c r="CE47" s="32"/>
+      <c r="CF47" s="32"/>
+      <c r="CG47" s="32"/>
       <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
@@ -28610,14 +28648,15 @@
       <c r="CM47" s="20"/>
       <c r="CN47" s="20"/>
       <c r="CO47" s="20"/>
-      <c r="CP47" s="20" t="s">
+      <c r="CP47" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="CQ47" s="20"/>
-      <c r="CR47" s="21"/>
+      <c r="CQ47" s="23"/>
+      <c r="CR47" s="23"/>
       <c r="CS47" s="21"/>
-      <c r="CT47" s="20"/>
-      <c r="CU47" s="21"/>
+      <c r="CT47" s="23"/>
+      <c r="CU47" s="23"/>
+      <c r="CV47" s="21"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28899,16 +28938,19 @@
       <c r="CO48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP48" s="5" t="s">
+      <c r="CP48" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CQ48" s="5" t="s">
+      <c r="CQ48" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CR48" s="5"/>
-      <c r="CS48" s="5"/>
-      <c r="CT48" s="5"/>
-      <c r="CU48" s="5"/>
+      <c r="CR48" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS48" s="30"/>
+      <c r="CT48" s="30"/>
+      <c r="CU48" s="30"/>
+      <c r="CV48" s="30"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
@@ -29193,17 +29235,19 @@
       <c r="CO50" s="15">
         <v>27.038536490028548</v>
       </c>
-      <c r="CP50" s="15">
+      <c r="CP50" s="31">
         <v>19.475141489467916</v>
       </c>
-      <c r="CQ50" s="15">
-        <v>15.818713211584011</v>
-      </c>
-      <c r="CR50" s="15"/>
-      <c r="CS50" s="15"/>
-      <c r="CT50" s="15"/>
-      <c r="CU50" s="15"/>
-      <c r="CV50" s="9"/>
+      <c r="CQ50" s="31">
+        <v>18.10464200221746</v>
+      </c>
+      <c r="CR50" s="31">
+        <v>17.226553019743832</v>
+      </c>
+      <c r="CS50" s="31"/>
+      <c r="CT50" s="31"/>
+      <c r="CU50" s="31"/>
+      <c r="CV50" s="31"/>
       <c r="CW50" s="9"/>
       <c r="CX50" s="9"/>
       <c r="CY50" s="9"/>
@@ -29584,17 +29628,19 @@
       <c r="CO51" s="15">
         <v>19.729135888720293</v>
       </c>
-      <c r="CP51" s="15">
+      <c r="CP51" s="31">
         <v>18.070156522917983</v>
       </c>
-      <c r="CQ51" s="15">
-        <v>15.205395362081802</v>
-      </c>
-      <c r="CR51" s="15"/>
-      <c r="CS51" s="15"/>
-      <c r="CT51" s="15"/>
-      <c r="CU51" s="15"/>
-      <c r="CV51" s="9"/>
+      <c r="CQ51" s="31">
+        <v>16.620311974775731</v>
+      </c>
+      <c r="CR51" s="31">
+        <v>14.132961461842953</v>
+      </c>
+      <c r="CS51" s="31"/>
+      <c r="CT51" s="31"/>
+      <c r="CU51" s="31"/>
+      <c r="CV51" s="31"/>
       <c r="CW51" s="9"/>
       <c r="CX51" s="9"/>
       <c r="CY51" s="9"/>
@@ -29789,13 +29835,13 @@
       <c r="CM52" s="9"/>
       <c r="CN52" s="9"/>
       <c r="CO52" s="9"/>
-      <c r="CP52" s="9"/>
-      <c r="CQ52" s="9"/>
-      <c r="CR52" s="9"/>
-      <c r="CS52" s="9"/>
-      <c r="CT52" s="9"/>
-      <c r="CU52" s="9"/>
-      <c r="CV52" s="9"/>
+      <c r="CP52" s="26"/>
+      <c r="CQ52" s="26"/>
+      <c r="CR52" s="26"/>
+      <c r="CS52" s="26"/>
+      <c r="CT52" s="26"/>
+      <c r="CU52" s="26"/>
+      <c r="CV52" s="26"/>
       <c r="CW52" s="9"/>
       <c r="CX52" s="9"/>
       <c r="CY52" s="9"/>
@@ -30176,17 +30222,19 @@
       <c r="CO53" s="15">
         <v>21.755743143446594</v>
       </c>
-      <c r="CP53" s="15">
+      <c r="CP53" s="31">
         <v>18.462454547329372</v>
       </c>
-      <c r="CQ53" s="15">
-        <v>15.377273774911828</v>
-      </c>
-      <c r="CR53" s="15"/>
-      <c r="CS53" s="15"/>
-      <c r="CT53" s="15"/>
-      <c r="CU53" s="15"/>
-      <c r="CV53" s="9"/>
+      <c r="CQ53" s="31">
+        <v>17.036285991249727</v>
+      </c>
+      <c r="CR53" s="31">
+        <v>14.940317589910919</v>
+      </c>
+      <c r="CS53" s="31"/>
+      <c r="CT53" s="31"/>
+      <c r="CU53" s="31"/>
+      <c r="CV53" s="31"/>
       <c r="CW53" s="9"/>
       <c r="CX53" s="9"/>
       <c r="CY53" s="9"/>
@@ -30381,12 +30429,13 @@
       <c r="CM54" s="12"/>
       <c r="CN54" s="12"/>
       <c r="CO54" s="12"/>
-      <c r="CP54" s="12"/>
-      <c r="CQ54" s="12"/>
-      <c r="CR54" s="12"/>
-      <c r="CS54" s="12"/>
-      <c r="CT54" s="12"/>
-      <c r="CU54" s="12"/>
+      <c r="CP54" s="28"/>
+      <c r="CQ54" s="28"/>
+      <c r="CR54" s="28"/>
+      <c r="CS54" s="28"/>
+      <c r="CT54" s="28"/>
+      <c r="CU54" s="28"/>
+      <c r="CV54" s="28"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
@@ -30486,13 +30535,13 @@
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
-      <c r="CP56" s="9"/>
-      <c r="CQ56" s="9"/>
-      <c r="CR56" s="9"/>
-      <c r="CS56" s="9"/>
-      <c r="CT56" s="9"/>
-      <c r="CU56" s="9"/>
-      <c r="CV56" s="9"/>
+      <c r="CP56" s="26"/>
+      <c r="CQ56" s="26"/>
+      <c r="CR56" s="26"/>
+      <c r="CS56" s="26"/>
+      <c r="CT56" s="26"/>
+      <c r="CU56" s="26"/>
+      <c r="CV56" s="26"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
@@ -30686,13 +30735,13 @@
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
-      <c r="CP57" s="9"/>
-      <c r="CQ57" s="9"/>
-      <c r="CR57" s="9"/>
-      <c r="CS57" s="9"/>
-      <c r="CT57" s="9"/>
-      <c r="CU57" s="9"/>
-      <c r="CV57" s="9"/>
+      <c r="CP57" s="26"/>
+      <c r="CQ57" s="26"/>
+      <c r="CR57" s="26"/>
+      <c r="CS57" s="26"/>
+      <c r="CT57" s="26"/>
+      <c r="CU57" s="26"/>
+      <c r="CV57" s="26"/>
       <c r="CW57" s="9"/>
       <c r="CX57" s="9"/>
       <c r="CY57" s="9"/>
@@ -30825,132 +30874,132 @@
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="22" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="34"/>
+      <c r="E66" s="34"/>
+      <c r="F66" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="22" t="s">
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="N66" s="22" t="s">
+      <c r="K66" s="34"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="24"/>
-      <c r="P66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="22" t="s">
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
-      <c r="U66" s="24"/>
-      <c r="V66" s="22" t="s">
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="24"/>
-      <c r="X66" s="24"/>
-      <c r="Y66" s="24"/>
-      <c r="Z66" s="22" t="s">
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="24"/>
-      <c r="AB66" s="24"/>
-      <c r="AC66" s="24"/>
-      <c r="AD66" s="22" t="s">
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="24"/>
-      <c r="AF66" s="24"/>
-      <c r="AG66" s="24"/>
-      <c r="AH66" s="22" t="s">
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="24"/>
-      <c r="AJ66" s="24"/>
-      <c r="AK66" s="24"/>
-      <c r="AL66" s="22" t="s">
+      <c r="AI66" s="34"/>
+      <c r="AJ66" s="34"/>
+      <c r="AK66" s="34"/>
+      <c r="AL66" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="24"/>
-      <c r="AN66" s="24"/>
-      <c r="AO66" s="24"/>
-      <c r="AP66" s="22" t="s">
+      <c r="AM66" s="34"/>
+      <c r="AN66" s="34"/>
+      <c r="AO66" s="34"/>
+      <c r="AP66" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="24"/>
-      <c r="AR66" s="24"/>
-      <c r="AS66" s="24"/>
-      <c r="AT66" s="22" t="s">
+      <c r="AQ66" s="34"/>
+      <c r="AR66" s="34"/>
+      <c r="AS66" s="34"/>
+      <c r="AT66" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="24"/>
-      <c r="AV66" s="24"/>
-      <c r="AW66" s="24"/>
-      <c r="AX66" s="22" t="s">
+      <c r="AU66" s="34"/>
+      <c r="AV66" s="34"/>
+      <c r="AW66" s="34"/>
+      <c r="AX66" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="24"/>
-      <c r="AZ66" s="24"/>
-      <c r="BA66" s="24"/>
-      <c r="BB66" s="22" t="s">
+      <c r="AY66" s="34"/>
+      <c r="AZ66" s="34"/>
+      <c r="BA66" s="34"/>
+      <c r="BB66" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="24"/>
-      <c r="BD66" s="24"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="22" t="s">
+      <c r="BC66" s="34"/>
+      <c r="BD66" s="34"/>
+      <c r="BE66" s="34"/>
+      <c r="BF66" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="24"/>
-      <c r="BH66" s="24"/>
-      <c r="BI66" s="24"/>
-      <c r="BJ66" s="22" t="s">
+      <c r="BG66" s="34"/>
+      <c r="BH66" s="34"/>
+      <c r="BI66" s="34"/>
+      <c r="BJ66" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="24"/>
-      <c r="BL66" s="24"/>
-      <c r="BM66" s="24"/>
-      <c r="BN66" s="22" t="s">
+      <c r="BK66" s="34"/>
+      <c r="BL66" s="34"/>
+      <c r="BM66" s="34"/>
+      <c r="BN66" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="24"/>
-      <c r="BP66" s="24"/>
-      <c r="BQ66" s="24"/>
-      <c r="BR66" s="22" t="s">
+      <c r="BO66" s="34"/>
+      <c r="BP66" s="34"/>
+      <c r="BQ66" s="34"/>
+      <c r="BR66" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="24"/>
-      <c r="BT66" s="24"/>
-      <c r="BU66" s="24"/>
-      <c r="BV66" s="22" t="s">
+      <c r="BS66" s="34"/>
+      <c r="BT66" s="34"/>
+      <c r="BU66" s="34"/>
+      <c r="BV66" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="24"/>
-      <c r="BX66" s="24"/>
-      <c r="BY66" s="24"/>
-      <c r="BZ66" s="22" t="s">
+      <c r="BW66" s="34"/>
+      <c r="BX66" s="34"/>
+      <c r="BY66" s="34"/>
+      <c r="BZ66" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="24"/>
-      <c r="CB66" s="24"/>
-      <c r="CC66" s="24"/>
-      <c r="CD66" s="22" t="s">
+      <c r="CA66" s="34"/>
+      <c r="CB66" s="34"/>
+      <c r="CC66" s="34"/>
+      <c r="CD66" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="22"/>
-      <c r="CF66" s="22"/>
-      <c r="CG66" s="22"/>
+      <c r="CE66" s="32"/>
+      <c r="CF66" s="32"/>
+      <c r="CG66" s="32"/>
       <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
@@ -30963,14 +31012,15 @@
       <c r="CM66" s="20"/>
       <c r="CN66" s="20"/>
       <c r="CO66" s="20"/>
-      <c r="CP66" s="20" t="s">
+      <c r="CP66" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="CQ66" s="20"/>
-      <c r="CR66" s="21"/>
+      <c r="CQ66" s="23"/>
+      <c r="CR66" s="23"/>
       <c r="CS66" s="21"/>
-      <c r="CT66" s="20"/>
-      <c r="CU66" s="21"/>
+      <c r="CT66" s="23"/>
+      <c r="CU66" s="23"/>
+      <c r="CV66" s="21"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31252,16 +31302,19 @@
       <c r="CO67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP67" s="5" t="s">
+      <c r="CP67" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CQ67" s="5" t="s">
+      <c r="CQ67" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CR67" s="5"/>
-      <c r="CS67" s="5"/>
-      <c r="CT67" s="5"/>
-      <c r="CU67" s="5"/>
+      <c r="CR67" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS67" s="30"/>
+      <c r="CT67" s="30"/>
+      <c r="CU67" s="30"/>
+      <c r="CV67" s="30"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
@@ -31546,17 +31599,19 @@
       <c r="CO69" s="15">
         <v>22.783181346855514</v>
       </c>
-      <c r="CP69" s="15">
+      <c r="CP69" s="31">
         <v>16.124972897923612</v>
       </c>
-      <c r="CQ69" s="15">
-        <v>12.869483370923419</v>
-      </c>
-      <c r="CR69" s="15"/>
-      <c r="CS69" s="15"/>
-      <c r="CT69" s="15"/>
-      <c r="CU69" s="15"/>
-      <c r="CV69" s="9"/>
+      <c r="CQ69" s="31">
+        <v>15.097202834100031</v>
+      </c>
+      <c r="CR69" s="31">
+        <v>14.706483140858111</v>
+      </c>
+      <c r="CS69" s="31"/>
+      <c r="CT69" s="31"/>
+      <c r="CU69" s="31"/>
+      <c r="CV69" s="31"/>
       <c r="CW69" s="9"/>
       <c r="CX69" s="9"/>
       <c r="CY69" s="9"/>
@@ -31937,17 +31992,19 @@
       <c r="CO70" s="15">
         <v>16.131119469777431</v>
       </c>
-      <c r="CP70" s="15">
+      <c r="CP70" s="31">
         <v>11.832951020296932</v>
       </c>
-      <c r="CQ70" s="15">
-        <v>9.4032544741680795</v>
-      </c>
-      <c r="CR70" s="15"/>
-      <c r="CS70" s="15"/>
-      <c r="CT70" s="15"/>
-      <c r="CU70" s="15"/>
-      <c r="CV70" s="9"/>
+      <c r="CQ70" s="31">
+        <v>10.746911008237262</v>
+      </c>
+      <c r="CR70" s="31">
+        <v>9.1180730026768799</v>
+      </c>
+      <c r="CS70" s="31"/>
+      <c r="CT70" s="31"/>
+      <c r="CU70" s="31"/>
+      <c r="CV70" s="31"/>
       <c r="CW70" s="9"/>
       <c r="CX70" s="9"/>
       <c r="CY70" s="9"/>
@@ -32141,13 +32198,13 @@
       <c r="CM71" s="9"/>
       <c r="CN71" s="9"/>
       <c r="CO71" s="9"/>
-      <c r="CP71" s="9"/>
-      <c r="CQ71" s="9"/>
-      <c r="CR71" s="9"/>
-      <c r="CS71" s="9"/>
-      <c r="CT71" s="9"/>
-      <c r="CU71" s="9"/>
-      <c r="CV71" s="9"/>
+      <c r="CP71" s="26"/>
+      <c r="CQ71" s="26"/>
+      <c r="CR71" s="26"/>
+      <c r="CS71" s="26"/>
+      <c r="CT71" s="26"/>
+      <c r="CU71" s="26"/>
+      <c r="CV71" s="26"/>
       <c r="CW71" s="9"/>
       <c r="CX71" s="9"/>
       <c r="CY71" s="9"/>
@@ -32528,17 +32585,19 @@
       <c r="CO72" s="15">
         <v>18.134217288980153</v>
       </c>
-      <c r="CP72" s="15">
+      <c r="CP72" s="31">
         <v>13.14001023239895</v>
       </c>
-      <c r="CQ72" s="15">
-        <v>10.44907889534457</v>
-      </c>
-      <c r="CR72" s="15"/>
-      <c r="CS72" s="15"/>
-      <c r="CT72" s="15"/>
-      <c r="CU72" s="15"/>
-      <c r="CV72" s="9"/>
+      <c r="CQ72" s="31">
+        <v>12.059473324877871</v>
+      </c>
+      <c r="CR72" s="31">
+        <v>10.699467680606105</v>
+      </c>
+      <c r="CS72" s="31"/>
+      <c r="CT72" s="31"/>
+      <c r="CU72" s="31"/>
+      <c r="CV72" s="31"/>
       <c r="CW72" s="9"/>
       <c r="CX72" s="9"/>
       <c r="CY72" s="9"/>
@@ -32733,12 +32792,13 @@
       <c r="CM73" s="12"/>
       <c r="CN73" s="12"/>
       <c r="CO73" s="12"/>
-      <c r="CP73" s="12"/>
-      <c r="CQ73" s="12"/>
-      <c r="CR73" s="12"/>
-      <c r="CS73" s="12"/>
-      <c r="CT73" s="12"/>
-      <c r="CU73" s="12"/>
+      <c r="CP73" s="28"/>
+      <c r="CQ73" s="28"/>
+      <c r="CR73" s="28"/>
+      <c r="CS73" s="28"/>
+      <c r="CT73" s="28"/>
+      <c r="CU73" s="28"/>
+      <c r="CV73" s="28"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
@@ -32838,13 +32898,13 @@
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
-      <c r="CP75" s="9"/>
-      <c r="CQ75" s="9"/>
-      <c r="CR75" s="9"/>
-      <c r="CS75" s="9"/>
-      <c r="CT75" s="9"/>
-      <c r="CU75" s="9"/>
-      <c r="CV75" s="9"/>
+      <c r="CP75" s="26"/>
+      <c r="CQ75" s="26"/>
+      <c r="CR75" s="26"/>
+      <c r="CS75" s="26"/>
+      <c r="CT75" s="26"/>
+      <c r="CU75" s="26"/>
+      <c r="CV75" s="26"/>
       <c r="CW75" s="9"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
@@ -33042,13 +33102,13 @@
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
-      <c r="CP76" s="9"/>
-      <c r="CQ76" s="9"/>
-      <c r="CR76" s="9"/>
-      <c r="CS76" s="9"/>
-      <c r="CT76" s="9"/>
-      <c r="CU76" s="9"/>
-      <c r="CV76" s="9"/>
+      <c r="CP76" s="26"/>
+      <c r="CQ76" s="26"/>
+      <c r="CR76" s="26"/>
+      <c r="CS76" s="26"/>
+      <c r="CT76" s="26"/>
+      <c r="CU76" s="26"/>
+      <c r="CV76" s="26"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
@@ -33180,132 +33240,132 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="22">
+      <c r="B84" s="32">
         <v>2000</v>
       </c>
-      <c r="C84" s="23"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="22">
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="32">
         <v>2001</v>
       </c>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="22">
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="32">
         <v>2002</v>
       </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-      <c r="N84" s="22">
+      <c r="K84" s="33"/>
+      <c r="L84" s="33"/>
+      <c r="M84" s="33"/>
+      <c r="N84" s="32">
         <v>2003</v>
       </c>
-      <c r="O84" s="23"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="22">
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="32">
         <v>2004</v>
       </c>
-      <c r="S84" s="23"/>
-      <c r="T84" s="23"/>
-      <c r="U84" s="23"/>
-      <c r="V84" s="22">
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
+      <c r="V84" s="32">
         <v>2005</v>
       </c>
-      <c r="W84" s="23"/>
-      <c r="X84" s="23"/>
-      <c r="Y84" s="23"/>
-      <c r="Z84" s="22">
+      <c r="W84" s="33"/>
+      <c r="X84" s="33"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="32">
         <v>2006</v>
       </c>
-      <c r="AA84" s="23"/>
-      <c r="AB84" s="23"/>
-      <c r="AC84" s="23"/>
-      <c r="AD84" s="22">
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="32">
         <v>2007</v>
       </c>
-      <c r="AE84" s="23"/>
-      <c r="AF84" s="23"/>
-      <c r="AG84" s="23"/>
-      <c r="AH84" s="22">
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
+      <c r="AG84" s="33"/>
+      <c r="AH84" s="32">
         <v>2008</v>
       </c>
-      <c r="AI84" s="23"/>
-      <c r="AJ84" s="23"/>
-      <c r="AK84" s="23"/>
-      <c r="AL84" s="22">
+      <c r="AI84" s="33"/>
+      <c r="AJ84" s="33"/>
+      <c r="AK84" s="33"/>
+      <c r="AL84" s="32">
         <v>2009</v>
       </c>
-      <c r="AM84" s="23"/>
-      <c r="AN84" s="23"/>
-      <c r="AO84" s="23"/>
-      <c r="AP84" s="22">
+      <c r="AM84" s="33"/>
+      <c r="AN84" s="33"/>
+      <c r="AO84" s="33"/>
+      <c r="AP84" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="23"/>
-      <c r="AR84" s="23"/>
-      <c r="AS84" s="23"/>
-      <c r="AT84" s="22">
+      <c r="AQ84" s="33"/>
+      <c r="AR84" s="33"/>
+      <c r="AS84" s="33"/>
+      <c r="AT84" s="32">
         <v>2011</v>
       </c>
-      <c r="AU84" s="23"/>
-      <c r="AV84" s="23"/>
-      <c r="AW84" s="23"/>
-      <c r="AX84" s="22">
+      <c r="AU84" s="33"/>
+      <c r="AV84" s="33"/>
+      <c r="AW84" s="33"/>
+      <c r="AX84" s="32">
         <v>2012</v>
       </c>
-      <c r="AY84" s="23"/>
-      <c r="AZ84" s="23"/>
-      <c r="BA84" s="23"/>
-      <c r="BB84" s="22">
+      <c r="AY84" s="33"/>
+      <c r="AZ84" s="33"/>
+      <c r="BA84" s="33"/>
+      <c r="BB84" s="32">
         <v>2013</v>
       </c>
-      <c r="BC84" s="23"/>
-      <c r="BD84" s="23"/>
-      <c r="BE84" s="23"/>
-      <c r="BF84" s="22">
+      <c r="BC84" s="33"/>
+      <c r="BD84" s="33"/>
+      <c r="BE84" s="33"/>
+      <c r="BF84" s="32">
         <v>2014</v>
       </c>
-      <c r="BG84" s="23"/>
-      <c r="BH84" s="23"/>
-      <c r="BI84" s="23"/>
-      <c r="BJ84" s="22">
+      <c r="BG84" s="33"/>
+      <c r="BH84" s="33"/>
+      <c r="BI84" s="33"/>
+      <c r="BJ84" s="32">
         <v>2015</v>
       </c>
-      <c r="BK84" s="23"/>
-      <c r="BL84" s="23"/>
-      <c r="BM84" s="23"/>
-      <c r="BN84" s="22">
+      <c r="BK84" s="33"/>
+      <c r="BL84" s="33"/>
+      <c r="BM84" s="33"/>
+      <c r="BN84" s="32">
         <v>2016</v>
       </c>
-      <c r="BO84" s="23"/>
-      <c r="BP84" s="23"/>
-      <c r="BQ84" s="23"/>
-      <c r="BR84" s="22">
+      <c r="BO84" s="33"/>
+      <c r="BP84" s="33"/>
+      <c r="BQ84" s="33"/>
+      <c r="BR84" s="32">
         <v>2017</v>
       </c>
-      <c r="BS84" s="23"/>
-      <c r="BT84" s="23"/>
-      <c r="BU84" s="23"/>
-      <c r="BV84" s="22">
+      <c r="BS84" s="33"/>
+      <c r="BT84" s="33"/>
+      <c r="BU84" s="33"/>
+      <c r="BV84" s="32">
         <v>2018</v>
       </c>
-      <c r="BW84" s="23"/>
-      <c r="BX84" s="23"/>
-      <c r="BY84" s="23"/>
-      <c r="BZ84" s="22">
+      <c r="BW84" s="33"/>
+      <c r="BX84" s="33"/>
+      <c r="BY84" s="33"/>
+      <c r="BZ84" s="32">
         <v>2019</v>
       </c>
-      <c r="CA84" s="23"/>
-      <c r="CB84" s="23"/>
-      <c r="CC84" s="23"/>
-      <c r="CD84" s="22">
+      <c r="CA84" s="33"/>
+      <c r="CB84" s="33"/>
+      <c r="CC84" s="33"/>
+      <c r="CD84" s="32">
         <v>2020</v>
       </c>
-      <c r="CE84" s="22"/>
-      <c r="CF84" s="22"/>
-      <c r="CG84" s="22"/>
+      <c r="CE84" s="32"/>
+      <c r="CF84" s="32"/>
+      <c r="CG84" s="32"/>
       <c r="CH84" s="20">
         <v>2021</v>
       </c>
@@ -33318,16 +33378,17 @@
       <c r="CM84" s="20"/>
       <c r="CN84" s="20"/>
       <c r="CO84" s="20"/>
-      <c r="CP84" s="20">
+      <c r="CP84" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ84" s="20"/>
-      <c r="CR84" s="20"/>
-      <c r="CS84" s="20"/>
-      <c r="CT84" s="20">
+      <c r="CQ84" s="23"/>
+      <c r="CR84" s="23"/>
+      <c r="CS84" s="23"/>
+      <c r="CT84" s="23">
         <v>2024</v>
       </c>
-      <c r="CU84" s="20"/>
+      <c r="CU84" s="23"/>
+      <c r="CV84" s="23"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33609,23 +33670,26 @@
       <c r="CO85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP85" s="6" t="s">
+      <c r="CP85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ85" s="6" t="s">
+      <c r="CQ85" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR85" s="6" t="s">
+      <c r="CR85" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS85" s="6" t="s">
+      <c r="CS85" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CT85" s="6" t="s">
+      <c r="CT85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CU85" s="6" t="s">
+      <c r="CU85" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CV85" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33911,25 +33975,27 @@
       <c r="CO87" s="15">
         <v>112.23784641131908</v>
       </c>
-      <c r="CP87" s="15">
+      <c r="CP87" s="31">
         <v>118.29019221251602</v>
       </c>
-      <c r="CQ87" s="15">
+      <c r="CQ87" s="31">
         <v>116.76534973906369</v>
       </c>
-      <c r="CR87" s="15">
+      <c r="CR87" s="31">
         <v>113.99729105931354</v>
       </c>
-      <c r="CS87" s="15">
+      <c r="CS87" s="31">
         <v>116.12772686355987</v>
       </c>
-      <c r="CT87" s="15">
+      <c r="CT87" s="31">
         <v>121.7028266937009</v>
       </c>
-      <c r="CU87" s="15">
+      <c r="CU87" s="31">
         <v>119.81637685038591</v>
       </c>
-      <c r="CV87" s="9"/>
+      <c r="CV87" s="31">
+        <v>116.50178018326622</v>
+      </c>
       <c r="CW87" s="9"/>
       <c r="CX87" s="9"/>
       <c r="CY87" s="9"/>
@@ -34314,25 +34380,27 @@
       <c r="CO88" s="15">
         <v>126.06058661417181</v>
       </c>
-      <c r="CP88" s="15">
+      <c r="CP88" s="31">
         <v>133.71009129098371</v>
       </c>
-      <c r="CQ88" s="15">
+      <c r="CQ88" s="31">
         <v>129.57899590515777</v>
       </c>
-      <c r="CR88" s="15">
+      <c r="CR88" s="31">
         <v>127.40004773598</v>
       </c>
-      <c r="CS88" s="15">
+      <c r="CS88" s="31">
         <v>129.96624138173306</v>
       </c>
-      <c r="CT88" s="15">
+      <c r="CT88" s="31">
         <v>141.16744003790828</v>
       </c>
-      <c r="CU88" s="15">
-        <v>136.45114604337547</v>
-      </c>
-      <c r="CV88" s="9"/>
+      <c r="CU88" s="31">
+        <v>136.45114604337545</v>
+      </c>
+      <c r="CV88" s="31">
+        <v>133.25514590173205</v>
+      </c>
       <c r="CW88" s="9"/>
       <c r="CX88" s="9"/>
       <c r="CY88" s="9"/>
@@ -34530,13 +34598,13 @@
       <c r="CM89" s="9"/>
       <c r="CN89" s="9"/>
       <c r="CO89" s="9"/>
-      <c r="CP89" s="9"/>
-      <c r="CQ89" s="9"/>
-      <c r="CR89" s="9"/>
-      <c r="CS89" s="9"/>
-      <c r="CT89" s="9"/>
-      <c r="CU89" s="9"/>
-      <c r="CV89" s="9"/>
+      <c r="CP89" s="26"/>
+      <c r="CQ89" s="26"/>
+      <c r="CR89" s="26"/>
+      <c r="CS89" s="26"/>
+      <c r="CT89" s="26"/>
+      <c r="CU89" s="26"/>
+      <c r="CV89" s="26"/>
       <c r="CW89" s="9"/>
       <c r="CX89" s="9"/>
       <c r="CY89" s="9"/>
@@ -34921,25 +34989,27 @@
       <c r="CO90" s="15">
         <v>121.89822293394974</v>
       </c>
-      <c r="CP90" s="15">
+      <c r="CP90" s="31">
         <v>129.01423425324191</v>
       </c>
-      <c r="CQ90" s="15">
+      <c r="CQ90" s="31">
         <v>125.71288536140229</v>
       </c>
-      <c r="CR90" s="15">
+      <c r="CR90" s="31">
         <v>123.60736832377088</v>
       </c>
-      <c r="CS90" s="15">
+      <c r="CS90" s="31">
         <v>125.635138250271</v>
       </c>
-      <c r="CT90" s="15">
+      <c r="CT90" s="31">
         <v>135.08344952232122</v>
       </c>
-      <c r="CU90" s="15">
-        <v>131.32214534011817</v>
-      </c>
-      <c r="CV90" s="9"/>
+      <c r="CU90" s="31">
+        <v>131.2960766939095</v>
+      </c>
+      <c r="CV90" s="31">
+        <v>128.34271446163768</v>
+      </c>
       <c r="CW90" s="9"/>
       <c r="CX90" s="9"/>
       <c r="CY90" s="9"/>
@@ -35138,12 +35208,13 @@
       <c r="CM91" s="12"/>
       <c r="CN91" s="12"/>
       <c r="CO91" s="12"/>
-      <c r="CP91" s="12"/>
-      <c r="CQ91" s="12"/>
-      <c r="CR91" s="12"/>
-      <c r="CS91" s="12"/>
-      <c r="CT91" s="12"/>
-      <c r="CU91" s="12"/>
+      <c r="CP91" s="28"/>
+      <c r="CQ91" s="28"/>
+      <c r="CR91" s="28"/>
+      <c r="CS91" s="28"/>
+      <c r="CT91" s="28"/>
+      <c r="CU91" s="28"/>
+      <c r="CV91" s="28"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -35182,132 +35253,132 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="22">
+      <c r="B103" s="32">
         <v>2000</v>
       </c>
-      <c r="C103" s="23"/>
-      <c r="D103" s="23"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="22">
+      <c r="C103" s="33"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="33"/>
+      <c r="F103" s="32">
         <v>2001</v>
       </c>
-      <c r="G103" s="23"/>
-      <c r="H103" s="23"/>
-      <c r="I103" s="23"/>
-      <c r="J103" s="22">
+      <c r="G103" s="33"/>
+      <c r="H103" s="33"/>
+      <c r="I103" s="33"/>
+      <c r="J103" s="32">
         <v>2002</v>
       </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="23"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="22">
+      <c r="K103" s="33"/>
+      <c r="L103" s="33"/>
+      <c r="M103" s="33"/>
+      <c r="N103" s="32">
         <v>2003</v>
       </c>
-      <c r="O103" s="23"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="22">
+      <c r="O103" s="33"/>
+      <c r="P103" s="33"/>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="32">
         <v>2004</v>
       </c>
-      <c r="S103" s="23"/>
-      <c r="T103" s="23"/>
-      <c r="U103" s="23"/>
-      <c r="V103" s="22">
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="32">
         <v>2005</v>
       </c>
-      <c r="W103" s="23"/>
-      <c r="X103" s="23"/>
-      <c r="Y103" s="23"/>
-      <c r="Z103" s="22">
+      <c r="W103" s="33"/>
+      <c r="X103" s="33"/>
+      <c r="Y103" s="33"/>
+      <c r="Z103" s="32">
         <v>2006</v>
       </c>
-      <c r="AA103" s="23"/>
-      <c r="AB103" s="23"/>
-      <c r="AC103" s="23"/>
-      <c r="AD103" s="22">
+      <c r="AA103" s="33"/>
+      <c r="AB103" s="33"/>
+      <c r="AC103" s="33"/>
+      <c r="AD103" s="32">
         <v>2007</v>
       </c>
-      <c r="AE103" s="23"/>
-      <c r="AF103" s="23"/>
-      <c r="AG103" s="23"/>
-      <c r="AH103" s="22">
+      <c r="AE103" s="33"/>
+      <c r="AF103" s="33"/>
+      <c r="AG103" s="33"/>
+      <c r="AH103" s="32">
         <v>2008</v>
       </c>
-      <c r="AI103" s="23"/>
-      <c r="AJ103" s="23"/>
-      <c r="AK103" s="23"/>
-      <c r="AL103" s="22">
+      <c r="AI103" s="33"/>
+      <c r="AJ103" s="33"/>
+      <c r="AK103" s="33"/>
+      <c r="AL103" s="32">
         <v>2009</v>
       </c>
-      <c r="AM103" s="23"/>
-      <c r="AN103" s="23"/>
-      <c r="AO103" s="23"/>
-      <c r="AP103" s="22">
+      <c r="AM103" s="33"/>
+      <c r="AN103" s="33"/>
+      <c r="AO103" s="33"/>
+      <c r="AP103" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="23"/>
-      <c r="AR103" s="23"/>
-      <c r="AS103" s="23"/>
-      <c r="AT103" s="22">
+      <c r="AQ103" s="33"/>
+      <c r="AR103" s="33"/>
+      <c r="AS103" s="33"/>
+      <c r="AT103" s="32">
         <v>2011</v>
       </c>
-      <c r="AU103" s="23"/>
-      <c r="AV103" s="23"/>
-      <c r="AW103" s="23"/>
-      <c r="AX103" s="22">
+      <c r="AU103" s="33"/>
+      <c r="AV103" s="33"/>
+      <c r="AW103" s="33"/>
+      <c r="AX103" s="32">
         <v>2012</v>
       </c>
-      <c r="AY103" s="23"/>
-      <c r="AZ103" s="23"/>
-      <c r="BA103" s="23"/>
-      <c r="BB103" s="22">
+      <c r="AY103" s="33"/>
+      <c r="AZ103" s="33"/>
+      <c r="BA103" s="33"/>
+      <c r="BB103" s="32">
         <v>2013</v>
       </c>
-      <c r="BC103" s="23"/>
-      <c r="BD103" s="23"/>
-      <c r="BE103" s="23"/>
-      <c r="BF103" s="22">
+      <c r="BC103" s="33"/>
+      <c r="BD103" s="33"/>
+      <c r="BE103" s="33"/>
+      <c r="BF103" s="32">
         <v>2014</v>
       </c>
-      <c r="BG103" s="23"/>
-      <c r="BH103" s="23"/>
-      <c r="BI103" s="23"/>
-      <c r="BJ103" s="22">
+      <c r="BG103" s="33"/>
+      <c r="BH103" s="33"/>
+      <c r="BI103" s="33"/>
+      <c r="BJ103" s="32">
         <v>2015</v>
       </c>
-      <c r="BK103" s="23"/>
-      <c r="BL103" s="23"/>
-      <c r="BM103" s="23"/>
-      <c r="BN103" s="22">
+      <c r="BK103" s="33"/>
+      <c r="BL103" s="33"/>
+      <c r="BM103" s="33"/>
+      <c r="BN103" s="32">
         <v>2016</v>
       </c>
-      <c r="BO103" s="23"/>
-      <c r="BP103" s="23"/>
-      <c r="BQ103" s="23"/>
-      <c r="BR103" s="22">
+      <c r="BO103" s="33"/>
+      <c r="BP103" s="33"/>
+      <c r="BQ103" s="33"/>
+      <c r="BR103" s="32">
         <v>2017</v>
       </c>
-      <c r="BS103" s="23"/>
-      <c r="BT103" s="23"/>
-      <c r="BU103" s="23"/>
-      <c r="BV103" s="22">
+      <c r="BS103" s="33"/>
+      <c r="BT103" s="33"/>
+      <c r="BU103" s="33"/>
+      <c r="BV103" s="32">
         <v>2018</v>
       </c>
-      <c r="BW103" s="23"/>
-      <c r="BX103" s="23"/>
-      <c r="BY103" s="23"/>
-      <c r="BZ103" s="22">
+      <c r="BW103" s="33"/>
+      <c r="BX103" s="33"/>
+      <c r="BY103" s="33"/>
+      <c r="BZ103" s="32">
         <v>2019</v>
       </c>
-      <c r="CA103" s="23"/>
-      <c r="CB103" s="23"/>
-      <c r="CC103" s="23"/>
-      <c r="CD103" s="22">
+      <c r="CA103" s="33"/>
+      <c r="CB103" s="33"/>
+      <c r="CC103" s="33"/>
+      <c r="CD103" s="32">
         <v>2020</v>
       </c>
-      <c r="CE103" s="22"/>
-      <c r="CF103" s="22"/>
-      <c r="CG103" s="22"/>
+      <c r="CE103" s="32"/>
+      <c r="CF103" s="32"/>
+      <c r="CG103" s="32"/>
       <c r="CH103" s="20">
         <v>2021</v>
       </c>
@@ -35320,16 +35391,17 @@
       <c r="CM103" s="20"/>
       <c r="CN103" s="20"/>
       <c r="CO103" s="20"/>
-      <c r="CP103" s="20">
+      <c r="CP103" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ103" s="20"/>
-      <c r="CR103" s="20"/>
-      <c r="CS103" s="20"/>
-      <c r="CT103" s="20">
+      <c r="CQ103" s="23"/>
+      <c r="CR103" s="23"/>
+      <c r="CS103" s="23"/>
+      <c r="CT103" s="23">
         <v>2024</v>
       </c>
-      <c r="CU103" s="20"/>
+      <c r="CU103" s="23"/>
+      <c r="CV103" s="23"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35611,23 +35683,26 @@
       <c r="CO104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP104" s="6" t="s">
+      <c r="CP104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ104" s="6" t="s">
+      <c r="CQ104" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR104" s="6" t="s">
+      <c r="CR104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS104" s="6" t="s">
+      <c r="CS104" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CT104" s="6" t="s">
+      <c r="CT104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CU104" s="6" t="s">
+      <c r="CU104" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CV104" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35913,25 +35988,27 @@
       <c r="CO106" s="15">
         <v>27.726038908902634</v>
       </c>
-      <c r="CP106" s="15">
+      <c r="CP106" s="31">
         <v>27.921866336741303</v>
       </c>
-      <c r="CQ106" s="15">
+      <c r="CQ106" s="31">
         <v>28.024361751336436</v>
       </c>
-      <c r="CR106" s="15">
+      <c r="CR106" s="31">
         <v>26.097696252306722</v>
       </c>
-      <c r="CS106" s="15">
+      <c r="CS106" s="31">
         <v>28.929028846736273</v>
       </c>
-      <c r="CT106" s="15">
+      <c r="CT106" s="31">
         <v>28.160558921217998</v>
       </c>
-      <c r="CU106" s="15">
-        <v>28.131584413649829</v>
-      </c>
-      <c r="CV106" s="9"/>
+      <c r="CU106" s="31">
+        <v>28.280179808761918</v>
+      </c>
+      <c r="CV106" s="31">
+        <v>26.616795895148488</v>
+      </c>
       <c r="CW106" s="9"/>
       <c r="CX106" s="9"/>
       <c r="CY106" s="9"/>
@@ -36316,25 +36393,27 @@
       <c r="CO107" s="15">
         <v>72.273961091097377</v>
       </c>
-      <c r="CP107" s="15">
+      <c r="CP107" s="31">
         <v>72.078133663258697</v>
       </c>
-      <c r="CQ107" s="15">
+      <c r="CQ107" s="31">
         <v>71.975638248663572</v>
       </c>
-      <c r="CR107" s="15">
+      <c r="CR107" s="31">
         <v>73.902303747693281</v>
       </c>
-      <c r="CS107" s="15">
+      <c r="CS107" s="31">
         <v>71.070971153263727</v>
       </c>
-      <c r="CT107" s="15">
+      <c r="CT107" s="31">
         <v>71.839441078782002</v>
       </c>
-      <c r="CU107" s="15">
-        <v>71.868415586350167</v>
-      </c>
-      <c r="CV107" s="9"/>
+      <c r="CU107" s="31">
+        <v>71.719820191238085</v>
+      </c>
+      <c r="CV107" s="31">
+        <v>73.383204104851515</v>
+      </c>
       <c r="CW107" s="9"/>
       <c r="CX107" s="9"/>
       <c r="CY107" s="9"/>
@@ -36532,13 +36611,13 @@
       <c r="CM108" s="9"/>
       <c r="CN108" s="9"/>
       <c r="CO108" s="9"/>
-      <c r="CP108" s="9"/>
-      <c r="CQ108" s="9"/>
-      <c r="CR108" s="9"/>
-      <c r="CS108" s="9"/>
-      <c r="CT108" s="9"/>
-      <c r="CU108" s="9"/>
-      <c r="CV108" s="9"/>
+      <c r="CP108" s="26"/>
+      <c r="CQ108" s="26"/>
+      <c r="CR108" s="26"/>
+      <c r="CS108" s="26"/>
+      <c r="CT108" s="26"/>
+      <c r="CU108" s="26"/>
+      <c r="CV108" s="26"/>
       <c r="CW108" s="9"/>
       <c r="CX108" s="9"/>
       <c r="CY108" s="9"/>
@@ -36923,25 +37002,27 @@
       <c r="CO109" s="15">
         <v>100</v>
       </c>
-      <c r="CP109" s="15">
+      <c r="CP109" s="31">
         <v>100</v>
       </c>
-      <c r="CQ109" s="15">
+      <c r="CQ109" s="31">
         <v>100</v>
       </c>
-      <c r="CR109" s="15">
+      <c r="CR109" s="31">
         <v>100</v>
       </c>
-      <c r="CS109" s="15">
+      <c r="CS109" s="31">
         <v>100</v>
       </c>
-      <c r="CT109" s="15">
+      <c r="CT109" s="31">
         <v>100</v>
       </c>
-      <c r="CU109" s="15">
+      <c r="CU109" s="31">
         <v>100</v>
       </c>
-      <c r="CV109" s="9"/>
+      <c r="CV109" s="31">
+        <v>100</v>
+      </c>
       <c r="CW109" s="9"/>
       <c r="CX109" s="9"/>
       <c r="CY109" s="9"/>
@@ -37140,12 +37221,13 @@
       <c r="CM110" s="12"/>
       <c r="CN110" s="12"/>
       <c r="CO110" s="12"/>
-      <c r="CP110" s="12"/>
-      <c r="CQ110" s="12"/>
-      <c r="CR110" s="12"/>
-      <c r="CS110" s="12"/>
-      <c r="CT110" s="12"/>
-      <c r="CU110" s="12"/>
+      <c r="CP110" s="28"/>
+      <c r="CQ110" s="28"/>
+      <c r="CR110" s="28"/>
+      <c r="CS110" s="28"/>
+      <c r="CT110" s="28"/>
+      <c r="CU110" s="28"/>
+      <c r="CV110" s="28"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37245,13 +37327,13 @@
       <c r="CM112" s="9"/>
       <c r="CN112" s="9"/>
       <c r="CO112" s="9"/>
-      <c r="CP112" s="9"/>
-      <c r="CQ112" s="9"/>
-      <c r="CR112" s="9"/>
-      <c r="CS112" s="9"/>
-      <c r="CT112" s="9"/>
-      <c r="CU112" s="9"/>
-      <c r="CV112" s="9"/>
+      <c r="CP112" s="26"/>
+      <c r="CQ112" s="26"/>
+      <c r="CR112" s="26"/>
+      <c r="CS112" s="26"/>
+      <c r="CT112" s="26"/>
+      <c r="CU112" s="26"/>
+      <c r="CV112" s="26"/>
       <c r="CW112" s="9"/>
       <c r="CX112" s="9"/>
       <c r="CY112" s="9"/>
@@ -37449,13 +37531,13 @@
       <c r="CM113" s="9"/>
       <c r="CN113" s="9"/>
       <c r="CO113" s="9"/>
-      <c r="CP113" s="9"/>
-      <c r="CQ113" s="9"/>
-      <c r="CR113" s="9"/>
-      <c r="CS113" s="9"/>
-      <c r="CT113" s="9"/>
-      <c r="CU113" s="9"/>
-      <c r="CV113" s="9"/>
+      <c r="CP113" s="26"/>
+      <c r="CQ113" s="26"/>
+      <c r="CR113" s="26"/>
+      <c r="CS113" s="26"/>
+      <c r="CT113" s="26"/>
+      <c r="CU113" s="26"/>
+      <c r="CV113" s="26"/>
       <c r="CW113" s="9"/>
       <c r="CX113" s="9"/>
       <c r="CY113" s="9"/>
@@ -37592,132 +37674,132 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="22">
+      <c r="B122" s="32">
         <v>2000</v>
       </c>
-      <c r="C122" s="23"/>
-      <c r="D122" s="23"/>
-      <c r="E122" s="23"/>
-      <c r="F122" s="22">
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="32">
         <v>2001</v>
       </c>
-      <c r="G122" s="23"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="23"/>
-      <c r="J122" s="22">
+      <c r="G122" s="33"/>
+      <c r="H122" s="33"/>
+      <c r="I122" s="33"/>
+      <c r="J122" s="32">
         <v>2002</v>
       </c>
-      <c r="K122" s="23"/>
-      <c r="L122" s="23"/>
-      <c r="M122" s="23"/>
-      <c r="N122" s="22">
+      <c r="K122" s="33"/>
+      <c r="L122" s="33"/>
+      <c r="M122" s="33"/>
+      <c r="N122" s="32">
         <v>2003</v>
       </c>
-      <c r="O122" s="23"/>
-      <c r="P122" s="23"/>
-      <c r="Q122" s="23"/>
-      <c r="R122" s="22">
+      <c r="O122" s="33"/>
+      <c r="P122" s="33"/>
+      <c r="Q122" s="33"/>
+      <c r="R122" s="32">
         <v>2004</v>
       </c>
-      <c r="S122" s="23"/>
-      <c r="T122" s="23"/>
-      <c r="U122" s="23"/>
-      <c r="V122" s="22">
+      <c r="S122" s="33"/>
+      <c r="T122" s="33"/>
+      <c r="U122" s="33"/>
+      <c r="V122" s="32">
         <v>2005</v>
       </c>
-      <c r="W122" s="23"/>
-      <c r="X122" s="23"/>
-      <c r="Y122" s="23"/>
-      <c r="Z122" s="22">
+      <c r="W122" s="33"/>
+      <c r="X122" s="33"/>
+      <c r="Y122" s="33"/>
+      <c r="Z122" s="32">
         <v>2006</v>
       </c>
-      <c r="AA122" s="23"/>
-      <c r="AB122" s="23"/>
-      <c r="AC122" s="23"/>
-      <c r="AD122" s="22">
+      <c r="AA122" s="33"/>
+      <c r="AB122" s="33"/>
+      <c r="AC122" s="33"/>
+      <c r="AD122" s="32">
         <v>2007</v>
       </c>
-      <c r="AE122" s="23"/>
-      <c r="AF122" s="23"/>
-      <c r="AG122" s="23"/>
-      <c r="AH122" s="22">
+      <c r="AE122" s="33"/>
+      <c r="AF122" s="33"/>
+      <c r="AG122" s="33"/>
+      <c r="AH122" s="32">
         <v>2008</v>
       </c>
-      <c r="AI122" s="23"/>
-      <c r="AJ122" s="23"/>
-      <c r="AK122" s="23"/>
-      <c r="AL122" s="22">
+      <c r="AI122" s="33"/>
+      <c r="AJ122" s="33"/>
+      <c r="AK122" s="33"/>
+      <c r="AL122" s="32">
         <v>2009</v>
       </c>
-      <c r="AM122" s="23"/>
-      <c r="AN122" s="23"/>
-      <c r="AO122" s="23"/>
-      <c r="AP122" s="22">
+      <c r="AM122" s="33"/>
+      <c r="AN122" s="33"/>
+      <c r="AO122" s="33"/>
+      <c r="AP122" s="32">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="23"/>
-      <c r="AR122" s="23"/>
-      <c r="AS122" s="23"/>
-      <c r="AT122" s="22">
+      <c r="AQ122" s="33"/>
+      <c r="AR122" s="33"/>
+      <c r="AS122" s="33"/>
+      <c r="AT122" s="32">
         <v>2011</v>
       </c>
-      <c r="AU122" s="23"/>
-      <c r="AV122" s="23"/>
-      <c r="AW122" s="23"/>
-      <c r="AX122" s="22">
+      <c r="AU122" s="33"/>
+      <c r="AV122" s="33"/>
+      <c r="AW122" s="33"/>
+      <c r="AX122" s="32">
         <v>2012</v>
       </c>
-      <c r="AY122" s="23"/>
-      <c r="AZ122" s="23"/>
-      <c r="BA122" s="23"/>
-      <c r="BB122" s="22">
+      <c r="AY122" s="33"/>
+      <c r="AZ122" s="33"/>
+      <c r="BA122" s="33"/>
+      <c r="BB122" s="32">
         <v>2013</v>
       </c>
-      <c r="BC122" s="23"/>
-      <c r="BD122" s="23"/>
-      <c r="BE122" s="23"/>
-      <c r="BF122" s="22">
+      <c r="BC122" s="33"/>
+      <c r="BD122" s="33"/>
+      <c r="BE122" s="33"/>
+      <c r="BF122" s="32">
         <v>2014</v>
       </c>
-      <c r="BG122" s="23"/>
-      <c r="BH122" s="23"/>
-      <c r="BI122" s="23"/>
-      <c r="BJ122" s="22">
+      <c r="BG122" s="33"/>
+      <c r="BH122" s="33"/>
+      <c r="BI122" s="33"/>
+      <c r="BJ122" s="32">
         <v>2015</v>
       </c>
-      <c r="BK122" s="23"/>
-      <c r="BL122" s="23"/>
-      <c r="BM122" s="23"/>
-      <c r="BN122" s="22">
+      <c r="BK122" s="33"/>
+      <c r="BL122" s="33"/>
+      <c r="BM122" s="33"/>
+      <c r="BN122" s="32">
         <v>2016</v>
       </c>
-      <c r="BO122" s="23"/>
-      <c r="BP122" s="23"/>
-      <c r="BQ122" s="23"/>
-      <c r="BR122" s="22">
+      <c r="BO122" s="33"/>
+      <c r="BP122" s="33"/>
+      <c r="BQ122" s="33"/>
+      <c r="BR122" s="32">
         <v>2017</v>
       </c>
-      <c r="BS122" s="23"/>
-      <c r="BT122" s="23"/>
-      <c r="BU122" s="23"/>
-      <c r="BV122" s="22">
+      <c r="BS122" s="33"/>
+      <c r="BT122" s="33"/>
+      <c r="BU122" s="33"/>
+      <c r="BV122" s="32">
         <v>2018</v>
       </c>
-      <c r="BW122" s="23"/>
-      <c r="BX122" s="23"/>
-      <c r="BY122" s="23"/>
-      <c r="BZ122" s="22">
+      <c r="BW122" s="33"/>
+      <c r="BX122" s="33"/>
+      <c r="BY122" s="33"/>
+      <c r="BZ122" s="32">
         <v>2019</v>
       </c>
-      <c r="CA122" s="23"/>
-      <c r="CB122" s="23"/>
-      <c r="CC122" s="23"/>
-      <c r="CD122" s="22">
+      <c r="CA122" s="33"/>
+      <c r="CB122" s="33"/>
+      <c r="CC122" s="33"/>
+      <c r="CD122" s="32">
         <v>2020</v>
       </c>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
+      <c r="CE122" s="32"/>
+      <c r="CF122" s="32"/>
+      <c r="CG122" s="32"/>
       <c r="CH122" s="20">
         <v>2021</v>
       </c>
@@ -37730,16 +37812,17 @@
       <c r="CM122" s="20"/>
       <c r="CN122" s="20"/>
       <c r="CO122" s="20"/>
-      <c r="CP122" s="20">
+      <c r="CP122" s="23">
         <v>2023</v>
       </c>
-      <c r="CQ122" s="20"/>
-      <c r="CR122" s="20"/>
-      <c r="CS122" s="20"/>
-      <c r="CT122" s="20">
+      <c r="CQ122" s="23"/>
+      <c r="CR122" s="23"/>
+      <c r="CS122" s="23"/>
+      <c r="CT122" s="23">
         <v>2024</v>
       </c>
-      <c r="CU122" s="20"/>
+      <c r="CU122" s="23"/>
+      <c r="CV122" s="23"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -38021,23 +38104,26 @@
       <c r="CO123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP123" s="6" t="s">
+      <c r="CP123" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CQ123" s="6" t="s">
+      <c r="CQ123" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CR123" s="6" t="s">
+      <c r="CR123" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CS123" s="6" t="s">
+      <c r="CS123" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="CT123" s="6" t="s">
+      <c r="CT123" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CU123" s="6" t="s">
+      <c r="CU123" s="24" t="s">
         <v>8</v>
+      </c>
+      <c r="CV123" s="24" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38323,25 +38409,27 @@
       <c r="CO125" s="15">
         <v>30.112435154956184</v>
       </c>
-      <c r="CP125" s="15">
+      <c r="CP125" s="31">
         <v>30.453228090831502</v>
       </c>
-      <c r="CQ125" s="15">
+      <c r="CQ125" s="31">
         <v>30.171822240460443</v>
       </c>
-      <c r="CR125" s="15">
+      <c r="CR125" s="31">
         <v>28.297756228104866</v>
       </c>
-      <c r="CS125" s="15">
+      <c r="CS125" s="31">
         <v>31.297457005044262</v>
       </c>
-      <c r="CT125" s="15">
+      <c r="CT125" s="31">
         <v>31.256672855500682</v>
       </c>
-      <c r="CU125" s="15">
-        <v>30.833013934565717</v>
-      </c>
-      <c r="CV125" s="9"/>
+      <c r="CU125" s="31">
+        <v>30.989725734448264</v>
+      </c>
+      <c r="CV125" s="31">
+        <v>29.322056968408461</v>
+      </c>
       <c r="CW125" s="9"/>
       <c r="CX125" s="9"/>
       <c r="CY125" s="9"/>
@@ -38726,25 +38814,27 @@
       <c r="CO126" s="15">
         <v>69.887564845043826</v>
       </c>
-      <c r="CP126" s="15">
+      <c r="CP126" s="31">
         <v>69.546771909168498</v>
       </c>
-      <c r="CQ126" s="15">
+      <c r="CQ126" s="31">
         <v>69.828177759539557</v>
       </c>
-      <c r="CR126" s="15">
+      <c r="CR126" s="31">
         <v>71.702243771895141</v>
       </c>
-      <c r="CS126" s="15">
+      <c r="CS126" s="31">
         <v>68.702542994955735</v>
       </c>
-      <c r="CT126" s="15">
+      <c r="CT126" s="31">
         <v>68.743327144499318</v>
       </c>
-      <c r="CU126" s="15">
-        <v>69.166986065434287</v>
-      </c>
-      <c r="CV126" s="9"/>
+      <c r="CU126" s="31">
+        <v>69.010274265551729</v>
+      </c>
+      <c r="CV126" s="31">
+        <v>70.677943031591553</v>
+      </c>
       <c r="CW126" s="9"/>
       <c r="CX126" s="9"/>
       <c r="CY126" s="9"/>
@@ -38942,13 +39032,13 @@
       <c r="CM127" s="9"/>
       <c r="CN127" s="9"/>
       <c r="CO127" s="9"/>
-      <c r="CP127" s="9"/>
-      <c r="CQ127" s="9"/>
-      <c r="CR127" s="9"/>
-      <c r="CS127" s="9"/>
-      <c r="CT127" s="9"/>
-      <c r="CU127" s="9"/>
-      <c r="CV127" s="9"/>
+      <c r="CP127" s="26"/>
+      <c r="CQ127" s="26"/>
+      <c r="CR127" s="26"/>
+      <c r="CS127" s="26"/>
+      <c r="CT127" s="26"/>
+      <c r="CU127" s="26"/>
+      <c r="CV127" s="26"/>
       <c r="CW127" s="9"/>
       <c r="CX127" s="9"/>
       <c r="CY127" s="9"/>
@@ -39333,25 +39423,27 @@
       <c r="CO128" s="15">
         <v>100</v>
       </c>
-      <c r="CP128" s="15">
+      <c r="CP128" s="31">
         <v>100</v>
       </c>
-      <c r="CQ128" s="15">
+      <c r="CQ128" s="31">
         <v>100</v>
       </c>
-      <c r="CR128" s="15">
+      <c r="CR128" s="31">
         <v>100</v>
       </c>
-      <c r="CS128" s="15">
+      <c r="CS128" s="31">
         <v>100</v>
       </c>
-      <c r="CT128" s="15">
+      <c r="CT128" s="31">
         <v>100</v>
       </c>
-      <c r="CU128" s="15">
+      <c r="CU128" s="31">
         <v>100</v>
       </c>
-      <c r="CV128" s="9"/>
+      <c r="CV128" s="31">
+        <v>100</v>
+      </c>
       <c r="CW128" s="9"/>
       <c r="CX128" s="9"/>
       <c r="CY128" s="9"/>
@@ -39550,12 +39642,13 @@
       <c r="CM129" s="12"/>
       <c r="CN129" s="12"/>
       <c r="CO129" s="12"/>
-      <c r="CP129" s="12"/>
-      <c r="CQ129" s="12"/>
-      <c r="CR129" s="12"/>
-      <c r="CS129" s="12"/>
-      <c r="CT129" s="12"/>
-      <c r="CU129" s="12"/>
+      <c r="CP129" s="28"/>
+      <c r="CQ129" s="28"/>
+      <c r="CR129" s="28"/>
+      <c r="CS129" s="28"/>
+      <c r="CT129" s="28"/>
+      <c r="CU129" s="28"/>
+      <c r="CV129" s="28"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39656,13 +39749,13 @@
       <c r="CM131" s="1"/>
       <c r="CN131" s="1"/>
       <c r="CO131" s="1"/>
-      <c r="CP131" s="1"/>
-      <c r="CQ131" s="1"/>
-      <c r="CR131" s="1"/>
-      <c r="CS131" s="1"/>
-      <c r="CT131" s="1"/>
-      <c r="CU131" s="1"/>
-      <c r="CV131" s="16"/>
+      <c r="CP131" s="22"/>
+      <c r="CQ131" s="22"/>
+      <c r="CR131" s="22"/>
+      <c r="CS131" s="22"/>
+      <c r="CT131" s="22"/>
+      <c r="CU131" s="22"/>
+      <c r="CV131" s="22"/>
       <c r="CW131" s="16"/>
       <c r="CX131" s="16"/>
       <c r="CY131" s="16"/>
@@ -39861,13 +39954,13 @@
       <c r="CM132" s="1"/>
       <c r="CN132" s="1"/>
       <c r="CO132" s="1"/>
-      <c r="CP132" s="1"/>
-      <c r="CQ132" s="1"/>
-      <c r="CR132" s="1"/>
-      <c r="CS132" s="1"/>
-      <c r="CT132" s="1"/>
-      <c r="CU132" s="1"/>
-      <c r="CV132" s="16"/>
+      <c r="CP132" s="22"/>
+      <c r="CQ132" s="22"/>
+      <c r="CR132" s="22"/>
+      <c r="CS132" s="22"/>
+      <c r="CT132" s="22"/>
+      <c r="CU132" s="22"/>
+      <c r="CV132" s="22"/>
       <c r="CW132" s="16"/>
       <c r="CX132" s="16"/>
       <c r="CY132" s="16"/>
@@ -40127,9 +40220,9 @@
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="98" man="1"/>
-    <brk id="76" max="98" man="1"/>
-    <brk id="94" max="98" man="1"/>
+    <brk id="38" max="99" man="1"/>
+    <brk id="76" max="99" man="1"/>
+    <brk id="94" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587350D1-07B0-437F-BE46-7E30A94D2AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEDBFCE-4312-42C0-8AEF-2A6B629F27B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AFSA" sheetId="9" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CV$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CW$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -620,13 +620,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -766,6 +766,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23625,15 +23634,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
     <col min="2" max="93" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="22" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="10.109375" style="22" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23648,7 +23657,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23658,7 +23667,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23668,132 +23677,132 @@
     </row>
     <row r="9" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="32">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="32"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="32"/>
-      <c r="V9" s="32">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="32"/>
-      <c r="X9" s="32"/>
-      <c r="Y9" s="32"/>
-      <c r="Z9" s="32">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="32"/>
-      <c r="AB9" s="32"/>
-      <c r="AC9" s="32"/>
-      <c r="AD9" s="32">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="32"/>
-      <c r="AK9" s="32"/>
-      <c r="AL9" s="32">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="32"/>
-      <c r="AN9" s="32"/>
-      <c r="AO9" s="32"/>
-      <c r="AP9" s="32">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="32"/>
-      <c r="AR9" s="32"/>
-      <c r="AS9" s="32"/>
-      <c r="AT9" s="32">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="32"/>
-      <c r="AV9" s="32"/>
-      <c r="AW9" s="32"/>
-      <c r="AX9" s="32">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="32"/>
-      <c r="AZ9" s="32"/>
-      <c r="BA9" s="32"/>
-      <c r="BB9" s="32">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="32"/>
-      <c r="BD9" s="32"/>
-      <c r="BE9" s="32"/>
-      <c r="BF9" s="32">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="32"/>
-      <c r="BH9" s="32"/>
-      <c r="BI9" s="32"/>
-      <c r="BJ9" s="32">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="32"/>
-      <c r="BL9" s="32"/>
-      <c r="BM9" s="32"/>
-      <c r="BN9" s="32">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="32"/>
-      <c r="BP9" s="32"/>
-      <c r="BQ9" s="32"/>
-      <c r="BR9" s="32">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="32"/>
-      <c r="BT9" s="32"/>
-      <c r="BU9" s="32"/>
-      <c r="BV9" s="32">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="32"/>
-      <c r="BX9" s="32"/>
-      <c r="BY9" s="32"/>
-      <c r="BZ9" s="32">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="35">
         <v>2019</v>
       </c>
-      <c r="CA9" s="32"/>
-      <c r="CB9" s="32"/>
-      <c r="CC9" s="32"/>
-      <c r="CD9" s="32">
+      <c r="CA9" s="35"/>
+      <c r="CB9" s="35"/>
+      <c r="CC9" s="35"/>
+      <c r="CD9" s="35">
         <v>2020</v>
       </c>
-      <c r="CE9" s="32"/>
-      <c r="CF9" s="32"/>
-      <c r="CG9" s="32"/>
+      <c r="CE9" s="35"/>
+      <c r="CF9" s="35"/>
+      <c r="CG9" s="35"/>
       <c r="CH9" s="20">
         <v>2021</v>
       </c>
@@ -23817,6 +23826,7 @@
       </c>
       <c r="CU9" s="23"/>
       <c r="CV9" s="23"/>
+      <c r="CW9" s="23"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24118,6 +24128,9 @@
       </c>
       <c r="CV10" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24422,9 +24435,11 @@
         <v>35354.678662058337</v>
       </c>
       <c r="CV12" s="25">
-        <v>35407.212338076155</v>
-      </c>
-      <c r="CW12" s="9"/>
+        <v>34620.526157347449</v>
+      </c>
+      <c r="CW12" s="25">
+        <v>48066.915141393794</v>
+      </c>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
@@ -24827,9 +24842,11 @@
         <v>89661.070534502855</v>
       </c>
       <c r="CV13" s="25">
-        <v>97618.612699451827</v>
-      </c>
-      <c r="CW13" s="9"/>
+        <v>98470.245565443358</v>
+      </c>
+      <c r="CW13" s="25">
+        <v>116093.4053775958</v>
+      </c>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
@@ -25033,7 +25050,7 @@
       <c r="CT14" s="26"/>
       <c r="CU14" s="26"/>
       <c r="CV14" s="26"/>
-      <c r="CW14" s="9"/>
+      <c r="CW14" s="26"/>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
@@ -25436,9 +25453,11 @@
         <v>125015.7491965612</v>
       </c>
       <c r="CV15" s="27">
-        <v>133025.82503752797</v>
-      </c>
-      <c r="CW15" s="9"/>
+        <v>133090.77172279081</v>
+      </c>
+      <c r="CW15" s="27">
+        <v>164160.32051898958</v>
+      </c>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
@@ -25643,6 +25662,7 @@
       <c r="CT16" s="28"/>
       <c r="CU16" s="28"/>
       <c r="CV16" s="28"/>
+      <c r="CW16" s="28"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25749,7 +25769,7 @@
       <c r="CT18" s="26"/>
       <c r="CU18" s="26"/>
       <c r="CV18" s="26"/>
-      <c r="CW18" s="9"/>
+      <c r="CW18" s="26"/>
       <c r="CX18" s="9"/>
       <c r="CY18" s="9"/>
       <c r="CZ18" s="9"/>
@@ -25953,7 +25973,7 @@
       <c r="CT19" s="29"/>
       <c r="CU19" s="29"/>
       <c r="CV19" s="29"/>
-      <c r="CW19" s="9"/>
+      <c r="CW19" s="29"/>
       <c r="CX19" s="9"/>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
@@ -26069,7 +26089,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -26079,7 +26099,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -26089,132 +26109,132 @@
     </row>
     <row r="28" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="32">
+      <c r="B28" s="35">
         <v>2000</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="32">
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="35">
         <v>2001</v>
       </c>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="32">
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35">
         <v>2002</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="32">
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="35">
         <v>2003</v>
       </c>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="32">
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="35">
         <v>2004</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="32">
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="35">
         <v>2005</v>
       </c>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="32">
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="35">
         <v>2006</v>
       </c>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="33"/>
-      <c r="AD28" s="32">
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
+      <c r="AC28" s="36"/>
+      <c r="AD28" s="35">
         <v>2007</v>
       </c>
-      <c r="AE28" s="33"/>
-      <c r="AF28" s="33"/>
-      <c r="AG28" s="33"/>
-      <c r="AH28" s="32">
+      <c r="AE28" s="36"/>
+      <c r="AF28" s="36"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="35">
         <v>2008</v>
       </c>
-      <c r="AI28" s="33"/>
-      <c r="AJ28" s="33"/>
-      <c r="AK28" s="33"/>
-      <c r="AL28" s="32">
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="35">
         <v>2009</v>
       </c>
-      <c r="AM28" s="33"/>
-      <c r="AN28" s="33"/>
-      <c r="AO28" s="33"/>
-      <c r="AP28" s="32">
+      <c r="AM28" s="36"/>
+      <c r="AN28" s="36"/>
+      <c r="AO28" s="36"/>
+      <c r="AP28" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ28" s="33"/>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="32">
+      <c r="AQ28" s="36"/>
+      <c r="AR28" s="36"/>
+      <c r="AS28" s="36"/>
+      <c r="AT28" s="35">
         <v>2011</v>
       </c>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="32">
+      <c r="AU28" s="36"/>
+      <c r="AV28" s="36"/>
+      <c r="AW28" s="36"/>
+      <c r="AX28" s="35">
         <v>2012</v>
       </c>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="32">
+      <c r="AY28" s="36"/>
+      <c r="AZ28" s="36"/>
+      <c r="BA28" s="36"/>
+      <c r="BB28" s="35">
         <v>2013</v>
       </c>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="32">
+      <c r="BC28" s="36"/>
+      <c r="BD28" s="36"/>
+      <c r="BE28" s="36"/>
+      <c r="BF28" s="35">
         <v>2014</v>
       </c>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="32">
+      <c r="BG28" s="36"/>
+      <c r="BH28" s="36"/>
+      <c r="BI28" s="36"/>
+      <c r="BJ28" s="35">
         <v>2015</v>
       </c>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="32">
+      <c r="BK28" s="36"/>
+      <c r="BL28" s="36"/>
+      <c r="BM28" s="36"/>
+      <c r="BN28" s="35">
         <v>2016</v>
       </c>
-      <c r="BO28" s="33"/>
-      <c r="BP28" s="33"/>
-      <c r="BQ28" s="33"/>
-      <c r="BR28" s="32">
+      <c r="BO28" s="36"/>
+      <c r="BP28" s="36"/>
+      <c r="BQ28" s="36"/>
+      <c r="BR28" s="35">
         <v>2017</v>
       </c>
-      <c r="BS28" s="33"/>
-      <c r="BT28" s="33"/>
-      <c r="BU28" s="33"/>
-      <c r="BV28" s="32">
+      <c r="BS28" s="36"/>
+      <c r="BT28" s="36"/>
+      <c r="BU28" s="36"/>
+      <c r="BV28" s="35">
         <v>2018</v>
       </c>
-      <c r="BW28" s="33"/>
-      <c r="BX28" s="33"/>
-      <c r="BY28" s="33"/>
-      <c r="BZ28" s="32">
+      <c r="BW28" s="36"/>
+      <c r="BX28" s="36"/>
+      <c r="BY28" s="36"/>
+      <c r="BZ28" s="35">
         <v>2019</v>
       </c>
-      <c r="CA28" s="33"/>
-      <c r="CB28" s="33"/>
-      <c r="CC28" s="33"/>
-      <c r="CD28" s="32">
+      <c r="CA28" s="36"/>
+      <c r="CB28" s="36"/>
+      <c r="CC28" s="36"/>
+      <c r="CD28" s="35">
         <v>2020</v>
       </c>
-      <c r="CE28" s="32"/>
-      <c r="CF28" s="32"/>
-      <c r="CG28" s="32"/>
+      <c r="CE28" s="35"/>
+      <c r="CF28" s="35"/>
+      <c r="CG28" s="35"/>
       <c r="CH28" s="20">
         <v>2021</v>
       </c>
@@ -26238,6 +26258,7 @@
       </c>
       <c r="CU28" s="23"/>
       <c r="CV28" s="23"/>
+      <c r="CW28" s="23"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26539,6 +26560,9 @@
       </c>
       <c r="CV29" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CW29" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26843,9 +26867,11 @@
         <v>29507.384208592404</v>
       </c>
       <c r="CV31" s="25">
-        <v>30391.992536404076</v>
-      </c>
-      <c r="CW31" s="9"/>
+        <v>29716.735746772887</v>
+      </c>
+      <c r="CW31" s="25">
+        <v>40607.832518110285</v>
+      </c>
       <c r="CX31" s="9"/>
       <c r="CY31" s="9"/>
       <c r="CZ31" s="9"/>
@@ -27248,9 +27274,11 @@
         <v>65709.283603965596</v>
       </c>
       <c r="CV32" s="25">
-        <v>73256.917801463293</v>
-      </c>
-      <c r="CW32" s="9"/>
+        <v>73896.01722252398</v>
+      </c>
+      <c r="CW32" s="25">
+        <v>86010.630882796831</v>
+      </c>
       <c r="CX32" s="9"/>
       <c r="CY32" s="9"/>
       <c r="CZ32" s="9"/>
@@ -27454,7 +27482,7 @@
       <c r="CT33" s="26"/>
       <c r="CU33" s="26"/>
       <c r="CV33" s="26"/>
-      <c r="CW33" s="9"/>
+      <c r="CW33" s="26"/>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
@@ -27857,9 +27885,11 @@
         <v>95216.667812558007</v>
       </c>
       <c r="CV34" s="27">
-        <v>103648.91033786736</v>
-      </c>
-      <c r="CW34" s="9"/>
+        <v>103612.75296929687</v>
+      </c>
+      <c r="CW34" s="27">
+        <v>126618.46340090712</v>
+      </c>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
@@ -28064,6 +28094,7 @@
       <c r="CT35" s="28"/>
       <c r="CU35" s="28"/>
       <c r="CV35" s="28"/>
+      <c r="CW35" s="28"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28170,7 +28201,7 @@
       <c r="CT37" s="26"/>
       <c r="CU37" s="26"/>
       <c r="CV37" s="26"/>
-      <c r="CW37" s="9"/>
+      <c r="CW37" s="26"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
@@ -28374,7 +28405,7 @@
       <c r="CT38" s="26"/>
       <c r="CU38" s="26"/>
       <c r="CV38" s="26"/>
-      <c r="CW38" s="9"/>
+      <c r="CW38" s="26"/>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
@@ -28490,7 +28521,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28500,142 +28531,152 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="CT45" s="32"/>
+      <c r="CU45" s="32"/>
+      <c r="CV45" s="32"/>
+      <c r="CW45" s="32"/>
+    </row>
+    <row r="46" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CT46" s="32"/>
+      <c r="CU46" s="32"/>
+      <c r="CV46" s="32"/>
+      <c r="CW46" s="32"/>
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32" t="s">
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32" t="s">
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32" t="s">
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32" t="s">
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32" t="s">
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32" t="s">
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AA47" s="32"/>
-      <c r="AB47" s="32"/>
-      <c r="AC47" s="32"/>
-      <c r="AD47" s="32" t="s">
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32" t="s">
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="32"/>
-      <c r="AK47" s="32"/>
-      <c r="AL47" s="32" t="s">
+      <c r="AI47" s="35"/>
+      <c r="AJ47" s="35"/>
+      <c r="AK47" s="35"/>
+      <c r="AL47" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AM47" s="32"/>
-      <c r="AN47" s="32"/>
-      <c r="AO47" s="32"/>
-      <c r="AP47" s="32" t="s">
+      <c r="AM47" s="35"/>
+      <c r="AN47" s="35"/>
+      <c r="AO47" s="35"/>
+      <c r="AP47" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ47" s="32"/>
-      <c r="AR47" s="32"/>
-      <c r="AS47" s="32"/>
-      <c r="AT47" s="32" t="s">
+      <c r="AQ47" s="35"/>
+      <c r="AR47" s="35"/>
+      <c r="AS47" s="35"/>
+      <c r="AT47" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AU47" s="32"/>
-      <c r="AV47" s="32"/>
-      <c r="AW47" s="32"/>
-      <c r="AX47" s="32" t="s">
+      <c r="AU47" s="35"/>
+      <c r="AV47" s="35"/>
+      <c r="AW47" s="35"/>
+      <c r="AX47" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AY47" s="32"/>
-      <c r="AZ47" s="32"/>
-      <c r="BA47" s="32"/>
-      <c r="BB47" s="32" t="s">
+      <c r="AY47" s="35"/>
+      <c r="AZ47" s="35"/>
+      <c r="BA47" s="35"/>
+      <c r="BB47" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="BC47" s="32"/>
-      <c r="BD47" s="32"/>
-      <c r="BE47" s="32"/>
-      <c r="BF47" s="32" t="s">
+      <c r="BC47" s="35"/>
+      <c r="BD47" s="35"/>
+      <c r="BE47" s="35"/>
+      <c r="BF47" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BG47" s="32"/>
-      <c r="BH47" s="32"/>
-      <c r="BI47" s="32"/>
-      <c r="BJ47" s="32" t="s">
+      <c r="BG47" s="35"/>
+      <c r="BH47" s="35"/>
+      <c r="BI47" s="35"/>
+      <c r="BJ47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BK47" s="32"/>
-      <c r="BL47" s="32"/>
-      <c r="BM47" s="32"/>
-      <c r="BN47" s="32" t="s">
+      <c r="BK47" s="35"/>
+      <c r="BL47" s="35"/>
+      <c r="BM47" s="35"/>
+      <c r="BN47" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BO47" s="32"/>
-      <c r="BP47" s="32"/>
-      <c r="BQ47" s="32"/>
-      <c r="BR47" s="32" t="s">
+      <c r="BO47" s="35"/>
+      <c r="BP47" s="35"/>
+      <c r="BQ47" s="35"/>
+      <c r="BR47" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BS47" s="32"/>
-      <c r="BT47" s="32"/>
-      <c r="BU47" s="32"/>
-      <c r="BV47" s="32" t="s">
+      <c r="BS47" s="35"/>
+      <c r="BT47" s="35"/>
+      <c r="BU47" s="35"/>
+      <c r="BV47" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BW47" s="32"/>
-      <c r="BX47" s="32"/>
-      <c r="BY47" s="32"/>
-      <c r="BZ47" s="32" t="s">
+      <c r="BW47" s="35"/>
+      <c r="BX47" s="35"/>
+      <c r="BY47" s="35"/>
+      <c r="BZ47" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="CA47" s="32"/>
-      <c r="CB47" s="32"/>
-      <c r="CC47" s="32"/>
-      <c r="CD47" s="32" t="s">
+      <c r="CA47" s="35"/>
+      <c r="CB47" s="35"/>
+      <c r="CC47" s="35"/>
+      <c r="CD47" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="CE47" s="32"/>
-      <c r="CF47" s="32"/>
-      <c r="CG47" s="32"/>
+      <c r="CE47" s="35"/>
+      <c r="CF47" s="35"/>
+      <c r="CG47" s="35"/>
       <c r="CH47" s="20" t="s">
         <v>47</v>
       </c>
@@ -28653,10 +28694,11 @@
       </c>
       <c r="CQ47" s="23"/>
       <c r="CR47" s="23"/>
-      <c r="CS47" s="21"/>
-      <c r="CT47" s="23"/>
-      <c r="CU47" s="23"/>
+      <c r="CS47" s="23"/>
+      <c r="CT47" s="21"/>
+      <c r="CU47" s="21"/>
       <c r="CV47" s="21"/>
+      <c r="CW47" s="21"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28947,13 +28989,20 @@
       <c r="CR48" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CS48" s="30"/>
+      <c r="CS48" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CT48" s="30"/>
       <c r="CU48" s="30"/>
       <c r="CV48" s="30"/>
+      <c r="CW48" s="30"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
+      <c r="CT49" s="32"/>
+      <c r="CU49" s="32"/>
+      <c r="CV49" s="32"/>
+      <c r="CW49" s="32"/>
     </row>
     <row r="50" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29242,13 +29291,15 @@
         <v>18.10464200221746</v>
       </c>
       <c r="CR50" s="31">
-        <v>17.226553019743832</v>
-      </c>
-      <c r="CS50" s="31"/>
-      <c r="CT50" s="31"/>
-      <c r="CU50" s="31"/>
-      <c r="CV50" s="31"/>
-      <c r="CW50" s="9"/>
+        <v>14.621984538199712</v>
+      </c>
+      <c r="CS50" s="31">
+        <v>10.781163708259726</v>
+      </c>
+      <c r="CT50" s="33"/>
+      <c r="CU50" s="33"/>
+      <c r="CV50" s="33"/>
+      <c r="CW50" s="33"/>
       <c r="CX50" s="9"/>
       <c r="CY50" s="9"/>
       <c r="CZ50" s="9"/>
@@ -29635,13 +29686,15 @@
         <v>16.620311974775731</v>
       </c>
       <c r="CR51" s="31">
-        <v>14.132961461842953</v>
-      </c>
-      <c r="CS51" s="31"/>
-      <c r="CT51" s="31"/>
-      <c r="CU51" s="31"/>
-      <c r="CV51" s="31"/>
-      <c r="CW51" s="9"/>
+        <v>15.128666874837364</v>
+      </c>
+      <c r="CS51" s="31">
+        <v>8.9102681718268286</v>
+      </c>
+      <c r="CT51" s="33"/>
+      <c r="CU51" s="33"/>
+      <c r="CV51" s="33"/>
+      <c r="CW51" s="33"/>
       <c r="CX51" s="9"/>
       <c r="CY51" s="9"/>
       <c r="CZ51" s="9"/>
@@ -29839,10 +29892,10 @@
       <c r="CQ52" s="26"/>
       <c r="CR52" s="26"/>
       <c r="CS52" s="26"/>
-      <c r="CT52" s="26"/>
-      <c r="CU52" s="26"/>
-      <c r="CV52" s="26"/>
-      <c r="CW52" s="9"/>
+      <c r="CT52" s="34"/>
+      <c r="CU52" s="34"/>
+      <c r="CV52" s="34"/>
+      <c r="CW52" s="34"/>
       <c r="CX52" s="9"/>
       <c r="CY52" s="9"/>
       <c r="CZ52" s="9"/>
@@ -30229,13 +30282,15 @@
         <v>17.036285991249727</v>
       </c>
       <c r="CR53" s="31">
-        <v>14.940317589910919</v>
-      </c>
-      <c r="CS53" s="31"/>
-      <c r="CT53" s="31"/>
-      <c r="CU53" s="31"/>
-      <c r="CV53" s="31"/>
-      <c r="CW53" s="9"/>
+        <v>14.996434457657585</v>
+      </c>
+      <c r="CS53" s="31">
+        <v>9.4515000812537977</v>
+      </c>
+      <c r="CT53" s="33"/>
+      <c r="CU53" s="33"/>
+      <c r="CV53" s="33"/>
+      <c r="CW53" s="33"/>
       <c r="CX53" s="9"/>
       <c r="CY53" s="9"/>
       <c r="CZ53" s="9"/>
@@ -30433,14 +30488,19 @@
       <c r="CQ54" s="28"/>
       <c r="CR54" s="28"/>
       <c r="CS54" s="28"/>
-      <c r="CT54" s="28"/>
-      <c r="CU54" s="28"/>
-      <c r="CV54" s="28"/>
+      <c r="CT54" s="24"/>
+      <c r="CU54" s="24"/>
+      <c r="CV54" s="24"/>
+      <c r="CW54" s="24"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT55" s="32"/>
+      <c r="CU55" s="32"/>
+      <c r="CV55" s="32"/>
+      <c r="CW55" s="32"/>
     </row>
     <row r="56" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
@@ -30539,10 +30599,10 @@
       <c r="CQ56" s="26"/>
       <c r="CR56" s="26"/>
       <c r="CS56" s="26"/>
-      <c r="CT56" s="26"/>
-      <c r="CU56" s="26"/>
-      <c r="CV56" s="26"/>
-      <c r="CW56" s="9"/>
+      <c r="CT56" s="34"/>
+      <c r="CU56" s="34"/>
+      <c r="CV56" s="34"/>
+      <c r="CW56" s="34"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
@@ -30739,10 +30799,10 @@
       <c r="CQ57" s="26"/>
       <c r="CR57" s="26"/>
       <c r="CS57" s="26"/>
-      <c r="CT57" s="26"/>
-      <c r="CU57" s="26"/>
-      <c r="CV57" s="26"/>
-      <c r="CW57" s="9"/>
+      <c r="CT57" s="34"/>
+      <c r="CU57" s="34"/>
+      <c r="CV57" s="34"/>
+      <c r="CW57" s="34"/>
       <c r="CX57" s="9"/>
       <c r="CY57" s="9"/>
       <c r="CZ57" s="9"/>
@@ -30846,160 +30906,196 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT58" s="32"/>
+      <c r="CU58" s="32"/>
+      <c r="CV58" s="32"/>
+      <c r="CW58" s="32"/>
     </row>
     <row r="59" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CT59" s="32"/>
+      <c r="CU59" s="32"/>
+      <c r="CV59" s="32"/>
+      <c r="CW59" s="32"/>
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>50</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CT60" s="32"/>
+      <c r="CU60" s="32"/>
+      <c r="CV60" s="32"/>
+      <c r="CW60" s="32"/>
+    </row>
+    <row r="61" spans="1:199" x14ac:dyDescent="0.2">
+      <c r="CT61" s="32"/>
+      <c r="CU61" s="32"/>
+      <c r="CV61" s="32"/>
+      <c r="CW61" s="32"/>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="CT62" s="32"/>
+      <c r="CU62" s="32"/>
+      <c r="CV62" s="32"/>
+      <c r="CW62" s="32"/>
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="CT63" s="32"/>
+      <c r="CU63" s="32"/>
+      <c r="CV63" s="32"/>
+      <c r="CW63" s="32"/>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="CT64" s="32"/>
+      <c r="CU64" s="32"/>
+      <c r="CV64" s="32"/>
+      <c r="CW64" s="32"/>
+    </row>
+    <row r="65" spans="1:203" x14ac:dyDescent="0.2">
+      <c r="CT65" s="32"/>
+      <c r="CU65" s="32"/>
+      <c r="CV65" s="32"/>
+      <c r="CW65" s="32"/>
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
-      <c r="B66" s="32" t="s">
+      <c r="B66" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="32" t="s">
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="32" t="s">
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="K66" s="34"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="32" t="s">
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="37"/>
+      <c r="N66" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="32" t="s">
+      <c r="O66" s="37"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="32" t="s">
+      <c r="S66" s="37"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="37"/>
+      <c r="V66" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="32" t="s">
+      <c r="W66" s="37"/>
+      <c r="X66" s="37"/>
+      <c r="Y66" s="37"/>
+      <c r="Z66" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="32" t="s">
+      <c r="AA66" s="37"/>
+      <c r="AB66" s="37"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="32" t="s">
+      <c r="AE66" s="37"/>
+      <c r="AF66" s="37"/>
+      <c r="AG66" s="37"/>
+      <c r="AH66" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="32" t="s">
+      <c r="AI66" s="37"/>
+      <c r="AJ66" s="37"/>
+      <c r="AK66" s="37"/>
+      <c r="AL66" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="34"/>
-      <c r="AO66" s="34"/>
-      <c r="AP66" s="32" t="s">
+      <c r="AM66" s="37"/>
+      <c r="AN66" s="37"/>
+      <c r="AO66" s="37"/>
+      <c r="AP66" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AQ66" s="34"/>
-      <c r="AR66" s="34"/>
-      <c r="AS66" s="34"/>
-      <c r="AT66" s="32" t="s">
+      <c r="AQ66" s="37"/>
+      <c r="AR66" s="37"/>
+      <c r="AS66" s="37"/>
+      <c r="AT66" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AU66" s="34"/>
-      <c r="AV66" s="34"/>
-      <c r="AW66" s="34"/>
-      <c r="AX66" s="32" t="s">
+      <c r="AU66" s="37"/>
+      <c r="AV66" s="37"/>
+      <c r="AW66" s="37"/>
+      <c r="AX66" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AY66" s="34"/>
-      <c r="AZ66" s="34"/>
-      <c r="BA66" s="34"/>
-      <c r="BB66" s="32" t="s">
+      <c r="AY66" s="37"/>
+      <c r="AZ66" s="37"/>
+      <c r="BA66" s="37"/>
+      <c r="BB66" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="BC66" s="34"/>
-      <c r="BD66" s="34"/>
-      <c r="BE66" s="34"/>
-      <c r="BF66" s="32" t="s">
+      <c r="BC66" s="37"/>
+      <c r="BD66" s="37"/>
+      <c r="BE66" s="37"/>
+      <c r="BF66" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="BG66" s="34"/>
-      <c r="BH66" s="34"/>
-      <c r="BI66" s="34"/>
-      <c r="BJ66" s="32" t="s">
+      <c r="BG66" s="37"/>
+      <c r="BH66" s="37"/>
+      <c r="BI66" s="37"/>
+      <c r="BJ66" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BK66" s="34"/>
-      <c r="BL66" s="34"/>
-      <c r="BM66" s="34"/>
-      <c r="BN66" s="32" t="s">
+      <c r="BK66" s="37"/>
+      <c r="BL66" s="37"/>
+      <c r="BM66" s="37"/>
+      <c r="BN66" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BO66" s="34"/>
-      <c r="BP66" s="34"/>
-      <c r="BQ66" s="34"/>
-      <c r="BR66" s="32" t="s">
+      <c r="BO66" s="37"/>
+      <c r="BP66" s="37"/>
+      <c r="BQ66" s="37"/>
+      <c r="BR66" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="BS66" s="34"/>
-      <c r="BT66" s="34"/>
-      <c r="BU66" s="34"/>
-      <c r="BV66" s="32" t="s">
+      <c r="BS66" s="37"/>
+      <c r="BT66" s="37"/>
+      <c r="BU66" s="37"/>
+      <c r="BV66" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="BW66" s="34"/>
-      <c r="BX66" s="34"/>
-      <c r="BY66" s="34"/>
-      <c r="BZ66" s="32" t="s">
+      <c r="BW66" s="37"/>
+      <c r="BX66" s="37"/>
+      <c r="BY66" s="37"/>
+      <c r="BZ66" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="CA66" s="34"/>
-      <c r="CB66" s="34"/>
-      <c r="CC66" s="34"/>
-      <c r="CD66" s="32" t="s">
+      <c r="CA66" s="37"/>
+      <c r="CB66" s="37"/>
+      <c r="CC66" s="37"/>
+      <c r="CD66" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="CE66" s="32"/>
-      <c r="CF66" s="32"/>
-      <c r="CG66" s="32"/>
+      <c r="CE66" s="35"/>
+      <c r="CF66" s="35"/>
+      <c r="CG66" s="35"/>
       <c r="CH66" s="20" t="s">
         <v>47</v>
       </c>
@@ -31017,10 +31113,11 @@
       </c>
       <c r="CQ66" s="23"/>
       <c r="CR66" s="23"/>
-      <c r="CS66" s="21"/>
-      <c r="CT66" s="23"/>
-      <c r="CU66" s="23"/>
+      <c r="CS66" s="23"/>
+      <c r="CT66" s="21"/>
+      <c r="CU66" s="21"/>
       <c r="CV66" s="21"/>
+      <c r="CW66" s="21"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31311,13 +31408,20 @@
       <c r="CR67" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CS67" s="30"/>
+      <c r="CS67" s="30" t="s">
+        <v>9</v>
+      </c>
       <c r="CT67" s="30"/>
       <c r="CU67" s="30"/>
       <c r="CV67" s="30"/>
+      <c r="CW67" s="30"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
+      <c r="CT68" s="32"/>
+      <c r="CU68" s="32"/>
+      <c r="CV68" s="32"/>
+      <c r="CW68" s="32"/>
     </row>
     <row r="69" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31606,13 +31710,15 @@
         <v>15.097202834100031</v>
       </c>
       <c r="CR69" s="31">
-        <v>14.706483140858111</v>
-      </c>
-      <c r="CS69" s="31"/>
-      <c r="CT69" s="31"/>
-      <c r="CU69" s="31"/>
-      <c r="CV69" s="31"/>
-      <c r="CW69" s="9"/>
+        <v>12.157906193729644</v>
+      </c>
+      <c r="CS69" s="31">
+        <v>8.6839481227335256</v>
+      </c>
+      <c r="CT69" s="33"/>
+      <c r="CU69" s="33"/>
+      <c r="CV69" s="33"/>
+      <c r="CW69" s="33"/>
       <c r="CX69" s="9"/>
       <c r="CY69" s="9"/>
       <c r="CZ69" s="9"/>
@@ -31999,13 +32105,15 @@
         <v>10.746911008237262</v>
       </c>
       <c r="CR70" s="31">
-        <v>9.1180730026768799</v>
-      </c>
-      <c r="CS70" s="31"/>
-      <c r="CT70" s="31"/>
-      <c r="CU70" s="31"/>
-      <c r="CV70" s="31"/>
-      <c r="CW70" s="9"/>
+        <v>10.070028113213553</v>
+      </c>
+      <c r="CS70" s="31">
+        <v>4.8682376005013737</v>
+      </c>
+      <c r="CT70" s="33"/>
+      <c r="CU70" s="33"/>
+      <c r="CV70" s="33"/>
+      <c r="CW70" s="33"/>
       <c r="CX70" s="9"/>
       <c r="CY70" s="9"/>
       <c r="CZ70" s="9"/>
@@ -32202,10 +32310,10 @@
       <c r="CQ71" s="26"/>
       <c r="CR71" s="26"/>
       <c r="CS71" s="26"/>
-      <c r="CT71" s="26"/>
-      <c r="CU71" s="26"/>
-      <c r="CV71" s="26"/>
-      <c r="CW71" s="9"/>
+      <c r="CT71" s="34"/>
+      <c r="CU71" s="34"/>
+      <c r="CV71" s="34"/>
+      <c r="CW71" s="34"/>
       <c r="CX71" s="9"/>
       <c r="CY71" s="9"/>
       <c r="CZ71" s="9"/>
@@ -32592,13 +32700,15 @@
         <v>12.059473324877871</v>
       </c>
       <c r="CR72" s="31">
-        <v>10.699467680606105</v>
-      </c>
-      <c r="CS72" s="31"/>
-      <c r="CT72" s="31"/>
-      <c r="CU72" s="31"/>
-      <c r="CV72" s="31"/>
-      <c r="CW72" s="9"/>
+        <v>10.660850762778054</v>
+      </c>
+      <c r="CS72" s="31">
+        <v>6.0624579606339211</v>
+      </c>
+      <c r="CT72" s="33"/>
+      <c r="CU72" s="33"/>
+      <c r="CV72" s="33"/>
+      <c r="CW72" s="33"/>
       <c r="CX72" s="9"/>
       <c r="CY72" s="9"/>
       <c r="CZ72" s="9"/>
@@ -32796,14 +32906,19 @@
       <c r="CQ73" s="28"/>
       <c r="CR73" s="28"/>
       <c r="CS73" s="28"/>
-      <c r="CT73" s="28"/>
-      <c r="CU73" s="28"/>
-      <c r="CV73" s="28"/>
+      <c r="CT73" s="24"/>
+      <c r="CU73" s="24"/>
+      <c r="CV73" s="24"/>
+      <c r="CW73" s="24"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
+      <c r="CT74" s="32"/>
+      <c r="CU74" s="32"/>
+      <c r="CV74" s="32"/>
+      <c r="CW74" s="32"/>
     </row>
     <row r="75" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
@@ -32902,10 +33017,10 @@
       <c r="CQ75" s="26"/>
       <c r="CR75" s="26"/>
       <c r="CS75" s="26"/>
-      <c r="CT75" s="26"/>
-      <c r="CU75" s="26"/>
-      <c r="CV75" s="26"/>
-      <c r="CW75" s="9"/>
+      <c r="CT75" s="34"/>
+      <c r="CU75" s="34"/>
+      <c r="CV75" s="34"/>
+      <c r="CW75" s="34"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
@@ -33109,7 +33224,7 @@
       <c r="CT76" s="26"/>
       <c r="CU76" s="26"/>
       <c r="CV76" s="26"/>
-      <c r="CW76" s="9"/>
+      <c r="CW76" s="26"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
@@ -33220,7 +33335,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -33230,7 +33345,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -33240,132 +33355,132 @@
     </row>
     <row r="84" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A84" s="4"/>
-      <c r="B84" s="32">
+      <c r="B84" s="35">
         <v>2000</v>
       </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="32">
+      <c r="C84" s="36"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="35">
         <v>2001</v>
       </c>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="32">
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="36"/>
+      <c r="J84" s="35">
         <v>2002</v>
       </c>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="32">
+      <c r="K84" s="36"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="36"/>
+      <c r="N84" s="35">
         <v>2003</v>
       </c>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="32">
+      <c r="O84" s="36"/>
+      <c r="P84" s="36"/>
+      <c r="Q84" s="36"/>
+      <c r="R84" s="35">
         <v>2004</v>
       </c>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="32">
+      <c r="S84" s="36"/>
+      <c r="T84" s="36"/>
+      <c r="U84" s="36"/>
+      <c r="V84" s="35">
         <v>2005</v>
       </c>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="32">
+      <c r="W84" s="36"/>
+      <c r="X84" s="36"/>
+      <c r="Y84" s="36"/>
+      <c r="Z84" s="35">
         <v>2006</v>
       </c>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="32">
+      <c r="AA84" s="36"/>
+      <c r="AB84" s="36"/>
+      <c r="AC84" s="36"/>
+      <c r="AD84" s="35">
         <v>2007</v>
       </c>
-      <c r="AE84" s="33"/>
-      <c r="AF84" s="33"/>
-      <c r="AG84" s="33"/>
-      <c r="AH84" s="32">
+      <c r="AE84" s="36"/>
+      <c r="AF84" s="36"/>
+      <c r="AG84" s="36"/>
+      <c r="AH84" s="35">
         <v>2008</v>
       </c>
-      <c r="AI84" s="33"/>
-      <c r="AJ84" s="33"/>
-      <c r="AK84" s="33"/>
-      <c r="AL84" s="32">
+      <c r="AI84" s="36"/>
+      <c r="AJ84" s="36"/>
+      <c r="AK84" s="36"/>
+      <c r="AL84" s="35">
         <v>2009</v>
       </c>
-      <c r="AM84" s="33"/>
-      <c r="AN84" s="33"/>
-      <c r="AO84" s="33"/>
-      <c r="AP84" s="32">
+      <c r="AM84" s="36"/>
+      <c r="AN84" s="36"/>
+      <c r="AO84" s="36"/>
+      <c r="AP84" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ84" s="33"/>
-      <c r="AR84" s="33"/>
-      <c r="AS84" s="33"/>
-      <c r="AT84" s="32">
+      <c r="AQ84" s="36"/>
+      <c r="AR84" s="36"/>
+      <c r="AS84" s="36"/>
+      <c r="AT84" s="35">
         <v>2011</v>
       </c>
-      <c r="AU84" s="33"/>
-      <c r="AV84" s="33"/>
-      <c r="AW84" s="33"/>
-      <c r="AX84" s="32">
+      <c r="AU84" s="36"/>
+      <c r="AV84" s="36"/>
+      <c r="AW84" s="36"/>
+      <c r="AX84" s="35">
         <v>2012</v>
       </c>
-      <c r="AY84" s="33"/>
-      <c r="AZ84" s="33"/>
-      <c r="BA84" s="33"/>
-      <c r="BB84" s="32">
+      <c r="AY84" s="36"/>
+      <c r="AZ84" s="36"/>
+      <c r="BA84" s="36"/>
+      <c r="BB84" s="35">
         <v>2013</v>
       </c>
-      <c r="BC84" s="33"/>
-      <c r="BD84" s="33"/>
-      <c r="BE84" s="33"/>
-      <c r="BF84" s="32">
+      <c r="BC84" s="36"/>
+      <c r="BD84" s="36"/>
+      <c r="BE84" s="36"/>
+      <c r="BF84" s="35">
         <v>2014</v>
       </c>
-      <c r="BG84" s="33"/>
-      <c r="BH84" s="33"/>
-      <c r="BI84" s="33"/>
-      <c r="BJ84" s="32">
+      <c r="BG84" s="36"/>
+      <c r="BH84" s="36"/>
+      <c r="BI84" s="36"/>
+      <c r="BJ84" s="35">
         <v>2015</v>
       </c>
-      <c r="BK84" s="33"/>
-      <c r="BL84" s="33"/>
-      <c r="BM84" s="33"/>
-      <c r="BN84" s="32">
+      <c r="BK84" s="36"/>
+      <c r="BL84" s="36"/>
+      <c r="BM84" s="36"/>
+      <c r="BN84" s="35">
         <v>2016</v>
       </c>
-      <c r="BO84" s="33"/>
-      <c r="BP84" s="33"/>
-      <c r="BQ84" s="33"/>
-      <c r="BR84" s="32">
+      <c r="BO84" s="36"/>
+      <c r="BP84" s="36"/>
+      <c r="BQ84" s="36"/>
+      <c r="BR84" s="35">
         <v>2017</v>
       </c>
-      <c r="BS84" s="33"/>
-      <c r="BT84" s="33"/>
-      <c r="BU84" s="33"/>
-      <c r="BV84" s="32">
+      <c r="BS84" s="36"/>
+      <c r="BT84" s="36"/>
+      <c r="BU84" s="36"/>
+      <c r="BV84" s="35">
         <v>2018</v>
       </c>
-      <c r="BW84" s="33"/>
-      <c r="BX84" s="33"/>
-      <c r="BY84" s="33"/>
-      <c r="BZ84" s="32">
+      <c r="BW84" s="36"/>
+      <c r="BX84" s="36"/>
+      <c r="BY84" s="36"/>
+      <c r="BZ84" s="35">
         <v>2019</v>
       </c>
-      <c r="CA84" s="33"/>
-      <c r="CB84" s="33"/>
-      <c r="CC84" s="33"/>
-      <c r="CD84" s="32">
+      <c r="CA84" s="36"/>
+      <c r="CB84" s="36"/>
+      <c r="CC84" s="36"/>
+      <c r="CD84" s="35">
         <v>2020</v>
       </c>
-      <c r="CE84" s="32"/>
-      <c r="CF84" s="32"/>
-      <c r="CG84" s="32"/>
+      <c r="CE84" s="35"/>
+      <c r="CF84" s="35"/>
+      <c r="CG84" s="35"/>
       <c r="CH84" s="20">
         <v>2021</v>
       </c>
@@ -33389,6 +33504,7 @@
       </c>
       <c r="CU84" s="23"/>
       <c r="CV84" s="23"/>
+      <c r="CW84" s="23"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33690,6 +33806,9 @@
       </c>
       <c r="CV85" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CW85" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -33994,9 +34113,11 @@
         <v>119.81637685038591</v>
       </c>
       <c r="CV87" s="31">
-        <v>116.50178018326622</v>
-      </c>
-      <c r="CW87" s="9"/>
+        <v>116.50178018326625</v>
+      </c>
+      <c r="CW87" s="31">
+        <v>118.36858103656951</v>
+      </c>
       <c r="CX87" s="9"/>
       <c r="CY87" s="9"/>
       <c r="CZ87" s="9"/>
@@ -34399,9 +34520,11 @@
         <v>136.45114604337545</v>
       </c>
       <c r="CV88" s="31">
-        <v>133.25514590173205</v>
-      </c>
-      <c r="CW88" s="9"/>
+        <v>133.25514590173202</v>
+      </c>
+      <c r="CW88" s="31">
+        <v>134.97564683113595</v>
+      </c>
       <c r="CX88" s="9"/>
       <c r="CY88" s="9"/>
       <c r="CZ88" s="9"/>
@@ -34605,7 +34728,7 @@
       <c r="CT89" s="26"/>
       <c r="CU89" s="26"/>
       <c r="CV89" s="26"/>
-      <c r="CW89" s="9"/>
+      <c r="CW89" s="26"/>
       <c r="CX89" s="9"/>
       <c r="CY89" s="9"/>
       <c r="CZ89" s="9"/>
@@ -35008,9 +35131,11 @@
         <v>131.2960766939095</v>
       </c>
       <c r="CV90" s="31">
-        <v>128.34271446163768</v>
-      </c>
-      <c r="CW90" s="9"/>
+        <v>128.45018389022925</v>
+      </c>
+      <c r="CW90" s="31">
+        <v>129.64959146535773</v>
+      </c>
       <c r="CX90" s="9"/>
       <c r="CY90" s="9"/>
       <c r="CZ90" s="9"/>
@@ -35215,6 +35340,7 @@
       <c r="CT91" s="28"/>
       <c r="CU91" s="28"/>
       <c r="CV91" s="28"/>
+      <c r="CW91" s="28"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -35233,7 +35359,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -35243,7 +35369,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -35253,132 +35379,132 @@
     </row>
     <row r="103" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
-      <c r="B103" s="32">
+      <c r="B103" s="35">
         <v>2000</v>
       </c>
-      <c r="C103" s="33"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="32">
+      <c r="C103" s="36"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="35">
         <v>2001</v>
       </c>
-      <c r="G103" s="33"/>
-      <c r="H103" s="33"/>
-      <c r="I103" s="33"/>
-      <c r="J103" s="32">
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="35">
         <v>2002</v>
       </c>
-      <c r="K103" s="33"/>
-      <c r="L103" s="33"/>
-      <c r="M103" s="33"/>
-      <c r="N103" s="32">
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="35">
         <v>2003</v>
       </c>
-      <c r="O103" s="33"/>
-      <c r="P103" s="33"/>
-      <c r="Q103" s="33"/>
-      <c r="R103" s="32">
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="35">
         <v>2004</v>
       </c>
-      <c r="S103" s="33"/>
-      <c r="T103" s="33"/>
-      <c r="U103" s="33"/>
-      <c r="V103" s="32">
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="35">
         <v>2005</v>
       </c>
-      <c r="W103" s="33"/>
-      <c r="X103" s="33"/>
-      <c r="Y103" s="33"/>
-      <c r="Z103" s="32">
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="35">
         <v>2006</v>
       </c>
-      <c r="AA103" s="33"/>
-      <c r="AB103" s="33"/>
-      <c r="AC103" s="33"/>
-      <c r="AD103" s="32">
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="35">
         <v>2007</v>
       </c>
-      <c r="AE103" s="33"/>
-      <c r="AF103" s="33"/>
-      <c r="AG103" s="33"/>
-      <c r="AH103" s="32">
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="35">
         <v>2008</v>
       </c>
-      <c r="AI103" s="33"/>
-      <c r="AJ103" s="33"/>
-      <c r="AK103" s="33"/>
-      <c r="AL103" s="32">
+      <c r="AI103" s="36"/>
+      <c r="AJ103" s="36"/>
+      <c r="AK103" s="36"/>
+      <c r="AL103" s="35">
         <v>2009</v>
       </c>
-      <c r="AM103" s="33"/>
-      <c r="AN103" s="33"/>
-      <c r="AO103" s="33"/>
-      <c r="AP103" s="32">
+      <c r="AM103" s="36"/>
+      <c r="AN103" s="36"/>
+      <c r="AO103" s="36"/>
+      <c r="AP103" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ103" s="33"/>
-      <c r="AR103" s="33"/>
-      <c r="AS103" s="33"/>
-      <c r="AT103" s="32">
+      <c r="AQ103" s="36"/>
+      <c r="AR103" s="36"/>
+      <c r="AS103" s="36"/>
+      <c r="AT103" s="35">
         <v>2011</v>
       </c>
-      <c r="AU103" s="33"/>
-      <c r="AV103" s="33"/>
-      <c r="AW103" s="33"/>
-      <c r="AX103" s="32">
+      <c r="AU103" s="36"/>
+      <c r="AV103" s="36"/>
+      <c r="AW103" s="36"/>
+      <c r="AX103" s="35">
         <v>2012</v>
       </c>
-      <c r="AY103" s="33"/>
-      <c r="AZ103" s="33"/>
-      <c r="BA103" s="33"/>
-      <c r="BB103" s="32">
+      <c r="AY103" s="36"/>
+      <c r="AZ103" s="36"/>
+      <c r="BA103" s="36"/>
+      <c r="BB103" s="35">
         <v>2013</v>
       </c>
-      <c r="BC103" s="33"/>
-      <c r="BD103" s="33"/>
-      <c r="BE103" s="33"/>
-      <c r="BF103" s="32">
+      <c r="BC103" s="36"/>
+      <c r="BD103" s="36"/>
+      <c r="BE103" s="36"/>
+      <c r="BF103" s="35">
         <v>2014</v>
       </c>
-      <c r="BG103" s="33"/>
-      <c r="BH103" s="33"/>
-      <c r="BI103" s="33"/>
-      <c r="BJ103" s="32">
+      <c r="BG103" s="36"/>
+      <c r="BH103" s="36"/>
+      <c r="BI103" s="36"/>
+      <c r="BJ103" s="35">
         <v>2015</v>
       </c>
-      <c r="BK103" s="33"/>
-      <c r="BL103" s="33"/>
-      <c r="BM103" s="33"/>
-      <c r="BN103" s="32">
+      <c r="BK103" s="36"/>
+      <c r="BL103" s="36"/>
+      <c r="BM103" s="36"/>
+      <c r="BN103" s="35">
         <v>2016</v>
       </c>
-      <c r="BO103" s="33"/>
-      <c r="BP103" s="33"/>
-      <c r="BQ103" s="33"/>
-      <c r="BR103" s="32">
+      <c r="BO103" s="36"/>
+      <c r="BP103" s="36"/>
+      <c r="BQ103" s="36"/>
+      <c r="BR103" s="35">
         <v>2017</v>
       </c>
-      <c r="BS103" s="33"/>
-      <c r="BT103" s="33"/>
-      <c r="BU103" s="33"/>
-      <c r="BV103" s="32">
+      <c r="BS103" s="36"/>
+      <c r="BT103" s="36"/>
+      <c r="BU103" s="36"/>
+      <c r="BV103" s="35">
         <v>2018</v>
       </c>
-      <c r="BW103" s="33"/>
-      <c r="BX103" s="33"/>
-      <c r="BY103" s="33"/>
-      <c r="BZ103" s="32">
+      <c r="BW103" s="36"/>
+      <c r="BX103" s="36"/>
+      <c r="BY103" s="36"/>
+      <c r="BZ103" s="35">
         <v>2019</v>
       </c>
-      <c r="CA103" s="33"/>
-      <c r="CB103" s="33"/>
-      <c r="CC103" s="33"/>
-      <c r="CD103" s="32">
+      <c r="CA103" s="36"/>
+      <c r="CB103" s="36"/>
+      <c r="CC103" s="36"/>
+      <c r="CD103" s="35">
         <v>2020</v>
       </c>
-      <c r="CE103" s="32"/>
-      <c r="CF103" s="32"/>
-      <c r="CG103" s="32"/>
+      <c r="CE103" s="35"/>
+      <c r="CF103" s="35"/>
+      <c r="CG103" s="35"/>
       <c r="CH103" s="20">
         <v>2021</v>
       </c>
@@ -35402,6 +35528,7 @@
       </c>
       <c r="CU103" s="23"/>
       <c r="CV103" s="23"/>
+      <c r="CW103" s="23"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35703,6 +35830,9 @@
       </c>
       <c r="CV104" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CW104" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36007,9 +36137,11 @@
         <v>28.280179808761918</v>
       </c>
       <c r="CV106" s="31">
-        <v>26.616795895148488</v>
-      </c>
-      <c r="CW106" s="9"/>
+        <v>26.012717267472979</v>
+      </c>
+      <c r="CW106" s="31">
+        <v>29.280471059895106</v>
+      </c>
       <c r="CX106" s="9"/>
       <c r="CY106" s="9"/>
       <c r="CZ106" s="9"/>
@@ -36412,9 +36544,11 @@
         <v>71.719820191238085</v>
       </c>
       <c r="CV107" s="31">
-        <v>73.383204104851515</v>
-      </c>
-      <c r="CW107" s="9"/>
+        <v>73.987282732527021</v>
+      </c>
+      <c r="CW107" s="31">
+        <v>70.719528940104908</v>
+      </c>
       <c r="CX107" s="9"/>
       <c r="CY107" s="9"/>
       <c r="CZ107" s="9"/>
@@ -36618,7 +36752,7 @@
       <c r="CT108" s="26"/>
       <c r="CU108" s="26"/>
       <c r="CV108" s="26"/>
-      <c r="CW108" s="9"/>
+      <c r="CW108" s="26"/>
       <c r="CX108" s="9"/>
       <c r="CY108" s="9"/>
       <c r="CZ108" s="9"/>
@@ -37023,7 +37157,9 @@
       <c r="CV109" s="31">
         <v>100</v>
       </c>
-      <c r="CW109" s="9"/>
+      <c r="CW109" s="31">
+        <v>100</v>
+      </c>
       <c r="CX109" s="9"/>
       <c r="CY109" s="9"/>
       <c r="CZ109" s="9"/>
@@ -37228,6 +37364,7 @@
       <c r="CT110" s="28"/>
       <c r="CU110" s="28"/>
       <c r="CV110" s="28"/>
+      <c r="CW110" s="28"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37334,7 +37471,7 @@
       <c r="CT112" s="26"/>
       <c r="CU112" s="26"/>
       <c r="CV112" s="26"/>
-      <c r="CW112" s="9"/>
+      <c r="CW112" s="26"/>
       <c r="CX112" s="9"/>
       <c r="CY112" s="9"/>
       <c r="CZ112" s="9"/>
@@ -37538,7 +37675,7 @@
       <c r="CT113" s="26"/>
       <c r="CU113" s="26"/>
       <c r="CV113" s="26"/>
-      <c r="CW113" s="9"/>
+      <c r="CW113" s="26"/>
       <c r="CX113" s="9"/>
       <c r="CY113" s="9"/>
       <c r="CZ113" s="9"/>
@@ -37654,7 +37791,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37664,7 +37801,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37674,132 +37811,132 @@
     </row>
     <row r="122" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
-      <c r="B122" s="32">
+      <c r="B122" s="35">
         <v>2000</v>
       </c>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="32">
+      <c r="C122" s="36"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="35">
         <v>2001</v>
       </c>
-      <c r="G122" s="33"/>
-      <c r="H122" s="33"/>
-      <c r="I122" s="33"/>
-      <c r="J122" s="32">
+      <c r="G122" s="36"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="35">
         <v>2002</v>
       </c>
-      <c r="K122" s="33"/>
-      <c r="L122" s="33"/>
-      <c r="M122" s="33"/>
-      <c r="N122" s="32">
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="35">
         <v>2003</v>
       </c>
-      <c r="O122" s="33"/>
-      <c r="P122" s="33"/>
-      <c r="Q122" s="33"/>
-      <c r="R122" s="32">
+      <c r="O122" s="36"/>
+      <c r="P122" s="36"/>
+      <c r="Q122" s="36"/>
+      <c r="R122" s="35">
         <v>2004</v>
       </c>
-      <c r="S122" s="33"/>
-      <c r="T122" s="33"/>
-      <c r="U122" s="33"/>
-      <c r="V122" s="32">
+      <c r="S122" s="36"/>
+      <c r="T122" s="36"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="35">
         <v>2005</v>
       </c>
-      <c r="W122" s="33"/>
-      <c r="X122" s="33"/>
-      <c r="Y122" s="33"/>
-      <c r="Z122" s="32">
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="35">
         <v>2006</v>
       </c>
-      <c r="AA122" s="33"/>
-      <c r="AB122" s="33"/>
-      <c r="AC122" s="33"/>
-      <c r="AD122" s="32">
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="35">
         <v>2007</v>
       </c>
-      <c r="AE122" s="33"/>
-      <c r="AF122" s="33"/>
-      <c r="AG122" s="33"/>
-      <c r="AH122" s="32">
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="36"/>
+      <c r="AH122" s="35">
         <v>2008</v>
       </c>
-      <c r="AI122" s="33"/>
-      <c r="AJ122" s="33"/>
-      <c r="AK122" s="33"/>
-      <c r="AL122" s="32">
+      <c r="AI122" s="36"/>
+      <c r="AJ122" s="36"/>
+      <c r="AK122" s="36"/>
+      <c r="AL122" s="35">
         <v>2009</v>
       </c>
-      <c r="AM122" s="33"/>
-      <c r="AN122" s="33"/>
-      <c r="AO122" s="33"/>
-      <c r="AP122" s="32">
+      <c r="AM122" s="36"/>
+      <c r="AN122" s="36"/>
+      <c r="AO122" s="36"/>
+      <c r="AP122" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ122" s="33"/>
-      <c r="AR122" s="33"/>
-      <c r="AS122" s="33"/>
-      <c r="AT122" s="32">
+      <c r="AQ122" s="36"/>
+      <c r="AR122" s="36"/>
+      <c r="AS122" s="36"/>
+      <c r="AT122" s="35">
         <v>2011</v>
       </c>
-      <c r="AU122" s="33"/>
-      <c r="AV122" s="33"/>
-      <c r="AW122" s="33"/>
-      <c r="AX122" s="32">
+      <c r="AU122" s="36"/>
+      <c r="AV122" s="36"/>
+      <c r="AW122" s="36"/>
+      <c r="AX122" s="35">
         <v>2012</v>
       </c>
-      <c r="AY122" s="33"/>
-      <c r="AZ122" s="33"/>
-      <c r="BA122" s="33"/>
-      <c r="BB122" s="32">
+      <c r="AY122" s="36"/>
+      <c r="AZ122" s="36"/>
+      <c r="BA122" s="36"/>
+      <c r="BB122" s="35">
         <v>2013</v>
       </c>
-      <c r="BC122" s="33"/>
-      <c r="BD122" s="33"/>
-      <c r="BE122" s="33"/>
-      <c r="BF122" s="32">
+      <c r="BC122" s="36"/>
+      <c r="BD122" s="36"/>
+      <c r="BE122" s="36"/>
+      <c r="BF122" s="35">
         <v>2014</v>
       </c>
-      <c r="BG122" s="33"/>
-      <c r="BH122" s="33"/>
-      <c r="BI122" s="33"/>
-      <c r="BJ122" s="32">
+      <c r="BG122" s="36"/>
+      <c r="BH122" s="36"/>
+      <c r="BI122" s="36"/>
+      <c r="BJ122" s="35">
         <v>2015</v>
       </c>
-      <c r="BK122" s="33"/>
-      <c r="BL122" s="33"/>
-      <c r="BM122" s="33"/>
-      <c r="BN122" s="32">
+      <c r="BK122" s="36"/>
+      <c r="BL122" s="36"/>
+      <c r="BM122" s="36"/>
+      <c r="BN122" s="35">
         <v>2016</v>
       </c>
-      <c r="BO122" s="33"/>
-      <c r="BP122" s="33"/>
-      <c r="BQ122" s="33"/>
-      <c r="BR122" s="32">
+      <c r="BO122" s="36"/>
+      <c r="BP122" s="36"/>
+      <c r="BQ122" s="36"/>
+      <c r="BR122" s="35">
         <v>2017</v>
       </c>
-      <c r="BS122" s="33"/>
-      <c r="BT122" s="33"/>
-      <c r="BU122" s="33"/>
-      <c r="BV122" s="32">
+      <c r="BS122" s="36"/>
+      <c r="BT122" s="36"/>
+      <c r="BU122" s="36"/>
+      <c r="BV122" s="35">
         <v>2018</v>
       </c>
-      <c r="BW122" s="33"/>
-      <c r="BX122" s="33"/>
-      <c r="BY122" s="33"/>
-      <c r="BZ122" s="32">
+      <c r="BW122" s="36"/>
+      <c r="BX122" s="36"/>
+      <c r="BY122" s="36"/>
+      <c r="BZ122" s="35">
         <v>2019</v>
       </c>
-      <c r="CA122" s="33"/>
-      <c r="CB122" s="33"/>
-      <c r="CC122" s="33"/>
-      <c r="CD122" s="32">
+      <c r="CA122" s="36"/>
+      <c r="CB122" s="36"/>
+      <c r="CC122" s="36"/>
+      <c r="CD122" s="35">
         <v>2020</v>
       </c>
-      <c r="CE122" s="32"/>
-      <c r="CF122" s="32"/>
-      <c r="CG122" s="32"/>
+      <c r="CE122" s="35"/>
+      <c r="CF122" s="35"/>
+      <c r="CG122" s="35"/>
       <c r="CH122" s="20">
         <v>2021</v>
       </c>
@@ -37823,6 +37960,7 @@
       </c>
       <c r="CU122" s="23"/>
       <c r="CV122" s="23"/>
+      <c r="CW122" s="23"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -38124,6 +38262,9 @@
       </c>
       <c r="CV123" s="24" t="s">
         <v>10</v>
+      </c>
+      <c r="CW123" s="24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38428,9 +38569,11 @@
         <v>30.989725734448264</v>
       </c>
       <c r="CV125" s="31">
-        <v>29.322056968408461</v>
-      </c>
-      <c r="CW125" s="9"/>
+        <v>28.68057733740433</v>
+      </c>
+      <c r="CW125" s="31">
+        <v>32.071019839764823</v>
+      </c>
       <c r="CX125" s="9"/>
       <c r="CY125" s="9"/>
       <c r="CZ125" s="9"/>
@@ -38833,9 +38976,11 @@
         <v>69.010274265551729</v>
       </c>
       <c r="CV126" s="31">
-        <v>70.677943031591553</v>
-      </c>
-      <c r="CW126" s="9"/>
+        <v>71.319422662595684</v>
+      </c>
+      <c r="CW126" s="31">
+        <v>67.92898016023517</v>
+      </c>
       <c r="CX126" s="9"/>
       <c r="CY126" s="9"/>
       <c r="CZ126" s="9"/>
@@ -39039,7 +39184,7 @@
       <c r="CT127" s="26"/>
       <c r="CU127" s="26"/>
       <c r="CV127" s="26"/>
-      <c r="CW127" s="9"/>
+      <c r="CW127" s="26"/>
       <c r="CX127" s="9"/>
       <c r="CY127" s="9"/>
       <c r="CZ127" s="9"/>
@@ -39444,7 +39589,9 @@
       <c r="CV128" s="31">
         <v>100</v>
       </c>
-      <c r="CW128" s="9"/>
+      <c r="CW128" s="31">
+        <v>100</v>
+      </c>
       <c r="CX128" s="9"/>
       <c r="CY128" s="9"/>
       <c r="CZ128" s="9"/>
@@ -39649,6 +39796,7 @@
       <c r="CT129" s="28"/>
       <c r="CU129" s="28"/>
       <c r="CV129" s="28"/>
+      <c r="CW129" s="28"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39756,7 +39904,7 @@
       <c r="CT131" s="22"/>
       <c r="CU131" s="22"/>
       <c r="CV131" s="22"/>
-      <c r="CW131" s="16"/>
+      <c r="CW131" s="22"/>
       <c r="CX131" s="16"/>
       <c r="CY131" s="16"/>
       <c r="CZ131" s="16"/>
@@ -39961,7 +40109,7 @@
       <c r="CT132" s="22"/>
       <c r="CU132" s="22"/>
       <c r="CV132" s="22"/>
-      <c r="CW132" s="16"/>
+      <c r="CW132" s="22"/>
       <c r="CX132" s="16"/>
       <c r="CY132" s="16"/>
       <c r="CZ132" s="16"/>
@@ -40067,20 +40215,115 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BJ28:BM28"/>
+    <mergeCell ref="BN28:BQ28"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="AH28:AK28"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BF47:BI47"/>
     <mergeCell ref="AD84:AG84"/>
     <mergeCell ref="AH84:AK84"/>
     <mergeCell ref="AP122:AS122"/>
@@ -40105,124 +40348,29 @@
     <mergeCell ref="AT103:AW103"/>
     <mergeCell ref="AX103:BA103"/>
     <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AL28:AO28"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BJ28:BM28"/>
-    <mergeCell ref="BN28:BQ28"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="N28:Q28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="Z28:AC28"/>
-    <mergeCell ref="AD28:AG28"/>
-    <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R122:U122"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="99" man="1"/>
-    <brk id="76" max="99" man="1"/>
-    <brk id="94" max="99" man="1"/>
+    <brk id="38" max="100" man="1"/>
+    <brk id="76" max="100" man="1"/>
+    <brk id="94" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEDBFCE-4312-42C0-8AEF-2A6B629F27B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C15DD25-EE2D-4EC5-A474-CF4FE9F3D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CW$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CX$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -620,13 +620,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23634,15 +23637,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
-    <col min="2" max="93" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="22" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="22" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23657,7 +23660,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23667,7 +23670,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23809,12 +23812,12 @@
       <c r="CI9" s="20"/>
       <c r="CJ9" s="20"/>
       <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CL9" s="23">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
+      <c r="CM9" s="23"/>
+      <c r="CN9" s="23"/>
+      <c r="CO9" s="23"/>
       <c r="CP9" s="23">
         <v>2023</v>
       </c>
@@ -23827,6 +23830,9 @@
       <c r="CU9" s="23"/>
       <c r="CV9" s="23"/>
       <c r="CW9" s="23"/>
+      <c r="CX9" s="23">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24096,16 +24102,16 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="24" t="s">
@@ -24131,6 +24137,9 @@
       </c>
       <c r="CW10" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24404,16 +24413,16 @@
       <c r="CK12" s="18">
         <v>20982.743841316627</v>
       </c>
-      <c r="CL12" s="18">
+      <c r="CL12" s="25">
         <v>22634.071672887527</v>
       </c>
-      <c r="CM12" s="18">
+      <c r="CM12" s="25">
         <v>20975.490728876193</v>
       </c>
-      <c r="CN12" s="18">
+      <c r="CN12" s="25">
         <v>22634.684080702023</v>
       </c>
-      <c r="CO12" s="18">
+      <c r="CO12" s="25">
         <v>34154.257299079633</v>
       </c>
       <c r="CP12" s="25">
@@ -24423,24 +24432,26 @@
         <v>29935.0457887968</v>
       </c>
       <c r="CR12" s="25">
-        <v>30204.088942300223</v>
+        <v>30272.600644934475</v>
       </c>
       <c r="CS12" s="25">
-        <v>43389.068621789513</v>
+        <v>43043.831749456847</v>
       </c>
       <c r="CT12" s="25">
-        <v>46239.352016217403</v>
+        <v>46281.978292087224</v>
       </c>
       <c r="CU12" s="25">
-        <v>35354.678662058337</v>
+        <v>35475.744175264444</v>
       </c>
       <c r="CV12" s="25">
-        <v>34620.526157347449</v>
+        <v>34700.442165620261</v>
       </c>
       <c r="CW12" s="25">
-        <v>48066.915141393794</v>
-      </c>
-      <c r="CX12" s="9"/>
+        <v>48204.599693784949</v>
+      </c>
+      <c r="CX12" s="25">
+        <v>50324.229614797216</v>
+      </c>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
@@ -24811,16 +24822,16 @@
       <c r="CK13" s="18">
         <v>63465.290659731603</v>
       </c>
-      <c r="CL13" s="18">
+      <c r="CL13" s="25">
         <v>77568.127837813096</v>
       </c>
-      <c r="CM13" s="18">
+      <c r="CM13" s="25">
         <v>59345.89166073667</v>
       </c>
-      <c r="CN13" s="18">
+      <c r="CN13" s="25">
         <v>69800.861443335511</v>
       </c>
-      <c r="CO13" s="18">
+      <c r="CO13" s="25">
         <v>89030.512841717311</v>
       </c>
       <c r="CP13" s="25">
@@ -24833,21 +24844,23 @@
         <v>85530.605224931263</v>
       </c>
       <c r="CS13" s="25">
-        <v>106595.4637026843</v>
+        <v>105935.95149064352</v>
       </c>
       <c r="CT13" s="25">
-        <v>117959.63332912553</v>
+        <v>117928.35605530016</v>
       </c>
       <c r="CU13" s="25">
-        <v>89661.070534502855</v>
+        <v>89666.188722286111</v>
       </c>
       <c r="CV13" s="25">
-        <v>98470.245565443358</v>
+        <v>98457.073338885879</v>
       </c>
       <c r="CW13" s="25">
-        <v>116093.4053775958</v>
-      </c>
-      <c r="CX13" s="9"/>
+        <v>115242.51524806008</v>
+      </c>
+      <c r="CX13" s="25">
+        <v>127199.18062444893</v>
+      </c>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
@@ -25039,10 +25052,10 @@
       <c r="CI14" s="9"/>
       <c r="CJ14" s="9"/>
       <c r="CK14" s="9"/>
-      <c r="CL14" s="9"/>
-      <c r="CM14" s="9"/>
-      <c r="CN14" s="9"/>
-      <c r="CO14" s="9"/>
+      <c r="CL14" s="26"/>
+      <c r="CM14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
       <c r="CP14" s="26"/>
       <c r="CQ14" s="26"/>
       <c r="CR14" s="26"/>
@@ -25051,7 +25064,7 @@
       <c r="CU14" s="26"/>
       <c r="CV14" s="26"/>
       <c r="CW14" s="26"/>
-      <c r="CX14" s="9"/>
+      <c r="CX14" s="26"/>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
@@ -25422,16 +25435,16 @@
       <c r="CK15" s="19">
         <v>84448.034501048227</v>
       </c>
-      <c r="CL15" s="19">
+      <c r="CL15" s="27">
         <v>100202.19951070062</v>
       </c>
-      <c r="CM15" s="19">
+      <c r="CM15" s="27">
         <v>80321.38238961286</v>
       </c>
-      <c r="CN15" s="19">
+      <c r="CN15" s="27">
         <v>92435.54552403753</v>
       </c>
-      <c r="CO15" s="19">
+      <c r="CO15" s="27">
         <v>123184.77014079694</v>
       </c>
       <c r="CP15" s="27">
@@ -25441,24 +25454,26 @@
         <v>106817.93952852199</v>
       </c>
       <c r="CR15" s="27">
-        <v>115734.69416723149</v>
+        <v>115803.20586986573</v>
       </c>
       <c r="CS15" s="27">
-        <v>149984.53232447381</v>
+        <v>148979.78324010037</v>
       </c>
       <c r="CT15" s="27">
-        <v>164198.98534534292</v>
+        <v>164210.33434738737</v>
       </c>
       <c r="CU15" s="27">
-        <v>125015.7491965612</v>
+        <v>125141.93289755055</v>
       </c>
       <c r="CV15" s="27">
-        <v>133090.77172279081</v>
+        <v>133157.51550450613</v>
       </c>
       <c r="CW15" s="27">
-        <v>164160.32051898958</v>
-      </c>
-      <c r="CX15" s="9"/>
+        <v>163447.11494184504</v>
+      </c>
+      <c r="CX15" s="27">
+        <v>177523.41023924615</v>
+      </c>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
@@ -25651,10 +25666,10 @@
       <c r="CI16" s="12"/>
       <c r="CJ16" s="12"/>
       <c r="CK16" s="12"/>
-      <c r="CL16" s="12"/>
-      <c r="CM16" s="12"/>
-      <c r="CN16" s="12"/>
-      <c r="CO16" s="12"/>
+      <c r="CL16" s="28"/>
+      <c r="CM16" s="28"/>
+      <c r="CN16" s="28"/>
+      <c r="CO16" s="28"/>
       <c r="CP16" s="28"/>
       <c r="CQ16" s="28"/>
       <c r="CR16" s="28"/>
@@ -25663,6 +25678,7 @@
       <c r="CU16" s="28"/>
       <c r="CV16" s="28"/>
       <c r="CW16" s="28"/>
+      <c r="CX16" s="28"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25758,10 +25774,10 @@
       <c r="CI18" s="9"/>
       <c r="CJ18" s="9"/>
       <c r="CK18" s="9"/>
-      <c r="CL18" s="9"/>
-      <c r="CM18" s="9"/>
-      <c r="CN18" s="9"/>
-      <c r="CO18" s="9"/>
+      <c r="CL18" s="26"/>
+      <c r="CM18" s="26"/>
+      <c r="CN18" s="26"/>
+      <c r="CO18" s="26"/>
       <c r="CP18" s="26"/>
       <c r="CQ18" s="26"/>
       <c r="CR18" s="26"/>
@@ -25770,7 +25786,7 @@
       <c r="CU18" s="26"/>
       <c r="CV18" s="26"/>
       <c r="CW18" s="26"/>
-      <c r="CX18" s="9"/>
+      <c r="CX18" s="26"/>
       <c r="CY18" s="9"/>
       <c r="CZ18" s="9"/>
       <c r="DA18" s="9"/>
@@ -25962,10 +25978,10 @@
       <c r="CI19" s="14"/>
       <c r="CJ19" s="14"/>
       <c r="CK19" s="14"/>
-      <c r="CL19" s="14"/>
-      <c r="CM19" s="14"/>
-      <c r="CN19" s="14"/>
-      <c r="CO19" s="14"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="29"/>
+      <c r="CN19" s="29"/>
+      <c r="CO19" s="29"/>
       <c r="CP19" s="29"/>
       <c r="CQ19" s="29"/>
       <c r="CR19" s="29"/>
@@ -25974,7 +25990,7 @@
       <c r="CU19" s="29"/>
       <c r="CV19" s="29"/>
       <c r="CW19" s="29"/>
-      <c r="CX19" s="9"/>
+      <c r="CX19" s="29"/>
       <c r="CY19" s="9"/>
       <c r="CZ19" s="9"/>
       <c r="DA19" s="9"/>
@@ -26089,7 +26105,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -26099,7 +26115,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -26241,12 +26257,12 @@
       <c r="CI28" s="20"/>
       <c r="CJ28" s="20"/>
       <c r="CK28" s="20"/>
-      <c r="CL28" s="20">
+      <c r="CL28" s="23">
         <v>2022</v>
       </c>
-      <c r="CM28" s="20"/>
-      <c r="CN28" s="20"/>
-      <c r="CO28" s="20"/>
+      <c r="CM28" s="23"/>
+      <c r="CN28" s="23"/>
+      <c r="CO28" s="23"/>
       <c r="CP28" s="23">
         <v>2023</v>
       </c>
@@ -26259,6 +26275,9 @@
       <c r="CU28" s="23"/>
       <c r="CV28" s="23"/>
       <c r="CW28" s="23"/>
+      <c r="CX28" s="23">
+        <v>2025</v>
+      </c>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26528,16 +26547,16 @@
       <c r="CK29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL29" s="6" t="s">
+      <c r="CL29" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM29" s="6" t="s">
+      <c r="CM29" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN29" s="6" t="s">
+      <c r="CN29" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO29" s="6" t="s">
+      <c r="CO29" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CP29" s="24" t="s">
@@ -26563,6 +26582,9 @@
       </c>
       <c r="CW29" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CX29" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26836,16 +26858,16 @@
       <c r="CK31" s="18">
         <v>19416.096899922053</v>
       </c>
-      <c r="CL31" s="18">
+      <c r="CL31" s="25">
         <v>20049.14810358196</v>
       </c>
-      <c r="CM31" s="18">
+      <c r="CM31" s="25">
         <v>18817.743151028968</v>
       </c>
-      <c r="CN31" s="18">
+      <c r="CN31" s="25">
         <v>20682.824812787665</v>
       </c>
-      <c r="CO31" s="18">
+      <c r="CO31" s="25">
         <v>30430.250036974343</v>
       </c>
       <c r="CP31" s="25">
@@ -26855,24 +26877,26 @@
         <v>25636.925556847855</v>
       </c>
       <c r="CR31" s="25">
-        <v>26495.444463311713</v>
+        <v>26555.543876199168</v>
       </c>
       <c r="CS31" s="25">
-        <v>37363.229087199776</v>
+        <v>37065.93843865527</v>
       </c>
       <c r="CT31" s="25">
-        <v>37993.654931772151</v>
+        <v>38028.679817411918</v>
       </c>
       <c r="CU31" s="25">
-        <v>29507.384208592404</v>
+        <v>29608.426750846269</v>
       </c>
       <c r="CV31" s="25">
-        <v>29716.735746772887</v>
+        <v>29785.332130576724</v>
       </c>
       <c r="CW31" s="25">
-        <v>40607.832518110285</v>
-      </c>
-      <c r="CX31" s="9"/>
+        <v>40724.151013428396</v>
+      </c>
+      <c r="CX31" s="25">
+        <v>40874.266877790047</v>
+      </c>
       <c r="CY31" s="9"/>
       <c r="CZ31" s="9"/>
       <c r="DA31" s="9"/>
@@ -27243,16 +27267,16 @@
       <c r="CK32" s="18">
         <v>54246.506521998381</v>
       </c>
-      <c r="CL32" s="18">
+      <c r="CL32" s="25">
         <v>63885.717107942037</v>
       </c>
-      <c r="CM32" s="18">
+      <c r="CM32" s="25">
         <v>47947.040806814781</v>
       </c>
-      <c r="CN32" s="18">
+      <c r="CN32" s="25">
         <v>56686.025177483127</v>
       </c>
-      <c r="CO32" s="18">
+      <c r="CO32" s="25">
         <v>70625.177331761239</v>
       </c>
       <c r="CP32" s="25">
@@ -27265,21 +27289,23 @@
         <v>67135.457752874863</v>
       </c>
       <c r="CS32" s="25">
-        <v>82017.809062889806</v>
+        <v>81510.360201532283</v>
       </c>
       <c r="CT32" s="25">
-        <v>83560.085312483774</v>
+        <v>83537.671086025191</v>
       </c>
       <c r="CU32" s="25">
-        <v>65709.283603965596</v>
+        <v>65713.034534559905</v>
       </c>
       <c r="CV32" s="25">
-        <v>73896.01722252398</v>
+        <v>73886.132256004785</v>
       </c>
       <c r="CW32" s="25">
-        <v>86010.630882796831</v>
-      </c>
-      <c r="CX32" s="9"/>
+        <v>85380.228177188546</v>
+      </c>
+      <c r="CX32" s="25">
+        <v>87616.710183971212</v>
+      </c>
       <c r="CY32" s="9"/>
       <c r="CZ32" s="9"/>
       <c r="DA32" s="9"/>
@@ -27471,10 +27497,10 @@
       <c r="CI33" s="9"/>
       <c r="CJ33" s="9"/>
       <c r="CK33" s="9"/>
-      <c r="CL33" s="9"/>
-      <c r="CM33" s="9"/>
-      <c r="CN33" s="9"/>
-      <c r="CO33" s="9"/>
+      <c r="CL33" s="26"/>
+      <c r="CM33" s="26"/>
+      <c r="CN33" s="26"/>
+      <c r="CO33" s="26"/>
       <c r="CP33" s="26"/>
       <c r="CQ33" s="26"/>
       <c r="CR33" s="26"/>
@@ -27483,7 +27509,7 @@
       <c r="CU33" s="26"/>
       <c r="CV33" s="26"/>
       <c r="CW33" s="26"/>
-      <c r="CX33" s="9"/>
+      <c r="CX33" s="26"/>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
@@ -27854,16 +27880,16 @@
       <c r="CK34" s="19">
         <v>73662.60342192043</v>
       </c>
-      <c r="CL34" s="19">
+      <c r="CL34" s="27">
         <v>83934.865211523997</v>
       </c>
-      <c r="CM34" s="19">
+      <c r="CM34" s="27">
         <v>66764.783957843756</v>
       </c>
-      <c r="CN34" s="19">
+      <c r="CN34" s="27">
         <v>77368.849990270799</v>
       </c>
-      <c r="CO34" s="19">
+      <c r="CO34" s="27">
         <v>101055.42736873557</v>
       </c>
       <c r="CP34" s="27">
@@ -27873,24 +27899,26 @@
         <v>84969.76202673206</v>
       </c>
       <c r="CR34" s="27">
-        <v>93630.902216186572</v>
+        <v>93691.001629074031</v>
       </c>
       <c r="CS34" s="27">
-        <v>119381.03815008959</v>
+        <v>118576.29864018755</v>
       </c>
       <c r="CT34" s="27">
-        <v>121553.74024425593</v>
+        <v>121566.35090343711</v>
       </c>
       <c r="CU34" s="27">
-        <v>95216.667812558007</v>
+        <v>95321.461285406171</v>
       </c>
       <c r="CV34" s="27">
-        <v>103612.75296929687</v>
+        <v>103671.4643865815</v>
       </c>
       <c r="CW34" s="27">
-        <v>126618.46340090712</v>
-      </c>
-      <c r="CX34" s="9"/>
+        <v>126104.37919061695</v>
+      </c>
+      <c r="CX34" s="27">
+        <v>128490.97706176125</v>
+      </c>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
@@ -28083,10 +28111,10 @@
       <c r="CI35" s="12"/>
       <c r="CJ35" s="12"/>
       <c r="CK35" s="12"/>
-      <c r="CL35" s="12"/>
-      <c r="CM35" s="12"/>
-      <c r="CN35" s="12"/>
-      <c r="CO35" s="12"/>
+      <c r="CL35" s="28"/>
+      <c r="CM35" s="28"/>
+      <c r="CN35" s="28"/>
+      <c r="CO35" s="28"/>
       <c r="CP35" s="28"/>
       <c r="CQ35" s="28"/>
       <c r="CR35" s="28"/>
@@ -28095,6 +28123,7 @@
       <c r="CU35" s="28"/>
       <c r="CV35" s="28"/>
       <c r="CW35" s="28"/>
+      <c r="CX35" s="28"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28190,10 +28219,10 @@
       <c r="CI37" s="9"/>
       <c r="CJ37" s="9"/>
       <c r="CK37" s="9"/>
-      <c r="CL37" s="9"/>
-      <c r="CM37" s="9"/>
-      <c r="CN37" s="9"/>
-      <c r="CO37" s="9"/>
+      <c r="CL37" s="26"/>
+      <c r="CM37" s="26"/>
+      <c r="CN37" s="26"/>
+      <c r="CO37" s="26"/>
       <c r="CP37" s="26"/>
       <c r="CQ37" s="26"/>
       <c r="CR37" s="26"/>
@@ -28202,7 +28231,7 @@
       <c r="CU37" s="26"/>
       <c r="CV37" s="26"/>
       <c r="CW37" s="26"/>
-      <c r="CX37" s="9"/>
+      <c r="CX37" s="26"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
@@ -28394,10 +28423,10 @@
       <c r="CI38" s="9"/>
       <c r="CJ38" s="9"/>
       <c r="CK38" s="9"/>
-      <c r="CL38" s="9"/>
-      <c r="CM38" s="9"/>
-      <c r="CN38" s="9"/>
-      <c r="CO38" s="9"/>
+      <c r="CL38" s="26"/>
+      <c r="CM38" s="26"/>
+      <c r="CN38" s="26"/>
+      <c r="CO38" s="26"/>
       <c r="CP38" s="26"/>
       <c r="CQ38" s="26"/>
       <c r="CR38" s="26"/>
@@ -28406,7 +28435,7 @@
       <c r="CU38" s="26"/>
       <c r="CV38" s="26"/>
       <c r="CW38" s="26"/>
-      <c r="CX38" s="9"/>
+      <c r="CX38" s="26"/>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
@@ -28521,7 +28550,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28531,23 +28560,23 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CT45" s="32"/>
       <c r="CU45" s="32"/>
       <c r="CV45" s="32"/>
       <c r="CW45" s="32"/>
+      <c r="CX45" s="32"/>
     </row>
     <row r="46" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CT46" s="32"/>
       <c r="CU46" s="32"/>
       <c r="CV46" s="32"/>
       <c r="CW46" s="32"/>
+      <c r="CX46" s="32"/>
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -28683,22 +28712,25 @@
       <c r="CI47" s="20"/>
       <c r="CJ47" s="20"/>
       <c r="CK47" s="20"/>
-      <c r="CL47" s="20" t="s">
+      <c r="CL47" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CM47" s="20"/>
-      <c r="CN47" s="20"/>
-      <c r="CO47" s="20"/>
+      <c r="CM47" s="23"/>
+      <c r="CN47" s="23"/>
+      <c r="CO47" s="23"/>
       <c r="CP47" s="23" t="s">
         <v>49</v>
       </c>
       <c r="CQ47" s="23"/>
       <c r="CR47" s="23"/>
       <c r="CS47" s="23"/>
-      <c r="CT47" s="21"/>
+      <c r="CT47" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="CU47" s="21"/>
       <c r="CV47" s="21"/>
       <c r="CW47" s="21"/>
+      <c r="CX47" s="21"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -28968,16 +29000,16 @@
       <c r="CK48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL48" s="5" t="s">
+      <c r="CL48" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CM48" s="5" t="s">
+      <c r="CM48" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CN48" s="5" t="s">
+      <c r="CN48" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CO48" s="5" t="s">
+      <c r="CO48" s="30" t="s">
         <v>9</v>
       </c>
       <c r="CP48" s="30" t="s">
@@ -28992,17 +29024,20 @@
       <c r="CS48" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CT48" s="30"/>
+      <c r="CT48" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="CU48" s="30"/>
       <c r="CV48" s="30"/>
       <c r="CW48" s="30"/>
+      <c r="CX48" s="30"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="CT49" s="32"/>
       <c r="CU49" s="32"/>
       <c r="CV49" s="32"/>
       <c r="CW49" s="32"/>
+      <c r="CX49" s="32"/>
     </row>
     <row r="50" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29272,35 +29307,37 @@
       <c r="CK50" s="15">
         <v>62.773074662558116</v>
       </c>
-      <c r="CL50" s="15">
+      <c r="CL50" s="31">
         <v>70.990309770282551</v>
       </c>
-      <c r="CM50" s="15">
+      <c r="CM50" s="31">
         <v>42.71440022896013</v>
       </c>
-      <c r="CN50" s="15">
-        <v>33.441619218585657</v>
-      </c>
-      <c r="CO50" s="15">
-        <v>27.038536490028548</v>
+      <c r="CN50" s="31">
+        <v>33.744303817098199</v>
+      </c>
+      <c r="CO50" s="31">
+        <v>26.027719978020912</v>
       </c>
       <c r="CP50" s="31">
-        <v>19.475141489467916</v>
+        <v>19.585281016054054</v>
       </c>
       <c r="CQ50" s="31">
-        <v>18.10464200221746</v>
+        <v>18.509069354893896</v>
       </c>
       <c r="CR50" s="31">
-        <v>14.621984538199712</v>
+        <v>14.62656470324329</v>
       </c>
       <c r="CS50" s="31">
-        <v>10.781163708259726</v>
-      </c>
-      <c r="CT50" s="33"/>
+        <v>11.989564438331456</v>
+      </c>
+      <c r="CT50" s="31">
+        <v>8.7339640004132804</v>
+      </c>
       <c r="CU50" s="33"/>
       <c r="CV50" s="33"/>
       <c r="CW50" s="33"/>
-      <c r="CX50" s="9"/>
+      <c r="CX50" s="33"/>
       <c r="CY50" s="9"/>
       <c r="CZ50" s="9"/>
       <c r="DA50" s="9"/>
@@ -29667,35 +29704,37 @@
       <c r="CK51" s="15">
         <v>40.28221082142889</v>
       </c>
-      <c r="CL51" s="15">
+      <c r="CL51" s="31">
         <v>28.798250925585506</v>
       </c>
-      <c r="CM51" s="15">
+      <c r="CM51" s="31">
         <v>29.550490502767246</v>
       </c>
-      <c r="CN51" s="15">
+      <c r="CN51" s="31">
         <v>22.535171423873024</v>
       </c>
-      <c r="CO51" s="15">
-        <v>19.729135888720293</v>
+      <c r="CO51" s="31">
+        <v>18.988364897977732</v>
       </c>
       <c r="CP51" s="31">
-        <v>18.070156522917983</v>
+        <v>18.038849943608199</v>
       </c>
       <c r="CQ51" s="31">
-        <v>16.620311974775731</v>
+        <v>16.626969096450409</v>
       </c>
       <c r="CR51" s="31">
-        <v>15.128666874837364</v>
+        <v>15.113266274639543</v>
       </c>
       <c r="CS51" s="31">
-        <v>8.9102681718268286</v>
-      </c>
-      <c r="CT51" s="33"/>
+        <v>8.7850853524816159</v>
+      </c>
+      <c r="CT51" s="31">
+        <v>7.861404058580618</v>
+      </c>
       <c r="CU51" s="33"/>
       <c r="CV51" s="33"/>
       <c r="CW51" s="33"/>
-      <c r="CX51" s="9"/>
+      <c r="CX51" s="33"/>
       <c r="CY51" s="9"/>
       <c r="CZ51" s="9"/>
       <c r="DA51" s="9"/>
@@ -29884,19 +29923,19 @@
       <c r="CI52" s="9"/>
       <c r="CJ52" s="9"/>
       <c r="CK52" s="9"/>
-      <c r="CL52" s="9"/>
-      <c r="CM52" s="9"/>
-      <c r="CN52" s="9"/>
-      <c r="CO52" s="9"/>
+      <c r="CL52" s="26"/>
+      <c r="CM52" s="26"/>
+      <c r="CN52" s="26"/>
+      <c r="CO52" s="26"/>
       <c r="CP52" s="26"/>
       <c r="CQ52" s="26"/>
       <c r="CR52" s="26"/>
       <c r="CS52" s="26"/>
-      <c r="CT52" s="34"/>
+      <c r="CT52" s="26"/>
       <c r="CU52" s="34"/>
       <c r="CV52" s="34"/>
       <c r="CW52" s="34"/>
-      <c r="CX52" s="9"/>
+      <c r="CX52" s="34"/>
       <c r="CY52" s="9"/>
       <c r="CZ52" s="9"/>
       <c r="DA52" s="9"/>
@@ -30263,35 +30302,37 @@
       <c r="CK53" s="15">
         <v>45.870499969147147</v>
       </c>
-      <c r="CL53" s="15">
+      <c r="CL53" s="31">
         <v>38.328761119781177</v>
       </c>
-      <c r="CM53" s="15">
+      <c r="CM53" s="31">
         <v>32.988173697488151</v>
       </c>
-      <c r="CN53" s="15">
-        <v>25.205832357136998</v>
-      </c>
-      <c r="CO53" s="15">
-        <v>21.755743143446594</v>
+      <c r="CN53" s="31">
+        <v>25.279950708736322</v>
+      </c>
+      <c r="CO53" s="31">
+        <v>20.940099226406318</v>
       </c>
       <c r="CP53" s="31">
-        <v>18.462454547329372</v>
+        <v>18.470642360646366</v>
       </c>
       <c r="CQ53" s="31">
-        <v>17.036285991249727</v>
+        <v>17.154415681399442</v>
       </c>
       <c r="CR53" s="31">
-        <v>14.996434457657585</v>
+        <v>14.986035580174146</v>
       </c>
       <c r="CS53" s="31">
-        <v>9.4515000812537977</v>
-      </c>
-      <c r="CT53" s="33"/>
+        <v>9.7109362002686339</v>
+      </c>
+      <c r="CT53" s="31">
+        <v>8.1073313350028968</v>
+      </c>
       <c r="CU53" s="33"/>
       <c r="CV53" s="33"/>
       <c r="CW53" s="33"/>
-      <c r="CX53" s="9"/>
+      <c r="CX53" s="33"/>
       <c r="CY53" s="9"/>
       <c r="CZ53" s="9"/>
       <c r="DA53" s="9"/>
@@ -30480,27 +30521,28 @@
       <c r="CI54" s="12"/>
       <c r="CJ54" s="12"/>
       <c r="CK54" s="12"/>
-      <c r="CL54" s="12"/>
-      <c r="CM54" s="12"/>
-      <c r="CN54" s="12"/>
-      <c r="CO54" s="12"/>
+      <c r="CL54" s="28"/>
+      <c r="CM54" s="28"/>
+      <c r="CN54" s="28"/>
+      <c r="CO54" s="28"/>
       <c r="CP54" s="28"/>
       <c r="CQ54" s="28"/>
       <c r="CR54" s="28"/>
       <c r="CS54" s="28"/>
-      <c r="CT54" s="24"/>
+      <c r="CT54" s="28"/>
       <c r="CU54" s="24"/>
       <c r="CV54" s="24"/>
       <c r="CW54" s="24"/>
+      <c r="CX54" s="24"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT55" s="32"/>
       <c r="CU55" s="32"/>
       <c r="CV55" s="32"/>
       <c r="CW55" s="32"/>
+      <c r="CX55" s="32"/>
     </row>
     <row r="56" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
@@ -30591,19 +30633,19 @@
       <c r="CI56" s="9"/>
       <c r="CJ56" s="9"/>
       <c r="CK56" s="9"/>
-      <c r="CL56" s="9"/>
-      <c r="CM56" s="9"/>
-      <c r="CN56" s="9"/>
-      <c r="CO56" s="9"/>
+      <c r="CL56" s="26"/>
+      <c r="CM56" s="26"/>
+      <c r="CN56" s="26"/>
+      <c r="CO56" s="26"/>
       <c r="CP56" s="26"/>
       <c r="CQ56" s="26"/>
       <c r="CR56" s="26"/>
       <c r="CS56" s="26"/>
-      <c r="CT56" s="34"/>
+      <c r="CT56" s="26"/>
       <c r="CU56" s="34"/>
       <c r="CV56" s="34"/>
       <c r="CW56" s="34"/>
-      <c r="CX56" s="9"/>
+      <c r="CX56" s="34"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
@@ -30791,19 +30833,19 @@
       <c r="CI57" s="9"/>
       <c r="CJ57" s="9"/>
       <c r="CK57" s="9"/>
-      <c r="CL57" s="9"/>
-      <c r="CM57" s="9"/>
-      <c r="CN57" s="9"/>
-      <c r="CO57" s="9"/>
+      <c r="CL57" s="26"/>
+      <c r="CM57" s="26"/>
+      <c r="CN57" s="26"/>
+      <c r="CO57" s="26"/>
       <c r="CP57" s="26"/>
       <c r="CQ57" s="26"/>
       <c r="CR57" s="26"/>
       <c r="CS57" s="26"/>
-      <c r="CT57" s="34"/>
+      <c r="CT57" s="26"/>
       <c r="CU57" s="34"/>
       <c r="CV57" s="34"/>
       <c r="CW57" s="34"/>
-      <c r="CX57" s="9"/>
+      <c r="CX57" s="34"/>
       <c r="CY57" s="9"/>
       <c r="CZ57" s="9"/>
       <c r="DA57" s="9"/>
@@ -30906,67 +30948,67 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT58" s="32"/>
       <c r="CU58" s="32"/>
       <c r="CV58" s="32"/>
       <c r="CW58" s="32"/>
+      <c r="CX58" s="32"/>
     </row>
     <row r="59" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CT59" s="32"/>
       <c r="CU59" s="32"/>
       <c r="CV59" s="32"/>
       <c r="CW59" s="32"/>
+      <c r="CX59" s="32"/>
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CT60" s="32"/>
+        <v>53</v>
+      </c>
       <c r="CU60" s="32"/>
       <c r="CV60" s="32"/>
       <c r="CW60" s="32"/>
+      <c r="CX60" s="32"/>
     </row>
     <row r="61" spans="1:199" x14ac:dyDescent="0.2">
-      <c r="CT61" s="32"/>
       <c r="CU61" s="32"/>
       <c r="CV61" s="32"/>
       <c r="CW61" s="32"/>
+      <c r="CX61" s="32"/>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CT62" s="32"/>
       <c r="CU62" s="32"/>
       <c r="CV62" s="32"/>
       <c r="CW62" s="32"/>
+      <c r="CX62" s="32"/>
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CT63" s="32"/>
+        <v>52</v>
+      </c>
       <c r="CU63" s="32"/>
       <c r="CV63" s="32"/>
       <c r="CW63" s="32"/>
+      <c r="CX63" s="32"/>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CT64" s="32"/>
       <c r="CU64" s="32"/>
       <c r="CV64" s="32"/>
       <c r="CW64" s="32"/>
+      <c r="CX64" s="32"/>
     </row>
     <row r="65" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CT65" s="32"/>
       <c r="CU65" s="32"/>
       <c r="CV65" s="32"/>
       <c r="CW65" s="32"/>
+      <c r="CX65" s="32"/>
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -31102,22 +31144,25 @@
       <c r="CI66" s="20"/>
       <c r="CJ66" s="20"/>
       <c r="CK66" s="20"/>
-      <c r="CL66" s="20" t="s">
+      <c r="CL66" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="CM66" s="20"/>
-      <c r="CN66" s="20"/>
-      <c r="CO66" s="20"/>
+      <c r="CM66" s="23"/>
+      <c r="CN66" s="23"/>
+      <c r="CO66" s="23"/>
       <c r="CP66" s="23" t="s">
         <v>49</v>
       </c>
       <c r="CQ66" s="23"/>
       <c r="CR66" s="23"/>
       <c r="CS66" s="23"/>
-      <c r="CT66" s="21"/>
+      <c r="CT66" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="CU66" s="21"/>
       <c r="CV66" s="21"/>
       <c r="CW66" s="21"/>
+      <c r="CX66" s="21"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31387,16 +31432,16 @@
       <c r="CK67" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL67" s="5" t="s">
+      <c r="CL67" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CM67" s="5" t="s">
+      <c r="CM67" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="CN67" s="5" t="s">
+      <c r="CN67" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="CO67" s="5" t="s">
+      <c r="CO67" s="30" t="s">
         <v>9</v>
       </c>
       <c r="CP67" s="30" t="s">
@@ -31411,17 +31456,20 @@
       <c r="CS67" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="CT67" s="30"/>
+      <c r="CT67" s="30" t="s">
+        <v>7</v>
+      </c>
       <c r="CU67" s="30"/>
       <c r="CV67" s="30"/>
       <c r="CW67" s="30"/>
+      <c r="CX67" s="30"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
-      <c r="CT68" s="32"/>
       <c r="CU68" s="32"/>
       <c r="CV68" s="32"/>
       <c r="CW68" s="32"/>
+      <c r="CX68" s="32"/>
     </row>
     <row r="69" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31691,35 +31739,37 @@
       <c r="CK69" s="15">
         <v>56.726916814555608</v>
       </c>
-      <c r="CL69" s="15">
+      <c r="CL69" s="31">
         <v>63.188490196064862</v>
       </c>
-      <c r="CM69" s="15">
+      <c r="CM69" s="31">
         <v>36.238045928722386</v>
       </c>
-      <c r="CN69" s="15">
-        <v>28.103606268183682</v>
-      </c>
-      <c r="CO69" s="15">
-        <v>22.783181346855514</v>
+      <c r="CN69" s="31">
+        <v>28.39418269297795</v>
+      </c>
+      <c r="CO69" s="31">
+        <v>21.806223720206773</v>
       </c>
       <c r="CP69" s="31">
-        <v>16.124972897923612</v>
+        <v>16.232024033250653</v>
       </c>
       <c r="CQ69" s="31">
-        <v>15.097202834100031</v>
+        <v>15.491331771401079</v>
       </c>
       <c r="CR69" s="31">
-        <v>12.157906193729644</v>
+        <v>12.162387896985621</v>
       </c>
       <c r="CS69" s="31">
-        <v>8.6839481227335256</v>
-      </c>
-      <c r="CT69" s="33"/>
+        <v>9.8694724290537863</v>
+      </c>
+      <c r="CT69" s="31">
+        <v>7.4827395377402581</v>
+      </c>
       <c r="CU69" s="33"/>
       <c r="CV69" s="33"/>
       <c r="CW69" s="33"/>
-      <c r="CX69" s="9"/>
+      <c r="CX69" s="33"/>
       <c r="CY69" s="9"/>
       <c r="CZ69" s="9"/>
       <c r="DA69" s="9"/>
@@ -32086,35 +32136,37 @@
       <c r="CK70" s="15">
         <v>30.1930425752318</v>
       </c>
-      <c r="CL70" s="15">
+      <c r="CL70" s="31">
         <v>16.956756455543839</v>
       </c>
-      <c r="CM70" s="15">
+      <c r="CM70" s="31">
         <v>23.746607656026896</v>
       </c>
-      <c r="CN70" s="15">
+      <c r="CN70" s="31">
         <v>18.433877737369514</v>
       </c>
-      <c r="CO70" s="15">
-        <v>16.131119469777431</v>
+      <c r="CO70" s="31">
+        <v>15.412609611779061</v>
       </c>
       <c r="CP70" s="31">
-        <v>11.832951020296932</v>
+        <v>11.802952856935462</v>
       </c>
       <c r="CQ70" s="31">
-        <v>10.746911008237262</v>
+        <v>10.753232854313509</v>
       </c>
       <c r="CR70" s="31">
-        <v>10.070028113213553</v>
+        <v>10.055304200023627</v>
       </c>
       <c r="CS70" s="31">
-        <v>4.8682376005013737</v>
-      </c>
-      <c r="CT70" s="33"/>
+        <v>4.7477007414617134</v>
+      </c>
+      <c r="CT70" s="31">
+        <v>4.8828738519003139</v>
+      </c>
       <c r="CU70" s="33"/>
       <c r="CV70" s="33"/>
       <c r="CW70" s="33"/>
-      <c r="CX70" s="9"/>
+      <c r="CX70" s="33"/>
       <c r="CY70" s="9"/>
       <c r="CZ70" s="9"/>
       <c r="DA70" s="9"/>
@@ -32302,19 +32354,19 @@
       <c r="CI71" s="9"/>
       <c r="CJ71" s="9"/>
       <c r="CK71" s="9"/>
-      <c r="CL71" s="9"/>
-      <c r="CM71" s="9"/>
-      <c r="CN71" s="9"/>
-      <c r="CO71" s="9"/>
+      <c r="CL71" s="26"/>
+      <c r="CM71" s="26"/>
+      <c r="CN71" s="26"/>
+      <c r="CO71" s="26"/>
       <c r="CP71" s="26"/>
       <c r="CQ71" s="26"/>
       <c r="CR71" s="26"/>
       <c r="CS71" s="26"/>
-      <c r="CT71" s="34"/>
+      <c r="CT71" s="26"/>
       <c r="CU71" s="34"/>
       <c r="CV71" s="34"/>
       <c r="CW71" s="34"/>
-      <c r="CX71" s="9"/>
+      <c r="CX71" s="34"/>
       <c r="CY71" s="9"/>
       <c r="CZ71" s="9"/>
       <c r="DA71" s="9"/>
@@ -32681,35 +32733,37 @@
       <c r="CK72" s="15">
         <v>37.186880010086128</v>
       </c>
-      <c r="CL72" s="15">
+      <c r="CL72" s="31">
         <v>27.999925161577721</v>
       </c>
-      <c r="CM72" s="15">
+      <c r="CM72" s="31">
         <v>27.267336145928638</v>
       </c>
-      <c r="CN72" s="15">
-        <v>21.018862537003884</v>
-      </c>
-      <c r="CO72" s="15">
-        <v>18.134217288980153</v>
+      <c r="CN72" s="31">
+        <v>21.096541619599819</v>
+      </c>
+      <c r="CO72" s="31">
+        <v>17.337882514237492</v>
       </c>
       <c r="CP72" s="31">
-        <v>13.14001023239895</v>
+        <v>13.151748004563999</v>
       </c>
       <c r="CQ72" s="31">
-        <v>12.059473324877871</v>
+        <v>12.182803637154365</v>
       </c>
       <c r="CR72" s="31">
-        <v>10.660850762778054</v>
+        <v>10.652530748919162</v>
       </c>
       <c r="CS72" s="31">
-        <v>6.0624579606339211</v>
-      </c>
-      <c r="CT72" s="33"/>
+        <v>6.348722836485976</v>
+      </c>
+      <c r="CT72" s="31">
+        <v>5.6961701218000087</v>
+      </c>
       <c r="CU72" s="33"/>
       <c r="CV72" s="33"/>
       <c r="CW72" s="33"/>
-      <c r="CX72" s="9"/>
+      <c r="CX72" s="33"/>
       <c r="CY72" s="9"/>
       <c r="CZ72" s="9"/>
       <c r="DA72" s="9"/>
@@ -32898,27 +32952,28 @@
       <c r="CI73" s="12"/>
       <c r="CJ73" s="12"/>
       <c r="CK73" s="12"/>
-      <c r="CL73" s="12"/>
-      <c r="CM73" s="12"/>
-      <c r="CN73" s="12"/>
-      <c r="CO73" s="12"/>
+      <c r="CL73" s="28"/>
+      <c r="CM73" s="28"/>
+      <c r="CN73" s="28"/>
+      <c r="CO73" s="28"/>
       <c r="CP73" s="28"/>
       <c r="CQ73" s="28"/>
       <c r="CR73" s="28"/>
       <c r="CS73" s="28"/>
-      <c r="CT73" s="24"/>
+      <c r="CT73" s="28"/>
       <c r="CU73" s="24"/>
       <c r="CV73" s="24"/>
       <c r="CW73" s="24"/>
+      <c r="CX73" s="24"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CT74" s="32"/>
       <c r="CU74" s="32"/>
       <c r="CV74" s="32"/>
       <c r="CW74" s="32"/>
+      <c r="CX74" s="32"/>
     </row>
     <row r="75" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
@@ -33009,19 +33064,19 @@
       <c r="CI75" s="9"/>
       <c r="CJ75" s="9"/>
       <c r="CK75" s="9"/>
-      <c r="CL75" s="9"/>
-      <c r="CM75" s="9"/>
-      <c r="CN75" s="9"/>
-      <c r="CO75" s="9"/>
+      <c r="CL75" s="26"/>
+      <c r="CM75" s="26"/>
+      <c r="CN75" s="26"/>
+      <c r="CO75" s="26"/>
       <c r="CP75" s="26"/>
       <c r="CQ75" s="26"/>
       <c r="CR75" s="26"/>
       <c r="CS75" s="26"/>
-      <c r="CT75" s="34"/>
+      <c r="CT75" s="26"/>
       <c r="CU75" s="34"/>
       <c r="CV75" s="34"/>
       <c r="CW75" s="34"/>
-      <c r="CX75" s="9"/>
+      <c r="CX75" s="34"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
@@ -33213,10 +33268,10 @@
       <c r="CI76" s="9"/>
       <c r="CJ76" s="9"/>
       <c r="CK76" s="9"/>
-      <c r="CL76" s="9"/>
-      <c r="CM76" s="9"/>
-      <c r="CN76" s="9"/>
-      <c r="CO76" s="9"/>
+      <c r="CL76" s="26"/>
+      <c r="CM76" s="26"/>
+      <c r="CN76" s="26"/>
+      <c r="CO76" s="26"/>
       <c r="CP76" s="26"/>
       <c r="CQ76" s="26"/>
       <c r="CR76" s="26"/>
@@ -33225,7 +33280,7 @@
       <c r="CU76" s="26"/>
       <c r="CV76" s="26"/>
       <c r="CW76" s="26"/>
-      <c r="CX76" s="9"/>
+      <c r="CX76" s="26"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
@@ -33335,7 +33390,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -33345,7 +33400,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -33487,12 +33542,12 @@
       <c r="CI84" s="20"/>
       <c r="CJ84" s="20"/>
       <c r="CK84" s="20"/>
-      <c r="CL84" s="20">
+      <c r="CL84" s="23">
         <v>2022</v>
       </c>
-      <c r="CM84" s="20"/>
-      <c r="CN84" s="20"/>
-      <c r="CO84" s="20"/>
+      <c r="CM84" s="23"/>
+      <c r="CN84" s="23"/>
+      <c r="CO84" s="23"/>
       <c r="CP84" s="23">
         <v>2023</v>
       </c>
@@ -33505,6 +33560,9 @@
       <c r="CU84" s="23"/>
       <c r="CV84" s="23"/>
       <c r="CW84" s="23"/>
+      <c r="CX84" s="23">
+        <v>2025</v>
+      </c>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33774,16 +33832,16 @@
       <c r="CK85" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL85" s="6" t="s">
+      <c r="CL85" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM85" s="6" t="s">
+      <c r="CM85" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN85" s="6" t="s">
+      <c r="CN85" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO85" s="6" t="s">
+      <c r="CO85" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CP85" s="24" t="s">
@@ -33809,6 +33867,9 @@
       </c>
       <c r="CW85" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CX85" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34082,16 +34143,16 @@
       <c r="CK87" s="15">
         <v>108.06880471121292</v>
       </c>
-      <c r="CL87" s="15">
+      <c r="CL87" s="31">
         <v>112.89293468206635</v>
       </c>
-      <c r="CM87" s="15">
+      <c r="CM87" s="31">
         <v>111.46655877131172</v>
       </c>
-      <c r="CN87" s="15">
+      <c r="CN87" s="31">
         <v>109.43710197026653</v>
       </c>
-      <c r="CO87" s="15">
+      <c r="CO87" s="31">
         <v>112.23784641131908</v>
       </c>
       <c r="CP87" s="31">
@@ -34104,21 +34165,23 @@
         <v>113.99729105931354</v>
       </c>
       <c r="CS87" s="31">
-        <v>116.12772686355987</v>
+        <v>116.1277268635599</v>
       </c>
       <c r="CT87" s="31">
-        <v>121.7028266937009</v>
+        <v>121.70282669370087</v>
       </c>
       <c r="CU87" s="31">
-        <v>119.81637685038591</v>
+        <v>119.81637685038594</v>
       </c>
       <c r="CV87" s="31">
-        <v>116.50178018326625</v>
+        <v>116.50178018326622</v>
       </c>
       <c r="CW87" s="31">
-        <v>118.36858103656951</v>
-      </c>
-      <c r="CX87" s="9"/>
+        <v>118.36858103656955</v>
+      </c>
+      <c r="CX87" s="31">
+        <v>123.11958955805031</v>
+      </c>
       <c r="CY87" s="9"/>
       <c r="CZ87" s="9"/>
       <c r="DA87" s="9"/>
@@ -34489,16 +34552,16 @@
       <c r="CK88" s="15">
         <v>116.99424484412606</v>
       </c>
-      <c r="CL88" s="15">
+      <c r="CL88" s="31">
         <v>121.41701048256701</v>
       </c>
-      <c r="CM88" s="15">
+      <c r="CM88" s="31">
         <v>123.77383601179774</v>
       </c>
-      <c r="CN88" s="15">
+      <c r="CN88" s="31">
         <v>123.13592499172418</v>
       </c>
-      <c r="CO88" s="15">
+      <c r="CO88" s="31">
         <v>126.06058661417181</v>
       </c>
       <c r="CP88" s="31">
@@ -34514,18 +34577,20 @@
         <v>129.96624138173306</v>
       </c>
       <c r="CT88" s="31">
-        <v>141.16744003790828</v>
+        <v>141.1678761475888</v>
       </c>
       <c r="CU88" s="31">
-        <v>136.45114604337545</v>
+        <v>136.4511460433755</v>
       </c>
       <c r="CV88" s="31">
-        <v>133.25514590173202</v>
+        <v>133.25514590173205</v>
       </c>
       <c r="CW88" s="31">
-        <v>134.97564683113595</v>
-      </c>
-      <c r="CX88" s="9"/>
+        <v>134.975646831136</v>
+      </c>
+      <c r="CX88" s="31">
+        <v>145.17685080547454</v>
+      </c>
       <c r="CY88" s="9"/>
       <c r="CZ88" s="9"/>
       <c r="DA88" s="9"/>
@@ -34717,10 +34782,10 @@
       <c r="CI89" s="9"/>
       <c r="CJ89" s="9"/>
       <c r="CK89" s="9"/>
-      <c r="CL89" s="9"/>
-      <c r="CM89" s="9"/>
-      <c r="CN89" s="9"/>
-      <c r="CO89" s="9"/>
+      <c r="CL89" s="26"/>
+      <c r="CM89" s="26"/>
+      <c r="CN89" s="26"/>
+      <c r="CO89" s="26"/>
       <c r="CP89" s="26"/>
       <c r="CQ89" s="26"/>
       <c r="CR89" s="26"/>
@@ -34729,7 +34794,7 @@
       <c r="CU89" s="26"/>
       <c r="CV89" s="26"/>
       <c r="CW89" s="26"/>
-      <c r="CX89" s="9"/>
+      <c r="CX89" s="26"/>
       <c r="CY89" s="9"/>
       <c r="CZ89" s="9"/>
       <c r="DA89" s="9"/>
@@ -35100,16 +35165,16 @@
       <c r="CK90" s="15">
         <v>114.64166426124207</v>
       </c>
-      <c r="CL90" s="15">
+      <c r="CL90" s="31">
         <v>119.38090239161208</v>
       </c>
-      <c r="CM90" s="15">
+      <c r="CM90" s="31">
         <v>120.30501355374554</v>
       </c>
-      <c r="CN90" s="15">
+      <c r="CN90" s="31">
         <v>119.4738522488849</v>
       </c>
-      <c r="CO90" s="15">
+      <c r="CO90" s="31">
         <v>121.89822293394974</v>
       </c>
       <c r="CP90" s="31">
@@ -35119,24 +35184,26 @@
         <v>125.71288536140229</v>
       </c>
       <c r="CR90" s="31">
-        <v>123.60736832377088</v>
+        <v>123.60120380432551</v>
       </c>
       <c r="CS90" s="31">
-        <v>125.635138250271</v>
+        <v>125.64043990964022</v>
       </c>
       <c r="CT90" s="31">
-        <v>135.08344952232122</v>
+        <v>135.07877231407838</v>
       </c>
       <c r="CU90" s="31">
-        <v>131.2960766939095</v>
+        <v>131.28411084976719</v>
       </c>
       <c r="CV90" s="31">
-        <v>128.45018389022925</v>
+        <v>128.44181983190072</v>
       </c>
       <c r="CW90" s="31">
-        <v>129.64959146535773</v>
-      </c>
-      <c r="CX90" s="9"/>
+        <v>129.61256063501295</v>
+      </c>
+      <c r="CX90" s="31">
+        <v>138.16021505846024</v>
+      </c>
       <c r="CY90" s="9"/>
       <c r="CZ90" s="9"/>
       <c r="DA90" s="9"/>
@@ -35329,10 +35396,10 @@
       <c r="CI91" s="12"/>
       <c r="CJ91" s="12"/>
       <c r="CK91" s="12"/>
-      <c r="CL91" s="12"/>
-      <c r="CM91" s="12"/>
-      <c r="CN91" s="12"/>
-      <c r="CO91" s="12"/>
+      <c r="CL91" s="28"/>
+      <c r="CM91" s="28"/>
+      <c r="CN91" s="28"/>
+      <c r="CO91" s="28"/>
       <c r="CP91" s="28"/>
       <c r="CQ91" s="28"/>
       <c r="CR91" s="28"/>
@@ -35341,6 +35408,7 @@
       <c r="CU91" s="28"/>
       <c r="CV91" s="28"/>
       <c r="CW91" s="28"/>
+      <c r="CX91" s="28"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -35359,7 +35427,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -35369,7 +35437,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -35511,12 +35579,12 @@
       <c r="CI103" s="20"/>
       <c r="CJ103" s="20"/>
       <c r="CK103" s="20"/>
-      <c r="CL103" s="20">
+      <c r="CL103" s="23">
         <v>2022</v>
       </c>
-      <c r="CM103" s="20"/>
-      <c r="CN103" s="20"/>
-      <c r="CO103" s="20"/>
+      <c r="CM103" s="23"/>
+      <c r="CN103" s="23"/>
+      <c r="CO103" s="23"/>
       <c r="CP103" s="23">
         <v>2023</v>
       </c>
@@ -35529,6 +35597,9 @@
       <c r="CU103" s="23"/>
       <c r="CV103" s="23"/>
       <c r="CW103" s="23"/>
+      <c r="CX103" s="23">
+        <v>2025</v>
+      </c>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35798,16 +35869,16 @@
       <c r="CK104" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL104" s="6" t="s">
+      <c r="CL104" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM104" s="6" t="s">
+      <c r="CM104" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN104" s="6" t="s">
+      <c r="CN104" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO104" s="6" t="s">
+      <c r="CO104" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CP104" s="24" t="s">
@@ -35833,6 +35904,9 @@
       </c>
       <c r="CW104" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CX104" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36106,16 +36180,16 @@
       <c r="CK106" s="15">
         <v>24.84692978977051</v>
       </c>
-      <c r="CL106" s="15">
+      <c r="CL106" s="31">
         <v>22.58839804257034</v>
       </c>
-      <c r="CM106" s="15">
+      <c r="CM106" s="31">
         <v>26.114454339357508</v>
       </c>
-      <c r="CN106" s="15">
+      <c r="CN106" s="31">
         <v>24.486991397498656</v>
       </c>
-      <c r="CO106" s="15">
+      <c r="CO106" s="31">
         <v>27.726038908902634</v>
       </c>
       <c r="CP106" s="31">
@@ -36125,24 +36199,26 @@
         <v>28.024361751336436</v>
       </c>
       <c r="CR106" s="31">
-        <v>26.097696252306722</v>
+        <v>26.141418467251604</v>
       </c>
       <c r="CS106" s="31">
-        <v>28.929028846736273</v>
+        <v>28.892397890045316</v>
       </c>
       <c r="CT106" s="31">
-        <v>28.160558921217998</v>
+        <v>28.184571011333297</v>
       </c>
       <c r="CU106" s="31">
-        <v>28.280179808761918</v>
+        <v>28.348406768103246</v>
       </c>
       <c r="CV106" s="31">
-        <v>26.012717267472979</v>
+        <v>26.059694816434131</v>
       </c>
       <c r="CW106" s="31">
-        <v>29.280471059895106</v>
-      </c>
-      <c r="CX106" s="9"/>
+        <v>29.492475110947225</v>
+      </c>
+      <c r="CX106" s="31">
+        <v>28.347939884083939</v>
+      </c>
       <c r="CY106" s="9"/>
       <c r="CZ106" s="9"/>
       <c r="DA106" s="9"/>
@@ -36513,16 +36589,16 @@
       <c r="CK107" s="15">
         <v>75.153070210229501</v>
       </c>
-      <c r="CL107" s="15">
+      <c r="CL107" s="31">
         <v>77.411601957429653</v>
       </c>
-      <c r="CM107" s="15">
+      <c r="CM107" s="31">
         <v>73.885545660642492</v>
       </c>
-      <c r="CN107" s="15">
+      <c r="CN107" s="31">
         <v>75.513008602501358</v>
       </c>
-      <c r="CO107" s="15">
+      <c r="CO107" s="31">
         <v>72.273961091097377</v>
       </c>
       <c r="CP107" s="31">
@@ -36532,24 +36608,26 @@
         <v>71.975638248663572</v>
       </c>
       <c r="CR107" s="31">
-        <v>73.902303747693281</v>
+        <v>73.858581532748403</v>
       </c>
       <c r="CS107" s="31">
-        <v>71.070971153263727</v>
+        <v>71.107602109954684</v>
       </c>
       <c r="CT107" s="31">
-        <v>71.839441078782002</v>
+        <v>71.81542898866671</v>
       </c>
       <c r="CU107" s="31">
-        <v>71.719820191238085</v>
+        <v>71.651593231896754</v>
       </c>
       <c r="CV107" s="31">
-        <v>73.987282732527021</v>
+        <v>73.940305183565883</v>
       </c>
       <c r="CW107" s="31">
-        <v>70.719528940104908</v>
-      </c>
-      <c r="CX107" s="9"/>
+        <v>70.507524889052775</v>
+      </c>
+      <c r="CX107" s="31">
+        <v>71.652060115916044</v>
+      </c>
       <c r="CY107" s="9"/>
       <c r="CZ107" s="9"/>
       <c r="DA107" s="9"/>
@@ -36741,10 +36819,10 @@
       <c r="CI108" s="9"/>
       <c r="CJ108" s="9"/>
       <c r="CK108" s="9"/>
-      <c r="CL108" s="9"/>
-      <c r="CM108" s="9"/>
-      <c r="CN108" s="9"/>
-      <c r="CO108" s="9"/>
+      <c r="CL108" s="26"/>
+      <c r="CM108" s="26"/>
+      <c r="CN108" s="26"/>
+      <c r="CO108" s="26"/>
       <c r="CP108" s="26"/>
       <c r="CQ108" s="26"/>
       <c r="CR108" s="26"/>
@@ -36753,7 +36831,7 @@
       <c r="CU108" s="26"/>
       <c r="CV108" s="26"/>
       <c r="CW108" s="26"/>
-      <c r="CX108" s="9"/>
+      <c r="CX108" s="26"/>
       <c r="CY108" s="9"/>
       <c r="CZ108" s="9"/>
       <c r="DA108" s="9"/>
@@ -37124,16 +37202,16 @@
       <c r="CK109" s="15">
         <v>100</v>
       </c>
-      <c r="CL109" s="15">
+      <c r="CL109" s="31">
         <v>100</v>
       </c>
-      <c r="CM109" s="15">
+      <c r="CM109" s="31">
         <v>100</v>
       </c>
-      <c r="CN109" s="15">
+      <c r="CN109" s="31">
         <v>100</v>
       </c>
-      <c r="CO109" s="15">
+      <c r="CO109" s="31">
         <v>100</v>
       </c>
       <c r="CP109" s="31">
@@ -37160,7 +37238,9 @@
       <c r="CW109" s="31">
         <v>100</v>
       </c>
-      <c r="CX109" s="9"/>
+      <c r="CX109" s="31">
+        <v>100</v>
+      </c>
       <c r="CY109" s="9"/>
       <c r="CZ109" s="9"/>
       <c r="DA109" s="9"/>
@@ -37353,10 +37433,10 @@
       <c r="CI110" s="12"/>
       <c r="CJ110" s="12"/>
       <c r="CK110" s="12"/>
-      <c r="CL110" s="12"/>
-      <c r="CM110" s="12"/>
-      <c r="CN110" s="12"/>
-      <c r="CO110" s="12"/>
+      <c r="CL110" s="28"/>
+      <c r="CM110" s="28"/>
+      <c r="CN110" s="28"/>
+      <c r="CO110" s="28"/>
       <c r="CP110" s="28"/>
       <c r="CQ110" s="28"/>
       <c r="CR110" s="28"/>
@@ -37365,6 +37445,7 @@
       <c r="CU110" s="28"/>
       <c r="CV110" s="28"/>
       <c r="CW110" s="28"/>
+      <c r="CX110" s="28"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37460,10 +37541,10 @@
       <c r="CI112" s="9"/>
       <c r="CJ112" s="9"/>
       <c r="CK112" s="9"/>
-      <c r="CL112" s="9"/>
-      <c r="CM112" s="9"/>
-      <c r="CN112" s="9"/>
-      <c r="CO112" s="9"/>
+      <c r="CL112" s="26"/>
+      <c r="CM112" s="26"/>
+      <c r="CN112" s="26"/>
+      <c r="CO112" s="26"/>
       <c r="CP112" s="26"/>
       <c r="CQ112" s="26"/>
       <c r="CR112" s="26"/>
@@ -37472,7 +37553,7 @@
       <c r="CU112" s="26"/>
       <c r="CV112" s="26"/>
       <c r="CW112" s="26"/>
-      <c r="CX112" s="9"/>
+      <c r="CX112" s="26"/>
       <c r="CY112" s="9"/>
       <c r="CZ112" s="9"/>
       <c r="DA112" s="9"/>
@@ -37664,10 +37745,10 @@
       <c r="CI113" s="9"/>
       <c r="CJ113" s="9"/>
       <c r="CK113" s="9"/>
-      <c r="CL113" s="9"/>
-      <c r="CM113" s="9"/>
-      <c r="CN113" s="9"/>
-      <c r="CO113" s="9"/>
+      <c r="CL113" s="26"/>
+      <c r="CM113" s="26"/>
+      <c r="CN113" s="26"/>
+      <c r="CO113" s="26"/>
       <c r="CP113" s="26"/>
       <c r="CQ113" s="26"/>
       <c r="CR113" s="26"/>
@@ -37676,7 +37757,7 @@
       <c r="CU113" s="26"/>
       <c r="CV113" s="26"/>
       <c r="CW113" s="26"/>
-      <c r="CX113" s="9"/>
+      <c r="CX113" s="26"/>
       <c r="CY113" s="9"/>
       <c r="CZ113" s="9"/>
       <c r="DA113" s="9"/>
@@ -37791,7 +37872,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37801,7 +37882,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -37943,12 +38024,12 @@
       <c r="CI122" s="20"/>
       <c r="CJ122" s="20"/>
       <c r="CK122" s="20"/>
-      <c r="CL122" s="20">
+      <c r="CL122" s="23">
         <v>2022</v>
       </c>
-      <c r="CM122" s="20"/>
-      <c r="CN122" s="20"/>
-      <c r="CO122" s="20"/>
+      <c r="CM122" s="23"/>
+      <c r="CN122" s="23"/>
+      <c r="CO122" s="23"/>
       <c r="CP122" s="23">
         <v>2023</v>
       </c>
@@ -37961,6 +38042,9 @@
       <c r="CU122" s="23"/>
       <c r="CV122" s="23"/>
       <c r="CW122" s="23"/>
+      <c r="CX122" s="23">
+        <v>2025</v>
+      </c>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -38230,16 +38314,16 @@
       <c r="CK123" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL123" s="6" t="s">
+      <c r="CL123" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="CM123" s="6" t="s">
+      <c r="CM123" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="CN123" s="6" t="s">
+      <c r="CN123" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="CO123" s="6" t="s">
+      <c r="CO123" s="24" t="s">
         <v>9</v>
       </c>
       <c r="CP123" s="24" t="s">
@@ -38265,6 +38349,9 @@
       </c>
       <c r="CW123" s="24" t="s">
         <v>9</v>
+      </c>
+      <c r="CX123" s="24" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38538,16 +38625,16 @@
       <c r="CK125" s="15">
         <v>26.358146465054528</v>
       </c>
-      <c r="CL125" s="15">
+      <c r="CL125" s="31">
         <v>23.886555429684865</v>
       </c>
-      <c r="CM125" s="15">
+      <c r="CM125" s="31">
         <v>28.185132993032319</v>
       </c>
-      <c r="CN125" s="15">
+      <c r="CN125" s="31">
         <v>26.732754610400111</v>
       </c>
-      <c r="CO125" s="15">
+      <c r="CO125" s="31">
         <v>30.112435154956184</v>
       </c>
       <c r="CP125" s="31">
@@ -38557,24 +38644,26 @@
         <v>30.171822240460443</v>
       </c>
       <c r="CR125" s="31">
-        <v>28.297756228104866</v>
+        <v>28.343750642493394</v>
       </c>
       <c r="CS125" s="31">
-        <v>31.297457005044262</v>
+        <v>31.259146105689776</v>
       </c>
       <c r="CT125" s="31">
-        <v>31.256672855500682</v>
+        <v>31.282241783846054</v>
       </c>
       <c r="CU125" s="31">
-        <v>30.989725734448264</v>
+        <v>31.061658467650194</v>
       </c>
       <c r="CV125" s="31">
-        <v>28.68057733740433</v>
+        <v>28.730501982213656</v>
       </c>
       <c r="CW125" s="31">
-        <v>32.071019839764823</v>
-      </c>
-      <c r="CX125" s="9"/>
+        <v>32.294002218488032</v>
+      </c>
+      <c r="CX125" s="31">
+        <v>31.811001684688861</v>
+      </c>
       <c r="CY125" s="9"/>
       <c r="CZ125" s="9"/>
       <c r="DA125" s="9"/>
@@ -38945,16 +39034,16 @@
       <c r="CK126" s="15">
         <v>73.641853534945483</v>
       </c>
-      <c r="CL126" s="15">
+      <c r="CL126" s="31">
         <v>76.113444570315139</v>
       </c>
-      <c r="CM126" s="15">
+      <c r="CM126" s="31">
         <v>71.814867006967674</v>
       </c>
-      <c r="CN126" s="15">
+      <c r="CN126" s="31">
         <v>73.267245389599879</v>
       </c>
-      <c r="CO126" s="15">
+      <c r="CO126" s="31">
         <v>69.887564845043826</v>
       </c>
       <c r="CP126" s="31">
@@ -38964,24 +39053,26 @@
         <v>69.828177759539557</v>
       </c>
       <c r="CR126" s="31">
-        <v>71.702243771895141</v>
+        <v>71.65624935750661</v>
       </c>
       <c r="CS126" s="31">
-        <v>68.702542994955735</v>
+        <v>68.74085389431022</v>
       </c>
       <c r="CT126" s="31">
-        <v>68.743327144499318</v>
+        <v>68.717758216153939</v>
       </c>
       <c r="CU126" s="31">
-        <v>69.010274265551729</v>
+        <v>68.93834153234981</v>
       </c>
       <c r="CV126" s="31">
-        <v>71.319422662595684</v>
+        <v>71.269498017786347</v>
       </c>
       <c r="CW126" s="31">
-        <v>67.92898016023517</v>
-      </c>
-      <c r="CX126" s="9"/>
+        <v>67.705997781511968</v>
+      </c>
+      <c r="CX126" s="31">
+        <v>68.188998315311139</v>
+      </c>
       <c r="CY126" s="9"/>
       <c r="CZ126" s="9"/>
       <c r="DA126" s="9"/>
@@ -39173,10 +39264,10 @@
       <c r="CI127" s="9"/>
       <c r="CJ127" s="9"/>
       <c r="CK127" s="9"/>
-      <c r="CL127" s="9"/>
-      <c r="CM127" s="9"/>
-      <c r="CN127" s="9"/>
-      <c r="CO127" s="9"/>
+      <c r="CL127" s="26"/>
+      <c r="CM127" s="26"/>
+      <c r="CN127" s="26"/>
+      <c r="CO127" s="26"/>
       <c r="CP127" s="26"/>
       <c r="CQ127" s="26"/>
       <c r="CR127" s="26"/>
@@ -39185,7 +39276,7 @@
       <c r="CU127" s="26"/>
       <c r="CV127" s="26"/>
       <c r="CW127" s="26"/>
-      <c r="CX127" s="9"/>
+      <c r="CX127" s="26"/>
       <c r="CY127" s="9"/>
       <c r="CZ127" s="9"/>
       <c r="DA127" s="9"/>
@@ -39556,16 +39647,16 @@
       <c r="CK128" s="15">
         <v>100</v>
       </c>
-      <c r="CL128" s="15">
+      <c r="CL128" s="31">
         <v>100</v>
       </c>
-      <c r="CM128" s="15">
+      <c r="CM128" s="31">
         <v>100</v>
       </c>
-      <c r="CN128" s="15">
+      <c r="CN128" s="31">
         <v>100</v>
       </c>
-      <c r="CO128" s="15">
+      <c r="CO128" s="31">
         <v>100</v>
       </c>
       <c r="CP128" s="31">
@@ -39592,7 +39683,9 @@
       <c r="CW128" s="31">
         <v>100</v>
       </c>
-      <c r="CX128" s="9"/>
+      <c r="CX128" s="31">
+        <v>100</v>
+      </c>
       <c r="CY128" s="9"/>
       <c r="CZ128" s="9"/>
       <c r="DA128" s="9"/>
@@ -39785,10 +39878,10 @@
       <c r="CI129" s="12"/>
       <c r="CJ129" s="12"/>
       <c r="CK129" s="12"/>
-      <c r="CL129" s="12"/>
-      <c r="CM129" s="12"/>
-      <c r="CN129" s="12"/>
-      <c r="CO129" s="12"/>
+      <c r="CL129" s="28"/>
+      <c r="CM129" s="28"/>
+      <c r="CN129" s="28"/>
+      <c r="CO129" s="28"/>
       <c r="CP129" s="28"/>
       <c r="CQ129" s="28"/>
       <c r="CR129" s="28"/>
@@ -39797,6 +39890,7 @@
       <c r="CU129" s="28"/>
       <c r="CV129" s="28"/>
       <c r="CW129" s="28"/>
+      <c r="CX129" s="28"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -39893,10 +39987,10 @@
       <c r="CI131" s="1"/>
       <c r="CJ131" s="1"/>
       <c r="CK131" s="1"/>
-      <c r="CL131" s="1"/>
-      <c r="CM131" s="1"/>
-      <c r="CN131" s="1"/>
-      <c r="CO131" s="1"/>
+      <c r="CL131" s="22"/>
+      <c r="CM131" s="22"/>
+      <c r="CN131" s="22"/>
+      <c r="CO131" s="22"/>
       <c r="CP131" s="22"/>
       <c r="CQ131" s="22"/>
       <c r="CR131" s="22"/>
@@ -39905,7 +39999,7 @@
       <c r="CU131" s="22"/>
       <c r="CV131" s="22"/>
       <c r="CW131" s="22"/>
-      <c r="CX131" s="16"/>
+      <c r="CX131" s="22"/>
       <c r="CY131" s="16"/>
       <c r="CZ131" s="16"/>
       <c r="DA131" s="16"/>
@@ -40098,10 +40192,10 @@
       <c r="CI132" s="1"/>
       <c r="CJ132" s="1"/>
       <c r="CK132" s="1"/>
-      <c r="CL132" s="1"/>
-      <c r="CM132" s="1"/>
-      <c r="CN132" s="1"/>
-      <c r="CO132" s="1"/>
+      <c r="CL132" s="22"/>
+      <c r="CM132" s="22"/>
+      <c r="CN132" s="22"/>
+      <c r="CO132" s="22"/>
       <c r="CP132" s="22"/>
       <c r="CQ132" s="22"/>
       <c r="CR132" s="22"/>
@@ -40110,7 +40204,7 @@
       <c r="CU132" s="22"/>
       <c r="CV132" s="22"/>
       <c r="CW132" s="22"/>
-      <c r="CX132" s="16"/>
+      <c r="CX132" s="22"/>
       <c r="CY132" s="16"/>
       <c r="CZ132" s="16"/>
       <c r="DA132" s="16"/>
@@ -40215,32 +40309,103 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="CD122:CG122"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ28:CC28"/>
-    <mergeCell ref="BZ84:CC84"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD28:CG28"/>
-    <mergeCell ref="BZ47:CC47"/>
-    <mergeCell ref="BZ66:CC66"/>
-    <mergeCell ref="CD103:CG103"/>
-    <mergeCell ref="CD84:CG84"/>
-    <mergeCell ref="CD47:CG47"/>
-    <mergeCell ref="CD66:CG66"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="BJ66:BM66"/>
-    <mergeCell ref="BN66:BQ66"/>
-    <mergeCell ref="BR84:BU84"/>
-    <mergeCell ref="BV84:BY84"/>
-    <mergeCell ref="BR47:BU47"/>
-    <mergeCell ref="BV47:BY47"/>
-    <mergeCell ref="BR66:BU66"/>
-    <mergeCell ref="BV66:BY66"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BR28:BU28"/>
-    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="B122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:M122"/>
+    <mergeCell ref="N122:Q122"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:I84"/>
+    <mergeCell ref="J84:M84"/>
+    <mergeCell ref="N84:Q84"/>
+    <mergeCell ref="R84:U84"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="F103:I103"/>
+    <mergeCell ref="J103:M103"/>
+    <mergeCell ref="N103:Q103"/>
+    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="AD84:AG84"/>
+    <mergeCell ref="AH84:AK84"/>
+    <mergeCell ref="AP122:AS122"/>
+    <mergeCell ref="AT122:AW122"/>
+    <mergeCell ref="AX122:BA122"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="BB122:BE122"/>
+    <mergeCell ref="Z103:AC103"/>
+    <mergeCell ref="AD103:AG103"/>
+    <mergeCell ref="AH103:AK103"/>
+    <mergeCell ref="AL103:AO103"/>
+    <mergeCell ref="V103:Y103"/>
+    <mergeCell ref="AL84:AO84"/>
+    <mergeCell ref="V122:Y122"/>
+    <mergeCell ref="Z122:AC122"/>
+    <mergeCell ref="AD122:AG122"/>
+    <mergeCell ref="AH122:AK122"/>
+    <mergeCell ref="AL122:AO122"/>
+    <mergeCell ref="V84:Y84"/>
+    <mergeCell ref="Z84:AC84"/>
+    <mergeCell ref="AP103:AS103"/>
+    <mergeCell ref="AT103:AW103"/>
+    <mergeCell ref="AX103:BA103"/>
+    <mergeCell ref="BB103:BE103"/>
+    <mergeCell ref="AP84:AS84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="BN47:BQ47"/>
+    <mergeCell ref="AP66:AS66"/>
+    <mergeCell ref="AX84:BA84"/>
+    <mergeCell ref="BB84:BE84"/>
+    <mergeCell ref="BJ84:BM84"/>
+    <mergeCell ref="BJ47:BM47"/>
+    <mergeCell ref="BN84:BQ84"/>
+    <mergeCell ref="BF84:BI84"/>
+    <mergeCell ref="BF66:BI66"/>
+    <mergeCell ref="BF47:BI47"/>
+    <mergeCell ref="BV122:BY122"/>
+    <mergeCell ref="BZ122:CC122"/>
+    <mergeCell ref="BR103:BU103"/>
+    <mergeCell ref="BV103:BY103"/>
+    <mergeCell ref="BF122:BI122"/>
+    <mergeCell ref="BJ122:BM122"/>
+    <mergeCell ref="BN122:BQ122"/>
+    <mergeCell ref="BF103:BI103"/>
+    <mergeCell ref="BJ103:BM103"/>
+    <mergeCell ref="BN103:BQ103"/>
+    <mergeCell ref="BR122:BU122"/>
+    <mergeCell ref="BZ103:CC103"/>
+    <mergeCell ref="AL66:AO66"/>
+    <mergeCell ref="AT66:AW66"/>
+    <mergeCell ref="AX66:BA66"/>
+    <mergeCell ref="BB66:BE66"/>
+    <mergeCell ref="BF28:BI28"/>
+    <mergeCell ref="AH47:AK47"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="J66:M66"/>
+    <mergeCell ref="N66:Q66"/>
+    <mergeCell ref="R66:U66"/>
+    <mergeCell ref="V66:Y66"/>
+    <mergeCell ref="Z66:AC66"/>
+    <mergeCell ref="AD66:AG66"/>
+    <mergeCell ref="AH66:AK66"/>
+    <mergeCell ref="AL47:AO47"/>
+    <mergeCell ref="AP47:AS47"/>
+    <mergeCell ref="AT47:AW47"/>
+    <mergeCell ref="AX47:BA47"/>
+    <mergeCell ref="AP28:AS28"/>
+    <mergeCell ref="AT28:AW28"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="BB28:BE28"/>
+    <mergeCell ref="BB47:BE47"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="N47:Q47"/>
+    <mergeCell ref="R47:U47"/>
+    <mergeCell ref="V47:Y47"/>
+    <mergeCell ref="Z47:AC47"/>
+    <mergeCell ref="AD47:AG47"/>
     <mergeCell ref="AL28:AO28"/>
     <mergeCell ref="BF9:BI9"/>
     <mergeCell ref="B9:E9"/>
@@ -40265,112 +40430,44 @@
     <mergeCell ref="Z28:AC28"/>
     <mergeCell ref="AD28:AG28"/>
     <mergeCell ref="AH28:AK28"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="N47:Q47"/>
-    <mergeCell ref="R47:U47"/>
-    <mergeCell ref="V47:Y47"/>
-    <mergeCell ref="Z47:AC47"/>
-    <mergeCell ref="AD47:AG47"/>
-    <mergeCell ref="AL66:AO66"/>
-    <mergeCell ref="AT66:AW66"/>
-    <mergeCell ref="AX66:BA66"/>
-    <mergeCell ref="BB66:BE66"/>
-    <mergeCell ref="BF28:BI28"/>
-    <mergeCell ref="AH47:AK47"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="N66:Q66"/>
-    <mergeCell ref="R66:U66"/>
-    <mergeCell ref="V66:Y66"/>
-    <mergeCell ref="Z66:AC66"/>
-    <mergeCell ref="AD66:AG66"/>
-    <mergeCell ref="AH66:AK66"/>
-    <mergeCell ref="AL47:AO47"/>
-    <mergeCell ref="AP47:AS47"/>
-    <mergeCell ref="AT47:AW47"/>
-    <mergeCell ref="AX47:BA47"/>
-    <mergeCell ref="AP28:AS28"/>
-    <mergeCell ref="AT28:AW28"/>
-    <mergeCell ref="AX28:BA28"/>
-    <mergeCell ref="BB28:BE28"/>
-    <mergeCell ref="BB47:BE47"/>
-    <mergeCell ref="BV122:BY122"/>
-    <mergeCell ref="BZ122:CC122"/>
-    <mergeCell ref="BR103:BU103"/>
-    <mergeCell ref="BV103:BY103"/>
-    <mergeCell ref="BF122:BI122"/>
-    <mergeCell ref="BJ122:BM122"/>
-    <mergeCell ref="BN122:BQ122"/>
-    <mergeCell ref="BF103:BI103"/>
-    <mergeCell ref="BJ103:BM103"/>
-    <mergeCell ref="BN103:BQ103"/>
-    <mergeCell ref="BR122:BU122"/>
-    <mergeCell ref="BZ103:CC103"/>
-    <mergeCell ref="AP84:AS84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="BN47:BQ47"/>
-    <mergeCell ref="AP66:AS66"/>
-    <mergeCell ref="AX84:BA84"/>
-    <mergeCell ref="BB84:BE84"/>
-    <mergeCell ref="BJ84:BM84"/>
-    <mergeCell ref="BJ47:BM47"/>
-    <mergeCell ref="BN84:BQ84"/>
-    <mergeCell ref="BF84:BI84"/>
-    <mergeCell ref="BF66:BI66"/>
-    <mergeCell ref="BF47:BI47"/>
-    <mergeCell ref="AD84:AG84"/>
-    <mergeCell ref="AH84:AK84"/>
-    <mergeCell ref="AP122:AS122"/>
-    <mergeCell ref="AT122:AW122"/>
-    <mergeCell ref="AX122:BA122"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="BB122:BE122"/>
-    <mergeCell ref="Z103:AC103"/>
-    <mergeCell ref="AD103:AG103"/>
-    <mergeCell ref="AH103:AK103"/>
-    <mergeCell ref="AL103:AO103"/>
-    <mergeCell ref="V103:Y103"/>
-    <mergeCell ref="AL84:AO84"/>
-    <mergeCell ref="V122:Y122"/>
-    <mergeCell ref="Z122:AC122"/>
-    <mergeCell ref="AD122:AG122"/>
-    <mergeCell ref="AH122:AK122"/>
-    <mergeCell ref="AL122:AO122"/>
-    <mergeCell ref="V84:Y84"/>
-    <mergeCell ref="Z84:AC84"/>
-    <mergeCell ref="AP103:AS103"/>
-    <mergeCell ref="AT103:AW103"/>
-    <mergeCell ref="AX103:BA103"/>
-    <mergeCell ref="BB103:BE103"/>
-    <mergeCell ref="B122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:M122"/>
-    <mergeCell ref="N122:Q122"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="F84:I84"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="N84:Q84"/>
-    <mergeCell ref="R84:U84"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="F103:I103"/>
-    <mergeCell ref="J103:M103"/>
-    <mergeCell ref="N103:Q103"/>
-    <mergeCell ref="R122:U122"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="BJ66:BM66"/>
+    <mergeCell ref="BN66:BQ66"/>
+    <mergeCell ref="BR84:BU84"/>
+    <mergeCell ref="BV84:BY84"/>
+    <mergeCell ref="BR47:BU47"/>
+    <mergeCell ref="BV47:BY47"/>
+    <mergeCell ref="BR66:BU66"/>
+    <mergeCell ref="BV66:BY66"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BR28:BU28"/>
+    <mergeCell ref="BV28:BY28"/>
+    <mergeCell ref="CD122:CG122"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ28:CC28"/>
+    <mergeCell ref="BZ84:CC84"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD28:CG28"/>
+    <mergeCell ref="BZ47:CC47"/>
+    <mergeCell ref="BZ66:CC66"/>
+    <mergeCell ref="CD103:CG103"/>
+    <mergeCell ref="CD84:CG84"/>
+    <mergeCell ref="CD47:CG47"/>
+    <mergeCell ref="CD66:CG66"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="100" man="1"/>
-    <brk id="76" max="100" man="1"/>
-    <brk id="94" max="100" man="1"/>
+    <brk id="38" max="101" man="1"/>
+    <brk id="76" max="101" man="1"/>
+    <brk id="94" max="101" man="1"/>
   </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="75" max="131" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-15AFSA_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C15DD25-EE2D-4EC5-A474-CF4FE9F3D336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1A5F91-03F8-4AD9-8B2E-93E420290F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CX$132</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">AFSA!$A$1:$CY$132</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -623,13 +623,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -637,10 +637,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -714,9 +714,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -733,20 +733,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
@@ -760,19 +760,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -23635,17 +23635,17 @@
   <dimension ref="A1:GU132"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CJ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.44140625" style="1" customWidth="1"/>
     <col min="2" max="89" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="22" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="103" width="10.109375" style="22" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:203" x14ac:dyDescent="0.2">
@@ -23660,7 +23660,7 @@
     </row>
     <row r="3" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:203" x14ac:dyDescent="0.2">
@@ -23670,7 +23670,7 @@
     </row>
     <row r="6" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:203" x14ac:dyDescent="0.2">
@@ -23833,6 +23833,7 @@
       <c r="CX9" s="23">
         <v>2025</v>
       </c>
+      <c r="CY9" s="23"/>
     </row>
     <row r="10" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24140,6 +24141,9 @@
       </c>
       <c r="CX10" s="24" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24450,9 +24454,11 @@
         <v>48204.599693784949</v>
       </c>
       <c r="CX12" s="25">
-        <v>50324.229614797216</v>
-      </c>
-      <c r="CY12" s="9"/>
+        <v>50743.051809200879</v>
+      </c>
+      <c r="CY12" s="25">
+        <v>37850.164216513811</v>
+      </c>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
       <c r="DB12" s="9"/>
@@ -24859,9 +24865,11 @@
         <v>115242.51524806008</v>
       </c>
       <c r="CX13" s="25">
-        <v>127199.18062444893</v>
-      </c>
-      <c r="CY13" s="9"/>
+        <v>127432.66614043809</v>
+      </c>
+      <c r="CY13" s="25">
+        <v>99241.739803550096</v>
+      </c>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
       <c r="DB13" s="9"/>
@@ -25065,7 +25073,7 @@
       <c r="CV14" s="26"/>
       <c r="CW14" s="26"/>
       <c r="CX14" s="26"/>
-      <c r="CY14" s="9"/>
+      <c r="CY14" s="26"/>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
       <c r="DB14" s="9"/>
@@ -25472,9 +25480,11 @@
         <v>163447.11494184504</v>
       </c>
       <c r="CX15" s="27">
-        <v>177523.41023924615</v>
-      </c>
-      <c r="CY15" s="9"/>
+        <v>178175.71794963896</v>
+      </c>
+      <c r="CY15" s="27">
+        <v>137091.9040200639</v>
+      </c>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
       <c r="DB15" s="9"/>
@@ -25679,6 +25689,7 @@
       <c r="CV16" s="28"/>
       <c r="CW16" s="28"/>
       <c r="CX16" s="28"/>
+      <c r="CY16" s="28"/>
     </row>
     <row r="17" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
@@ -25787,7 +25798,7 @@
       <c r="CV18" s="26"/>
       <c r="CW18" s="26"/>
       <c r="CX18" s="26"/>
-      <c r="CY18" s="9"/>
+      <c r="CY18" s="26"/>
       <c r="CZ18" s="9"/>
       <c r="DA18" s="9"/>
       <c r="DB18" s="9"/>
@@ -25991,7 +26002,7 @@
       <c r="CV19" s="29"/>
       <c r="CW19" s="29"/>
       <c r="CX19" s="29"/>
-      <c r="CY19" s="9"/>
+      <c r="CY19" s="29"/>
       <c r="CZ19" s="9"/>
       <c r="DA19" s="9"/>
       <c r="DB19" s="9"/>
@@ -26105,7 +26116,7 @@
     </row>
     <row r="22" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:203" x14ac:dyDescent="0.2">
@@ -26115,7 +26126,7 @@
     </row>
     <row r="25" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:203" x14ac:dyDescent="0.2">
@@ -26278,6 +26289,7 @@
       <c r="CX28" s="23">
         <v>2025</v>
       </c>
+      <c r="CY28" s="23"/>
     </row>
     <row r="29" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
@@ -26585,6 +26597,9 @@
       </c>
       <c r="CX29" s="24" t="s">
         <v>7</v>
+      </c>
+      <c r="CY29" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -26895,9 +26910,11 @@
         <v>40724.151013428396</v>
       </c>
       <c r="CX31" s="25">
-        <v>40874.266877790047</v>
-      </c>
-      <c r="CY31" s="9"/>
+        <v>41214.441983885736</v>
+      </c>
+      <c r="CY31" s="25">
+        <v>31172.877287590076</v>
+      </c>
       <c r="CZ31" s="9"/>
       <c r="DA31" s="9"/>
       <c r="DB31" s="9"/>
@@ -27304,9 +27321,11 @@
         <v>85380.228177188546</v>
       </c>
       <c r="CX32" s="25">
-        <v>87616.710183971212</v>
-      </c>
-      <c r="CY32" s="9"/>
+        <v>87779.412343530683</v>
+      </c>
+      <c r="CY32" s="25">
+        <v>71196.512955885555</v>
+      </c>
       <c r="CZ32" s="9"/>
       <c r="DA32" s="9"/>
       <c r="DB32" s="9"/>
@@ -27510,7 +27529,7 @@
       <c r="CV33" s="26"/>
       <c r="CW33" s="26"/>
       <c r="CX33" s="26"/>
-      <c r="CY33" s="9"/>
+      <c r="CY33" s="26"/>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
       <c r="DB33" s="9"/>
@@ -27917,9 +27936,11 @@
         <v>126104.37919061695</v>
       </c>
       <c r="CX34" s="27">
-        <v>128490.97706176125</v>
-      </c>
-      <c r="CY34" s="9"/>
+        <v>128993.85432741643</v>
+      </c>
+      <c r="CY34" s="27">
+        <v>102369.39024347563</v>
+      </c>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
       <c r="DB34" s="9"/>
@@ -28124,6 +28145,7 @@
       <c r="CV35" s="28"/>
       <c r="CW35" s="28"/>
       <c r="CX35" s="28"/>
+      <c r="CY35" s="28"/>
     </row>
     <row r="36" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
@@ -28232,7 +28254,7 @@
       <c r="CV37" s="26"/>
       <c r="CW37" s="26"/>
       <c r="CX37" s="26"/>
-      <c r="CY37" s="9"/>
+      <c r="CY37" s="26"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
       <c r="DB37" s="9"/>
@@ -28436,7 +28458,7 @@
       <c r="CV38" s="26"/>
       <c r="CW38" s="26"/>
       <c r="CX38" s="26"/>
-      <c r="CY38" s="9"/>
+      <c r="CY38" s="26"/>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
       <c r="DB38" s="9"/>
@@ -28550,7 +28572,7 @@
     </row>
     <row r="41" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:203" x14ac:dyDescent="0.2">
@@ -28560,23 +28582,23 @@
     </row>
     <row r="44" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="CU45" s="32"/>
       <c r="CV45" s="32"/>
       <c r="CW45" s="32"/>
       <c r="CX45" s="32"/>
+      <c r="CY45" s="32"/>
     </row>
     <row r="46" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CU46" s="32"/>
       <c r="CV46" s="32"/>
       <c r="CW46" s="32"/>
       <c r="CX46" s="32"/>
+      <c r="CY46" s="32"/>
     </row>
     <row r="47" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
@@ -28727,10 +28749,11 @@
       <c r="CT47" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CU47" s="21"/>
+      <c r="CU47" s="23"/>
       <c r="CV47" s="21"/>
       <c r="CW47" s="21"/>
       <c r="CX47" s="21"/>
+      <c r="CY47" s="21"/>
     </row>
     <row r="48" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
@@ -29027,17 +29050,20 @@
       <c r="CT48" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CU48" s="30"/>
+      <c r="CU48" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="CV48" s="30"/>
       <c r="CW48" s="30"/>
       <c r="CX48" s="30"/>
+      <c r="CY48" s="30"/>
     </row>
     <row r="49" spans="1:199" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
-      <c r="CU49" s="32"/>
       <c r="CV49" s="32"/>
       <c r="CW49" s="32"/>
       <c r="CX49" s="32"/>
+      <c r="CY49" s="32"/>
     </row>
     <row r="50" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -29332,13 +29358,15 @@
         <v>11.989564438331456</v>
       </c>
       <c r="CT50" s="31">
-        <v>8.7339640004132804</v>
-      </c>
-      <c r="CU50" s="33"/>
+        <v>9.6388998088190192</v>
+      </c>
+      <c r="CU50" s="31">
+        <v>6.6930802903493003</v>
+      </c>
       <c r="CV50" s="33"/>
       <c r="CW50" s="33"/>
       <c r="CX50" s="33"/>
-      <c r="CY50" s="9"/>
+      <c r="CY50" s="33"/>
       <c r="CZ50" s="9"/>
       <c r="DA50" s="9"/>
       <c r="DB50" s="9"/>
@@ -29729,13 +29757,15 @@
         <v>8.7850853524816159</v>
       </c>
       <c r="CT51" s="31">
-        <v>7.861404058580618</v>
-      </c>
-      <c r="CU51" s="33"/>
+        <v>8.059393349535938</v>
+      </c>
+      <c r="CU51" s="31">
+        <v>10.679110172644187</v>
+      </c>
       <c r="CV51" s="33"/>
       <c r="CW51" s="33"/>
       <c r="CX51" s="33"/>
-      <c r="CY51" s="9"/>
+      <c r="CY51" s="33"/>
       <c r="CZ51" s="9"/>
       <c r="DA51" s="9"/>
       <c r="DB51" s="9"/>
@@ -29932,11 +29962,11 @@
       <c r="CR52" s="26"/>
       <c r="CS52" s="26"/>
       <c r="CT52" s="26"/>
-      <c r="CU52" s="34"/>
+      <c r="CU52" s="26"/>
       <c r="CV52" s="34"/>
       <c r="CW52" s="34"/>
       <c r="CX52" s="34"/>
-      <c r="CY52" s="9"/>
+      <c r="CY52" s="34"/>
       <c r="CZ52" s="9"/>
       <c r="DA52" s="9"/>
       <c r="DB52" s="9"/>
@@ -30327,13 +30357,15 @@
         <v>9.7109362002686339</v>
       </c>
       <c r="CT53" s="31">
-        <v>8.1073313350028968</v>
-      </c>
-      <c r="CU53" s="33"/>
+        <v>8.5045704691811892</v>
+      </c>
+      <c r="CU53" s="31">
+        <v>9.549134207713081</v>
+      </c>
       <c r="CV53" s="33"/>
       <c r="CW53" s="33"/>
       <c r="CX53" s="33"/>
-      <c r="CY53" s="9"/>
+      <c r="CY53" s="33"/>
       <c r="CZ53" s="9"/>
       <c r="DA53" s="9"/>
       <c r="DB53" s="9"/>
@@ -30530,19 +30562,20 @@
       <c r="CR54" s="28"/>
       <c r="CS54" s="28"/>
       <c r="CT54" s="28"/>
-      <c r="CU54" s="24"/>
+      <c r="CU54" s="28"/>
       <c r="CV54" s="24"/>
       <c r="CW54" s="24"/>
       <c r="CX54" s="24"/>
+      <c r="CY54" s="24"/>
     </row>
     <row r="55" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU55" s="32"/>
       <c r="CV55" s="32"/>
       <c r="CW55" s="32"/>
       <c r="CX55" s="32"/>
+      <c r="CY55" s="32"/>
     </row>
     <row r="56" spans="1:199" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9"/>
@@ -30642,11 +30675,11 @@
       <c r="CR56" s="26"/>
       <c r="CS56" s="26"/>
       <c r="CT56" s="26"/>
-      <c r="CU56" s="34"/>
+      <c r="CU56" s="26"/>
       <c r="CV56" s="34"/>
       <c r="CW56" s="34"/>
       <c r="CX56" s="34"/>
-      <c r="CY56" s="9"/>
+      <c r="CY56" s="34"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
       <c r="DB56" s="9"/>
@@ -30842,11 +30875,11 @@
       <c r="CR57" s="26"/>
       <c r="CS57" s="26"/>
       <c r="CT57" s="26"/>
-      <c r="CU57" s="34"/>
+      <c r="CU57" s="26"/>
       <c r="CV57" s="34"/>
       <c r="CW57" s="34"/>
       <c r="CX57" s="34"/>
-      <c r="CY57" s="9"/>
+      <c r="CY57" s="34"/>
       <c r="CZ57" s="9"/>
       <c r="DA57" s="9"/>
       <c r="DB57" s="9"/>
@@ -30948,67 +30981,67 @@
       <c r="A58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU58" s="32"/>
       <c r="CV58" s="32"/>
       <c r="CW58" s="32"/>
       <c r="CX58" s="32"/>
+      <c r="CY58" s="32"/>
     </row>
     <row r="59" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CU59" s="32"/>
       <c r="CV59" s="32"/>
       <c r="CW59" s="32"/>
       <c r="CX59" s="32"/>
+      <c r="CY59" s="32"/>
     </row>
     <row r="60" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CU60" s="32"/>
+        <v>51</v>
+      </c>
       <c r="CV60" s="32"/>
       <c r="CW60" s="32"/>
       <c r="CX60" s="32"/>
+      <c r="CY60" s="32"/>
     </row>
     <row r="61" spans="1:199" x14ac:dyDescent="0.2">
-      <c r="CU61" s="32"/>
       <c r="CV61" s="32"/>
       <c r="CW61" s="32"/>
       <c r="CX61" s="32"/>
+      <c r="CY61" s="32"/>
     </row>
     <row r="62" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="CU62" s="32"/>
       <c r="CV62" s="32"/>
       <c r="CW62" s="32"/>
       <c r="CX62" s="32"/>
+      <c r="CY62" s="32"/>
     </row>
     <row r="63" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CU63" s="32"/>
+        <v>53</v>
+      </c>
       <c r="CV63" s="32"/>
       <c r="CW63" s="32"/>
       <c r="CX63" s="32"/>
+      <c r="CY63" s="32"/>
     </row>
     <row r="64" spans="1:199" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="CU64" s="32"/>
       <c r="CV64" s="32"/>
       <c r="CW64" s="32"/>
       <c r="CX64" s="32"/>
+      <c r="CY64" s="32"/>
     </row>
     <row r="65" spans="1:203" x14ac:dyDescent="0.2">
-      <c r="CU65" s="32"/>
       <c r="CV65" s="32"/>
       <c r="CW65" s="32"/>
       <c r="CX65" s="32"/>
+      <c r="CY65" s="32"/>
     </row>
     <row r="66" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
@@ -31159,10 +31192,11 @@
       <c r="CT66" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="CU66" s="21"/>
+      <c r="CU66" s="23"/>
       <c r="CV66" s="21"/>
       <c r="CW66" s="21"/>
       <c r="CX66" s="21"/>
+      <c r="CY66" s="21"/>
     </row>
     <row r="67" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -31459,17 +31493,20 @@
       <c r="CT67" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="CU67" s="30"/>
+      <c r="CU67" s="30" t="s">
+        <v>8</v>
+      </c>
       <c r="CV67" s="30"/>
       <c r="CW67" s="30"/>
       <c r="CX67" s="30"/>
+      <c r="CY67" s="30"/>
     </row>
     <row r="68" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
-      <c r="CU68" s="32"/>
       <c r="CV68" s="32"/>
       <c r="CW68" s="32"/>
       <c r="CX68" s="32"/>
+      <c r="CY68" s="32"/>
     </row>
     <row r="69" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
@@ -31764,13 +31801,15 @@
         <v>9.8694724290537863</v>
       </c>
       <c r="CT69" s="31">
-        <v>7.4827395377402581</v>
-      </c>
-      <c r="CU69" s="33"/>
+        <v>8.3772620605545569</v>
+      </c>
+      <c r="CU69" s="31">
+        <v>5.283801634948702</v>
+      </c>
       <c r="CV69" s="33"/>
       <c r="CW69" s="33"/>
       <c r="CX69" s="33"/>
-      <c r="CY69" s="9"/>
+      <c r="CY69" s="33"/>
       <c r="CZ69" s="9"/>
       <c r="DA69" s="9"/>
       <c r="DB69" s="9"/>
@@ -32161,13 +32200,15 @@
         <v>4.7477007414617134</v>
       </c>
       <c r="CT70" s="31">
-        <v>4.8828738519003139</v>
-      </c>
-      <c r="CU70" s="33"/>
+        <v>5.0776388692203938</v>
+      </c>
+      <c r="CU70" s="31">
+        <v>8.3445825629035113</v>
+      </c>
       <c r="CV70" s="33"/>
       <c r="CW70" s="33"/>
       <c r="CX70" s="33"/>
-      <c r="CY70" s="9"/>
+      <c r="CY70" s="33"/>
       <c r="CZ70" s="9"/>
       <c r="DA70" s="9"/>
       <c r="DB70" s="9"/>
@@ -32363,11 +32404,11 @@
       <c r="CR71" s="26"/>
       <c r="CS71" s="26"/>
       <c r="CT71" s="26"/>
-      <c r="CU71" s="34"/>
+      <c r="CU71" s="26"/>
       <c r="CV71" s="34"/>
       <c r="CW71" s="34"/>
       <c r="CX71" s="34"/>
-      <c r="CY71" s="9"/>
+      <c r="CY71" s="34"/>
       <c r="CZ71" s="9"/>
       <c r="DA71" s="9"/>
       <c r="DB71" s="9"/>
@@ -32758,13 +32799,15 @@
         <v>6.348722836485976</v>
       </c>
       <c r="CT72" s="31">
-        <v>5.6961701218000087</v>
-      </c>
-      <c r="CU72" s="33"/>
+        <v>6.1098349738893916</v>
+      </c>
+      <c r="CU72" s="31">
+        <v>7.3938532446192369</v>
+      </c>
       <c r="CV72" s="33"/>
       <c r="CW72" s="33"/>
       <c r="CX72" s="33"/>
-      <c r="CY72" s="9"/>
+      <c r="CY72" s="33"/>
       <c r="CZ72" s="9"/>
       <c r="DA72" s="9"/>
       <c r="DB72" s="9"/>
@@ -32961,19 +33004,20 @@
       <c r="CR73" s="28"/>
       <c r="CS73" s="28"/>
       <c r="CT73" s="28"/>
-      <c r="CU73" s="24"/>
+      <c r="CU73" s="28"/>
       <c r="CV73" s="24"/>
       <c r="CW73" s="24"/>
       <c r="CX73" s="24"/>
+      <c r="CY73" s="24"/>
     </row>
     <row r="74" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="CU74" s="32"/>
       <c r="CV74" s="32"/>
       <c r="CW74" s="32"/>
       <c r="CX74" s="32"/>
+      <c r="CY74" s="32"/>
     </row>
     <row r="75" spans="1:203" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9"/>
@@ -33073,11 +33117,11 @@
       <c r="CR75" s="26"/>
       <c r="CS75" s="26"/>
       <c r="CT75" s="26"/>
-      <c r="CU75" s="34"/>
+      <c r="CU75" s="26"/>
       <c r="CV75" s="34"/>
       <c r="CW75" s="34"/>
       <c r="CX75" s="34"/>
-      <c r="CY75" s="9"/>
+      <c r="CY75" s="34"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
       <c r="DB75" s="9"/>
@@ -33281,7 +33325,7 @@
       <c r="CV76" s="26"/>
       <c r="CW76" s="26"/>
       <c r="CX76" s="26"/>
-      <c r="CY76" s="9"/>
+      <c r="CY76" s="26"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
       <c r="DB76" s="9"/>
@@ -33390,7 +33434,7 @@
     </row>
     <row r="78" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:203" x14ac:dyDescent="0.2">
@@ -33400,7 +33444,7 @@
     </row>
     <row r="81" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:203" x14ac:dyDescent="0.2">
@@ -33563,6 +33607,7 @@
       <c r="CX84" s="23">
         <v>2025</v>
       </c>
+      <c r="CY84" s="23"/>
     </row>
     <row r="85" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
@@ -33870,6 +33915,9 @@
       </c>
       <c r="CX85" s="24" t="s">
         <v>7</v>
+      </c>
+      <c r="CY85" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34180,9 +34228,11 @@
         <v>118.36858103656955</v>
       </c>
       <c r="CX87" s="31">
-        <v>123.11958955805031</v>
-      </c>
-      <c r="CY87" s="9"/>
+        <v>123.11958955805029</v>
+      </c>
+      <c r="CY87" s="31">
+        <v>121.4201816127572</v>
+      </c>
       <c r="CZ87" s="9"/>
       <c r="DA87" s="9"/>
       <c r="DB87" s="9"/>
@@ -34589,9 +34639,11 @@
         <v>134.975646831136</v>
       </c>
       <c r="CX88" s="31">
-        <v>145.17685080547454</v>
-      </c>
-      <c r="CY88" s="9"/>
+        <v>145.17375172406227</v>
+      </c>
+      <c r="CY88" s="31">
+        <v>139.39129275199446</v>
+      </c>
       <c r="CZ88" s="9"/>
       <c r="DA88" s="9"/>
       <c r="DB88" s="9"/>
@@ -34795,7 +34847,7 @@
       <c r="CV89" s="26"/>
       <c r="CW89" s="26"/>
       <c r="CX89" s="26"/>
-      <c r="CY89" s="9"/>
+      <c r="CY89" s="26"/>
       <c r="CZ89" s="9"/>
       <c r="DA89" s="9"/>
       <c r="DB89" s="9"/>
@@ -35202,9 +35254,11 @@
         <v>129.61256063501295</v>
       </c>
       <c r="CX90" s="31">
-        <v>138.16021505846024</v>
-      </c>
-      <c r="CY90" s="9"/>
+        <v>138.12729209361208</v>
+      </c>
+      <c r="CY90" s="31">
+        <v>133.91884399624161</v>
+      </c>
       <c r="CZ90" s="9"/>
       <c r="DA90" s="9"/>
       <c r="DB90" s="9"/>
@@ -35409,6 +35463,7 @@
       <c r="CV91" s="28"/>
       <c r="CW91" s="28"/>
       <c r="CX91" s="28"/>
+      <c r="CY91" s="28"/>
     </row>
     <row r="92" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
@@ -35427,7 +35482,7 @@
     </row>
     <row r="97" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:203" x14ac:dyDescent="0.2">
@@ -35437,7 +35492,7 @@
     </row>
     <row r="100" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:203" x14ac:dyDescent="0.2">
@@ -35600,6 +35655,7 @@
       <c r="CX103" s="23">
         <v>2025</v>
       </c>
+      <c r="CY103" s="23"/>
     </row>
     <row r="104" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -35907,6 +35963,9 @@
       </c>
       <c r="CX104" s="24" t="s">
         <v>7</v>
+      </c>
+      <c r="CY104" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -36217,9 +36276,11 @@
         <v>29.492475110947225</v>
       </c>
       <c r="CX106" s="31">
-        <v>28.347939884083939</v>
-      </c>
-      <c r="CY106" s="9"/>
+        <v>28.479218376739368</v>
+      </c>
+      <c r="CY106" s="31">
+        <v>27.609335859084936</v>
+      </c>
       <c r="CZ106" s="9"/>
       <c r="DA106" s="9"/>
       <c r="DB106" s="9"/>
@@ -36626,9 +36687,11 @@
         <v>70.507524889052775</v>
       </c>
       <c r="CX107" s="31">
-        <v>71.652060115916044</v>
-      </c>
-      <c r="CY107" s="9"/>
+        <v>71.520781623260646</v>
+      </c>
+      <c r="CY107" s="31">
+        <v>72.390664140915064</v>
+      </c>
       <c r="CZ107" s="9"/>
       <c r="DA107" s="9"/>
       <c r="DB107" s="9"/>
@@ -36832,7 +36895,7 @@
       <c r="CV108" s="26"/>
       <c r="CW108" s="26"/>
       <c r="CX108" s="26"/>
-      <c r="CY108" s="9"/>
+      <c r="CY108" s="26"/>
       <c r="CZ108" s="9"/>
       <c r="DA108" s="9"/>
       <c r="DB108" s="9"/>
@@ -37241,7 +37304,9 @@
       <c r="CX109" s="31">
         <v>100</v>
       </c>
-      <c r="CY109" s="9"/>
+      <c r="CY109" s="31">
+        <v>100</v>
+      </c>
       <c r="CZ109" s="9"/>
       <c r="DA109" s="9"/>
       <c r="DB109" s="9"/>
@@ -37446,6 +37511,7 @@
       <c r="CV110" s="28"/>
       <c r="CW110" s="28"/>
       <c r="CX110" s="28"/>
+      <c r="CY110" s="28"/>
     </row>
     <row r="111" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A111" s="13" t="s">
@@ -37554,7 +37620,7 @@
       <c r="CV112" s="26"/>
       <c r="CW112" s="26"/>
       <c r="CX112" s="26"/>
-      <c r="CY112" s="9"/>
+      <c r="CY112" s="26"/>
       <c r="CZ112" s="9"/>
       <c r="DA112" s="9"/>
       <c r="DB112" s="9"/>
@@ -37758,7 +37824,7 @@
       <c r="CV113" s="26"/>
       <c r="CW113" s="26"/>
       <c r="CX113" s="26"/>
-      <c r="CY113" s="9"/>
+      <c r="CY113" s="26"/>
       <c r="CZ113" s="9"/>
       <c r="DA113" s="9"/>
       <c r="DB113" s="9"/>
@@ -37872,7 +37938,7 @@
     </row>
     <row r="116" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="118" spans="1:203" x14ac:dyDescent="0.2">
@@ -37882,7 +37948,7 @@
     </row>
     <row r="119" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:203" x14ac:dyDescent="0.2">
@@ -38045,6 +38111,7 @@
       <c r="CX122" s="23">
         <v>2025</v>
       </c>
+      <c r="CY122" s="23"/>
     </row>
     <row r="123" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
@@ -38352,6 +38419,9 @@
       </c>
       <c r="CX123" s="24" t="s">
         <v>7</v>
+      </c>
+      <c r="CY123" s="24" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:203" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38662,9 +38732,11 @@
         <v>32.294002218488032</v>
       </c>
       <c r="CX125" s="31">
-        <v>31.811001684688861</v>
-      </c>
-      <c r="CY125" s="9"/>
+        <v>31.950701991797136</v>
+      </c>
+      <c r="CY125" s="31">
+        <v>30.451365602010931</v>
+      </c>
       <c r="CZ125" s="9"/>
       <c r="DA125" s="9"/>
       <c r="DB125" s="9"/>
@@ -39071,9 +39143,11 @@
         <v>67.705997781511968</v>
       </c>
       <c r="CX126" s="31">
-        <v>68.188998315311139</v>
-      </c>
-      <c r="CY126" s="9"/>
+        <v>68.049298008202868</v>
+      </c>
+      <c r="CY126" s="31">
+        <v>69.548634397989062</v>
+      </c>
       <c r="CZ126" s="9"/>
       <c r="DA126" s="9"/>
       <c r="DB126" s="9"/>
@@ -39277,7 +39351,7 @@
       <c r="CV127" s="26"/>
       <c r="CW127" s="26"/>
       <c r="CX127" s="26"/>
-      <c r="CY127" s="9"/>
+      <c r="CY127" s="26"/>
       <c r="CZ127" s="9"/>
       <c r="DA127" s="9"/>
       <c r="DB127" s="9"/>
@@ -39686,7 +39760,9 @@
       <c r="CX128" s="31">
         <v>100</v>
       </c>
-      <c r="CY128" s="9"/>
+      <c r="CY128" s="31">
+        <v>100</v>
+      </c>
       <c r="CZ128" s="9"/>
       <c r="DA128" s="9"/>
       <c r="DB128" s="9"/>
@@ -39891,6 +39967,7 @@
       <c r="CV129" s="28"/>
       <c r="CW129" s="28"/>
       <c r="CX129" s="28"/>
+      <c r="CY129" s="28"/>
     </row>
     <row r="130" spans="1:203" x14ac:dyDescent="0.2">
       <c r="A130" s="13" t="s">
@@ -40000,7 +40077,7 @@
       <c r="CV131" s="22"/>
       <c r="CW131" s="22"/>
       <c r="CX131" s="22"/>
-      <c r="CY131" s="16"/>
+      <c r="CY131" s="22"/>
       <c r="CZ131" s="16"/>
       <c r="DA131" s="16"/>
       <c r="DB131" s="16"/>
@@ -40205,7 +40282,7 @@
       <c r="CV132" s="22"/>
       <c r="CW132" s="22"/>
       <c r="CX132" s="22"/>
-      <c r="CY132" s="16"/>
+      <c r="CY132" s="22"/>
       <c r="CZ132" s="16"/>
       <c r="DA132" s="16"/>
       <c r="DB132" s="16"/>
@@ -40462,9 +40539,9 @@
   <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="38" max="101" man="1"/>
-    <brk id="76" max="101" man="1"/>
-    <brk id="94" max="101" man="1"/>
+    <brk id="38" max="102" man="1"/>
+    <brk id="76" max="102" man="1"/>
+    <brk id="94" max="102" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="75" max="131" man="1"/>
